--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 17 October 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFF450-4AE8-4A4E-9EEE-BDCF89964DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACB74C-45D9-4652-A0A0-B25B8A66203D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Payroll jobs index-SA4'!$A$6:$Z$94</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="459">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1414,13 +1414,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 4 November 2020</t>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Week ending Saturday 17 October 2020</t>
+    <t>Week ending Saturday 31 October 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+    <t>Released at 11.30am (Canberra time) 17 November 2020</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="5" spans="1:78" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
@@ -2945,8 +2945,12 @@
       <c r="AR6" s="9">
         <v>44121</v>
       </c>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
+      <c r="AS6" s="9">
+        <v>44128</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>44135</v>
+      </c>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
@@ -3113,8 +3117,12 @@
       <c r="AR7" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
+      <c r="AS7" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT7" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU7" s="33"/>
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
@@ -3281,8 +3289,12 @@
       <c r="AR8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
+      <c r="AS8" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT8" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU8" s="33"/>
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
@@ -3449,8 +3461,12 @@
       <c r="AR9" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
+      <c r="AS9" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT9" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU9" s="33"/>
       <c r="AV9" s="33"/>
       <c r="AW9" s="33"/>
@@ -3617,8 +3633,12 @@
       <c r="AR10" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
+      <c r="AS10" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT10" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU10" s="33"/>
       <c r="AV10" s="33"/>
       <c r="AW10" s="33"/>
@@ -3785,8 +3805,12 @@
       <c r="AR11" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
+      <c r="AS11" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT11" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU11" s="33"/>
       <c r="AV11" s="33"/>
       <c r="AW11" s="33"/>
@@ -3953,8 +3977,12 @@
       <c r="AR12" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
+      <c r="AS12" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT12" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU12" s="33"/>
       <c r="AV12" s="33"/>
       <c r="AW12" s="33"/>
@@ -4121,8 +4149,12 @@
       <c r="AR13" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
+      <c r="AS13" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT13" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU13" s="33"/>
       <c r="AV13" s="33"/>
       <c r="AW13" s="33"/>
@@ -4289,8 +4321,12 @@
       <c r="AR14" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
+      <c r="AS14" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT14" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU14" s="33"/>
       <c r="AV14" s="33"/>
       <c r="AW14" s="33"/>
@@ -4457,8 +4493,12 @@
       <c r="AR15" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
+      <c r="AS15" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU15" s="33"/>
       <c r="AV15" s="33"/>
       <c r="AW15" s="33"/>
@@ -4625,8 +4665,12 @@
       <c r="AR16" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
+      <c r="AS16" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT16" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU16" s="33"/>
       <c r="AV16" s="33"/>
       <c r="AW16" s="33"/>
@@ -4793,8 +4837,12 @@
       <c r="AR17" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
+      <c r="AS17" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT17" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU17" s="33"/>
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
@@ -4961,8 +5009,12 @@
       <c r="AR18" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
+      <c r="AS18" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT18" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU18" s="33"/>
       <c r="AV18" s="33"/>
       <c r="AW18" s="33"/>
@@ -5129,8 +5181,12 @@
       <c r="AR19" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
+      <c r="AS19" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT19" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU19" s="33"/>
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
@@ -5297,8 +5353,12 @@
       <c r="AR20" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
+      <c r="AS20" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT20" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU20" s="33"/>
       <c r="AV20" s="33"/>
       <c r="AW20" s="33"/>
@@ -5465,8 +5525,12 @@
       <c r="AR21" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
+      <c r="AS21" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT21" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU21" s="33"/>
       <c r="AV21" s="33"/>
       <c r="AW21" s="33"/>
@@ -5633,8 +5697,12 @@
       <c r="AR22" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
+      <c r="AS22" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT22" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU22" s="33"/>
       <c r="AV22" s="33"/>
       <c r="AW22" s="33"/>
@@ -5801,8 +5869,12 @@
       <c r="AR23" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
+      <c r="AS23" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT23" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU23" s="33"/>
       <c r="AV23" s="33"/>
       <c r="AW23" s="33"/>
@@ -5969,8 +6041,12 @@
       <c r="AR24" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
+      <c r="AS24" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT24" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU24" s="33"/>
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
@@ -6137,8 +6213,12 @@
       <c r="AR25" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
+      <c r="AS25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT25" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU25" s="33"/>
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
@@ -6305,8 +6385,12 @@
       <c r="AR26" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
+      <c r="AS26" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT26" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU26" s="33"/>
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
@@ -6473,8 +6557,12 @@
       <c r="AR27" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
+      <c r="AS27" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT27" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU27" s="33"/>
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
@@ -6641,8 +6729,12 @@
       <c r="AR28" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
+      <c r="AS28" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT28" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU28" s="33"/>
       <c r="AV28" s="33"/>
       <c r="AW28" s="33"/>
@@ -6809,8 +6901,12 @@
       <c r="AR29" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
+      <c r="AS29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT29" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU29" s="33"/>
       <c r="AV29" s="33"/>
       <c r="AW29" s="33"/>
@@ -6977,8 +7073,12 @@
       <c r="AR30" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
+      <c r="AS30" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT30" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU30" s="33"/>
       <c r="AV30" s="33"/>
       <c r="AW30" s="33"/>
@@ -7145,8 +7245,12 @@
       <c r="AR31" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
+      <c r="AS31" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT31" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU31" s="33"/>
       <c r="AV31" s="33"/>
       <c r="AW31" s="33"/>
@@ -7313,8 +7417,12 @@
       <c r="AR32" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
+      <c r="AS32" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT32" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU32" s="33"/>
       <c r="AV32" s="33"/>
       <c r="AW32" s="33"/>
@@ -7481,8 +7589,12 @@
       <c r="AR33" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
+      <c r="AS33" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT33" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU33" s="33"/>
       <c r="AV33" s="33"/>
       <c r="AW33" s="33"/>
@@ -7649,8 +7761,12 @@
       <c r="AR34" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
+      <c r="AS34" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT34" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU34" s="33"/>
       <c r="AV34" s="33"/>
       <c r="AW34" s="33"/>
@@ -7817,8 +7933,12 @@
       <c r="AR35" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
+      <c r="AS35" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT35" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU35" s="33"/>
       <c r="AV35" s="33"/>
       <c r="AW35" s="33"/>
@@ -7985,8 +8105,12 @@
       <c r="AR36" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
+      <c r="AS36" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT36" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU36" s="33"/>
       <c r="AV36" s="33"/>
       <c r="AW36" s="33"/>
@@ -8153,8 +8277,12 @@
       <c r="AR37" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
+      <c r="AS37" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT37" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU37" s="33"/>
       <c r="AV37" s="33"/>
       <c r="AW37" s="33"/>
@@ -8321,8 +8449,12 @@
       <c r="AR38" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
+      <c r="AS38" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT38" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU38" s="33"/>
       <c r="AV38" s="33"/>
       <c r="AW38" s="33"/>
@@ -8489,8 +8621,12 @@
       <c r="AR39" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="33"/>
+      <c r="AS39" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT39" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU39" s="33"/>
       <c r="AV39" s="33"/>
       <c r="AW39" s="33"/>
@@ -8657,8 +8793,12 @@
       <c r="AR40" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="33"/>
+      <c r="AS40" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT40" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU40" s="33"/>
       <c r="AV40" s="33"/>
       <c r="AW40" s="33"/>
@@ -8825,8 +8965,12 @@
       <c r="AR41" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS41" s="33"/>
-      <c r="AT41" s="33"/>
+      <c r="AS41" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT41" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU41" s="33"/>
       <c r="AV41" s="33"/>
       <c r="AW41" s="33"/>
@@ -8993,8 +9137,12 @@
       <c r="AR42" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
+      <c r="AS42" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT42" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU42" s="33"/>
       <c r="AV42" s="33"/>
       <c r="AW42" s="33"/>
@@ -9161,8 +9309,12 @@
       <c r="AR43" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS43" s="33"/>
-      <c r="AT43" s="33"/>
+      <c r="AS43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT43" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU43" s="33"/>
       <c r="AV43" s="33"/>
       <c r="AW43" s="33"/>
@@ -9329,8 +9481,12 @@
       <c r="AR44" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
+      <c r="AS44" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT44" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU44" s="33"/>
       <c r="AV44" s="33"/>
       <c r="AW44" s="33"/>
@@ -9497,8 +9653,12 @@
       <c r="AR45" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS45" s="33"/>
-      <c r="AT45" s="33"/>
+      <c r="AS45" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT45" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU45" s="33"/>
       <c r="AV45" s="33"/>
       <c r="AW45" s="33"/>
@@ -9665,8 +9825,12 @@
       <c r="AR46" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
+      <c r="AS46" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT46" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU46" s="33"/>
       <c r="AV46" s="33"/>
       <c r="AW46" s="33"/>
@@ -9833,8 +9997,12 @@
       <c r="AR47" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33"/>
+      <c r="AS47" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT47" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU47" s="33"/>
       <c r="AV47" s="33"/>
       <c r="AW47" s="33"/>
@@ -10001,8 +10169,12 @@
       <c r="AR48" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS48" s="33"/>
-      <c r="AT48" s="33"/>
+      <c r="AS48" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT48" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU48" s="33"/>
       <c r="AV48" s="33"/>
       <c r="AW48" s="33"/>
@@ -10169,8 +10341,12 @@
       <c r="AR49" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS49" s="33"/>
-      <c r="AT49" s="33"/>
+      <c r="AS49" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT49" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU49" s="33"/>
       <c r="AV49" s="33"/>
       <c r="AW49" s="33"/>
@@ -10337,8 +10513,12 @@
       <c r="AR50" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS50" s="33"/>
-      <c r="AT50" s="33"/>
+      <c r="AS50" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT50" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU50" s="33"/>
       <c r="AV50" s="33"/>
       <c r="AW50" s="33"/>
@@ -10505,8 +10685,12 @@
       <c r="AR51" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS51" s="33"/>
-      <c r="AT51" s="33"/>
+      <c r="AS51" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT51" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU51" s="33"/>
       <c r="AV51" s="33"/>
       <c r="AW51" s="33"/>
@@ -10673,8 +10857,12 @@
       <c r="AR52" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS52" s="33"/>
-      <c r="AT52" s="33"/>
+      <c r="AS52" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT52" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU52" s="33"/>
       <c r="AV52" s="33"/>
       <c r="AW52" s="33"/>
@@ -10841,8 +11029,12 @@
       <c r="AR53" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS53" s="33"/>
-      <c r="AT53" s="33"/>
+      <c r="AS53" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT53" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU53" s="33"/>
       <c r="AV53" s="33"/>
       <c r="AW53" s="33"/>
@@ -11009,8 +11201,12 @@
       <c r="AR54" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS54" s="33"/>
-      <c r="AT54" s="33"/>
+      <c r="AS54" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT54" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU54" s="33"/>
       <c r="AV54" s="33"/>
       <c r="AW54" s="33"/>
@@ -11177,8 +11373,12 @@
       <c r="AR55" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS55" s="33"/>
-      <c r="AT55" s="33"/>
+      <c r="AS55" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT55" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU55" s="33"/>
       <c r="AV55" s="33"/>
       <c r="AW55" s="33"/>
@@ -11345,8 +11545,12 @@
       <c r="AR56" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS56" s="33"/>
-      <c r="AT56" s="33"/>
+      <c r="AS56" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT56" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU56" s="33"/>
       <c r="AV56" s="33"/>
       <c r="AW56" s="33"/>
@@ -11513,8 +11717,12 @@
       <c r="AR57" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="33"/>
+      <c r="AS57" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT57" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU57" s="33"/>
       <c r="AV57" s="33"/>
       <c r="AW57" s="33"/>
@@ -11681,8 +11889,12 @@
       <c r="AR58" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS58" s="33"/>
-      <c r="AT58" s="33"/>
+      <c r="AS58" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT58" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU58" s="33"/>
       <c r="AV58" s="33"/>
       <c r="AW58" s="33"/>
@@ -11849,8 +12061,12 @@
       <c r="AR59" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS59" s="33"/>
-      <c r="AT59" s="33"/>
+      <c r="AS59" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT59" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU59" s="33"/>
       <c r="AV59" s="33"/>
       <c r="AW59" s="33"/>
@@ -12017,8 +12233,12 @@
       <c r="AR60" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS60" s="33"/>
-      <c r="AT60" s="33"/>
+      <c r="AS60" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT60" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU60" s="33"/>
       <c r="AV60" s="33"/>
       <c r="AW60" s="33"/>
@@ -12185,8 +12405,12 @@
       <c r="AR61" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS61" s="33"/>
-      <c r="AT61" s="33"/>
+      <c r="AS61" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT61" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU61" s="33"/>
       <c r="AV61" s="33"/>
       <c r="AW61" s="33"/>
@@ -12353,8 +12577,12 @@
       <c r="AR62" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="33"/>
+      <c r="AS62" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT62" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU62" s="33"/>
       <c r="AV62" s="33"/>
       <c r="AW62" s="33"/>
@@ -12521,8 +12749,12 @@
       <c r="AR63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="33"/>
+      <c r="AS63" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT63" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU63" s="33"/>
       <c r="AV63" s="33"/>
       <c r="AW63" s="33"/>
@@ -12689,8 +12921,12 @@
       <c r="AR64" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS64" s="33"/>
-      <c r="AT64" s="33"/>
+      <c r="AS64" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT64" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU64" s="33"/>
       <c r="AV64" s="33"/>
       <c r="AW64" s="33"/>
@@ -12857,8 +13093,12 @@
       <c r="AR65" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS65" s="33"/>
-      <c r="AT65" s="33"/>
+      <c r="AS65" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT65" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU65" s="33"/>
       <c r="AV65" s="33"/>
       <c r="AW65" s="33"/>
@@ -13025,8 +13265,12 @@
       <c r="AR66" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="33"/>
+      <c r="AS66" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT66" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU66" s="33"/>
       <c r="AV66" s="33"/>
       <c r="AW66" s="33"/>
@@ -13193,8 +13437,12 @@
       <c r="AR67" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS67" s="33"/>
-      <c r="AT67" s="33"/>
+      <c r="AS67" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT67" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU67" s="33"/>
       <c r="AV67" s="33"/>
       <c r="AW67" s="33"/>
@@ -13361,8 +13609,12 @@
       <c r="AR68" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS68" s="33"/>
-      <c r="AT68" s="33"/>
+      <c r="AS68" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT68" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU68" s="33"/>
       <c r="AV68" s="33"/>
       <c r="AW68" s="33"/>
@@ -13529,8 +13781,12 @@
       <c r="AR69" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS69" s="33"/>
-      <c r="AT69" s="33"/>
+      <c r="AS69" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT69" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU69" s="33"/>
       <c r="AV69" s="33"/>
       <c r="AW69" s="33"/>
@@ -13697,8 +13953,12 @@
       <c r="AR70" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS70" s="33"/>
-      <c r="AT70" s="33"/>
+      <c r="AS70" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT70" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU70" s="33"/>
       <c r="AV70" s="33"/>
       <c r="AW70" s="33"/>
@@ -13865,8 +14125,12 @@
       <c r="AR71" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS71" s="33"/>
-      <c r="AT71" s="33"/>
+      <c r="AS71" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT71" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU71" s="33"/>
       <c r="AV71" s="33"/>
       <c r="AW71" s="33"/>
@@ -14033,8 +14297,12 @@
       <c r="AR72" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS72" s="33"/>
-      <c r="AT72" s="33"/>
+      <c r="AS72" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT72" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU72" s="33"/>
       <c r="AV72" s="33"/>
       <c r="AW72" s="33"/>
@@ -14201,8 +14469,12 @@
       <c r="AR73" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS73" s="33"/>
-      <c r="AT73" s="33"/>
+      <c r="AS73" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT73" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU73" s="33"/>
       <c r="AV73" s="33"/>
       <c r="AW73" s="33"/>
@@ -14369,8 +14641,12 @@
       <c r="AR74" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS74" s="33"/>
-      <c r="AT74" s="33"/>
+      <c r="AS74" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT74" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU74" s="33"/>
       <c r="AV74" s="33"/>
       <c r="AW74" s="33"/>
@@ -14537,8 +14813,12 @@
       <c r="AR75" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS75" s="33"/>
-      <c r="AT75" s="33"/>
+      <c r="AS75" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT75" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU75" s="33"/>
       <c r="AV75" s="33"/>
       <c r="AW75" s="33"/>
@@ -14705,8 +14985,12 @@
       <c r="AR76" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS76" s="33"/>
-      <c r="AT76" s="33"/>
+      <c r="AS76" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT76" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU76" s="33"/>
       <c r="AV76" s="33"/>
       <c r="AW76" s="33"/>
@@ -14873,8 +15157,12 @@
       <c r="AR77" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS77" s="33"/>
-      <c r="AT77" s="33"/>
+      <c r="AS77" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT77" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU77" s="33"/>
       <c r="AV77" s="33"/>
       <c r="AW77" s="33"/>
@@ -15041,8 +15329,12 @@
       <c r="AR78" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS78" s="33"/>
-      <c r="AT78" s="33"/>
+      <c r="AS78" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT78" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU78" s="33"/>
       <c r="AV78" s="33"/>
       <c r="AW78" s="33"/>
@@ -15209,8 +15501,12 @@
       <c r="AR79" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS79" s="33"/>
-      <c r="AT79" s="33"/>
+      <c r="AS79" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT79" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU79" s="33"/>
       <c r="AV79" s="33"/>
       <c r="AW79" s="33"/>
@@ -15377,8 +15673,12 @@
       <c r="AR80" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS80" s="33"/>
-      <c r="AT80" s="33"/>
+      <c r="AS80" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT80" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU80" s="33"/>
       <c r="AV80" s="33"/>
       <c r="AW80" s="33"/>
@@ -15545,8 +15845,12 @@
       <c r="AR81" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS81" s="33"/>
-      <c r="AT81" s="33"/>
+      <c r="AS81" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT81" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU81" s="33"/>
       <c r="AV81" s="33"/>
       <c r="AW81" s="33"/>
@@ -15713,8 +16017,12 @@
       <c r="AR82" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS82" s="33"/>
-      <c r="AT82" s="33"/>
+      <c r="AS82" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT82" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU82" s="33"/>
       <c r="AV82" s="33"/>
       <c r="AW82" s="33"/>
@@ -15881,8 +16189,12 @@
       <c r="AR83" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS83" s="33"/>
-      <c r="AT83" s="33"/>
+      <c r="AS83" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT83" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU83" s="33"/>
       <c r="AV83" s="33"/>
       <c r="AW83" s="33"/>
@@ -16049,8 +16361,12 @@
       <c r="AR84" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="33"/>
+      <c r="AS84" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT84" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU84" s="33"/>
       <c r="AV84" s="33"/>
       <c r="AW84" s="33"/>
@@ -16217,8 +16533,12 @@
       <c r="AR85" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS85" s="33"/>
-      <c r="AT85" s="33"/>
+      <c r="AS85" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT85" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU85" s="33"/>
       <c r="AV85" s="33"/>
       <c r="AW85" s="33"/>
@@ -16385,8 +16705,12 @@
       <c r="AR86" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS86" s="33"/>
-      <c r="AT86" s="33"/>
+      <c r="AS86" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT86" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU86" s="33"/>
       <c r="AV86" s="33"/>
       <c r="AW86" s="33"/>
@@ -16553,8 +16877,12 @@
       <c r="AR87" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS87" s="33"/>
-      <c r="AT87" s="33"/>
+      <c r="AS87" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT87" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU87" s="33"/>
       <c r="AV87" s="33"/>
       <c r="AW87" s="33"/>
@@ -16721,8 +17049,12 @@
       <c r="AR88" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS88" s="33"/>
-      <c r="AT88" s="33"/>
+      <c r="AS88" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT88" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU88" s="33"/>
       <c r="AV88" s="33"/>
       <c r="AW88" s="33"/>
@@ -16889,8 +17221,12 @@
       <c r="AR89" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS89" s="33"/>
-      <c r="AT89" s="33"/>
+      <c r="AS89" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT89" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU89" s="33"/>
       <c r="AV89" s="33"/>
       <c r="AW89" s="33"/>
@@ -17057,8 +17393,12 @@
       <c r="AR90" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS90" s="33"/>
-      <c r="AT90" s="33"/>
+      <c r="AS90" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT90" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU90" s="33"/>
       <c r="AV90" s="33"/>
       <c r="AW90" s="33"/>
@@ -17225,8 +17565,12 @@
       <c r="AR91" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS91" s="33"/>
-      <c r="AT91" s="33"/>
+      <c r="AS91" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT91" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU91" s="33"/>
       <c r="AV91" s="33"/>
       <c r="AW91" s="33"/>
@@ -17393,8 +17737,12 @@
       <c r="AR92" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS92" s="33"/>
-      <c r="AT92" s="33"/>
+      <c r="AS92" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT92" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU92" s="33"/>
       <c r="AV92" s="33"/>
       <c r="AW92" s="33"/>
@@ -17561,8 +17909,12 @@
       <c r="AR93" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS93" s="33"/>
-      <c r="AT93" s="33"/>
+      <c r="AS93" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT93" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU93" s="33"/>
       <c r="AV93" s="33"/>
       <c r="AW93" s="33"/>
@@ -17729,8 +18081,12 @@
       <c r="AR94" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AS94" s="33"/>
-      <c r="AT94" s="33"/>
+      <c r="AS94" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT94" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AU94" s="33"/>
       <c r="AV94" s="33"/>
       <c r="AW94" s="33"/>
@@ -17785,7 +18141,7 @@
   <dimension ref="A1:BZ348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="AR7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
@@ -18071,8 +18427,12 @@
       <c r="AS6" s="32">
         <v>44121</v>
       </c>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
+      <c r="AT6" s="32">
+        <v>44128</v>
+      </c>
+      <c r="AU6" s="32">
+        <v>44135</v>
+      </c>
       <c r="AV6" s="32"/>
       <c r="AW6" s="32"/>
       <c r="AX6" s="32"/>
@@ -18241,8 +18601,12 @@
       <c r="AS7" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
+      <c r="AT7" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU7" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
       <c r="AX7" s="33"/>
@@ -18411,8 +18775,12 @@
       <c r="AS8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
+      <c r="AT8" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU8" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
       <c r="AX8" s="33"/>
@@ -18581,8 +18949,12 @@
       <c r="AS9" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
+      <c r="AT9" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU9" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV9" s="33"/>
       <c r="AW9" s="33"/>
       <c r="AX9" s="33"/>
@@ -18751,8 +19123,12 @@
       <c r="AS10" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
+      <c r="AT10" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU10" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV10" s="33"/>
       <c r="AW10" s="33"/>
       <c r="AX10" s="33"/>
@@ -18921,8 +19297,12 @@
       <c r="AS11" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
+      <c r="AT11" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU11" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV11" s="33"/>
       <c r="AW11" s="33"/>
       <c r="AX11" s="33"/>
@@ -19091,8 +19471,12 @@
       <c r="AS12" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
+      <c r="AT12" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU12" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV12" s="33"/>
       <c r="AW12" s="33"/>
       <c r="AX12" s="33"/>
@@ -19261,8 +19645,12 @@
       <c r="AS13" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
+      <c r="AT13" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU13" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV13" s="33"/>
       <c r="AW13" s="33"/>
       <c r="AX13" s="33"/>
@@ -19431,8 +19819,12 @@
       <c r="AS14" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
+      <c r="AT14" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU14" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV14" s="33"/>
       <c r="AW14" s="33"/>
       <c r="AX14" s="33"/>
@@ -19601,8 +19993,12 @@
       <c r="AS15" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
+      <c r="AT15" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU15" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV15" s="33"/>
       <c r="AW15" s="33"/>
       <c r="AX15" s="33"/>
@@ -19771,8 +20167,12 @@
       <c r="AS16" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
+      <c r="AT16" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU16" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV16" s="33"/>
       <c r="AW16" s="33"/>
       <c r="AX16" s="33"/>
@@ -19941,8 +20341,12 @@
       <c r="AS17" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
+      <c r="AT17" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU17" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
       <c r="AX17" s="33"/>
@@ -20111,8 +20515,12 @@
       <c r="AS18" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
+      <c r="AT18" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU18" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV18" s="33"/>
       <c r="AW18" s="33"/>
       <c r="AX18" s="33"/>
@@ -20281,8 +20689,12 @@
       <c r="AS19" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
+      <c r="AT19" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU19" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
       <c r="AX19" s="33"/>
@@ -20451,8 +20863,12 @@
       <c r="AS20" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
+      <c r="AT20" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU20" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV20" s="33"/>
       <c r="AW20" s="33"/>
       <c r="AX20" s="33"/>
@@ -20621,8 +21037,12 @@
       <c r="AS21" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
+      <c r="AT21" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU21" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV21" s="33"/>
       <c r="AW21" s="33"/>
       <c r="AX21" s="33"/>
@@ -20791,8 +21211,12 @@
       <c r="AS22" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
+      <c r="AT22" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU22" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV22" s="33"/>
       <c r="AW22" s="33"/>
       <c r="AX22" s="33"/>
@@ -20961,8 +21385,12 @@
       <c r="AS23" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
+      <c r="AT23" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU23" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV23" s="33"/>
       <c r="AW23" s="33"/>
       <c r="AX23" s="33"/>
@@ -21131,8 +21559,12 @@
       <c r="AS24" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
+      <c r="AT24" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU24" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
       <c r="AX24" s="33"/>
@@ -21301,8 +21733,12 @@
       <c r="AS25" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
+      <c r="AT25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU25" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
@@ -21471,8 +21907,12 @@
       <c r="AS26" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
+      <c r="AT26" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU26" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
       <c r="AX26" s="33"/>
@@ -21641,8 +22081,12 @@
       <c r="AS27" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
+      <c r="AT27" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU27" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
       <c r="AX27" s="33"/>
@@ -21811,8 +22255,12 @@
       <c r="AS28" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
+      <c r="AT28" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU28" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV28" s="33"/>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
@@ -21981,8 +22429,12 @@
       <c r="AS29" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
+      <c r="AT29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU29" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV29" s="33"/>
       <c r="AW29" s="33"/>
       <c r="AX29" s="33"/>
@@ -22151,8 +22603,12 @@
       <c r="AS30" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
+      <c r="AT30" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU30" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV30" s="33"/>
       <c r="AW30" s="33"/>
       <c r="AX30" s="33"/>
@@ -22321,8 +22777,12 @@
       <c r="AS31" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="33"/>
+      <c r="AT31" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU31" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV31" s="33"/>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
@@ -22491,8 +22951,12 @@
       <c r="AS32" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
+      <c r="AT32" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU32" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV32" s="33"/>
       <c r="AW32" s="33"/>
       <c r="AX32" s="33"/>
@@ -22661,8 +23125,12 @@
       <c r="AS33" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
+      <c r="AT33" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU33" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV33" s="33"/>
       <c r="AW33" s="33"/>
       <c r="AX33" s="33"/>
@@ -22831,8 +23299,12 @@
       <c r="AS34" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
+      <c r="AT34" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU34" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV34" s="33"/>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
@@ -23001,8 +23473,12 @@
       <c r="AS35" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
+      <c r="AT35" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU35" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV35" s="33"/>
       <c r="AW35" s="33"/>
       <c r="AX35" s="33"/>
@@ -23171,8 +23647,12 @@
       <c r="AS36" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
+      <c r="AT36" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU36" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV36" s="33"/>
       <c r="AW36" s="33"/>
       <c r="AX36" s="33"/>
@@ -23341,8 +23821,12 @@
       <c r="AS37" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
+      <c r="AT37" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU37" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV37" s="33"/>
       <c r="AW37" s="33"/>
       <c r="AX37" s="33"/>
@@ -23511,8 +23995,12 @@
       <c r="AS38" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
+      <c r="AT38" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU38" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV38" s="33"/>
       <c r="AW38" s="33"/>
       <c r="AX38" s="33"/>
@@ -23681,8 +24169,12 @@
       <c r="AS39" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT39" s="33"/>
-      <c r="AU39" s="33"/>
+      <c r="AT39" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU39" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV39" s="33"/>
       <c r="AW39" s="33"/>
       <c r="AX39" s="33"/>
@@ -23851,8 +24343,12 @@
       <c r="AS40" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT40" s="33"/>
-      <c r="AU40" s="33"/>
+      <c r="AT40" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU40" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV40" s="33"/>
       <c r="AW40" s="33"/>
       <c r="AX40" s="33"/>
@@ -24021,8 +24517,12 @@
       <c r="AS41" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT41" s="33"/>
-      <c r="AU41" s="33"/>
+      <c r="AT41" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU41" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV41" s="33"/>
       <c r="AW41" s="33"/>
       <c r="AX41" s="33"/>
@@ -24191,8 +24691,12 @@
       <c r="AS42" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
+      <c r="AT42" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU42" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV42" s="33"/>
       <c r="AW42" s="33"/>
       <c r="AX42" s="33"/>
@@ -24361,8 +24865,12 @@
       <c r="AS43" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT43" s="33"/>
-      <c r="AU43" s="33"/>
+      <c r="AT43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU43" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV43" s="33"/>
       <c r="AW43" s="33"/>
       <c r="AX43" s="33"/>
@@ -24531,8 +25039,12 @@
       <c r="AS44" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="33"/>
+      <c r="AT44" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU44" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV44" s="33"/>
       <c r="AW44" s="33"/>
       <c r="AX44" s="33"/>
@@ -24701,8 +25213,12 @@
       <c r="AS45" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT45" s="33"/>
-      <c r="AU45" s="33"/>
+      <c r="AT45" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU45" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV45" s="33"/>
       <c r="AW45" s="33"/>
       <c r="AX45" s="33"/>
@@ -24871,8 +25387,12 @@
       <c r="AS46" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="33"/>
+      <c r="AT46" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU46" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV46" s="33"/>
       <c r="AW46" s="33"/>
       <c r="AX46" s="33"/>
@@ -25041,8 +25561,12 @@
       <c r="AS47" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT47" s="33"/>
-      <c r="AU47" s="33"/>
+      <c r="AT47" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU47" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV47" s="33"/>
       <c r="AW47" s="33"/>
       <c r="AX47" s="33"/>
@@ -25211,8 +25735,12 @@
       <c r="AS48" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT48" s="33"/>
-      <c r="AU48" s="33"/>
+      <c r="AT48" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU48" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV48" s="33"/>
       <c r="AW48" s="33"/>
       <c r="AX48" s="33"/>
@@ -25381,8 +25909,12 @@
       <c r="AS49" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT49" s="33"/>
-      <c r="AU49" s="33"/>
+      <c r="AT49" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU49" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV49" s="33"/>
       <c r="AW49" s="33"/>
       <c r="AX49" s="33"/>
@@ -25551,8 +26083,12 @@
       <c r="AS50" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT50" s="33"/>
-      <c r="AU50" s="33"/>
+      <c r="AT50" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU50" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV50" s="33"/>
       <c r="AW50" s="33"/>
       <c r="AX50" s="33"/>
@@ -25721,8 +26257,12 @@
       <c r="AS51" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT51" s="33"/>
-      <c r="AU51" s="33"/>
+      <c r="AT51" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU51" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV51" s="33"/>
       <c r="AW51" s="33"/>
       <c r="AX51" s="33"/>
@@ -25891,8 +26431,12 @@
       <c r="AS52" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT52" s="33"/>
-      <c r="AU52" s="33"/>
+      <c r="AT52" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU52" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV52" s="33"/>
       <c r="AW52" s="33"/>
       <c r="AX52" s="33"/>
@@ -26061,8 +26605,12 @@
       <c r="AS53" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT53" s="33"/>
-      <c r="AU53" s="33"/>
+      <c r="AT53" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU53" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV53" s="33"/>
       <c r="AW53" s="33"/>
       <c r="AX53" s="33"/>
@@ -26231,8 +26779,12 @@
       <c r="AS54" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT54" s="33"/>
-      <c r="AU54" s="33"/>
+      <c r="AT54" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU54" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV54" s="33"/>
       <c r="AW54" s="33"/>
       <c r="AX54" s="33"/>
@@ -26401,8 +26953,12 @@
       <c r="AS55" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT55" s="33"/>
-      <c r="AU55" s="33"/>
+      <c r="AT55" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU55" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV55" s="33"/>
       <c r="AW55" s="33"/>
       <c r="AX55" s="33"/>
@@ -26571,8 +27127,12 @@
       <c r="AS56" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT56" s="33"/>
-      <c r="AU56" s="33"/>
+      <c r="AT56" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU56" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV56" s="33"/>
       <c r="AW56" s="33"/>
       <c r="AX56" s="33"/>
@@ -26741,8 +27301,12 @@
       <c r="AS57" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT57" s="33"/>
-      <c r="AU57" s="33"/>
+      <c r="AT57" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU57" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV57" s="33"/>
       <c r="AW57" s="33"/>
       <c r="AX57" s="33"/>
@@ -26911,8 +27475,12 @@
       <c r="AS58" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT58" s="33"/>
-      <c r="AU58" s="33"/>
+      <c r="AT58" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU58" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV58" s="33"/>
       <c r="AW58" s="33"/>
       <c r="AX58" s="33"/>
@@ -27081,8 +27649,12 @@
       <c r="AS59" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT59" s="33"/>
-      <c r="AU59" s="33"/>
+      <c r="AT59" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU59" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV59" s="33"/>
       <c r="AW59" s="33"/>
       <c r="AX59" s="33"/>
@@ -27251,8 +27823,12 @@
       <c r="AS60" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT60" s="33"/>
-      <c r="AU60" s="33"/>
+      <c r="AT60" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU60" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV60" s="33"/>
       <c r="AW60" s="33"/>
       <c r="AX60" s="33"/>
@@ -27421,8 +27997,12 @@
       <c r="AS61" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT61" s="33"/>
-      <c r="AU61" s="33"/>
+      <c r="AT61" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU61" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV61" s="33"/>
       <c r="AW61" s="33"/>
       <c r="AX61" s="33"/>
@@ -27591,8 +28171,12 @@
       <c r="AS62" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT62" s="33"/>
-      <c r="AU62" s="33"/>
+      <c r="AT62" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU62" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV62" s="33"/>
       <c r="AW62" s="33"/>
       <c r="AX62" s="33"/>
@@ -27761,8 +28345,12 @@
       <c r="AS63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT63" s="33"/>
-      <c r="AU63" s="33"/>
+      <c r="AT63" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU63" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV63" s="33"/>
       <c r="AW63" s="33"/>
       <c r="AX63" s="33"/>
@@ -27931,8 +28519,12 @@
       <c r="AS64" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT64" s="33"/>
-      <c r="AU64" s="33"/>
+      <c r="AT64" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU64" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV64" s="33"/>
       <c r="AW64" s="33"/>
       <c r="AX64" s="33"/>
@@ -28101,8 +28693,12 @@
       <c r="AS65" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT65" s="33"/>
-      <c r="AU65" s="33"/>
+      <c r="AT65" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU65" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV65" s="33"/>
       <c r="AW65" s="33"/>
       <c r="AX65" s="33"/>
@@ -28271,8 +28867,12 @@
       <c r="AS66" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT66" s="33"/>
-      <c r="AU66" s="33"/>
+      <c r="AT66" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU66" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV66" s="33"/>
       <c r="AW66" s="33"/>
       <c r="AX66" s="33"/>
@@ -28441,8 +29041,12 @@
       <c r="AS67" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT67" s="33"/>
-      <c r="AU67" s="33"/>
+      <c r="AT67" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU67" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV67" s="33"/>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
@@ -28611,8 +29215,12 @@
       <c r="AS68" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT68" s="33"/>
-      <c r="AU68" s="33"/>
+      <c r="AT68" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU68" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV68" s="33"/>
       <c r="AW68" s="33"/>
       <c r="AX68" s="33"/>
@@ -28781,8 +29389,12 @@
       <c r="AS69" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT69" s="33"/>
-      <c r="AU69" s="33"/>
+      <c r="AT69" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU69" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV69" s="33"/>
       <c r="AW69" s="33"/>
       <c r="AX69" s="33"/>
@@ -28951,8 +29563,12 @@
       <c r="AS70" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT70" s="33"/>
-      <c r="AU70" s="33"/>
+      <c r="AT70" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU70" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV70" s="33"/>
       <c r="AW70" s="33"/>
       <c r="AX70" s="33"/>
@@ -29121,8 +29737,12 @@
       <c r="AS71" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT71" s="33"/>
-      <c r="AU71" s="33"/>
+      <c r="AT71" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU71" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV71" s="33"/>
       <c r="AW71" s="33"/>
       <c r="AX71" s="33"/>
@@ -29291,8 +29911,12 @@
       <c r="AS72" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT72" s="33"/>
-      <c r="AU72" s="33"/>
+      <c r="AT72" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU72" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV72" s="33"/>
       <c r="AW72" s="33"/>
       <c r="AX72" s="33"/>
@@ -29461,8 +30085,12 @@
       <c r="AS73" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT73" s="33"/>
-      <c r="AU73" s="33"/>
+      <c r="AT73" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU73" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV73" s="33"/>
       <c r="AW73" s="33"/>
       <c r="AX73" s="33"/>
@@ -29631,8 +30259,12 @@
       <c r="AS74" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT74" s="33"/>
-      <c r="AU74" s="33"/>
+      <c r="AT74" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU74" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV74" s="33"/>
       <c r="AW74" s="33"/>
       <c r="AX74" s="33"/>
@@ -29801,8 +30433,12 @@
       <c r="AS75" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT75" s="33"/>
-      <c r="AU75" s="33"/>
+      <c r="AT75" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU75" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV75" s="33"/>
       <c r="AW75" s="33"/>
       <c r="AX75" s="33"/>
@@ -29971,8 +30607,12 @@
       <c r="AS76" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT76" s="33"/>
-      <c r="AU76" s="33"/>
+      <c r="AT76" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU76" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV76" s="33"/>
       <c r="AW76" s="33"/>
       <c r="AX76" s="33"/>
@@ -30141,8 +30781,12 @@
       <c r="AS77" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT77" s="33"/>
-      <c r="AU77" s="33"/>
+      <c r="AT77" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU77" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV77" s="33"/>
       <c r="AW77" s="33"/>
       <c r="AX77" s="33"/>
@@ -30311,8 +30955,12 @@
       <c r="AS78" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT78" s="33"/>
-      <c r="AU78" s="33"/>
+      <c r="AT78" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU78" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV78" s="33"/>
       <c r="AW78" s="33"/>
       <c r="AX78" s="33"/>
@@ -30481,8 +31129,12 @@
       <c r="AS79" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT79" s="33"/>
-      <c r="AU79" s="33"/>
+      <c r="AT79" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU79" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV79" s="33"/>
       <c r="AW79" s="33"/>
       <c r="AX79" s="33"/>
@@ -30651,8 +31303,12 @@
       <c r="AS80" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT80" s="33"/>
-      <c r="AU80" s="33"/>
+      <c r="AT80" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU80" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV80" s="33"/>
       <c r="AW80" s="33"/>
       <c r="AX80" s="33"/>
@@ -30821,8 +31477,12 @@
       <c r="AS81" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT81" s="33"/>
-      <c r="AU81" s="33"/>
+      <c r="AT81" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU81" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV81" s="33"/>
       <c r="AW81" s="33"/>
       <c r="AX81" s="33"/>
@@ -30991,8 +31651,12 @@
       <c r="AS82" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT82" s="33"/>
-      <c r="AU82" s="33"/>
+      <c r="AT82" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU82" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV82" s="33"/>
       <c r="AW82" s="33"/>
       <c r="AX82" s="33"/>
@@ -31161,8 +31825,12 @@
       <c r="AS83" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT83" s="33"/>
-      <c r="AU83" s="33"/>
+      <c r="AT83" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU83" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV83" s="33"/>
       <c r="AW83" s="33"/>
       <c r="AX83" s="33"/>
@@ -31331,8 +31999,12 @@
       <c r="AS84" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT84" s="33"/>
-      <c r="AU84" s="33"/>
+      <c r="AT84" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU84" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV84" s="33"/>
       <c r="AW84" s="33"/>
       <c r="AX84" s="33"/>
@@ -31501,8 +32173,12 @@
       <c r="AS85" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT85" s="33"/>
-      <c r="AU85" s="33"/>
+      <c r="AT85" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU85" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV85" s="33"/>
       <c r="AW85" s="33"/>
       <c r="AX85" s="33"/>
@@ -31671,8 +32347,12 @@
       <c r="AS86" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT86" s="33"/>
-      <c r="AU86" s="33"/>
+      <c r="AT86" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU86" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV86" s="33"/>
       <c r="AW86" s="33"/>
       <c r="AX86" s="33"/>
@@ -31841,8 +32521,12 @@
       <c r="AS87" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT87" s="33"/>
-      <c r="AU87" s="33"/>
+      <c r="AT87" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU87" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV87" s="33"/>
       <c r="AW87" s="33"/>
       <c r="AX87" s="33"/>
@@ -32011,8 +32695,12 @@
       <c r="AS88" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT88" s="33"/>
-      <c r="AU88" s="33"/>
+      <c r="AT88" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU88" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV88" s="33"/>
       <c r="AW88" s="33"/>
       <c r="AX88" s="33"/>
@@ -32181,8 +32869,12 @@
       <c r="AS89" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT89" s="33"/>
-      <c r="AU89" s="33"/>
+      <c r="AT89" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU89" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV89" s="33"/>
       <c r="AW89" s="33"/>
       <c r="AX89" s="33"/>
@@ -32351,8 +33043,12 @@
       <c r="AS90" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT90" s="33"/>
-      <c r="AU90" s="33"/>
+      <c r="AT90" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU90" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV90" s="33"/>
       <c r="AW90" s="33"/>
       <c r="AX90" s="33"/>
@@ -32521,8 +33217,12 @@
       <c r="AS91" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT91" s="33"/>
-      <c r="AU91" s="33"/>
+      <c r="AT91" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU91" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV91" s="33"/>
       <c r="AW91" s="33"/>
       <c r="AX91" s="33"/>
@@ -32691,8 +33391,12 @@
       <c r="AS92" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT92" s="33"/>
-      <c r="AU92" s="33"/>
+      <c r="AT92" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU92" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV92" s="33"/>
       <c r="AW92" s="33"/>
       <c r="AX92" s="33"/>
@@ -32861,8 +33565,12 @@
       <c r="AS93" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT93" s="33"/>
-      <c r="AU93" s="33"/>
+      <c r="AT93" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU93" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV93" s="33"/>
       <c r="AW93" s="33"/>
       <c r="AX93" s="33"/>
@@ -33031,8 +33739,12 @@
       <c r="AS94" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT94" s="33"/>
-      <c r="AU94" s="33"/>
+      <c r="AT94" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU94" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV94" s="33"/>
       <c r="AW94" s="33"/>
       <c r="AX94" s="33"/>
@@ -33201,8 +33913,12 @@
       <c r="AS95" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT95" s="33"/>
-      <c r="AU95" s="33"/>
+      <c r="AT95" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU95" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV95" s="33"/>
       <c r="AW95" s="33"/>
       <c r="AX95" s="33"/>
@@ -33371,8 +34087,12 @@
       <c r="AS96" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT96" s="33"/>
-      <c r="AU96" s="33"/>
+      <c r="AT96" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU96" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV96" s="33"/>
       <c r="AW96" s="33"/>
       <c r="AX96" s="33"/>
@@ -33541,8 +34261,12 @@
       <c r="AS97" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT97" s="33"/>
-      <c r="AU97" s="33"/>
+      <c r="AT97" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU97" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV97" s="33"/>
       <c r="AW97" s="33"/>
       <c r="AX97" s="33"/>
@@ -33711,8 +34435,12 @@
       <c r="AS98" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT98" s="33"/>
-      <c r="AU98" s="33"/>
+      <c r="AT98" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU98" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV98" s="33"/>
       <c r="AW98" s="33"/>
       <c r="AX98" s="33"/>
@@ -33881,8 +34609,12 @@
       <c r="AS99" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT99" s="33"/>
-      <c r="AU99" s="33"/>
+      <c r="AT99" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU99" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV99" s="33"/>
       <c r="AW99" s="33"/>
       <c r="AX99" s="33"/>
@@ -34051,8 +34783,12 @@
       <c r="AS100" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT100" s="33"/>
-      <c r="AU100" s="33"/>
+      <c r="AT100" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU100" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV100" s="33"/>
       <c r="AW100" s="33"/>
       <c r="AX100" s="33"/>
@@ -34221,8 +34957,12 @@
       <c r="AS101" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT101" s="33"/>
-      <c r="AU101" s="33"/>
+      <c r="AT101" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU101" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV101" s="33"/>
       <c r="AW101" s="33"/>
       <c r="AX101" s="33"/>
@@ -34391,8 +35131,12 @@
       <c r="AS102" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT102" s="33"/>
-      <c r="AU102" s="33"/>
+      <c r="AT102" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU102" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV102" s="33"/>
       <c r="AW102" s="33"/>
       <c r="AX102" s="33"/>
@@ -34561,8 +35305,12 @@
       <c r="AS103" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT103" s="33"/>
-      <c r="AU103" s="33"/>
+      <c r="AT103" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU103" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV103" s="33"/>
       <c r="AW103" s="33"/>
       <c r="AX103" s="33"/>
@@ -34731,8 +35479,12 @@
       <c r="AS104" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT104" s="33"/>
-      <c r="AU104" s="33"/>
+      <c r="AT104" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU104" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV104" s="33"/>
       <c r="AW104" s="33"/>
       <c r="AX104" s="33"/>
@@ -34901,8 +35653,12 @@
       <c r="AS105" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT105" s="33"/>
-      <c r="AU105" s="33"/>
+      <c r="AT105" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU105" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV105" s="33"/>
       <c r="AW105" s="33"/>
       <c r="AX105" s="33"/>
@@ -35071,8 +35827,12 @@
       <c r="AS106" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT106" s="33"/>
-      <c r="AU106" s="33"/>
+      <c r="AT106" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU106" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV106" s="33"/>
       <c r="AW106" s="33"/>
       <c r="AX106" s="33"/>
@@ -35241,8 +36001,12 @@
       <c r="AS107" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT107" s="33"/>
-      <c r="AU107" s="33"/>
+      <c r="AT107" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU107" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV107" s="33"/>
       <c r="AW107" s="33"/>
       <c r="AX107" s="33"/>
@@ -35411,8 +36175,12 @@
       <c r="AS108" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT108" s="33"/>
-      <c r="AU108" s="33"/>
+      <c r="AT108" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU108" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV108" s="33"/>
       <c r="AW108" s="33"/>
       <c r="AX108" s="33"/>
@@ -35581,8 +36349,12 @@
       <c r="AS109" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT109" s="33"/>
-      <c r="AU109" s="33"/>
+      <c r="AT109" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU109" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV109" s="33"/>
       <c r="AW109" s="33"/>
       <c r="AX109" s="33"/>
@@ -35751,8 +36523,12 @@
       <c r="AS110" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT110" s="33"/>
-      <c r="AU110" s="33"/>
+      <c r="AT110" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU110" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV110" s="33"/>
       <c r="AW110" s="33"/>
       <c r="AX110" s="33"/>
@@ -35921,8 +36697,12 @@
       <c r="AS111" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT111" s="33"/>
-      <c r="AU111" s="33"/>
+      <c r="AT111" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU111" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV111" s="33"/>
       <c r="AW111" s="33"/>
       <c r="AX111" s="33"/>
@@ -36091,8 +36871,12 @@
       <c r="AS112" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT112" s="33"/>
-      <c r="AU112" s="33"/>
+      <c r="AT112" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU112" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV112" s="33"/>
       <c r="AW112" s="33"/>
       <c r="AX112" s="33"/>
@@ -36261,8 +37045,12 @@
       <c r="AS113" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT113" s="33"/>
-      <c r="AU113" s="33"/>
+      <c r="AT113" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU113" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV113" s="33"/>
       <c r="AW113" s="33"/>
       <c r="AX113" s="33"/>
@@ -36431,8 +37219,12 @@
       <c r="AS114" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT114" s="33"/>
-      <c r="AU114" s="33"/>
+      <c r="AT114" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU114" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV114" s="33"/>
       <c r="AW114" s="33"/>
       <c r="AX114" s="33"/>
@@ -36601,8 +37393,12 @@
       <c r="AS115" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT115" s="33"/>
-      <c r="AU115" s="33"/>
+      <c r="AT115" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU115" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV115" s="33"/>
       <c r="AW115" s="33"/>
       <c r="AX115" s="33"/>
@@ -36771,8 +37567,12 @@
       <c r="AS116" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT116" s="33"/>
-      <c r="AU116" s="33"/>
+      <c r="AT116" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU116" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV116" s="33"/>
       <c r="AW116" s="33"/>
       <c r="AX116" s="33"/>
@@ -36941,8 +37741,12 @@
       <c r="AS117" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT117" s="33"/>
-      <c r="AU117" s="33"/>
+      <c r="AT117" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU117" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV117" s="33"/>
       <c r="AW117" s="33"/>
       <c r="AX117" s="33"/>
@@ -37111,8 +37915,12 @@
       <c r="AS118" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT118" s="33"/>
-      <c r="AU118" s="33"/>
+      <c r="AT118" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU118" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV118" s="33"/>
       <c r="AW118" s="33"/>
       <c r="AX118" s="33"/>
@@ -37281,8 +38089,12 @@
       <c r="AS119" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT119" s="33"/>
-      <c r="AU119" s="33"/>
+      <c r="AT119" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU119" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV119" s="33"/>
       <c r="AW119" s="33"/>
       <c r="AX119" s="33"/>
@@ -37451,8 +38263,12 @@
       <c r="AS120" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT120" s="33"/>
-      <c r="AU120" s="33"/>
+      <c r="AT120" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU120" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV120" s="33"/>
       <c r="AW120" s="33"/>
       <c r="AX120" s="33"/>
@@ -37621,8 +38437,12 @@
       <c r="AS121" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT121" s="33"/>
-      <c r="AU121" s="33"/>
+      <c r="AT121" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU121" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV121" s="33"/>
       <c r="AW121" s="33"/>
       <c r="AX121" s="33"/>
@@ -37791,8 +38611,12 @@
       <c r="AS122" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT122" s="33"/>
-      <c r="AU122" s="33"/>
+      <c r="AT122" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU122" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV122" s="33"/>
       <c r="AW122" s="33"/>
       <c r="AX122" s="33"/>
@@ -37961,8 +38785,12 @@
       <c r="AS123" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT123" s="33"/>
-      <c r="AU123" s="33"/>
+      <c r="AT123" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU123" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV123" s="33"/>
       <c r="AW123" s="33"/>
       <c r="AX123" s="33"/>
@@ -38131,8 +38959,12 @@
       <c r="AS124" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT124" s="33"/>
-      <c r="AU124" s="33"/>
+      <c r="AT124" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU124" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV124" s="33"/>
       <c r="AW124" s="33"/>
       <c r="AX124" s="33"/>
@@ -38301,8 +39133,12 @@
       <c r="AS125" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT125" s="33"/>
-      <c r="AU125" s="33"/>
+      <c r="AT125" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU125" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV125" s="33"/>
       <c r="AW125" s="33"/>
       <c r="AX125" s="33"/>
@@ -38471,8 +39307,12 @@
       <c r="AS126" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT126" s="33"/>
-      <c r="AU126" s="33"/>
+      <c r="AT126" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU126" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV126" s="33"/>
       <c r="AW126" s="33"/>
       <c r="AX126" s="33"/>
@@ -38641,8 +39481,12 @@
       <c r="AS127" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT127" s="33"/>
-      <c r="AU127" s="33"/>
+      <c r="AT127" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU127" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV127" s="33"/>
       <c r="AW127" s="33"/>
       <c r="AX127" s="33"/>
@@ -38811,8 +39655,12 @@
       <c r="AS128" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT128" s="33"/>
-      <c r="AU128" s="33"/>
+      <c r="AT128" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU128" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV128" s="33"/>
       <c r="AW128" s="33"/>
       <c r="AX128" s="33"/>
@@ -38981,8 +39829,12 @@
       <c r="AS129" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT129" s="33"/>
-      <c r="AU129" s="33"/>
+      <c r="AT129" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU129" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV129" s="33"/>
       <c r="AW129" s="33"/>
       <c r="AX129" s="33"/>
@@ -39151,8 +40003,12 @@
       <c r="AS130" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT130" s="33"/>
-      <c r="AU130" s="33"/>
+      <c r="AT130" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU130" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV130" s="33"/>
       <c r="AW130" s="33"/>
       <c r="AX130" s="33"/>
@@ -39321,8 +40177,12 @@
       <c r="AS131" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT131" s="33"/>
-      <c r="AU131" s="33"/>
+      <c r="AT131" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU131" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV131" s="33"/>
       <c r="AW131" s="33"/>
       <c r="AX131" s="33"/>
@@ -39491,8 +40351,12 @@
       <c r="AS132" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT132" s="33"/>
-      <c r="AU132" s="33"/>
+      <c r="AT132" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU132" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV132" s="33"/>
       <c r="AW132" s="33"/>
       <c r="AX132" s="33"/>
@@ -39661,8 +40525,12 @@
       <c r="AS133" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT133" s="33"/>
-      <c r="AU133" s="33"/>
+      <c r="AT133" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU133" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV133" s="33"/>
       <c r="AW133" s="33"/>
       <c r="AX133" s="33"/>
@@ -39831,8 +40699,12 @@
       <c r="AS134" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT134" s="33"/>
-      <c r="AU134" s="33"/>
+      <c r="AT134" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU134" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV134" s="33"/>
       <c r="AW134" s="33"/>
       <c r="AX134" s="33"/>
@@ -40001,8 +40873,12 @@
       <c r="AS135" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT135" s="33"/>
-      <c r="AU135" s="33"/>
+      <c r="AT135" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU135" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV135" s="33"/>
       <c r="AW135" s="33"/>
       <c r="AX135" s="33"/>
@@ -40171,8 +41047,12 @@
       <c r="AS136" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT136" s="33"/>
-      <c r="AU136" s="33"/>
+      <c r="AT136" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU136" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV136" s="33"/>
       <c r="AW136" s="33"/>
       <c r="AX136" s="33"/>
@@ -40341,8 +41221,12 @@
       <c r="AS137" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT137" s="33"/>
-      <c r="AU137" s="33"/>
+      <c r="AT137" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU137" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV137" s="33"/>
       <c r="AW137" s="33"/>
       <c r="AX137" s="33"/>
@@ -40511,8 +41395,12 @@
       <c r="AS138" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT138" s="33"/>
-      <c r="AU138" s="33"/>
+      <c r="AT138" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU138" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV138" s="33"/>
       <c r="AW138" s="33"/>
       <c r="AX138" s="33"/>
@@ -40681,8 +41569,12 @@
       <c r="AS139" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT139" s="33"/>
-      <c r="AU139" s="33"/>
+      <c r="AT139" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU139" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV139" s="33"/>
       <c r="AW139" s="33"/>
       <c r="AX139" s="33"/>
@@ -40851,8 +41743,12 @@
       <c r="AS140" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT140" s="33"/>
-      <c r="AU140" s="33"/>
+      <c r="AT140" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU140" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV140" s="33"/>
       <c r="AW140" s="33"/>
       <c r="AX140" s="33"/>
@@ -41021,8 +41917,12 @@
       <c r="AS141" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT141" s="33"/>
-      <c r="AU141" s="33"/>
+      <c r="AT141" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU141" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV141" s="33"/>
       <c r="AW141" s="33"/>
       <c r="AX141" s="33"/>
@@ -41191,8 +42091,12 @@
       <c r="AS142" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT142" s="33"/>
-      <c r="AU142" s="33"/>
+      <c r="AT142" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU142" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV142" s="33"/>
       <c r="AW142" s="33"/>
       <c r="AX142" s="33"/>
@@ -41361,8 +42265,12 @@
       <c r="AS143" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT143" s="33"/>
-      <c r="AU143" s="33"/>
+      <c r="AT143" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU143" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV143" s="33"/>
       <c r="AW143" s="33"/>
       <c r="AX143" s="33"/>
@@ -41531,8 +42439,12 @@
       <c r="AS144" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT144" s="33"/>
-      <c r="AU144" s="33"/>
+      <c r="AT144" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU144" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV144" s="33"/>
       <c r="AW144" s="33"/>
       <c r="AX144" s="33"/>
@@ -41701,8 +42613,12 @@
       <c r="AS145" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT145" s="33"/>
-      <c r="AU145" s="33"/>
+      <c r="AT145" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU145" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV145" s="33"/>
       <c r="AW145" s="33"/>
       <c r="AX145" s="33"/>
@@ -41871,8 +42787,12 @@
       <c r="AS146" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT146" s="33"/>
-      <c r="AU146" s="33"/>
+      <c r="AT146" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU146" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV146" s="33"/>
       <c r="AW146" s="33"/>
       <c r="AX146" s="33"/>
@@ -42041,8 +42961,12 @@
       <c r="AS147" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT147" s="33"/>
-      <c r="AU147" s="33"/>
+      <c r="AT147" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU147" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV147" s="33"/>
       <c r="AW147" s="33"/>
       <c r="AX147" s="33"/>
@@ -42211,8 +43135,12 @@
       <c r="AS148" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT148" s="33"/>
-      <c r="AU148" s="33"/>
+      <c r="AT148" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU148" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV148" s="33"/>
       <c r="AW148" s="33"/>
       <c r="AX148" s="33"/>
@@ -42381,8 +43309,12 @@
       <c r="AS149" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT149" s="33"/>
-      <c r="AU149" s="33"/>
+      <c r="AT149" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU149" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV149" s="33"/>
       <c r="AW149" s="33"/>
       <c r="AX149" s="33"/>
@@ -42551,8 +43483,12 @@
       <c r="AS150" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT150" s="33"/>
-      <c r="AU150" s="33"/>
+      <c r="AT150" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU150" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV150" s="33"/>
       <c r="AW150" s="33"/>
       <c r="AX150" s="33"/>
@@ -42721,8 +43657,12 @@
       <c r="AS151" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT151" s="33"/>
-      <c r="AU151" s="33"/>
+      <c r="AT151" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU151" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV151" s="33"/>
       <c r="AW151" s="33"/>
       <c r="AX151" s="33"/>
@@ -42891,8 +43831,12 @@
       <c r="AS152" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT152" s="33"/>
-      <c r="AU152" s="33"/>
+      <c r="AT152" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU152" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV152" s="33"/>
       <c r="AW152" s="33"/>
       <c r="AX152" s="33"/>
@@ -43061,8 +44005,12 @@
       <c r="AS153" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT153" s="33"/>
-      <c r="AU153" s="33"/>
+      <c r="AT153" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU153" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV153" s="33"/>
       <c r="AW153" s="33"/>
       <c r="AX153" s="33"/>
@@ -43231,8 +44179,12 @@
       <c r="AS154" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT154" s="33"/>
-      <c r="AU154" s="33"/>
+      <c r="AT154" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU154" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV154" s="33"/>
       <c r="AW154" s="33"/>
       <c r="AX154" s="33"/>
@@ -43401,8 +44353,12 @@
       <c r="AS155" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT155" s="33"/>
-      <c r="AU155" s="33"/>
+      <c r="AT155" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU155" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV155" s="33"/>
       <c r="AW155" s="33"/>
       <c r="AX155" s="33"/>
@@ -43571,8 +44527,12 @@
       <c r="AS156" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT156" s="33"/>
-      <c r="AU156" s="33"/>
+      <c r="AT156" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU156" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV156" s="33"/>
       <c r="AW156" s="33"/>
       <c r="AX156" s="33"/>
@@ -43741,8 +44701,12 @@
       <c r="AS157" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT157" s="33"/>
-      <c r="AU157" s="33"/>
+      <c r="AT157" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU157" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV157" s="33"/>
       <c r="AW157" s="33"/>
       <c r="AX157" s="33"/>
@@ -43911,8 +44875,12 @@
       <c r="AS158" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT158" s="33"/>
-      <c r="AU158" s="33"/>
+      <c r="AT158" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU158" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV158" s="33"/>
       <c r="AW158" s="33"/>
       <c r="AX158" s="33"/>
@@ -44081,8 +45049,12 @@
       <c r="AS159" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT159" s="33"/>
-      <c r="AU159" s="33"/>
+      <c r="AT159" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU159" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV159" s="33"/>
       <c r="AW159" s="33"/>
       <c r="AX159" s="33"/>
@@ -44251,8 +45223,12 @@
       <c r="AS160" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT160" s="33"/>
-      <c r="AU160" s="33"/>
+      <c r="AT160" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU160" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV160" s="33"/>
       <c r="AW160" s="33"/>
       <c r="AX160" s="33"/>
@@ -44421,8 +45397,12 @@
       <c r="AS161" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT161" s="33"/>
-      <c r="AU161" s="33"/>
+      <c r="AT161" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU161" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV161" s="33"/>
       <c r="AW161" s="33"/>
       <c r="AX161" s="33"/>
@@ -44591,8 +45571,12 @@
       <c r="AS162" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT162" s="33"/>
-      <c r="AU162" s="33"/>
+      <c r="AT162" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU162" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV162" s="33"/>
       <c r="AW162" s="33"/>
       <c r="AX162" s="33"/>
@@ -44761,8 +45745,12 @@
       <c r="AS163" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT163" s="33"/>
-      <c r="AU163" s="33"/>
+      <c r="AT163" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU163" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV163" s="33"/>
       <c r="AW163" s="33"/>
       <c r="AX163" s="33"/>
@@ -44931,8 +45919,12 @@
       <c r="AS164" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT164" s="33"/>
-      <c r="AU164" s="33"/>
+      <c r="AT164" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU164" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV164" s="33"/>
       <c r="AW164" s="33"/>
       <c r="AX164" s="33"/>
@@ -45101,8 +46093,12 @@
       <c r="AS165" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT165" s="33"/>
-      <c r="AU165" s="33"/>
+      <c r="AT165" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU165" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV165" s="33"/>
       <c r="AW165" s="33"/>
       <c r="AX165" s="33"/>
@@ -45271,8 +46267,12 @@
       <c r="AS166" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT166" s="33"/>
-      <c r="AU166" s="33"/>
+      <c r="AT166" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU166" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV166" s="33"/>
       <c r="AW166" s="33"/>
       <c r="AX166" s="33"/>
@@ -45441,8 +46441,12 @@
       <c r="AS167" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT167" s="33"/>
-      <c r="AU167" s="33"/>
+      <c r="AT167" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU167" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV167" s="33"/>
       <c r="AW167" s="33"/>
       <c r="AX167" s="33"/>
@@ -45611,8 +46615,12 @@
       <c r="AS168" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT168" s="33"/>
-      <c r="AU168" s="33"/>
+      <c r="AT168" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU168" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV168" s="33"/>
       <c r="AW168" s="33"/>
       <c r="AX168" s="33"/>
@@ -45781,8 +46789,12 @@
       <c r="AS169" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT169" s="33"/>
-      <c r="AU169" s="33"/>
+      <c r="AT169" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU169" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV169" s="33"/>
       <c r="AW169" s="33"/>
       <c r="AX169" s="33"/>
@@ -45951,8 +46963,12 @@
       <c r="AS170" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT170" s="33"/>
-      <c r="AU170" s="33"/>
+      <c r="AT170" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU170" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV170" s="33"/>
       <c r="AW170" s="33"/>
       <c r="AX170" s="33"/>
@@ -46121,8 +47137,12 @@
       <c r="AS171" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT171" s="33"/>
-      <c r="AU171" s="33"/>
+      <c r="AT171" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU171" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV171" s="33"/>
       <c r="AW171" s="33"/>
       <c r="AX171" s="33"/>
@@ -46291,8 +47311,12 @@
       <c r="AS172" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT172" s="33"/>
-      <c r="AU172" s="33"/>
+      <c r="AT172" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU172" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV172" s="33"/>
       <c r="AW172" s="33"/>
       <c r="AX172" s="33"/>
@@ -46461,8 +47485,12 @@
       <c r="AS173" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT173" s="33"/>
-      <c r="AU173" s="33"/>
+      <c r="AT173" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU173" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV173" s="33"/>
       <c r="AW173" s="33"/>
       <c r="AX173" s="33"/>
@@ -46631,8 +47659,12 @@
       <c r="AS174" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT174" s="33"/>
-      <c r="AU174" s="33"/>
+      <c r="AT174" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU174" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV174" s="33"/>
       <c r="AW174" s="33"/>
       <c r="AX174" s="33"/>
@@ -46801,8 +47833,12 @@
       <c r="AS175" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT175" s="33"/>
-      <c r="AU175" s="33"/>
+      <c r="AT175" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU175" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV175" s="33"/>
       <c r="AW175" s="33"/>
       <c r="AX175" s="33"/>
@@ -46971,8 +48007,12 @@
       <c r="AS176" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT176" s="33"/>
-      <c r="AU176" s="33"/>
+      <c r="AT176" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU176" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV176" s="33"/>
       <c r="AW176" s="33"/>
       <c r="AX176" s="33"/>
@@ -47141,8 +48181,12 @@
       <c r="AS177" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT177" s="33"/>
-      <c r="AU177" s="33"/>
+      <c r="AT177" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU177" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV177" s="33"/>
       <c r="AW177" s="33"/>
       <c r="AX177" s="33"/>
@@ -47311,8 +48355,12 @@
       <c r="AS178" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT178" s="33"/>
-      <c r="AU178" s="33"/>
+      <c r="AT178" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU178" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV178" s="33"/>
       <c r="AW178" s="33"/>
       <c r="AX178" s="33"/>
@@ -47481,8 +48529,12 @@
       <c r="AS179" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT179" s="33"/>
-      <c r="AU179" s="33"/>
+      <c r="AT179" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU179" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV179" s="33"/>
       <c r="AW179" s="33"/>
       <c r="AX179" s="33"/>
@@ -47651,8 +48703,12 @@
       <c r="AS180" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT180" s="33"/>
-      <c r="AU180" s="33"/>
+      <c r="AT180" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU180" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV180" s="33"/>
       <c r="AW180" s="33"/>
       <c r="AX180" s="33"/>
@@ -47821,8 +48877,12 @@
       <c r="AS181" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT181" s="33"/>
-      <c r="AU181" s="33"/>
+      <c r="AT181" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU181" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV181" s="33"/>
       <c r="AW181" s="33"/>
       <c r="AX181" s="33"/>
@@ -47991,8 +49051,12 @@
       <c r="AS182" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT182" s="33"/>
-      <c r="AU182" s="33"/>
+      <c r="AT182" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU182" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV182" s="33"/>
       <c r="AW182" s="33"/>
       <c r="AX182" s="33"/>
@@ -48161,8 +49225,12 @@
       <c r="AS183" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT183" s="33"/>
-      <c r="AU183" s="33"/>
+      <c r="AT183" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU183" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV183" s="33"/>
       <c r="AW183" s="33"/>
       <c r="AX183" s="33"/>
@@ -48331,8 +49399,12 @@
       <c r="AS184" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT184" s="33"/>
-      <c r="AU184" s="33"/>
+      <c r="AT184" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU184" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV184" s="33"/>
       <c r="AW184" s="33"/>
       <c r="AX184" s="33"/>
@@ -48501,8 +49573,12 @@
       <c r="AS185" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT185" s="33"/>
-      <c r="AU185" s="33"/>
+      <c r="AT185" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU185" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV185" s="33"/>
       <c r="AW185" s="33"/>
       <c r="AX185" s="33"/>
@@ -48671,8 +49747,12 @@
       <c r="AS186" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT186" s="33"/>
-      <c r="AU186" s="33"/>
+      <c r="AT186" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU186" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV186" s="33"/>
       <c r="AW186" s="33"/>
       <c r="AX186" s="33"/>
@@ -48841,8 +49921,12 @@
       <c r="AS187" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT187" s="33"/>
-      <c r="AU187" s="33"/>
+      <c r="AT187" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU187" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV187" s="33"/>
       <c r="AW187" s="33"/>
       <c r="AX187" s="33"/>
@@ -49011,8 +50095,12 @@
       <c r="AS188" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT188" s="33"/>
-      <c r="AU188" s="33"/>
+      <c r="AT188" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU188" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV188" s="33"/>
       <c r="AW188" s="33"/>
       <c r="AX188" s="33"/>
@@ -49181,8 +50269,12 @@
       <c r="AS189" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT189" s="33"/>
-      <c r="AU189" s="33"/>
+      <c r="AT189" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU189" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV189" s="33"/>
       <c r="AW189" s="33"/>
       <c r="AX189" s="33"/>
@@ -49351,8 +50443,12 @@
       <c r="AS190" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT190" s="33"/>
-      <c r="AU190" s="33"/>
+      <c r="AT190" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU190" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV190" s="33"/>
       <c r="AW190" s="33"/>
       <c r="AX190" s="33"/>
@@ -49521,8 +50617,12 @@
       <c r="AS191" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT191" s="33"/>
-      <c r="AU191" s="33"/>
+      <c r="AT191" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU191" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV191" s="33"/>
       <c r="AW191" s="33"/>
       <c r="AX191" s="33"/>
@@ -49691,8 +50791,12 @@
       <c r="AS192" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT192" s="33"/>
-      <c r="AU192" s="33"/>
+      <c r="AT192" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU192" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV192" s="33"/>
       <c r="AW192" s="33"/>
       <c r="AX192" s="33"/>
@@ -49861,8 +50965,12 @@
       <c r="AS193" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT193" s="33"/>
-      <c r="AU193" s="33"/>
+      <c r="AT193" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU193" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV193" s="33"/>
       <c r="AW193" s="33"/>
       <c r="AX193" s="33"/>
@@ -50031,8 +51139,12 @@
       <c r="AS194" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT194" s="33"/>
-      <c r="AU194" s="33"/>
+      <c r="AT194" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU194" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV194" s="33"/>
       <c r="AW194" s="33"/>
       <c r="AX194" s="33"/>
@@ -50201,8 +51313,12 @@
       <c r="AS195" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT195" s="33"/>
-      <c r="AU195" s="33"/>
+      <c r="AT195" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU195" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV195" s="33"/>
       <c r="AW195" s="33"/>
       <c r="AX195" s="33"/>
@@ -50371,8 +51487,12 @@
       <c r="AS196" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT196" s="33"/>
-      <c r="AU196" s="33"/>
+      <c r="AT196" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU196" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV196" s="33"/>
       <c r="AW196" s="33"/>
       <c r="AX196" s="33"/>
@@ -50541,8 +51661,12 @@
       <c r="AS197" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT197" s="33"/>
-      <c r="AU197" s="33"/>
+      <c r="AT197" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU197" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV197" s="33"/>
       <c r="AW197" s="33"/>
       <c r="AX197" s="33"/>
@@ -50711,8 +51835,12 @@
       <c r="AS198" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT198" s="33"/>
-      <c r="AU198" s="33"/>
+      <c r="AT198" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU198" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV198" s="33"/>
       <c r="AW198" s="33"/>
       <c r="AX198" s="33"/>
@@ -50881,8 +52009,12 @@
       <c r="AS199" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT199" s="33"/>
-      <c r="AU199" s="33"/>
+      <c r="AT199" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU199" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV199" s="33"/>
       <c r="AW199" s="33"/>
       <c r="AX199" s="33"/>
@@ -51051,8 +52183,12 @@
       <c r="AS200" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT200" s="33"/>
-      <c r="AU200" s="33"/>
+      <c r="AT200" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU200" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV200" s="33"/>
       <c r="AW200" s="33"/>
       <c r="AX200" s="33"/>
@@ -51221,8 +52357,12 @@
       <c r="AS201" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT201" s="33"/>
-      <c r="AU201" s="33"/>
+      <c r="AT201" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU201" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV201" s="33"/>
       <c r="AW201" s="33"/>
       <c r="AX201" s="33"/>
@@ -51391,8 +52531,12 @@
       <c r="AS202" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT202" s="33"/>
-      <c r="AU202" s="33"/>
+      <c r="AT202" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU202" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV202" s="33"/>
       <c r="AW202" s="33"/>
       <c r="AX202" s="33"/>
@@ -51561,8 +52705,12 @@
       <c r="AS203" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT203" s="33"/>
-      <c r="AU203" s="33"/>
+      <c r="AT203" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU203" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV203" s="33"/>
       <c r="AW203" s="33"/>
       <c r="AX203" s="33"/>
@@ -51731,8 +52879,12 @@
       <c r="AS204" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT204" s="33"/>
-      <c r="AU204" s="33"/>
+      <c r="AT204" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU204" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV204" s="33"/>
       <c r="AW204" s="33"/>
       <c r="AX204" s="33"/>
@@ -51901,8 +53053,12 @@
       <c r="AS205" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT205" s="33"/>
-      <c r="AU205" s="33"/>
+      <c r="AT205" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU205" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV205" s="33"/>
       <c r="AW205" s="33"/>
       <c r="AX205" s="33"/>
@@ -52071,8 +53227,12 @@
       <c r="AS206" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT206" s="33"/>
-      <c r="AU206" s="33"/>
+      <c r="AT206" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU206" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV206" s="33"/>
       <c r="AW206" s="33"/>
       <c r="AX206" s="33"/>
@@ -52241,8 +53401,12 @@
       <c r="AS207" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT207" s="33"/>
-      <c r="AU207" s="33"/>
+      <c r="AT207" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU207" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV207" s="33"/>
       <c r="AW207" s="33"/>
       <c r="AX207" s="33"/>
@@ -52411,8 +53575,12 @@
       <c r="AS208" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT208" s="33"/>
-      <c r="AU208" s="33"/>
+      <c r="AT208" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU208" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV208" s="33"/>
       <c r="AW208" s="33"/>
       <c r="AX208" s="33"/>
@@ -52581,8 +53749,12 @@
       <c r="AS209" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT209" s="33"/>
-      <c r="AU209" s="33"/>
+      <c r="AT209" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU209" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV209" s="33"/>
       <c r="AW209" s="33"/>
       <c r="AX209" s="33"/>
@@ -52751,8 +53923,12 @@
       <c r="AS210" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT210" s="33"/>
-      <c r="AU210" s="33"/>
+      <c r="AT210" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU210" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV210" s="33"/>
       <c r="AW210" s="33"/>
       <c r="AX210" s="33"/>
@@ -52921,8 +54097,12 @@
       <c r="AS211" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT211" s="33"/>
-      <c r="AU211" s="33"/>
+      <c r="AT211" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU211" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV211" s="33"/>
       <c r="AW211" s="33"/>
       <c r="AX211" s="33"/>
@@ -53091,8 +54271,12 @@
       <c r="AS212" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT212" s="33"/>
-      <c r="AU212" s="33"/>
+      <c r="AT212" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU212" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV212" s="33"/>
       <c r="AW212" s="33"/>
       <c r="AX212" s="33"/>
@@ -53261,8 +54445,12 @@
       <c r="AS213" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT213" s="33"/>
-      <c r="AU213" s="33"/>
+      <c r="AT213" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU213" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV213" s="33"/>
       <c r="AW213" s="33"/>
       <c r="AX213" s="33"/>
@@ -53431,8 +54619,12 @@
       <c r="AS214" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT214" s="33"/>
-      <c r="AU214" s="33"/>
+      <c r="AT214" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU214" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV214" s="33"/>
       <c r="AW214" s="33"/>
       <c r="AX214" s="33"/>
@@ -53601,8 +54793,12 @@
       <c r="AS215" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT215" s="33"/>
-      <c r="AU215" s="33"/>
+      <c r="AT215" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU215" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV215" s="33"/>
       <c r="AW215" s="33"/>
       <c r="AX215" s="33"/>
@@ -53771,8 +54967,12 @@
       <c r="AS216" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT216" s="33"/>
-      <c r="AU216" s="33"/>
+      <c r="AT216" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU216" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV216" s="33"/>
       <c r="AW216" s="33"/>
       <c r="AX216" s="33"/>
@@ -53941,8 +55141,12 @@
       <c r="AS217" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT217" s="33"/>
-      <c r="AU217" s="33"/>
+      <c r="AT217" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU217" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV217" s="33"/>
       <c r="AW217" s="33"/>
       <c r="AX217" s="33"/>
@@ -54111,8 +55315,12 @@
       <c r="AS218" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT218" s="33"/>
-      <c r="AU218" s="33"/>
+      <c r="AT218" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU218" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV218" s="33"/>
       <c r="AW218" s="33"/>
       <c r="AX218" s="33"/>
@@ -54281,8 +55489,12 @@
       <c r="AS219" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT219" s="33"/>
-      <c r="AU219" s="33"/>
+      <c r="AT219" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU219" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV219" s="33"/>
       <c r="AW219" s="33"/>
       <c r="AX219" s="33"/>
@@ -54451,8 +55663,12 @@
       <c r="AS220" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT220" s="33"/>
-      <c r="AU220" s="33"/>
+      <c r="AT220" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU220" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV220" s="33"/>
       <c r="AW220" s="33"/>
       <c r="AX220" s="33"/>
@@ -54621,8 +55837,12 @@
       <c r="AS221" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT221" s="33"/>
-      <c r="AU221" s="33"/>
+      <c r="AT221" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU221" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV221" s="33"/>
       <c r="AW221" s="33"/>
       <c r="AX221" s="33"/>
@@ -54791,8 +56011,12 @@
       <c r="AS222" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT222" s="33"/>
-      <c r="AU222" s="33"/>
+      <c r="AT222" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU222" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV222" s="33"/>
       <c r="AW222" s="33"/>
       <c r="AX222" s="33"/>
@@ -54961,8 +56185,12 @@
       <c r="AS223" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT223" s="33"/>
-      <c r="AU223" s="33"/>
+      <c r="AT223" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU223" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV223" s="33"/>
       <c r="AW223" s="33"/>
       <c r="AX223" s="33"/>
@@ -55131,8 +56359,12 @@
       <c r="AS224" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT224" s="33"/>
-      <c r="AU224" s="33"/>
+      <c r="AT224" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU224" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV224" s="33"/>
       <c r="AW224" s="33"/>
       <c r="AX224" s="33"/>
@@ -55301,8 +56533,12 @@
       <c r="AS225" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT225" s="33"/>
-      <c r="AU225" s="33"/>
+      <c r="AT225" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU225" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV225" s="33"/>
       <c r="AW225" s="33"/>
       <c r="AX225" s="33"/>
@@ -55471,8 +56707,12 @@
       <c r="AS226" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT226" s="33"/>
-      <c r="AU226" s="33"/>
+      <c r="AT226" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU226" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV226" s="33"/>
       <c r="AW226" s="33"/>
       <c r="AX226" s="33"/>
@@ -55641,8 +56881,12 @@
       <c r="AS227" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT227" s="33"/>
-      <c r="AU227" s="33"/>
+      <c r="AT227" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU227" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV227" s="33"/>
       <c r="AW227" s="33"/>
       <c r="AX227" s="33"/>
@@ -55811,8 +57055,12 @@
       <c r="AS228" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT228" s="33"/>
-      <c r="AU228" s="33"/>
+      <c r="AT228" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU228" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV228" s="33"/>
       <c r="AW228" s="33"/>
       <c r="AX228" s="33"/>
@@ -55981,8 +57229,12 @@
       <c r="AS229" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT229" s="33"/>
-      <c r="AU229" s="33"/>
+      <c r="AT229" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU229" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV229" s="33"/>
       <c r="AW229" s="33"/>
       <c r="AX229" s="33"/>
@@ -56151,8 +57403,12 @@
       <c r="AS230" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT230" s="33"/>
-      <c r="AU230" s="33"/>
+      <c r="AT230" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU230" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV230" s="33"/>
       <c r="AW230" s="33"/>
       <c r="AX230" s="33"/>
@@ -56321,8 +57577,12 @@
       <c r="AS231" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT231" s="33"/>
-      <c r="AU231" s="33"/>
+      <c r="AT231" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU231" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV231" s="33"/>
       <c r="AW231" s="33"/>
       <c r="AX231" s="33"/>
@@ -56491,8 +57751,12 @@
       <c r="AS232" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT232" s="33"/>
-      <c r="AU232" s="33"/>
+      <c r="AT232" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU232" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV232" s="33"/>
       <c r="AW232" s="33"/>
       <c r="AX232" s="33"/>
@@ -56661,8 +57925,12 @@
       <c r="AS233" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT233" s="33"/>
-      <c r="AU233" s="33"/>
+      <c r="AT233" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU233" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV233" s="33"/>
       <c r="AW233" s="33"/>
       <c r="AX233" s="33"/>
@@ -56831,8 +58099,12 @@
       <c r="AS234" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT234" s="33"/>
-      <c r="AU234" s="33"/>
+      <c r="AT234" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU234" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV234" s="33"/>
       <c r="AW234" s="33"/>
       <c r="AX234" s="33"/>
@@ -57001,8 +58273,12 @@
       <c r="AS235" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT235" s="33"/>
-      <c r="AU235" s="33"/>
+      <c r="AT235" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU235" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV235" s="33"/>
       <c r="AW235" s="33"/>
       <c r="AX235" s="33"/>
@@ -57171,8 +58447,12 @@
       <c r="AS236" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT236" s="33"/>
-      <c r="AU236" s="33"/>
+      <c r="AT236" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU236" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV236" s="33"/>
       <c r="AW236" s="33"/>
       <c r="AX236" s="33"/>
@@ -57341,8 +58621,12 @@
       <c r="AS237" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT237" s="33"/>
-      <c r="AU237" s="33"/>
+      <c r="AT237" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU237" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV237" s="33"/>
       <c r="AW237" s="33"/>
       <c r="AX237" s="33"/>
@@ -57511,8 +58795,12 @@
       <c r="AS238" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT238" s="33"/>
-      <c r="AU238" s="33"/>
+      <c r="AT238" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU238" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV238" s="33"/>
       <c r="AW238" s="33"/>
       <c r="AX238" s="33"/>
@@ -57681,8 +58969,12 @@
       <c r="AS239" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT239" s="33"/>
-      <c r="AU239" s="33"/>
+      <c r="AT239" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU239" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV239" s="33"/>
       <c r="AW239" s="33"/>
       <c r="AX239" s="33"/>
@@ -57851,8 +59143,12 @@
       <c r="AS240" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT240" s="33"/>
-      <c r="AU240" s="33"/>
+      <c r="AT240" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU240" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV240" s="33"/>
       <c r="AW240" s="33"/>
       <c r="AX240" s="33"/>
@@ -58021,8 +59317,12 @@
       <c r="AS241" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT241" s="33"/>
-      <c r="AU241" s="33"/>
+      <c r="AT241" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU241" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV241" s="33"/>
       <c r="AW241" s="33"/>
       <c r="AX241" s="33"/>
@@ -58191,8 +59491,12 @@
       <c r="AS242" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT242" s="33"/>
-      <c r="AU242" s="33"/>
+      <c r="AT242" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU242" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV242" s="33"/>
       <c r="AW242" s="33"/>
       <c r="AX242" s="33"/>
@@ -58361,8 +59665,12 @@
       <c r="AS243" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT243" s="33"/>
-      <c r="AU243" s="33"/>
+      <c r="AT243" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU243" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV243" s="33"/>
       <c r="AW243" s="33"/>
       <c r="AX243" s="33"/>
@@ -58531,8 +59839,12 @@
       <c r="AS244" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT244" s="33"/>
-      <c r="AU244" s="33"/>
+      <c r="AT244" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU244" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV244" s="33"/>
       <c r="AW244" s="33"/>
       <c r="AX244" s="33"/>
@@ -58701,8 +60013,12 @@
       <c r="AS245" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT245" s="33"/>
-      <c r="AU245" s="33"/>
+      <c r="AT245" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU245" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV245" s="33"/>
       <c r="AW245" s="33"/>
       <c r="AX245" s="33"/>
@@ -58871,8 +60187,12 @@
       <c r="AS246" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT246" s="33"/>
-      <c r="AU246" s="33"/>
+      <c r="AT246" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU246" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV246" s="33"/>
       <c r="AW246" s="33"/>
       <c r="AX246" s="33"/>
@@ -59041,8 +60361,12 @@
       <c r="AS247" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT247" s="33"/>
-      <c r="AU247" s="33"/>
+      <c r="AT247" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU247" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV247" s="33"/>
       <c r="AW247" s="33"/>
       <c r="AX247" s="33"/>
@@ -59211,8 +60535,12 @@
       <c r="AS248" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT248" s="33"/>
-      <c r="AU248" s="33"/>
+      <c r="AT248" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU248" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV248" s="33"/>
       <c r="AW248" s="33"/>
       <c r="AX248" s="33"/>
@@ -59381,8 +60709,12 @@
       <c r="AS249" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT249" s="33"/>
-      <c r="AU249" s="33"/>
+      <c r="AT249" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU249" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV249" s="33"/>
       <c r="AW249" s="33"/>
       <c r="AX249" s="33"/>
@@ -59551,8 +60883,12 @@
       <c r="AS250" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT250" s="33"/>
-      <c r="AU250" s="33"/>
+      <c r="AT250" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU250" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV250" s="33"/>
       <c r="AW250" s="33"/>
       <c r="AX250" s="33"/>
@@ -59721,8 +61057,12 @@
       <c r="AS251" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT251" s="33"/>
-      <c r="AU251" s="33"/>
+      <c r="AT251" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU251" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV251" s="33"/>
       <c r="AW251" s="33"/>
       <c r="AX251" s="33"/>
@@ -59891,8 +61231,12 @@
       <c r="AS252" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT252" s="33"/>
-      <c r="AU252" s="33"/>
+      <c r="AT252" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU252" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV252" s="33"/>
       <c r="AW252" s="33"/>
       <c r="AX252" s="33"/>
@@ -60061,8 +61405,12 @@
       <c r="AS253" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT253" s="33"/>
-      <c r="AU253" s="33"/>
+      <c r="AT253" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU253" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV253" s="33"/>
       <c r="AW253" s="33"/>
       <c r="AX253" s="33"/>
@@ -60231,8 +61579,12 @@
       <c r="AS254" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT254" s="33"/>
-      <c r="AU254" s="33"/>
+      <c r="AT254" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU254" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV254" s="33"/>
       <c r="AW254" s="33"/>
       <c r="AX254" s="33"/>
@@ -60401,8 +61753,12 @@
       <c r="AS255" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT255" s="33"/>
-      <c r="AU255" s="33"/>
+      <c r="AT255" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU255" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV255" s="33"/>
       <c r="AW255" s="33"/>
       <c r="AX255" s="33"/>
@@ -60571,8 +61927,12 @@
       <c r="AS256" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT256" s="33"/>
-      <c r="AU256" s="33"/>
+      <c r="AT256" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU256" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV256" s="33"/>
       <c r="AW256" s="33"/>
       <c r="AX256" s="33"/>
@@ -60741,8 +62101,12 @@
       <c r="AS257" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT257" s="33"/>
-      <c r="AU257" s="33"/>
+      <c r="AT257" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU257" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV257" s="33"/>
       <c r="AW257" s="33"/>
       <c r="AX257" s="33"/>
@@ -60911,8 +62275,12 @@
       <c r="AS258" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT258" s="33"/>
-      <c r="AU258" s="33"/>
+      <c r="AT258" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU258" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV258" s="33"/>
       <c r="AW258" s="33"/>
       <c r="AX258" s="33"/>
@@ -61081,8 +62449,12 @@
       <c r="AS259" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT259" s="33"/>
-      <c r="AU259" s="33"/>
+      <c r="AT259" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU259" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV259" s="33"/>
       <c r="AW259" s="33"/>
       <c r="AX259" s="33"/>
@@ -61251,8 +62623,12 @@
       <c r="AS260" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT260" s="33"/>
-      <c r="AU260" s="33"/>
+      <c r="AT260" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU260" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV260" s="33"/>
       <c r="AW260" s="33"/>
       <c r="AX260" s="33"/>
@@ -61421,8 +62797,12 @@
       <c r="AS261" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT261" s="33"/>
-      <c r="AU261" s="33"/>
+      <c r="AT261" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU261" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV261" s="33"/>
       <c r="AW261" s="33"/>
       <c r="AX261" s="33"/>
@@ -61591,8 +62971,12 @@
       <c r="AS262" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT262" s="33"/>
-      <c r="AU262" s="33"/>
+      <c r="AT262" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU262" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV262" s="33"/>
       <c r="AW262" s="33"/>
       <c r="AX262" s="33"/>
@@ -61761,8 +63145,12 @@
       <c r="AS263" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT263" s="33"/>
-      <c r="AU263" s="33"/>
+      <c r="AT263" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU263" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV263" s="33"/>
       <c r="AW263" s="33"/>
       <c r="AX263" s="33"/>
@@ -61931,8 +63319,12 @@
       <c r="AS264" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT264" s="33"/>
-      <c r="AU264" s="33"/>
+      <c r="AT264" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU264" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV264" s="33"/>
       <c r="AW264" s="33"/>
       <c r="AX264" s="33"/>
@@ -62101,8 +63493,12 @@
       <c r="AS265" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT265" s="33"/>
-      <c r="AU265" s="33"/>
+      <c r="AT265" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU265" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV265" s="33"/>
       <c r="AW265" s="33"/>
       <c r="AX265" s="33"/>
@@ -62271,8 +63667,12 @@
       <c r="AS266" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT266" s="33"/>
-      <c r="AU266" s="33"/>
+      <c r="AT266" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU266" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV266" s="33"/>
       <c r="AW266" s="33"/>
       <c r="AX266" s="33"/>
@@ -62441,8 +63841,12 @@
       <c r="AS267" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT267" s="33"/>
-      <c r="AU267" s="33"/>
+      <c r="AT267" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU267" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV267" s="33"/>
       <c r="AW267" s="33"/>
       <c r="AX267" s="33"/>
@@ -62611,8 +64015,12 @@
       <c r="AS268" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT268" s="33"/>
-      <c r="AU268" s="33"/>
+      <c r="AT268" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU268" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV268" s="33"/>
       <c r="AW268" s="33"/>
       <c r="AX268" s="33"/>
@@ -62781,8 +64189,12 @@
       <c r="AS269" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT269" s="33"/>
-      <c r="AU269" s="33"/>
+      <c r="AT269" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU269" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV269" s="33"/>
       <c r="AW269" s="33"/>
       <c r="AX269" s="33"/>
@@ -62951,8 +64363,12 @@
       <c r="AS270" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT270" s="33"/>
-      <c r="AU270" s="33"/>
+      <c r="AT270" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU270" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV270" s="33"/>
       <c r="AW270" s="33"/>
       <c r="AX270" s="33"/>
@@ -63121,8 +64537,12 @@
       <c r="AS271" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT271" s="33"/>
-      <c r="AU271" s="33"/>
+      <c r="AT271" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU271" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV271" s="33"/>
       <c r="AW271" s="33"/>
       <c r="AX271" s="33"/>
@@ -63291,8 +64711,12 @@
       <c r="AS272" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT272" s="33"/>
-      <c r="AU272" s="33"/>
+      <c r="AT272" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU272" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV272" s="33"/>
       <c r="AW272" s="33"/>
       <c r="AX272" s="33"/>
@@ -63461,8 +64885,12 @@
       <c r="AS273" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT273" s="33"/>
-      <c r="AU273" s="33"/>
+      <c r="AT273" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU273" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV273" s="33"/>
       <c r="AW273" s="33"/>
       <c r="AX273" s="33"/>
@@ -63631,8 +65059,12 @@
       <c r="AS274" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT274" s="33"/>
-      <c r="AU274" s="33"/>
+      <c r="AT274" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU274" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV274" s="33"/>
       <c r="AW274" s="33"/>
       <c r="AX274" s="33"/>
@@ -63801,8 +65233,12 @@
       <c r="AS275" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT275" s="33"/>
-      <c r="AU275" s="33"/>
+      <c r="AT275" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU275" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV275" s="33"/>
       <c r="AW275" s="33"/>
       <c r="AX275" s="33"/>
@@ -63971,8 +65407,12 @@
       <c r="AS276" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT276" s="33"/>
-      <c r="AU276" s="33"/>
+      <c r="AT276" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU276" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV276" s="33"/>
       <c r="AW276" s="33"/>
       <c r="AX276" s="33"/>
@@ -64141,8 +65581,12 @@
       <c r="AS277" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT277" s="33"/>
-      <c r="AU277" s="33"/>
+      <c r="AT277" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU277" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV277" s="33"/>
       <c r="AW277" s="33"/>
       <c r="AX277" s="33"/>
@@ -64311,8 +65755,12 @@
       <c r="AS278" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT278" s="33"/>
-      <c r="AU278" s="33"/>
+      <c r="AT278" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU278" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV278" s="33"/>
       <c r="AW278" s="33"/>
       <c r="AX278" s="33"/>
@@ -64481,8 +65929,12 @@
       <c r="AS279" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT279" s="33"/>
-      <c r="AU279" s="33"/>
+      <c r="AT279" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU279" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV279" s="33"/>
       <c r="AW279" s="33"/>
       <c r="AX279" s="33"/>
@@ -64651,8 +66103,12 @@
       <c r="AS280" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT280" s="33"/>
-      <c r="AU280" s="33"/>
+      <c r="AT280" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU280" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV280" s="33"/>
       <c r="AW280" s="33"/>
       <c r="AX280" s="33"/>
@@ -64821,8 +66277,12 @@
       <c r="AS281" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT281" s="33"/>
-      <c r="AU281" s="33"/>
+      <c r="AT281" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU281" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV281" s="33"/>
       <c r="AW281" s="33"/>
       <c r="AX281" s="33"/>
@@ -64991,8 +66451,12 @@
       <c r="AS282" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT282" s="33"/>
-      <c r="AU282" s="33"/>
+      <c r="AT282" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU282" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV282" s="33"/>
       <c r="AW282" s="33"/>
       <c r="AX282" s="33"/>
@@ -65161,8 +66625,12 @@
       <c r="AS283" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT283" s="33"/>
-      <c r="AU283" s="33"/>
+      <c r="AT283" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU283" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV283" s="33"/>
       <c r="AW283" s="33"/>
       <c r="AX283" s="33"/>
@@ -65331,8 +66799,12 @@
       <c r="AS284" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT284" s="33"/>
-      <c r="AU284" s="33"/>
+      <c r="AT284" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU284" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV284" s="33"/>
       <c r="AW284" s="33"/>
       <c r="AX284" s="33"/>
@@ -65501,8 +66973,12 @@
       <c r="AS285" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT285" s="33"/>
-      <c r="AU285" s="33"/>
+      <c r="AT285" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU285" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV285" s="33"/>
       <c r="AW285" s="33"/>
       <c r="AX285" s="33"/>
@@ -65671,8 +67147,12 @@
       <c r="AS286" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT286" s="33"/>
-      <c r="AU286" s="33"/>
+      <c r="AT286" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU286" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV286" s="33"/>
       <c r="AW286" s="33"/>
       <c r="AX286" s="33"/>
@@ -65841,8 +67321,12 @@
       <c r="AS287" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT287" s="33"/>
-      <c r="AU287" s="33"/>
+      <c r="AT287" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU287" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV287" s="33"/>
       <c r="AW287" s="33"/>
       <c r="AX287" s="33"/>
@@ -66011,8 +67495,12 @@
       <c r="AS288" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT288" s="33"/>
-      <c r="AU288" s="33"/>
+      <c r="AT288" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU288" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV288" s="33"/>
       <c r="AW288" s="33"/>
       <c r="AX288" s="33"/>
@@ -66181,8 +67669,12 @@
       <c r="AS289" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT289" s="33"/>
-      <c r="AU289" s="33"/>
+      <c r="AT289" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU289" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV289" s="33"/>
       <c r="AW289" s="33"/>
       <c r="AX289" s="33"/>
@@ -66351,8 +67843,12 @@
       <c r="AS290" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT290" s="33"/>
-      <c r="AU290" s="33"/>
+      <c r="AT290" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU290" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV290" s="33"/>
       <c r="AW290" s="33"/>
       <c r="AX290" s="33"/>
@@ -66521,8 +68017,12 @@
       <c r="AS291" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT291" s="33"/>
-      <c r="AU291" s="33"/>
+      <c r="AT291" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU291" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV291" s="33"/>
       <c r="AW291" s="33"/>
       <c r="AX291" s="33"/>
@@ -66691,8 +68191,12 @@
       <c r="AS292" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT292" s="33"/>
-      <c r="AU292" s="33"/>
+      <c r="AT292" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU292" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV292" s="33"/>
       <c r="AW292" s="33"/>
       <c r="AX292" s="33"/>
@@ -66861,8 +68365,12 @@
       <c r="AS293" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT293" s="33"/>
-      <c r="AU293" s="33"/>
+      <c r="AT293" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU293" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV293" s="33"/>
       <c r="AW293" s="33"/>
       <c r="AX293" s="33"/>
@@ -67031,8 +68539,12 @@
       <c r="AS294" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT294" s="33"/>
-      <c r="AU294" s="33"/>
+      <c r="AT294" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU294" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV294" s="33"/>
       <c r="AW294" s="33"/>
       <c r="AX294" s="33"/>
@@ -67201,8 +68713,12 @@
       <c r="AS295" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT295" s="33"/>
-      <c r="AU295" s="33"/>
+      <c r="AT295" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU295" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV295" s="33"/>
       <c r="AW295" s="33"/>
       <c r="AX295" s="33"/>
@@ -67371,8 +68887,12 @@
       <c r="AS296" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT296" s="33"/>
-      <c r="AU296" s="33"/>
+      <c r="AT296" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU296" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV296" s="33"/>
       <c r="AW296" s="33"/>
       <c r="AX296" s="33"/>
@@ -67541,8 +69061,12 @@
       <c r="AS297" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT297" s="33"/>
-      <c r="AU297" s="33"/>
+      <c r="AT297" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU297" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV297" s="33"/>
       <c r="AW297" s="33"/>
       <c r="AX297" s="33"/>
@@ -67711,8 +69235,12 @@
       <c r="AS298" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT298" s="33"/>
-      <c r="AU298" s="33"/>
+      <c r="AT298" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU298" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV298" s="33"/>
       <c r="AW298" s="33"/>
       <c r="AX298" s="33"/>
@@ -67881,8 +69409,12 @@
       <c r="AS299" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT299" s="33"/>
-      <c r="AU299" s="33"/>
+      <c r="AT299" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU299" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV299" s="33"/>
       <c r="AW299" s="33"/>
       <c r="AX299" s="33"/>
@@ -68051,8 +69583,12 @@
       <c r="AS300" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT300" s="33"/>
-      <c r="AU300" s="33"/>
+      <c r="AT300" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU300" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV300" s="33"/>
       <c r="AW300" s="33"/>
       <c r="AX300" s="33"/>
@@ -68221,8 +69757,12 @@
       <c r="AS301" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT301" s="33"/>
-      <c r="AU301" s="33"/>
+      <c r="AT301" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU301" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV301" s="33"/>
       <c r="AW301" s="33"/>
       <c r="AX301" s="33"/>
@@ -68391,8 +69931,12 @@
       <c r="AS302" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT302" s="33"/>
-      <c r="AU302" s="33"/>
+      <c r="AT302" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU302" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV302" s="33"/>
       <c r="AW302" s="33"/>
       <c r="AX302" s="33"/>
@@ -68561,8 +70105,12 @@
       <c r="AS303" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT303" s="33"/>
-      <c r="AU303" s="33"/>
+      <c r="AT303" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU303" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV303" s="33"/>
       <c r="AW303" s="33"/>
       <c r="AX303" s="33"/>
@@ -68731,8 +70279,12 @@
       <c r="AS304" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT304" s="33"/>
-      <c r="AU304" s="33"/>
+      <c r="AT304" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU304" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV304" s="33"/>
       <c r="AW304" s="33"/>
       <c r="AX304" s="33"/>
@@ -68901,8 +70453,12 @@
       <c r="AS305" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT305" s="33"/>
-      <c r="AU305" s="33"/>
+      <c r="AT305" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU305" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV305" s="33"/>
       <c r="AW305" s="33"/>
       <c r="AX305" s="33"/>
@@ -69071,8 +70627,12 @@
       <c r="AS306" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT306" s="33"/>
-      <c r="AU306" s="33"/>
+      <c r="AT306" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU306" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV306" s="33"/>
       <c r="AW306" s="33"/>
       <c r="AX306" s="33"/>
@@ -69241,8 +70801,12 @@
       <c r="AS307" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT307" s="33"/>
-      <c r="AU307" s="33"/>
+      <c r="AT307" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU307" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV307" s="33"/>
       <c r="AW307" s="33"/>
       <c r="AX307" s="33"/>
@@ -69411,8 +70975,12 @@
       <c r="AS308" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT308" s="33"/>
-      <c r="AU308" s="33"/>
+      <c r="AT308" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU308" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV308" s="33"/>
       <c r="AW308" s="33"/>
       <c r="AX308" s="33"/>
@@ -69581,8 +71149,12 @@
       <c r="AS309" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT309" s="33"/>
-      <c r="AU309" s="33"/>
+      <c r="AT309" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU309" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV309" s="33"/>
       <c r="AW309" s="33"/>
       <c r="AX309" s="33"/>
@@ -69751,8 +71323,12 @@
       <c r="AS310" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT310" s="33"/>
-      <c r="AU310" s="33"/>
+      <c r="AT310" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU310" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV310" s="33"/>
       <c r="AW310" s="33"/>
       <c r="AX310" s="33"/>
@@ -69921,8 +71497,12 @@
       <c r="AS311" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT311" s="33"/>
-      <c r="AU311" s="33"/>
+      <c r="AT311" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU311" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV311" s="33"/>
       <c r="AW311" s="33"/>
       <c r="AX311" s="33"/>
@@ -70091,8 +71671,12 @@
       <c r="AS312" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT312" s="33"/>
-      <c r="AU312" s="33"/>
+      <c r="AT312" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU312" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV312" s="33"/>
       <c r="AW312" s="33"/>
       <c r="AX312" s="33"/>
@@ -70261,8 +71845,12 @@
       <c r="AS313" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT313" s="33"/>
-      <c r="AU313" s="33"/>
+      <c r="AT313" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU313" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV313" s="33"/>
       <c r="AW313" s="33"/>
       <c r="AX313" s="33"/>
@@ -70431,8 +72019,12 @@
       <c r="AS314" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT314" s="33"/>
-      <c r="AU314" s="33"/>
+      <c r="AT314" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU314" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV314" s="33"/>
       <c r="AW314" s="33"/>
       <c r="AX314" s="33"/>
@@ -70601,8 +72193,12 @@
       <c r="AS315" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT315" s="33"/>
-      <c r="AU315" s="33"/>
+      <c r="AT315" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU315" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV315" s="33"/>
       <c r="AW315" s="33"/>
       <c r="AX315" s="33"/>
@@ -70771,8 +72367,12 @@
       <c r="AS316" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT316" s="33"/>
-      <c r="AU316" s="33"/>
+      <c r="AT316" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU316" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV316" s="33"/>
       <c r="AW316" s="33"/>
       <c r="AX316" s="33"/>
@@ -70941,8 +72541,12 @@
       <c r="AS317" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT317" s="33"/>
-      <c r="AU317" s="33"/>
+      <c r="AT317" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU317" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV317" s="33"/>
       <c r="AW317" s="33"/>
       <c r="AX317" s="33"/>
@@ -71111,8 +72715,12 @@
       <c r="AS318" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT318" s="33"/>
-      <c r="AU318" s="33"/>
+      <c r="AT318" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU318" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV318" s="33"/>
       <c r="AW318" s="33"/>
       <c r="AX318" s="33"/>
@@ -71281,8 +72889,12 @@
       <c r="AS319" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT319" s="33"/>
-      <c r="AU319" s="33"/>
+      <c r="AT319" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU319" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV319" s="33"/>
       <c r="AW319" s="33"/>
       <c r="AX319" s="33"/>
@@ -71451,8 +73063,12 @@
       <c r="AS320" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT320" s="33"/>
-      <c r="AU320" s="33"/>
+      <c r="AT320" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU320" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV320" s="33"/>
       <c r="AW320" s="33"/>
       <c r="AX320" s="33"/>
@@ -71621,8 +73237,12 @@
       <c r="AS321" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT321" s="33"/>
-      <c r="AU321" s="33"/>
+      <c r="AT321" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU321" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV321" s="33"/>
       <c r="AW321" s="33"/>
       <c r="AX321" s="33"/>
@@ -71791,8 +73411,12 @@
       <c r="AS322" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT322" s="33"/>
-      <c r="AU322" s="33"/>
+      <c r="AT322" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU322" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV322" s="33"/>
       <c r="AW322" s="33"/>
       <c r="AX322" s="33"/>
@@ -71961,8 +73585,12 @@
       <c r="AS323" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT323" s="33"/>
-      <c r="AU323" s="33"/>
+      <c r="AT323" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU323" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV323" s="33"/>
       <c r="AW323" s="33"/>
       <c r="AX323" s="33"/>
@@ -72131,8 +73759,12 @@
       <c r="AS324" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT324" s="33"/>
-      <c r="AU324" s="33"/>
+      <c r="AT324" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU324" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV324" s="33"/>
       <c r="AW324" s="33"/>
       <c r="AX324" s="33"/>
@@ -72301,8 +73933,12 @@
       <c r="AS325" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT325" s="33"/>
-      <c r="AU325" s="33"/>
+      <c r="AT325" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU325" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV325" s="33"/>
       <c r="AW325" s="33"/>
       <c r="AX325" s="33"/>
@@ -72471,8 +74107,12 @@
       <c r="AS326" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT326" s="33"/>
-      <c r="AU326" s="33"/>
+      <c r="AT326" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU326" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV326" s="33"/>
       <c r="AW326" s="33"/>
       <c r="AX326" s="33"/>
@@ -72641,8 +74281,12 @@
       <c r="AS327" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT327" s="33"/>
-      <c r="AU327" s="33"/>
+      <c r="AT327" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU327" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV327" s="33"/>
       <c r="AW327" s="33"/>
       <c r="AX327" s="33"/>
@@ -72811,8 +74455,12 @@
       <c r="AS328" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT328" s="33"/>
-      <c r="AU328" s="33"/>
+      <c r="AT328" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU328" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV328" s="33"/>
       <c r="AW328" s="33"/>
       <c r="AX328" s="33"/>
@@ -72981,8 +74629,12 @@
       <c r="AS329" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT329" s="33"/>
-      <c r="AU329" s="33"/>
+      <c r="AT329" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU329" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV329" s="33"/>
       <c r="AW329" s="33"/>
       <c r="AX329" s="33"/>
@@ -73151,8 +74803,12 @@
       <c r="AS330" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT330" s="33"/>
-      <c r="AU330" s="33"/>
+      <c r="AT330" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU330" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV330" s="33"/>
       <c r="AW330" s="33"/>
       <c r="AX330" s="33"/>
@@ -73321,8 +74977,12 @@
       <c r="AS331" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT331" s="33"/>
-      <c r="AU331" s="33"/>
+      <c r="AT331" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU331" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV331" s="33"/>
       <c r="AW331" s="33"/>
       <c r="AX331" s="33"/>
@@ -73491,8 +75151,12 @@
       <c r="AS332" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT332" s="33"/>
-      <c r="AU332" s="33"/>
+      <c r="AT332" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU332" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV332" s="33"/>
       <c r="AW332" s="33"/>
       <c r="AX332" s="33"/>
@@ -73661,8 +75325,12 @@
       <c r="AS333" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT333" s="33"/>
-      <c r="AU333" s="33"/>
+      <c r="AT333" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU333" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV333" s="33"/>
       <c r="AW333" s="33"/>
       <c r="AX333" s="33"/>
@@ -73831,8 +75499,12 @@
       <c r="AS334" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT334" s="33"/>
-      <c r="AU334" s="33"/>
+      <c r="AT334" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU334" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV334" s="33"/>
       <c r="AW334" s="33"/>
       <c r="AX334" s="33"/>
@@ -74001,8 +75673,12 @@
       <c r="AS335" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT335" s="33"/>
-      <c r="AU335" s="33"/>
+      <c r="AT335" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU335" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV335" s="33"/>
       <c r="AW335" s="33"/>
       <c r="AX335" s="33"/>
@@ -74171,8 +75847,12 @@
       <c r="AS336" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT336" s="33"/>
-      <c r="AU336" s="33"/>
+      <c r="AT336" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU336" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV336" s="33"/>
       <c r="AW336" s="33"/>
       <c r="AX336" s="33"/>
@@ -74341,8 +76021,12 @@
       <c r="AS337" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT337" s="33"/>
-      <c r="AU337" s="33"/>
+      <c r="AT337" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU337" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV337" s="33"/>
       <c r="AW337" s="33"/>
       <c r="AX337" s="33"/>
@@ -74511,8 +76195,12 @@
       <c r="AS338" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT338" s="33"/>
-      <c r="AU338" s="33"/>
+      <c r="AT338" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU338" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV338" s="33"/>
       <c r="AW338" s="33"/>
       <c r="AX338" s="33"/>
@@ -74681,8 +76369,12 @@
       <c r="AS339" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT339" s="33"/>
-      <c r="AU339" s="33"/>
+      <c r="AT339" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU339" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV339" s="33"/>
       <c r="AW339" s="33"/>
       <c r="AX339" s="33"/>
@@ -74851,8 +76543,12 @@
       <c r="AS340" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT340" s="33"/>
-      <c r="AU340" s="33"/>
+      <c r="AT340" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU340" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV340" s="33"/>
       <c r="AW340" s="33"/>
       <c r="AX340" s="33"/>
@@ -75021,8 +76717,12 @@
       <c r="AS341" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT341" s="33"/>
-      <c r="AU341" s="33"/>
+      <c r="AT341" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU341" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV341" s="33"/>
       <c r="AW341" s="33"/>
       <c r="AX341" s="33"/>
@@ -75191,8 +76891,12 @@
       <c r="AS342" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AT342" s="33"/>
-      <c r="AU342" s="33"/>
+      <c r="AT342" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU342" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="AV342" s="33"/>
       <c r="AW342" s="33"/>
       <c r="AX342" s="33"/>
@@ -75361,6 +77065,12 @@
       <c r="AS343" s="33" t="s">
         <v>455</v>
       </c>
+      <c r="AT343" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU343" s="33" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -75498,6 +77208,12 @@
       <c r="AS344" s="33" t="s">
         <v>455</v>
       </c>
+      <c r="AT344" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU344" s="33" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -75635,6 +77351,12 @@
       <c r="AS345" s="33" t="s">
         <v>455</v>
       </c>
+      <c r="AT345" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU345" s="33" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -75770,6 +77492,12 @@
         <v>455</v>
       </c>
       <c r="AS346" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT346" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU346" s="33" t="s">
         <v>455</v>
       </c>
     </row>

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\Wednesday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3801E7-CBFA-4187-B777-CBDC85DB932F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8894D6-378D-4A4C-A4A3-02DAEEE90A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1405,12 +1405,6 @@
     <t>90104. Norfolk Island</t>
   </si>
   <si>
-    <t>Week ending Saturday 31 October 2020</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 18 November 2020</t>
-  </si>
-  <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area 3 (SA3)</t>
   </si>
   <si>
@@ -1421,6 +1415,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 14 November 2020</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 1 December 2020</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2538,12 +2541,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2771,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="5" spans="1:78" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="6"/>
@@ -2947,8 +2950,12 @@
       <c r="AT6" s="9">
         <v>44135</v>
       </c>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
+      <c r="AU6" s="9">
+        <v>44142</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>44149</v>
+      </c>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9"/>
@@ -3119,8 +3126,12 @@
       <c r="AT7" s="33">
         <v>95.19</v>
       </c>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
+      <c r="AU7" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV7" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW7" s="33"/>
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
@@ -3291,8 +3302,12 @@
       <c r="AT8" s="33">
         <v>97.43</v>
       </c>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
+      <c r="AU8" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV8" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW8" s="33"/>
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
@@ -3463,8 +3478,12 @@
       <c r="AT9" s="33">
         <v>97.48</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
+      <c r="AU9" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV9" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW9" s="33"/>
       <c r="AX9" s="33"/>
       <c r="AY9" s="33"/>
@@ -3635,8 +3654,12 @@
       <c r="AT10" s="33">
         <v>95.28</v>
       </c>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
+      <c r="AU10" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV10" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW10" s="33"/>
       <c r="AX10" s="33"/>
       <c r="AY10" s="33"/>
@@ -3807,8 +3830,12 @@
       <c r="AT11" s="33">
         <v>96.34</v>
       </c>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
+      <c r="AU11" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV11" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW11" s="33"/>
       <c r="AX11" s="33"/>
       <c r="AY11" s="33"/>
@@ -3979,8 +4006,12 @@
       <c r="AT12" s="33">
         <v>97.98</v>
       </c>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
+      <c r="AU12" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV12" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW12" s="33"/>
       <c r="AX12" s="33"/>
       <c r="AY12" s="33"/>
@@ -4151,8 +4182,12 @@
       <c r="AT13" s="33">
         <v>98.14</v>
       </c>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
+      <c r="AU13" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV13" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW13" s="33"/>
       <c r="AX13" s="33"/>
       <c r="AY13" s="33"/>
@@ -4323,8 +4358,12 @@
       <c r="AT14" s="33">
         <v>96.23</v>
       </c>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
+      <c r="AU14" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV14" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW14" s="33"/>
       <c r="AX14" s="33"/>
       <c r="AY14" s="33"/>
@@ -4495,8 +4534,12 @@
       <c r="AT15" s="33">
         <v>96.69</v>
       </c>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
+      <c r="AU15" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV15" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW15" s="33"/>
       <c r="AX15" s="33"/>
       <c r="AY15" s="33"/>
@@ -4667,8 +4710,12 @@
       <c r="AT16" s="33">
         <v>98.4</v>
       </c>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
+      <c r="AU16" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV16" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW16" s="33"/>
       <c r="AX16" s="33"/>
       <c r="AY16" s="33"/>
@@ -4839,8 +4886,12 @@
       <c r="AT17" s="33">
         <v>98.05</v>
       </c>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
+      <c r="AU17" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV17" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW17" s="33"/>
       <c r="AX17" s="33"/>
       <c r="AY17" s="33"/>
@@ -5011,8 +5062,12 @@
       <c r="AT18" s="33">
         <v>94.93</v>
       </c>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
+      <c r="AU18" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV18" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW18" s="33"/>
       <c r="AX18" s="33"/>
       <c r="AY18" s="33"/>
@@ -5183,8 +5238,12 @@
       <c r="AT19" s="33">
         <v>96.08</v>
       </c>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
+      <c r="AU19" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV19" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW19" s="33"/>
       <c r="AX19" s="33"/>
       <c r="AY19" s="33"/>
@@ -5355,8 +5414,12 @@
       <c r="AT20" s="33">
         <v>97.58</v>
       </c>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
+      <c r="AU20" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV20" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW20" s="33"/>
       <c r="AX20" s="33"/>
       <c r="AY20" s="33"/>
@@ -5527,8 +5590,12 @@
       <c r="AT21" s="33">
         <v>97.33</v>
       </c>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
+      <c r="AU21" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV21" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW21" s="33"/>
       <c r="AX21" s="33"/>
       <c r="AY21" s="33"/>
@@ -5699,8 +5766,12 @@
       <c r="AT22" s="33">
         <v>97</v>
       </c>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
+      <c r="AU22" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV22" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW22" s="33"/>
       <c r="AX22" s="33"/>
       <c r="AY22" s="33"/>
@@ -5871,8 +5942,12 @@
       <c r="AT23" s="33">
         <v>93.46</v>
       </c>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
+      <c r="AU23" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV23" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW23" s="33"/>
       <c r="AX23" s="33"/>
       <c r="AY23" s="33"/>
@@ -6043,8 +6118,12 @@
       <c r="AT24" s="33">
         <v>94.28</v>
       </c>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
+      <c r="AU24" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV24" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW24" s="33"/>
       <c r="AX24" s="33"/>
       <c r="AY24" s="33"/>
@@ -6215,8 +6294,12 @@
       <c r="AT25" s="33">
         <v>94.61</v>
       </c>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="33"/>
+      <c r="AU25" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV25" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
       <c r="AY25" s="33"/>
@@ -6387,8 +6470,12 @@
       <c r="AT26" s="33">
         <v>95.73</v>
       </c>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
+      <c r="AU26" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV26" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW26" s="33"/>
       <c r="AX26" s="33"/>
       <c r="AY26" s="33"/>
@@ -6559,8 +6646,12 @@
       <c r="AT27" s="33">
         <v>96.6</v>
       </c>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
+      <c r="AU27" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV27" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW27" s="33"/>
       <c r="AX27" s="33"/>
       <c r="AY27" s="33"/>
@@ -6731,8 +6822,12 @@
       <c r="AT28" s="33">
         <v>96.66</v>
       </c>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
+      <c r="AU28" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV28" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
       <c r="AY28" s="33"/>
@@ -6903,8 +6998,12 @@
       <c r="AT29" s="33">
         <v>96.5</v>
       </c>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
+      <c r="AU29" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV29" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW29" s="33"/>
       <c r="AX29" s="33"/>
       <c r="AY29" s="33"/>
@@ -7075,8 +7174,12 @@
       <c r="AT30" s="33">
         <v>97.64</v>
       </c>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
+      <c r="AU30" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV30" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW30" s="33"/>
       <c r="AX30" s="33"/>
       <c r="AY30" s="33"/>
@@ -7247,8 +7350,12 @@
       <c r="AT31" s="33">
         <v>95.57</v>
       </c>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
+      <c r="AU31" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV31" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
       <c r="AY31" s="33"/>
@@ -7419,8 +7526,12 @@
       <c r="AT32" s="33">
         <v>96.02</v>
       </c>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
+      <c r="AU32" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV32" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW32" s="33"/>
       <c r="AX32" s="33"/>
       <c r="AY32" s="33"/>
@@ -7591,8 +7702,12 @@
       <c r="AT33" s="33">
         <v>94.61</v>
       </c>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
+      <c r="AU33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV33" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW33" s="33"/>
       <c r="AX33" s="33"/>
       <c r="AY33" s="33"/>
@@ -7763,8 +7878,12 @@
       <c r="AT34" s="33">
         <v>97.13</v>
       </c>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
+      <c r="AU34" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV34" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
       <c r="AY34" s="33"/>
@@ -7935,8 +8054,12 @@
       <c r="AT35" s="33">
         <v>93.42</v>
       </c>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
+      <c r="AU35" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV35" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW35" s="33"/>
       <c r="AX35" s="33"/>
       <c r="AY35" s="33"/>
@@ -8107,8 +8230,12 @@
       <c r="AT36" s="33">
         <v>93.96</v>
       </c>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
+      <c r="AU36" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV36" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW36" s="33"/>
       <c r="AX36" s="33"/>
       <c r="AY36" s="33"/>
@@ -8279,8 +8406,12 @@
       <c r="AT37" s="33">
         <v>94.27</v>
       </c>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
+      <c r="AU37" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV37" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW37" s="33"/>
       <c r="AX37" s="33"/>
       <c r="AY37" s="33"/>
@@ -8451,8 +8582,12 @@
       <c r="AT38" s="33">
         <v>96.19</v>
       </c>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
+      <c r="AU38" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV38" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW38" s="33"/>
       <c r="AX38" s="33"/>
       <c r="AY38" s="33"/>
@@ -8623,8 +8758,12 @@
       <c r="AT39" s="33">
         <v>93.09</v>
       </c>
-      <c r="AU39" s="33"/>
-      <c r="AV39" s="33"/>
+      <c r="AU39" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV39" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW39" s="33"/>
       <c r="AX39" s="33"/>
       <c r="AY39" s="33"/>
@@ -8795,8 +8934,12 @@
       <c r="AT40" s="33">
         <v>91.53</v>
       </c>
-      <c r="AU40" s="33"/>
-      <c r="AV40" s="33"/>
+      <c r="AU40" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV40" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW40" s="33"/>
       <c r="AX40" s="33"/>
       <c r="AY40" s="33"/>
@@ -8967,8 +9110,12 @@
       <c r="AT41" s="33">
         <v>94.05</v>
       </c>
-      <c r="AU41" s="33"/>
-      <c r="AV41" s="33"/>
+      <c r="AU41" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV41" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW41" s="33"/>
       <c r="AX41" s="33"/>
       <c r="AY41" s="33"/>
@@ -9139,8 +9286,12 @@
       <c r="AT42" s="33">
         <v>93.59</v>
       </c>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="33"/>
+      <c r="AU42" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV42" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW42" s="33"/>
       <c r="AX42" s="33"/>
       <c r="AY42" s="33"/>
@@ -9311,8 +9462,12 @@
       <c r="AT43" s="33">
         <v>95.05</v>
       </c>
-      <c r="AU43" s="33"/>
-      <c r="AV43" s="33"/>
+      <c r="AU43" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV43" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW43" s="33"/>
       <c r="AX43" s="33"/>
       <c r="AY43" s="33"/>
@@ -9483,8 +9638,12 @@
       <c r="AT44" s="33">
         <v>93.21</v>
       </c>
-      <c r="AU44" s="33"/>
-      <c r="AV44" s="33"/>
+      <c r="AU44" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV44" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW44" s="33"/>
       <c r="AX44" s="33"/>
       <c r="AY44" s="33"/>
@@ -9655,8 +9814,12 @@
       <c r="AT45" s="33">
         <v>94.53</v>
       </c>
-      <c r="AU45" s="33"/>
-      <c r="AV45" s="33"/>
+      <c r="AU45" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV45" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW45" s="33"/>
       <c r="AX45" s="33"/>
       <c r="AY45" s="33"/>
@@ -9827,8 +9990,12 @@
       <c r="AT46" s="33">
         <v>93.27</v>
       </c>
-      <c r="AU46" s="33"/>
-      <c r="AV46" s="33"/>
+      <c r="AU46" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV46" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW46" s="33"/>
       <c r="AX46" s="33"/>
       <c r="AY46" s="33"/>
@@ -9999,8 +10166,12 @@
       <c r="AT47" s="33">
         <v>93.47</v>
       </c>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
+      <c r="AU47" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV47" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW47" s="33"/>
       <c r="AX47" s="33"/>
       <c r="AY47" s="33"/>
@@ -10171,8 +10342,12 @@
       <c r="AT48" s="33">
         <v>93.45</v>
       </c>
-      <c r="AU48" s="33"/>
-      <c r="AV48" s="33"/>
+      <c r="AU48" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV48" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW48" s="33"/>
       <c r="AX48" s="33"/>
       <c r="AY48" s="33"/>
@@ -10343,8 +10518,12 @@
       <c r="AT49" s="33">
         <v>91.91</v>
       </c>
-      <c r="AU49" s="33"/>
-      <c r="AV49" s="33"/>
+      <c r="AU49" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV49" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW49" s="33"/>
       <c r="AX49" s="33"/>
       <c r="AY49" s="33"/>
@@ -10515,8 +10694,12 @@
       <c r="AT50" s="33">
         <v>96.54</v>
       </c>
-      <c r="AU50" s="33"/>
-      <c r="AV50" s="33"/>
+      <c r="AU50" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV50" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW50" s="33"/>
       <c r="AX50" s="33"/>
       <c r="AY50" s="33"/>
@@ -10687,8 +10870,12 @@
       <c r="AT51" s="33">
         <v>94.97</v>
       </c>
-      <c r="AU51" s="33"/>
-      <c r="AV51" s="33"/>
+      <c r="AU51" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV51" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW51" s="33"/>
       <c r="AX51" s="33"/>
       <c r="AY51" s="33"/>
@@ -10859,8 +11046,12 @@
       <c r="AT52" s="33">
         <v>97.74</v>
       </c>
-      <c r="AU52" s="33"/>
-      <c r="AV52" s="33"/>
+      <c r="AU52" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV52" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW52" s="33"/>
       <c r="AX52" s="33"/>
       <c r="AY52" s="33"/>
@@ -11031,8 +11222,12 @@
       <c r="AT53" s="33">
         <v>97.41</v>
       </c>
-      <c r="AU53" s="33"/>
-      <c r="AV53" s="33"/>
+      <c r="AU53" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV53" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW53" s="33"/>
       <c r="AX53" s="33"/>
       <c r="AY53" s="33"/>
@@ -11203,8 +11398,12 @@
       <c r="AT54" s="33">
         <v>96.66</v>
       </c>
-      <c r="AU54" s="33"/>
-      <c r="AV54" s="33"/>
+      <c r="AU54" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV54" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW54" s="33"/>
       <c r="AX54" s="33"/>
       <c r="AY54" s="33"/>
@@ -11375,8 +11574,12 @@
       <c r="AT55" s="33">
         <v>98.09</v>
       </c>
-      <c r="AU55" s="33"/>
-      <c r="AV55" s="33"/>
+      <c r="AU55" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV55" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW55" s="33"/>
       <c r="AX55" s="33"/>
       <c r="AY55" s="33"/>
@@ -11547,8 +11750,12 @@
       <c r="AT56" s="33">
         <v>96.1</v>
       </c>
-      <c r="AU56" s="33"/>
-      <c r="AV56" s="33"/>
+      <c r="AU56" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV56" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW56" s="33"/>
       <c r="AX56" s="33"/>
       <c r="AY56" s="33"/>
@@ -11719,8 +11926,12 @@
       <c r="AT57" s="33">
         <v>96.02</v>
       </c>
-      <c r="AU57" s="33"/>
-      <c r="AV57" s="33"/>
+      <c r="AU57" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV57" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW57" s="33"/>
       <c r="AX57" s="33"/>
       <c r="AY57" s="33"/>
@@ -11891,8 +12102,12 @@
       <c r="AT58" s="33">
         <v>96.03</v>
       </c>
-      <c r="AU58" s="33"/>
-      <c r="AV58" s="33"/>
+      <c r="AU58" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV58" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW58" s="33"/>
       <c r="AX58" s="33"/>
       <c r="AY58" s="33"/>
@@ -12063,8 +12278,12 @@
       <c r="AT59" s="33">
         <v>97.84</v>
       </c>
-      <c r="AU59" s="33"/>
-      <c r="AV59" s="33"/>
+      <c r="AU59" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV59" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW59" s="33"/>
       <c r="AX59" s="33"/>
       <c r="AY59" s="33"/>
@@ -12235,8 +12454,12 @@
       <c r="AT60" s="33">
         <v>95.29</v>
       </c>
-      <c r="AU60" s="33"/>
-      <c r="AV60" s="33"/>
+      <c r="AU60" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV60" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW60" s="33"/>
       <c r="AX60" s="33"/>
       <c r="AY60" s="33"/>
@@ -12407,8 +12630,12 @@
       <c r="AT61" s="33">
         <v>96.45</v>
       </c>
-      <c r="AU61" s="33"/>
-      <c r="AV61" s="33"/>
+      <c r="AU61" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV61" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW61" s="33"/>
       <c r="AX61" s="33"/>
       <c r="AY61" s="33"/>
@@ -12579,8 +12806,12 @@
       <c r="AT62" s="33">
         <v>96.23</v>
       </c>
-      <c r="AU62" s="33"/>
-      <c r="AV62" s="33"/>
+      <c r="AU62" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV62" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW62" s="33"/>
       <c r="AX62" s="33"/>
       <c r="AY62" s="33"/>
@@ -12751,8 +12982,12 @@
       <c r="AT63" s="33">
         <v>97.57</v>
       </c>
-      <c r="AU63" s="33"/>
-      <c r="AV63" s="33"/>
+      <c r="AU63" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV63" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW63" s="33"/>
       <c r="AX63" s="33"/>
       <c r="AY63" s="33"/>
@@ -12923,8 +13158,12 @@
       <c r="AT64" s="33">
         <v>96.04</v>
       </c>
-      <c r="AU64" s="33"/>
-      <c r="AV64" s="33"/>
+      <c r="AU64" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV64" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW64" s="33"/>
       <c r="AX64" s="33"/>
       <c r="AY64" s="33"/>
@@ -13095,8 +13334,12 @@
       <c r="AT65" s="33">
         <v>97.78</v>
       </c>
-      <c r="AU65" s="33"/>
-      <c r="AV65" s="33"/>
+      <c r="AU65" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV65" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW65" s="33"/>
       <c r="AX65" s="33"/>
       <c r="AY65" s="33"/>
@@ -13267,8 +13510,12 @@
       <c r="AT66" s="33">
         <v>95.74</v>
       </c>
-      <c r="AU66" s="33"/>
-      <c r="AV66" s="33"/>
+      <c r="AU66" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV66" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW66" s="33"/>
       <c r="AX66" s="33"/>
       <c r="AY66" s="33"/>
@@ -13439,8 +13686,12 @@
       <c r="AT67" s="33">
         <v>95.64</v>
       </c>
-      <c r="AU67" s="33"/>
-      <c r="AV67" s="33"/>
+      <c r="AU67" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV67" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
       <c r="AY67" s="33"/>
@@ -13611,8 +13862,12 @@
       <c r="AT68" s="33">
         <v>97.48</v>
       </c>
-      <c r="AU68" s="33"/>
-      <c r="AV68" s="33"/>
+      <c r="AU68" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV68" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW68" s="33"/>
       <c r="AX68" s="33"/>
       <c r="AY68" s="33"/>
@@ -13783,8 +14038,12 @@
       <c r="AT69" s="33">
         <v>96.43</v>
       </c>
-      <c r="AU69" s="33"/>
-      <c r="AV69" s="33"/>
+      <c r="AU69" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV69" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW69" s="33"/>
       <c r="AX69" s="33"/>
       <c r="AY69" s="33"/>
@@ -13955,8 +14214,12 @@
       <c r="AT70" s="33">
         <v>96.18</v>
       </c>
-      <c r="AU70" s="33"/>
-      <c r="AV70" s="33"/>
+      <c r="AU70" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV70" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW70" s="33"/>
       <c r="AX70" s="33"/>
       <c r="AY70" s="33"/>
@@ -14127,8 +14390,12 @@
       <c r="AT71" s="33">
         <v>97.96</v>
       </c>
-      <c r="AU71" s="33"/>
-      <c r="AV71" s="33"/>
+      <c r="AU71" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV71" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW71" s="33"/>
       <c r="AX71" s="33"/>
       <c r="AY71" s="33"/>
@@ -14299,8 +14566,12 @@
       <c r="AT72" s="33">
         <v>97.87</v>
       </c>
-      <c r="AU72" s="33"/>
-      <c r="AV72" s="33"/>
+      <c r="AU72" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV72" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW72" s="33"/>
       <c r="AX72" s="33"/>
       <c r="AY72" s="33"/>
@@ -14471,8 +14742,12 @@
       <c r="AT73" s="33">
         <v>98.13</v>
       </c>
-      <c r="AU73" s="33"/>
-      <c r="AV73" s="33"/>
+      <c r="AU73" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV73" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW73" s="33"/>
       <c r="AX73" s="33"/>
       <c r="AY73" s="33"/>
@@ -14643,8 +14918,12 @@
       <c r="AT74" s="33">
         <v>97.57</v>
       </c>
-      <c r="AU74" s="33"/>
-      <c r="AV74" s="33"/>
+      <c r="AU74" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV74" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW74" s="33"/>
       <c r="AX74" s="33"/>
       <c r="AY74" s="33"/>
@@ -14815,8 +15094,12 @@
       <c r="AT75" s="33">
         <v>96.2</v>
       </c>
-      <c r="AU75" s="33"/>
-      <c r="AV75" s="33"/>
+      <c r="AU75" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV75" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW75" s="33"/>
       <c r="AX75" s="33"/>
       <c r="AY75" s="33"/>
@@ -14987,8 +15270,12 @@
       <c r="AT76" s="33">
         <v>96.47</v>
       </c>
-      <c r="AU76" s="33"/>
-      <c r="AV76" s="33"/>
+      <c r="AU76" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV76" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW76" s="33"/>
       <c r="AX76" s="33"/>
       <c r="AY76" s="33"/>
@@ -15159,8 +15446,12 @@
       <c r="AT77" s="33">
         <v>95.23</v>
       </c>
-      <c r="AU77" s="33"/>
-      <c r="AV77" s="33"/>
+      <c r="AU77" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV77" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW77" s="33"/>
       <c r="AX77" s="33"/>
       <c r="AY77" s="33"/>
@@ -15331,8 +15622,12 @@
       <c r="AT78" s="33">
         <v>98.21</v>
       </c>
-      <c r="AU78" s="33"/>
-      <c r="AV78" s="33"/>
+      <c r="AU78" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV78" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW78" s="33"/>
       <c r="AX78" s="33"/>
       <c r="AY78" s="33"/>
@@ -15503,8 +15798,12 @@
       <c r="AT79" s="33">
         <v>98.23</v>
       </c>
-      <c r="AU79" s="33"/>
-      <c r="AV79" s="33"/>
+      <c r="AU79" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV79" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW79" s="33"/>
       <c r="AX79" s="33"/>
       <c r="AY79" s="33"/>
@@ -15675,8 +15974,12 @@
       <c r="AT80" s="33">
         <v>97.47</v>
       </c>
-      <c r="AU80" s="33"/>
-      <c r="AV80" s="33"/>
+      <c r="AU80" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV80" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW80" s="33"/>
       <c r="AX80" s="33"/>
       <c r="AY80" s="33"/>
@@ -15847,8 +16150,12 @@
       <c r="AT81" s="33">
         <v>98.29</v>
       </c>
-      <c r="AU81" s="33"/>
-      <c r="AV81" s="33"/>
+      <c r="AU81" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV81" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW81" s="33"/>
       <c r="AX81" s="33"/>
       <c r="AY81" s="33"/>
@@ -16019,8 +16326,12 @@
       <c r="AT82" s="33">
         <v>98.32</v>
       </c>
-      <c r="AU82" s="33"/>
-      <c r="AV82" s="33"/>
+      <c r="AU82" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV82" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW82" s="33"/>
       <c r="AX82" s="33"/>
       <c r="AY82" s="33"/>
@@ -16191,8 +16502,12 @@
       <c r="AT83" s="33">
         <v>97.77</v>
       </c>
-      <c r="AU83" s="33"/>
-      <c r="AV83" s="33"/>
+      <c r="AU83" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV83" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW83" s="33"/>
       <c r="AX83" s="33"/>
       <c r="AY83" s="33"/>
@@ -16363,8 +16678,12 @@
       <c r="AT84" s="33">
         <v>98.57</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
+      <c r="AU84" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV84" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW84" s="33"/>
       <c r="AX84" s="33"/>
       <c r="AY84" s="33"/>
@@ -16535,8 +16854,12 @@
       <c r="AT85" s="33">
         <v>97.05</v>
       </c>
-      <c r="AU85" s="33"/>
-      <c r="AV85" s="33"/>
+      <c r="AU85" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV85" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW85" s="33"/>
       <c r="AX85" s="33"/>
       <c r="AY85" s="33"/>
@@ -16707,8 +17030,12 @@
       <c r="AT86" s="33">
         <v>96.95</v>
       </c>
-      <c r="AU86" s="33"/>
-      <c r="AV86" s="33"/>
+      <c r="AU86" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV86" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW86" s="33"/>
       <c r="AX86" s="33"/>
       <c r="AY86" s="33"/>
@@ -16879,8 +17206,12 @@
       <c r="AT87" s="33">
         <v>96.6</v>
       </c>
-      <c r="AU87" s="33"/>
-      <c r="AV87" s="33"/>
+      <c r="AU87" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV87" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW87" s="33"/>
       <c r="AX87" s="33"/>
       <c r="AY87" s="33"/>
@@ -17051,8 +17382,12 @@
       <c r="AT88" s="33">
         <v>95.87</v>
       </c>
-      <c r="AU88" s="33"/>
-      <c r="AV88" s="33"/>
+      <c r="AU88" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV88" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW88" s="33"/>
       <c r="AX88" s="33"/>
       <c r="AY88" s="33"/>
@@ -17223,8 +17558,12 @@
       <c r="AT89" s="33">
         <v>93.52</v>
       </c>
-      <c r="AU89" s="33"/>
-      <c r="AV89" s="33"/>
+      <c r="AU89" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV89" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW89" s="33"/>
       <c r="AX89" s="33"/>
       <c r="AY89" s="33"/>
@@ -17395,8 +17734,12 @@
       <c r="AT90" s="33">
         <v>93.4</v>
       </c>
-      <c r="AU90" s="33"/>
-      <c r="AV90" s="33"/>
+      <c r="AU90" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV90" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW90" s="33"/>
       <c r="AX90" s="33"/>
       <c r="AY90" s="33"/>
@@ -17567,8 +17910,12 @@
       <c r="AT91" s="33">
         <v>93.69</v>
       </c>
-      <c r="AU91" s="33"/>
-      <c r="AV91" s="33"/>
+      <c r="AU91" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV91" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW91" s="33"/>
       <c r="AX91" s="33"/>
       <c r="AY91" s="33"/>
@@ -17739,8 +18086,12 @@
       <c r="AT92" s="33">
         <v>98.13</v>
       </c>
-      <c r="AU92" s="33"/>
-      <c r="AV92" s="33"/>
+      <c r="AU92" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV92" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW92" s="33"/>
       <c r="AX92" s="33"/>
       <c r="AY92" s="33"/>
@@ -17911,8 +18262,12 @@
       <c r="AT93" s="33">
         <v>96.09</v>
       </c>
-      <c r="AU93" s="33"/>
-      <c r="AV93" s="33"/>
+      <c r="AU93" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV93" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW93" s="33"/>
       <c r="AX93" s="33"/>
       <c r="AY93" s="33"/>
@@ -18083,8 +18438,12 @@
       <c r="AT94" s="33">
         <v>97.62</v>
       </c>
-      <c r="AU94" s="33"/>
-      <c r="AV94" s="33"/>
+      <c r="AU94" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV94" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AW94" s="33"/>
       <c r="AX94" s="33"/>
       <c r="AY94" s="33"/>
@@ -18235,7 +18594,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -18248,7 +18607,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -18429,8 +18788,12 @@
       <c r="AU6" s="32">
         <v>44135</v>
       </c>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
+      <c r="AV6" s="32">
+        <v>44142</v>
+      </c>
+      <c r="AW6" s="32">
+        <v>44149</v>
+      </c>
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
       <c r="AZ6" s="32"/>
@@ -18603,8 +18966,12 @@
       <c r="AU7" s="33">
         <v>95.72</v>
       </c>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
+      <c r="AV7" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW7" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="33"/>
@@ -18777,8 +19144,12 @@
       <c r="AU8" s="33">
         <v>93.06</v>
       </c>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
+      <c r="AV8" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW8" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="33"/>
@@ -18951,8 +19322,12 @@
       <c r="AU9" s="33">
         <v>94.33</v>
       </c>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
+      <c r="AV9" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW9" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX9" s="33"/>
       <c r="AY9" s="33"/>
       <c r="AZ9" s="33"/>
@@ -19125,8 +19500,12 @@
       <c r="AU10" s="33">
         <v>96.08</v>
       </c>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
+      <c r="AV10" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW10" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX10" s="33"/>
       <c r="AY10" s="33"/>
       <c r="AZ10" s="33"/>
@@ -19299,8 +19678,12 @@
       <c r="AU11" s="33">
         <v>95.95</v>
       </c>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
+      <c r="AV11" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW11" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX11" s="33"/>
       <c r="AY11" s="33"/>
       <c r="AZ11" s="33"/>
@@ -19473,8 +19856,12 @@
       <c r="AU12" s="33">
         <v>97.82</v>
       </c>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
+      <c r="AV12" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW12" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX12" s="33"/>
       <c r="AY12" s="33"/>
       <c r="AZ12" s="33"/>
@@ -19647,8 +20034,12 @@
       <c r="AU13" s="33">
         <v>97.01</v>
       </c>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
+      <c r="AV13" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW13" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX13" s="33"/>
       <c r="AY13" s="33"/>
       <c r="AZ13" s="33"/>
@@ -19821,8 +20212,12 @@
       <c r="AU14" s="33">
         <v>97.51</v>
       </c>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
+      <c r="AV14" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW14" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX14" s="33"/>
       <c r="AY14" s="33"/>
       <c r="AZ14" s="33"/>
@@ -19995,8 +20390,12 @@
       <c r="AU15" s="33">
         <v>96.03</v>
       </c>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
+      <c r="AV15" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW15" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX15" s="33"/>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="33"/>
@@ -20169,8 +20568,12 @@
       <c r="AU16" s="33">
         <v>101.94</v>
       </c>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
+      <c r="AV16" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW16" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX16" s="33"/>
       <c r="AY16" s="33"/>
       <c r="AZ16" s="33"/>
@@ -20343,8 +20746,12 @@
       <c r="AU17" s="33">
         <v>95.57</v>
       </c>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
+      <c r="AV17" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW17" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX17" s="33"/>
       <c r="AY17" s="33"/>
       <c r="AZ17" s="33"/>
@@ -20517,8 +20924,12 @@
       <c r="AU18" s="33">
         <v>94.11</v>
       </c>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
+      <c r="AV18" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW18" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX18" s="33"/>
       <c r="AY18" s="33"/>
       <c r="AZ18" s="33"/>
@@ -20691,8 +21102,12 @@
       <c r="AU19" s="33">
         <v>95.86</v>
       </c>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
+      <c r="AV19" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW19" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX19" s="33"/>
       <c r="AY19" s="33"/>
       <c r="AZ19" s="33"/>
@@ -20865,8 +21280,12 @@
       <c r="AU20" s="33">
         <v>91.32</v>
       </c>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
+      <c r="AV20" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW20" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX20" s="33"/>
       <c r="AY20" s="33"/>
       <c r="AZ20" s="33"/>
@@ -21039,8 +21458,12 @@
       <c r="AU21" s="33">
         <v>101.37</v>
       </c>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
+      <c r="AV21" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW21" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX21" s="33"/>
       <c r="AY21" s="33"/>
       <c r="AZ21" s="33"/>
@@ -21213,8 +21636,12 @@
       <c r="AU22" s="33">
         <v>96.48</v>
       </c>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
+      <c r="AV22" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW22" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX22" s="33"/>
       <c r="AY22" s="33"/>
       <c r="AZ22" s="33"/>
@@ -21387,8 +21814,12 @@
       <c r="AU23" s="33">
         <v>98.18</v>
       </c>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
+      <c r="AV23" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW23" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX23" s="33"/>
       <c r="AY23" s="33"/>
       <c r="AZ23" s="33"/>
@@ -21561,8 +21992,12 @@
       <c r="AU24" s="33">
         <v>98.86</v>
       </c>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
+      <c r="AV24" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW24" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX24" s="33"/>
       <c r="AY24" s="33"/>
       <c r="AZ24" s="33"/>
@@ -21735,8 +22170,12 @@
       <c r="AU25" s="33">
         <v>96.5</v>
       </c>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="33"/>
+      <c r="AV25" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW25" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX25" s="33"/>
       <c r="AY25" s="33"/>
       <c r="AZ25" s="33"/>
@@ -21909,8 +22348,12 @@
       <c r="AU26" s="33">
         <v>97.78</v>
       </c>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
+      <c r="AV26" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW26" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX26" s="33"/>
       <c r="AY26" s="33"/>
       <c r="AZ26" s="33"/>
@@ -22083,8 +22526,12 @@
       <c r="AU27" s="33">
         <v>98</v>
       </c>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
+      <c r="AV27" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW27" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX27" s="33"/>
       <c r="AY27" s="33"/>
       <c r="AZ27" s="33"/>
@@ -22126,139 +22573,143 @@
         <v>129</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Y28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AC28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AD28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AH28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AI28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AJ28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AM28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AN28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AP28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AQ28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AR28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AS28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AT28" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AU28" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AV28" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW28" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX28" s="33"/>
       <c r="AY28" s="33"/>
       <c r="AZ28" s="33"/>
@@ -22431,8 +22882,12 @@
       <c r="AU29" s="33">
         <v>99.15</v>
       </c>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
+      <c r="AV29" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW29" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX29" s="33"/>
       <c r="AY29" s="33"/>
       <c r="AZ29" s="33"/>
@@ -22605,8 +23060,12 @@
       <c r="AU30" s="33">
         <v>97.52</v>
       </c>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
+      <c r="AV30" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW30" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX30" s="33"/>
       <c r="AY30" s="33"/>
       <c r="AZ30" s="33"/>
@@ -22779,8 +23238,12 @@
       <c r="AU31" s="33">
         <v>96.22</v>
       </c>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
+      <c r="AV31" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW31" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX31" s="33"/>
       <c r="AY31" s="33"/>
       <c r="AZ31" s="33"/>
@@ -22953,8 +23416,12 @@
       <c r="AU32" s="33">
         <v>96.81</v>
       </c>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
+      <c r="AV32" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW32" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX32" s="33"/>
       <c r="AY32" s="33"/>
       <c r="AZ32" s="33"/>
@@ -23127,8 +23594,12 @@
       <c r="AU33" s="33">
         <v>90.79</v>
       </c>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
+      <c r="AV33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW33" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX33" s="33"/>
       <c r="AY33" s="33"/>
       <c r="AZ33" s="33"/>
@@ -23301,8 +23772,12 @@
       <c r="AU34" s="33">
         <v>94.74</v>
       </c>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
+      <c r="AV34" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW34" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX34" s="33"/>
       <c r="AY34" s="33"/>
       <c r="AZ34" s="33"/>
@@ -23475,8 +23950,12 @@
       <c r="AU35" s="33">
         <v>98.23</v>
       </c>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
+      <c r="AV35" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW35" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX35" s="33"/>
       <c r="AY35" s="33"/>
       <c r="AZ35" s="33"/>
@@ -23649,8 +24128,12 @@
       <c r="AU36" s="33">
         <v>98.19</v>
       </c>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
+      <c r="AV36" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW36" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX36" s="33"/>
       <c r="AY36" s="33"/>
       <c r="AZ36" s="33"/>
@@ -23823,8 +24306,12 @@
       <c r="AU37" s="33">
         <v>90.32</v>
       </c>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
+      <c r="AV37" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW37" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX37" s="33"/>
       <c r="AY37" s="33"/>
       <c r="AZ37" s="33"/>
@@ -23997,8 +24484,12 @@
       <c r="AU38" s="33">
         <v>95.96</v>
       </c>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
+      <c r="AV38" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW38" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX38" s="33"/>
       <c r="AY38" s="33"/>
       <c r="AZ38" s="33"/>
@@ -24171,8 +24662,12 @@
       <c r="AU39" s="33">
         <v>99.78</v>
       </c>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="33"/>
+      <c r="AV39" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW39" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX39" s="33"/>
       <c r="AY39" s="33"/>
       <c r="AZ39" s="33"/>
@@ -24345,8 +24840,12 @@
       <c r="AU40" s="33">
         <v>98.79</v>
       </c>
-      <c r="AV40" s="33"/>
-      <c r="AW40" s="33"/>
+      <c r="AV40" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW40" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX40" s="33"/>
       <c r="AY40" s="33"/>
       <c r="AZ40" s="33"/>
@@ -24519,8 +25018,12 @@
       <c r="AU41" s="33">
         <v>97.95</v>
       </c>
-      <c r="AV41" s="33"/>
-      <c r="AW41" s="33"/>
+      <c r="AV41" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW41" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX41" s="33"/>
       <c r="AY41" s="33"/>
       <c r="AZ41" s="33"/>
@@ -24693,8 +25196,12 @@
       <c r="AU42" s="33">
         <v>97.75</v>
       </c>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="33"/>
+      <c r="AV42" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW42" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX42" s="33"/>
       <c r="AY42" s="33"/>
       <c r="AZ42" s="33"/>
@@ -24867,8 +25374,12 @@
       <c r="AU43" s="33">
         <v>98.13</v>
       </c>
-      <c r="AV43" s="33"/>
-      <c r="AW43" s="33"/>
+      <c r="AV43" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW43" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX43" s="33"/>
       <c r="AY43" s="33"/>
       <c r="AZ43" s="33"/>
@@ -25041,8 +25552,12 @@
       <c r="AU44" s="33">
         <v>98.8</v>
       </c>
-      <c r="AV44" s="33"/>
-      <c r="AW44" s="33"/>
+      <c r="AV44" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW44" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX44" s="33"/>
       <c r="AY44" s="33"/>
       <c r="AZ44" s="33"/>
@@ -25215,8 +25730,12 @@
       <c r="AU45" s="33">
         <v>97.72</v>
       </c>
-      <c r="AV45" s="33"/>
-      <c r="AW45" s="33"/>
+      <c r="AV45" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW45" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX45" s="33"/>
       <c r="AY45" s="33"/>
       <c r="AZ45" s="33"/>
@@ -25389,8 +25908,12 @@
       <c r="AU46" s="33">
         <v>93.48</v>
       </c>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
+      <c r="AV46" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW46" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX46" s="33"/>
       <c r="AY46" s="33"/>
       <c r="AZ46" s="33"/>
@@ -25563,8 +26086,12 @@
       <c r="AU47" s="33">
         <v>95.71</v>
       </c>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
+      <c r="AV47" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW47" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX47" s="33"/>
       <c r="AY47" s="33"/>
       <c r="AZ47" s="33"/>
@@ -25737,8 +26264,12 @@
       <c r="AU48" s="33">
         <v>95.61</v>
       </c>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="33"/>
+      <c r="AV48" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW48" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX48" s="33"/>
       <c r="AY48" s="33"/>
       <c r="AZ48" s="33"/>
@@ -25911,8 +26442,12 @@
       <c r="AU49" s="33">
         <v>96.05</v>
       </c>
-      <c r="AV49" s="33"/>
-      <c r="AW49" s="33"/>
+      <c r="AV49" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW49" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX49" s="33"/>
       <c r="AY49" s="33"/>
       <c r="AZ49" s="33"/>
@@ -26085,8 +26620,12 @@
       <c r="AU50" s="33">
         <v>96.71</v>
       </c>
-      <c r="AV50" s="33"/>
-      <c r="AW50" s="33"/>
+      <c r="AV50" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW50" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX50" s="33"/>
       <c r="AY50" s="33"/>
       <c r="AZ50" s="33"/>
@@ -26259,8 +26798,12 @@
       <c r="AU51" s="33">
         <v>96.04</v>
       </c>
-      <c r="AV51" s="33"/>
-      <c r="AW51" s="33"/>
+      <c r="AV51" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW51" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX51" s="33"/>
       <c r="AY51" s="33"/>
       <c r="AZ51" s="33"/>
@@ -26433,8 +26976,12 @@
       <c r="AU52" s="33">
         <v>98.3</v>
       </c>
-      <c r="AV52" s="33"/>
-      <c r="AW52" s="33"/>
+      <c r="AV52" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW52" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX52" s="33"/>
       <c r="AY52" s="33"/>
       <c r="AZ52" s="33"/>
@@ -26607,8 +27154,12 @@
       <c r="AU53" s="33">
         <v>96.35</v>
       </c>
-      <c r="AV53" s="33"/>
-      <c r="AW53" s="33"/>
+      <c r="AV53" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW53" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX53" s="33"/>
       <c r="AY53" s="33"/>
       <c r="AZ53" s="33"/>
@@ -26781,8 +27332,12 @@
       <c r="AU54" s="33">
         <v>97.55</v>
       </c>
-      <c r="AV54" s="33"/>
-      <c r="AW54" s="33"/>
+      <c r="AV54" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW54" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX54" s="33"/>
       <c r="AY54" s="33"/>
       <c r="AZ54" s="33"/>
@@ -26955,8 +27510,12 @@
       <c r="AU55" s="33">
         <v>95.36</v>
       </c>
-      <c r="AV55" s="33"/>
-      <c r="AW55" s="33"/>
+      <c r="AV55" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW55" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX55" s="33"/>
       <c r="AY55" s="33"/>
       <c r="AZ55" s="33"/>
@@ -27129,8 +27688,12 @@
       <c r="AU56" s="33">
         <v>98.16</v>
       </c>
-      <c r="AV56" s="33"/>
-      <c r="AW56" s="33"/>
+      <c r="AV56" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW56" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX56" s="33"/>
       <c r="AY56" s="33"/>
       <c r="AZ56" s="33"/>
@@ -27303,8 +27866,12 @@
       <c r="AU57" s="33">
         <v>97.02</v>
       </c>
-      <c r="AV57" s="33"/>
-      <c r="AW57" s="33"/>
+      <c r="AV57" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW57" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX57" s="33"/>
       <c r="AY57" s="33"/>
       <c r="AZ57" s="33"/>
@@ -27477,8 +28044,12 @@
       <c r="AU58" s="33">
         <v>96.71</v>
       </c>
-      <c r="AV58" s="33"/>
-      <c r="AW58" s="33"/>
+      <c r="AV58" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW58" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX58" s="33"/>
       <c r="AY58" s="33"/>
       <c r="AZ58" s="33"/>
@@ -27651,8 +28222,12 @@
       <c r="AU59" s="33">
         <v>97.1</v>
       </c>
-      <c r="AV59" s="33"/>
-      <c r="AW59" s="33"/>
+      <c r="AV59" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW59" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX59" s="33"/>
       <c r="AY59" s="33"/>
       <c r="AZ59" s="33"/>
@@ -27825,8 +28400,12 @@
       <c r="AU60" s="33">
         <v>97.27</v>
       </c>
-      <c r="AV60" s="33"/>
-      <c r="AW60" s="33"/>
+      <c r="AV60" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW60" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX60" s="33"/>
       <c r="AY60" s="33"/>
       <c r="AZ60" s="33"/>
@@ -27999,8 +28578,12 @@
       <c r="AU61" s="33">
         <v>94.06</v>
       </c>
-      <c r="AV61" s="33"/>
-      <c r="AW61" s="33"/>
+      <c r="AV61" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW61" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX61" s="33"/>
       <c r="AY61" s="33"/>
       <c r="AZ61" s="33"/>
@@ -28173,8 +28756,12 @@
       <c r="AU62" s="33">
         <v>95.35</v>
       </c>
-      <c r="AV62" s="33"/>
-      <c r="AW62" s="33"/>
+      <c r="AV62" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW62" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX62" s="33"/>
       <c r="AY62" s="33"/>
       <c r="AZ62" s="33"/>
@@ -28347,8 +28934,12 @@
       <c r="AU63" s="33">
         <v>92.88</v>
       </c>
-      <c r="AV63" s="33"/>
-      <c r="AW63" s="33"/>
+      <c r="AV63" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW63" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX63" s="33"/>
       <c r="AY63" s="33"/>
       <c r="AZ63" s="33"/>
@@ -28521,8 +29112,12 @@
       <c r="AU64" s="33">
         <v>93.48</v>
       </c>
-      <c r="AV64" s="33"/>
-      <c r="AW64" s="33"/>
+      <c r="AV64" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW64" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX64" s="33"/>
       <c r="AY64" s="33"/>
       <c r="AZ64" s="33"/>
@@ -28695,8 +29290,12 @@
       <c r="AU65" s="33">
         <v>95.02</v>
       </c>
-      <c r="AV65" s="33"/>
-      <c r="AW65" s="33"/>
+      <c r="AV65" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW65" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX65" s="33"/>
       <c r="AY65" s="33"/>
       <c r="AZ65" s="33"/>
@@ -28869,8 +29468,12 @@
       <c r="AU66" s="33">
         <v>94.45</v>
       </c>
-      <c r="AV66" s="33"/>
-      <c r="AW66" s="33"/>
+      <c r="AV66" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW66" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX66" s="33"/>
       <c r="AY66" s="33"/>
       <c r="AZ66" s="33"/>
@@ -29043,8 +29646,12 @@
       <c r="AU67" s="33">
         <v>94.01</v>
       </c>
-      <c r="AV67" s="33"/>
-      <c r="AW67" s="33"/>
+      <c r="AV67" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW67" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX67" s="33"/>
       <c r="AY67" s="33"/>
       <c r="AZ67" s="33"/>
@@ -29217,8 +29824,12 @@
       <c r="AU68" s="33">
         <v>95.04</v>
       </c>
-      <c r="AV68" s="33"/>
-      <c r="AW68" s="33"/>
+      <c r="AV68" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW68" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX68" s="33"/>
       <c r="AY68" s="33"/>
       <c r="AZ68" s="33"/>
@@ -29391,8 +30002,12 @@
       <c r="AU69" s="33">
         <v>94.81</v>
       </c>
-      <c r="AV69" s="33"/>
-      <c r="AW69" s="33"/>
+      <c r="AV69" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW69" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX69" s="33"/>
       <c r="AY69" s="33"/>
       <c r="AZ69" s="33"/>
@@ -29565,8 +30180,12 @@
       <c r="AU70" s="33">
         <v>96.26</v>
       </c>
-      <c r="AV70" s="33"/>
-      <c r="AW70" s="33"/>
+      <c r="AV70" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW70" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX70" s="33"/>
       <c r="AY70" s="33"/>
       <c r="AZ70" s="33"/>
@@ -29739,8 +30358,12 @@
       <c r="AU71" s="33">
         <v>96.42</v>
       </c>
-      <c r="AV71" s="33"/>
-      <c r="AW71" s="33"/>
+      <c r="AV71" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW71" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX71" s="33"/>
       <c r="AY71" s="33"/>
       <c r="AZ71" s="33"/>
@@ -29913,8 +30536,12 @@
       <c r="AU72" s="33">
         <v>95.16</v>
       </c>
-      <c r="AV72" s="33"/>
-      <c r="AW72" s="33"/>
+      <c r="AV72" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW72" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX72" s="33"/>
       <c r="AY72" s="33"/>
       <c r="AZ72" s="33"/>
@@ -30087,8 +30714,12 @@
       <c r="AU73" s="33">
         <v>96.1</v>
       </c>
-      <c r="AV73" s="33"/>
-      <c r="AW73" s="33"/>
+      <c r="AV73" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW73" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX73" s="33"/>
       <c r="AY73" s="33"/>
       <c r="AZ73" s="33"/>
@@ -30261,8 +30892,12 @@
       <c r="AU74" s="33">
         <v>97.55</v>
       </c>
-      <c r="AV74" s="33"/>
-      <c r="AW74" s="33"/>
+      <c r="AV74" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW74" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX74" s="33"/>
       <c r="AY74" s="33"/>
       <c r="AZ74" s="33"/>
@@ -30435,8 +31070,12 @@
       <c r="AU75" s="33">
         <v>96.79</v>
       </c>
-      <c r="AV75" s="33"/>
-      <c r="AW75" s="33"/>
+      <c r="AV75" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW75" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX75" s="33"/>
       <c r="AY75" s="33"/>
       <c r="AZ75" s="33"/>
@@ -30609,8 +31248,12 @@
       <c r="AU76" s="33">
         <v>96.03</v>
       </c>
-      <c r="AV76" s="33"/>
-      <c r="AW76" s="33"/>
+      <c r="AV76" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW76" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX76" s="33"/>
       <c r="AY76" s="33"/>
       <c r="AZ76" s="33"/>
@@ -30783,8 +31426,12 @@
       <c r="AU77" s="33">
         <v>96.06</v>
       </c>
-      <c r="AV77" s="33"/>
-      <c r="AW77" s="33"/>
+      <c r="AV77" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW77" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX77" s="33"/>
       <c r="AY77" s="33"/>
       <c r="AZ77" s="33"/>
@@ -30957,8 +31604,12 @@
       <c r="AU78" s="33">
         <v>96.94</v>
       </c>
-      <c r="AV78" s="33"/>
-      <c r="AW78" s="33"/>
+      <c r="AV78" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW78" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX78" s="33"/>
       <c r="AY78" s="33"/>
       <c r="AZ78" s="33"/>
@@ -31131,8 +31782,12 @@
       <c r="AU79" s="33">
         <v>96.72</v>
       </c>
-      <c r="AV79" s="33"/>
-      <c r="AW79" s="33"/>
+      <c r="AV79" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW79" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX79" s="33"/>
       <c r="AY79" s="33"/>
       <c r="AZ79" s="33"/>
@@ -31305,8 +31960,12 @@
       <c r="AU80" s="33">
         <v>97.16</v>
       </c>
-      <c r="AV80" s="33"/>
-      <c r="AW80" s="33"/>
+      <c r="AV80" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW80" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX80" s="33"/>
       <c r="AY80" s="33"/>
       <c r="AZ80" s="33"/>
@@ -31479,8 +32138,12 @@
       <c r="AU81" s="33">
         <v>96</v>
       </c>
-      <c r="AV81" s="33"/>
-      <c r="AW81" s="33"/>
+      <c r="AV81" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW81" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX81" s="33"/>
       <c r="AY81" s="33"/>
       <c r="AZ81" s="33"/>
@@ -31653,8 +32316,12 @@
       <c r="AU82" s="33">
         <v>97.17</v>
       </c>
-      <c r="AV82" s="33"/>
-      <c r="AW82" s="33"/>
+      <c r="AV82" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW82" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX82" s="33"/>
       <c r="AY82" s="33"/>
       <c r="AZ82" s="33"/>
@@ -31827,8 +32494,12 @@
       <c r="AU83" s="33">
         <v>98.56</v>
       </c>
-      <c r="AV83" s="33"/>
-      <c r="AW83" s="33"/>
+      <c r="AV83" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW83" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX83" s="33"/>
       <c r="AY83" s="33"/>
       <c r="AZ83" s="33"/>
@@ -31870,139 +32541,143 @@
         <v>185</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="X84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Y84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Z84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AA84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AB84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AC84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AD84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AE84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AH84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AI84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AJ84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AM84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AN84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AO84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AP84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AQ84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AR84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AS84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AT84" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AU84" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AV84" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW84" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX84" s="33"/>
       <c r="AY84" s="33"/>
       <c r="AZ84" s="33"/>
@@ -32175,8 +32850,12 @@
       <c r="AU85" s="33">
         <v>97.65</v>
       </c>
-      <c r="AV85" s="33"/>
-      <c r="AW85" s="33"/>
+      <c r="AV85" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW85" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX85" s="33"/>
       <c r="AY85" s="33"/>
       <c r="AZ85" s="33"/>
@@ -32349,8 +33028,12 @@
       <c r="AU86" s="33">
         <v>97.12</v>
       </c>
-      <c r="AV86" s="33"/>
-      <c r="AW86" s="33"/>
+      <c r="AV86" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW86" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX86" s="33"/>
       <c r="AY86" s="33"/>
       <c r="AZ86" s="33"/>
@@ -32523,8 +33206,12 @@
       <c r="AU87" s="33">
         <v>96.66</v>
       </c>
-      <c r="AV87" s="33"/>
-      <c r="AW87" s="33"/>
+      <c r="AV87" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW87" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX87" s="33"/>
       <c r="AY87" s="33"/>
       <c r="AZ87" s="33"/>
@@ -32697,8 +33384,12 @@
       <c r="AU88" s="33">
         <v>93.97</v>
       </c>
-      <c r="AV88" s="33"/>
-      <c r="AW88" s="33"/>
+      <c r="AV88" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW88" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX88" s="33"/>
       <c r="AY88" s="33"/>
       <c r="AZ88" s="33"/>
@@ -32871,8 +33562,12 @@
       <c r="AU89" s="33">
         <v>95.96</v>
       </c>
-      <c r="AV89" s="33"/>
-      <c r="AW89" s="33"/>
+      <c r="AV89" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW89" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX89" s="33"/>
       <c r="AY89" s="33"/>
       <c r="AZ89" s="33"/>
@@ -33045,8 +33740,12 @@
       <c r="AU90" s="33">
         <v>94.32</v>
       </c>
-      <c r="AV90" s="33"/>
-      <c r="AW90" s="33"/>
+      <c r="AV90" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW90" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX90" s="33"/>
       <c r="AY90" s="33"/>
       <c r="AZ90" s="33"/>
@@ -33219,8 +33918,12 @@
       <c r="AU91" s="33">
         <v>97.15</v>
       </c>
-      <c r="AV91" s="33"/>
-      <c r="AW91" s="33"/>
+      <c r="AV91" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW91" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX91" s="33"/>
       <c r="AY91" s="33"/>
       <c r="AZ91" s="33"/>
@@ -33393,8 +34096,12 @@
       <c r="AU92" s="33">
         <v>96.63</v>
       </c>
-      <c r="AV92" s="33"/>
-      <c r="AW92" s="33"/>
+      <c r="AV92" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW92" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX92" s="33"/>
       <c r="AY92" s="33"/>
       <c r="AZ92" s="33"/>
@@ -33567,8 +34274,12 @@
       <c r="AU93" s="33">
         <v>95.8</v>
       </c>
-      <c r="AV93" s="33"/>
-      <c r="AW93" s="33"/>
+      <c r="AV93" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW93" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX93" s="33"/>
       <c r="AY93" s="33"/>
       <c r="AZ93" s="33"/>
@@ -33741,8 +34452,12 @@
       <c r="AU94" s="33">
         <v>95.9</v>
       </c>
-      <c r="AV94" s="33"/>
-      <c r="AW94" s="33"/>
+      <c r="AV94" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW94" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX94" s="33"/>
       <c r="AY94" s="33"/>
       <c r="AZ94" s="33"/>
@@ -33915,8 +34630,12 @@
       <c r="AU95" s="33">
         <v>92.94</v>
       </c>
-      <c r="AV95" s="33"/>
-      <c r="AW95" s="33"/>
+      <c r="AV95" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW95" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX95" s="33"/>
       <c r="AY95" s="33"/>
       <c r="AZ95" s="33"/>
@@ -34089,8 +34808,12 @@
       <c r="AU96" s="33">
         <v>95.64</v>
       </c>
-      <c r="AV96" s="33"/>
-      <c r="AW96" s="33"/>
+      <c r="AV96" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW96" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX96" s="33"/>
       <c r="AY96" s="33"/>
       <c r="AZ96" s="33"/>
@@ -34263,8 +34986,12 @@
       <c r="AU97" s="33">
         <v>96.96</v>
       </c>
-      <c r="AV97" s="33"/>
-      <c r="AW97" s="33"/>
+      <c r="AV97" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW97" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX97" s="33"/>
       <c r="AY97" s="33"/>
       <c r="AZ97" s="33"/>
@@ -34437,8 +35164,12 @@
       <c r="AU98" s="33">
         <v>97.24</v>
       </c>
-      <c r="AV98" s="33"/>
-      <c r="AW98" s="33"/>
+      <c r="AV98" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW98" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX98" s="33"/>
       <c r="AY98" s="33"/>
       <c r="AZ98" s="33"/>
@@ -34611,8 +35342,12 @@
       <c r="AU99" s="33">
         <v>94.05</v>
       </c>
-      <c r="AV99" s="33"/>
-      <c r="AW99" s="33"/>
+      <c r="AV99" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW99" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX99" s="33"/>
       <c r="AY99" s="33"/>
       <c r="AZ99" s="33"/>
@@ -34785,8 +35520,12 @@
       <c r="AU100" s="33">
         <v>90.9</v>
       </c>
-      <c r="AV100" s="33"/>
-      <c r="AW100" s="33"/>
+      <c r="AV100" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW100" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX100" s="33"/>
       <c r="AY100" s="33"/>
       <c r="AZ100" s="33"/>
@@ -34959,8 +35698,12 @@
       <c r="AU101" s="33">
         <v>93.02</v>
       </c>
-      <c r="AV101" s="33"/>
-      <c r="AW101" s="33"/>
+      <c r="AV101" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW101" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX101" s="33"/>
       <c r="AY101" s="33"/>
       <c r="AZ101" s="33"/>
@@ -35133,8 +35876,12 @@
       <c r="AU102" s="33">
         <v>94.6</v>
       </c>
-      <c r="AV102" s="33"/>
-      <c r="AW102" s="33"/>
+      <c r="AV102" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW102" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX102" s="33"/>
       <c r="AY102" s="33"/>
       <c r="AZ102" s="33"/>
@@ -35307,8 +36054,12 @@
       <c r="AU103" s="33">
         <v>92.57</v>
       </c>
-      <c r="AV103" s="33"/>
-      <c r="AW103" s="33"/>
+      <c r="AV103" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW103" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX103" s="33"/>
       <c r="AY103" s="33"/>
       <c r="AZ103" s="33"/>
@@ -35481,8 +36232,12 @@
       <c r="AU104" s="33">
         <v>93.07</v>
       </c>
-      <c r="AV104" s="33"/>
-      <c r="AW104" s="33"/>
+      <c r="AV104" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW104" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX104" s="33"/>
       <c r="AY104" s="33"/>
       <c r="AZ104" s="33"/>
@@ -35655,8 +36410,12 @@
       <c r="AU105" s="33">
         <v>93.32</v>
       </c>
-      <c r="AV105" s="33"/>
-      <c r="AW105" s="33"/>
+      <c r="AV105" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW105" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX105" s="33"/>
       <c r="AY105" s="33"/>
       <c r="AZ105" s="33"/>
@@ -35829,8 +36588,12 @@
       <c r="AU106" s="33">
         <v>94.53</v>
       </c>
-      <c r="AV106" s="33"/>
-      <c r="AW106" s="33"/>
+      <c r="AV106" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW106" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX106" s="33"/>
       <c r="AY106" s="33"/>
       <c r="AZ106" s="33"/>
@@ -36003,8 +36766,12 @@
       <c r="AU107" s="33">
         <v>93.74</v>
       </c>
-      <c r="AV107" s="33"/>
-      <c r="AW107" s="33"/>
+      <c r="AV107" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW107" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX107" s="33"/>
       <c r="AY107" s="33"/>
       <c r="AZ107" s="33"/>
@@ -36177,8 +36944,12 @@
       <c r="AU108" s="33">
         <v>93.88</v>
       </c>
-      <c r="AV108" s="33"/>
-      <c r="AW108" s="33"/>
+      <c r="AV108" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW108" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX108" s="33"/>
       <c r="AY108" s="33"/>
       <c r="AZ108" s="33"/>
@@ -36351,8 +37122,12 @@
       <c r="AU109" s="33">
         <v>96.23</v>
       </c>
-      <c r="AV109" s="33"/>
-      <c r="AW109" s="33"/>
+      <c r="AV109" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW109" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX109" s="33"/>
       <c r="AY109" s="33"/>
       <c r="AZ109" s="33"/>
@@ -36525,8 +37300,12 @@
       <c r="AU110" s="33">
         <v>97.73</v>
       </c>
-      <c r="AV110" s="33"/>
-      <c r="AW110" s="33"/>
+      <c r="AV110" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW110" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX110" s="33"/>
       <c r="AY110" s="33"/>
       <c r="AZ110" s="33"/>
@@ -36699,8 +37478,12 @@
       <c r="AU111" s="33">
         <v>93.2</v>
       </c>
-      <c r="AV111" s="33"/>
-      <c r="AW111" s="33"/>
+      <c r="AV111" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW111" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX111" s="33"/>
       <c r="AY111" s="33"/>
       <c r="AZ111" s="33"/>
@@ -36873,8 +37656,12 @@
       <c r="AU112" s="33">
         <v>93.24</v>
       </c>
-      <c r="AV112" s="33"/>
-      <c r="AW112" s="33"/>
+      <c r="AV112" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW112" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX112" s="33"/>
       <c r="AY112" s="33"/>
       <c r="AZ112" s="33"/>
@@ -37047,8 +37834,12 @@
       <c r="AU113" s="33">
         <v>91.8</v>
       </c>
-      <c r="AV113" s="33"/>
-      <c r="AW113" s="33"/>
+      <c r="AV113" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW113" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX113" s="33"/>
       <c r="AY113" s="33"/>
       <c r="AZ113" s="33"/>
@@ -37221,8 +38012,12 @@
       <c r="AU114" s="33">
         <v>95.84</v>
       </c>
-      <c r="AV114" s="33"/>
-      <c r="AW114" s="33"/>
+      <c r="AV114" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW114" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX114" s="33"/>
       <c r="AY114" s="33"/>
       <c r="AZ114" s="33"/>
@@ -37395,8 +38190,12 @@
       <c r="AU115" s="33">
         <v>88.95</v>
       </c>
-      <c r="AV115" s="33"/>
-      <c r="AW115" s="33"/>
+      <c r="AV115" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW115" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX115" s="33"/>
       <c r="AY115" s="33"/>
       <c r="AZ115" s="33"/>
@@ -37569,8 +38368,12 @@
       <c r="AU116" s="33">
         <v>92.6</v>
       </c>
-      <c r="AV116" s="33"/>
-      <c r="AW116" s="33"/>
+      <c r="AV116" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW116" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX116" s="33"/>
       <c r="AY116" s="33"/>
       <c r="AZ116" s="33"/>
@@ -37743,8 +38546,12 @@
       <c r="AU117" s="33">
         <v>93.87</v>
       </c>
-      <c r="AV117" s="33"/>
-      <c r="AW117" s="33"/>
+      <c r="AV117" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW117" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX117" s="33"/>
       <c r="AY117" s="33"/>
       <c r="AZ117" s="33"/>
@@ -37917,8 +38724,12 @@
       <c r="AU118" s="33">
         <v>93.28</v>
       </c>
-      <c r="AV118" s="33"/>
-      <c r="AW118" s="33"/>
+      <c r="AV118" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW118" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX118" s="33"/>
       <c r="AY118" s="33"/>
       <c r="AZ118" s="33"/>
@@ -38091,8 +38902,12 @@
       <c r="AU119" s="33">
         <v>86.76</v>
       </c>
-      <c r="AV119" s="33"/>
-      <c r="AW119" s="33"/>
+      <c r="AV119" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW119" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX119" s="33"/>
       <c r="AY119" s="33"/>
       <c r="AZ119" s="33"/>
@@ -38265,8 +39080,12 @@
       <c r="AU120" s="33">
         <v>92.14</v>
       </c>
-      <c r="AV120" s="33"/>
-      <c r="AW120" s="33"/>
+      <c r="AV120" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW120" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX120" s="33"/>
       <c r="AY120" s="33"/>
       <c r="AZ120" s="33"/>
@@ -38439,8 +39258,12 @@
       <c r="AU121" s="33">
         <v>92.78</v>
       </c>
-      <c r="AV121" s="33"/>
-      <c r="AW121" s="33"/>
+      <c r="AV121" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW121" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX121" s="33"/>
       <c r="AY121" s="33"/>
       <c r="AZ121" s="33"/>
@@ -38613,8 +39436,12 @@
       <c r="AU122" s="33">
         <v>93.3</v>
       </c>
-      <c r="AV122" s="33"/>
-      <c r="AW122" s="33"/>
+      <c r="AV122" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW122" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX122" s="33"/>
       <c r="AY122" s="33"/>
       <c r="AZ122" s="33"/>
@@ -38787,8 +39614,12 @@
       <c r="AU123" s="33">
         <v>94.87</v>
       </c>
-      <c r="AV123" s="33"/>
-      <c r="AW123" s="33"/>
+      <c r="AV123" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW123" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX123" s="33"/>
       <c r="AY123" s="33"/>
       <c r="AZ123" s="33"/>
@@ -38961,8 +39792,12 @@
       <c r="AU124" s="33">
         <v>93.53</v>
       </c>
-      <c r="AV124" s="33"/>
-      <c r="AW124" s="33"/>
+      <c r="AV124" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW124" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX124" s="33"/>
       <c r="AY124" s="33"/>
       <c r="AZ124" s="33"/>
@@ -39135,8 +39970,12 @@
       <c r="AU125" s="33">
         <v>92.98</v>
       </c>
-      <c r="AV125" s="33"/>
-      <c r="AW125" s="33"/>
+      <c r="AV125" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW125" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX125" s="33"/>
       <c r="AY125" s="33"/>
       <c r="AZ125" s="33"/>
@@ -39309,8 +40148,12 @@
       <c r="AU126" s="33">
         <v>93.57</v>
       </c>
-      <c r="AV126" s="33"/>
-      <c r="AW126" s="33"/>
+      <c r="AV126" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW126" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX126" s="33"/>
       <c r="AY126" s="33"/>
       <c r="AZ126" s="33"/>
@@ -39483,8 +40326,12 @@
       <c r="AU127" s="33">
         <v>93.26</v>
       </c>
-      <c r="AV127" s="33"/>
-      <c r="AW127" s="33"/>
+      <c r="AV127" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW127" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX127" s="33"/>
       <c r="AY127" s="33"/>
       <c r="AZ127" s="33"/>
@@ -39657,8 +40504,12 @@
       <c r="AU128" s="33">
         <v>93.96</v>
       </c>
-      <c r="AV128" s="33"/>
-      <c r="AW128" s="33"/>
+      <c r="AV128" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW128" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX128" s="33"/>
       <c r="AY128" s="33"/>
       <c r="AZ128" s="33"/>
@@ -39831,8 +40682,12 @@
       <c r="AU129" s="33">
         <v>93.71</v>
       </c>
-      <c r="AV129" s="33"/>
-      <c r="AW129" s="33"/>
+      <c r="AV129" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW129" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX129" s="33"/>
       <c r="AY129" s="33"/>
       <c r="AZ129" s="33"/>
@@ -40005,8 +40860,12 @@
       <c r="AU130" s="33">
         <v>97.01</v>
       </c>
-      <c r="AV130" s="33"/>
-      <c r="AW130" s="33"/>
+      <c r="AV130" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW130" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX130" s="33"/>
       <c r="AY130" s="33"/>
       <c r="AZ130" s="33"/>
@@ -40179,8 +41038,12 @@
       <c r="AU131" s="33">
         <v>92.62</v>
       </c>
-      <c r="AV131" s="33"/>
-      <c r="AW131" s="33"/>
+      <c r="AV131" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW131" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX131" s="33"/>
       <c r="AY131" s="33"/>
       <c r="AZ131" s="33"/>
@@ -40353,8 +41216,12 @@
       <c r="AU132" s="33">
         <v>96.42</v>
       </c>
-      <c r="AV132" s="33"/>
-      <c r="AW132" s="33"/>
+      <c r="AV132" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW132" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX132" s="33"/>
       <c r="AY132" s="33"/>
       <c r="AZ132" s="33"/>
@@ -40527,8 +41394,12 @@
       <c r="AU133" s="33">
         <v>94.59</v>
       </c>
-      <c r="AV133" s="33"/>
-      <c r="AW133" s="33"/>
+      <c r="AV133" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW133" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX133" s="33"/>
       <c r="AY133" s="33"/>
       <c r="AZ133" s="33"/>
@@ -40701,8 +41572,12 @@
       <c r="AU134" s="33">
         <v>94.06</v>
       </c>
-      <c r="AV134" s="33"/>
-      <c r="AW134" s="33"/>
+      <c r="AV134" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW134" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX134" s="33"/>
       <c r="AY134" s="33"/>
       <c r="AZ134" s="33"/>
@@ -40875,8 +41750,12 @@
       <c r="AU135" s="33">
         <v>94.27</v>
       </c>
-      <c r="AV135" s="33"/>
-      <c r="AW135" s="33"/>
+      <c r="AV135" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW135" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX135" s="33"/>
       <c r="AY135" s="33"/>
       <c r="AZ135" s="33"/>
@@ -41049,8 +41928,12 @@
       <c r="AU136" s="33">
         <v>92.7</v>
       </c>
-      <c r="AV136" s="33"/>
-      <c r="AW136" s="33"/>
+      <c r="AV136" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW136" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX136" s="33"/>
       <c r="AY136" s="33"/>
       <c r="AZ136" s="33"/>
@@ -41223,8 +42106,12 @@
       <c r="AU137" s="33">
         <v>93.91</v>
       </c>
-      <c r="AV137" s="33"/>
-      <c r="AW137" s="33"/>
+      <c r="AV137" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW137" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX137" s="33"/>
       <c r="AY137" s="33"/>
       <c r="AZ137" s="33"/>
@@ -41397,8 +42284,12 @@
       <c r="AU138" s="33">
         <v>92.63</v>
       </c>
-      <c r="AV138" s="33"/>
-      <c r="AW138" s="33"/>
+      <c r="AV138" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW138" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX138" s="33"/>
       <c r="AY138" s="33"/>
       <c r="AZ138" s="33"/>
@@ -41571,8 +42462,12 @@
       <c r="AU139" s="33">
         <v>94.63</v>
       </c>
-      <c r="AV139" s="33"/>
-      <c r="AW139" s="33"/>
+      <c r="AV139" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW139" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX139" s="33"/>
       <c r="AY139" s="33"/>
       <c r="AZ139" s="33"/>
@@ -41745,8 +42640,12 @@
       <c r="AU140" s="33">
         <v>95.54</v>
       </c>
-      <c r="AV140" s="33"/>
-      <c r="AW140" s="33"/>
+      <c r="AV140" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW140" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX140" s="33"/>
       <c r="AY140" s="33"/>
       <c r="AZ140" s="33"/>
@@ -41919,8 +42818,12 @@
       <c r="AU141" s="33">
         <v>94.55</v>
       </c>
-      <c r="AV141" s="33"/>
-      <c r="AW141" s="33"/>
+      <c r="AV141" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW141" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX141" s="33"/>
       <c r="AY141" s="33"/>
       <c r="AZ141" s="33"/>
@@ -42093,8 +42996,12 @@
       <c r="AU142" s="33">
         <v>94.53</v>
       </c>
-      <c r="AV142" s="33"/>
-      <c r="AW142" s="33"/>
+      <c r="AV142" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW142" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX142" s="33"/>
       <c r="AY142" s="33"/>
       <c r="AZ142" s="33"/>
@@ -42267,8 +43174,12 @@
       <c r="AU143" s="33">
         <v>94.21</v>
       </c>
-      <c r="AV143" s="33"/>
-      <c r="AW143" s="33"/>
+      <c r="AV143" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW143" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX143" s="33"/>
       <c r="AY143" s="33"/>
       <c r="AZ143" s="33"/>
@@ -42441,8 +43352,12 @@
       <c r="AU144" s="33">
         <v>93.88</v>
       </c>
-      <c r="AV144" s="33"/>
-      <c r="AW144" s="33"/>
+      <c r="AV144" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW144" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX144" s="33"/>
       <c r="AY144" s="33"/>
       <c r="AZ144" s="33"/>
@@ -42615,8 +43530,12 @@
       <c r="AU145" s="33">
         <v>93.56</v>
       </c>
-      <c r="AV145" s="33"/>
-      <c r="AW145" s="33"/>
+      <c r="AV145" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW145" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX145" s="33"/>
       <c r="AY145" s="33"/>
       <c r="AZ145" s="33"/>
@@ -42789,8 +43708,12 @@
       <c r="AU146" s="33">
         <v>94.21</v>
       </c>
-      <c r="AV146" s="33"/>
-      <c r="AW146" s="33"/>
+      <c r="AV146" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW146" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX146" s="33"/>
       <c r="AY146" s="33"/>
       <c r="AZ146" s="33"/>
@@ -42963,8 +43886,12 @@
       <c r="AU147" s="33">
         <v>91.41</v>
       </c>
-      <c r="AV147" s="33"/>
-      <c r="AW147" s="33"/>
+      <c r="AV147" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW147" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX147" s="33"/>
       <c r="AY147" s="33"/>
       <c r="AZ147" s="33"/>
@@ -43137,8 +44064,12 @@
       <c r="AU148" s="33">
         <v>93.4</v>
       </c>
-      <c r="AV148" s="33"/>
-      <c r="AW148" s="33"/>
+      <c r="AV148" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW148" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX148" s="33"/>
       <c r="AY148" s="33"/>
       <c r="AZ148" s="33"/>
@@ -43311,8 +44242,12 @@
       <c r="AU149" s="33">
         <v>91.69</v>
       </c>
-      <c r="AV149" s="33"/>
-      <c r="AW149" s="33"/>
+      <c r="AV149" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW149" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX149" s="33"/>
       <c r="AY149" s="33"/>
       <c r="AZ149" s="33"/>
@@ -43485,8 +44420,12 @@
       <c r="AU150" s="33">
         <v>94.4</v>
       </c>
-      <c r="AV150" s="33"/>
-      <c r="AW150" s="33"/>
+      <c r="AV150" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW150" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX150" s="33"/>
       <c r="AY150" s="33"/>
       <c r="AZ150" s="33"/>
@@ -43659,8 +44598,12 @@
       <c r="AU151" s="33">
         <v>92.16</v>
       </c>
-      <c r="AV151" s="33"/>
-      <c r="AW151" s="33"/>
+      <c r="AV151" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW151" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX151" s="33"/>
       <c r="AY151" s="33"/>
       <c r="AZ151" s="33"/>
@@ -43833,8 +44776,12 @@
       <c r="AU152" s="33">
         <v>94.2</v>
       </c>
-      <c r="AV152" s="33"/>
-      <c r="AW152" s="33"/>
+      <c r="AV152" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW152" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX152" s="33"/>
       <c r="AY152" s="33"/>
       <c r="AZ152" s="33"/>
@@ -44007,8 +44954,12 @@
       <c r="AU153" s="33">
         <v>94.43</v>
       </c>
-      <c r="AV153" s="33"/>
-      <c r="AW153" s="33"/>
+      <c r="AV153" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW153" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX153" s="33"/>
       <c r="AY153" s="33"/>
       <c r="AZ153" s="33"/>
@@ -44181,8 +45132,12 @@
       <c r="AU154" s="33">
         <v>93.6</v>
       </c>
-      <c r="AV154" s="33"/>
-      <c r="AW154" s="33"/>
+      <c r="AV154" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW154" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX154" s="33"/>
       <c r="AY154" s="33"/>
       <c r="AZ154" s="33"/>
@@ -44355,8 +45310,12 @@
       <c r="AU155" s="33">
         <v>93.3</v>
       </c>
-      <c r="AV155" s="33"/>
-      <c r="AW155" s="33"/>
+      <c r="AV155" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW155" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX155" s="33"/>
       <c r="AY155" s="33"/>
       <c r="AZ155" s="33"/>
@@ -44529,8 +45488,12 @@
       <c r="AU156" s="33">
         <v>93.97</v>
       </c>
-      <c r="AV156" s="33"/>
-      <c r="AW156" s="33"/>
+      <c r="AV156" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW156" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX156" s="33"/>
       <c r="AY156" s="33"/>
       <c r="AZ156" s="33"/>
@@ -44703,8 +45666,12 @@
       <c r="AU157" s="33">
         <v>88.86</v>
       </c>
-      <c r="AV157" s="33"/>
-      <c r="AW157" s="33"/>
+      <c r="AV157" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW157" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX157" s="33"/>
       <c r="AY157" s="33"/>
       <c r="AZ157" s="33"/>
@@ -44877,8 +45844,12 @@
       <c r="AU158" s="33">
         <v>93.68</v>
       </c>
-      <c r="AV158" s="33"/>
-      <c r="AW158" s="33"/>
+      <c r="AV158" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW158" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX158" s="33"/>
       <c r="AY158" s="33"/>
       <c r="AZ158" s="33"/>
@@ -45051,8 +46022,12 @@
       <c r="AU159" s="33">
         <v>94.74</v>
       </c>
-      <c r="AV159" s="33"/>
-      <c r="AW159" s="33"/>
+      <c r="AV159" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW159" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX159" s="33"/>
       <c r="AY159" s="33"/>
       <c r="AZ159" s="33"/>
@@ -45225,8 +46200,12 @@
       <c r="AU160" s="33">
         <v>97</v>
       </c>
-      <c r="AV160" s="33"/>
-      <c r="AW160" s="33"/>
+      <c r="AV160" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW160" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX160" s="33"/>
       <c r="AY160" s="33"/>
       <c r="AZ160" s="33"/>
@@ -45399,8 +46378,12 @@
       <c r="AU161" s="33">
         <v>97.28</v>
       </c>
-      <c r="AV161" s="33"/>
-      <c r="AW161" s="33"/>
+      <c r="AV161" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW161" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX161" s="33"/>
       <c r="AY161" s="33"/>
       <c r="AZ161" s="33"/>
@@ -45573,8 +46556,12 @@
       <c r="AU162" s="33">
         <v>95.17</v>
       </c>
-      <c r="AV162" s="33"/>
-      <c r="AW162" s="33"/>
+      <c r="AV162" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW162" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX162" s="33"/>
       <c r="AY162" s="33"/>
       <c r="AZ162" s="33"/>
@@ -45747,8 +46734,12 @@
       <c r="AU163" s="33">
         <v>92.6</v>
       </c>
-      <c r="AV163" s="33"/>
-      <c r="AW163" s="33"/>
+      <c r="AV163" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW163" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX163" s="33"/>
       <c r="AY163" s="33"/>
       <c r="AZ163" s="33"/>
@@ -45921,8 +46912,12 @@
       <c r="AU164" s="33">
         <v>96.41</v>
       </c>
-      <c r="AV164" s="33"/>
-      <c r="AW164" s="33"/>
+      <c r="AV164" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW164" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX164" s="33"/>
       <c r="AY164" s="33"/>
       <c r="AZ164" s="33"/>
@@ -46095,8 +47090,12 @@
       <c r="AU165" s="33">
         <v>97.99</v>
       </c>
-      <c r="AV165" s="33"/>
-      <c r="AW165" s="33"/>
+      <c r="AV165" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW165" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX165" s="33"/>
       <c r="AY165" s="33"/>
       <c r="AZ165" s="33"/>
@@ -46269,8 +47268,12 @@
       <c r="AU166" s="33">
         <v>98.09</v>
       </c>
-      <c r="AV166" s="33"/>
-      <c r="AW166" s="33"/>
+      <c r="AV166" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW166" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX166" s="33"/>
       <c r="AY166" s="33"/>
       <c r="AZ166" s="33"/>
@@ -46443,8 +47446,12 @@
       <c r="AU167" s="33">
         <v>97.09</v>
       </c>
-      <c r="AV167" s="33"/>
-      <c r="AW167" s="33"/>
+      <c r="AV167" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW167" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX167" s="33"/>
       <c r="AY167" s="33"/>
       <c r="AZ167" s="33"/>
@@ -46617,8 +47624,12 @@
       <c r="AU168" s="33">
         <v>97.94</v>
       </c>
-      <c r="AV168" s="33"/>
-      <c r="AW168" s="33"/>
+      <c r="AV168" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW168" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX168" s="33"/>
       <c r="AY168" s="33"/>
       <c r="AZ168" s="33"/>
@@ -46791,8 +47802,12 @@
       <c r="AU169" s="33">
         <v>97.18</v>
       </c>
-      <c r="AV169" s="33"/>
-      <c r="AW169" s="33"/>
+      <c r="AV169" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW169" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX169" s="33"/>
       <c r="AY169" s="33"/>
       <c r="AZ169" s="33"/>
@@ -46965,8 +47980,12 @@
       <c r="AU170" s="33">
         <v>97.41</v>
       </c>
-      <c r="AV170" s="33"/>
-      <c r="AW170" s="33"/>
+      <c r="AV170" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW170" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX170" s="33"/>
       <c r="AY170" s="33"/>
       <c r="AZ170" s="33"/>
@@ -47139,8 +48158,12 @@
       <c r="AU171" s="33">
         <v>97.24</v>
       </c>
-      <c r="AV171" s="33"/>
-      <c r="AW171" s="33"/>
+      <c r="AV171" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW171" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX171" s="33"/>
       <c r="AY171" s="33"/>
       <c r="AZ171" s="33"/>
@@ -47313,8 +48336,12 @@
       <c r="AU172" s="33">
         <v>97.74</v>
       </c>
-      <c r="AV172" s="33"/>
-      <c r="AW172" s="33"/>
+      <c r="AV172" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW172" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX172" s="33"/>
       <c r="AY172" s="33"/>
       <c r="AZ172" s="33"/>
@@ -47487,8 +48514,12 @@
       <c r="AU173" s="33">
         <v>97.05</v>
       </c>
-      <c r="AV173" s="33"/>
-      <c r="AW173" s="33"/>
+      <c r="AV173" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW173" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX173" s="33"/>
       <c r="AY173" s="33"/>
       <c r="AZ173" s="33"/>
@@ -47661,8 +48692,12 @@
       <c r="AU174" s="33">
         <v>96.74</v>
       </c>
-      <c r="AV174" s="33"/>
-      <c r="AW174" s="33"/>
+      <c r="AV174" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW174" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX174" s="33"/>
       <c r="AY174" s="33"/>
       <c r="AZ174" s="33"/>
@@ -47835,8 +48870,12 @@
       <c r="AU175" s="33">
         <v>97.78</v>
       </c>
-      <c r="AV175" s="33"/>
-      <c r="AW175" s="33"/>
+      <c r="AV175" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW175" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX175" s="33"/>
       <c r="AY175" s="33"/>
       <c r="AZ175" s="33"/>
@@ -48009,8 +49048,12 @@
       <c r="AU176" s="33">
         <v>96.02</v>
       </c>
-      <c r="AV176" s="33"/>
-      <c r="AW176" s="33"/>
+      <c r="AV176" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW176" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX176" s="33"/>
       <c r="AY176" s="33"/>
       <c r="AZ176" s="33"/>
@@ -48183,8 +49226,12 @@
       <c r="AU177" s="33">
         <v>93.92</v>
       </c>
-      <c r="AV177" s="33"/>
-      <c r="AW177" s="33"/>
+      <c r="AV177" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW177" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX177" s="33"/>
       <c r="AY177" s="33"/>
       <c r="AZ177" s="33"/>
@@ -48357,8 +49404,12 @@
       <c r="AU178" s="33">
         <v>98.03</v>
       </c>
-      <c r="AV178" s="33"/>
-      <c r="AW178" s="33"/>
+      <c r="AV178" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW178" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX178" s="33"/>
       <c r="AY178" s="33"/>
       <c r="AZ178" s="33"/>
@@ -48531,8 +49582,12 @@
       <c r="AU179" s="33">
         <v>98.68</v>
       </c>
-      <c r="AV179" s="33"/>
-      <c r="AW179" s="33"/>
+      <c r="AV179" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW179" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX179" s="33"/>
       <c r="AY179" s="33"/>
       <c r="AZ179" s="33"/>
@@ -48705,8 +49760,12 @@
       <c r="AU180" s="33">
         <v>97.83</v>
       </c>
-      <c r="AV180" s="33"/>
-      <c r="AW180" s="33"/>
+      <c r="AV180" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW180" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX180" s="33"/>
       <c r="AY180" s="33"/>
       <c r="AZ180" s="33"/>
@@ -48879,8 +49938,12 @@
       <c r="AU181" s="33">
         <v>97.66</v>
       </c>
-      <c r="AV181" s="33"/>
-      <c r="AW181" s="33"/>
+      <c r="AV181" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW181" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX181" s="33"/>
       <c r="AY181" s="33"/>
       <c r="AZ181" s="33"/>
@@ -49053,8 +50116,12 @@
       <c r="AU182" s="33">
         <v>94.63</v>
       </c>
-      <c r="AV182" s="33"/>
-      <c r="AW182" s="33"/>
+      <c r="AV182" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW182" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX182" s="33"/>
       <c r="AY182" s="33"/>
       <c r="AZ182" s="33"/>
@@ -49227,8 +50294,12 @@
       <c r="AU183" s="33">
         <v>96.58</v>
       </c>
-      <c r="AV183" s="33"/>
-      <c r="AW183" s="33"/>
+      <c r="AV183" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW183" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX183" s="33"/>
       <c r="AY183" s="33"/>
       <c r="AZ183" s="33"/>
@@ -49401,8 +50472,12 @@
       <c r="AU184" s="33">
         <v>96.44</v>
       </c>
-      <c r="AV184" s="33"/>
-      <c r="AW184" s="33"/>
+      <c r="AV184" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW184" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX184" s="33"/>
       <c r="AY184" s="33"/>
       <c r="AZ184" s="33"/>
@@ -49575,8 +50650,12 @@
       <c r="AU185" s="33">
         <v>96.99</v>
       </c>
-      <c r="AV185" s="33"/>
-      <c r="AW185" s="33"/>
+      <c r="AV185" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW185" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX185" s="33"/>
       <c r="AY185" s="33"/>
       <c r="AZ185" s="33"/>
@@ -49749,8 +50828,12 @@
       <c r="AU186" s="33">
         <v>96.52</v>
       </c>
-      <c r="AV186" s="33"/>
-      <c r="AW186" s="33"/>
+      <c r="AV186" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW186" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX186" s="33"/>
       <c r="AY186" s="33"/>
       <c r="AZ186" s="33"/>
@@ -49923,8 +51006,12 @@
       <c r="AU187" s="33">
         <v>95.32</v>
       </c>
-      <c r="AV187" s="33"/>
-      <c r="AW187" s="33"/>
+      <c r="AV187" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW187" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX187" s="33"/>
       <c r="AY187" s="33"/>
       <c r="AZ187" s="33"/>
@@ -50097,8 +51184,12 @@
       <c r="AU188" s="33">
         <v>97.47</v>
       </c>
-      <c r="AV188" s="33"/>
-      <c r="AW188" s="33"/>
+      <c r="AV188" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW188" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX188" s="33"/>
       <c r="AY188" s="33"/>
       <c r="AZ188" s="33"/>
@@ -50271,8 +51362,12 @@
       <c r="AU189" s="33">
         <v>96.06</v>
       </c>
-      <c r="AV189" s="33"/>
-      <c r="AW189" s="33"/>
+      <c r="AV189" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW189" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX189" s="33"/>
       <c r="AY189" s="33"/>
       <c r="AZ189" s="33"/>
@@ -50445,8 +51540,12 @@
       <c r="AU190" s="33">
         <v>96.01</v>
       </c>
-      <c r="AV190" s="33"/>
-      <c r="AW190" s="33"/>
+      <c r="AV190" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW190" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX190" s="33"/>
       <c r="AY190" s="33"/>
       <c r="AZ190" s="33"/>
@@ -50619,8 +51718,12 @@
       <c r="AU191" s="33">
         <v>94.86</v>
       </c>
-      <c r="AV191" s="33"/>
-      <c r="AW191" s="33"/>
+      <c r="AV191" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW191" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX191" s="33"/>
       <c r="AY191" s="33"/>
       <c r="AZ191" s="33"/>
@@ -50793,8 +51896,12 @@
       <c r="AU192" s="33">
         <v>97.31</v>
       </c>
-      <c r="AV192" s="33"/>
-      <c r="AW192" s="33"/>
+      <c r="AV192" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW192" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX192" s="33"/>
       <c r="AY192" s="33"/>
       <c r="AZ192" s="33"/>
@@ -50967,8 +52074,12 @@
       <c r="AU193" s="33">
         <v>95.81</v>
       </c>
-      <c r="AV193" s="33"/>
-      <c r="AW193" s="33"/>
+      <c r="AV193" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW193" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX193" s="33"/>
       <c r="AY193" s="33"/>
       <c r="AZ193" s="33"/>
@@ -51141,8 +52252,12 @@
       <c r="AU194" s="33">
         <v>97.68</v>
       </c>
-      <c r="AV194" s="33"/>
-      <c r="AW194" s="33"/>
+      <c r="AV194" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW194" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX194" s="33"/>
       <c r="AY194" s="33"/>
       <c r="AZ194" s="33"/>
@@ -51315,8 +52430,12 @@
       <c r="AU195" s="33">
         <v>97.67</v>
       </c>
-      <c r="AV195" s="33"/>
-      <c r="AW195" s="33"/>
+      <c r="AV195" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW195" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX195" s="33"/>
       <c r="AY195" s="33"/>
       <c r="AZ195" s="33"/>
@@ -51489,8 +52608,12 @@
       <c r="AU196" s="33">
         <v>99.07</v>
       </c>
-      <c r="AV196" s="33"/>
-      <c r="AW196" s="33"/>
+      <c r="AV196" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW196" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX196" s="33"/>
       <c r="AY196" s="33"/>
       <c r="AZ196" s="33"/>
@@ -51663,8 +52786,12 @@
       <c r="AU197" s="33">
         <v>97.95</v>
       </c>
-      <c r="AV197" s="33"/>
-      <c r="AW197" s="33"/>
+      <c r="AV197" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW197" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX197" s="33"/>
       <c r="AY197" s="33"/>
       <c r="AZ197" s="33"/>
@@ -51837,8 +52964,12 @@
       <c r="AU198" s="33">
         <v>94.87</v>
       </c>
-      <c r="AV198" s="33"/>
-      <c r="AW198" s="33"/>
+      <c r="AV198" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW198" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX198" s="33"/>
       <c r="AY198" s="33"/>
       <c r="AZ198" s="33"/>
@@ -52011,8 +53142,12 @@
       <c r="AU199" s="33">
         <v>95.02</v>
       </c>
-      <c r="AV199" s="33"/>
-      <c r="AW199" s="33"/>
+      <c r="AV199" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW199" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX199" s="33"/>
       <c r="AY199" s="33"/>
       <c r="AZ199" s="33"/>
@@ -52185,8 +53320,12 @@
       <c r="AU200" s="33">
         <v>95.2</v>
       </c>
-      <c r="AV200" s="33"/>
-      <c r="AW200" s="33"/>
+      <c r="AV200" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW200" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX200" s="33"/>
       <c r="AY200" s="33"/>
       <c r="AZ200" s="33"/>
@@ -52359,8 +53498,12 @@
       <c r="AU201" s="33">
         <v>94.91</v>
       </c>
-      <c r="AV201" s="33"/>
-      <c r="AW201" s="33"/>
+      <c r="AV201" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW201" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX201" s="33"/>
       <c r="AY201" s="33"/>
       <c r="AZ201" s="33"/>
@@ -52533,8 +53676,12 @@
       <c r="AU202" s="33">
         <v>96.82</v>
       </c>
-      <c r="AV202" s="33"/>
-      <c r="AW202" s="33"/>
+      <c r="AV202" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW202" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX202" s="33"/>
       <c r="AY202" s="33"/>
       <c r="AZ202" s="33"/>
@@ -52707,8 +53854,12 @@
       <c r="AU203" s="33">
         <v>96.32</v>
       </c>
-      <c r="AV203" s="33"/>
-      <c r="AW203" s="33"/>
+      <c r="AV203" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW203" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX203" s="33"/>
       <c r="AY203" s="33"/>
       <c r="AZ203" s="33"/>
@@ -52881,8 +54032,12 @@
       <c r="AU204" s="33">
         <v>95.61</v>
       </c>
-      <c r="AV204" s="33"/>
-      <c r="AW204" s="33"/>
+      <c r="AV204" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW204" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX204" s="33"/>
       <c r="AY204" s="33"/>
       <c r="AZ204" s="33"/>
@@ -53055,8 +54210,12 @@
       <c r="AU205" s="33">
         <v>95.89</v>
       </c>
-      <c r="AV205" s="33"/>
-      <c r="AW205" s="33"/>
+      <c r="AV205" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW205" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX205" s="33"/>
       <c r="AY205" s="33"/>
       <c r="AZ205" s="33"/>
@@ -53229,8 +54388,12 @@
       <c r="AU206" s="33">
         <v>94.15</v>
       </c>
-      <c r="AV206" s="33"/>
-      <c r="AW206" s="33"/>
+      <c r="AV206" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW206" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX206" s="33"/>
       <c r="AY206" s="33"/>
       <c r="AZ206" s="33"/>
@@ -53403,8 +54566,12 @@
       <c r="AU207" s="33">
         <v>92.96</v>
       </c>
-      <c r="AV207" s="33"/>
-      <c r="AW207" s="33"/>
+      <c r="AV207" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW207" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX207" s="33"/>
       <c r="AY207" s="33"/>
       <c r="AZ207" s="33"/>
@@ -53577,8 +54744,12 @@
       <c r="AU208" s="33">
         <v>95.61</v>
       </c>
-      <c r="AV208" s="33"/>
-      <c r="AW208" s="33"/>
+      <c r="AV208" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW208" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX208" s="33"/>
       <c r="AY208" s="33"/>
       <c r="AZ208" s="33"/>
@@ -53751,8 +54922,12 @@
       <c r="AU209" s="33">
         <v>96.92</v>
       </c>
-      <c r="AV209" s="33"/>
-      <c r="AW209" s="33"/>
+      <c r="AV209" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW209" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX209" s="33"/>
       <c r="AY209" s="33"/>
       <c r="AZ209" s="33"/>
@@ -53925,8 +55100,12 @@
       <c r="AU210" s="33">
         <v>96.26</v>
       </c>
-      <c r="AV210" s="33"/>
-      <c r="AW210" s="33"/>
+      <c r="AV210" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW210" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX210" s="33"/>
       <c r="AY210" s="33"/>
       <c r="AZ210" s="33"/>
@@ -54099,8 +55278,12 @@
       <c r="AU211" s="33">
         <v>96.87</v>
       </c>
-      <c r="AV211" s="33"/>
-      <c r="AW211" s="33"/>
+      <c r="AV211" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW211" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX211" s="33"/>
       <c r="AY211" s="33"/>
       <c r="AZ211" s="33"/>
@@ -54273,8 +55456,12 @@
       <c r="AU212" s="33">
         <v>95.95</v>
       </c>
-      <c r="AV212" s="33"/>
-      <c r="AW212" s="33"/>
+      <c r="AV212" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW212" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX212" s="33"/>
       <c r="AY212" s="33"/>
       <c r="AZ212" s="33"/>
@@ -54447,8 +55634,12 @@
       <c r="AU213" s="33">
         <v>95.02</v>
       </c>
-      <c r="AV213" s="33"/>
-      <c r="AW213" s="33"/>
+      <c r="AV213" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW213" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX213" s="33"/>
       <c r="AY213" s="33"/>
       <c r="AZ213" s="33"/>
@@ -54621,8 +55812,12 @@
       <c r="AU214" s="33">
         <v>96.44</v>
       </c>
-      <c r="AV214" s="33"/>
-      <c r="AW214" s="33"/>
+      <c r="AV214" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW214" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX214" s="33"/>
       <c r="AY214" s="33"/>
       <c r="AZ214" s="33"/>
@@ -54795,8 +55990,12 @@
       <c r="AU215" s="33">
         <v>96.25</v>
       </c>
-      <c r="AV215" s="33"/>
-      <c r="AW215" s="33"/>
+      <c r="AV215" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW215" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX215" s="33"/>
       <c r="AY215" s="33"/>
       <c r="AZ215" s="33"/>
@@ -54969,8 +56168,12 @@
       <c r="AU216" s="33">
         <v>95.96</v>
       </c>
-      <c r="AV216" s="33"/>
-      <c r="AW216" s="33"/>
+      <c r="AV216" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW216" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX216" s="33"/>
       <c r="AY216" s="33"/>
       <c r="AZ216" s="33"/>
@@ -55143,8 +56346,12 @@
       <c r="AU217" s="33">
         <v>96.71</v>
       </c>
-      <c r="AV217" s="33"/>
-      <c r="AW217" s="33"/>
+      <c r="AV217" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW217" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX217" s="33"/>
       <c r="AY217" s="33"/>
       <c r="AZ217" s="33"/>
@@ -55317,8 +56524,12 @@
       <c r="AU218" s="33">
         <v>97.53</v>
       </c>
-      <c r="AV218" s="33"/>
-      <c r="AW218" s="33"/>
+      <c r="AV218" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW218" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX218" s="33"/>
       <c r="AY218" s="33"/>
       <c r="AZ218" s="33"/>
@@ -55491,8 +56702,12 @@
       <c r="AU219" s="33">
         <v>97.89</v>
       </c>
-      <c r="AV219" s="33"/>
-      <c r="AW219" s="33"/>
+      <c r="AV219" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW219" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX219" s="33"/>
       <c r="AY219" s="33"/>
       <c r="AZ219" s="33"/>
@@ -55665,8 +56880,12 @@
       <c r="AU220" s="33">
         <v>95.79</v>
       </c>
-      <c r="AV220" s="33"/>
-      <c r="AW220" s="33"/>
+      <c r="AV220" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW220" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX220" s="33"/>
       <c r="AY220" s="33"/>
       <c r="AZ220" s="33"/>
@@ -55839,8 +57058,12 @@
       <c r="AU221" s="33">
         <v>96.28</v>
       </c>
-      <c r="AV221" s="33"/>
-      <c r="AW221" s="33"/>
+      <c r="AV221" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW221" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX221" s="33"/>
       <c r="AY221" s="33"/>
       <c r="AZ221" s="33"/>
@@ -56013,8 +57236,12 @@
       <c r="AU222" s="33">
         <v>95.57</v>
       </c>
-      <c r="AV222" s="33"/>
-      <c r="AW222" s="33"/>
+      <c r="AV222" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW222" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX222" s="33"/>
       <c r="AY222" s="33"/>
       <c r="AZ222" s="33"/>
@@ -56187,8 +57414,12 @@
       <c r="AU223" s="33">
         <v>91.36</v>
       </c>
-      <c r="AV223" s="33"/>
-      <c r="AW223" s="33"/>
+      <c r="AV223" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW223" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX223" s="33"/>
       <c r="AY223" s="33"/>
       <c r="AZ223" s="33"/>
@@ -56361,8 +57592,12 @@
       <c r="AU224" s="33">
         <v>96.81</v>
       </c>
-      <c r="AV224" s="33"/>
-      <c r="AW224" s="33"/>
+      <c r="AV224" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW224" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX224" s="33"/>
       <c r="AY224" s="33"/>
       <c r="AZ224" s="33"/>
@@ -56535,8 +57770,12 @@
       <c r="AU225" s="33">
         <v>96.48</v>
       </c>
-      <c r="AV225" s="33"/>
-      <c r="AW225" s="33"/>
+      <c r="AV225" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW225" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX225" s="33"/>
       <c r="AY225" s="33"/>
       <c r="AZ225" s="33"/>
@@ -56709,8 +57948,12 @@
       <c r="AU226" s="33">
         <v>98.53</v>
       </c>
-      <c r="AV226" s="33"/>
-      <c r="AW226" s="33"/>
+      <c r="AV226" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW226" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX226" s="33"/>
       <c r="AY226" s="33"/>
       <c r="AZ226" s="33"/>
@@ -56883,8 +58126,12 @@
       <c r="AU227" s="33">
         <v>97</v>
       </c>
-      <c r="AV227" s="33"/>
-      <c r="AW227" s="33"/>
+      <c r="AV227" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW227" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX227" s="33"/>
       <c r="AY227" s="33"/>
       <c r="AZ227" s="33"/>
@@ -57057,8 +58304,12 @@
       <c r="AU228" s="33">
         <v>97.46</v>
       </c>
-      <c r="AV228" s="33"/>
-      <c r="AW228" s="33"/>
+      <c r="AV228" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW228" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX228" s="33"/>
       <c r="AY228" s="33"/>
       <c r="AZ228" s="33"/>
@@ -57231,8 +58482,12 @@
       <c r="AU229" s="33">
         <v>98.69</v>
       </c>
-      <c r="AV229" s="33"/>
-      <c r="AW229" s="33"/>
+      <c r="AV229" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW229" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX229" s="33"/>
       <c r="AY229" s="33"/>
       <c r="AZ229" s="33"/>
@@ -57405,8 +58660,12 @@
       <c r="AU230" s="33">
         <v>94.84</v>
       </c>
-      <c r="AV230" s="33"/>
-      <c r="AW230" s="33"/>
+      <c r="AV230" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW230" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX230" s="33"/>
       <c r="AY230" s="33"/>
       <c r="AZ230" s="33"/>
@@ -57579,8 +58838,12 @@
       <c r="AU231" s="33">
         <v>93.83</v>
       </c>
-      <c r="AV231" s="33"/>
-      <c r="AW231" s="33"/>
+      <c r="AV231" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW231" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX231" s="33"/>
       <c r="AY231" s="33"/>
       <c r="AZ231" s="33"/>
@@ -57753,8 +59016,12 @@
       <c r="AU232" s="33">
         <v>96.55</v>
       </c>
-      <c r="AV232" s="33"/>
-      <c r="AW232" s="33"/>
+      <c r="AV232" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW232" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX232" s="33"/>
       <c r="AY232" s="33"/>
       <c r="AZ232" s="33"/>
@@ -57927,8 +59194,12 @@
       <c r="AU233" s="33">
         <v>96.24</v>
       </c>
-      <c r="AV233" s="33"/>
-      <c r="AW233" s="33"/>
+      <c r="AV233" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW233" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX233" s="33"/>
       <c r="AY233" s="33"/>
       <c r="AZ233" s="33"/>
@@ -58101,8 +59372,12 @@
       <c r="AU234" s="33">
         <v>94.73</v>
       </c>
-      <c r="AV234" s="33"/>
-      <c r="AW234" s="33"/>
+      <c r="AV234" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW234" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX234" s="33"/>
       <c r="AY234" s="33"/>
       <c r="AZ234" s="33"/>
@@ -58275,8 +59550,12 @@
       <c r="AU235" s="33">
         <v>94.59</v>
       </c>
-      <c r="AV235" s="33"/>
-      <c r="AW235" s="33"/>
+      <c r="AV235" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW235" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX235" s="33"/>
       <c r="AY235" s="33"/>
       <c r="AZ235" s="33"/>
@@ -58449,8 +59728,12 @@
       <c r="AU236" s="33">
         <v>96.07</v>
       </c>
-      <c r="AV236" s="33"/>
-      <c r="AW236" s="33"/>
+      <c r="AV236" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW236" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX236" s="33"/>
       <c r="AY236" s="33"/>
       <c r="AZ236" s="33"/>
@@ -58623,8 +59906,12 @@
       <c r="AU237" s="33">
         <v>95.15</v>
       </c>
-      <c r="AV237" s="33"/>
-      <c r="AW237" s="33"/>
+      <c r="AV237" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW237" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX237" s="33"/>
       <c r="AY237" s="33"/>
       <c r="AZ237" s="33"/>
@@ -58797,8 +60084,12 @@
       <c r="AU238" s="33">
         <v>94.62</v>
       </c>
-      <c r="AV238" s="33"/>
-      <c r="AW238" s="33"/>
+      <c r="AV238" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW238" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX238" s="33"/>
       <c r="AY238" s="33"/>
       <c r="AZ238" s="33"/>
@@ -58971,8 +60262,12 @@
       <c r="AU239" s="33">
         <v>97.48</v>
       </c>
-      <c r="AV239" s="33"/>
-      <c r="AW239" s="33"/>
+      <c r="AV239" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW239" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX239" s="33"/>
       <c r="AY239" s="33"/>
       <c r="AZ239" s="33"/>
@@ -59145,8 +60440,12 @@
       <c r="AU240" s="33">
         <v>98.29</v>
       </c>
-      <c r="AV240" s="33"/>
-      <c r="AW240" s="33"/>
+      <c r="AV240" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW240" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX240" s="33"/>
       <c r="AY240" s="33"/>
       <c r="AZ240" s="33"/>
@@ -59319,8 +60618,12 @@
       <c r="AU241" s="33">
         <v>96.07</v>
       </c>
-      <c r="AV241" s="33"/>
-      <c r="AW241" s="33"/>
+      <c r="AV241" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW241" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX241" s="33"/>
       <c r="AY241" s="33"/>
       <c r="AZ241" s="33"/>
@@ -59493,8 +60796,12 @@
       <c r="AU242" s="33">
         <v>97.12</v>
       </c>
-      <c r="AV242" s="33"/>
-      <c r="AW242" s="33"/>
+      <c r="AV242" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW242" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX242" s="33"/>
       <c r="AY242" s="33"/>
       <c r="AZ242" s="33"/>
@@ -59667,8 +60974,12 @@
       <c r="AU243" s="33">
         <v>95.77</v>
       </c>
-      <c r="AV243" s="33"/>
-      <c r="AW243" s="33"/>
+      <c r="AV243" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW243" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX243" s="33"/>
       <c r="AY243" s="33"/>
       <c r="AZ243" s="33"/>
@@ -59841,8 +61152,12 @@
       <c r="AU244" s="33">
         <v>95.1</v>
       </c>
-      <c r="AV244" s="33"/>
-      <c r="AW244" s="33"/>
+      <c r="AV244" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW244" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX244" s="33"/>
       <c r="AY244" s="33"/>
       <c r="AZ244" s="33"/>
@@ -60015,8 +61330,12 @@
       <c r="AU245" s="33">
         <v>95.7</v>
       </c>
-      <c r="AV245" s="33"/>
-      <c r="AW245" s="33"/>
+      <c r="AV245" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW245" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX245" s="33"/>
       <c r="AY245" s="33"/>
       <c r="AZ245" s="33"/>
@@ -60189,8 +61508,12 @@
       <c r="AU246" s="33">
         <v>96.02</v>
       </c>
-      <c r="AV246" s="33"/>
-      <c r="AW246" s="33"/>
+      <c r="AV246" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW246" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX246" s="33"/>
       <c r="AY246" s="33"/>
       <c r="AZ246" s="33"/>
@@ -60363,8 +61686,12 @@
       <c r="AU247" s="33">
         <v>94.32</v>
       </c>
-      <c r="AV247" s="33"/>
-      <c r="AW247" s="33"/>
+      <c r="AV247" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW247" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX247" s="33"/>
       <c r="AY247" s="33"/>
       <c r="AZ247" s="33"/>
@@ -60537,8 +61864,12 @@
       <c r="AU248" s="33">
         <v>97.84</v>
       </c>
-      <c r="AV248" s="33"/>
-      <c r="AW248" s="33"/>
+      <c r="AV248" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW248" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX248" s="33"/>
       <c r="AY248" s="33"/>
       <c r="AZ248" s="33"/>
@@ -60711,8 +62042,12 @@
       <c r="AU249" s="33">
         <v>98.54</v>
       </c>
-      <c r="AV249" s="33"/>
-      <c r="AW249" s="33"/>
+      <c r="AV249" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW249" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX249" s="33"/>
       <c r="AY249" s="33"/>
       <c r="AZ249" s="33"/>
@@ -60885,8 +62220,12 @@
       <c r="AU250" s="33">
         <v>97.87</v>
       </c>
-      <c r="AV250" s="33"/>
-      <c r="AW250" s="33"/>
+      <c r="AV250" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW250" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX250" s="33"/>
       <c r="AY250" s="33"/>
       <c r="AZ250" s="33"/>
@@ -61059,8 +62398,12 @@
       <c r="AU251" s="33">
         <v>97.84</v>
       </c>
-      <c r="AV251" s="33"/>
-      <c r="AW251" s="33"/>
+      <c r="AV251" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW251" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX251" s="33"/>
       <c r="AY251" s="33"/>
       <c r="AZ251" s="33"/>
@@ -61233,8 +62576,12 @@
       <c r="AU252" s="33">
         <v>98.63</v>
       </c>
-      <c r="AV252" s="33"/>
-      <c r="AW252" s="33"/>
+      <c r="AV252" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW252" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX252" s="33"/>
       <c r="AY252" s="33"/>
       <c r="AZ252" s="33"/>
@@ -61407,8 +62754,12 @@
       <c r="AU253" s="33">
         <v>98.79</v>
       </c>
-      <c r="AV253" s="33"/>
-      <c r="AW253" s="33"/>
+      <c r="AV253" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW253" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX253" s="33"/>
       <c r="AY253" s="33"/>
       <c r="AZ253" s="33"/>
@@ -61581,8 +62932,12 @@
       <c r="AU254" s="33">
         <v>96.65</v>
       </c>
-      <c r="AV254" s="33"/>
-      <c r="AW254" s="33"/>
+      <c r="AV254" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW254" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX254" s="33"/>
       <c r="AY254" s="33"/>
       <c r="AZ254" s="33"/>
@@ -61755,8 +63110,12 @@
       <c r="AU255" s="33">
         <v>97.26</v>
       </c>
-      <c r="AV255" s="33"/>
-      <c r="AW255" s="33"/>
+      <c r="AV255" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW255" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX255" s="33"/>
       <c r="AY255" s="33"/>
       <c r="AZ255" s="33"/>
@@ -61929,8 +63288,12 @@
       <c r="AU256" s="33">
         <v>98.25</v>
       </c>
-      <c r="AV256" s="33"/>
-      <c r="AW256" s="33"/>
+      <c r="AV256" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW256" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX256" s="33"/>
       <c r="AY256" s="33"/>
       <c r="AZ256" s="33"/>
@@ -62103,8 +63466,12 @@
       <c r="AU257" s="33">
         <v>97.67</v>
       </c>
-      <c r="AV257" s="33"/>
-      <c r="AW257" s="33"/>
+      <c r="AV257" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW257" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX257" s="33"/>
       <c r="AY257" s="33"/>
       <c r="AZ257" s="33"/>
@@ -62277,8 +63644,12 @@
       <c r="AU258" s="33">
         <v>98.68</v>
       </c>
-      <c r="AV258" s="33"/>
-      <c r="AW258" s="33"/>
+      <c r="AV258" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW258" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX258" s="33"/>
       <c r="AY258" s="33"/>
       <c r="AZ258" s="33"/>
@@ -62451,8 +63822,12 @@
       <c r="AU259" s="33">
         <v>98</v>
       </c>
-      <c r="AV259" s="33"/>
-      <c r="AW259" s="33"/>
+      <c r="AV259" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW259" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX259" s="33"/>
       <c r="AY259" s="33"/>
       <c r="AZ259" s="33"/>
@@ -62625,8 +64000,12 @@
       <c r="AU260" s="33">
         <v>98.03</v>
       </c>
-      <c r="AV260" s="33"/>
-      <c r="AW260" s="33"/>
+      <c r="AV260" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW260" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX260" s="33"/>
       <c r="AY260" s="33"/>
       <c r="AZ260" s="33"/>
@@ -62799,8 +64178,12 @@
       <c r="AU261" s="33">
         <v>98.75</v>
       </c>
-      <c r="AV261" s="33"/>
-      <c r="AW261" s="33"/>
+      <c r="AV261" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW261" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX261" s="33"/>
       <c r="AY261" s="33"/>
       <c r="AZ261" s="33"/>
@@ -62973,8 +64356,12 @@
       <c r="AU262" s="33">
         <v>97.9</v>
       </c>
-      <c r="AV262" s="33"/>
-      <c r="AW262" s="33"/>
+      <c r="AV262" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW262" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX262" s="33"/>
       <c r="AY262" s="33"/>
       <c r="AZ262" s="33"/>
@@ -63147,8 +64534,12 @@
       <c r="AU263" s="33">
         <v>97.83</v>
       </c>
-      <c r="AV263" s="33"/>
-      <c r="AW263" s="33"/>
+      <c r="AV263" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW263" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX263" s="33"/>
       <c r="AY263" s="33"/>
       <c r="AZ263" s="33"/>
@@ -63321,8 +64712,12 @@
       <c r="AU264" s="33">
         <v>96.61</v>
       </c>
-      <c r="AV264" s="33"/>
-      <c r="AW264" s="33"/>
+      <c r="AV264" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW264" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX264" s="33"/>
       <c r="AY264" s="33"/>
       <c r="AZ264" s="33"/>
@@ -63495,8 +64890,12 @@
       <c r="AU265" s="33">
         <v>97.97</v>
       </c>
-      <c r="AV265" s="33"/>
-      <c r="AW265" s="33"/>
+      <c r="AV265" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW265" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX265" s="33"/>
       <c r="AY265" s="33"/>
       <c r="AZ265" s="33"/>
@@ -63669,8 +65068,12 @@
       <c r="AU266" s="33">
         <v>95.29</v>
       </c>
-      <c r="AV266" s="33"/>
-      <c r="AW266" s="33"/>
+      <c r="AV266" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW266" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX266" s="33"/>
       <c r="AY266" s="33"/>
       <c r="AZ266" s="33"/>
@@ -63843,8 +65246,12 @@
       <c r="AU267" s="33">
         <v>96.22</v>
       </c>
-      <c r="AV267" s="33"/>
-      <c r="AW267" s="33"/>
+      <c r="AV267" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW267" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX267" s="33"/>
       <c r="AY267" s="33"/>
       <c r="AZ267" s="33"/>
@@ -64017,8 +65424,12 @@
       <c r="AU268" s="33">
         <v>98.17</v>
       </c>
-      <c r="AV268" s="33"/>
-      <c r="AW268" s="33"/>
+      <c r="AV268" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW268" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX268" s="33"/>
       <c r="AY268" s="33"/>
       <c r="AZ268" s="33"/>
@@ -64191,8 +65602,12 @@
       <c r="AU269" s="33">
         <v>94.96</v>
       </c>
-      <c r="AV269" s="33"/>
-      <c r="AW269" s="33"/>
+      <c r="AV269" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW269" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX269" s="33"/>
       <c r="AY269" s="33"/>
       <c r="AZ269" s="33"/>
@@ -64365,8 +65780,12 @@
       <c r="AU270" s="33">
         <v>95.82</v>
       </c>
-      <c r="AV270" s="33"/>
-      <c r="AW270" s="33"/>
+      <c r="AV270" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW270" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX270" s="33"/>
       <c r="AY270" s="33"/>
       <c r="AZ270" s="33"/>
@@ -64539,8 +65958,12 @@
       <c r="AU271" s="33">
         <v>97.68</v>
       </c>
-      <c r="AV271" s="33"/>
-      <c r="AW271" s="33"/>
+      <c r="AV271" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW271" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX271" s="33"/>
       <c r="AY271" s="33"/>
       <c r="AZ271" s="33"/>
@@ -64713,8 +66136,12 @@
       <c r="AU272" s="33">
         <v>94.77</v>
       </c>
-      <c r="AV272" s="33"/>
-      <c r="AW272" s="33"/>
+      <c r="AV272" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW272" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX272" s="33"/>
       <c r="AY272" s="33"/>
       <c r="AZ272" s="33"/>
@@ -64887,8 +66314,12 @@
       <c r="AU273" s="33">
         <v>94.76</v>
       </c>
-      <c r="AV273" s="33"/>
-      <c r="AW273" s="33"/>
+      <c r="AV273" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW273" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX273" s="33"/>
       <c r="AY273" s="33"/>
       <c r="AZ273" s="33"/>
@@ -65061,8 +66492,12 @@
       <c r="AU274" s="33">
         <v>95.99</v>
       </c>
-      <c r="AV274" s="33"/>
-      <c r="AW274" s="33"/>
+      <c r="AV274" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW274" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX274" s="33"/>
       <c r="AY274" s="33"/>
       <c r="AZ274" s="33"/>
@@ -65235,8 +66670,12 @@
       <c r="AU275" s="33">
         <v>98.57</v>
       </c>
-      <c r="AV275" s="33"/>
-      <c r="AW275" s="33"/>
+      <c r="AV275" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW275" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX275" s="33"/>
       <c r="AY275" s="33"/>
       <c r="AZ275" s="33"/>
@@ -65409,8 +66848,12 @@
       <c r="AU276" s="33">
         <v>98.46</v>
       </c>
-      <c r="AV276" s="33"/>
-      <c r="AW276" s="33"/>
+      <c r="AV276" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW276" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX276" s="33"/>
       <c r="AY276" s="33"/>
       <c r="AZ276" s="33"/>
@@ -65583,8 +67026,12 @@
       <c r="AU277" s="33">
         <v>95.56</v>
       </c>
-      <c r="AV277" s="33"/>
-      <c r="AW277" s="33"/>
+      <c r="AV277" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW277" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX277" s="33"/>
       <c r="AY277" s="33"/>
       <c r="AZ277" s="33"/>
@@ -65757,8 +67204,12 @@
       <c r="AU278" s="33">
         <v>98.23</v>
       </c>
-      <c r="AV278" s="33"/>
-      <c r="AW278" s="33"/>
+      <c r="AV278" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW278" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX278" s="33"/>
       <c r="AY278" s="33"/>
       <c r="AZ278" s="33"/>
@@ -65931,8 +67382,12 @@
       <c r="AU279" s="33">
         <v>98.64</v>
       </c>
-      <c r="AV279" s="33"/>
-      <c r="AW279" s="33"/>
+      <c r="AV279" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW279" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX279" s="33"/>
       <c r="AY279" s="33"/>
       <c r="AZ279" s="33"/>
@@ -66105,8 +67560,12 @@
       <c r="AU280" s="33">
         <v>96.77</v>
       </c>
-      <c r="AV280" s="33"/>
-      <c r="AW280" s="33"/>
+      <c r="AV280" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW280" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX280" s="33"/>
       <c r="AY280" s="33"/>
       <c r="AZ280" s="33"/>
@@ -66279,8 +67738,12 @@
       <c r="AU281" s="33">
         <v>97.72</v>
       </c>
-      <c r="AV281" s="33"/>
-      <c r="AW281" s="33"/>
+      <c r="AV281" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW281" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX281" s="33"/>
       <c r="AY281" s="33"/>
       <c r="AZ281" s="33"/>
@@ -66453,8 +67916,12 @@
       <c r="AU282" s="33">
         <v>98.35</v>
       </c>
-      <c r="AV282" s="33"/>
-      <c r="AW282" s="33"/>
+      <c r="AV282" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW282" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX282" s="33"/>
       <c r="AY282" s="33"/>
       <c r="AZ282" s="33"/>
@@ -66627,8 +68094,12 @@
       <c r="AU283" s="33">
         <v>98.61</v>
       </c>
-      <c r="AV283" s="33"/>
-      <c r="AW283" s="33"/>
+      <c r="AV283" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW283" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX283" s="33"/>
       <c r="AY283" s="33"/>
       <c r="AZ283" s="33"/>
@@ -66801,8 +68272,12 @@
       <c r="AU284" s="33">
         <v>99.04</v>
       </c>
-      <c r="AV284" s="33"/>
-      <c r="AW284" s="33"/>
+      <c r="AV284" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW284" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX284" s="33"/>
       <c r="AY284" s="33"/>
       <c r="AZ284" s="33"/>
@@ -66975,8 +68450,12 @@
       <c r="AU285" s="33">
         <v>97.8</v>
       </c>
-      <c r="AV285" s="33"/>
-      <c r="AW285" s="33"/>
+      <c r="AV285" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW285" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX285" s="33"/>
       <c r="AY285" s="33"/>
       <c r="AZ285" s="33"/>
@@ -67149,8 +68628,12 @@
       <c r="AU286" s="33">
         <v>98.23</v>
       </c>
-      <c r="AV286" s="33"/>
-      <c r="AW286" s="33"/>
+      <c r="AV286" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW286" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX286" s="33"/>
       <c r="AY286" s="33"/>
       <c r="AZ286" s="33"/>
@@ -67323,8 +68806,12 @@
       <c r="AU287" s="33">
         <v>98.48</v>
       </c>
-      <c r="AV287" s="33"/>
-      <c r="AW287" s="33"/>
+      <c r="AV287" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW287" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX287" s="33"/>
       <c r="AY287" s="33"/>
       <c r="AZ287" s="33"/>
@@ -67497,8 +68984,12 @@
       <c r="AU288" s="33">
         <v>96.78</v>
       </c>
-      <c r="AV288" s="33"/>
-      <c r="AW288" s="33"/>
+      <c r="AV288" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW288" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX288" s="33"/>
       <c r="AY288" s="33"/>
       <c r="AZ288" s="33"/>
@@ -67671,8 +69162,12 @@
       <c r="AU289" s="33">
         <v>97.18</v>
       </c>
-      <c r="AV289" s="33"/>
-      <c r="AW289" s="33"/>
+      <c r="AV289" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW289" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX289" s="33"/>
       <c r="AY289" s="33"/>
       <c r="AZ289" s="33"/>
@@ -67845,8 +69340,12 @@
       <c r="AU290" s="33">
         <v>97.64</v>
       </c>
-      <c r="AV290" s="33"/>
-      <c r="AW290" s="33"/>
+      <c r="AV290" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW290" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX290" s="33"/>
       <c r="AY290" s="33"/>
       <c r="AZ290" s="33"/>
@@ -68019,8 +69518,12 @@
       <c r="AU291" s="33">
         <v>98.75</v>
       </c>
-      <c r="AV291" s="33"/>
-      <c r="AW291" s="33"/>
+      <c r="AV291" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW291" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX291" s="33"/>
       <c r="AY291" s="33"/>
       <c r="AZ291" s="33"/>
@@ -68193,8 +69696,12 @@
       <c r="AU292" s="33">
         <v>97.83</v>
       </c>
-      <c r="AV292" s="33"/>
-      <c r="AW292" s="33"/>
+      <c r="AV292" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW292" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX292" s="33"/>
       <c r="AY292" s="33"/>
       <c r="AZ292" s="33"/>
@@ -68367,8 +69874,12 @@
       <c r="AU293" s="33">
         <v>98.19</v>
       </c>
-      <c r="AV293" s="33"/>
-      <c r="AW293" s="33"/>
+      <c r="AV293" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW293" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX293" s="33"/>
       <c r="AY293" s="33"/>
       <c r="AZ293" s="33"/>
@@ -68541,8 +70052,12 @@
       <c r="AU294" s="33">
         <v>98.29</v>
       </c>
-      <c r="AV294" s="33"/>
-      <c r="AW294" s="33"/>
+      <c r="AV294" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW294" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX294" s="33"/>
       <c r="AY294" s="33"/>
       <c r="AZ294" s="33"/>
@@ -68715,8 +70230,12 @@
       <c r="AU295" s="33">
         <v>97.07</v>
       </c>
-      <c r="AV295" s="33"/>
-      <c r="AW295" s="33"/>
+      <c r="AV295" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW295" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX295" s="33"/>
       <c r="AY295" s="33"/>
       <c r="AZ295" s="33"/>
@@ -68889,8 +70408,12 @@
       <c r="AU296" s="33">
         <v>98.36</v>
       </c>
-      <c r="AV296" s="33"/>
-      <c r="AW296" s="33"/>
+      <c r="AV296" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW296" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX296" s="33"/>
       <c r="AY296" s="33"/>
       <c r="AZ296" s="33"/>
@@ -69063,8 +70586,12 @@
       <c r="AU297" s="33">
         <v>98.94</v>
       </c>
-      <c r="AV297" s="33"/>
-      <c r="AW297" s="33"/>
+      <c r="AV297" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW297" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX297" s="33"/>
       <c r="AY297" s="33"/>
       <c r="AZ297" s="33"/>
@@ -69237,8 +70764,12 @@
       <c r="AU298" s="33">
         <v>98.98</v>
       </c>
-      <c r="AV298" s="33"/>
-      <c r="AW298" s="33"/>
+      <c r="AV298" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW298" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX298" s="33"/>
       <c r="AY298" s="33"/>
       <c r="AZ298" s="33"/>
@@ -69411,8 +70942,12 @@
       <c r="AU299" s="33">
         <v>96.6</v>
       </c>
-      <c r="AV299" s="33"/>
-      <c r="AW299" s="33"/>
+      <c r="AV299" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW299" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX299" s="33"/>
       <c r="AY299" s="33"/>
       <c r="AZ299" s="33"/>
@@ -69585,8 +71120,12 @@
       <c r="AU300" s="33">
         <v>97.13</v>
       </c>
-      <c r="AV300" s="33"/>
-      <c r="AW300" s="33"/>
+      <c r="AV300" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW300" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX300" s="33"/>
       <c r="AY300" s="33"/>
       <c r="AZ300" s="33"/>
@@ -69759,8 +71298,12 @@
       <c r="AU301" s="33">
         <v>97.89</v>
       </c>
-      <c r="AV301" s="33"/>
-      <c r="AW301" s="33"/>
+      <c r="AV301" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW301" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX301" s="33"/>
       <c r="AY301" s="33"/>
       <c r="AZ301" s="33"/>
@@ -69933,8 +71476,12 @@
       <c r="AU302" s="33">
         <v>95.94</v>
       </c>
-      <c r="AV302" s="33"/>
-      <c r="AW302" s="33"/>
+      <c r="AV302" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW302" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX302" s="33"/>
       <c r="AY302" s="33"/>
       <c r="AZ302" s="33"/>
@@ -70107,8 +71654,12 @@
       <c r="AU303" s="33">
         <v>96.46</v>
       </c>
-      <c r="AV303" s="33"/>
-      <c r="AW303" s="33"/>
+      <c r="AV303" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW303" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX303" s="33"/>
       <c r="AY303" s="33"/>
       <c r="AZ303" s="33"/>
@@ -70281,8 +71832,12 @@
       <c r="AU304" s="33">
         <v>98.22</v>
       </c>
-      <c r="AV304" s="33"/>
-      <c r="AW304" s="33"/>
+      <c r="AV304" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW304" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX304" s="33"/>
       <c r="AY304" s="33"/>
       <c r="AZ304" s="33"/>
@@ -70455,8 +72010,12 @@
       <c r="AU305" s="33">
         <v>97.93</v>
       </c>
-      <c r="AV305" s="33"/>
-      <c r="AW305" s="33"/>
+      <c r="AV305" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW305" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX305" s="33"/>
       <c r="AY305" s="33"/>
       <c r="AZ305" s="33"/>
@@ -70629,8 +72188,12 @@
       <c r="AU306" s="33">
         <v>98.6</v>
       </c>
-      <c r="AV306" s="33"/>
-      <c r="AW306" s="33"/>
+      <c r="AV306" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW306" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX306" s="33"/>
       <c r="AY306" s="33"/>
       <c r="AZ306" s="33"/>
@@ -70803,8 +72366,12 @@
       <c r="AU307" s="33">
         <v>97.15</v>
       </c>
-      <c r="AV307" s="33"/>
-      <c r="AW307" s="33"/>
+      <c r="AV307" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW307" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX307" s="33"/>
       <c r="AY307" s="33"/>
       <c r="AZ307" s="33"/>
@@ -70977,8 +72544,12 @@
       <c r="AU308" s="33">
         <v>95.29</v>
       </c>
-      <c r="AV308" s="33"/>
-      <c r="AW308" s="33"/>
+      <c r="AV308" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW308" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX308" s="33"/>
       <c r="AY308" s="33"/>
       <c r="AZ308" s="33"/>
@@ -71151,8 +72722,12 @@
       <c r="AU309" s="33">
         <v>95.35</v>
       </c>
-      <c r="AV309" s="33"/>
-      <c r="AW309" s="33"/>
+      <c r="AV309" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW309" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX309" s="33"/>
       <c r="AY309" s="33"/>
       <c r="AZ309" s="33"/>
@@ -71325,8 +72900,12 @@
       <c r="AU310" s="33">
         <v>95.43</v>
       </c>
-      <c r="AV310" s="33"/>
-      <c r="AW310" s="33"/>
+      <c r="AV310" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW310" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX310" s="33"/>
       <c r="AY310" s="33"/>
       <c r="AZ310" s="33"/>
@@ -71499,8 +73078,12 @@
       <c r="AU311" s="33">
         <v>96.15</v>
       </c>
-      <c r="AV311" s="33"/>
-      <c r="AW311" s="33"/>
+      <c r="AV311" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW311" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX311" s="33"/>
       <c r="AY311" s="33"/>
       <c r="AZ311" s="33"/>
@@ -71673,8 +73256,12 @@
       <c r="AU312" s="33">
         <v>97.52</v>
       </c>
-      <c r="AV312" s="33"/>
-      <c r="AW312" s="33"/>
+      <c r="AV312" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW312" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX312" s="33"/>
       <c r="AY312" s="33"/>
       <c r="AZ312" s="33"/>
@@ -71847,8 +73434,12 @@
       <c r="AU313" s="33">
         <v>95.33</v>
       </c>
-      <c r="AV313" s="33"/>
-      <c r="AW313" s="33"/>
+      <c r="AV313" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW313" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX313" s="33"/>
       <c r="AY313" s="33"/>
       <c r="AZ313" s="33"/>
@@ -72021,8 +73612,12 @@
       <c r="AU314" s="33">
         <v>95.14</v>
       </c>
-      <c r="AV314" s="33"/>
-      <c r="AW314" s="33"/>
+      <c r="AV314" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW314" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX314" s="33"/>
       <c r="AY314" s="33"/>
       <c r="AZ314" s="33"/>
@@ -72195,8 +73790,12 @@
       <c r="AU315" s="33">
         <v>94.38</v>
       </c>
-      <c r="AV315" s="33"/>
-      <c r="AW315" s="33"/>
+      <c r="AV315" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW315" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX315" s="33"/>
       <c r="AY315" s="33"/>
       <c r="AZ315" s="33"/>
@@ -72369,8 +73968,12 @@
       <c r="AU316" s="33">
         <v>92.09</v>
       </c>
-      <c r="AV316" s="33"/>
-      <c r="AW316" s="33"/>
+      <c r="AV316" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW316" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX316" s="33"/>
       <c r="AY316" s="33"/>
       <c r="AZ316" s="33"/>
@@ -72543,8 +74146,12 @@
       <c r="AU317" s="33">
         <v>92.14</v>
       </c>
-      <c r="AV317" s="33"/>
-      <c r="AW317" s="33"/>
+      <c r="AV317" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW317" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX317" s="33"/>
       <c r="AY317" s="33"/>
       <c r="AZ317" s="33"/>
@@ -72717,8 +74324,12 @@
       <c r="AU318" s="33">
         <v>92.22</v>
       </c>
-      <c r="AV318" s="33"/>
-      <c r="AW318" s="33"/>
+      <c r="AV318" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW318" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX318" s="33"/>
       <c r="AY318" s="33"/>
       <c r="AZ318" s="33"/>
@@ -72891,8 +74502,12 @@
       <c r="AU319" s="33">
         <v>95.78</v>
       </c>
-      <c r="AV319" s="33"/>
-      <c r="AW319" s="33"/>
+      <c r="AV319" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW319" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX319" s="33"/>
       <c r="AY319" s="33"/>
       <c r="AZ319" s="33"/>
@@ -73065,8 +74680,12 @@
       <c r="AU320" s="33">
         <v>89.32</v>
       </c>
-      <c r="AV320" s="33"/>
-      <c r="AW320" s="33"/>
+      <c r="AV320" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW320" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX320" s="33"/>
       <c r="AY320" s="33"/>
       <c r="AZ320" s="33"/>
@@ -73239,8 +74858,12 @@
       <c r="AU321" s="33">
         <v>94.08</v>
       </c>
-      <c r="AV321" s="33"/>
-      <c r="AW321" s="33"/>
+      <c r="AV321" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW321" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX321" s="33"/>
       <c r="AY321" s="33"/>
       <c r="AZ321" s="33"/>
@@ -73413,8 +75036,12 @@
       <c r="AU322" s="33">
         <v>93.22</v>
       </c>
-      <c r="AV322" s="33"/>
-      <c r="AW322" s="33"/>
+      <c r="AV322" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW322" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX322" s="33"/>
       <c r="AY322" s="33"/>
       <c r="AZ322" s="33"/>
@@ -73587,8 +75214,12 @@
       <c r="AU323" s="33">
         <v>93.99</v>
       </c>
-      <c r="AV323" s="33"/>
-      <c r="AW323" s="33"/>
+      <c r="AV323" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW323" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX323" s="33"/>
       <c r="AY323" s="33"/>
       <c r="AZ323" s="33"/>
@@ -73761,8 +75392,12 @@
       <c r="AU324" s="33">
         <v>97.6</v>
       </c>
-      <c r="AV324" s="33"/>
-      <c r="AW324" s="33"/>
+      <c r="AV324" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW324" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX324" s="33"/>
       <c r="AY324" s="33"/>
       <c r="AZ324" s="33"/>
@@ -73935,8 +75570,12 @@
       <c r="AU325" s="33">
         <v>98.59</v>
       </c>
-      <c r="AV325" s="33"/>
-      <c r="AW325" s="33"/>
+      <c r="AV325" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW325" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX325" s="33"/>
       <c r="AY325" s="33"/>
       <c r="AZ325" s="33"/>
@@ -74109,8 +75748,12 @@
       <c r="AU326" s="33">
         <v>97.49</v>
       </c>
-      <c r="AV326" s="33"/>
-      <c r="AW326" s="33"/>
+      <c r="AV326" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW326" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX326" s="33"/>
       <c r="AY326" s="33"/>
       <c r="AZ326" s="33"/>
@@ -74283,8 +75926,12 @@
       <c r="AU327" s="33">
         <v>98.12</v>
       </c>
-      <c r="AV327" s="33"/>
-      <c r="AW327" s="33"/>
+      <c r="AV327" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW327" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX327" s="33"/>
       <c r="AY327" s="33"/>
       <c r="AZ327" s="33"/>
@@ -74457,8 +76104,12 @@
       <c r="AU328" s="33">
         <v>96.79</v>
       </c>
-      <c r="AV328" s="33"/>
-      <c r="AW328" s="33"/>
+      <c r="AV328" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW328" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX328" s="33"/>
       <c r="AY328" s="33"/>
       <c r="AZ328" s="33"/>
@@ -74631,8 +76282,12 @@
       <c r="AU329" s="33">
         <v>92.35</v>
       </c>
-      <c r="AV329" s="33"/>
-      <c r="AW329" s="33"/>
+      <c r="AV329" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW329" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX329" s="33"/>
       <c r="AY329" s="33"/>
       <c r="AZ329" s="33"/>
@@ -74805,8 +76460,12 @@
       <c r="AU330" s="33">
         <v>93.18</v>
       </c>
-      <c r="AV330" s="33"/>
-      <c r="AW330" s="33"/>
+      <c r="AV330" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW330" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX330" s="33"/>
       <c r="AY330" s="33"/>
       <c r="AZ330" s="33"/>
@@ -74979,8 +76638,12 @@
       <c r="AU331" s="33">
         <v>97.26</v>
       </c>
-      <c r="AV331" s="33"/>
-      <c r="AW331" s="33"/>
+      <c r="AV331" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW331" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX331" s="33"/>
       <c r="AY331" s="33"/>
       <c r="AZ331" s="33"/>
@@ -75153,8 +76816,12 @@
       <c r="AU332" s="33">
         <v>95.05</v>
       </c>
-      <c r="AV332" s="33"/>
-      <c r="AW332" s="33"/>
+      <c r="AV332" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW332" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX332" s="33"/>
       <c r="AY332" s="33"/>
       <c r="AZ332" s="33"/>
@@ -75327,8 +76994,12 @@
       <c r="AU333" s="33">
         <v>96.03</v>
       </c>
-      <c r="AV333" s="33"/>
-      <c r="AW333" s="33"/>
+      <c r="AV333" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW333" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX333" s="33"/>
       <c r="AY333" s="33"/>
       <c r="AZ333" s="33"/>
@@ -75501,8 +77172,12 @@
       <c r="AU334" s="33">
         <v>93.61</v>
       </c>
-      <c r="AV334" s="33"/>
-      <c r="AW334" s="33"/>
+      <c r="AV334" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW334" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX334" s="33"/>
       <c r="AY334" s="33"/>
       <c r="AZ334" s="33"/>
@@ -75675,8 +77350,12 @@
       <c r="AU335" s="33">
         <v>96.39</v>
       </c>
-      <c r="AV335" s="33"/>
-      <c r="AW335" s="33"/>
+      <c r="AV335" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW335" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX335" s="33"/>
       <c r="AY335" s="33"/>
       <c r="AZ335" s="33"/>
@@ -75849,8 +77528,12 @@
       <c r="AU336" s="33">
         <v>96.24</v>
       </c>
-      <c r="AV336" s="33"/>
-      <c r="AW336" s="33"/>
+      <c r="AV336" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW336" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX336" s="33"/>
       <c r="AY336" s="33"/>
       <c r="AZ336" s="33"/>
@@ -76023,8 +77706,12 @@
       <c r="AU337" s="33">
         <v>97.77</v>
       </c>
-      <c r="AV337" s="33"/>
-      <c r="AW337" s="33"/>
+      <c r="AV337" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW337" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX337" s="33"/>
       <c r="AY337" s="33"/>
       <c r="AZ337" s="33"/>
@@ -76197,8 +77884,12 @@
       <c r="AU338" s="33">
         <v>96.58</v>
       </c>
-      <c r="AV338" s="33"/>
-      <c r="AW338" s="33"/>
+      <c r="AV338" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW338" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX338" s="33"/>
       <c r="AY338" s="33"/>
       <c r="AZ338" s="33"/>
@@ -76371,8 +78062,12 @@
       <c r="AU339" s="33">
         <v>97.57</v>
       </c>
-      <c r="AV339" s="33"/>
-      <c r="AW339" s="33"/>
+      <c r="AV339" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW339" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX339" s="33"/>
       <c r="AY339" s="33"/>
       <c r="AZ339" s="33"/>
@@ -76545,8 +78240,12 @@
       <c r="AU340" s="33">
         <v>95.87</v>
       </c>
-      <c r="AV340" s="33"/>
-      <c r="AW340" s="33"/>
+      <c r="AV340" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW340" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX340" s="33"/>
       <c r="AY340" s="33"/>
       <c r="AZ340" s="33"/>
@@ -76719,8 +78418,12 @@
       <c r="AU341" s="33">
         <v>95.78</v>
       </c>
-      <c r="AV341" s="33"/>
-      <c r="AW341" s="33"/>
+      <c r="AV341" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW341" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX341" s="33"/>
       <c r="AY341" s="33"/>
       <c r="AZ341" s="33"/>
@@ -76893,8 +78596,12 @@
       <c r="AU342" s="33">
         <v>96.79</v>
       </c>
-      <c r="AV342" s="33"/>
-      <c r="AW342" s="33"/>
+      <c r="AV342" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW342" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="AX342" s="33"/>
       <c r="AY342" s="33"/>
       <c r="AZ342" s="33"/>
@@ -77067,6 +78774,12 @@
       <c r="AU343" s="36">
         <v>105.55</v>
       </c>
+      <c r="AV343" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW343" s="33" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -77210,6 +78923,12 @@
       <c r="AU344" s="36">
         <v>148.18</v>
       </c>
+      <c r="AV344" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW344" s="33" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -77353,6 +79072,12 @@
       <c r="AU345" s="36">
         <v>173.4</v>
       </c>
+      <c r="AV345" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW345" s="33" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -77495,6 +79220,12 @@
       </c>
       <c r="AU346" s="36">
         <v>88.45</v>
+      </c>
+      <c r="AV346" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW346" s="33" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="348" spans="1:78" x14ac:dyDescent="0.25">

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\STP Covid-19 project\Dissemination\Week ending 28 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8894D6-378D-4A4C-A4A3-02DAEEE90A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29975153-FFAE-445E-A06C-16B0B87A3D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="459">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1417,13 +1417,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Week ending Saturday 14 November 2020</t>
+    <t>Released at 11.30am (Canberra time) 15 December 2020</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 1 December 2020</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Week ending Saturday 28 November 2020</t>
   </si>
 </sst>
 </file>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2956,8 +2953,12 @@
       <c r="AV6" s="9">
         <v>44149</v>
       </c>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
+      <c r="AW6" s="9">
+        <v>44156</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>44163</v>
+      </c>
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
@@ -3127,13 +3128,17 @@
         <v>95.19</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV7" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW7" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX7" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="33"/>
       <c r="BA7" s="33"/>
@@ -3303,13 +3308,17 @@
         <v>97.43</v>
       </c>
       <c r="AU8" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV8" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW8" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX8" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="33"/>
       <c r="BA8" s="33"/>
@@ -3479,13 +3488,17 @@
         <v>97.48</v>
       </c>
       <c r="AU9" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV9" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW9" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX9" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY9" s="33"/>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="33"/>
@@ -3655,13 +3668,17 @@
         <v>95.28</v>
       </c>
       <c r="AU10" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV10" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW10" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX10" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY10" s="33"/>
       <c r="AZ10" s="33"/>
       <c r="BA10" s="33"/>
@@ -3831,13 +3848,17 @@
         <v>96.34</v>
       </c>
       <c r="AU11" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV11" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW11" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX11" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY11" s="33"/>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="33"/>
@@ -4007,13 +4028,17 @@
         <v>97.98</v>
       </c>
       <c r="AU12" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV12" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW12" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX12" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY12" s="33"/>
       <c r="AZ12" s="33"/>
       <c r="BA12" s="33"/>
@@ -4183,13 +4208,17 @@
         <v>98.14</v>
       </c>
       <c r="AU13" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV13" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW13" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX13" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY13" s="33"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
@@ -4359,13 +4388,17 @@
         <v>96.23</v>
       </c>
       <c r="AU14" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV14" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW14" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX14" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY14" s="33"/>
       <c r="AZ14" s="33"/>
       <c r="BA14" s="33"/>
@@ -4535,13 +4568,17 @@
         <v>96.69</v>
       </c>
       <c r="AU15" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV15" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW15" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX15" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
@@ -4711,13 +4748,17 @@
         <v>98.4</v>
       </c>
       <c r="AU16" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV16" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW16" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX16" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY16" s="33"/>
       <c r="AZ16" s="33"/>
       <c r="BA16" s="33"/>
@@ -4887,13 +4928,17 @@
         <v>98.05</v>
       </c>
       <c r="AU17" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV17" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW17" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX17" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY17" s="33"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="33"/>
@@ -5063,13 +5108,17 @@
         <v>94.93</v>
       </c>
       <c r="AU18" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV18" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW18" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX18" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY18" s="33"/>
       <c r="AZ18" s="33"/>
       <c r="BA18" s="33"/>
@@ -5239,13 +5288,17 @@
         <v>96.08</v>
       </c>
       <c r="AU19" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV19" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW19" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX19" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY19" s="33"/>
       <c r="AZ19" s="33"/>
       <c r="BA19" s="33"/>
@@ -5415,13 +5468,17 @@
         <v>97.58</v>
       </c>
       <c r="AU20" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV20" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW20" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX20" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY20" s="33"/>
       <c r="AZ20" s="33"/>
       <c r="BA20" s="33"/>
@@ -5591,13 +5648,17 @@
         <v>97.33</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV21" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW21" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX21" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY21" s="33"/>
       <c r="AZ21" s="33"/>
       <c r="BA21" s="33"/>
@@ -5767,13 +5828,17 @@
         <v>97</v>
       </c>
       <c r="AU22" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV22" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW22" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX22" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY22" s="33"/>
       <c r="AZ22" s="33"/>
       <c r="BA22" s="33"/>
@@ -5943,13 +6008,17 @@
         <v>93.46</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV23" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW23" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX23" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY23" s="33"/>
       <c r="AZ23" s="33"/>
       <c r="BA23" s="33"/>
@@ -6119,13 +6188,17 @@
         <v>94.28</v>
       </c>
       <c r="AU24" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV24" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW24" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX24" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY24" s="33"/>
       <c r="AZ24" s="33"/>
       <c r="BA24" s="33"/>
@@ -6295,13 +6368,17 @@
         <v>94.61</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV25" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW25" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX25" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY25" s="33"/>
       <c r="AZ25" s="33"/>
       <c r="BA25" s="33"/>
@@ -6471,13 +6548,17 @@
         <v>95.73</v>
       </c>
       <c r="AU26" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV26" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW26" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX26" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY26" s="33"/>
       <c r="AZ26" s="33"/>
       <c r="BA26" s="33"/>
@@ -6647,13 +6728,17 @@
         <v>96.6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV27" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW27" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX27" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY27" s="33"/>
       <c r="AZ27" s="33"/>
       <c r="BA27" s="33"/>
@@ -6823,13 +6908,17 @@
         <v>96.66</v>
       </c>
       <c r="AU28" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV28" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW28" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX28" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY28" s="33"/>
       <c r="AZ28" s="33"/>
       <c r="BA28" s="33"/>
@@ -6999,13 +7088,17 @@
         <v>96.5</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV29" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW29" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX29" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY29" s="33"/>
       <c r="AZ29" s="33"/>
       <c r="BA29" s="33"/>
@@ -7175,13 +7268,17 @@
         <v>97.64</v>
       </c>
       <c r="AU30" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV30" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW30" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX30" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY30" s="33"/>
       <c r="AZ30" s="33"/>
       <c r="BA30" s="33"/>
@@ -7351,13 +7448,17 @@
         <v>95.57</v>
       </c>
       <c r="AU31" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV31" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW31" s="33"/>
-      <c r="AX31" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW31" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX31" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY31" s="33"/>
       <c r="AZ31" s="33"/>
       <c r="BA31" s="33"/>
@@ -7527,13 +7628,17 @@
         <v>96.02</v>
       </c>
       <c r="AU32" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV32" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX32" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY32" s="33"/>
       <c r="AZ32" s="33"/>
       <c r="BA32" s="33"/>
@@ -7703,13 +7808,17 @@
         <v>94.61</v>
       </c>
       <c r="AU33" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV33" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW33" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX33" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY33" s="33"/>
       <c r="AZ33" s="33"/>
       <c r="BA33" s="33"/>
@@ -7879,13 +7988,17 @@
         <v>97.13</v>
       </c>
       <c r="AU34" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV34" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW34" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX34" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY34" s="33"/>
       <c r="AZ34" s="33"/>
       <c r="BA34" s="33"/>
@@ -8055,13 +8168,17 @@
         <v>93.42</v>
       </c>
       <c r="AU35" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV35" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW35" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX35" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY35" s="33"/>
       <c r="AZ35" s="33"/>
       <c r="BA35" s="33"/>
@@ -8231,13 +8348,17 @@
         <v>93.96</v>
       </c>
       <c r="AU36" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV36" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW36" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX36" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY36" s="33"/>
       <c r="AZ36" s="33"/>
       <c r="BA36" s="33"/>
@@ -8407,13 +8528,17 @@
         <v>94.27</v>
       </c>
       <c r="AU37" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV37" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW37" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX37" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY37" s="33"/>
       <c r="AZ37" s="33"/>
       <c r="BA37" s="33"/>
@@ -8583,13 +8708,17 @@
         <v>96.19</v>
       </c>
       <c r="AU38" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV38" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW38" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX38" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY38" s="33"/>
       <c r="AZ38" s="33"/>
       <c r="BA38" s="33"/>
@@ -8759,13 +8888,17 @@
         <v>93.09</v>
       </c>
       <c r="AU39" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV39" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW39" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX39" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY39" s="33"/>
       <c r="AZ39" s="33"/>
       <c r="BA39" s="33"/>
@@ -8935,13 +9068,17 @@
         <v>91.53</v>
       </c>
       <c r="AU40" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV40" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW40" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX40" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY40" s="33"/>
       <c r="AZ40" s="33"/>
       <c r="BA40" s="33"/>
@@ -9111,13 +9248,17 @@
         <v>94.05</v>
       </c>
       <c r="AU41" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV41" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW41" s="33"/>
-      <c r="AX41" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW41" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX41" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY41" s="33"/>
       <c r="AZ41" s="33"/>
       <c r="BA41" s="33"/>
@@ -9287,13 +9428,17 @@
         <v>93.59</v>
       </c>
       <c r="AU42" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV42" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW42" s="33"/>
-      <c r="AX42" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW42" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX42" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY42" s="33"/>
       <c r="AZ42" s="33"/>
       <c r="BA42" s="33"/>
@@ -9463,13 +9608,17 @@
         <v>95.05</v>
       </c>
       <c r="AU43" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV43" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW43" s="33"/>
-      <c r="AX43" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW43" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX43" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY43" s="33"/>
       <c r="AZ43" s="33"/>
       <c r="BA43" s="33"/>
@@ -9639,13 +9788,17 @@
         <v>93.21</v>
       </c>
       <c r="AU44" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV44" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW44" s="33"/>
-      <c r="AX44" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW44" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX44" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY44" s="33"/>
       <c r="AZ44" s="33"/>
       <c r="BA44" s="33"/>
@@ -9815,13 +9968,17 @@
         <v>94.53</v>
       </c>
       <c r="AU45" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV45" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW45" s="33"/>
-      <c r="AX45" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW45" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX45" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY45" s="33"/>
       <c r="AZ45" s="33"/>
       <c r="BA45" s="33"/>
@@ -9991,13 +10148,17 @@
         <v>93.27</v>
       </c>
       <c r="AU46" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV46" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW46" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX46" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY46" s="33"/>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="33"/>
@@ -10167,13 +10328,17 @@
         <v>93.47</v>
       </c>
       <c r="AU47" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV47" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW47" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX47" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY47" s="33"/>
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
@@ -10343,13 +10508,17 @@
         <v>93.45</v>
       </c>
       <c r="AU48" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV48" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW48" s="33"/>
-      <c r="AX48" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW48" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX48" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY48" s="33"/>
       <c r="AZ48" s="33"/>
       <c r="BA48" s="33"/>
@@ -10519,13 +10688,17 @@
         <v>91.91</v>
       </c>
       <c r="AU49" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV49" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW49" s="33"/>
-      <c r="AX49" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW49" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX49" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY49" s="33"/>
       <c r="AZ49" s="33"/>
       <c r="BA49" s="33"/>
@@ -10695,13 +10868,17 @@
         <v>96.54</v>
       </c>
       <c r="AU50" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV50" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW50" s="33"/>
-      <c r="AX50" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW50" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX50" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY50" s="33"/>
       <c r="AZ50" s="33"/>
       <c r="BA50" s="33"/>
@@ -10871,13 +11048,17 @@
         <v>94.97</v>
       </c>
       <c r="AU51" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV51" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW51" s="33"/>
-      <c r="AX51" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW51" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX51" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY51" s="33"/>
       <c r="AZ51" s="33"/>
       <c r="BA51" s="33"/>
@@ -11047,13 +11228,17 @@
         <v>97.74</v>
       </c>
       <c r="AU52" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV52" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW52" s="33"/>
-      <c r="AX52" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW52" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX52" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY52" s="33"/>
       <c r="AZ52" s="33"/>
       <c r="BA52" s="33"/>
@@ -11223,13 +11408,17 @@
         <v>97.41</v>
       </c>
       <c r="AU53" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV53" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW53" s="33"/>
-      <c r="AX53" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW53" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX53" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY53" s="33"/>
       <c r="AZ53" s="33"/>
       <c r="BA53" s="33"/>
@@ -11399,13 +11588,17 @@
         <v>96.66</v>
       </c>
       <c r="AU54" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV54" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW54" s="33"/>
-      <c r="AX54" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW54" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX54" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY54" s="33"/>
       <c r="AZ54" s="33"/>
       <c r="BA54" s="33"/>
@@ -11575,13 +11768,17 @@
         <v>98.09</v>
       </c>
       <c r="AU55" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV55" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW55" s="33"/>
-      <c r="AX55" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW55" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX55" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY55" s="33"/>
       <c r="AZ55" s="33"/>
       <c r="BA55" s="33"/>
@@ -11751,13 +11948,17 @@
         <v>96.1</v>
       </c>
       <c r="AU56" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV56" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW56" s="33"/>
-      <c r="AX56" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW56" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX56" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY56" s="33"/>
       <c r="AZ56" s="33"/>
       <c r="BA56" s="33"/>
@@ -11927,13 +12128,17 @@
         <v>96.02</v>
       </c>
       <c r="AU57" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV57" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW57" s="33"/>
-      <c r="AX57" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW57" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX57" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY57" s="33"/>
       <c r="AZ57" s="33"/>
       <c r="BA57" s="33"/>
@@ -12103,13 +12308,17 @@
         <v>96.03</v>
       </c>
       <c r="AU58" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV58" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW58" s="33"/>
-      <c r="AX58" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW58" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX58" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY58" s="33"/>
       <c r="AZ58" s="33"/>
       <c r="BA58" s="33"/>
@@ -12279,13 +12488,17 @@
         <v>97.84</v>
       </c>
       <c r="AU59" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV59" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW59" s="33"/>
-      <c r="AX59" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW59" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX59" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY59" s="33"/>
       <c r="AZ59" s="33"/>
       <c r="BA59" s="33"/>
@@ -12455,13 +12668,17 @@
         <v>95.29</v>
       </c>
       <c r="AU60" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV60" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW60" s="33"/>
-      <c r="AX60" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW60" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX60" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY60" s="33"/>
       <c r="AZ60" s="33"/>
       <c r="BA60" s="33"/>
@@ -12631,13 +12848,17 @@
         <v>96.45</v>
       </c>
       <c r="AU61" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV61" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW61" s="33"/>
-      <c r="AX61" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW61" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX61" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY61" s="33"/>
       <c r="AZ61" s="33"/>
       <c r="BA61" s="33"/>
@@ -12807,13 +13028,17 @@
         <v>96.23</v>
       </c>
       <c r="AU62" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV62" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW62" s="33"/>
-      <c r="AX62" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW62" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX62" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY62" s="33"/>
       <c r="AZ62" s="33"/>
       <c r="BA62" s="33"/>
@@ -12983,13 +13208,17 @@
         <v>97.57</v>
       </c>
       <c r="AU63" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV63" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW63" s="33"/>
-      <c r="AX63" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW63" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX63" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY63" s="33"/>
       <c r="AZ63" s="33"/>
       <c r="BA63" s="33"/>
@@ -13159,13 +13388,17 @@
         <v>96.04</v>
       </c>
       <c r="AU64" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV64" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW64" s="33"/>
-      <c r="AX64" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW64" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX64" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY64" s="33"/>
       <c r="AZ64" s="33"/>
       <c r="BA64" s="33"/>
@@ -13335,13 +13568,17 @@
         <v>97.78</v>
       </c>
       <c r="AU65" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV65" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW65" s="33"/>
-      <c r="AX65" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW65" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX65" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY65" s="33"/>
       <c r="AZ65" s="33"/>
       <c r="BA65" s="33"/>
@@ -13511,13 +13748,17 @@
         <v>95.74</v>
       </c>
       <c r="AU66" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV66" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW66" s="33"/>
-      <c r="AX66" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW66" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX66" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY66" s="33"/>
       <c r="AZ66" s="33"/>
       <c r="BA66" s="33"/>
@@ -13687,13 +13928,17 @@
         <v>95.64</v>
       </c>
       <c r="AU67" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV67" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW67" s="33"/>
-      <c r="AX67" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW67" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX67" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY67" s="33"/>
       <c r="AZ67" s="33"/>
       <c r="BA67" s="33"/>
@@ -13863,13 +14108,17 @@
         <v>97.48</v>
       </c>
       <c r="AU68" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV68" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW68" s="33"/>
-      <c r="AX68" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW68" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX68" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY68" s="33"/>
       <c r="AZ68" s="33"/>
       <c r="BA68" s="33"/>
@@ -14039,13 +14288,17 @@
         <v>96.43</v>
       </c>
       <c r="AU69" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV69" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW69" s="33"/>
-      <c r="AX69" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW69" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX69" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY69" s="33"/>
       <c r="AZ69" s="33"/>
       <c r="BA69" s="33"/>
@@ -14215,13 +14468,17 @@
         <v>96.18</v>
       </c>
       <c r="AU70" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV70" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW70" s="33"/>
-      <c r="AX70" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW70" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX70" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY70" s="33"/>
       <c r="AZ70" s="33"/>
       <c r="BA70" s="33"/>
@@ -14391,13 +14648,17 @@
         <v>97.96</v>
       </c>
       <c r="AU71" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV71" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW71" s="33"/>
-      <c r="AX71" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW71" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX71" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY71" s="33"/>
       <c r="AZ71" s="33"/>
       <c r="BA71" s="33"/>
@@ -14567,13 +14828,17 @@
         <v>97.87</v>
       </c>
       <c r="AU72" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV72" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW72" s="33"/>
-      <c r="AX72" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW72" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX72" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY72" s="33"/>
       <c r="AZ72" s="33"/>
       <c r="BA72" s="33"/>
@@ -14743,13 +15008,17 @@
         <v>98.13</v>
       </c>
       <c r="AU73" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV73" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW73" s="33"/>
-      <c r="AX73" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW73" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX73" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY73" s="33"/>
       <c r="AZ73" s="33"/>
       <c r="BA73" s="33"/>
@@ -14919,13 +15188,17 @@
         <v>97.57</v>
       </c>
       <c r="AU74" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV74" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW74" s="33"/>
-      <c r="AX74" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW74" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX74" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY74" s="33"/>
       <c r="AZ74" s="33"/>
       <c r="BA74" s="33"/>
@@ -15095,13 +15368,17 @@
         <v>96.2</v>
       </c>
       <c r="AU75" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV75" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW75" s="33"/>
-      <c r="AX75" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW75" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX75" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY75" s="33"/>
       <c r="AZ75" s="33"/>
       <c r="BA75" s="33"/>
@@ -15271,13 +15548,17 @@
         <v>96.47</v>
       </c>
       <c r="AU76" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV76" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW76" s="33"/>
-      <c r="AX76" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW76" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX76" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY76" s="33"/>
       <c r="AZ76" s="33"/>
       <c r="BA76" s="33"/>
@@ -15447,13 +15728,17 @@
         <v>95.23</v>
       </c>
       <c r="AU77" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV77" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW77" s="33"/>
-      <c r="AX77" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW77" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX77" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY77" s="33"/>
       <c r="AZ77" s="33"/>
       <c r="BA77" s="33"/>
@@ -15623,13 +15908,17 @@
         <v>98.21</v>
       </c>
       <c r="AU78" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV78" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW78" s="33"/>
-      <c r="AX78" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW78" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX78" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY78" s="33"/>
       <c r="AZ78" s="33"/>
       <c r="BA78" s="33"/>
@@ -15799,13 +16088,17 @@
         <v>98.23</v>
       </c>
       <c r="AU79" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV79" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW79" s="33"/>
-      <c r="AX79" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW79" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX79" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY79" s="33"/>
       <c r="AZ79" s="33"/>
       <c r="BA79" s="33"/>
@@ -15975,13 +16268,17 @@
         <v>97.47</v>
       </c>
       <c r="AU80" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV80" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW80" s="33"/>
-      <c r="AX80" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW80" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX80" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY80" s="33"/>
       <c r="AZ80" s="33"/>
       <c r="BA80" s="33"/>
@@ -16151,13 +16448,17 @@
         <v>98.29</v>
       </c>
       <c r="AU81" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV81" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW81" s="33"/>
-      <c r="AX81" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW81" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX81" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY81" s="33"/>
       <c r="AZ81" s="33"/>
       <c r="BA81" s="33"/>
@@ -16327,13 +16628,17 @@
         <v>98.32</v>
       </c>
       <c r="AU82" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV82" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW82" s="33"/>
-      <c r="AX82" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW82" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX82" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY82" s="33"/>
       <c r="AZ82" s="33"/>
       <c r="BA82" s="33"/>
@@ -16503,13 +16808,17 @@
         <v>97.77</v>
       </c>
       <c r="AU83" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV83" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW83" s="33"/>
-      <c r="AX83" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW83" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX83" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY83" s="33"/>
       <c r="AZ83" s="33"/>
       <c r="BA83" s="33"/>
@@ -16679,13 +16988,17 @@
         <v>98.57</v>
       </c>
       <c r="AU84" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV84" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW84" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX84" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY84" s="33"/>
       <c r="AZ84" s="33"/>
       <c r="BA84" s="33"/>
@@ -16855,13 +17168,17 @@
         <v>97.05</v>
       </c>
       <c r="AU85" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV85" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW85" s="33"/>
-      <c r="AX85" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW85" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX85" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY85" s="33"/>
       <c r="AZ85" s="33"/>
       <c r="BA85" s="33"/>
@@ -17031,13 +17348,17 @@
         <v>96.95</v>
       </c>
       <c r="AU86" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV86" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW86" s="33"/>
-      <c r="AX86" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW86" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX86" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY86" s="33"/>
       <c r="AZ86" s="33"/>
       <c r="BA86" s="33"/>
@@ -17207,13 +17528,17 @@
         <v>96.6</v>
       </c>
       <c r="AU87" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV87" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW87" s="33"/>
-      <c r="AX87" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW87" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX87" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY87" s="33"/>
       <c r="AZ87" s="33"/>
       <c r="BA87" s="33"/>
@@ -17383,13 +17708,17 @@
         <v>95.87</v>
       </c>
       <c r="AU88" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV88" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW88" s="33"/>
-      <c r="AX88" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW88" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX88" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY88" s="33"/>
       <c r="AZ88" s="33"/>
       <c r="BA88" s="33"/>
@@ -17559,13 +17888,17 @@
         <v>93.52</v>
       </c>
       <c r="AU89" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV89" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW89" s="33"/>
-      <c r="AX89" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW89" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX89" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY89" s="33"/>
       <c r="AZ89" s="33"/>
       <c r="BA89" s="33"/>
@@ -17735,13 +18068,17 @@
         <v>93.4</v>
       </c>
       <c r="AU90" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV90" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW90" s="33"/>
-      <c r="AX90" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW90" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX90" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY90" s="33"/>
       <c r="AZ90" s="33"/>
       <c r="BA90" s="33"/>
@@ -17911,13 +18248,17 @@
         <v>93.69</v>
       </c>
       <c r="AU91" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV91" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW91" s="33"/>
-      <c r="AX91" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW91" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX91" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY91" s="33"/>
       <c r="AZ91" s="33"/>
       <c r="BA91" s="33"/>
@@ -18087,13 +18428,17 @@
         <v>98.13</v>
       </c>
       <c r="AU92" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV92" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW92" s="33"/>
-      <c r="AX92" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW92" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX92" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY92" s="33"/>
       <c r="AZ92" s="33"/>
       <c r="BA92" s="33"/>
@@ -18263,13 +18608,17 @@
         <v>96.09</v>
       </c>
       <c r="AU93" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV93" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW93" s="33"/>
-      <c r="AX93" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW93" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX93" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY93" s="33"/>
       <c r="AZ93" s="33"/>
       <c r="BA93" s="33"/>
@@ -18439,13 +18788,17 @@
         <v>97.62</v>
       </c>
       <c r="AU94" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AV94" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW94" s="33"/>
-      <c r="AX94" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AW94" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX94" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AY94" s="33"/>
       <c r="AZ94" s="33"/>
       <c r="BA94" s="33"/>
@@ -18607,7 +18960,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -18794,8 +19147,12 @@
       <c r="AW6" s="32">
         <v>44149</v>
       </c>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
+      <c r="AX6" s="32">
+        <v>44156</v>
+      </c>
+      <c r="AY6" s="32">
+        <v>44163</v>
+      </c>
       <c r="AZ6" s="32"/>
       <c r="BA6" s="32"/>
       <c r="BB6" s="32"/>
@@ -18967,13 +19324,17 @@
         <v>95.72</v>
       </c>
       <c r="AV7" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW7" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX7" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY7" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ7" s="33"/>
       <c r="BA7" s="33"/>
       <c r="BB7" s="33"/>
@@ -19145,13 +19506,17 @@
         <v>93.06</v>
       </c>
       <c r="AV8" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW8" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX8" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY8" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ8" s="33"/>
       <c r="BA8" s="33"/>
       <c r="BB8" s="33"/>
@@ -19323,13 +19688,17 @@
         <v>94.33</v>
       </c>
       <c r="AV9" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW9" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX9" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY9" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="33"/>
       <c r="BB9" s="33"/>
@@ -19501,13 +19870,17 @@
         <v>96.08</v>
       </c>
       <c r="AV10" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW10" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX10" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY10" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ10" s="33"/>
       <c r="BA10" s="33"/>
       <c r="BB10" s="33"/>
@@ -19679,13 +20052,17 @@
         <v>95.95</v>
       </c>
       <c r="AV11" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW11" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX11" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY11" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="33"/>
       <c r="BB11" s="33"/>
@@ -19857,13 +20234,17 @@
         <v>97.82</v>
       </c>
       <c r="AV12" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW12" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX12" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY12" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ12" s="33"/>
       <c r="BA12" s="33"/>
       <c r="BB12" s="33"/>
@@ -20035,13 +20416,17 @@
         <v>97.01</v>
       </c>
       <c r="AV13" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW13" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX13" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY13" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
       <c r="BB13" s="33"/>
@@ -20213,13 +20598,17 @@
         <v>97.51</v>
       </c>
       <c r="AV14" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW14" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX14" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY14" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ14" s="33"/>
       <c r="BA14" s="33"/>
       <c r="BB14" s="33"/>
@@ -20391,13 +20780,17 @@
         <v>96.03</v>
       </c>
       <c r="AV15" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW15" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX15" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY15" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
@@ -20569,13 +20962,17 @@
         <v>101.94</v>
       </c>
       <c r="AV16" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW16" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX16" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY16" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ16" s="33"/>
       <c r="BA16" s="33"/>
       <c r="BB16" s="33"/>
@@ -20747,13 +21144,17 @@
         <v>95.57</v>
       </c>
       <c r="AV17" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW17" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX17" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY17" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="33"/>
       <c r="BB17" s="33"/>
@@ -20925,13 +21326,17 @@
         <v>94.11</v>
       </c>
       <c r="AV18" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW18" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX18" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY18" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ18" s="33"/>
       <c r="BA18" s="33"/>
       <c r="BB18" s="33"/>
@@ -21103,13 +21508,17 @@
         <v>95.86</v>
       </c>
       <c r="AV19" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW19" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX19" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY19" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ19" s="33"/>
       <c r="BA19" s="33"/>
       <c r="BB19" s="33"/>
@@ -21281,13 +21690,17 @@
         <v>91.32</v>
       </c>
       <c r="AV20" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW20" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX20" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY20" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ20" s="33"/>
       <c r="BA20" s="33"/>
       <c r="BB20" s="33"/>
@@ -21459,13 +21872,17 @@
         <v>101.37</v>
       </c>
       <c r="AV21" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW21" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX21" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY21" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ21" s="33"/>
       <c r="BA21" s="33"/>
       <c r="BB21" s="33"/>
@@ -21637,13 +22054,17 @@
         <v>96.48</v>
       </c>
       <c r="AV22" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW22" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX22" s="33"/>
-      <c r="AY22" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX22" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY22" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ22" s="33"/>
       <c r="BA22" s="33"/>
       <c r="BB22" s="33"/>
@@ -21815,13 +22236,17 @@
         <v>98.18</v>
       </c>
       <c r="AV23" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW23" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX23" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY23" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ23" s="33"/>
       <c r="BA23" s="33"/>
       <c r="BB23" s="33"/>
@@ -21993,13 +22418,17 @@
         <v>98.86</v>
       </c>
       <c r="AV24" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW24" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX24" s="33"/>
-      <c r="AY24" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX24" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY24" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ24" s="33"/>
       <c r="BA24" s="33"/>
       <c r="BB24" s="33"/>
@@ -22171,13 +22600,17 @@
         <v>96.5</v>
       </c>
       <c r="AV25" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW25" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX25" s="33"/>
-      <c r="AY25" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX25" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY25" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ25" s="33"/>
       <c r="BA25" s="33"/>
       <c r="BB25" s="33"/>
@@ -22349,13 +22782,17 @@
         <v>97.78</v>
       </c>
       <c r="AV26" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW26" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX26" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY26" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ26" s="33"/>
       <c r="BA26" s="33"/>
       <c r="BB26" s="33"/>
@@ -22527,13 +22964,17 @@
         <v>98</v>
       </c>
       <c r="AV27" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW27" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX27" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY27" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ27" s="33"/>
       <c r="BA27" s="33"/>
       <c r="BB27" s="33"/>
@@ -22705,13 +23146,17 @@
         <v>456</v>
       </c>
       <c r="AV28" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW28" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX28" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY28" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ28" s="33"/>
       <c r="BA28" s="33"/>
       <c r="BB28" s="33"/>
@@ -22883,13 +23328,17 @@
         <v>99.15</v>
       </c>
       <c r="AV29" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW29" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX29" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY29" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ29" s="33"/>
       <c r="BA29" s="33"/>
       <c r="BB29" s="33"/>
@@ -23061,13 +23510,17 @@
         <v>97.52</v>
       </c>
       <c r="AV30" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW30" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX30" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY30" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ30" s="33"/>
       <c r="BA30" s="33"/>
       <c r="BB30" s="33"/>
@@ -23239,13 +23692,17 @@
         <v>96.22</v>
       </c>
       <c r="AV31" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW31" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX31" s="33"/>
-      <c r="AY31" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX31" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY31" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ31" s="33"/>
       <c r="BA31" s="33"/>
       <c r="BB31" s="33"/>
@@ -23417,13 +23874,17 @@
         <v>96.81</v>
       </c>
       <c r="AV32" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW32" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX32" s="33"/>
-      <c r="AY32" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY32" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ32" s="33"/>
       <c r="BA32" s="33"/>
       <c r="BB32" s="33"/>
@@ -23595,13 +24056,17 @@
         <v>90.79</v>
       </c>
       <c r="AV33" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW33" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX33" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY33" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ33" s="33"/>
       <c r="BA33" s="33"/>
       <c r="BB33" s="33"/>
@@ -23773,13 +24238,17 @@
         <v>94.74</v>
       </c>
       <c r="AV34" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW34" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX34" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY34" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ34" s="33"/>
       <c r="BA34" s="33"/>
       <c r="BB34" s="33"/>
@@ -23951,13 +24420,17 @@
         <v>98.23</v>
       </c>
       <c r="AV35" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW35" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX35" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY35" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ35" s="33"/>
       <c r="BA35" s="33"/>
       <c r="BB35" s="33"/>
@@ -24129,13 +24602,17 @@
         <v>98.19</v>
       </c>
       <c r="AV36" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW36" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX36" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY36" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ36" s="33"/>
       <c r="BA36" s="33"/>
       <c r="BB36" s="33"/>
@@ -24307,13 +24784,17 @@
         <v>90.32</v>
       </c>
       <c r="AV37" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW37" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX37" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY37" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ37" s="33"/>
       <c r="BA37" s="33"/>
       <c r="BB37" s="33"/>
@@ -24485,13 +24966,17 @@
         <v>95.96</v>
       </c>
       <c r="AV38" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW38" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX38" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY38" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ38" s="33"/>
       <c r="BA38" s="33"/>
       <c r="BB38" s="33"/>
@@ -24663,13 +25148,17 @@
         <v>99.78</v>
       </c>
       <c r="AV39" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW39" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX39" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY39" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ39" s="33"/>
       <c r="BA39" s="33"/>
       <c r="BB39" s="33"/>
@@ -24841,13 +25330,17 @@
         <v>98.79</v>
       </c>
       <c r="AV40" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW40" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX40" s="33"/>
-      <c r="AY40" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX40" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY40" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ40" s="33"/>
       <c r="BA40" s="33"/>
       <c r="BB40" s="33"/>
@@ -25019,13 +25512,17 @@
         <v>97.95</v>
       </c>
       <c r="AV41" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW41" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX41" s="33"/>
-      <c r="AY41" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX41" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY41" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ41" s="33"/>
       <c r="BA41" s="33"/>
       <c r="BB41" s="33"/>
@@ -25197,13 +25694,17 @@
         <v>97.75</v>
       </c>
       <c r="AV42" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW42" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX42" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY42" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ42" s="33"/>
       <c r="BA42" s="33"/>
       <c r="BB42" s="33"/>
@@ -25375,13 +25876,17 @@
         <v>98.13</v>
       </c>
       <c r="AV43" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW43" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX43" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY43" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ43" s="33"/>
       <c r="BA43" s="33"/>
       <c r="BB43" s="33"/>
@@ -25553,13 +26058,17 @@
         <v>98.8</v>
       </c>
       <c r="AV44" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW44" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX44" s="33"/>
-      <c r="AY44" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX44" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY44" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ44" s="33"/>
       <c r="BA44" s="33"/>
       <c r="BB44" s="33"/>
@@ -25731,13 +26240,17 @@
         <v>97.72</v>
       </c>
       <c r="AV45" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW45" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX45" s="33"/>
-      <c r="AY45" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX45" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY45" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ45" s="33"/>
       <c r="BA45" s="33"/>
       <c r="BB45" s="33"/>
@@ -25909,13 +26422,17 @@
         <v>93.48</v>
       </c>
       <c r="AV46" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW46" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX46" s="33"/>
-      <c r="AY46" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX46" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY46" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="33"/>
       <c r="BB46" s="33"/>
@@ -26087,13 +26604,17 @@
         <v>95.71</v>
       </c>
       <c r="AV47" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW47" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX47" s="33"/>
-      <c r="AY47" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX47" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY47" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
       <c r="BB47" s="33"/>
@@ -26265,13 +26786,17 @@
         <v>95.61</v>
       </c>
       <c r="AV48" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW48" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX48" s="33"/>
-      <c r="AY48" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX48" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY48" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ48" s="33"/>
       <c r="BA48" s="33"/>
       <c r="BB48" s="33"/>
@@ -26443,13 +26968,17 @@
         <v>96.05</v>
       </c>
       <c r="AV49" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW49" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX49" s="33"/>
-      <c r="AY49" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX49" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY49" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ49" s="33"/>
       <c r="BA49" s="33"/>
       <c r="BB49" s="33"/>
@@ -26621,13 +27150,17 @@
         <v>96.71</v>
       </c>
       <c r="AV50" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW50" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX50" s="33"/>
-      <c r="AY50" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX50" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY50" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ50" s="33"/>
       <c r="BA50" s="33"/>
       <c r="BB50" s="33"/>
@@ -26799,13 +27332,17 @@
         <v>96.04</v>
       </c>
       <c r="AV51" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW51" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX51" s="33"/>
-      <c r="AY51" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX51" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY51" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ51" s="33"/>
       <c r="BA51" s="33"/>
       <c r="BB51" s="33"/>
@@ -26977,13 +27514,17 @@
         <v>98.3</v>
       </c>
       <c r="AV52" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW52" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX52" s="33"/>
-      <c r="AY52" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX52" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY52" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ52" s="33"/>
       <c r="BA52" s="33"/>
       <c r="BB52" s="33"/>
@@ -27155,13 +27696,17 @@
         <v>96.35</v>
       </c>
       <c r="AV53" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW53" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX53" s="33"/>
-      <c r="AY53" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX53" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY53" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ53" s="33"/>
       <c r="BA53" s="33"/>
       <c r="BB53" s="33"/>
@@ -27333,13 +27878,17 @@
         <v>97.55</v>
       </c>
       <c r="AV54" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW54" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX54" s="33"/>
-      <c r="AY54" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX54" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY54" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ54" s="33"/>
       <c r="BA54" s="33"/>
       <c r="BB54" s="33"/>
@@ -27511,13 +28060,17 @@
         <v>95.36</v>
       </c>
       <c r="AV55" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW55" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX55" s="33"/>
-      <c r="AY55" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX55" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY55" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ55" s="33"/>
       <c r="BA55" s="33"/>
       <c r="BB55" s="33"/>
@@ -27689,13 +28242,17 @@
         <v>98.16</v>
       </c>
       <c r="AV56" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW56" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX56" s="33"/>
-      <c r="AY56" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX56" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY56" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ56" s="33"/>
       <c r="BA56" s="33"/>
       <c r="BB56" s="33"/>
@@ -27867,13 +28424,17 @@
         <v>97.02</v>
       </c>
       <c r="AV57" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW57" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX57" s="33"/>
-      <c r="AY57" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX57" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY57" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ57" s="33"/>
       <c r="BA57" s="33"/>
       <c r="BB57" s="33"/>
@@ -28045,13 +28606,17 @@
         <v>96.71</v>
       </c>
       <c r="AV58" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW58" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX58" s="33"/>
-      <c r="AY58" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX58" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY58" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ58" s="33"/>
       <c r="BA58" s="33"/>
       <c r="BB58" s="33"/>
@@ -28223,13 +28788,17 @@
         <v>97.1</v>
       </c>
       <c r="AV59" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW59" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX59" s="33"/>
-      <c r="AY59" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX59" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY59" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ59" s="33"/>
       <c r="BA59" s="33"/>
       <c r="BB59" s="33"/>
@@ -28401,13 +28970,17 @@
         <v>97.27</v>
       </c>
       <c r="AV60" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW60" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX60" s="33"/>
-      <c r="AY60" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX60" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY60" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ60" s="33"/>
       <c r="BA60" s="33"/>
       <c r="BB60" s="33"/>
@@ -28579,13 +29152,17 @@
         <v>94.06</v>
       </c>
       <c r="AV61" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW61" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX61" s="33"/>
-      <c r="AY61" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX61" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY61" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ61" s="33"/>
       <c r="BA61" s="33"/>
       <c r="BB61" s="33"/>
@@ -28757,13 +29334,17 @@
         <v>95.35</v>
       </c>
       <c r="AV62" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW62" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX62" s="33"/>
-      <c r="AY62" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX62" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY62" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ62" s="33"/>
       <c r="BA62" s="33"/>
       <c r="BB62" s="33"/>
@@ -28935,13 +29516,17 @@
         <v>92.88</v>
       </c>
       <c r="AV63" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW63" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX63" s="33"/>
-      <c r="AY63" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX63" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY63" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ63" s="33"/>
       <c r="BA63" s="33"/>
       <c r="BB63" s="33"/>
@@ -29113,13 +29698,17 @@
         <v>93.48</v>
       </c>
       <c r="AV64" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW64" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX64" s="33"/>
-      <c r="AY64" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX64" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY64" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ64" s="33"/>
       <c r="BA64" s="33"/>
       <c r="BB64" s="33"/>
@@ -29291,13 +29880,17 @@
         <v>95.02</v>
       </c>
       <c r="AV65" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW65" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX65" s="33"/>
-      <c r="AY65" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX65" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY65" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ65" s="33"/>
       <c r="BA65" s="33"/>
       <c r="BB65" s="33"/>
@@ -29469,13 +30062,17 @@
         <v>94.45</v>
       </c>
       <c r="AV66" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW66" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX66" s="33"/>
-      <c r="AY66" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX66" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY66" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ66" s="33"/>
       <c r="BA66" s="33"/>
       <c r="BB66" s="33"/>
@@ -29647,13 +30244,17 @@
         <v>94.01</v>
       </c>
       <c r="AV67" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW67" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX67" s="33"/>
-      <c r="AY67" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX67" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY67" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ67" s="33"/>
       <c r="BA67" s="33"/>
       <c r="BB67" s="33"/>
@@ -29825,13 +30426,17 @@
         <v>95.04</v>
       </c>
       <c r="AV68" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW68" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX68" s="33"/>
-      <c r="AY68" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX68" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY68" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ68" s="33"/>
       <c r="BA68" s="33"/>
       <c r="BB68" s="33"/>
@@ -30003,13 +30608,17 @@
         <v>94.81</v>
       </c>
       <c r="AV69" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW69" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX69" s="33"/>
-      <c r="AY69" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX69" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY69" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ69" s="33"/>
       <c r="BA69" s="33"/>
       <c r="BB69" s="33"/>
@@ -30181,13 +30790,17 @@
         <v>96.26</v>
       </c>
       <c r="AV70" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW70" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX70" s="33"/>
-      <c r="AY70" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX70" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY70" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ70" s="33"/>
       <c r="BA70" s="33"/>
       <c r="BB70" s="33"/>
@@ -30359,13 +30972,17 @@
         <v>96.42</v>
       </c>
       <c r="AV71" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW71" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX71" s="33"/>
-      <c r="AY71" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX71" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY71" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ71" s="33"/>
       <c r="BA71" s="33"/>
       <c r="BB71" s="33"/>
@@ -30537,13 +31154,17 @@
         <v>95.16</v>
       </c>
       <c r="AV72" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW72" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX72" s="33"/>
-      <c r="AY72" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX72" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY72" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ72" s="33"/>
       <c r="BA72" s="33"/>
       <c r="BB72" s="33"/>
@@ -30715,13 +31336,17 @@
         <v>96.1</v>
       </c>
       <c r="AV73" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW73" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX73" s="33"/>
-      <c r="AY73" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX73" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY73" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ73" s="33"/>
       <c r="BA73" s="33"/>
       <c r="BB73" s="33"/>
@@ -30893,13 +31518,17 @@
         <v>97.55</v>
       </c>
       <c r="AV74" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW74" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX74" s="33"/>
-      <c r="AY74" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX74" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY74" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ74" s="33"/>
       <c r="BA74" s="33"/>
       <c r="BB74" s="33"/>
@@ -31071,13 +31700,17 @@
         <v>96.79</v>
       </c>
       <c r="AV75" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW75" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX75" s="33"/>
-      <c r="AY75" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX75" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY75" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ75" s="33"/>
       <c r="BA75" s="33"/>
       <c r="BB75" s="33"/>
@@ -31249,13 +31882,17 @@
         <v>96.03</v>
       </c>
       <c r="AV76" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW76" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX76" s="33"/>
-      <c r="AY76" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX76" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY76" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ76" s="33"/>
       <c r="BA76" s="33"/>
       <c r="BB76" s="33"/>
@@ -31427,13 +32064,17 @@
         <v>96.06</v>
       </c>
       <c r="AV77" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW77" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX77" s="33"/>
-      <c r="AY77" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX77" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY77" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ77" s="33"/>
       <c r="BA77" s="33"/>
       <c r="BB77" s="33"/>
@@ -31605,13 +32246,17 @@
         <v>96.94</v>
       </c>
       <c r="AV78" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW78" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX78" s="33"/>
-      <c r="AY78" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX78" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY78" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ78" s="33"/>
       <c r="BA78" s="33"/>
       <c r="BB78" s="33"/>
@@ -31783,13 +32428,17 @@
         <v>96.72</v>
       </c>
       <c r="AV79" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW79" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX79" s="33"/>
-      <c r="AY79" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX79" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY79" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ79" s="33"/>
       <c r="BA79" s="33"/>
       <c r="BB79" s="33"/>
@@ -31961,13 +32610,17 @@
         <v>97.16</v>
       </c>
       <c r="AV80" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW80" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX80" s="33"/>
-      <c r="AY80" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX80" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY80" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ80" s="33"/>
       <c r="BA80" s="33"/>
       <c r="BB80" s="33"/>
@@ -32139,13 +32792,17 @@
         <v>96</v>
       </c>
       <c r="AV81" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW81" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX81" s="33"/>
-      <c r="AY81" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX81" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY81" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ81" s="33"/>
       <c r="BA81" s="33"/>
       <c r="BB81" s="33"/>
@@ -32317,13 +32974,17 @@
         <v>97.17</v>
       </c>
       <c r="AV82" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW82" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX82" s="33"/>
-      <c r="AY82" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX82" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY82" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ82" s="33"/>
       <c r="BA82" s="33"/>
       <c r="BB82" s="33"/>
@@ -32495,13 +33156,17 @@
         <v>98.56</v>
       </c>
       <c r="AV83" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW83" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX83" s="33"/>
-      <c r="AY83" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX83" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY83" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ83" s="33"/>
       <c r="BA83" s="33"/>
       <c r="BB83" s="33"/>
@@ -32673,13 +33338,17 @@
         <v>456</v>
       </c>
       <c r="AV84" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW84" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX84" s="33"/>
-      <c r="AY84" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX84" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY84" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ84" s="33"/>
       <c r="BA84" s="33"/>
       <c r="BB84" s="33"/>
@@ -32851,13 +33520,17 @@
         <v>97.65</v>
       </c>
       <c r="AV85" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW85" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX85" s="33"/>
-      <c r="AY85" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX85" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY85" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ85" s="33"/>
       <c r="BA85" s="33"/>
       <c r="BB85" s="33"/>
@@ -33029,13 +33702,17 @@
         <v>97.12</v>
       </c>
       <c r="AV86" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW86" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX86" s="33"/>
-      <c r="AY86" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX86" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY86" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ86" s="33"/>
       <c r="BA86" s="33"/>
       <c r="BB86" s="33"/>
@@ -33207,13 +33884,17 @@
         <v>96.66</v>
       </c>
       <c r="AV87" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW87" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX87" s="33"/>
-      <c r="AY87" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX87" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY87" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ87" s="33"/>
       <c r="BA87" s="33"/>
       <c r="BB87" s="33"/>
@@ -33385,13 +34066,17 @@
         <v>93.97</v>
       </c>
       <c r="AV88" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW88" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX88" s="33"/>
-      <c r="AY88" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX88" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY88" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ88" s="33"/>
       <c r="BA88" s="33"/>
       <c r="BB88" s="33"/>
@@ -33563,13 +34248,17 @@
         <v>95.96</v>
       </c>
       <c r="AV89" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW89" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX89" s="33"/>
-      <c r="AY89" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX89" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY89" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ89" s="33"/>
       <c r="BA89" s="33"/>
       <c r="BB89" s="33"/>
@@ -33741,13 +34430,17 @@
         <v>94.32</v>
       </c>
       <c r="AV90" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW90" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX90" s="33"/>
-      <c r="AY90" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX90" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY90" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ90" s="33"/>
       <c r="BA90" s="33"/>
       <c r="BB90" s="33"/>
@@ -33919,13 +34612,17 @@
         <v>97.15</v>
       </c>
       <c r="AV91" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW91" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX91" s="33"/>
-      <c r="AY91" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX91" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY91" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ91" s="33"/>
       <c r="BA91" s="33"/>
       <c r="BB91" s="33"/>
@@ -34097,13 +34794,17 @@
         <v>96.63</v>
       </c>
       <c r="AV92" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW92" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX92" s="33"/>
-      <c r="AY92" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX92" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY92" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ92" s="33"/>
       <c r="BA92" s="33"/>
       <c r="BB92" s="33"/>
@@ -34275,13 +34976,17 @@
         <v>95.8</v>
       </c>
       <c r="AV93" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW93" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX93" s="33"/>
-      <c r="AY93" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX93" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY93" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ93" s="33"/>
       <c r="BA93" s="33"/>
       <c r="BB93" s="33"/>
@@ -34453,13 +35158,17 @@
         <v>95.9</v>
       </c>
       <c r="AV94" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW94" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX94" s="33"/>
-      <c r="AY94" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX94" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY94" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ94" s="33"/>
       <c r="BA94" s="33"/>
       <c r="BB94" s="33"/>
@@ -34631,13 +35340,17 @@
         <v>92.94</v>
       </c>
       <c r="AV95" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW95" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX95" s="33"/>
-      <c r="AY95" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX95" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY95" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ95" s="33"/>
       <c r="BA95" s="33"/>
       <c r="BB95" s="33"/>
@@ -34809,13 +35522,17 @@
         <v>95.64</v>
       </c>
       <c r="AV96" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW96" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX96" s="33"/>
-      <c r="AY96" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX96" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY96" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ96" s="33"/>
       <c r="BA96" s="33"/>
       <c r="BB96" s="33"/>
@@ -34987,13 +35704,17 @@
         <v>96.96</v>
       </c>
       <c r="AV97" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW97" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX97" s="33"/>
-      <c r="AY97" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX97" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY97" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ97" s="33"/>
       <c r="BA97" s="33"/>
       <c r="BB97" s="33"/>
@@ -35165,13 +35886,17 @@
         <v>97.24</v>
       </c>
       <c r="AV98" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW98" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX98" s="33"/>
-      <c r="AY98" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX98" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY98" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ98" s="33"/>
       <c r="BA98" s="33"/>
       <c r="BB98" s="33"/>
@@ -35343,13 +36068,17 @@
         <v>94.05</v>
       </c>
       <c r="AV99" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW99" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX99" s="33"/>
-      <c r="AY99" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX99" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY99" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ99" s="33"/>
       <c r="BA99" s="33"/>
       <c r="BB99" s="33"/>
@@ -35521,13 +36250,17 @@
         <v>90.9</v>
       </c>
       <c r="AV100" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW100" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX100" s="33"/>
-      <c r="AY100" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX100" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY100" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ100" s="33"/>
       <c r="BA100" s="33"/>
       <c r="BB100" s="33"/>
@@ -35699,13 +36432,17 @@
         <v>93.02</v>
       </c>
       <c r="AV101" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW101" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX101" s="33"/>
-      <c r="AY101" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX101" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY101" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ101" s="33"/>
       <c r="BA101" s="33"/>
       <c r="BB101" s="33"/>
@@ -35877,13 +36614,17 @@
         <v>94.6</v>
       </c>
       <c r="AV102" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW102" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX102" s="33"/>
-      <c r="AY102" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX102" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY102" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ102" s="33"/>
       <c r="BA102" s="33"/>
       <c r="BB102" s="33"/>
@@ -36055,13 +36796,17 @@
         <v>92.57</v>
       </c>
       <c r="AV103" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW103" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX103" s="33"/>
-      <c r="AY103" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX103" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY103" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ103" s="33"/>
       <c r="BA103" s="33"/>
       <c r="BB103" s="33"/>
@@ -36233,13 +36978,17 @@
         <v>93.07</v>
       </c>
       <c r="AV104" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW104" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX104" s="33"/>
-      <c r="AY104" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX104" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY104" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ104" s="33"/>
       <c r="BA104" s="33"/>
       <c r="BB104" s="33"/>
@@ -36411,13 +37160,17 @@
         <v>93.32</v>
       </c>
       <c r="AV105" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW105" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX105" s="33"/>
-      <c r="AY105" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX105" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY105" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ105" s="33"/>
       <c r="BA105" s="33"/>
       <c r="BB105" s="33"/>
@@ -36589,13 +37342,17 @@
         <v>94.53</v>
       </c>
       <c r="AV106" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW106" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX106" s="33"/>
-      <c r="AY106" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX106" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY106" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ106" s="33"/>
       <c r="BA106" s="33"/>
       <c r="BB106" s="33"/>
@@ -36767,13 +37524,17 @@
         <v>93.74</v>
       </c>
       <c r="AV107" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW107" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX107" s="33"/>
-      <c r="AY107" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX107" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY107" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ107" s="33"/>
       <c r="BA107" s="33"/>
       <c r="BB107" s="33"/>
@@ -36945,13 +37706,17 @@
         <v>93.88</v>
       </c>
       <c r="AV108" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW108" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX108" s="33"/>
-      <c r="AY108" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX108" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY108" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ108" s="33"/>
       <c r="BA108" s="33"/>
       <c r="BB108" s="33"/>
@@ -37123,13 +37888,17 @@
         <v>96.23</v>
       </c>
       <c r="AV109" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW109" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX109" s="33"/>
-      <c r="AY109" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX109" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY109" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ109" s="33"/>
       <c r="BA109" s="33"/>
       <c r="BB109" s="33"/>
@@ -37301,13 +38070,17 @@
         <v>97.73</v>
       </c>
       <c r="AV110" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW110" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX110" s="33"/>
-      <c r="AY110" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX110" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY110" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ110" s="33"/>
       <c r="BA110" s="33"/>
       <c r="BB110" s="33"/>
@@ -37479,13 +38252,17 @@
         <v>93.2</v>
       </c>
       <c r="AV111" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW111" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX111" s="33"/>
-      <c r="AY111" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX111" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY111" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ111" s="33"/>
       <c r="BA111" s="33"/>
       <c r="BB111" s="33"/>
@@ -37657,13 +38434,17 @@
         <v>93.24</v>
       </c>
       <c r="AV112" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW112" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX112" s="33"/>
-      <c r="AY112" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX112" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY112" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ112" s="33"/>
       <c r="BA112" s="33"/>
       <c r="BB112" s="33"/>
@@ -37835,13 +38616,17 @@
         <v>91.8</v>
       </c>
       <c r="AV113" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW113" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX113" s="33"/>
-      <c r="AY113" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX113" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY113" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ113" s="33"/>
       <c r="BA113" s="33"/>
       <c r="BB113" s="33"/>
@@ -38013,13 +38798,17 @@
         <v>95.84</v>
       </c>
       <c r="AV114" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW114" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX114" s="33"/>
-      <c r="AY114" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX114" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY114" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ114" s="33"/>
       <c r="BA114" s="33"/>
       <c r="BB114" s="33"/>
@@ -38191,13 +38980,17 @@
         <v>88.95</v>
       </c>
       <c r="AV115" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW115" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX115" s="33"/>
-      <c r="AY115" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX115" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY115" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ115" s="33"/>
       <c r="BA115" s="33"/>
       <c r="BB115" s="33"/>
@@ -38369,13 +39162,17 @@
         <v>92.6</v>
       </c>
       <c r="AV116" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW116" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX116" s="33"/>
-      <c r="AY116" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX116" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY116" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ116" s="33"/>
       <c r="BA116" s="33"/>
       <c r="BB116" s="33"/>
@@ -38547,13 +39344,17 @@
         <v>93.87</v>
       </c>
       <c r="AV117" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW117" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX117" s="33"/>
-      <c r="AY117" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX117" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY117" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ117" s="33"/>
       <c r="BA117" s="33"/>
       <c r="BB117" s="33"/>
@@ -38725,13 +39526,17 @@
         <v>93.28</v>
       </c>
       <c r="AV118" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW118" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX118" s="33"/>
-      <c r="AY118" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX118" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY118" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ118" s="33"/>
       <c r="BA118" s="33"/>
       <c r="BB118" s="33"/>
@@ -38903,13 +39708,17 @@
         <v>86.76</v>
       </c>
       <c r="AV119" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW119" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX119" s="33"/>
-      <c r="AY119" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX119" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY119" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ119" s="33"/>
       <c r="BA119" s="33"/>
       <c r="BB119" s="33"/>
@@ -39081,13 +39890,17 @@
         <v>92.14</v>
       </c>
       <c r="AV120" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW120" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX120" s="33"/>
-      <c r="AY120" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX120" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY120" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ120" s="33"/>
       <c r="BA120" s="33"/>
       <c r="BB120" s="33"/>
@@ -39259,13 +40072,17 @@
         <v>92.78</v>
       </c>
       <c r="AV121" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW121" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX121" s="33"/>
-      <c r="AY121" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX121" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY121" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ121" s="33"/>
       <c r="BA121" s="33"/>
       <c r="BB121" s="33"/>
@@ -39437,13 +40254,17 @@
         <v>93.3</v>
       </c>
       <c r="AV122" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW122" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX122" s="33"/>
-      <c r="AY122" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX122" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY122" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ122" s="33"/>
       <c r="BA122" s="33"/>
       <c r="BB122" s="33"/>
@@ -39615,13 +40436,17 @@
         <v>94.87</v>
       </c>
       <c r="AV123" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW123" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX123" s="33"/>
-      <c r="AY123" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX123" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY123" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ123" s="33"/>
       <c r="BA123" s="33"/>
       <c r="BB123" s="33"/>
@@ -39793,13 +40618,17 @@
         <v>93.53</v>
       </c>
       <c r="AV124" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW124" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX124" s="33"/>
-      <c r="AY124" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX124" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY124" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ124" s="33"/>
       <c r="BA124" s="33"/>
       <c r="BB124" s="33"/>
@@ -39971,13 +40800,17 @@
         <v>92.98</v>
       </c>
       <c r="AV125" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW125" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX125" s="33"/>
-      <c r="AY125" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX125" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY125" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ125" s="33"/>
       <c r="BA125" s="33"/>
       <c r="BB125" s="33"/>
@@ -40149,13 +40982,17 @@
         <v>93.57</v>
       </c>
       <c r="AV126" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW126" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX126" s="33"/>
-      <c r="AY126" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX126" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY126" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ126" s="33"/>
       <c r="BA126" s="33"/>
       <c r="BB126" s="33"/>
@@ -40327,13 +41164,17 @@
         <v>93.26</v>
       </c>
       <c r="AV127" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW127" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX127" s="33"/>
-      <c r="AY127" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX127" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY127" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ127" s="33"/>
       <c r="BA127" s="33"/>
       <c r="BB127" s="33"/>
@@ -40505,13 +41346,17 @@
         <v>93.96</v>
       </c>
       <c r="AV128" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW128" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX128" s="33"/>
-      <c r="AY128" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX128" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY128" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ128" s="33"/>
       <c r="BA128" s="33"/>
       <c r="BB128" s="33"/>
@@ -40683,13 +41528,17 @@
         <v>93.71</v>
       </c>
       <c r="AV129" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW129" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX129" s="33"/>
-      <c r="AY129" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX129" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY129" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ129" s="33"/>
       <c r="BA129" s="33"/>
       <c r="BB129" s="33"/>
@@ -40861,13 +41710,17 @@
         <v>97.01</v>
       </c>
       <c r="AV130" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW130" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX130" s="33"/>
-      <c r="AY130" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX130" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY130" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ130" s="33"/>
       <c r="BA130" s="33"/>
       <c r="BB130" s="33"/>
@@ -41039,13 +41892,17 @@
         <v>92.62</v>
       </c>
       <c r="AV131" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW131" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX131" s="33"/>
-      <c r="AY131" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX131" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY131" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ131" s="33"/>
       <c r="BA131" s="33"/>
       <c r="BB131" s="33"/>
@@ -41217,13 +42074,17 @@
         <v>96.42</v>
       </c>
       <c r="AV132" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW132" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX132" s="33"/>
-      <c r="AY132" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX132" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY132" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ132" s="33"/>
       <c r="BA132" s="33"/>
       <c r="BB132" s="33"/>
@@ -41395,13 +42256,17 @@
         <v>94.59</v>
       </c>
       <c r="AV133" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW133" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX133" s="33"/>
-      <c r="AY133" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX133" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY133" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ133" s="33"/>
       <c r="BA133" s="33"/>
       <c r="BB133" s="33"/>
@@ -41573,13 +42438,17 @@
         <v>94.06</v>
       </c>
       <c r="AV134" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW134" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX134" s="33"/>
-      <c r="AY134" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX134" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY134" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ134" s="33"/>
       <c r="BA134" s="33"/>
       <c r="BB134" s="33"/>
@@ -41751,13 +42620,17 @@
         <v>94.27</v>
       </c>
       <c r="AV135" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW135" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX135" s="33"/>
-      <c r="AY135" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX135" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY135" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ135" s="33"/>
       <c r="BA135" s="33"/>
       <c r="BB135" s="33"/>
@@ -41929,13 +42802,17 @@
         <v>92.7</v>
       </c>
       <c r="AV136" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW136" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX136" s="33"/>
-      <c r="AY136" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX136" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY136" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ136" s="33"/>
       <c r="BA136" s="33"/>
       <c r="BB136" s="33"/>
@@ -42107,13 +42984,17 @@
         <v>93.91</v>
       </c>
       <c r="AV137" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW137" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX137" s="33"/>
-      <c r="AY137" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX137" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY137" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ137" s="33"/>
       <c r="BA137" s="33"/>
       <c r="BB137" s="33"/>
@@ -42285,13 +43166,17 @@
         <v>92.63</v>
       </c>
       <c r="AV138" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW138" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX138" s="33"/>
-      <c r="AY138" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX138" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY138" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ138" s="33"/>
       <c r="BA138" s="33"/>
       <c r="BB138" s="33"/>
@@ -42463,13 +43348,17 @@
         <v>94.63</v>
       </c>
       <c r="AV139" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW139" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX139" s="33"/>
-      <c r="AY139" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX139" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY139" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ139" s="33"/>
       <c r="BA139" s="33"/>
       <c r="BB139" s="33"/>
@@ -42641,13 +43530,17 @@
         <v>95.54</v>
       </c>
       <c r="AV140" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW140" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX140" s="33"/>
-      <c r="AY140" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX140" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY140" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ140" s="33"/>
       <c r="BA140" s="33"/>
       <c r="BB140" s="33"/>
@@ -42819,13 +43712,17 @@
         <v>94.55</v>
       </c>
       <c r="AV141" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW141" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX141" s="33"/>
-      <c r="AY141" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX141" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY141" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ141" s="33"/>
       <c r="BA141" s="33"/>
       <c r="BB141" s="33"/>
@@ -42997,13 +43894,17 @@
         <v>94.53</v>
       </c>
       <c r="AV142" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW142" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX142" s="33"/>
-      <c r="AY142" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX142" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY142" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ142" s="33"/>
       <c r="BA142" s="33"/>
       <c r="BB142" s="33"/>
@@ -43175,13 +44076,17 @@
         <v>94.21</v>
       </c>
       <c r="AV143" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW143" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX143" s="33"/>
-      <c r="AY143" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX143" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY143" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ143" s="33"/>
       <c r="BA143" s="33"/>
       <c r="BB143" s="33"/>
@@ -43353,13 +44258,17 @@
         <v>93.88</v>
       </c>
       <c r="AV144" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW144" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX144" s="33"/>
-      <c r="AY144" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX144" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY144" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ144" s="33"/>
       <c r="BA144" s="33"/>
       <c r="BB144" s="33"/>
@@ -43531,13 +44440,17 @@
         <v>93.56</v>
       </c>
       <c r="AV145" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW145" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX145" s="33"/>
-      <c r="AY145" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX145" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY145" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ145" s="33"/>
       <c r="BA145" s="33"/>
       <c r="BB145" s="33"/>
@@ -43709,13 +44622,17 @@
         <v>94.21</v>
       </c>
       <c r="AV146" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW146" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX146" s="33"/>
-      <c r="AY146" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX146" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY146" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ146" s="33"/>
       <c r="BA146" s="33"/>
       <c r="BB146" s="33"/>
@@ -43887,13 +44804,17 @@
         <v>91.41</v>
       </c>
       <c r="AV147" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW147" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX147" s="33"/>
-      <c r="AY147" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX147" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY147" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ147" s="33"/>
       <c r="BA147" s="33"/>
       <c r="BB147" s="33"/>
@@ -44065,13 +44986,17 @@
         <v>93.4</v>
       </c>
       <c r="AV148" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW148" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX148" s="33"/>
-      <c r="AY148" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX148" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY148" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ148" s="33"/>
       <c r="BA148" s="33"/>
       <c r="BB148" s="33"/>
@@ -44243,13 +45168,17 @@
         <v>91.69</v>
       </c>
       <c r="AV149" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW149" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX149" s="33"/>
-      <c r="AY149" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX149" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY149" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ149" s="33"/>
       <c r="BA149" s="33"/>
       <c r="BB149" s="33"/>
@@ -44421,13 +45350,17 @@
         <v>94.4</v>
       </c>
       <c r="AV150" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW150" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX150" s="33"/>
-      <c r="AY150" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX150" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY150" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ150" s="33"/>
       <c r="BA150" s="33"/>
       <c r="BB150" s="33"/>
@@ -44599,13 +45532,17 @@
         <v>92.16</v>
       </c>
       <c r="AV151" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW151" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX151" s="33"/>
-      <c r="AY151" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX151" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY151" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ151" s="33"/>
       <c r="BA151" s="33"/>
       <c r="BB151" s="33"/>
@@ -44777,13 +45714,17 @@
         <v>94.2</v>
       </c>
       <c r="AV152" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW152" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX152" s="33"/>
-      <c r="AY152" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX152" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY152" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ152" s="33"/>
       <c r="BA152" s="33"/>
       <c r="BB152" s="33"/>
@@ -44955,13 +45896,17 @@
         <v>94.43</v>
       </c>
       <c r="AV153" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW153" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX153" s="33"/>
-      <c r="AY153" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX153" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY153" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ153" s="33"/>
       <c r="BA153" s="33"/>
       <c r="BB153" s="33"/>
@@ -45133,13 +46078,17 @@
         <v>93.6</v>
       </c>
       <c r="AV154" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW154" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX154" s="33"/>
-      <c r="AY154" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX154" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY154" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ154" s="33"/>
       <c r="BA154" s="33"/>
       <c r="BB154" s="33"/>
@@ -45311,13 +46260,17 @@
         <v>93.3</v>
       </c>
       <c r="AV155" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW155" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX155" s="33"/>
-      <c r="AY155" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX155" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY155" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ155" s="33"/>
       <c r="BA155" s="33"/>
       <c r="BB155" s="33"/>
@@ -45489,13 +46442,17 @@
         <v>93.97</v>
       </c>
       <c r="AV156" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW156" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX156" s="33"/>
-      <c r="AY156" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX156" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY156" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ156" s="33"/>
       <c r="BA156" s="33"/>
       <c r="BB156" s="33"/>
@@ -45667,13 +46624,17 @@
         <v>88.86</v>
       </c>
       <c r="AV157" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW157" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX157" s="33"/>
-      <c r="AY157" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX157" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY157" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ157" s="33"/>
       <c r="BA157" s="33"/>
       <c r="BB157" s="33"/>
@@ -45845,13 +46806,17 @@
         <v>93.68</v>
       </c>
       <c r="AV158" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW158" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX158" s="33"/>
-      <c r="AY158" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX158" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY158" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ158" s="33"/>
       <c r="BA158" s="33"/>
       <c r="BB158" s="33"/>
@@ -46023,13 +46988,17 @@
         <v>94.74</v>
       </c>
       <c r="AV159" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW159" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX159" s="33"/>
-      <c r="AY159" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX159" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY159" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ159" s="33"/>
       <c r="BA159" s="33"/>
       <c r="BB159" s="33"/>
@@ -46201,13 +47170,17 @@
         <v>97</v>
       </c>
       <c r="AV160" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW160" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX160" s="33"/>
-      <c r="AY160" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX160" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY160" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ160" s="33"/>
       <c r="BA160" s="33"/>
       <c r="BB160" s="33"/>
@@ -46379,13 +47352,17 @@
         <v>97.28</v>
       </c>
       <c r="AV161" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW161" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX161" s="33"/>
-      <c r="AY161" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX161" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY161" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ161" s="33"/>
       <c r="BA161" s="33"/>
       <c r="BB161" s="33"/>
@@ -46557,13 +47534,17 @@
         <v>95.17</v>
       </c>
       <c r="AV162" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW162" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX162" s="33"/>
-      <c r="AY162" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX162" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY162" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ162" s="33"/>
       <c r="BA162" s="33"/>
       <c r="BB162" s="33"/>
@@ -46735,13 +47716,17 @@
         <v>92.6</v>
       </c>
       <c r="AV163" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW163" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX163" s="33"/>
-      <c r="AY163" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX163" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY163" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ163" s="33"/>
       <c r="BA163" s="33"/>
       <c r="BB163" s="33"/>
@@ -46913,13 +47898,17 @@
         <v>96.41</v>
       </c>
       <c r="AV164" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW164" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX164" s="33"/>
-      <c r="AY164" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX164" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY164" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ164" s="33"/>
       <c r="BA164" s="33"/>
       <c r="BB164" s="33"/>
@@ -47091,13 +48080,17 @@
         <v>97.99</v>
       </c>
       <c r="AV165" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW165" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX165" s="33"/>
-      <c r="AY165" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX165" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY165" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ165" s="33"/>
       <c r="BA165" s="33"/>
       <c r="BB165" s="33"/>
@@ -47269,13 +48262,17 @@
         <v>98.09</v>
       </c>
       <c r="AV166" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW166" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX166" s="33"/>
-      <c r="AY166" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX166" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY166" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ166" s="33"/>
       <c r="BA166" s="33"/>
       <c r="BB166" s="33"/>
@@ -47447,13 +48444,17 @@
         <v>97.09</v>
       </c>
       <c r="AV167" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW167" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX167" s="33"/>
-      <c r="AY167" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX167" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY167" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ167" s="33"/>
       <c r="BA167" s="33"/>
       <c r="BB167" s="33"/>
@@ -47625,13 +48626,17 @@
         <v>97.94</v>
       </c>
       <c r="AV168" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW168" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX168" s="33"/>
-      <c r="AY168" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX168" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY168" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ168" s="33"/>
       <c r="BA168" s="33"/>
       <c r="BB168" s="33"/>
@@ -47803,13 +48808,17 @@
         <v>97.18</v>
       </c>
       <c r="AV169" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW169" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX169" s="33"/>
-      <c r="AY169" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX169" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY169" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ169" s="33"/>
       <c r="BA169" s="33"/>
       <c r="BB169" s="33"/>
@@ -47981,13 +48990,17 @@
         <v>97.41</v>
       </c>
       <c r="AV170" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW170" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX170" s="33"/>
-      <c r="AY170" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX170" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY170" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ170" s="33"/>
       <c r="BA170" s="33"/>
       <c r="BB170" s="33"/>
@@ -48159,13 +49172,17 @@
         <v>97.24</v>
       </c>
       <c r="AV171" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW171" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX171" s="33"/>
-      <c r="AY171" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX171" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY171" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ171" s="33"/>
       <c r="BA171" s="33"/>
       <c r="BB171" s="33"/>
@@ -48337,13 +49354,17 @@
         <v>97.74</v>
       </c>
       <c r="AV172" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW172" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX172" s="33"/>
-      <c r="AY172" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX172" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY172" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ172" s="33"/>
       <c r="BA172" s="33"/>
       <c r="BB172" s="33"/>
@@ -48515,13 +49536,17 @@
         <v>97.05</v>
       </c>
       <c r="AV173" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW173" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX173" s="33"/>
-      <c r="AY173" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX173" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY173" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ173" s="33"/>
       <c r="BA173" s="33"/>
       <c r="BB173" s="33"/>
@@ -48693,13 +49718,17 @@
         <v>96.74</v>
       </c>
       <c r="AV174" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW174" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX174" s="33"/>
-      <c r="AY174" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX174" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY174" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ174" s="33"/>
       <c r="BA174" s="33"/>
       <c r="BB174" s="33"/>
@@ -48871,13 +49900,17 @@
         <v>97.78</v>
       </c>
       <c r="AV175" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW175" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX175" s="33"/>
-      <c r="AY175" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX175" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY175" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ175" s="33"/>
       <c r="BA175" s="33"/>
       <c r="BB175" s="33"/>
@@ -49049,13 +50082,17 @@
         <v>96.02</v>
       </c>
       <c r="AV176" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW176" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX176" s="33"/>
-      <c r="AY176" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX176" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY176" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ176" s="33"/>
       <c r="BA176" s="33"/>
       <c r="BB176" s="33"/>
@@ -49227,13 +50264,17 @@
         <v>93.92</v>
       </c>
       <c r="AV177" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW177" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX177" s="33"/>
-      <c r="AY177" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX177" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY177" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ177" s="33"/>
       <c r="BA177" s="33"/>
       <c r="BB177" s="33"/>
@@ -49405,13 +50446,17 @@
         <v>98.03</v>
       </c>
       <c r="AV178" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW178" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX178" s="33"/>
-      <c r="AY178" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX178" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY178" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ178" s="33"/>
       <c r="BA178" s="33"/>
       <c r="BB178" s="33"/>
@@ -49583,13 +50628,17 @@
         <v>98.68</v>
       </c>
       <c r="AV179" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW179" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX179" s="33"/>
-      <c r="AY179" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX179" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY179" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ179" s="33"/>
       <c r="BA179" s="33"/>
       <c r="BB179" s="33"/>
@@ -49761,13 +50810,17 @@
         <v>97.83</v>
       </c>
       <c r="AV180" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW180" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX180" s="33"/>
-      <c r="AY180" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX180" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY180" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ180" s="33"/>
       <c r="BA180" s="33"/>
       <c r="BB180" s="33"/>
@@ -49939,13 +50992,17 @@
         <v>97.66</v>
       </c>
       <c r="AV181" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW181" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX181" s="33"/>
-      <c r="AY181" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX181" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY181" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ181" s="33"/>
       <c r="BA181" s="33"/>
       <c r="BB181" s="33"/>
@@ -50117,13 +51174,17 @@
         <v>94.63</v>
       </c>
       <c r="AV182" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW182" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX182" s="33"/>
-      <c r="AY182" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX182" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY182" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ182" s="33"/>
       <c r="BA182" s="33"/>
       <c r="BB182" s="33"/>
@@ -50295,13 +51356,17 @@
         <v>96.58</v>
       </c>
       <c r="AV183" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW183" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX183" s="33"/>
-      <c r="AY183" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX183" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY183" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ183" s="33"/>
       <c r="BA183" s="33"/>
       <c r="BB183" s="33"/>
@@ -50473,13 +51538,17 @@
         <v>96.44</v>
       </c>
       <c r="AV184" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW184" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX184" s="33"/>
-      <c r="AY184" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX184" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY184" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ184" s="33"/>
       <c r="BA184" s="33"/>
       <c r="BB184" s="33"/>
@@ -50651,13 +51720,17 @@
         <v>96.99</v>
       </c>
       <c r="AV185" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW185" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX185" s="33"/>
-      <c r="AY185" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX185" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY185" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ185" s="33"/>
       <c r="BA185" s="33"/>
       <c r="BB185" s="33"/>
@@ -50829,13 +51902,17 @@
         <v>96.52</v>
       </c>
       <c r="AV186" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW186" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX186" s="33"/>
-      <c r="AY186" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX186" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY186" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ186" s="33"/>
       <c r="BA186" s="33"/>
       <c r="BB186" s="33"/>
@@ -51007,13 +52084,17 @@
         <v>95.32</v>
       </c>
       <c r="AV187" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW187" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX187" s="33"/>
-      <c r="AY187" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX187" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY187" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ187" s="33"/>
       <c r="BA187" s="33"/>
       <c r="BB187" s="33"/>
@@ -51185,13 +52266,17 @@
         <v>97.47</v>
       </c>
       <c r="AV188" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW188" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX188" s="33"/>
-      <c r="AY188" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX188" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY188" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ188" s="33"/>
       <c r="BA188" s="33"/>
       <c r="BB188" s="33"/>
@@ -51363,13 +52448,17 @@
         <v>96.06</v>
       </c>
       <c r="AV189" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW189" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX189" s="33"/>
-      <c r="AY189" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX189" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY189" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ189" s="33"/>
       <c r="BA189" s="33"/>
       <c r="BB189" s="33"/>
@@ -51541,13 +52630,17 @@
         <v>96.01</v>
       </c>
       <c r="AV190" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW190" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX190" s="33"/>
-      <c r="AY190" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX190" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY190" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ190" s="33"/>
       <c r="BA190" s="33"/>
       <c r="BB190" s="33"/>
@@ -51719,13 +52812,17 @@
         <v>94.86</v>
       </c>
       <c r="AV191" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW191" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX191" s="33"/>
-      <c r="AY191" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX191" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY191" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ191" s="33"/>
       <c r="BA191" s="33"/>
       <c r="BB191" s="33"/>
@@ -51897,13 +52994,17 @@
         <v>97.31</v>
       </c>
       <c r="AV192" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW192" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX192" s="33"/>
-      <c r="AY192" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX192" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY192" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ192" s="33"/>
       <c r="BA192" s="33"/>
       <c r="BB192" s="33"/>
@@ -52075,13 +53176,17 @@
         <v>95.81</v>
       </c>
       <c r="AV193" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW193" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX193" s="33"/>
-      <c r="AY193" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX193" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY193" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ193" s="33"/>
       <c r="BA193" s="33"/>
       <c r="BB193" s="33"/>
@@ -52253,13 +53358,17 @@
         <v>97.68</v>
       </c>
       <c r="AV194" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW194" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX194" s="33"/>
-      <c r="AY194" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX194" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY194" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ194" s="33"/>
       <c r="BA194" s="33"/>
       <c r="BB194" s="33"/>
@@ -52431,13 +53540,17 @@
         <v>97.67</v>
       </c>
       <c r="AV195" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW195" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX195" s="33"/>
-      <c r="AY195" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX195" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY195" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ195" s="33"/>
       <c r="BA195" s="33"/>
       <c r="BB195" s="33"/>
@@ -52609,13 +53722,17 @@
         <v>99.07</v>
       </c>
       <c r="AV196" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW196" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX196" s="33"/>
-      <c r="AY196" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX196" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY196" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ196" s="33"/>
       <c r="BA196" s="33"/>
       <c r="BB196" s="33"/>
@@ -52787,13 +53904,17 @@
         <v>97.95</v>
       </c>
       <c r="AV197" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW197" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX197" s="33"/>
-      <c r="AY197" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX197" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY197" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ197" s="33"/>
       <c r="BA197" s="33"/>
       <c r="BB197" s="33"/>
@@ -52965,13 +54086,17 @@
         <v>94.87</v>
       </c>
       <c r="AV198" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW198" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX198" s="33"/>
-      <c r="AY198" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX198" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY198" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ198" s="33"/>
       <c r="BA198" s="33"/>
       <c r="BB198" s="33"/>
@@ -53143,13 +54268,17 @@
         <v>95.02</v>
       </c>
       <c r="AV199" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW199" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX199" s="33"/>
-      <c r="AY199" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX199" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY199" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ199" s="33"/>
       <c r="BA199" s="33"/>
       <c r="BB199" s="33"/>
@@ -53321,13 +54450,17 @@
         <v>95.2</v>
       </c>
       <c r="AV200" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW200" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX200" s="33"/>
-      <c r="AY200" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX200" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY200" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ200" s="33"/>
       <c r="BA200" s="33"/>
       <c r="BB200" s="33"/>
@@ -53499,13 +54632,17 @@
         <v>94.91</v>
       </c>
       <c r="AV201" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW201" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX201" s="33"/>
-      <c r="AY201" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX201" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY201" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ201" s="33"/>
       <c r="BA201" s="33"/>
       <c r="BB201" s="33"/>
@@ -53677,13 +54814,17 @@
         <v>96.82</v>
       </c>
       <c r="AV202" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW202" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX202" s="33"/>
-      <c r="AY202" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX202" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY202" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ202" s="33"/>
       <c r="BA202" s="33"/>
       <c r="BB202" s="33"/>
@@ -53855,13 +54996,17 @@
         <v>96.32</v>
       </c>
       <c r="AV203" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW203" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX203" s="33"/>
-      <c r="AY203" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX203" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY203" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ203" s="33"/>
       <c r="BA203" s="33"/>
       <c r="BB203" s="33"/>
@@ -54033,13 +55178,17 @@
         <v>95.61</v>
       </c>
       <c r="AV204" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW204" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX204" s="33"/>
-      <c r="AY204" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX204" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY204" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ204" s="33"/>
       <c r="BA204" s="33"/>
       <c r="BB204" s="33"/>
@@ -54211,13 +55360,17 @@
         <v>95.89</v>
       </c>
       <c r="AV205" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW205" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX205" s="33"/>
-      <c r="AY205" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX205" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY205" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ205" s="33"/>
       <c r="BA205" s="33"/>
       <c r="BB205" s="33"/>
@@ -54389,13 +55542,17 @@
         <v>94.15</v>
       </c>
       <c r="AV206" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW206" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX206" s="33"/>
-      <c r="AY206" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX206" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY206" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ206" s="33"/>
       <c r="BA206" s="33"/>
       <c r="BB206" s="33"/>
@@ -54567,13 +55724,17 @@
         <v>92.96</v>
       </c>
       <c r="AV207" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW207" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX207" s="33"/>
-      <c r="AY207" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX207" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY207" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ207" s="33"/>
       <c r="BA207" s="33"/>
       <c r="BB207" s="33"/>
@@ -54745,13 +55906,17 @@
         <v>95.61</v>
       </c>
       <c r="AV208" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW208" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX208" s="33"/>
-      <c r="AY208" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX208" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY208" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ208" s="33"/>
       <c r="BA208" s="33"/>
       <c r="BB208" s="33"/>
@@ -54923,13 +56088,17 @@
         <v>96.92</v>
       </c>
       <c r="AV209" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW209" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX209" s="33"/>
-      <c r="AY209" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX209" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY209" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ209" s="33"/>
       <c r="BA209" s="33"/>
       <c r="BB209" s="33"/>
@@ -55101,13 +56270,17 @@
         <v>96.26</v>
       </c>
       <c r="AV210" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW210" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX210" s="33"/>
-      <c r="AY210" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX210" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY210" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ210" s="33"/>
       <c r="BA210" s="33"/>
       <c r="BB210" s="33"/>
@@ -55279,13 +56452,17 @@
         <v>96.87</v>
       </c>
       <c r="AV211" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW211" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX211" s="33"/>
-      <c r="AY211" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX211" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY211" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ211" s="33"/>
       <c r="BA211" s="33"/>
       <c r="BB211" s="33"/>
@@ -55457,13 +56634,17 @@
         <v>95.95</v>
       </c>
       <c r="AV212" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW212" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX212" s="33"/>
-      <c r="AY212" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX212" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY212" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ212" s="33"/>
       <c r="BA212" s="33"/>
       <c r="BB212" s="33"/>
@@ -55635,13 +56816,17 @@
         <v>95.02</v>
       </c>
       <c r="AV213" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW213" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX213" s="33"/>
-      <c r="AY213" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX213" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY213" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ213" s="33"/>
       <c r="BA213" s="33"/>
       <c r="BB213" s="33"/>
@@ -55813,13 +56998,17 @@
         <v>96.44</v>
       </c>
       <c r="AV214" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW214" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX214" s="33"/>
-      <c r="AY214" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX214" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY214" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ214" s="33"/>
       <c r="BA214" s="33"/>
       <c r="BB214" s="33"/>
@@ -55991,13 +57180,17 @@
         <v>96.25</v>
       </c>
       <c r="AV215" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW215" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX215" s="33"/>
-      <c r="AY215" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX215" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY215" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ215" s="33"/>
       <c r="BA215" s="33"/>
       <c r="BB215" s="33"/>
@@ -56169,13 +57362,17 @@
         <v>95.96</v>
       </c>
       <c r="AV216" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW216" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX216" s="33"/>
-      <c r="AY216" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX216" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY216" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ216" s="33"/>
       <c r="BA216" s="33"/>
       <c r="BB216" s="33"/>
@@ -56347,13 +57544,17 @@
         <v>96.71</v>
       </c>
       <c r="AV217" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW217" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX217" s="33"/>
-      <c r="AY217" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX217" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY217" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ217" s="33"/>
       <c r="BA217" s="33"/>
       <c r="BB217" s="33"/>
@@ -56525,13 +57726,17 @@
         <v>97.53</v>
       </c>
       <c r="AV218" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW218" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX218" s="33"/>
-      <c r="AY218" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX218" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY218" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ218" s="33"/>
       <c r="BA218" s="33"/>
       <c r="BB218" s="33"/>
@@ -56703,13 +57908,17 @@
         <v>97.89</v>
       </c>
       <c r="AV219" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW219" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX219" s="33"/>
-      <c r="AY219" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX219" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY219" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ219" s="33"/>
       <c r="BA219" s="33"/>
       <c r="BB219" s="33"/>
@@ -56881,13 +58090,17 @@
         <v>95.79</v>
       </c>
       <c r="AV220" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW220" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX220" s="33"/>
-      <c r="AY220" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX220" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY220" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ220" s="33"/>
       <c r="BA220" s="33"/>
       <c r="BB220" s="33"/>
@@ -57059,13 +58272,17 @@
         <v>96.28</v>
       </c>
       <c r="AV221" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW221" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX221" s="33"/>
-      <c r="AY221" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX221" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY221" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ221" s="33"/>
       <c r="BA221" s="33"/>
       <c r="BB221" s="33"/>
@@ -57237,13 +58454,17 @@
         <v>95.57</v>
       </c>
       <c r="AV222" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW222" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX222" s="33"/>
-      <c r="AY222" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX222" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY222" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ222" s="33"/>
       <c r="BA222" s="33"/>
       <c r="BB222" s="33"/>
@@ -57415,13 +58636,17 @@
         <v>91.36</v>
       </c>
       <c r="AV223" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW223" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX223" s="33"/>
-      <c r="AY223" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX223" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY223" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ223" s="33"/>
       <c r="BA223" s="33"/>
       <c r="BB223" s="33"/>
@@ -57593,13 +58818,17 @@
         <v>96.81</v>
       </c>
       <c r="AV224" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW224" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX224" s="33"/>
-      <c r="AY224" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX224" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY224" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ224" s="33"/>
       <c r="BA224" s="33"/>
       <c r="BB224" s="33"/>
@@ -57771,13 +59000,17 @@
         <v>96.48</v>
       </c>
       <c r="AV225" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW225" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX225" s="33"/>
-      <c r="AY225" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX225" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY225" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ225" s="33"/>
       <c r="BA225" s="33"/>
       <c r="BB225" s="33"/>
@@ -57949,13 +59182,17 @@
         <v>98.53</v>
       </c>
       <c r="AV226" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW226" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX226" s="33"/>
-      <c r="AY226" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX226" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY226" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ226" s="33"/>
       <c r="BA226" s="33"/>
       <c r="BB226" s="33"/>
@@ -58127,13 +59364,17 @@
         <v>97</v>
       </c>
       <c r="AV227" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW227" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX227" s="33"/>
-      <c r="AY227" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX227" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY227" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ227" s="33"/>
       <c r="BA227" s="33"/>
       <c r="BB227" s="33"/>
@@ -58305,13 +59546,17 @@
         <v>97.46</v>
       </c>
       <c r="AV228" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW228" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX228" s="33"/>
-      <c r="AY228" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX228" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY228" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ228" s="33"/>
       <c r="BA228" s="33"/>
       <c r="BB228" s="33"/>
@@ -58483,13 +59728,17 @@
         <v>98.69</v>
       </c>
       <c r="AV229" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW229" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX229" s="33"/>
-      <c r="AY229" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX229" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY229" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ229" s="33"/>
       <c r="BA229" s="33"/>
       <c r="BB229" s="33"/>
@@ -58661,13 +59910,17 @@
         <v>94.84</v>
       </c>
       <c r="AV230" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW230" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX230" s="33"/>
-      <c r="AY230" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX230" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY230" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ230" s="33"/>
       <c r="BA230" s="33"/>
       <c r="BB230" s="33"/>
@@ -58839,13 +60092,17 @@
         <v>93.83</v>
       </c>
       <c r="AV231" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW231" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX231" s="33"/>
-      <c r="AY231" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX231" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY231" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ231" s="33"/>
       <c r="BA231" s="33"/>
       <c r="BB231" s="33"/>
@@ -59017,13 +60274,17 @@
         <v>96.55</v>
       </c>
       <c r="AV232" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW232" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX232" s="33"/>
-      <c r="AY232" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX232" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY232" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ232" s="33"/>
       <c r="BA232" s="33"/>
       <c r="BB232" s="33"/>
@@ -59195,13 +60456,17 @@
         <v>96.24</v>
       </c>
       <c r="AV233" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW233" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX233" s="33"/>
-      <c r="AY233" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX233" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY233" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ233" s="33"/>
       <c r="BA233" s="33"/>
       <c r="BB233" s="33"/>
@@ -59373,13 +60638,17 @@
         <v>94.73</v>
       </c>
       <c r="AV234" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW234" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX234" s="33"/>
-      <c r="AY234" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX234" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY234" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ234" s="33"/>
       <c r="BA234" s="33"/>
       <c r="BB234" s="33"/>
@@ -59551,13 +60820,17 @@
         <v>94.59</v>
       </c>
       <c r="AV235" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW235" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX235" s="33"/>
-      <c r="AY235" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX235" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY235" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ235" s="33"/>
       <c r="BA235" s="33"/>
       <c r="BB235" s="33"/>
@@ -59729,13 +61002,17 @@
         <v>96.07</v>
       </c>
       <c r="AV236" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW236" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX236" s="33"/>
-      <c r="AY236" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX236" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY236" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ236" s="33"/>
       <c r="BA236" s="33"/>
       <c r="BB236" s="33"/>
@@ -59907,13 +61184,17 @@
         <v>95.15</v>
       </c>
       <c r="AV237" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW237" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX237" s="33"/>
-      <c r="AY237" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX237" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY237" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ237" s="33"/>
       <c r="BA237" s="33"/>
       <c r="BB237" s="33"/>
@@ -60085,13 +61366,17 @@
         <v>94.62</v>
       </c>
       <c r="AV238" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW238" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX238" s="33"/>
-      <c r="AY238" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX238" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY238" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ238" s="33"/>
       <c r="BA238" s="33"/>
       <c r="BB238" s="33"/>
@@ -60263,13 +61548,17 @@
         <v>97.48</v>
       </c>
       <c r="AV239" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW239" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX239" s="33"/>
-      <c r="AY239" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX239" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY239" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ239" s="33"/>
       <c r="BA239" s="33"/>
       <c r="BB239" s="33"/>
@@ -60441,13 +61730,17 @@
         <v>98.29</v>
       </c>
       <c r="AV240" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW240" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX240" s="33"/>
-      <c r="AY240" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX240" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY240" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ240" s="33"/>
       <c r="BA240" s="33"/>
       <c r="BB240" s="33"/>
@@ -60619,13 +61912,17 @@
         <v>96.07</v>
       </c>
       <c r="AV241" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW241" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX241" s="33"/>
-      <c r="AY241" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX241" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY241" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ241" s="33"/>
       <c r="BA241" s="33"/>
       <c r="BB241" s="33"/>
@@ -60797,13 +62094,17 @@
         <v>97.12</v>
       </c>
       <c r="AV242" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW242" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX242" s="33"/>
-      <c r="AY242" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX242" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY242" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ242" s="33"/>
       <c r="BA242" s="33"/>
       <c r="BB242" s="33"/>
@@ -60975,13 +62276,17 @@
         <v>95.77</v>
       </c>
       <c r="AV243" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW243" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX243" s="33"/>
-      <c r="AY243" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX243" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY243" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ243" s="33"/>
       <c r="BA243" s="33"/>
       <c r="BB243" s="33"/>
@@ -61153,13 +62458,17 @@
         <v>95.1</v>
       </c>
       <c r="AV244" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW244" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX244" s="33"/>
-      <c r="AY244" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX244" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY244" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ244" s="33"/>
       <c r="BA244" s="33"/>
       <c r="BB244" s="33"/>
@@ -61331,13 +62640,17 @@
         <v>95.7</v>
       </c>
       <c r="AV245" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW245" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX245" s="33"/>
-      <c r="AY245" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX245" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY245" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ245" s="33"/>
       <c r="BA245" s="33"/>
       <c r="BB245" s="33"/>
@@ -61509,13 +62822,17 @@
         <v>96.02</v>
       </c>
       <c r="AV246" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW246" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX246" s="33"/>
-      <c r="AY246" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX246" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY246" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ246" s="33"/>
       <c r="BA246" s="33"/>
       <c r="BB246" s="33"/>
@@ -61687,13 +63004,17 @@
         <v>94.32</v>
       </c>
       <c r="AV247" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW247" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX247" s="33"/>
-      <c r="AY247" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX247" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY247" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ247" s="33"/>
       <c r="BA247" s="33"/>
       <c r="BB247" s="33"/>
@@ -61865,13 +63186,17 @@
         <v>97.84</v>
       </c>
       <c r="AV248" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW248" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX248" s="33"/>
-      <c r="AY248" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX248" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY248" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ248" s="33"/>
       <c r="BA248" s="33"/>
       <c r="BB248" s="33"/>
@@ -62043,13 +63368,17 @@
         <v>98.54</v>
       </c>
       <c r="AV249" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW249" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX249" s="33"/>
-      <c r="AY249" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX249" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY249" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ249" s="33"/>
       <c r="BA249" s="33"/>
       <c r="BB249" s="33"/>
@@ -62221,13 +63550,17 @@
         <v>97.87</v>
       </c>
       <c r="AV250" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW250" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX250" s="33"/>
-      <c r="AY250" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX250" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY250" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ250" s="33"/>
       <c r="BA250" s="33"/>
       <c r="BB250" s="33"/>
@@ -62399,13 +63732,17 @@
         <v>97.84</v>
       </c>
       <c r="AV251" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW251" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX251" s="33"/>
-      <c r="AY251" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX251" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY251" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ251" s="33"/>
       <c r="BA251" s="33"/>
       <c r="BB251" s="33"/>
@@ -62577,13 +63914,17 @@
         <v>98.63</v>
       </c>
       <c r="AV252" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW252" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX252" s="33"/>
-      <c r="AY252" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX252" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY252" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ252" s="33"/>
       <c r="BA252" s="33"/>
       <c r="BB252" s="33"/>
@@ -62755,13 +64096,17 @@
         <v>98.79</v>
       </c>
       <c r="AV253" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW253" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX253" s="33"/>
-      <c r="AY253" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX253" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY253" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ253" s="33"/>
       <c r="BA253" s="33"/>
       <c r="BB253" s="33"/>
@@ -62933,13 +64278,17 @@
         <v>96.65</v>
       </c>
       <c r="AV254" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW254" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX254" s="33"/>
-      <c r="AY254" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX254" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY254" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ254" s="33"/>
       <c r="BA254" s="33"/>
       <c r="BB254" s="33"/>
@@ -63111,13 +64460,17 @@
         <v>97.26</v>
       </c>
       <c r="AV255" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW255" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX255" s="33"/>
-      <c r="AY255" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX255" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY255" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ255" s="33"/>
       <c r="BA255" s="33"/>
       <c r="BB255" s="33"/>
@@ -63289,13 +64642,17 @@
         <v>98.25</v>
       </c>
       <c r="AV256" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW256" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX256" s="33"/>
-      <c r="AY256" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX256" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY256" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ256" s="33"/>
       <c r="BA256" s="33"/>
       <c r="BB256" s="33"/>
@@ -63467,13 +64824,17 @@
         <v>97.67</v>
       </c>
       <c r="AV257" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW257" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX257" s="33"/>
-      <c r="AY257" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX257" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY257" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ257" s="33"/>
       <c r="BA257" s="33"/>
       <c r="BB257" s="33"/>
@@ -63645,13 +65006,17 @@
         <v>98.68</v>
       </c>
       <c r="AV258" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW258" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX258" s="33"/>
-      <c r="AY258" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX258" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY258" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ258" s="33"/>
       <c r="BA258" s="33"/>
       <c r="BB258" s="33"/>
@@ -63823,13 +65188,17 @@
         <v>98</v>
       </c>
       <c r="AV259" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW259" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX259" s="33"/>
-      <c r="AY259" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX259" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY259" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ259" s="33"/>
       <c r="BA259" s="33"/>
       <c r="BB259" s="33"/>
@@ -64001,13 +65370,17 @@
         <v>98.03</v>
       </c>
       <c r="AV260" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW260" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX260" s="33"/>
-      <c r="AY260" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX260" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY260" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ260" s="33"/>
       <c r="BA260" s="33"/>
       <c r="BB260" s="33"/>
@@ -64179,13 +65552,17 @@
         <v>98.75</v>
       </c>
       <c r="AV261" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW261" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX261" s="33"/>
-      <c r="AY261" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX261" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY261" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ261" s="33"/>
       <c r="BA261" s="33"/>
       <c r="BB261" s="33"/>
@@ -64357,13 +65734,17 @@
         <v>97.9</v>
       </c>
       <c r="AV262" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW262" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX262" s="33"/>
-      <c r="AY262" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX262" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY262" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ262" s="33"/>
       <c r="BA262" s="33"/>
       <c r="BB262" s="33"/>
@@ -64535,13 +65916,17 @@
         <v>97.83</v>
       </c>
       <c r="AV263" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW263" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX263" s="33"/>
-      <c r="AY263" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX263" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY263" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ263" s="33"/>
       <c r="BA263" s="33"/>
       <c r="BB263" s="33"/>
@@ -64713,13 +66098,17 @@
         <v>96.61</v>
       </c>
       <c r="AV264" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW264" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX264" s="33"/>
-      <c r="AY264" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX264" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY264" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ264" s="33"/>
       <c r="BA264" s="33"/>
       <c r="BB264" s="33"/>
@@ -64891,13 +66280,17 @@
         <v>97.97</v>
       </c>
       <c r="AV265" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW265" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX265" s="33"/>
-      <c r="AY265" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX265" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY265" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ265" s="33"/>
       <c r="BA265" s="33"/>
       <c r="BB265" s="33"/>
@@ -65069,13 +66462,17 @@
         <v>95.29</v>
       </c>
       <c r="AV266" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW266" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX266" s="33"/>
-      <c r="AY266" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX266" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY266" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ266" s="33"/>
       <c r="BA266" s="33"/>
       <c r="BB266" s="33"/>
@@ -65247,13 +66644,17 @@
         <v>96.22</v>
       </c>
       <c r="AV267" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW267" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX267" s="33"/>
-      <c r="AY267" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX267" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY267" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ267" s="33"/>
       <c r="BA267" s="33"/>
       <c r="BB267" s="33"/>
@@ -65425,13 +66826,17 @@
         <v>98.17</v>
       </c>
       <c r="AV268" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW268" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX268" s="33"/>
-      <c r="AY268" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX268" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY268" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ268" s="33"/>
       <c r="BA268" s="33"/>
       <c r="BB268" s="33"/>
@@ -65603,13 +67008,17 @@
         <v>94.96</v>
       </c>
       <c r="AV269" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW269" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX269" s="33"/>
-      <c r="AY269" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX269" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY269" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ269" s="33"/>
       <c r="BA269" s="33"/>
       <c r="BB269" s="33"/>
@@ -65781,13 +67190,17 @@
         <v>95.82</v>
       </c>
       <c r="AV270" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW270" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX270" s="33"/>
-      <c r="AY270" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX270" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY270" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ270" s="33"/>
       <c r="BA270" s="33"/>
       <c r="BB270" s="33"/>
@@ -65959,13 +67372,17 @@
         <v>97.68</v>
       </c>
       <c r="AV271" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW271" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX271" s="33"/>
-      <c r="AY271" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX271" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY271" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ271" s="33"/>
       <c r="BA271" s="33"/>
       <c r="BB271" s="33"/>
@@ -66137,13 +67554,17 @@
         <v>94.77</v>
       </c>
       <c r="AV272" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW272" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX272" s="33"/>
-      <c r="AY272" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX272" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY272" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ272" s="33"/>
       <c r="BA272" s="33"/>
       <c r="BB272" s="33"/>
@@ -66315,13 +67736,17 @@
         <v>94.76</v>
       </c>
       <c r="AV273" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW273" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX273" s="33"/>
-      <c r="AY273" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX273" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY273" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ273" s="33"/>
       <c r="BA273" s="33"/>
       <c r="BB273" s="33"/>
@@ -66493,13 +67918,17 @@
         <v>95.99</v>
       </c>
       <c r="AV274" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW274" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX274" s="33"/>
-      <c r="AY274" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX274" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY274" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ274" s="33"/>
       <c r="BA274" s="33"/>
       <c r="BB274" s="33"/>
@@ -66671,13 +68100,17 @@
         <v>98.57</v>
       </c>
       <c r="AV275" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW275" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX275" s="33"/>
-      <c r="AY275" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX275" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY275" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ275" s="33"/>
       <c r="BA275" s="33"/>
       <c r="BB275" s="33"/>
@@ -66849,13 +68282,17 @@
         <v>98.46</v>
       </c>
       <c r="AV276" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW276" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX276" s="33"/>
-      <c r="AY276" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX276" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY276" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ276" s="33"/>
       <c r="BA276" s="33"/>
       <c r="BB276" s="33"/>
@@ -67027,13 +68464,17 @@
         <v>95.56</v>
       </c>
       <c r="AV277" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW277" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX277" s="33"/>
-      <c r="AY277" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX277" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY277" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ277" s="33"/>
       <c r="BA277" s="33"/>
       <c r="BB277" s="33"/>
@@ -67205,13 +68646,17 @@
         <v>98.23</v>
       </c>
       <c r="AV278" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW278" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX278" s="33"/>
-      <c r="AY278" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX278" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY278" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ278" s="33"/>
       <c r="BA278" s="33"/>
       <c r="BB278" s="33"/>
@@ -67383,13 +68828,17 @@
         <v>98.64</v>
       </c>
       <c r="AV279" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW279" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX279" s="33"/>
-      <c r="AY279" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX279" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY279" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ279" s="33"/>
       <c r="BA279" s="33"/>
       <c r="BB279" s="33"/>
@@ -67561,13 +69010,17 @@
         <v>96.77</v>
       </c>
       <c r="AV280" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW280" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX280" s="33"/>
-      <c r="AY280" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX280" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY280" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ280" s="33"/>
       <c r="BA280" s="33"/>
       <c r="BB280" s="33"/>
@@ -67739,13 +69192,17 @@
         <v>97.72</v>
       </c>
       <c r="AV281" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW281" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX281" s="33"/>
-      <c r="AY281" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX281" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY281" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ281" s="33"/>
       <c r="BA281" s="33"/>
       <c r="BB281" s="33"/>
@@ -67917,13 +69374,17 @@
         <v>98.35</v>
       </c>
       <c r="AV282" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW282" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX282" s="33"/>
-      <c r="AY282" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX282" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY282" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ282" s="33"/>
       <c r="BA282" s="33"/>
       <c r="BB282" s="33"/>
@@ -68095,13 +69556,17 @@
         <v>98.61</v>
       </c>
       <c r="AV283" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW283" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX283" s="33"/>
-      <c r="AY283" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX283" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY283" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ283" s="33"/>
       <c r="BA283" s="33"/>
       <c r="BB283" s="33"/>
@@ -68273,13 +69738,17 @@
         <v>99.04</v>
       </c>
       <c r="AV284" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW284" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX284" s="33"/>
-      <c r="AY284" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX284" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY284" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ284" s="33"/>
       <c r="BA284" s="33"/>
       <c r="BB284" s="33"/>
@@ -68451,13 +69920,17 @@
         <v>97.8</v>
       </c>
       <c r="AV285" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW285" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX285" s="33"/>
-      <c r="AY285" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX285" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY285" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ285" s="33"/>
       <c r="BA285" s="33"/>
       <c r="BB285" s="33"/>
@@ -68629,13 +70102,17 @@
         <v>98.23</v>
       </c>
       <c r="AV286" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW286" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX286" s="33"/>
-      <c r="AY286" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX286" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY286" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ286" s="33"/>
       <c r="BA286" s="33"/>
       <c r="BB286" s="33"/>
@@ -68807,13 +70284,17 @@
         <v>98.48</v>
       </c>
       <c r="AV287" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW287" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX287" s="33"/>
-      <c r="AY287" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX287" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY287" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ287" s="33"/>
       <c r="BA287" s="33"/>
       <c r="BB287" s="33"/>
@@ -68985,13 +70466,17 @@
         <v>96.78</v>
       </c>
       <c r="AV288" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW288" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX288" s="33"/>
-      <c r="AY288" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX288" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY288" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ288" s="33"/>
       <c r="BA288" s="33"/>
       <c r="BB288" s="33"/>
@@ -69163,13 +70648,17 @@
         <v>97.18</v>
       </c>
       <c r="AV289" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW289" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX289" s="33"/>
-      <c r="AY289" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX289" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY289" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ289" s="33"/>
       <c r="BA289" s="33"/>
       <c r="BB289" s="33"/>
@@ -69341,13 +70830,17 @@
         <v>97.64</v>
       </c>
       <c r="AV290" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW290" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX290" s="33"/>
-      <c r="AY290" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX290" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY290" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ290" s="33"/>
       <c r="BA290" s="33"/>
       <c r="BB290" s="33"/>
@@ -69519,13 +71012,17 @@
         <v>98.75</v>
       </c>
       <c r="AV291" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW291" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX291" s="33"/>
-      <c r="AY291" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX291" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY291" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ291" s="33"/>
       <c r="BA291" s="33"/>
       <c r="BB291" s="33"/>
@@ -69697,13 +71194,17 @@
         <v>97.83</v>
       </c>
       <c r="AV292" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW292" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX292" s="33"/>
-      <c r="AY292" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX292" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY292" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ292" s="33"/>
       <c r="BA292" s="33"/>
       <c r="BB292" s="33"/>
@@ -69875,13 +71376,17 @@
         <v>98.19</v>
       </c>
       <c r="AV293" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW293" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX293" s="33"/>
-      <c r="AY293" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX293" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY293" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ293" s="33"/>
       <c r="BA293" s="33"/>
       <c r="BB293" s="33"/>
@@ -70053,13 +71558,17 @@
         <v>98.29</v>
       </c>
       <c r="AV294" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW294" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX294" s="33"/>
-      <c r="AY294" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX294" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY294" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ294" s="33"/>
       <c r="BA294" s="33"/>
       <c r="BB294" s="33"/>
@@ -70231,13 +71740,17 @@
         <v>97.07</v>
       </c>
       <c r="AV295" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW295" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX295" s="33"/>
-      <c r="AY295" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX295" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY295" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ295" s="33"/>
       <c r="BA295" s="33"/>
       <c r="BB295" s="33"/>
@@ -70409,13 +71922,17 @@
         <v>98.36</v>
       </c>
       <c r="AV296" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW296" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX296" s="33"/>
-      <c r="AY296" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX296" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY296" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ296" s="33"/>
       <c r="BA296" s="33"/>
       <c r="BB296" s="33"/>
@@ -70587,13 +72104,17 @@
         <v>98.94</v>
       </c>
       <c r="AV297" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW297" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX297" s="33"/>
-      <c r="AY297" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX297" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY297" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ297" s="33"/>
       <c r="BA297" s="33"/>
       <c r="BB297" s="33"/>
@@ -70765,13 +72286,17 @@
         <v>98.98</v>
       </c>
       <c r="AV298" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW298" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX298" s="33"/>
-      <c r="AY298" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX298" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY298" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ298" s="33"/>
       <c r="BA298" s="33"/>
       <c r="BB298" s="33"/>
@@ -70943,13 +72468,17 @@
         <v>96.6</v>
       </c>
       <c r="AV299" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW299" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX299" s="33"/>
-      <c r="AY299" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX299" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY299" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ299" s="33"/>
       <c r="BA299" s="33"/>
       <c r="BB299" s="33"/>
@@ -71121,13 +72650,17 @@
         <v>97.13</v>
       </c>
       <c r="AV300" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW300" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX300" s="33"/>
-      <c r="AY300" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX300" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY300" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ300" s="33"/>
       <c r="BA300" s="33"/>
       <c r="BB300" s="33"/>
@@ -71299,13 +72832,17 @@
         <v>97.89</v>
       </c>
       <c r="AV301" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW301" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX301" s="33"/>
-      <c r="AY301" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX301" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY301" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ301" s="33"/>
       <c r="BA301" s="33"/>
       <c r="BB301" s="33"/>
@@ -71477,13 +73014,17 @@
         <v>95.94</v>
       </c>
       <c r="AV302" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW302" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX302" s="33"/>
-      <c r="AY302" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX302" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY302" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ302" s="33"/>
       <c r="BA302" s="33"/>
       <c r="BB302" s="33"/>
@@ -71655,13 +73196,17 @@
         <v>96.46</v>
       </c>
       <c r="AV303" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW303" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX303" s="33"/>
-      <c r="AY303" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX303" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY303" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ303" s="33"/>
       <c r="BA303" s="33"/>
       <c r="BB303" s="33"/>
@@ -71833,13 +73378,17 @@
         <v>98.22</v>
       </c>
       <c r="AV304" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW304" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX304" s="33"/>
-      <c r="AY304" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX304" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY304" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ304" s="33"/>
       <c r="BA304" s="33"/>
       <c r="BB304" s="33"/>
@@ -72011,13 +73560,17 @@
         <v>97.93</v>
       </c>
       <c r="AV305" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW305" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX305" s="33"/>
-      <c r="AY305" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX305" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY305" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ305" s="33"/>
       <c r="BA305" s="33"/>
       <c r="BB305" s="33"/>
@@ -72189,13 +73742,17 @@
         <v>98.6</v>
       </c>
       <c r="AV306" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW306" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX306" s="33"/>
-      <c r="AY306" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX306" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY306" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ306" s="33"/>
       <c r="BA306" s="33"/>
       <c r="BB306" s="33"/>
@@ -72367,13 +73924,17 @@
         <v>97.15</v>
       </c>
       <c r="AV307" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW307" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX307" s="33"/>
-      <c r="AY307" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX307" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY307" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ307" s="33"/>
       <c r="BA307" s="33"/>
       <c r="BB307" s="33"/>
@@ -72545,13 +74106,17 @@
         <v>95.29</v>
       </c>
       <c r="AV308" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW308" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX308" s="33"/>
-      <c r="AY308" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX308" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY308" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ308" s="33"/>
       <c r="BA308" s="33"/>
       <c r="BB308" s="33"/>
@@ -72723,13 +74288,17 @@
         <v>95.35</v>
       </c>
       <c r="AV309" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW309" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX309" s="33"/>
-      <c r="AY309" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX309" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY309" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ309" s="33"/>
       <c r="BA309" s="33"/>
       <c r="BB309" s="33"/>
@@ -72901,13 +74470,17 @@
         <v>95.43</v>
       </c>
       <c r="AV310" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW310" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX310" s="33"/>
-      <c r="AY310" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX310" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY310" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ310" s="33"/>
       <c r="BA310" s="33"/>
       <c r="BB310" s="33"/>
@@ -73079,13 +74652,17 @@
         <v>96.15</v>
       </c>
       <c r="AV311" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW311" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX311" s="33"/>
-      <c r="AY311" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX311" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY311" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ311" s="33"/>
       <c r="BA311" s="33"/>
       <c r="BB311" s="33"/>
@@ -73257,13 +74834,17 @@
         <v>97.52</v>
       </c>
       <c r="AV312" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW312" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX312" s="33"/>
-      <c r="AY312" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX312" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY312" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ312" s="33"/>
       <c r="BA312" s="33"/>
       <c r="BB312" s="33"/>
@@ -73435,13 +75016,17 @@
         <v>95.33</v>
       </c>
       <c r="AV313" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW313" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX313" s="33"/>
-      <c r="AY313" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX313" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY313" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ313" s="33"/>
       <c r="BA313" s="33"/>
       <c r="BB313" s="33"/>
@@ -73613,13 +75198,17 @@
         <v>95.14</v>
       </c>
       <c r="AV314" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW314" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX314" s="33"/>
-      <c r="AY314" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX314" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY314" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ314" s="33"/>
       <c r="BA314" s="33"/>
       <c r="BB314" s="33"/>
@@ -73791,13 +75380,17 @@
         <v>94.38</v>
       </c>
       <c r="AV315" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW315" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX315" s="33"/>
-      <c r="AY315" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX315" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY315" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ315" s="33"/>
       <c r="BA315" s="33"/>
       <c r="BB315" s="33"/>
@@ -73969,13 +75562,17 @@
         <v>92.09</v>
       </c>
       <c r="AV316" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW316" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX316" s="33"/>
-      <c r="AY316" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX316" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY316" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ316" s="33"/>
       <c r="BA316" s="33"/>
       <c r="BB316" s="33"/>
@@ -74147,13 +75744,17 @@
         <v>92.14</v>
       </c>
       <c r="AV317" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW317" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX317" s="33"/>
-      <c r="AY317" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX317" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY317" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ317" s="33"/>
       <c r="BA317" s="33"/>
       <c r="BB317" s="33"/>
@@ -74325,13 +75926,17 @@
         <v>92.22</v>
       </c>
       <c r="AV318" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW318" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX318" s="33"/>
-      <c r="AY318" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX318" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY318" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ318" s="33"/>
       <c r="BA318" s="33"/>
       <c r="BB318" s="33"/>
@@ -74503,13 +76108,17 @@
         <v>95.78</v>
       </c>
       <c r="AV319" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW319" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX319" s="33"/>
-      <c r="AY319" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX319" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY319" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ319" s="33"/>
       <c r="BA319" s="33"/>
       <c r="BB319" s="33"/>
@@ -74681,13 +76290,17 @@
         <v>89.32</v>
       </c>
       <c r="AV320" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW320" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX320" s="33"/>
-      <c r="AY320" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX320" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY320" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ320" s="33"/>
       <c r="BA320" s="33"/>
       <c r="BB320" s="33"/>
@@ -74859,13 +76472,17 @@
         <v>94.08</v>
       </c>
       <c r="AV321" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW321" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX321" s="33"/>
-      <c r="AY321" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX321" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY321" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ321" s="33"/>
       <c r="BA321" s="33"/>
       <c r="BB321" s="33"/>
@@ -75037,13 +76654,17 @@
         <v>93.22</v>
       </c>
       <c r="AV322" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW322" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX322" s="33"/>
-      <c r="AY322" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX322" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY322" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ322" s="33"/>
       <c r="BA322" s="33"/>
       <c r="BB322" s="33"/>
@@ -75215,13 +76836,17 @@
         <v>93.99</v>
       </c>
       <c r="AV323" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW323" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX323" s="33"/>
-      <c r="AY323" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX323" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY323" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ323" s="33"/>
       <c r="BA323" s="33"/>
       <c r="BB323" s="33"/>
@@ -75393,13 +77018,17 @@
         <v>97.6</v>
       </c>
       <c r="AV324" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW324" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX324" s="33"/>
-      <c r="AY324" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX324" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY324" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ324" s="33"/>
       <c r="BA324" s="33"/>
       <c r="BB324" s="33"/>
@@ -75571,13 +77200,17 @@
         <v>98.59</v>
       </c>
       <c r="AV325" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW325" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX325" s="33"/>
-      <c r="AY325" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX325" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY325" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ325" s="33"/>
       <c r="BA325" s="33"/>
       <c r="BB325" s="33"/>
@@ -75749,13 +77382,17 @@
         <v>97.49</v>
       </c>
       <c r="AV326" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW326" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX326" s="33"/>
-      <c r="AY326" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX326" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY326" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ326" s="33"/>
       <c r="BA326" s="33"/>
       <c r="BB326" s="33"/>
@@ -75927,13 +77564,17 @@
         <v>98.12</v>
       </c>
       <c r="AV327" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW327" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX327" s="33"/>
-      <c r="AY327" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX327" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY327" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ327" s="33"/>
       <c r="BA327" s="33"/>
       <c r="BB327" s="33"/>
@@ -76105,13 +77746,17 @@
         <v>96.79</v>
       </c>
       <c r="AV328" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW328" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX328" s="33"/>
-      <c r="AY328" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX328" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY328" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ328" s="33"/>
       <c r="BA328" s="33"/>
       <c r="BB328" s="33"/>
@@ -76283,13 +77928,17 @@
         <v>92.35</v>
       </c>
       <c r="AV329" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW329" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX329" s="33"/>
-      <c r="AY329" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX329" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY329" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ329" s="33"/>
       <c r="BA329" s="33"/>
       <c r="BB329" s="33"/>
@@ -76461,13 +78110,17 @@
         <v>93.18</v>
       </c>
       <c r="AV330" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW330" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX330" s="33"/>
-      <c r="AY330" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX330" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY330" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ330" s="33"/>
       <c r="BA330" s="33"/>
       <c r="BB330" s="33"/>
@@ -76639,13 +78292,17 @@
         <v>97.26</v>
       </c>
       <c r="AV331" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW331" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX331" s="33"/>
-      <c r="AY331" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX331" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY331" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ331" s="33"/>
       <c r="BA331" s="33"/>
       <c r="BB331" s="33"/>
@@ -76817,13 +78474,17 @@
         <v>95.05</v>
       </c>
       <c r="AV332" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW332" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX332" s="33"/>
-      <c r="AY332" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX332" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY332" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ332" s="33"/>
       <c r="BA332" s="33"/>
       <c r="BB332" s="33"/>
@@ -76995,13 +78656,17 @@
         <v>96.03</v>
       </c>
       <c r="AV333" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW333" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX333" s="33"/>
-      <c r="AY333" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX333" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY333" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ333" s="33"/>
       <c r="BA333" s="33"/>
       <c r="BB333" s="33"/>
@@ -77173,13 +78838,17 @@
         <v>93.61</v>
       </c>
       <c r="AV334" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW334" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX334" s="33"/>
-      <c r="AY334" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX334" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY334" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ334" s="33"/>
       <c r="BA334" s="33"/>
       <c r="BB334" s="33"/>
@@ -77351,13 +79020,17 @@
         <v>96.39</v>
       </c>
       <c r="AV335" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW335" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX335" s="33"/>
-      <c r="AY335" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX335" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY335" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ335" s="33"/>
       <c r="BA335" s="33"/>
       <c r="BB335" s="33"/>
@@ -77529,13 +79202,17 @@
         <v>96.24</v>
       </c>
       <c r="AV336" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW336" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX336" s="33"/>
-      <c r="AY336" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX336" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY336" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ336" s="33"/>
       <c r="BA336" s="33"/>
       <c r="BB336" s="33"/>
@@ -77707,13 +79384,17 @@
         <v>97.77</v>
       </c>
       <c r="AV337" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW337" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX337" s="33"/>
-      <c r="AY337" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX337" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY337" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ337" s="33"/>
       <c r="BA337" s="33"/>
       <c r="BB337" s="33"/>
@@ -77885,13 +79566,17 @@
         <v>96.58</v>
       </c>
       <c r="AV338" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW338" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX338" s="33"/>
-      <c r="AY338" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX338" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY338" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ338" s="33"/>
       <c r="BA338" s="33"/>
       <c r="BB338" s="33"/>
@@ -78063,13 +79748,17 @@
         <v>97.57</v>
       </c>
       <c r="AV339" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW339" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX339" s="33"/>
-      <c r="AY339" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX339" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY339" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ339" s="33"/>
       <c r="BA339" s="33"/>
       <c r="BB339" s="33"/>
@@ -78241,13 +79930,17 @@
         <v>95.87</v>
       </c>
       <c r="AV340" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW340" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX340" s="33"/>
-      <c r="AY340" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX340" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY340" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ340" s="33"/>
       <c r="BA340" s="33"/>
       <c r="BB340" s="33"/>
@@ -78419,13 +80112,17 @@
         <v>95.78</v>
       </c>
       <c r="AV341" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW341" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX341" s="33"/>
-      <c r="AY341" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX341" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY341" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ341" s="33"/>
       <c r="BA341" s="33"/>
       <c r="BB341" s="33"/>
@@ -78597,13 +80294,17 @@
         <v>96.79</v>
       </c>
       <c r="AV342" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW342" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX342" s="33"/>
-      <c r="AY342" s="33"/>
+        <v>456</v>
+      </c>
+      <c r="AX342" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY342" s="33" t="s">
+        <v>456</v>
+      </c>
       <c r="AZ342" s="33"/>
       <c r="BA342" s="33"/>
       <c r="BB342" s="33"/>
@@ -78775,10 +80476,16 @@
         <v>105.55</v>
       </c>
       <c r="AV343" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW343" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="AX343" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY343" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
@@ -78924,10 +80631,16 @@
         <v>148.18</v>
       </c>
       <c r="AV344" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW344" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="AX344" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY344" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
@@ -79073,10 +80786,16 @@
         <v>173.4</v>
       </c>
       <c r="AV345" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW345" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="AX345" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY345" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
@@ -79222,10 +80941,16 @@
         <v>88.45</v>
       </c>
       <c r="AV346" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AW346" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="AX346" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY346" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="348" spans="1:78" x14ac:dyDescent="0.25">

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 2 January 2021\IPE materials\Downloads\Wednesday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876FE152-4888-40C7-BE43-91B8A4AF4189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A0C5D-0964-4D46-B20B-BC824F6C5E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Payroll jobs index-SA4'!$A$6:$Z$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1396,9 +1396,6 @@
     <t>90104. Norfolk Island</t>
   </si>
   <si>
-    <t>Week ending Saturday 02 January 2021</t>
-  </si>
-  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
@@ -1415,9 +1412,6 @@
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Statistical Area Level 4 (SA4)</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 20 January 2021</t>
-  </si>
-  <si>
     <t>Payroll jobs index by Statistical Area Level 3 (SA3)</t>
   </si>
   <si>
@@ -1425,6 +1419,12 @@
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 2 February 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 16 January 2021</t>
   </si>
 </sst>
 </file>
@@ -2531,12 +2531,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20" s="38"/>
     </row>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="5" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="6"/>
@@ -2967,8 +2967,12 @@
       <c r="BC6" s="9">
         <v>44198</v>
       </c>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
+      <c r="BD6" s="9">
+        <v>44205</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>44212</v>
+      </c>
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
@@ -3157,8 +3161,12 @@
       <c r="BC7" s="33">
         <v>90.32</v>
       </c>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
+      <c r="BD7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE7" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
       <c r="BH7" s="33"/>
@@ -3347,8 +3355,12 @@
       <c r="BC8" s="33">
         <v>93.81</v>
       </c>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="33"/>
+      <c r="BD8" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE8" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
       <c r="BH8" s="33"/>
@@ -3537,8 +3549,12 @@
       <c r="BC9" s="33">
         <v>93.69</v>
       </c>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
+      <c r="BD9" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE9" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF9" s="33"/>
       <c r="BG9" s="33"/>
       <c r="BH9" s="33"/>
@@ -3727,8 +3743,12 @@
       <c r="BC10" s="33">
         <v>92.17</v>
       </c>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="33"/>
+      <c r="BD10" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE10" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF10" s="33"/>
       <c r="BG10" s="33"/>
       <c r="BH10" s="33"/>
@@ -3917,8 +3937,12 @@
       <c r="BC11" s="33">
         <v>93.27</v>
       </c>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="33"/>
+      <c r="BD11" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE11" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF11" s="33"/>
       <c r="BG11" s="33"/>
       <c r="BH11" s="33"/>
@@ -4107,8 +4131,12 @@
       <c r="BC12" s="33">
         <v>95.22</v>
       </c>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="33"/>
+      <c r="BD12" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE12" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF12" s="33"/>
       <c r="BG12" s="33"/>
       <c r="BH12" s="33"/>
@@ -4297,8 +4325,12 @@
       <c r="BC13" s="33">
         <v>94.5</v>
       </c>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="33"/>
+      <c r="BD13" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE13" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF13" s="33"/>
       <c r="BG13" s="33"/>
       <c r="BH13" s="33"/>
@@ -4487,8 +4519,12 @@
       <c r="BC14" s="33">
         <v>92.72</v>
       </c>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
+      <c r="BD14" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE14" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF14" s="33"/>
       <c r="BG14" s="33"/>
       <c r="BH14" s="33"/>
@@ -4677,8 +4713,12 @@
       <c r="BC15" s="33">
         <v>92.64</v>
       </c>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="33"/>
+      <c r="BD15" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE15" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF15" s="33"/>
       <c r="BG15" s="33"/>
       <c r="BH15" s="33"/>
@@ -4867,8 +4907,12 @@
       <c r="BC16" s="33">
         <v>94.5</v>
       </c>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="33"/>
+      <c r="BD16" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE16" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF16" s="33"/>
       <c r="BG16" s="33"/>
       <c r="BH16" s="33"/>
@@ -5057,8 +5101,12 @@
       <c r="BC17" s="33">
         <v>94.97</v>
       </c>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="33"/>
+      <c r="BD17" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE17" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF17" s="33"/>
       <c r="BG17" s="33"/>
       <c r="BH17" s="33"/>
@@ -5247,8 +5295,12 @@
       <c r="BC18" s="33">
         <v>92.33</v>
       </c>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="33"/>
+      <c r="BD18" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE18" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF18" s="33"/>
       <c r="BG18" s="33"/>
       <c r="BH18" s="33"/>
@@ -5437,8 +5489,12 @@
       <c r="BC19" s="33">
         <v>92.47</v>
       </c>
-      <c r="BD19" s="33"/>
-      <c r="BE19" s="33"/>
+      <c r="BD19" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE19" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF19" s="33"/>
       <c r="BG19" s="33"/>
       <c r="BH19" s="33"/>
@@ -5627,8 +5683,12 @@
       <c r="BC20" s="33">
         <v>93.08</v>
       </c>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
+      <c r="BD20" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE20" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="33"/>
       <c r="BH20" s="33"/>
@@ -5817,8 +5877,12 @@
       <c r="BC21" s="33">
         <v>92.98</v>
       </c>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="33"/>
+      <c r="BD21" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE21" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF21" s="33"/>
       <c r="BG21" s="33"/>
       <c r="BH21" s="33"/>
@@ -6007,8 +6071,12 @@
       <c r="BC22" s="33">
         <v>93.42</v>
       </c>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="33"/>
+      <c r="BD22" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE22" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF22" s="33"/>
       <c r="BG22" s="33"/>
       <c r="BH22" s="33"/>
@@ -6197,8 +6265,12 @@
       <c r="BC23" s="33">
         <v>90</v>
       </c>
-      <c r="BD23" s="33"/>
-      <c r="BE23" s="33"/>
+      <c r="BD23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE23" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF23" s="33"/>
       <c r="BG23" s="33"/>
       <c r="BH23" s="33"/>
@@ -6387,8 +6459,12 @@
       <c r="BC24" s="33">
         <v>90.3</v>
       </c>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
+      <c r="BD24" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE24" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF24" s="33"/>
       <c r="BG24" s="33"/>
       <c r="BH24" s="33"/>
@@ -6577,8 +6653,12 @@
       <c r="BC25" s="33">
         <v>91.18</v>
       </c>
-      <c r="BD25" s="33"/>
-      <c r="BE25" s="33"/>
+      <c r="BD25" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE25" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF25" s="33"/>
       <c r="BG25" s="33"/>
       <c r="BH25" s="33"/>
@@ -6767,8 +6847,12 @@
       <c r="BC26" s="33">
         <v>92.5</v>
       </c>
-      <c r="BD26" s="33"/>
-      <c r="BE26" s="33"/>
+      <c r="BD26" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE26" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF26" s="33"/>
       <c r="BG26" s="33"/>
       <c r="BH26" s="33"/>
@@ -6957,8 +7041,12 @@
       <c r="BC27" s="33">
         <v>92.88</v>
       </c>
-      <c r="BD27" s="33"/>
-      <c r="BE27" s="33"/>
+      <c r="BD27" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE27" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF27" s="33"/>
       <c r="BG27" s="33"/>
       <c r="BH27" s="33"/>
@@ -7147,8 +7235,12 @@
       <c r="BC28" s="33">
         <v>90.88</v>
       </c>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
+      <c r="BD28" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE28" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF28" s="33"/>
       <c r="BG28" s="33"/>
       <c r="BH28" s="33"/>
@@ -7337,8 +7429,12 @@
       <c r="BC29" s="33">
         <v>92.29</v>
       </c>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="33"/>
+      <c r="BD29" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE29" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF29" s="33"/>
       <c r="BG29" s="33"/>
       <c r="BH29" s="33"/>
@@ -7527,8 +7623,12 @@
       <c r="BC30" s="33">
         <v>92.85</v>
       </c>
-      <c r="BD30" s="33"/>
-      <c r="BE30" s="33"/>
+      <c r="BD30" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE30" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF30" s="33"/>
       <c r="BG30" s="33"/>
       <c r="BH30" s="33"/>
@@ -7717,8 +7817,12 @@
       <c r="BC31" s="33">
         <v>92.44</v>
       </c>
-      <c r="BD31" s="33"/>
-      <c r="BE31" s="33"/>
+      <c r="BD31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE31" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF31" s="33"/>
       <c r="BG31" s="33"/>
       <c r="BH31" s="33"/>
@@ -7907,8 +8011,12 @@
       <c r="BC32" s="33">
         <v>92.77</v>
       </c>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33"/>
+      <c r="BD32" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE32" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF32" s="33"/>
       <c r="BG32" s="33"/>
       <c r="BH32" s="33"/>
@@ -8097,8 +8205,12 @@
       <c r="BC33" s="33">
         <v>90.48</v>
       </c>
-      <c r="BD33" s="33"/>
-      <c r="BE33" s="33"/>
+      <c r="BD33" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE33" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF33" s="33"/>
       <c r="BG33" s="33"/>
       <c r="BH33" s="33"/>
@@ -8287,8 +8399,12 @@
       <c r="BC34" s="33">
         <v>92.83</v>
       </c>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
+      <c r="BD34" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE34" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF34" s="33"/>
       <c r="BG34" s="33"/>
       <c r="BH34" s="33"/>
@@ -8477,8 +8593,12 @@
       <c r="BC35" s="33">
         <v>85.36</v>
       </c>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="33"/>
+      <c r="BD35" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE35" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF35" s="33"/>
       <c r="BG35" s="33"/>
       <c r="BH35" s="33"/>
@@ -8667,8 +8787,12 @@
       <c r="BC36" s="33">
         <v>89.43</v>
       </c>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
+      <c r="BD36" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE36" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF36" s="33"/>
       <c r="BG36" s="33"/>
       <c r="BH36" s="33"/>
@@ -8857,8 +8981,12 @@
       <c r="BC37" s="33">
         <v>90.64</v>
       </c>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="33"/>
+      <c r="BD37" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE37" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF37" s="33"/>
       <c r="BG37" s="33"/>
       <c r="BH37" s="33"/>
@@ -9047,8 +9175,12 @@
       <c r="BC38" s="33">
         <v>92.22</v>
       </c>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
+      <c r="BD38" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE38" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF38" s="33"/>
       <c r="BG38" s="33"/>
       <c r="BH38" s="33"/>
@@ -9237,8 +9369,12 @@
       <c r="BC39" s="33">
         <v>88.53</v>
       </c>
-      <c r="BD39" s="33"/>
-      <c r="BE39" s="33"/>
+      <c r="BD39" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE39" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF39" s="33"/>
       <c r="BG39" s="33"/>
       <c r="BH39" s="33"/>
@@ -9427,8 +9563,12 @@
       <c r="BC40" s="33">
         <v>90.08</v>
       </c>
-      <c r="BD40" s="33"/>
-      <c r="BE40" s="33"/>
+      <c r="BD40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE40" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF40" s="33"/>
       <c r="BG40" s="33"/>
       <c r="BH40" s="33"/>
@@ -9617,8 +9757,12 @@
       <c r="BC41" s="33">
         <v>92.33</v>
       </c>
-      <c r="BD41" s="33"/>
-      <c r="BE41" s="33"/>
+      <c r="BD41" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE41" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF41" s="33"/>
       <c r="BG41" s="33"/>
       <c r="BH41" s="33"/>
@@ -9807,8 +9951,12 @@
       <c r="BC42" s="33">
         <v>91.93</v>
       </c>
-      <c r="BD42" s="33"/>
-      <c r="BE42" s="33"/>
+      <c r="BD42" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE42" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF42" s="33"/>
       <c r="BG42" s="33"/>
       <c r="BH42" s="33"/>
@@ -9997,8 +10145,12 @@
       <c r="BC43" s="33">
         <v>92.39</v>
       </c>
-      <c r="BD43" s="33"/>
-      <c r="BE43" s="33"/>
+      <c r="BD43" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE43" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF43" s="33"/>
       <c r="BG43" s="33"/>
       <c r="BH43" s="33"/>
@@ -10187,8 +10339,12 @@
       <c r="BC44" s="33">
         <v>90.95</v>
       </c>
-      <c r="BD44" s="33"/>
-      <c r="BE44" s="33"/>
+      <c r="BD44" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE44" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF44" s="33"/>
       <c r="BG44" s="33"/>
       <c r="BH44" s="33"/>
@@ -10377,8 +10533,12 @@
       <c r="BC45" s="33">
         <v>91.38</v>
       </c>
-      <c r="BD45" s="33"/>
-      <c r="BE45" s="33"/>
+      <c r="BD45" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE45" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF45" s="33"/>
       <c r="BG45" s="33"/>
       <c r="BH45" s="33"/>
@@ -10567,8 +10727,12 @@
       <c r="BC46" s="33">
         <v>90.55</v>
       </c>
-      <c r="BD46" s="33"/>
-      <c r="BE46" s="33"/>
+      <c r="BD46" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE46" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF46" s="33"/>
       <c r="BG46" s="33"/>
       <c r="BH46" s="33"/>
@@ -10757,8 +10921,12 @@
       <c r="BC47" s="33">
         <v>91.39</v>
       </c>
-      <c r="BD47" s="33"/>
-      <c r="BE47" s="33"/>
+      <c r="BD47" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE47" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF47" s="33"/>
       <c r="BG47" s="33"/>
       <c r="BH47" s="33"/>
@@ -10947,8 +11115,12 @@
       <c r="BC48" s="33">
         <v>90.61</v>
       </c>
-      <c r="BD48" s="33"/>
-      <c r="BE48" s="33"/>
+      <c r="BD48" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE48" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF48" s="33"/>
       <c r="BG48" s="33"/>
       <c r="BH48" s="33"/>
@@ -11137,8 +11309,12 @@
       <c r="BC49" s="33">
         <v>88.5</v>
       </c>
-      <c r="BD49" s="33"/>
-      <c r="BE49" s="33"/>
+      <c r="BD49" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE49" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF49" s="33"/>
       <c r="BG49" s="33"/>
       <c r="BH49" s="33"/>
@@ -11327,8 +11503,12 @@
       <c r="BC50" s="33">
         <v>92.14</v>
       </c>
-      <c r="BD50" s="33"/>
-      <c r="BE50" s="33"/>
+      <c r="BD50" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE50" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF50" s="33"/>
       <c r="BG50" s="33"/>
       <c r="BH50" s="33"/>
@@ -11517,8 +11697,12 @@
       <c r="BC51" s="33">
         <v>91.96</v>
       </c>
-      <c r="BD51" s="33"/>
-      <c r="BE51" s="33"/>
+      <c r="BD51" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE51" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF51" s="33"/>
       <c r="BG51" s="33"/>
       <c r="BH51" s="33"/>
@@ -11707,8 +11891,12 @@
       <c r="BC52" s="33">
         <v>92.29</v>
       </c>
-      <c r="BD52" s="33"/>
-      <c r="BE52" s="33"/>
+      <c r="BD52" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE52" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF52" s="33"/>
       <c r="BG52" s="33"/>
       <c r="BH52" s="33"/>
@@ -11897,8 +12085,12 @@
       <c r="BC53" s="33">
         <v>92.83</v>
       </c>
-      <c r="BD53" s="33"/>
-      <c r="BE53" s="33"/>
+      <c r="BD53" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE53" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF53" s="33"/>
       <c r="BG53" s="33"/>
       <c r="BH53" s="33"/>
@@ -12087,8 +12279,12 @@
       <c r="BC54" s="33">
         <v>92.49</v>
       </c>
-      <c r="BD54" s="33"/>
-      <c r="BE54" s="33"/>
+      <c r="BD54" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE54" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF54" s="33"/>
       <c r="BG54" s="33"/>
       <c r="BH54" s="33"/>
@@ -12277,8 +12473,12 @@
       <c r="BC55" s="33">
         <v>93.31</v>
       </c>
-      <c r="BD55" s="33"/>
-      <c r="BE55" s="33"/>
+      <c r="BD55" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE55" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF55" s="33"/>
       <c r="BG55" s="33"/>
       <c r="BH55" s="33"/>
@@ -12467,8 +12667,12 @@
       <c r="BC56" s="33">
         <v>91.96</v>
       </c>
-      <c r="BD56" s="33"/>
-      <c r="BE56" s="33"/>
+      <c r="BD56" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE56" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF56" s="33"/>
       <c r="BG56" s="33"/>
       <c r="BH56" s="33"/>
@@ -12657,8 +12861,12 @@
       <c r="BC57" s="33">
         <v>90.35</v>
       </c>
-      <c r="BD57" s="33"/>
-      <c r="BE57" s="33"/>
+      <c r="BD57" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE57" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF57" s="33"/>
       <c r="BG57" s="33"/>
       <c r="BH57" s="33"/>
@@ -12847,8 +13055,12 @@
       <c r="BC58" s="33">
         <v>89.88</v>
       </c>
-      <c r="BD58" s="33"/>
-      <c r="BE58" s="33"/>
+      <c r="BD58" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE58" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF58" s="33"/>
       <c r="BG58" s="33"/>
       <c r="BH58" s="33"/>
@@ -13037,8 +13249,12 @@
       <c r="BC59" s="33">
         <v>91.46</v>
       </c>
-      <c r="BD59" s="33"/>
-      <c r="BE59" s="33"/>
+      <c r="BD59" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE59" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF59" s="33"/>
       <c r="BG59" s="33"/>
       <c r="BH59" s="33"/>
@@ -13227,8 +13443,12 @@
       <c r="BC60" s="33">
         <v>90.14</v>
       </c>
-      <c r="BD60" s="33"/>
-      <c r="BE60" s="33"/>
+      <c r="BD60" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE60" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF60" s="33"/>
       <c r="BG60" s="33"/>
       <c r="BH60" s="33"/>
@@ -13417,8 +13637,12 @@
       <c r="BC61" s="33">
         <v>92.41</v>
       </c>
-      <c r="BD61" s="33"/>
-      <c r="BE61" s="33"/>
+      <c r="BD61" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE61" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF61" s="33"/>
       <c r="BG61" s="33"/>
       <c r="BH61" s="33"/>
@@ -13607,8 +13831,12 @@
       <c r="BC62" s="33">
         <v>91.01</v>
       </c>
-      <c r="BD62" s="33"/>
-      <c r="BE62" s="33"/>
+      <c r="BD62" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE62" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF62" s="33"/>
       <c r="BG62" s="33"/>
       <c r="BH62" s="33"/>
@@ -13797,8 +14025,12 @@
       <c r="BC63" s="33">
         <v>89.05</v>
       </c>
-      <c r="BD63" s="33"/>
-      <c r="BE63" s="33"/>
+      <c r="BD63" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE63" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF63" s="33"/>
       <c r="BG63" s="33"/>
       <c r="BH63" s="33"/>
@@ -13987,8 +14219,12 @@
       <c r="BC64" s="33">
         <v>90.23</v>
       </c>
-      <c r="BD64" s="33"/>
-      <c r="BE64" s="33"/>
+      <c r="BD64" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE64" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF64" s="33"/>
       <c r="BG64" s="33"/>
       <c r="BH64" s="33"/>
@@ -14177,8 +14413,12 @@
       <c r="BC65" s="33">
         <v>92.96</v>
       </c>
-      <c r="BD65" s="33"/>
-      <c r="BE65" s="33"/>
+      <c r="BD65" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE65" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF65" s="33"/>
       <c r="BG65" s="33"/>
       <c r="BH65" s="33"/>
@@ -14367,8 +14607,12 @@
       <c r="BC66" s="33">
         <v>90.49</v>
       </c>
-      <c r="BD66" s="33"/>
-      <c r="BE66" s="33"/>
+      <c r="BD66" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE66" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF66" s="33"/>
       <c r="BG66" s="33"/>
       <c r="BH66" s="33"/>
@@ -14557,8 +14801,12 @@
       <c r="BC67" s="33">
         <v>89.75</v>
       </c>
-      <c r="BD67" s="33"/>
-      <c r="BE67" s="33"/>
+      <c r="BD67" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE67" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF67" s="33"/>
       <c r="BG67" s="33"/>
       <c r="BH67" s="33"/>
@@ -14747,8 +14995,12 @@
       <c r="BC68" s="33">
         <v>92.81</v>
       </c>
-      <c r="BD68" s="33"/>
-      <c r="BE68" s="33"/>
+      <c r="BD68" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE68" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF68" s="33"/>
       <c r="BG68" s="33"/>
       <c r="BH68" s="33"/>
@@ -14937,8 +15189,12 @@
       <c r="BC69" s="33">
         <v>90.31</v>
       </c>
-      <c r="BD69" s="33"/>
-      <c r="BE69" s="33"/>
+      <c r="BD69" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE69" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF69" s="33"/>
       <c r="BG69" s="33"/>
       <c r="BH69" s="33"/>
@@ -15127,8 +15383,12 @@
       <c r="BC70" s="33">
         <v>90.44</v>
       </c>
-      <c r="BD70" s="33"/>
-      <c r="BE70" s="33"/>
+      <c r="BD70" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE70" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF70" s="33"/>
       <c r="BG70" s="33"/>
       <c r="BH70" s="33"/>
@@ -15317,8 +15577,12 @@
       <c r="BC71" s="33">
         <v>94.24</v>
       </c>
-      <c r="BD71" s="33"/>
-      <c r="BE71" s="33"/>
+      <c r="BD71" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE71" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF71" s="33"/>
       <c r="BG71" s="33"/>
       <c r="BH71" s="33"/>
@@ -15507,8 +15771,12 @@
       <c r="BC72" s="33">
         <v>93.77</v>
       </c>
-      <c r="BD72" s="33"/>
-      <c r="BE72" s="33"/>
+      <c r="BD72" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE72" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF72" s="33"/>
       <c r="BG72" s="33"/>
       <c r="BH72" s="33"/>
@@ -15697,8 +15965,12 @@
       <c r="BC73" s="33">
         <v>94.22</v>
       </c>
-      <c r="BD73" s="33"/>
-      <c r="BE73" s="33"/>
+      <c r="BD73" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE73" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF73" s="33"/>
       <c r="BG73" s="33"/>
       <c r="BH73" s="33"/>
@@ -15887,8 +16159,12 @@
       <c r="BC74" s="33">
         <v>93.92</v>
       </c>
-      <c r="BD74" s="33"/>
-      <c r="BE74" s="33"/>
+      <c r="BD74" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE74" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF74" s="33"/>
       <c r="BG74" s="33"/>
       <c r="BH74" s="33"/>
@@ -16077,8 +16353,12 @@
       <c r="BC75" s="33">
         <v>91.89</v>
       </c>
-      <c r="BD75" s="33"/>
-      <c r="BE75" s="33"/>
+      <c r="BD75" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE75" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF75" s="33"/>
       <c r="BG75" s="33"/>
       <c r="BH75" s="33"/>
@@ -16267,8 +16547,12 @@
       <c r="BC76" s="33">
         <v>92.29</v>
       </c>
-      <c r="BD76" s="33"/>
-      <c r="BE76" s="33"/>
+      <c r="BD76" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE76" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF76" s="33"/>
       <c r="BG76" s="33"/>
       <c r="BH76" s="33"/>
@@ -16457,8 +16741,12 @@
       <c r="BC77" s="33">
         <v>91.39</v>
       </c>
-      <c r="BD77" s="33"/>
-      <c r="BE77" s="33"/>
+      <c r="BD77" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE77" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF77" s="33"/>
       <c r="BG77" s="33"/>
       <c r="BH77" s="33"/>
@@ -16647,8 +16935,12 @@
       <c r="BC78" s="33">
         <v>95.18</v>
       </c>
-      <c r="BD78" s="33"/>
-      <c r="BE78" s="33"/>
+      <c r="BD78" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE78" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF78" s="33"/>
       <c r="BG78" s="33"/>
       <c r="BH78" s="33"/>
@@ -16837,8 +17129,12 @@
       <c r="BC79" s="33">
         <v>94.49</v>
       </c>
-      <c r="BD79" s="33"/>
-      <c r="BE79" s="33"/>
+      <c r="BD79" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE79" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF79" s="33"/>
       <c r="BG79" s="33"/>
       <c r="BH79" s="33"/>
@@ -17027,8 +17323,12 @@
       <c r="BC80" s="33">
         <v>94.11</v>
       </c>
-      <c r="BD80" s="33"/>
-      <c r="BE80" s="33"/>
+      <c r="BD80" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE80" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF80" s="33"/>
       <c r="BG80" s="33"/>
       <c r="BH80" s="33"/>
@@ -17217,8 +17517,12 @@
       <c r="BC81" s="33">
         <v>94.67</v>
       </c>
-      <c r="BD81" s="33"/>
-      <c r="BE81" s="33"/>
+      <c r="BD81" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE81" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF81" s="33"/>
       <c r="BG81" s="33"/>
       <c r="BH81" s="33"/>
@@ -17407,8 +17711,12 @@
       <c r="BC82" s="33">
         <v>94.84</v>
       </c>
-      <c r="BD82" s="33"/>
-      <c r="BE82" s="33"/>
+      <c r="BD82" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE82" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF82" s="33"/>
       <c r="BG82" s="33"/>
       <c r="BH82" s="33"/>
@@ -17597,8 +17905,12 @@
       <c r="BC83" s="33">
         <v>94.61</v>
       </c>
-      <c r="BD83" s="33"/>
-      <c r="BE83" s="33"/>
+      <c r="BD83" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE83" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF83" s="33"/>
       <c r="BG83" s="33"/>
       <c r="BH83" s="33"/>
@@ -17787,8 +18099,12 @@
       <c r="BC84" s="33">
         <v>95.13</v>
       </c>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
+      <c r="BD84" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE84" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF84" s="33"/>
       <c r="BG84" s="33"/>
       <c r="BH84" s="33"/>
@@ -17977,8 +18293,12 @@
       <c r="BC85" s="33">
         <v>92.21</v>
       </c>
-      <c r="BD85" s="33"/>
-      <c r="BE85" s="33"/>
+      <c r="BD85" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE85" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF85" s="33"/>
       <c r="BG85" s="33"/>
       <c r="BH85" s="33"/>
@@ -18167,8 +18487,12 @@
       <c r="BC86" s="33">
         <v>93.5</v>
       </c>
-      <c r="BD86" s="33"/>
-      <c r="BE86" s="33"/>
+      <c r="BD86" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE86" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF86" s="33"/>
       <c r="BG86" s="33"/>
       <c r="BH86" s="33"/>
@@ -18357,8 +18681,12 @@
       <c r="BC87" s="33">
         <v>93.04</v>
       </c>
-      <c r="BD87" s="33"/>
-      <c r="BE87" s="33"/>
+      <c r="BD87" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE87" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF87" s="33"/>
       <c r="BG87" s="33"/>
       <c r="BH87" s="33"/>
@@ -18547,8 +18875,12 @@
       <c r="BC88" s="33">
         <v>93.44</v>
       </c>
-      <c r="BD88" s="33"/>
-      <c r="BE88" s="33"/>
+      <c r="BD88" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE88" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF88" s="33"/>
       <c r="BG88" s="33"/>
       <c r="BH88" s="33"/>
@@ -18737,8 +19069,12 @@
       <c r="BC89" s="33">
         <v>91.17</v>
       </c>
-      <c r="BD89" s="33"/>
-      <c r="BE89" s="33"/>
+      <c r="BD89" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE89" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF89" s="33"/>
       <c r="BG89" s="33"/>
       <c r="BH89" s="33"/>
@@ -18927,8 +19263,12 @@
       <c r="BC90" s="33">
         <v>90.27</v>
       </c>
-      <c r="BD90" s="33"/>
-      <c r="BE90" s="33"/>
+      <c r="BD90" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE90" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF90" s="33"/>
       <c r="BG90" s="33"/>
       <c r="BH90" s="33"/>
@@ -19117,8 +19457,12 @@
       <c r="BC91" s="33">
         <v>91.58</v>
       </c>
-      <c r="BD91" s="33"/>
-      <c r="BE91" s="33"/>
+      <c r="BD91" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE91" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF91" s="33"/>
       <c r="BG91" s="33"/>
       <c r="BH91" s="33"/>
@@ -19307,8 +19651,12 @@
       <c r="BC92" s="33">
         <v>95.28</v>
       </c>
-      <c r="BD92" s="33"/>
-      <c r="BE92" s="33"/>
+      <c r="BD92" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE92" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF92" s="33"/>
       <c r="BG92" s="33"/>
       <c r="BH92" s="33"/>
@@ -19497,8 +19845,12 @@
       <c r="BC93" s="33">
         <v>93.47</v>
       </c>
-      <c r="BD93" s="33"/>
-      <c r="BE93" s="33"/>
+      <c r="BD93" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE93" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF93" s="33"/>
       <c r="BG93" s="33"/>
       <c r="BH93" s="33"/>
@@ -19687,8 +20039,12 @@
       <c r="BC94" s="33">
         <v>92.01</v>
       </c>
-      <c r="BD94" s="33"/>
-      <c r="BE94" s="33"/>
+      <c r="BD94" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE94" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BF94" s="33"/>
       <c r="BG94" s="33"/>
       <c r="BH94" s="33"/>
@@ -19830,7 +20186,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -19843,7 +20199,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -19869,7 +20225,7 @@
     </row>
     <row r="5" spans="1:78" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -20049,8 +20405,12 @@
       <c r="BD6" s="32">
         <v>44198</v>
       </c>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
+      <c r="BE6" s="32">
+        <v>44205</v>
+      </c>
+      <c r="BF6" s="32">
+        <v>44212</v>
+      </c>
       <c r="BG6" s="32"/>
       <c r="BH6" s="32"/>
       <c r="BI6" s="32"/>
@@ -20241,8 +20601,12 @@
       <c r="BD7" s="33">
         <v>90.72</v>
       </c>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
+      <c r="BE7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF7" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG7" s="33"/>
       <c r="BH7" s="33"/>
       <c r="BI7" s="33"/>
@@ -20433,8 +20797,12 @@
       <c r="BD8" s="33">
         <v>89.6</v>
       </c>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
+      <c r="BE8" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF8" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG8" s="33"/>
       <c r="BH8" s="33"/>
       <c r="BI8" s="33"/>
@@ -20625,8 +20993,12 @@
       <c r="BD9" s="33">
         <v>89.04</v>
       </c>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33"/>
+      <c r="BE9" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF9" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG9" s="33"/>
       <c r="BH9" s="33"/>
       <c r="BI9" s="33"/>
@@ -20817,8 +21189,12 @@
       <c r="BD10" s="33">
         <v>92.12</v>
       </c>
-      <c r="BE10" s="33"/>
-      <c r="BF10" s="33"/>
+      <c r="BE10" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF10" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG10" s="33"/>
       <c r="BH10" s="33"/>
       <c r="BI10" s="33"/>
@@ -21009,8 +21385,12 @@
       <c r="BD11" s="33">
         <v>90.07</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
+      <c r="BE11" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF11" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG11" s="33"/>
       <c r="BH11" s="33"/>
       <c r="BI11" s="33"/>
@@ -21201,8 +21581,12 @@
       <c r="BD12" s="33">
         <v>94.63</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
+      <c r="BE12" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF12" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG12" s="33"/>
       <c r="BH12" s="33"/>
       <c r="BI12" s="33"/>
@@ -21393,8 +21777,12 @@
       <c r="BD13" s="33">
         <v>92.91</v>
       </c>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
+      <c r="BE13" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF13" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG13" s="33"/>
       <c r="BH13" s="33"/>
       <c r="BI13" s="33"/>
@@ -21585,8 +21973,12 @@
       <c r="BD14" s="33">
         <v>94.67</v>
       </c>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
+      <c r="BE14" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF14" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG14" s="33"/>
       <c r="BH14" s="33"/>
       <c r="BI14" s="33"/>
@@ -21777,8 +22169,12 @@
       <c r="BD15" s="33">
         <v>90.64</v>
       </c>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
+      <c r="BE15" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF15" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG15" s="33"/>
       <c r="BH15" s="33"/>
       <c r="BI15" s="33"/>
@@ -21969,8 +22365,12 @@
       <c r="BD16" s="33">
         <v>95.55</v>
       </c>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
+      <c r="BE16" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF16" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG16" s="33"/>
       <c r="BH16" s="33"/>
       <c r="BI16" s="33"/>
@@ -22161,8 +22561,12 @@
       <c r="BD17" s="33">
         <v>93.95</v>
       </c>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
+      <c r="BE17" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF17" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG17" s="33"/>
       <c r="BH17" s="33"/>
       <c r="BI17" s="33"/>
@@ -22353,8 +22757,12 @@
       <c r="BD18" s="33">
         <v>88.19</v>
       </c>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
+      <c r="BE18" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF18" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG18" s="33"/>
       <c r="BH18" s="33"/>
       <c r="BI18" s="33"/>
@@ -22545,8 +22953,12 @@
       <c r="BD19" s="33">
         <v>94.2</v>
       </c>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="33"/>
+      <c r="BE19" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF19" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG19" s="33"/>
       <c r="BH19" s="33"/>
       <c r="BI19" s="33"/>
@@ -22737,8 +23149,12 @@
       <c r="BD20" s="33">
         <v>89.46</v>
       </c>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
+      <c r="BE20" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF20" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG20" s="33"/>
       <c r="BH20" s="33"/>
       <c r="BI20" s="33"/>
@@ -22929,8 +23345,12 @@
       <c r="BD21" s="33">
         <v>98.3</v>
       </c>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
+      <c r="BE21" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF21" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG21" s="33"/>
       <c r="BH21" s="33"/>
       <c r="BI21" s="33"/>
@@ -23121,8 +23541,12 @@
       <c r="BD22" s="33">
         <v>93.11</v>
       </c>
-      <c r="BE22" s="33"/>
-      <c r="BF22" s="33"/>
+      <c r="BE22" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF22" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG22" s="33"/>
       <c r="BH22" s="33"/>
       <c r="BI22" s="33"/>
@@ -23313,8 +23737,12 @@
       <c r="BD23" s="33">
         <v>95.32</v>
       </c>
-      <c r="BE23" s="33"/>
-      <c r="BF23" s="33"/>
+      <c r="BE23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF23" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG23" s="33"/>
       <c r="BH23" s="33"/>
       <c r="BI23" s="33"/>
@@ -23505,8 +23933,12 @@
       <c r="BD24" s="33">
         <v>96.19</v>
       </c>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
+      <c r="BE24" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF24" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG24" s="33"/>
       <c r="BH24" s="33"/>
       <c r="BI24" s="33"/>
@@ -23697,8 +24129,12 @@
       <c r="BD25" s="33">
         <v>93.81</v>
       </c>
-      <c r="BE25" s="33"/>
-      <c r="BF25" s="33"/>
+      <c r="BE25" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF25" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG25" s="33"/>
       <c r="BH25" s="33"/>
       <c r="BI25" s="33"/>
@@ -23889,8 +24325,12 @@
       <c r="BD26" s="33">
         <v>94.93</v>
       </c>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
+      <c r="BE26" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF26" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG26" s="33"/>
       <c r="BH26" s="33"/>
       <c r="BI26" s="33"/>
@@ -24081,8 +24521,12 @@
       <c r="BD27" s="33">
         <v>94.26</v>
       </c>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
+      <c r="BE27" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF27" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG27" s="33"/>
       <c r="BH27" s="33"/>
       <c r="BI27" s="33"/>
@@ -24115,166 +24559,170 @@
         <v>127</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AD28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AE28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AI28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AJ28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AP28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AQ28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AR28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AS28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AT28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AU28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AV28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AW28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AX28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AY28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AZ28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BA28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC28" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BD28" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
+        <v>453</v>
+      </c>
+      <c r="BE28" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF28" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG28" s="33"/>
       <c r="BH28" s="33"/>
       <c r="BI28" s="33"/>
@@ -24465,8 +24913,12 @@
       <c r="BD29" s="33">
         <v>95.37</v>
       </c>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
+      <c r="BE29" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF29" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG29" s="33"/>
       <c r="BH29" s="33"/>
       <c r="BI29" s="33"/>
@@ -24657,8 +25109,12 @@
       <c r="BD30" s="33">
         <v>94.02</v>
       </c>
-      <c r="BE30" s="33"/>
-      <c r="BF30" s="33"/>
+      <c r="BE30" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF30" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG30" s="33"/>
       <c r="BH30" s="33"/>
       <c r="BI30" s="33"/>
@@ -24849,8 +25305,12 @@
       <c r="BD31" s="33">
         <v>91.06</v>
       </c>
-      <c r="BE31" s="33"/>
-      <c r="BF31" s="33"/>
+      <c r="BE31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF31" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG31" s="33"/>
       <c r="BH31" s="33"/>
       <c r="BI31" s="33"/>
@@ -25041,8 +25501,12 @@
       <c r="BD32" s="33">
         <v>92.29</v>
       </c>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="33"/>
+      <c r="BE32" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF32" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG32" s="33"/>
       <c r="BH32" s="33"/>
       <c r="BI32" s="33"/>
@@ -25233,8 +25697,12 @@
       <c r="BD33" s="33">
         <v>93.97</v>
       </c>
-      <c r="BE33" s="33"/>
-      <c r="BF33" s="33"/>
+      <c r="BE33" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF33" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG33" s="33"/>
       <c r="BH33" s="33"/>
       <c r="BI33" s="33"/>
@@ -25425,8 +25893,12 @@
       <c r="BD34" s="33">
         <v>93.62</v>
       </c>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
+      <c r="BE34" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF34" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG34" s="33"/>
       <c r="BH34" s="33"/>
       <c r="BI34" s="33"/>
@@ -25617,8 +26089,12 @@
       <c r="BD35" s="33">
         <v>92.28</v>
       </c>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="33"/>
+      <c r="BE35" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF35" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG35" s="33"/>
       <c r="BH35" s="33"/>
       <c r="BI35" s="33"/>
@@ -25809,8 +26285,12 @@
       <c r="BD36" s="33">
         <v>93.52</v>
       </c>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
+      <c r="BE36" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF36" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG36" s="33"/>
       <c r="BH36" s="33"/>
       <c r="BI36" s="33"/>
@@ -26001,8 +26481,12 @@
       <c r="BD37" s="33">
         <v>85.37</v>
       </c>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="33"/>
+      <c r="BE37" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF37" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG37" s="33"/>
       <c r="BH37" s="33"/>
       <c r="BI37" s="33"/>
@@ -26193,8 +26677,12 @@
       <c r="BD38" s="33">
         <v>93.07</v>
       </c>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
+      <c r="BE38" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF38" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG38" s="33"/>
       <c r="BH38" s="33"/>
       <c r="BI38" s="33"/>
@@ -26385,8 +26873,12 @@
       <c r="BD39" s="33">
         <v>94.57</v>
       </c>
-      <c r="BE39" s="33"/>
-      <c r="BF39" s="33"/>
+      <c r="BE39" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF39" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG39" s="33"/>
       <c r="BH39" s="33"/>
       <c r="BI39" s="33"/>
@@ -26577,8 +27069,12 @@
       <c r="BD40" s="33">
         <v>93.04</v>
       </c>
-      <c r="BE40" s="33"/>
-      <c r="BF40" s="33"/>
+      <c r="BE40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF40" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG40" s="33"/>
       <c r="BH40" s="33"/>
       <c r="BI40" s="33"/>
@@ -26769,8 +27265,12 @@
       <c r="BD41" s="33">
         <v>94.44</v>
       </c>
-      <c r="BE41" s="33"/>
-      <c r="BF41" s="33"/>
+      <c r="BE41" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF41" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG41" s="33"/>
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
@@ -26961,8 +27461,12 @@
       <c r="BD42" s="33">
         <v>94.94</v>
       </c>
-      <c r="BE42" s="33"/>
-      <c r="BF42" s="33"/>
+      <c r="BE42" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF42" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG42" s="33"/>
       <c r="BH42" s="33"/>
       <c r="BI42" s="33"/>
@@ -27153,8 +27657,12 @@
       <c r="BD43" s="33">
         <v>94.97</v>
       </c>
-      <c r="BE43" s="33"/>
-      <c r="BF43" s="33"/>
+      <c r="BE43" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF43" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG43" s="33"/>
       <c r="BH43" s="33"/>
       <c r="BI43" s="33"/>
@@ -27345,8 +27853,12 @@
       <c r="BD44" s="33">
         <v>94.54</v>
       </c>
-      <c r="BE44" s="33"/>
-      <c r="BF44" s="33"/>
+      <c r="BE44" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF44" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG44" s="33"/>
       <c r="BH44" s="33"/>
       <c r="BI44" s="33"/>
@@ -27537,8 +28049,12 @@
       <c r="BD45" s="33">
         <v>95.1</v>
       </c>
-      <c r="BE45" s="33"/>
-      <c r="BF45" s="33"/>
+      <c r="BE45" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF45" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG45" s="33"/>
       <c r="BH45" s="33"/>
       <c r="BI45" s="33"/>
@@ -27729,8 +28245,12 @@
       <c r="BD46" s="33">
         <v>91.66</v>
       </c>
-      <c r="BE46" s="33"/>
-      <c r="BF46" s="33"/>
+      <c r="BE46" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF46" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG46" s="33"/>
       <c r="BH46" s="33"/>
       <c r="BI46" s="33"/>
@@ -27921,8 +28441,12 @@
       <c r="BD47" s="33">
         <v>92.28</v>
       </c>
-      <c r="BE47" s="33"/>
-      <c r="BF47" s="33"/>
+      <c r="BE47" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF47" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG47" s="33"/>
       <c r="BH47" s="33"/>
       <c r="BI47" s="33"/>
@@ -28113,8 +28637,12 @@
       <c r="BD48" s="33">
         <v>92.9</v>
       </c>
-      <c r="BE48" s="33"/>
-      <c r="BF48" s="33"/>
+      <c r="BE48" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF48" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG48" s="33"/>
       <c r="BH48" s="33"/>
       <c r="BI48" s="33"/>
@@ -28305,8 +28833,12 @@
       <c r="BD49" s="33">
         <v>92.36</v>
       </c>
-      <c r="BE49" s="33"/>
-      <c r="BF49" s="33"/>
+      <c r="BE49" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF49" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG49" s="33"/>
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
@@ -28497,8 +29029,12 @@
       <c r="BD50" s="33">
         <v>94.11</v>
       </c>
-      <c r="BE50" s="33"/>
-      <c r="BF50" s="33"/>
+      <c r="BE50" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF50" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG50" s="33"/>
       <c r="BH50" s="33"/>
       <c r="BI50" s="33"/>
@@ -28689,8 +29225,12 @@
       <c r="BD51" s="33">
         <v>92.22</v>
       </c>
-      <c r="BE51" s="33"/>
-      <c r="BF51" s="33"/>
+      <c r="BE51" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF51" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG51" s="33"/>
       <c r="BH51" s="33"/>
       <c r="BI51" s="33"/>
@@ -28881,8 +29421,12 @@
       <c r="BD52" s="33">
         <v>94.41</v>
       </c>
-      <c r="BE52" s="33"/>
-      <c r="BF52" s="33"/>
+      <c r="BE52" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF52" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG52" s="33"/>
       <c r="BH52" s="33"/>
       <c r="BI52" s="33"/>
@@ -29073,8 +29617,12 @@
       <c r="BD53" s="33">
         <v>90.78</v>
       </c>
-      <c r="BE53" s="33"/>
-      <c r="BF53" s="33"/>
+      <c r="BE53" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF53" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG53" s="33"/>
       <c r="BH53" s="33"/>
       <c r="BI53" s="33"/>
@@ -29265,8 +29813,12 @@
       <c r="BD54" s="33">
         <v>93.71</v>
       </c>
-      <c r="BE54" s="33"/>
-      <c r="BF54" s="33"/>
+      <c r="BE54" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF54" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG54" s="33"/>
       <c r="BH54" s="33"/>
       <c r="BI54" s="33"/>
@@ -29457,8 +30009,12 @@
       <c r="BD55" s="33">
         <v>89.63</v>
       </c>
-      <c r="BE55" s="33"/>
-      <c r="BF55" s="33"/>
+      <c r="BE55" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF55" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG55" s="33"/>
       <c r="BH55" s="33"/>
       <c r="BI55" s="33"/>
@@ -29649,8 +30205,12 @@
       <c r="BD56" s="33">
         <v>92.21</v>
       </c>
-      <c r="BE56" s="33"/>
-      <c r="BF56" s="33"/>
+      <c r="BE56" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF56" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG56" s="33"/>
       <c r="BH56" s="33"/>
       <c r="BI56" s="33"/>
@@ -29841,8 +30401,12 @@
       <c r="BD57" s="33">
         <v>92.6</v>
       </c>
-      <c r="BE57" s="33"/>
-      <c r="BF57" s="33"/>
+      <c r="BE57" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF57" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG57" s="33"/>
       <c r="BH57" s="33"/>
       <c r="BI57" s="33"/>
@@ -30033,8 +30597,12 @@
       <c r="BD58" s="33">
         <v>93.07</v>
       </c>
-      <c r="BE58" s="33"/>
-      <c r="BF58" s="33"/>
+      <c r="BE58" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF58" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG58" s="33"/>
       <c r="BH58" s="33"/>
       <c r="BI58" s="33"/>
@@ -30225,8 +30793,12 @@
       <c r="BD59" s="33">
         <v>93.93</v>
       </c>
-      <c r="BE59" s="33"/>
-      <c r="BF59" s="33"/>
+      <c r="BE59" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF59" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG59" s="33"/>
       <c r="BH59" s="33"/>
       <c r="BI59" s="33"/>
@@ -30417,8 +30989,12 @@
       <c r="BD60" s="33">
         <v>93.3</v>
       </c>
-      <c r="BE60" s="33"/>
-      <c r="BF60" s="33"/>
+      <c r="BE60" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF60" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG60" s="33"/>
       <c r="BH60" s="33"/>
       <c r="BI60" s="33"/>
@@ -30609,8 +31185,12 @@
       <c r="BD61" s="33">
         <v>90.55</v>
       </c>
-      <c r="BE61" s="33"/>
-      <c r="BF61" s="33"/>
+      <c r="BE61" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF61" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG61" s="33"/>
       <c r="BH61" s="33"/>
       <c r="BI61" s="33"/>
@@ -30801,8 +31381,12 @@
       <c r="BD62" s="33">
         <v>91.62</v>
       </c>
-      <c r="BE62" s="33"/>
-      <c r="BF62" s="33"/>
+      <c r="BE62" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF62" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG62" s="33"/>
       <c r="BH62" s="33"/>
       <c r="BI62" s="33"/>
@@ -30993,8 +31577,12 @@
       <c r="BD63" s="33">
         <v>89.45</v>
       </c>
-      <c r="BE63" s="33"/>
-      <c r="BF63" s="33"/>
+      <c r="BE63" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF63" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG63" s="33"/>
       <c r="BH63" s="33"/>
       <c r="BI63" s="33"/>
@@ -31185,8 +31773,12 @@
       <c r="BD64" s="33">
         <v>89.44</v>
       </c>
-      <c r="BE64" s="33"/>
-      <c r="BF64" s="33"/>
+      <c r="BE64" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF64" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG64" s="33"/>
       <c r="BH64" s="33"/>
       <c r="BI64" s="33"/>
@@ -31377,8 +31969,12 @@
       <c r="BD65" s="33">
         <v>91.12</v>
       </c>
-      <c r="BE65" s="33"/>
-      <c r="BF65" s="33"/>
+      <c r="BE65" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF65" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG65" s="33"/>
       <c r="BH65" s="33"/>
       <c r="BI65" s="33"/>
@@ -31569,8 +32165,12 @@
       <c r="BD66" s="33">
         <v>90.26</v>
       </c>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="33"/>
+      <c r="BE66" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF66" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG66" s="33"/>
       <c r="BH66" s="33"/>
       <c r="BI66" s="33"/>
@@ -31761,8 +32361,12 @@
       <c r="BD67" s="33">
         <v>90.8</v>
       </c>
-      <c r="BE67" s="33"/>
-      <c r="BF67" s="33"/>
+      <c r="BE67" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF67" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG67" s="33"/>
       <c r="BH67" s="33"/>
       <c r="BI67" s="33"/>
@@ -31953,8 +32557,12 @@
       <c r="BD68" s="33">
         <v>91.67</v>
       </c>
-      <c r="BE68" s="33"/>
-      <c r="BF68" s="33"/>
+      <c r="BE68" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF68" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG68" s="33"/>
       <c r="BH68" s="33"/>
       <c r="BI68" s="33"/>
@@ -32145,8 +32753,12 @@
       <c r="BD69" s="33">
         <v>91.88</v>
       </c>
-      <c r="BE69" s="33"/>
-      <c r="BF69" s="33"/>
+      <c r="BE69" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF69" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG69" s="33"/>
       <c r="BH69" s="33"/>
       <c r="BI69" s="33"/>
@@ -32337,8 +32949,12 @@
       <c r="BD70" s="33">
         <v>92.57</v>
       </c>
-      <c r="BE70" s="33"/>
-      <c r="BF70" s="33"/>
+      <c r="BE70" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF70" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG70" s="33"/>
       <c r="BH70" s="33"/>
       <c r="BI70" s="33"/>
@@ -32529,8 +33145,12 @@
       <c r="BD71" s="33">
         <v>92.98</v>
       </c>
-      <c r="BE71" s="33"/>
-      <c r="BF71" s="33"/>
+      <c r="BE71" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF71" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG71" s="33"/>
       <c r="BH71" s="33"/>
       <c r="BI71" s="33"/>
@@ -32721,8 +33341,12 @@
       <c r="BD72" s="33">
         <v>92.23</v>
       </c>
-      <c r="BE72" s="33"/>
-      <c r="BF72" s="33"/>
+      <c r="BE72" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF72" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG72" s="33"/>
       <c r="BH72" s="33"/>
       <c r="BI72" s="33"/>
@@ -32913,8 +33537,12 @@
       <c r="BD73" s="33">
         <v>92.49</v>
       </c>
-      <c r="BE73" s="33"/>
-      <c r="BF73" s="33"/>
+      <c r="BE73" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF73" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG73" s="33"/>
       <c r="BH73" s="33"/>
       <c r="BI73" s="33"/>
@@ -33105,8 +33733,12 @@
       <c r="BD74" s="33">
         <v>94.52</v>
       </c>
-      <c r="BE74" s="33"/>
-      <c r="BF74" s="33"/>
+      <c r="BE74" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF74" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG74" s="33"/>
       <c r="BH74" s="33"/>
       <c r="BI74" s="33"/>
@@ -33297,8 +33929,12 @@
       <c r="BD75" s="33">
         <v>92.64</v>
       </c>
-      <c r="BE75" s="33"/>
-      <c r="BF75" s="33"/>
+      <c r="BE75" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF75" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG75" s="33"/>
       <c r="BH75" s="33"/>
       <c r="BI75" s="33"/>
@@ -33489,8 +34125,12 @@
       <c r="BD76" s="33">
         <v>91.98</v>
       </c>
-      <c r="BE76" s="33"/>
-      <c r="BF76" s="33"/>
+      <c r="BE76" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF76" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG76" s="33"/>
       <c r="BH76" s="33"/>
       <c r="BI76" s="33"/>
@@ -33681,8 +34321,12 @@
       <c r="BD77" s="33">
         <v>90.69</v>
       </c>
-      <c r="BE77" s="33"/>
-      <c r="BF77" s="33"/>
+      <c r="BE77" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF77" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG77" s="33"/>
       <c r="BH77" s="33"/>
       <c r="BI77" s="33"/>
@@ -33873,8 +34517,12 @@
       <c r="BD78" s="33">
         <v>89.69</v>
       </c>
-      <c r="BE78" s="33"/>
-      <c r="BF78" s="33"/>
+      <c r="BE78" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF78" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG78" s="33"/>
       <c r="BH78" s="33"/>
       <c r="BI78" s="33"/>
@@ -34065,8 +34713,12 @@
       <c r="BD79" s="33">
         <v>91.33</v>
       </c>
-      <c r="BE79" s="33"/>
-      <c r="BF79" s="33"/>
+      <c r="BE79" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF79" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG79" s="33"/>
       <c r="BH79" s="33"/>
       <c r="BI79" s="33"/>
@@ -34257,8 +34909,12 @@
       <c r="BD80" s="33">
         <v>92.89</v>
       </c>
-      <c r="BE80" s="33"/>
-      <c r="BF80" s="33"/>
+      <c r="BE80" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF80" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG80" s="33"/>
       <c r="BH80" s="33"/>
       <c r="BI80" s="33"/>
@@ -34449,8 +35105,12 @@
       <c r="BD81" s="33">
         <v>92.18</v>
       </c>
-      <c r="BE81" s="33"/>
-      <c r="BF81" s="33"/>
+      <c r="BE81" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF81" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG81" s="33"/>
       <c r="BH81" s="33"/>
       <c r="BI81" s="33"/>
@@ -34641,8 +35301,12 @@
       <c r="BD82" s="33">
         <v>91.55</v>
       </c>
-      <c r="BE82" s="33"/>
-      <c r="BF82" s="33"/>
+      <c r="BE82" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF82" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG82" s="33"/>
       <c r="BH82" s="33"/>
       <c r="BI82" s="33"/>
@@ -34833,8 +35497,12 @@
       <c r="BD83" s="33">
         <v>93.77</v>
       </c>
-      <c r="BE83" s="33"/>
-      <c r="BF83" s="33"/>
+      <c r="BE83" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF83" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG83" s="33"/>
       <c r="BH83" s="33"/>
       <c r="BI83" s="33"/>
@@ -34867,166 +35535,170 @@
         <v>183</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AB84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AD84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AE84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AI84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AJ84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AP84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AQ84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AR84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AS84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AT84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AU84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AV84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AW84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AX84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AY84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AZ84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BA84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BB84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC84" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BD84" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="33"/>
+        <v>453</v>
+      </c>
+      <c r="BE84" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF84" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG84" s="33"/>
       <c r="BH84" s="33"/>
       <c r="BI84" s="33"/>
@@ -35217,8 +35889,12 @@
       <c r="BD85" s="33">
         <v>92.9</v>
       </c>
-      <c r="BE85" s="33"/>
-      <c r="BF85" s="33"/>
+      <c r="BE85" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF85" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG85" s="33"/>
       <c r="BH85" s="33"/>
       <c r="BI85" s="33"/>
@@ -35409,8 +36085,12 @@
       <c r="BD86" s="33">
         <v>91.22</v>
       </c>
-      <c r="BE86" s="33"/>
-      <c r="BF86" s="33"/>
+      <c r="BE86" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF86" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG86" s="33"/>
       <c r="BH86" s="33"/>
       <c r="BI86" s="33"/>
@@ -35601,8 +36281,12 @@
       <c r="BD87" s="33">
         <v>92.48</v>
       </c>
-      <c r="BE87" s="33"/>
-      <c r="BF87" s="33"/>
+      <c r="BE87" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF87" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG87" s="33"/>
       <c r="BH87" s="33"/>
       <c r="BI87" s="33"/>
@@ -35793,8 +36477,12 @@
       <c r="BD88" s="33">
         <v>91.48</v>
       </c>
-      <c r="BE88" s="33"/>
-      <c r="BF88" s="33"/>
+      <c r="BE88" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF88" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG88" s="33"/>
       <c r="BH88" s="33"/>
       <c r="BI88" s="33"/>
@@ -35985,8 +36673,12 @@
       <c r="BD89" s="33">
         <v>92.47</v>
       </c>
-      <c r="BE89" s="33"/>
-      <c r="BF89" s="33"/>
+      <c r="BE89" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF89" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG89" s="33"/>
       <c r="BH89" s="33"/>
       <c r="BI89" s="33"/>
@@ -36177,8 +36869,12 @@
       <c r="BD90" s="33">
         <v>90.65</v>
       </c>
-      <c r="BE90" s="33"/>
-      <c r="BF90" s="33"/>
+      <c r="BE90" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF90" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG90" s="33"/>
       <c r="BH90" s="33"/>
       <c r="BI90" s="33"/>
@@ -36369,8 +37065,12 @@
       <c r="BD91" s="33">
         <v>94.25</v>
       </c>
-      <c r="BE91" s="33"/>
-      <c r="BF91" s="33"/>
+      <c r="BE91" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF91" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG91" s="33"/>
       <c r="BH91" s="33"/>
       <c r="BI91" s="33"/>
@@ -36561,8 +37261,12 @@
       <c r="BD92" s="33">
         <v>93.32</v>
       </c>
-      <c r="BE92" s="33"/>
-      <c r="BF92" s="33"/>
+      <c r="BE92" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF92" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG92" s="33"/>
       <c r="BH92" s="33"/>
       <c r="BI92" s="33"/>
@@ -36753,8 +37457,12 @@
       <c r="BD93" s="33">
         <v>92.52</v>
       </c>
-      <c r="BE93" s="33"/>
-      <c r="BF93" s="33"/>
+      <c r="BE93" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF93" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG93" s="33"/>
       <c r="BH93" s="33"/>
       <c r="BI93" s="33"/>
@@ -36945,8 +37653,12 @@
       <c r="BD94" s="33">
         <v>91.7</v>
       </c>
-      <c r="BE94" s="33"/>
-      <c r="BF94" s="33"/>
+      <c r="BE94" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF94" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG94" s="33"/>
       <c r="BH94" s="33"/>
       <c r="BI94" s="33"/>
@@ -37137,8 +37849,12 @@
       <c r="BD95" s="33">
         <v>88.27</v>
       </c>
-      <c r="BE95" s="33"/>
-      <c r="BF95" s="33"/>
+      <c r="BE95" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF95" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG95" s="33"/>
       <c r="BH95" s="33"/>
       <c r="BI95" s="33"/>
@@ -37329,8 +38045,12 @@
       <c r="BD96" s="33">
         <v>92.26</v>
       </c>
-      <c r="BE96" s="33"/>
-      <c r="BF96" s="33"/>
+      <c r="BE96" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF96" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG96" s="33"/>
       <c r="BH96" s="33"/>
       <c r="BI96" s="33"/>
@@ -37521,8 +38241,12 @@
       <c r="BD97" s="33">
         <v>92.46</v>
       </c>
-      <c r="BE97" s="33"/>
-      <c r="BF97" s="33"/>
+      <c r="BE97" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF97" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG97" s="33"/>
       <c r="BH97" s="33"/>
       <c r="BI97" s="33"/>
@@ -37713,8 +38437,12 @@
       <c r="BD98" s="33">
         <v>93.21</v>
       </c>
-      <c r="BE98" s="33"/>
-      <c r="BF98" s="33"/>
+      <c r="BE98" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF98" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG98" s="33"/>
       <c r="BH98" s="33"/>
       <c r="BI98" s="33"/>
@@ -37905,8 +38633,12 @@
       <c r="BD99" s="33">
         <v>84.74</v>
       </c>
-      <c r="BE99" s="33"/>
-      <c r="BF99" s="33"/>
+      <c r="BE99" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF99" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG99" s="33"/>
       <c r="BH99" s="33"/>
       <c r="BI99" s="33"/>
@@ -38097,8 +38829,12 @@
       <c r="BD100" s="33">
         <v>85.98</v>
       </c>
-      <c r="BE100" s="33"/>
-      <c r="BF100" s="33"/>
+      <c r="BE100" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF100" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG100" s="33"/>
       <c r="BH100" s="33"/>
       <c r="BI100" s="33"/>
@@ -38289,8 +39025,12 @@
       <c r="BD101" s="33">
         <v>87.36</v>
       </c>
-      <c r="BE101" s="33"/>
-      <c r="BF101" s="33"/>
+      <c r="BE101" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF101" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG101" s="33"/>
       <c r="BH101" s="33"/>
       <c r="BI101" s="33"/>
@@ -38481,8 +39221,12 @@
       <c r="BD102" s="33">
         <v>89.74</v>
       </c>
-      <c r="BE102" s="33"/>
-      <c r="BF102" s="33"/>
+      <c r="BE102" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF102" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG102" s="33"/>
       <c r="BH102" s="33"/>
       <c r="BI102" s="33"/>
@@ -38673,8 +39417,12 @@
       <c r="BD103" s="33">
         <v>88.56</v>
       </c>
-      <c r="BE103" s="33"/>
-      <c r="BF103" s="33"/>
+      <c r="BE103" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF103" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG103" s="33"/>
       <c r="BH103" s="33"/>
       <c r="BI103" s="33"/>
@@ -38865,8 +39613,12 @@
       <c r="BD104" s="33">
         <v>89.63</v>
       </c>
-      <c r="BE104" s="33"/>
-      <c r="BF104" s="33"/>
+      <c r="BE104" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF104" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG104" s="33"/>
       <c r="BH104" s="33"/>
       <c r="BI104" s="33"/>
@@ -39057,8 +39809,12 @@
       <c r="BD105" s="33">
         <v>89.15</v>
       </c>
-      <c r="BE105" s="33"/>
-      <c r="BF105" s="33"/>
+      <c r="BE105" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF105" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG105" s="33"/>
       <c r="BH105" s="33"/>
       <c r="BI105" s="33"/>
@@ -39249,8 +40005,12 @@
       <c r="BD106" s="33">
         <v>90.69</v>
       </c>
-      <c r="BE106" s="33"/>
-      <c r="BF106" s="33"/>
+      <c r="BE106" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF106" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG106" s="33"/>
       <c r="BH106" s="33"/>
       <c r="BI106" s="33"/>
@@ -39441,8 +40201,12 @@
       <c r="BD107" s="33">
         <v>90.75</v>
       </c>
-      <c r="BE107" s="33"/>
-      <c r="BF107" s="33"/>
+      <c r="BE107" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF107" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG107" s="33"/>
       <c r="BH107" s="33"/>
       <c r="BI107" s="33"/>
@@ -39633,8 +40397,12 @@
       <c r="BD108" s="33">
         <v>90.66</v>
       </c>
-      <c r="BE108" s="33"/>
-      <c r="BF108" s="33"/>
+      <c r="BE108" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF108" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG108" s="33"/>
       <c r="BH108" s="33"/>
       <c r="BI108" s="33"/>
@@ -39825,8 +40593,12 @@
       <c r="BD109" s="33">
         <v>91.35</v>
       </c>
-      <c r="BE109" s="33"/>
-      <c r="BF109" s="33"/>
+      <c r="BE109" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF109" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG109" s="33"/>
       <c r="BH109" s="33"/>
       <c r="BI109" s="33"/>
@@ -40017,8 +40789,12 @@
       <c r="BD110" s="33">
         <v>93.73</v>
       </c>
-      <c r="BE110" s="33"/>
-      <c r="BF110" s="33"/>
+      <c r="BE110" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF110" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG110" s="33"/>
       <c r="BH110" s="33"/>
       <c r="BI110" s="33"/>
@@ -40209,8 +40985,12 @@
       <c r="BD111" s="33">
         <v>88.11</v>
       </c>
-      <c r="BE111" s="33"/>
-      <c r="BF111" s="33"/>
+      <c r="BE111" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF111" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG111" s="33"/>
       <c r="BH111" s="33"/>
       <c r="BI111" s="33"/>
@@ -40401,8 +41181,12 @@
       <c r="BD112" s="33">
         <v>89.11</v>
       </c>
-      <c r="BE112" s="33"/>
-      <c r="BF112" s="33"/>
+      <c r="BE112" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF112" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG112" s="33"/>
       <c r="BH112" s="33"/>
       <c r="BI112" s="33"/>
@@ -40593,8 +41377,12 @@
       <c r="BD113" s="33">
         <v>89.1</v>
       </c>
-      <c r="BE113" s="33"/>
-      <c r="BF113" s="33"/>
+      <c r="BE113" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF113" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG113" s="33"/>
       <c r="BH113" s="33"/>
       <c r="BI113" s="33"/>
@@ -40785,8 +41573,12 @@
       <c r="BD114" s="33">
         <v>89.78</v>
       </c>
-      <c r="BE114" s="33"/>
-      <c r="BF114" s="33"/>
+      <c r="BE114" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF114" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG114" s="33"/>
       <c r="BH114" s="33"/>
       <c r="BI114" s="33"/>
@@ -40977,8 +41769,12 @@
       <c r="BD115" s="33">
         <v>84.9</v>
       </c>
-      <c r="BE115" s="33"/>
-      <c r="BF115" s="33"/>
+      <c r="BE115" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF115" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG115" s="33"/>
       <c r="BH115" s="33"/>
       <c r="BI115" s="33"/>
@@ -41169,8 +41965,12 @@
       <c r="BD116" s="33">
         <v>90.89</v>
       </c>
-      <c r="BE116" s="33"/>
-      <c r="BF116" s="33"/>
+      <c r="BE116" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF116" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG116" s="33"/>
       <c r="BH116" s="33"/>
       <c r="BI116" s="33"/>
@@ -41361,8 +42161,12 @@
       <c r="BD117" s="33">
         <v>91.81</v>
       </c>
-      <c r="BE117" s="33"/>
-      <c r="BF117" s="33"/>
+      <c r="BE117" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF117" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG117" s="33"/>
       <c r="BH117" s="33"/>
       <c r="BI117" s="33"/>
@@ -41553,8 +42357,12 @@
       <c r="BD118" s="33">
         <v>92.01</v>
       </c>
-      <c r="BE118" s="33"/>
-      <c r="BF118" s="33"/>
+      <c r="BE118" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF118" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG118" s="33"/>
       <c r="BH118" s="33"/>
       <c r="BI118" s="33"/>
@@ -41745,8 +42553,12 @@
       <c r="BD119" s="33">
         <v>86.93</v>
       </c>
-      <c r="BE119" s="33"/>
-      <c r="BF119" s="33"/>
+      <c r="BE119" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF119" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG119" s="33"/>
       <c r="BH119" s="33"/>
       <c r="BI119" s="33"/>
@@ -41937,8 +42749,12 @@
       <c r="BD120" s="33">
         <v>90.13</v>
       </c>
-      <c r="BE120" s="33"/>
-      <c r="BF120" s="33"/>
+      <c r="BE120" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF120" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG120" s="33"/>
       <c r="BH120" s="33"/>
       <c r="BI120" s="33"/>
@@ -42129,8 +42945,12 @@
       <c r="BD121" s="33">
         <v>90.88</v>
       </c>
-      <c r="BE121" s="33"/>
-      <c r="BF121" s="33"/>
+      <c r="BE121" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF121" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG121" s="33"/>
       <c r="BH121" s="33"/>
       <c r="BI121" s="33"/>
@@ -42321,8 +43141,12 @@
       <c r="BD122" s="33">
         <v>90.78</v>
       </c>
-      <c r="BE122" s="33"/>
-      <c r="BF122" s="33"/>
+      <c r="BE122" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF122" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG122" s="33"/>
       <c r="BH122" s="33"/>
       <c r="BI122" s="33"/>
@@ -42513,8 +43337,12 @@
       <c r="BD123" s="33">
         <v>93.25</v>
       </c>
-      <c r="BE123" s="33"/>
-      <c r="BF123" s="33"/>
+      <c r="BE123" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF123" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG123" s="33"/>
       <c r="BH123" s="33"/>
       <c r="BI123" s="33"/>
@@ -42705,8 +43533,12 @@
       <c r="BD124" s="33">
         <v>91.67</v>
       </c>
-      <c r="BE124" s="33"/>
-      <c r="BF124" s="33"/>
+      <c r="BE124" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF124" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG124" s="33"/>
       <c r="BH124" s="33"/>
       <c r="BI124" s="33"/>
@@ -42897,8 +43729,12 @@
       <c r="BD125" s="33">
         <v>91.18</v>
       </c>
-      <c r="BE125" s="33"/>
-      <c r="BF125" s="33"/>
+      <c r="BE125" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF125" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG125" s="33"/>
       <c r="BH125" s="33"/>
       <c r="BI125" s="33"/>
@@ -43089,8 +43925,12 @@
       <c r="BD126" s="33">
         <v>91.98</v>
       </c>
-      <c r="BE126" s="33"/>
-      <c r="BF126" s="33"/>
+      <c r="BE126" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF126" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG126" s="33"/>
       <c r="BH126" s="33"/>
       <c r="BI126" s="33"/>
@@ -43281,8 +44121,12 @@
       <c r="BD127" s="33">
         <v>91.72</v>
       </c>
-      <c r="BE127" s="33"/>
-      <c r="BF127" s="33"/>
+      <c r="BE127" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF127" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG127" s="33"/>
       <c r="BH127" s="33"/>
       <c r="BI127" s="33"/>
@@ -43473,8 +44317,12 @@
       <c r="BD128" s="33">
         <v>91.68</v>
       </c>
-      <c r="BE128" s="33"/>
-      <c r="BF128" s="33"/>
+      <c r="BE128" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF128" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG128" s="33"/>
       <c r="BH128" s="33"/>
       <c r="BI128" s="33"/>
@@ -43665,8 +44513,12 @@
       <c r="BD129" s="33">
         <v>93.07</v>
       </c>
-      <c r="BE129" s="33"/>
-      <c r="BF129" s="33"/>
+      <c r="BE129" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF129" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG129" s="33"/>
       <c r="BH129" s="33"/>
       <c r="BI129" s="33"/>
@@ -43857,8 +44709,12 @@
       <c r="BD130" s="33">
         <v>94.38</v>
       </c>
-      <c r="BE130" s="33"/>
-      <c r="BF130" s="33"/>
+      <c r="BE130" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF130" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG130" s="33"/>
       <c r="BH130" s="33"/>
       <c r="BI130" s="33"/>
@@ -44049,8 +44905,12 @@
       <c r="BD131" s="33">
         <v>90.68</v>
       </c>
-      <c r="BE131" s="33"/>
-      <c r="BF131" s="33"/>
+      <c r="BE131" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF131" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG131" s="33"/>
       <c r="BH131" s="33"/>
       <c r="BI131" s="33"/>
@@ -44241,8 +45101,12 @@
       <c r="BD132" s="33">
         <v>93.13</v>
       </c>
-      <c r="BE132" s="33"/>
-      <c r="BF132" s="33"/>
+      <c r="BE132" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF132" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG132" s="33"/>
       <c r="BH132" s="33"/>
       <c r="BI132" s="33"/>
@@ -44433,8 +45297,12 @@
       <c r="BD133" s="33">
         <v>91.76</v>
       </c>
-      <c r="BE133" s="33"/>
-      <c r="BF133" s="33"/>
+      <c r="BE133" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF133" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG133" s="33"/>
       <c r="BH133" s="33"/>
       <c r="BI133" s="33"/>
@@ -44625,8 +45493,12 @@
       <c r="BD134" s="33">
         <v>91.47</v>
       </c>
-      <c r="BE134" s="33"/>
-      <c r="BF134" s="33"/>
+      <c r="BE134" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF134" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG134" s="33"/>
       <c r="BH134" s="33"/>
       <c r="BI134" s="33"/>
@@ -44817,8 +45689,12 @@
       <c r="BD135" s="33">
         <v>90.5</v>
       </c>
-      <c r="BE135" s="33"/>
-      <c r="BF135" s="33"/>
+      <c r="BE135" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF135" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG135" s="33"/>
       <c r="BH135" s="33"/>
       <c r="BI135" s="33"/>
@@ -45009,8 +45885,12 @@
       <c r="BD136" s="33">
         <v>91.25</v>
       </c>
-      <c r="BE136" s="33"/>
-      <c r="BF136" s="33"/>
+      <c r="BE136" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF136" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG136" s="33"/>
       <c r="BH136" s="33"/>
       <c r="BI136" s="33"/>
@@ -45201,8 +46081,12 @@
       <c r="BD137" s="33">
         <v>91.11</v>
       </c>
-      <c r="BE137" s="33"/>
-      <c r="BF137" s="33"/>
+      <c r="BE137" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF137" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG137" s="33"/>
       <c r="BH137" s="33"/>
       <c r="BI137" s="33"/>
@@ -45393,8 +46277,12 @@
       <c r="BD138" s="33">
         <v>90.54</v>
       </c>
-      <c r="BE138" s="33"/>
-      <c r="BF138" s="33"/>
+      <c r="BE138" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF138" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG138" s="33"/>
       <c r="BH138" s="33"/>
       <c r="BI138" s="33"/>
@@ -45585,8 +46473,12 @@
       <c r="BD139" s="33">
         <v>91.5</v>
       </c>
-      <c r="BE139" s="33"/>
-      <c r="BF139" s="33"/>
+      <c r="BE139" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF139" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG139" s="33"/>
       <c r="BH139" s="33"/>
       <c r="BI139" s="33"/>
@@ -45777,8 +46669,12 @@
       <c r="BD140" s="33">
         <v>92.49</v>
       </c>
-      <c r="BE140" s="33"/>
-      <c r="BF140" s="33"/>
+      <c r="BE140" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF140" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG140" s="33"/>
       <c r="BH140" s="33"/>
       <c r="BI140" s="33"/>
@@ -45969,8 +46865,12 @@
       <c r="BD141" s="33">
         <v>91.89</v>
       </c>
-      <c r="BE141" s="33"/>
-      <c r="BF141" s="33"/>
+      <c r="BE141" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF141" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG141" s="33"/>
       <c r="BH141" s="33"/>
       <c r="BI141" s="33"/>
@@ -46161,8 +47061,12 @@
       <c r="BD142" s="33">
         <v>92.27</v>
       </c>
-      <c r="BE142" s="33"/>
-      <c r="BF142" s="33"/>
+      <c r="BE142" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF142" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG142" s="33"/>
       <c r="BH142" s="33"/>
       <c r="BI142" s="33"/>
@@ -46353,8 +47257,12 @@
       <c r="BD143" s="33">
         <v>90.24</v>
       </c>
-      <c r="BE143" s="33"/>
-      <c r="BF143" s="33"/>
+      <c r="BE143" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF143" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG143" s="33"/>
       <c r="BH143" s="33"/>
       <c r="BI143" s="33"/>
@@ -46545,8 +47453,12 @@
       <c r="BD144" s="33">
         <v>90.08</v>
       </c>
-      <c r="BE144" s="33"/>
-      <c r="BF144" s="33"/>
+      <c r="BE144" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF144" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG144" s="33"/>
       <c r="BH144" s="33"/>
       <c r="BI144" s="33"/>
@@ -46737,8 +47649,12 @@
       <c r="BD145" s="33">
         <v>90.98</v>
       </c>
-      <c r="BE145" s="33"/>
-      <c r="BF145" s="33"/>
+      <c r="BE145" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF145" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG145" s="33"/>
       <c r="BH145" s="33"/>
       <c r="BI145" s="33"/>
@@ -46929,8 +47845,12 @@
       <c r="BD146" s="33">
         <v>91</v>
       </c>
-      <c r="BE146" s="33"/>
-      <c r="BF146" s="33"/>
+      <c r="BE146" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF146" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG146" s="33"/>
       <c r="BH146" s="33"/>
       <c r="BI146" s="33"/>
@@ -47121,8 +48041,12 @@
       <c r="BD147" s="33">
         <v>88.98</v>
       </c>
-      <c r="BE147" s="33"/>
-      <c r="BF147" s="33"/>
+      <c r="BE147" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF147" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG147" s="33"/>
       <c r="BH147" s="33"/>
       <c r="BI147" s="33"/>
@@ -47313,8 +48237,12 @@
       <c r="BD148" s="33">
         <v>91.53</v>
       </c>
-      <c r="BE148" s="33"/>
-      <c r="BF148" s="33"/>
+      <c r="BE148" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF148" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG148" s="33"/>
       <c r="BH148" s="33"/>
       <c r="BI148" s="33"/>
@@ -47505,8 +48433,12 @@
       <c r="BD149" s="33">
         <v>90.36</v>
       </c>
-      <c r="BE149" s="33"/>
-      <c r="BF149" s="33"/>
+      <c r="BE149" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF149" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG149" s="33"/>
       <c r="BH149" s="33"/>
       <c r="BI149" s="33"/>
@@ -47697,8 +48629,12 @@
       <c r="BD150" s="33">
         <v>91.56</v>
       </c>
-      <c r="BE150" s="33"/>
-      <c r="BF150" s="33"/>
+      <c r="BE150" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF150" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG150" s="33"/>
       <c r="BH150" s="33"/>
       <c r="BI150" s="33"/>
@@ -47889,8 +48825,12 @@
       <c r="BD151" s="33">
         <v>91.31</v>
       </c>
-      <c r="BE151" s="33"/>
-      <c r="BF151" s="33"/>
+      <c r="BE151" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF151" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG151" s="33"/>
       <c r="BH151" s="33"/>
       <c r="BI151" s="33"/>
@@ -48081,8 +49021,12 @@
       <c r="BD152" s="33">
         <v>91.35</v>
       </c>
-      <c r="BE152" s="33"/>
-      <c r="BF152" s="33"/>
+      <c r="BE152" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF152" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG152" s="33"/>
       <c r="BH152" s="33"/>
       <c r="BI152" s="33"/>
@@ -48273,8 +49217,12 @@
       <c r="BD153" s="33">
         <v>92.04</v>
       </c>
-      <c r="BE153" s="33"/>
-      <c r="BF153" s="33"/>
+      <c r="BE153" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF153" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG153" s="33"/>
       <c r="BH153" s="33"/>
       <c r="BI153" s="33"/>
@@ -48465,8 +49413,12 @@
       <c r="BD154" s="33">
         <v>89.84</v>
       </c>
-      <c r="BE154" s="33"/>
-      <c r="BF154" s="33"/>
+      <c r="BE154" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF154" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG154" s="33"/>
       <c r="BH154" s="33"/>
       <c r="BI154" s="33"/>
@@ -48657,8 +49609,12 @@
       <c r="BD155" s="33">
         <v>91.33</v>
       </c>
-      <c r="BE155" s="33"/>
-      <c r="BF155" s="33"/>
+      <c r="BE155" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF155" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG155" s="33"/>
       <c r="BH155" s="33"/>
       <c r="BI155" s="33"/>
@@ -48849,8 +49805,12 @@
       <c r="BD156" s="33">
         <v>89.6</v>
       </c>
-      <c r="BE156" s="33"/>
-      <c r="BF156" s="33"/>
+      <c r="BE156" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF156" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG156" s="33"/>
       <c r="BH156" s="33"/>
       <c r="BI156" s="33"/>
@@ -49041,8 +50001,12 @@
       <c r="BD157" s="33">
         <v>85.3</v>
       </c>
-      <c r="BE157" s="33"/>
-      <c r="BF157" s="33"/>
+      <c r="BE157" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF157" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG157" s="33"/>
       <c r="BH157" s="33"/>
       <c r="BI157" s="33"/>
@@ -49233,8 +50197,12 @@
       <c r="BD158" s="33">
         <v>91.59</v>
       </c>
-      <c r="BE158" s="33"/>
-      <c r="BF158" s="33"/>
+      <c r="BE158" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF158" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG158" s="33"/>
       <c r="BH158" s="33"/>
       <c r="BI158" s="33"/>
@@ -49425,8 +50393,12 @@
       <c r="BD159" s="33">
         <v>92.25</v>
       </c>
-      <c r="BE159" s="33"/>
-      <c r="BF159" s="33"/>
+      <c r="BE159" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF159" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG159" s="33"/>
       <c r="BH159" s="33"/>
       <c r="BI159" s="33"/>
@@ -49617,8 +50589,12 @@
       <c r="BD160" s="33">
         <v>93.63</v>
       </c>
-      <c r="BE160" s="33"/>
-      <c r="BF160" s="33"/>
+      <c r="BE160" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF160" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG160" s="33"/>
       <c r="BH160" s="33"/>
       <c r="BI160" s="33"/>
@@ -49809,8 +50785,12 @@
       <c r="BD161" s="33">
         <v>91.18</v>
       </c>
-      <c r="BE161" s="33"/>
-      <c r="BF161" s="33"/>
+      <c r="BE161" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF161" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG161" s="33"/>
       <c r="BH161" s="33"/>
       <c r="BI161" s="33"/>
@@ -50001,8 +50981,12 @@
       <c r="BD162" s="33">
         <v>92.27</v>
       </c>
-      <c r="BE162" s="33"/>
-      <c r="BF162" s="33"/>
+      <c r="BE162" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF162" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG162" s="33"/>
       <c r="BH162" s="33"/>
       <c r="BI162" s="33"/>
@@ -50193,8 +51177,12 @@
       <c r="BD163" s="33">
         <v>91.8</v>
       </c>
-      <c r="BE163" s="33"/>
-      <c r="BF163" s="33"/>
+      <c r="BE163" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF163" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG163" s="33"/>
       <c r="BH163" s="33"/>
       <c r="BI163" s="33"/>
@@ -50385,8 +51373,12 @@
       <c r="BD164" s="33">
         <v>91.72</v>
       </c>
-      <c r="BE164" s="33"/>
-      <c r="BF164" s="33"/>
+      <c r="BE164" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF164" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG164" s="33"/>
       <c r="BH164" s="33"/>
       <c r="BI164" s="33"/>
@@ -50577,8 +51569,12 @@
       <c r="BD165" s="33">
         <v>92.57</v>
       </c>
-      <c r="BE165" s="33"/>
-      <c r="BF165" s="33"/>
+      <c r="BE165" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF165" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG165" s="33"/>
       <c r="BH165" s="33"/>
       <c r="BI165" s="33"/>
@@ -50769,8 +51765,12 @@
       <c r="BD166" s="33">
         <v>91.89</v>
       </c>
-      <c r="BE166" s="33"/>
-      <c r="BF166" s="33"/>
+      <c r="BE166" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF166" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG166" s="33"/>
       <c r="BH166" s="33"/>
       <c r="BI166" s="33"/>
@@ -50961,8 +51961,12 @@
       <c r="BD167" s="33">
         <v>92.31</v>
       </c>
-      <c r="BE167" s="33"/>
-      <c r="BF167" s="33"/>
+      <c r="BE167" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF167" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG167" s="33"/>
       <c r="BH167" s="33"/>
       <c r="BI167" s="33"/>
@@ -51153,8 +52157,12 @@
       <c r="BD168" s="33">
         <v>92.96</v>
       </c>
-      <c r="BE168" s="33"/>
-      <c r="BF168" s="33"/>
+      <c r="BE168" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF168" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG168" s="33"/>
       <c r="BH168" s="33"/>
       <c r="BI168" s="33"/>
@@ -51345,8 +52353,12 @@
       <c r="BD169" s="33">
         <v>93.08</v>
       </c>
-      <c r="BE169" s="33"/>
-      <c r="BF169" s="33"/>
+      <c r="BE169" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF169" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG169" s="33"/>
       <c r="BH169" s="33"/>
       <c r="BI169" s="33"/>
@@ -51537,8 +52549,12 @@
       <c r="BD170" s="33">
         <v>92.94</v>
       </c>
-      <c r="BE170" s="33"/>
-      <c r="BF170" s="33"/>
+      <c r="BE170" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF170" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG170" s="33"/>
       <c r="BH170" s="33"/>
       <c r="BI170" s="33"/>
@@ -51729,8 +52745,12 @@
       <c r="BD171" s="33">
         <v>92.11</v>
       </c>
-      <c r="BE171" s="33"/>
-      <c r="BF171" s="33"/>
+      <c r="BE171" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF171" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG171" s="33"/>
       <c r="BH171" s="33"/>
       <c r="BI171" s="33"/>
@@ -51921,8 +52941,12 @@
       <c r="BD172" s="33">
         <v>92.67</v>
       </c>
-      <c r="BE172" s="33"/>
-      <c r="BF172" s="33"/>
+      <c r="BE172" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF172" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG172" s="33"/>
       <c r="BH172" s="33"/>
       <c r="BI172" s="33"/>
@@ -52113,8 +53137,12 @@
       <c r="BD173" s="33">
         <v>92.56</v>
       </c>
-      <c r="BE173" s="33"/>
-      <c r="BF173" s="33"/>
+      <c r="BE173" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF173" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG173" s="33"/>
       <c r="BH173" s="33"/>
       <c r="BI173" s="33"/>
@@ -52305,8 +53333,12 @@
       <c r="BD174" s="33">
         <v>92.91</v>
       </c>
-      <c r="BE174" s="33"/>
-      <c r="BF174" s="33"/>
+      <c r="BE174" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF174" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG174" s="33"/>
       <c r="BH174" s="33"/>
       <c r="BI174" s="33"/>
@@ -52497,8 +53529,12 @@
       <c r="BD175" s="33">
         <v>93.03</v>
       </c>
-      <c r="BE175" s="33"/>
-      <c r="BF175" s="33"/>
+      <c r="BE175" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF175" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG175" s="33"/>
       <c r="BH175" s="33"/>
       <c r="BI175" s="33"/>
@@ -52689,8 +53725,12 @@
       <c r="BD176" s="33">
         <v>92.53</v>
       </c>
-      <c r="BE176" s="33"/>
-      <c r="BF176" s="33"/>
+      <c r="BE176" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF176" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG176" s="33"/>
       <c r="BH176" s="33"/>
       <c r="BI176" s="33"/>
@@ -52881,8 +53921,12 @@
       <c r="BD177" s="33">
         <v>90.63</v>
       </c>
-      <c r="BE177" s="33"/>
-      <c r="BF177" s="33"/>
+      <c r="BE177" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF177" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG177" s="33"/>
       <c r="BH177" s="33"/>
       <c r="BI177" s="33"/>
@@ -53073,8 +54117,12 @@
       <c r="BD178" s="33">
         <v>93.22</v>
       </c>
-      <c r="BE178" s="33"/>
-      <c r="BF178" s="33"/>
+      <c r="BE178" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF178" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG178" s="33"/>
       <c r="BH178" s="33"/>
       <c r="BI178" s="33"/>
@@ -53265,8 +54313,12 @@
       <c r="BD179" s="33">
         <v>94.07</v>
       </c>
-      <c r="BE179" s="33"/>
-      <c r="BF179" s="33"/>
+      <c r="BE179" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF179" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG179" s="33"/>
       <c r="BH179" s="33"/>
       <c r="BI179" s="33"/>
@@ -53457,8 +54509,12 @@
       <c r="BD180" s="33">
         <v>92.69</v>
       </c>
-      <c r="BE180" s="33"/>
-      <c r="BF180" s="33"/>
+      <c r="BE180" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF180" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG180" s="33"/>
       <c r="BH180" s="33"/>
       <c r="BI180" s="33"/>
@@ -53649,8 +54705,12 @@
       <c r="BD181" s="33">
         <v>93.22</v>
       </c>
-      <c r="BE181" s="33"/>
-      <c r="BF181" s="33"/>
+      <c r="BE181" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF181" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG181" s="33"/>
       <c r="BH181" s="33"/>
       <c r="BI181" s="33"/>
@@ -53841,8 +54901,12 @@
       <c r="BD182" s="33">
         <v>90.67</v>
       </c>
-      <c r="BE182" s="33"/>
-      <c r="BF182" s="33"/>
+      <c r="BE182" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF182" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG182" s="33"/>
       <c r="BH182" s="33"/>
       <c r="BI182" s="33"/>
@@ -54033,8 +55097,12 @@
       <c r="BD183" s="33">
         <v>91.82</v>
       </c>
-      <c r="BE183" s="33"/>
-      <c r="BF183" s="33"/>
+      <c r="BE183" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF183" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG183" s="33"/>
       <c r="BH183" s="33"/>
       <c r="BI183" s="33"/>
@@ -54225,8 +55293,12 @@
       <c r="BD184" s="33">
         <v>92.58</v>
       </c>
-      <c r="BE184" s="33"/>
-      <c r="BF184" s="33"/>
+      <c r="BE184" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF184" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG184" s="33"/>
       <c r="BH184" s="33"/>
       <c r="BI184" s="33"/>
@@ -54417,8 +55489,12 @@
       <c r="BD185" s="33">
         <v>92.6</v>
       </c>
-      <c r="BE185" s="33"/>
-      <c r="BF185" s="33"/>
+      <c r="BE185" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF185" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG185" s="33"/>
       <c r="BH185" s="33"/>
       <c r="BI185" s="33"/>
@@ -54609,8 +55685,12 @@
       <c r="BD186" s="33">
         <v>90.85</v>
       </c>
-      <c r="BE186" s="33"/>
-      <c r="BF186" s="33"/>
+      <c r="BE186" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF186" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG186" s="33"/>
       <c r="BH186" s="33"/>
       <c r="BI186" s="33"/>
@@ -54801,8 +55881,12 @@
       <c r="BD187" s="33">
         <v>90.29</v>
       </c>
-      <c r="BE187" s="33"/>
-      <c r="BF187" s="33"/>
+      <c r="BE187" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF187" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG187" s="33"/>
       <c r="BH187" s="33"/>
       <c r="BI187" s="33"/>
@@ -54993,8 +56077,12 @@
       <c r="BD188" s="33">
         <v>87.92</v>
       </c>
-      <c r="BE188" s="33"/>
-      <c r="BF188" s="33"/>
+      <c r="BE188" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF188" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG188" s="33"/>
       <c r="BH188" s="33"/>
       <c r="BI188" s="33"/>
@@ -55185,8 +56273,12 @@
       <c r="BD189" s="33">
         <v>93.93</v>
       </c>
-      <c r="BE189" s="33"/>
-      <c r="BF189" s="33"/>
+      <c r="BE189" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF189" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG189" s="33"/>
       <c r="BH189" s="33"/>
       <c r="BI189" s="33"/>
@@ -55377,8 +56469,12 @@
       <c r="BD190" s="33">
         <v>90.29</v>
       </c>
-      <c r="BE190" s="33"/>
-      <c r="BF190" s="33"/>
+      <c r="BE190" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF190" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG190" s="33"/>
       <c r="BH190" s="33"/>
       <c r="BI190" s="33"/>
@@ -55569,8 +56665,12 @@
       <c r="BD191" s="33">
         <v>88.61</v>
       </c>
-      <c r="BE191" s="33"/>
-      <c r="BF191" s="33"/>
+      <c r="BE191" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF191" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG191" s="33"/>
       <c r="BH191" s="33"/>
       <c r="BI191" s="33"/>
@@ -55761,8 +56861,12 @@
       <c r="BD192" s="33">
         <v>90.11</v>
       </c>
-      <c r="BE192" s="33"/>
-      <c r="BF192" s="33"/>
+      <c r="BE192" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF192" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG192" s="33"/>
       <c r="BH192" s="33"/>
       <c r="BI192" s="33"/>
@@ -55953,8 +57057,12 @@
       <c r="BD193" s="33">
         <v>90.97</v>
       </c>
-      <c r="BE193" s="33"/>
-      <c r="BF193" s="33"/>
+      <c r="BE193" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF193" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG193" s="33"/>
       <c r="BH193" s="33"/>
       <c r="BI193" s="33"/>
@@ -56145,8 +57253,12 @@
       <c r="BD194" s="33">
         <v>91.45</v>
       </c>
-      <c r="BE194" s="33"/>
-      <c r="BF194" s="33"/>
+      <c r="BE194" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF194" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG194" s="33"/>
       <c r="BH194" s="33"/>
       <c r="BI194" s="33"/>
@@ -56337,8 +57449,12 @@
       <c r="BD195" s="33">
         <v>91.7</v>
       </c>
-      <c r="BE195" s="33"/>
-      <c r="BF195" s="33"/>
+      <c r="BE195" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF195" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG195" s="33"/>
       <c r="BH195" s="33"/>
       <c r="BI195" s="33"/>
@@ -56529,8 +57645,12 @@
       <c r="BD196" s="33">
         <v>89.25</v>
       </c>
-      <c r="BE196" s="33"/>
-      <c r="BF196" s="33"/>
+      <c r="BE196" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF196" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG196" s="33"/>
       <c r="BH196" s="33"/>
       <c r="BI196" s="33"/>
@@ -56721,8 +57841,12 @@
       <c r="BD197" s="33">
         <v>91.47</v>
       </c>
-      <c r="BE197" s="33"/>
-      <c r="BF197" s="33"/>
+      <c r="BE197" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF197" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG197" s="33"/>
       <c r="BH197" s="33"/>
       <c r="BI197" s="33"/>
@@ -56913,8 +58037,12 @@
       <c r="BD198" s="33">
         <v>89.66</v>
       </c>
-      <c r="BE198" s="33"/>
-      <c r="BF198" s="33"/>
+      <c r="BE198" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF198" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG198" s="33"/>
       <c r="BH198" s="33"/>
       <c r="BI198" s="33"/>
@@ -57105,8 +58233,12 @@
       <c r="BD199" s="33">
         <v>89.92</v>
       </c>
-      <c r="BE199" s="33"/>
-      <c r="BF199" s="33"/>
+      <c r="BE199" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF199" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG199" s="33"/>
       <c r="BH199" s="33"/>
       <c r="BI199" s="33"/>
@@ -57297,8 +58429,12 @@
       <c r="BD200" s="33">
         <v>89.96</v>
       </c>
-      <c r="BE200" s="33"/>
-      <c r="BF200" s="33"/>
+      <c r="BE200" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF200" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG200" s="33"/>
       <c r="BH200" s="33"/>
       <c r="BI200" s="33"/>
@@ -57489,8 +58625,12 @@
       <c r="BD201" s="33">
         <v>88.06</v>
       </c>
-      <c r="BE201" s="33"/>
-      <c r="BF201" s="33"/>
+      <c r="BE201" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF201" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG201" s="33"/>
       <c r="BH201" s="33"/>
       <c r="BI201" s="33"/>
@@ -57681,8 +58821,12 @@
       <c r="BD202" s="33">
         <v>90.89</v>
       </c>
-      <c r="BE202" s="33"/>
-      <c r="BF202" s="33"/>
+      <c r="BE202" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF202" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG202" s="33"/>
       <c r="BH202" s="33"/>
       <c r="BI202" s="33"/>
@@ -57873,8 +59017,12 @@
       <c r="BD203" s="33">
         <v>90.57</v>
       </c>
-      <c r="BE203" s="33"/>
-      <c r="BF203" s="33"/>
+      <c r="BE203" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF203" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG203" s="33"/>
       <c r="BH203" s="33"/>
       <c r="BI203" s="33"/>
@@ -58065,8 +59213,12 @@
       <c r="BD204" s="33">
         <v>89.81</v>
       </c>
-      <c r="BE204" s="33"/>
-      <c r="BF204" s="33"/>
+      <c r="BE204" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF204" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG204" s="33"/>
       <c r="BH204" s="33"/>
       <c r="BI204" s="33"/>
@@ -58257,8 +59409,12 @@
       <c r="BD205" s="33">
         <v>91.73</v>
       </c>
-      <c r="BE205" s="33"/>
-      <c r="BF205" s="33"/>
+      <c r="BE205" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF205" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG205" s="33"/>
       <c r="BH205" s="33"/>
       <c r="BI205" s="33"/>
@@ -58449,8 +59605,12 @@
       <c r="BD206" s="33">
         <v>90.3</v>
       </c>
-      <c r="BE206" s="33"/>
-      <c r="BF206" s="33"/>
+      <c r="BE206" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF206" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG206" s="33"/>
       <c r="BH206" s="33"/>
       <c r="BI206" s="33"/>
@@ -58641,8 +59801,12 @@
       <c r="BD207" s="33">
         <v>89.17</v>
       </c>
-      <c r="BE207" s="33"/>
-      <c r="BF207" s="33"/>
+      <c r="BE207" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF207" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG207" s="33"/>
       <c r="BH207" s="33"/>
       <c r="BI207" s="33"/>
@@ -58833,8 +59997,12 @@
       <c r="BD208" s="33">
         <v>91.86</v>
       </c>
-      <c r="BE208" s="33"/>
-      <c r="BF208" s="33"/>
+      <c r="BE208" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF208" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG208" s="33"/>
       <c r="BH208" s="33"/>
       <c r="BI208" s="33"/>
@@ -59025,8 +60193,12 @@
       <c r="BD209" s="33">
         <v>91.79</v>
       </c>
-      <c r="BE209" s="33"/>
-      <c r="BF209" s="33"/>
+      <c r="BE209" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF209" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG209" s="33"/>
       <c r="BH209" s="33"/>
       <c r="BI209" s="33"/>
@@ -59217,8 +60389,12 @@
       <c r="BD210" s="33">
         <v>92.42</v>
       </c>
-      <c r="BE210" s="33"/>
-      <c r="BF210" s="33"/>
+      <c r="BE210" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF210" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG210" s="33"/>
       <c r="BH210" s="33"/>
       <c r="BI210" s="33"/>
@@ -59409,8 +60585,12 @@
       <c r="BD211" s="33">
         <v>93.05</v>
       </c>
-      <c r="BE211" s="33"/>
-      <c r="BF211" s="33"/>
+      <c r="BE211" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF211" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG211" s="33"/>
       <c r="BH211" s="33"/>
       <c r="BI211" s="33"/>
@@ -59601,8 +60781,12 @@
       <c r="BD212" s="33">
         <v>89.56</v>
       </c>
-      <c r="BE212" s="33"/>
-      <c r="BF212" s="33"/>
+      <c r="BE212" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF212" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG212" s="33"/>
       <c r="BH212" s="33"/>
       <c r="BI212" s="33"/>
@@ -59793,8 +60977,12 @@
       <c r="BD213" s="33">
         <v>89.18</v>
       </c>
-      <c r="BE213" s="33"/>
-      <c r="BF213" s="33"/>
+      <c r="BE213" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF213" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG213" s="33"/>
       <c r="BH213" s="33"/>
       <c r="BI213" s="33"/>
@@ -59985,8 +61173,12 @@
       <c r="BD214" s="33">
         <v>91.33</v>
       </c>
-      <c r="BE214" s="33"/>
-      <c r="BF214" s="33"/>
+      <c r="BE214" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF214" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG214" s="33"/>
       <c r="BH214" s="33"/>
       <c r="BI214" s="33"/>
@@ -60177,8 +61369,12 @@
       <c r="BD215" s="33">
         <v>91.02</v>
       </c>
-      <c r="BE215" s="33"/>
-      <c r="BF215" s="33"/>
+      <c r="BE215" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF215" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG215" s="33"/>
       <c r="BH215" s="33"/>
       <c r="BI215" s="33"/>
@@ -60369,8 +61565,12 @@
       <c r="BD216" s="33">
         <v>90.74</v>
       </c>
-      <c r="BE216" s="33"/>
-      <c r="BF216" s="33"/>
+      <c r="BE216" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF216" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG216" s="33"/>
       <c r="BH216" s="33"/>
       <c r="BI216" s="33"/>
@@ -60561,8 +61761,12 @@
       <c r="BD217" s="33">
         <v>91.78</v>
       </c>
-      <c r="BE217" s="33"/>
-      <c r="BF217" s="33"/>
+      <c r="BE217" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF217" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG217" s="33"/>
       <c r="BH217" s="33"/>
       <c r="BI217" s="33"/>
@@ -60753,8 +61957,12 @@
       <c r="BD218" s="33">
         <v>88.19</v>
       </c>
-      <c r="BE218" s="33"/>
-      <c r="BF218" s="33"/>
+      <c r="BE218" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF218" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG218" s="33"/>
       <c r="BH218" s="33"/>
       <c r="BI218" s="33"/>
@@ -60945,8 +62153,12 @@
       <c r="BD219" s="33">
         <v>89.36</v>
       </c>
-      <c r="BE219" s="33"/>
-      <c r="BF219" s="33"/>
+      <c r="BE219" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF219" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG219" s="33"/>
       <c r="BH219" s="33"/>
       <c r="BI219" s="33"/>
@@ -61137,8 +62349,12 @@
       <c r="BD220" s="33">
         <v>88.03</v>
       </c>
-      <c r="BE220" s="33"/>
-      <c r="BF220" s="33"/>
+      <c r="BE220" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF220" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG220" s="33"/>
       <c r="BH220" s="33"/>
       <c r="BI220" s="33"/>
@@ -61329,8 +62545,12 @@
       <c r="BD221" s="33">
         <v>90.55</v>
       </c>
-      <c r="BE221" s="33"/>
-      <c r="BF221" s="33"/>
+      <c r="BE221" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF221" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG221" s="33"/>
       <c r="BH221" s="33"/>
       <c r="BI221" s="33"/>
@@ -61521,8 +62741,12 @@
       <c r="BD222" s="33">
         <v>89.93</v>
       </c>
-      <c r="BE222" s="33"/>
-      <c r="BF222" s="33"/>
+      <c r="BE222" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF222" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG222" s="33"/>
       <c r="BH222" s="33"/>
       <c r="BI222" s="33"/>
@@ -61713,8 +62937,12 @@
       <c r="BD223" s="33">
         <v>83.14</v>
       </c>
-      <c r="BE223" s="33"/>
-      <c r="BF223" s="33"/>
+      <c r="BE223" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF223" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG223" s="33"/>
       <c r="BH223" s="33"/>
       <c r="BI223" s="33"/>
@@ -61905,8 +63133,12 @@
       <c r="BD224" s="33">
         <v>90.82</v>
       </c>
-      <c r="BE224" s="33"/>
-      <c r="BF224" s="33"/>
+      <c r="BE224" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF224" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG224" s="33"/>
       <c r="BH224" s="33"/>
       <c r="BI224" s="33"/>
@@ -62097,8 +63329,12 @@
       <c r="BD225" s="33">
         <v>90.72</v>
       </c>
-      <c r="BE225" s="33"/>
-      <c r="BF225" s="33"/>
+      <c r="BE225" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF225" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG225" s="33"/>
       <c r="BH225" s="33"/>
       <c r="BI225" s="33"/>
@@ -62289,8 +63525,12 @@
       <c r="BD226" s="33">
         <v>93.36</v>
       </c>
-      <c r="BE226" s="33"/>
-      <c r="BF226" s="33"/>
+      <c r="BE226" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF226" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG226" s="33"/>
       <c r="BH226" s="33"/>
       <c r="BI226" s="33"/>
@@ -62481,8 +63721,12 @@
       <c r="BD227" s="33">
         <v>92.61</v>
       </c>
-      <c r="BE227" s="33"/>
-      <c r="BF227" s="33"/>
+      <c r="BE227" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF227" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG227" s="33"/>
       <c r="BH227" s="33"/>
       <c r="BI227" s="33"/>
@@ -62673,8 +63917,12 @@
       <c r="BD228" s="33">
         <v>92.73</v>
       </c>
-      <c r="BE228" s="33"/>
-      <c r="BF228" s="33"/>
+      <c r="BE228" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF228" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG228" s="33"/>
       <c r="BH228" s="33"/>
       <c r="BI228" s="33"/>
@@ -62865,8 +64113,12 @@
       <c r="BD229" s="33">
         <v>91.72</v>
       </c>
-      <c r="BE229" s="33"/>
-      <c r="BF229" s="33"/>
+      <c r="BE229" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF229" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG229" s="33"/>
       <c r="BH229" s="33"/>
       <c r="BI229" s="33"/>
@@ -63057,8 +64309,12 @@
       <c r="BD230" s="33">
         <v>91.24</v>
       </c>
-      <c r="BE230" s="33"/>
-      <c r="BF230" s="33"/>
+      <c r="BE230" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF230" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG230" s="33"/>
       <c r="BH230" s="33"/>
       <c r="BI230" s="33"/>
@@ -63249,8 +64505,12 @@
       <c r="BD231" s="33">
         <v>87.41</v>
       </c>
-      <c r="BE231" s="33"/>
-      <c r="BF231" s="33"/>
+      <c r="BE231" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF231" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG231" s="33"/>
       <c r="BH231" s="33"/>
       <c r="BI231" s="33"/>
@@ -63441,8 +64701,12 @@
       <c r="BD232" s="33">
         <v>90.98</v>
       </c>
-      <c r="BE232" s="33"/>
-      <c r="BF232" s="33"/>
+      <c r="BE232" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF232" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG232" s="33"/>
       <c r="BH232" s="33"/>
       <c r="BI232" s="33"/>
@@ -63633,8 +64897,12 @@
       <c r="BD233" s="33">
         <v>90.27</v>
       </c>
-      <c r="BE233" s="33"/>
-      <c r="BF233" s="33"/>
+      <c r="BE233" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF233" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG233" s="33"/>
       <c r="BH233" s="33"/>
       <c r="BI233" s="33"/>
@@ -63825,8 +65093,12 @@
       <c r="BD234" s="33">
         <v>88.84</v>
       </c>
-      <c r="BE234" s="33"/>
-      <c r="BF234" s="33"/>
+      <c r="BE234" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF234" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG234" s="33"/>
       <c r="BH234" s="33"/>
       <c r="BI234" s="33"/>
@@ -64017,8 +65289,12 @@
       <c r="BD235" s="33">
         <v>89.66</v>
       </c>
-      <c r="BE235" s="33"/>
-      <c r="BF235" s="33"/>
+      <c r="BE235" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF235" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG235" s="33"/>
       <c r="BH235" s="33"/>
       <c r="BI235" s="33"/>
@@ -64209,8 +65485,12 @@
       <c r="BD236" s="33">
         <v>89.25</v>
       </c>
-      <c r="BE236" s="33"/>
-      <c r="BF236" s="33"/>
+      <c r="BE236" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF236" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG236" s="33"/>
       <c r="BH236" s="33"/>
       <c r="BI236" s="33"/>
@@ -64401,8 +65681,12 @@
       <c r="BD237" s="33">
         <v>88.91</v>
       </c>
-      <c r="BE237" s="33"/>
-      <c r="BF237" s="33"/>
+      <c r="BE237" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF237" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG237" s="33"/>
       <c r="BH237" s="33"/>
       <c r="BI237" s="33"/>
@@ -64593,8 +65877,12 @@
       <c r="BD238" s="33">
         <v>88.68</v>
       </c>
-      <c r="BE238" s="33"/>
-      <c r="BF238" s="33"/>
+      <c r="BE238" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF238" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG238" s="33"/>
       <c r="BH238" s="33"/>
       <c r="BI238" s="33"/>
@@ -64785,8 +66073,12 @@
       <c r="BD239" s="33">
         <v>92.81</v>
       </c>
-      <c r="BE239" s="33"/>
-      <c r="BF239" s="33"/>
+      <c r="BE239" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF239" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG239" s="33"/>
       <c r="BH239" s="33"/>
       <c r="BI239" s="33"/>
@@ -64977,8 +66269,12 @@
       <c r="BD240" s="33">
         <v>88.36</v>
       </c>
-      <c r="BE240" s="33"/>
-      <c r="BF240" s="33"/>
+      <c r="BE240" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF240" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG240" s="33"/>
       <c r="BH240" s="33"/>
       <c r="BI240" s="33"/>
@@ -65169,8 +66465,12 @@
       <c r="BD241" s="33">
         <v>90.64</v>
       </c>
-      <c r="BE241" s="33"/>
-      <c r="BF241" s="33"/>
+      <c r="BE241" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF241" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG241" s="33"/>
       <c r="BH241" s="33"/>
       <c r="BI241" s="33"/>
@@ -65361,8 +66661,12 @@
       <c r="BD242" s="33">
         <v>91.68</v>
       </c>
-      <c r="BE242" s="33"/>
-      <c r="BF242" s="33"/>
+      <c r="BE242" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF242" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG242" s="33"/>
       <c r="BH242" s="33"/>
       <c r="BI242" s="33"/>
@@ -65553,8 +66857,12 @@
       <c r="BD243" s="33">
         <v>88.5</v>
       </c>
-      <c r="BE243" s="33"/>
-      <c r="BF243" s="33"/>
+      <c r="BE243" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF243" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG243" s="33"/>
       <c r="BH243" s="33"/>
       <c r="BI243" s="33"/>
@@ -65745,8 +67053,12 @@
       <c r="BD244" s="33">
         <v>88.6</v>
       </c>
-      <c r="BE244" s="33"/>
-      <c r="BF244" s="33"/>
+      <c r="BE244" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF244" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG244" s="33"/>
       <c r="BH244" s="33"/>
       <c r="BI244" s="33"/>
@@ -65937,8 +67249,12 @@
       <c r="BD245" s="33">
         <v>91.81</v>
       </c>
-      <c r="BE245" s="33"/>
-      <c r="BF245" s="33"/>
+      <c r="BE245" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF245" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG245" s="33"/>
       <c r="BH245" s="33"/>
       <c r="BI245" s="33"/>
@@ -66129,8 +67445,12 @@
       <c r="BD246" s="33">
         <v>89.37</v>
       </c>
-      <c r="BE246" s="33"/>
-      <c r="BF246" s="33"/>
+      <c r="BE246" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF246" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG246" s="33"/>
       <c r="BH246" s="33"/>
       <c r="BI246" s="33"/>
@@ -66321,8 +67641,12 @@
       <c r="BD247" s="33">
         <v>91.15</v>
       </c>
-      <c r="BE247" s="33"/>
-      <c r="BF247" s="33"/>
+      <c r="BE247" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF247" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG247" s="33"/>
       <c r="BH247" s="33"/>
       <c r="BI247" s="33"/>
@@ -66513,8 +67837,12 @@
       <c r="BD248" s="33">
         <v>94.05</v>
       </c>
-      <c r="BE248" s="33"/>
-      <c r="BF248" s="33"/>
+      <c r="BE248" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF248" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG248" s="33"/>
       <c r="BH248" s="33"/>
       <c r="BI248" s="33"/>
@@ -66705,8 +68033,12 @@
       <c r="BD249" s="33">
         <v>94.92</v>
       </c>
-      <c r="BE249" s="33"/>
-      <c r="BF249" s="33"/>
+      <c r="BE249" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF249" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG249" s="33"/>
       <c r="BH249" s="33"/>
       <c r="BI249" s="33"/>
@@ -66897,8 +68229,12 @@
       <c r="BD250" s="33">
         <v>94.05</v>
       </c>
-      <c r="BE250" s="33"/>
-      <c r="BF250" s="33"/>
+      <c r="BE250" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF250" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG250" s="33"/>
       <c r="BH250" s="33"/>
       <c r="BI250" s="33"/>
@@ -67089,8 +68425,12 @@
       <c r="BD251" s="33">
         <v>94</v>
       </c>
-      <c r="BE251" s="33"/>
-      <c r="BF251" s="33"/>
+      <c r="BE251" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF251" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG251" s="33"/>
       <c r="BH251" s="33"/>
       <c r="BI251" s="33"/>
@@ -67281,8 +68621,12 @@
       <c r="BD252" s="33">
         <v>94.42</v>
       </c>
-      <c r="BE252" s="33"/>
-      <c r="BF252" s="33"/>
+      <c r="BE252" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF252" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG252" s="33"/>
       <c r="BH252" s="33"/>
       <c r="BI252" s="33"/>
@@ -67473,8 +68817,12 @@
       <c r="BD253" s="33">
         <v>95.28</v>
       </c>
-      <c r="BE253" s="33"/>
-      <c r="BF253" s="33"/>
+      <c r="BE253" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF253" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG253" s="33"/>
       <c r="BH253" s="33"/>
       <c r="BI253" s="33"/>
@@ -67665,8 +69013,12 @@
       <c r="BD254" s="33">
         <v>93.01</v>
       </c>
-      <c r="BE254" s="33"/>
-      <c r="BF254" s="33"/>
+      <c r="BE254" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF254" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG254" s="33"/>
       <c r="BH254" s="33"/>
       <c r="BI254" s="33"/>
@@ -67857,8 +69209,12 @@
       <c r="BD255" s="33">
         <v>93.32</v>
       </c>
-      <c r="BE255" s="33"/>
-      <c r="BF255" s="33"/>
+      <c r="BE255" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF255" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG255" s="33"/>
       <c r="BH255" s="33"/>
       <c r="BI255" s="33"/>
@@ -68049,8 +69405,12 @@
       <c r="BD256" s="33">
         <v>94.16</v>
       </c>
-      <c r="BE256" s="33"/>
-      <c r="BF256" s="33"/>
+      <c r="BE256" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF256" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG256" s="33"/>
       <c r="BH256" s="33"/>
       <c r="BI256" s="33"/>
@@ -68241,8 +69601,12 @@
       <c r="BD257" s="33">
         <v>93.36</v>
       </c>
-      <c r="BE257" s="33"/>
-      <c r="BF257" s="33"/>
+      <c r="BE257" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF257" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG257" s="33"/>
       <c r="BH257" s="33"/>
       <c r="BI257" s="33"/>
@@ -68433,8 +69797,12 @@
       <c r="BD258" s="33">
         <v>94.57</v>
       </c>
-      <c r="BE258" s="33"/>
-      <c r="BF258" s="33"/>
+      <c r="BE258" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF258" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG258" s="33"/>
       <c r="BH258" s="33"/>
       <c r="BI258" s="33"/>
@@ -68625,8 +69993,12 @@
       <c r="BD259" s="33">
         <v>93.81</v>
       </c>
-      <c r="BE259" s="33"/>
-      <c r="BF259" s="33"/>
+      <c r="BE259" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF259" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG259" s="33"/>
       <c r="BH259" s="33"/>
       <c r="BI259" s="33"/>
@@ -68817,8 +70189,12 @@
       <c r="BD260" s="33">
         <v>94.98</v>
       </c>
-      <c r="BE260" s="33"/>
-      <c r="BF260" s="33"/>
+      <c r="BE260" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF260" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG260" s="33"/>
       <c r="BH260" s="33"/>
       <c r="BI260" s="33"/>
@@ -69009,8 +70385,12 @@
       <c r="BD261" s="33">
         <v>94.99</v>
       </c>
-      <c r="BE261" s="33"/>
-      <c r="BF261" s="33"/>
+      <c r="BE261" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF261" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG261" s="33"/>
       <c r="BH261" s="33"/>
       <c r="BI261" s="33"/>
@@ -69201,8 +70581,12 @@
       <c r="BD262" s="33">
         <v>93.48</v>
       </c>
-      <c r="BE262" s="33"/>
-      <c r="BF262" s="33"/>
+      <c r="BE262" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF262" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG262" s="33"/>
       <c r="BH262" s="33"/>
       <c r="BI262" s="33"/>
@@ -69393,8 +70777,12 @@
       <c r="BD263" s="33">
         <v>93.77</v>
       </c>
-      <c r="BE263" s="33"/>
-      <c r="BF263" s="33"/>
+      <c r="BE263" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF263" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG263" s="33"/>
       <c r="BH263" s="33"/>
       <c r="BI263" s="33"/>
@@ -69585,8 +70973,12 @@
       <c r="BD264" s="33">
         <v>93.25</v>
       </c>
-      <c r="BE264" s="33"/>
-      <c r="BF264" s="33"/>
+      <c r="BE264" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF264" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG264" s="33"/>
       <c r="BH264" s="33"/>
       <c r="BI264" s="33"/>
@@ -69777,8 +71169,12 @@
       <c r="BD265" s="33">
         <v>94.68</v>
       </c>
-      <c r="BE265" s="33"/>
-      <c r="BF265" s="33"/>
+      <c r="BE265" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF265" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG265" s="33"/>
       <c r="BH265" s="33"/>
       <c r="BI265" s="33"/>
@@ -69969,8 +71365,12 @@
       <c r="BD266" s="33">
         <v>91.36</v>
       </c>
-      <c r="BE266" s="33"/>
-      <c r="BF266" s="33"/>
+      <c r="BE266" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF266" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG266" s="33"/>
       <c r="BH266" s="33"/>
       <c r="BI266" s="33"/>
@@ -70161,8 +71561,12 @@
       <c r="BD267" s="33">
         <v>90.53</v>
       </c>
-      <c r="BE267" s="33"/>
-      <c r="BF267" s="33"/>
+      <c r="BE267" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF267" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG267" s="33"/>
       <c r="BH267" s="33"/>
       <c r="BI267" s="33"/>
@@ -70353,8 +71757,12 @@
       <c r="BD268" s="33">
         <v>94.07</v>
       </c>
-      <c r="BE268" s="33"/>
-      <c r="BF268" s="33"/>
+      <c r="BE268" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF268" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG268" s="33"/>
       <c r="BH268" s="33"/>
       <c r="BI268" s="33"/>
@@ -70545,8 +71953,12 @@
       <c r="BD269" s="33">
         <v>90.6</v>
       </c>
-      <c r="BE269" s="33"/>
-      <c r="BF269" s="33"/>
+      <c r="BE269" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF269" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG269" s="33"/>
       <c r="BH269" s="33"/>
       <c r="BI269" s="33"/>
@@ -70737,8 +72149,12 @@
       <c r="BD270" s="33">
         <v>91.9</v>
       </c>
-      <c r="BE270" s="33"/>
-      <c r="BF270" s="33"/>
+      <c r="BE270" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF270" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG270" s="33"/>
       <c r="BH270" s="33"/>
       <c r="BI270" s="33"/>
@@ -70929,8 +72345,12 @@
       <c r="BD271" s="33">
         <v>92.87</v>
       </c>
-      <c r="BE271" s="33"/>
-      <c r="BF271" s="33"/>
+      <c r="BE271" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF271" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG271" s="33"/>
       <c r="BH271" s="33"/>
       <c r="BI271" s="33"/>
@@ -71121,8 +72541,12 @@
       <c r="BD272" s="33">
         <v>91.08</v>
       </c>
-      <c r="BE272" s="33"/>
-      <c r="BF272" s="33"/>
+      <c r="BE272" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF272" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG272" s="33"/>
       <c r="BH272" s="33"/>
       <c r="BI272" s="33"/>
@@ -71313,8 +72737,12 @@
       <c r="BD273" s="33">
         <v>92.29</v>
       </c>
-      <c r="BE273" s="33"/>
-      <c r="BF273" s="33"/>
+      <c r="BE273" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF273" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG273" s="33"/>
       <c r="BH273" s="33"/>
       <c r="BI273" s="33"/>
@@ -71505,8 +72933,12 @@
       <c r="BD274" s="33">
         <v>90.55</v>
       </c>
-      <c r="BE274" s="33"/>
-      <c r="BF274" s="33"/>
+      <c r="BE274" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF274" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG274" s="33"/>
       <c r="BH274" s="33"/>
       <c r="BI274" s="33"/>
@@ -71697,8 +73129,12 @@
       <c r="BD275" s="33">
         <v>96.05</v>
       </c>
-      <c r="BE275" s="33"/>
-      <c r="BF275" s="33"/>
+      <c r="BE275" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF275" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG275" s="33"/>
       <c r="BH275" s="33"/>
       <c r="BI275" s="33"/>
@@ -71889,8 +73325,12 @@
       <c r="BD276" s="33">
         <v>95.26</v>
       </c>
-      <c r="BE276" s="33"/>
-      <c r="BF276" s="33"/>
+      <c r="BE276" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF276" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG276" s="33"/>
       <c r="BH276" s="33"/>
       <c r="BI276" s="33"/>
@@ -72081,8 +73521,12 @@
       <c r="BD277" s="33">
         <v>92.13</v>
       </c>
-      <c r="BE277" s="33"/>
-      <c r="BF277" s="33"/>
+      <c r="BE277" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF277" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG277" s="33"/>
       <c r="BH277" s="33"/>
       <c r="BI277" s="33"/>
@@ -72273,8 +73717,12 @@
       <c r="BD278" s="33">
         <v>94.49</v>
       </c>
-      <c r="BE278" s="33"/>
-      <c r="BF278" s="33"/>
+      <c r="BE278" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF278" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG278" s="33"/>
       <c r="BH278" s="33"/>
       <c r="BI278" s="33"/>
@@ -72465,8 +73913,12 @@
       <c r="BD279" s="33">
         <v>94.42</v>
       </c>
-      <c r="BE279" s="33"/>
-      <c r="BF279" s="33"/>
+      <c r="BE279" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF279" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG279" s="33"/>
       <c r="BH279" s="33"/>
       <c r="BI279" s="33"/>
@@ -72657,8 +74109,12 @@
       <c r="BD280" s="33">
         <v>93.86</v>
       </c>
-      <c r="BE280" s="33"/>
-      <c r="BF280" s="33"/>
+      <c r="BE280" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF280" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG280" s="33"/>
       <c r="BH280" s="33"/>
       <c r="BI280" s="33"/>
@@ -72849,8 +74305,12 @@
       <c r="BD281" s="33">
         <v>94.63</v>
       </c>
-      <c r="BE281" s="33"/>
-      <c r="BF281" s="33"/>
+      <c r="BE281" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF281" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG281" s="33"/>
       <c r="BH281" s="33"/>
       <c r="BI281" s="33"/>
@@ -73041,8 +74501,12 @@
       <c r="BD282" s="33">
         <v>93.58</v>
       </c>
-      <c r="BE282" s="33"/>
-      <c r="BF282" s="33"/>
+      <c r="BE282" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF282" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG282" s="33"/>
       <c r="BH282" s="33"/>
       <c r="BI282" s="33"/>
@@ -73233,8 +74697,12 @@
       <c r="BD283" s="33">
         <v>95</v>
       </c>
-      <c r="BE283" s="33"/>
-      <c r="BF283" s="33"/>
+      <c r="BE283" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF283" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG283" s="33"/>
       <c r="BH283" s="33"/>
       <c r="BI283" s="33"/>
@@ -73425,8 +74893,12 @@
       <c r="BD284" s="33">
         <v>95.27</v>
       </c>
-      <c r="BE284" s="33"/>
-      <c r="BF284" s="33"/>
+      <c r="BE284" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF284" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG284" s="33"/>
       <c r="BH284" s="33"/>
       <c r="BI284" s="33"/>
@@ -73617,8 +75089,12 @@
       <c r="BD285" s="33">
         <v>94.61</v>
       </c>
-      <c r="BE285" s="33"/>
-      <c r="BF285" s="33"/>
+      <c r="BE285" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF285" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG285" s="33"/>
       <c r="BH285" s="33"/>
       <c r="BI285" s="33"/>
@@ -73809,8 +75285,12 @@
       <c r="BD286" s="33">
         <v>94.72</v>
       </c>
-      <c r="BE286" s="33"/>
-      <c r="BF286" s="33"/>
+      <c r="BE286" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF286" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG286" s="33"/>
       <c r="BH286" s="33"/>
       <c r="BI286" s="33"/>
@@ -74001,8 +75481,12 @@
       <c r="BD287" s="33">
         <v>94.38</v>
       </c>
-      <c r="BE287" s="33"/>
-      <c r="BF287" s="33"/>
+      <c r="BE287" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF287" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG287" s="33"/>
       <c r="BH287" s="33"/>
       <c r="BI287" s="33"/>
@@ -74193,8 +75677,12 @@
       <c r="BD288" s="33">
         <v>94.73</v>
       </c>
-      <c r="BE288" s="33"/>
-      <c r="BF288" s="33"/>
+      <c r="BE288" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF288" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG288" s="33"/>
       <c r="BH288" s="33"/>
       <c r="BI288" s="33"/>
@@ -74385,8 +75873,12 @@
       <c r="BD289" s="33">
         <v>94.94</v>
       </c>
-      <c r="BE289" s="33"/>
-      <c r="BF289" s="33"/>
+      <c r="BE289" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF289" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG289" s="33"/>
       <c r="BH289" s="33"/>
       <c r="BI289" s="33"/>
@@ -74577,8 +76069,12 @@
       <c r="BD290" s="33">
         <v>94.43</v>
       </c>
-      <c r="BE290" s="33"/>
-      <c r="BF290" s="33"/>
+      <c r="BE290" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF290" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG290" s="33"/>
       <c r="BH290" s="33"/>
       <c r="BI290" s="33"/>
@@ -74769,8 +76265,12 @@
       <c r="BD291" s="33">
         <v>94.98</v>
       </c>
-      <c r="BE291" s="33"/>
-      <c r="BF291" s="33"/>
+      <c r="BE291" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF291" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG291" s="33"/>
       <c r="BH291" s="33"/>
       <c r="BI291" s="33"/>
@@ -74961,8 +76461,12 @@
       <c r="BD292" s="33">
         <v>93.46</v>
       </c>
-      <c r="BE292" s="33"/>
-      <c r="BF292" s="33"/>
+      <c r="BE292" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF292" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG292" s="33"/>
       <c r="BH292" s="33"/>
       <c r="BI292" s="33"/>
@@ -75153,8 +76657,12 @@
       <c r="BD293" s="33">
         <v>94.52</v>
       </c>
-      <c r="BE293" s="33"/>
-      <c r="BF293" s="33"/>
+      <c r="BE293" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF293" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG293" s="33"/>
       <c r="BH293" s="33"/>
       <c r="BI293" s="33"/>
@@ -75345,8 +76853,12 @@
       <c r="BD294" s="33">
         <v>95.27</v>
       </c>
-      <c r="BE294" s="33"/>
-      <c r="BF294" s="33"/>
+      <c r="BE294" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF294" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG294" s="33"/>
       <c r="BH294" s="33"/>
       <c r="BI294" s="33"/>
@@ -75537,8 +77049,12 @@
       <c r="BD295" s="33">
         <v>92.68</v>
       </c>
-      <c r="BE295" s="33"/>
-      <c r="BF295" s="33"/>
+      <c r="BE295" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF295" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG295" s="33"/>
       <c r="BH295" s="33"/>
       <c r="BI295" s="33"/>
@@ -75729,8 +77245,12 @@
       <c r="BD296" s="33">
         <v>95.31</v>
       </c>
-      <c r="BE296" s="33"/>
-      <c r="BF296" s="33"/>
+      <c r="BE296" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF296" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG296" s="33"/>
       <c r="BH296" s="33"/>
       <c r="BI296" s="33"/>
@@ -75921,8 +77441,12 @@
       <c r="BD297" s="33">
         <v>95.84</v>
       </c>
-      <c r="BE297" s="33"/>
-      <c r="BF297" s="33"/>
+      <c r="BE297" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF297" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG297" s="33"/>
       <c r="BH297" s="33"/>
       <c r="BI297" s="33"/>
@@ -76113,8 +77637,12 @@
       <c r="BD298" s="33">
         <v>95</v>
       </c>
-      <c r="BE298" s="33"/>
-      <c r="BF298" s="33"/>
+      <c r="BE298" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF298" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG298" s="33"/>
       <c r="BH298" s="33"/>
       <c r="BI298" s="33"/>
@@ -76305,8 +77833,12 @@
       <c r="BD299" s="33">
         <v>92.77</v>
       </c>
-      <c r="BE299" s="33"/>
-      <c r="BF299" s="33"/>
+      <c r="BE299" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF299" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG299" s="33"/>
       <c r="BH299" s="33"/>
       <c r="BI299" s="33"/>
@@ -76497,8 +78029,12 @@
       <c r="BD300" s="33">
         <v>92.02</v>
       </c>
-      <c r="BE300" s="33"/>
-      <c r="BF300" s="33"/>
+      <c r="BE300" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF300" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG300" s="33"/>
       <c r="BH300" s="33"/>
       <c r="BI300" s="33"/>
@@ -76689,8 +78225,12 @@
       <c r="BD301" s="33">
         <v>90.12</v>
       </c>
-      <c r="BE301" s="33"/>
-      <c r="BF301" s="33"/>
+      <c r="BE301" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF301" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG301" s="33"/>
       <c r="BH301" s="33"/>
       <c r="BI301" s="33"/>
@@ -76881,8 +78421,12 @@
       <c r="BD302" s="33">
         <v>90.39</v>
       </c>
-      <c r="BE302" s="33"/>
-      <c r="BF302" s="33"/>
+      <c r="BE302" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF302" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG302" s="33"/>
       <c r="BH302" s="33"/>
       <c r="BI302" s="33"/>
@@ -77073,8 +78617,12 @@
       <c r="BD303" s="33">
         <v>93.18</v>
       </c>
-      <c r="BE303" s="33"/>
-      <c r="BF303" s="33"/>
+      <c r="BE303" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF303" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG303" s="33"/>
       <c r="BH303" s="33"/>
       <c r="BI303" s="33"/>
@@ -77265,8 +78813,12 @@
       <c r="BD304" s="33">
         <v>96.58</v>
       </c>
-      <c r="BE304" s="33"/>
-      <c r="BF304" s="33"/>
+      <c r="BE304" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF304" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG304" s="33"/>
       <c r="BH304" s="33"/>
       <c r="BI304" s="33"/>
@@ -77457,8 +79009,12 @@
       <c r="BD305" s="33">
         <v>94.42</v>
       </c>
-      <c r="BE305" s="33"/>
-      <c r="BF305" s="33"/>
+      <c r="BE305" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF305" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG305" s="33"/>
       <c r="BH305" s="33"/>
       <c r="BI305" s="33"/>
@@ -77649,8 +79205,12 @@
       <c r="BD306" s="33">
         <v>94.06</v>
       </c>
-      <c r="BE306" s="33"/>
-      <c r="BF306" s="33"/>
+      <c r="BE306" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF306" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG306" s="33"/>
       <c r="BH306" s="33"/>
       <c r="BI306" s="33"/>
@@ -77841,8 +79401,12 @@
       <c r="BD307" s="33">
         <v>93.18</v>
       </c>
-      <c r="BE307" s="33"/>
-      <c r="BF307" s="33"/>
+      <c r="BE307" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF307" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG307" s="33"/>
       <c r="BH307" s="33"/>
       <c r="BI307" s="33"/>
@@ -78033,8 +79597,12 @@
       <c r="BD308" s="33">
         <v>92.18</v>
       </c>
-      <c r="BE308" s="33"/>
-      <c r="BF308" s="33"/>
+      <c r="BE308" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF308" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG308" s="33"/>
       <c r="BH308" s="33"/>
       <c r="BI308" s="33"/>
@@ -78225,8 +79793,12 @@
       <c r="BD309" s="33">
         <v>93.17</v>
       </c>
-      <c r="BE309" s="33"/>
-      <c r="BF309" s="33"/>
+      <c r="BE309" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF309" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG309" s="33"/>
       <c r="BH309" s="33"/>
       <c r="BI309" s="33"/>
@@ -78417,8 +79989,12 @@
       <c r="BD310" s="33">
         <v>92.97</v>
       </c>
-      <c r="BE310" s="33"/>
-      <c r="BF310" s="33"/>
+      <c r="BE310" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF310" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG310" s="33"/>
       <c r="BH310" s="33"/>
       <c r="BI310" s="33"/>
@@ -78609,8 +80185,12 @@
       <c r="BD311" s="33">
         <v>94.03</v>
       </c>
-      <c r="BE311" s="33"/>
-      <c r="BF311" s="33"/>
+      <c r="BE311" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF311" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG311" s="33"/>
       <c r="BH311" s="33"/>
       <c r="BI311" s="33"/>
@@ -78801,8 +80381,12 @@
       <c r="BD312" s="33">
         <v>93.61</v>
       </c>
-      <c r="BE312" s="33"/>
-      <c r="BF312" s="33"/>
+      <c r="BE312" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF312" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG312" s="33"/>
       <c r="BH312" s="33"/>
       <c r="BI312" s="33"/>
@@ -78993,8 +80577,12 @@
       <c r="BD313" s="33">
         <v>93.59</v>
       </c>
-      <c r="BE313" s="33"/>
-      <c r="BF313" s="33"/>
+      <c r="BE313" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF313" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG313" s="33"/>
       <c r="BH313" s="33"/>
       <c r="BI313" s="33"/>
@@ -79185,8 +80773,12 @@
       <c r="BD314" s="33">
         <v>92.16</v>
       </c>
-      <c r="BE314" s="33"/>
-      <c r="BF314" s="33"/>
+      <c r="BE314" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF314" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG314" s="33"/>
       <c r="BH314" s="33"/>
       <c r="BI314" s="33"/>
@@ -79377,8 +80969,12 @@
       <c r="BD315" s="33">
         <v>91.96</v>
       </c>
-      <c r="BE315" s="33"/>
-      <c r="BF315" s="33"/>
+      <c r="BE315" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF315" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG315" s="33"/>
       <c r="BH315" s="33"/>
       <c r="BI315" s="33"/>
@@ -79569,8 +81165,12 @@
       <c r="BD316" s="33">
         <v>89.88</v>
       </c>
-      <c r="BE316" s="33"/>
-      <c r="BF316" s="33"/>
+      <c r="BE316" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF316" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG316" s="33"/>
       <c r="BH316" s="33"/>
       <c r="BI316" s="33"/>
@@ -79761,8 +81361,12 @@
       <c r="BD317" s="33">
         <v>89.89</v>
       </c>
-      <c r="BE317" s="33"/>
-      <c r="BF317" s="33"/>
+      <c r="BE317" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF317" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG317" s="33"/>
       <c r="BH317" s="33"/>
       <c r="BI317" s="33"/>
@@ -79953,8 +81557,12 @@
       <c r="BD318" s="33">
         <v>89.7</v>
       </c>
-      <c r="BE318" s="33"/>
-      <c r="BF318" s="33"/>
+      <c r="BE318" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF318" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG318" s="33"/>
       <c r="BH318" s="33"/>
       <c r="BI318" s="33"/>
@@ -80145,8 +81753,12 @@
       <c r="BD319" s="33">
         <v>91.35</v>
       </c>
-      <c r="BE319" s="33"/>
-      <c r="BF319" s="33"/>
+      <c r="BE319" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF319" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG319" s="33"/>
       <c r="BH319" s="33"/>
       <c r="BI319" s="33"/>
@@ -80337,8 +81949,12 @@
       <c r="BD320" s="33">
         <v>88.44</v>
       </c>
-      <c r="BE320" s="33"/>
-      <c r="BF320" s="33"/>
+      <c r="BE320" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF320" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG320" s="33"/>
       <c r="BH320" s="33"/>
       <c r="BI320" s="33"/>
@@ -80529,8 +82145,12 @@
       <c r="BD321" s="33">
         <v>91.53</v>
       </c>
-      <c r="BE321" s="33"/>
-      <c r="BF321" s="33"/>
+      <c r="BE321" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF321" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG321" s="33"/>
       <c r="BH321" s="33"/>
       <c r="BI321" s="33"/>
@@ -80721,8 +82341,12 @@
       <c r="BD322" s="33">
         <v>92.12</v>
       </c>
-      <c r="BE322" s="33"/>
-      <c r="BF322" s="33"/>
+      <c r="BE322" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF322" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG322" s="33"/>
       <c r="BH322" s="33"/>
       <c r="BI322" s="33"/>
@@ -80913,8 +82537,12 @@
       <c r="BD323" s="33">
         <v>90.29</v>
       </c>
-      <c r="BE323" s="33"/>
-      <c r="BF323" s="33"/>
+      <c r="BE323" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF323" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG323" s="33"/>
       <c r="BH323" s="33"/>
       <c r="BI323" s="33"/>
@@ -81105,8 +82733,12 @@
       <c r="BD324" s="33">
         <v>94.73</v>
       </c>
-      <c r="BE324" s="33"/>
-      <c r="BF324" s="33"/>
+      <c r="BE324" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF324" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG324" s="33"/>
       <c r="BH324" s="33"/>
       <c r="BI324" s="33"/>
@@ -81297,8 +82929,12 @@
       <c r="BD325" s="33">
         <v>96.27</v>
       </c>
-      <c r="BE325" s="33"/>
-      <c r="BF325" s="33"/>
+      <c r="BE325" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF325" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG325" s="33"/>
       <c r="BH325" s="33"/>
       <c r="BI325" s="33"/>
@@ -81489,8 +83125,12 @@
       <c r="BD326" s="33">
         <v>93.14</v>
       </c>
-      <c r="BE326" s="33"/>
-      <c r="BF326" s="33"/>
+      <c r="BE326" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF326" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG326" s="33"/>
       <c r="BH326" s="33"/>
       <c r="BI326" s="33"/>
@@ -81681,8 +83321,12 @@
       <c r="BD327" s="33">
         <v>95.04</v>
       </c>
-      <c r="BE327" s="33"/>
-      <c r="BF327" s="33"/>
+      <c r="BE327" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF327" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG327" s="33"/>
       <c r="BH327" s="33"/>
       <c r="BI327" s="33"/>
@@ -81873,8 +83517,12 @@
       <c r="BD328" s="33">
         <v>93.52</v>
       </c>
-      <c r="BE328" s="33"/>
-      <c r="BF328" s="33"/>
+      <c r="BE328" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF328" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG328" s="33"/>
       <c r="BH328" s="33"/>
       <c r="BI328" s="33"/>
@@ -82065,8 +83713,12 @@
       <c r="BD329" s="33">
         <v>90.4</v>
       </c>
-      <c r="BE329" s="33"/>
-      <c r="BF329" s="33"/>
+      <c r="BE329" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF329" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG329" s="33"/>
       <c r="BH329" s="33"/>
       <c r="BI329" s="33"/>
@@ -82257,8 +83909,12 @@
       <c r="BD330" s="33">
         <v>91.95</v>
       </c>
-      <c r="BE330" s="33"/>
-      <c r="BF330" s="33"/>
+      <c r="BE330" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF330" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG330" s="33"/>
       <c r="BH330" s="33"/>
       <c r="BI330" s="33"/>
@@ -82449,8 +84105,12 @@
       <c r="BD331" s="33">
         <v>94.32</v>
       </c>
-      <c r="BE331" s="33"/>
-      <c r="BF331" s="33"/>
+      <c r="BE331" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF331" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG331" s="33"/>
       <c r="BH331" s="33"/>
       <c r="BI331" s="33"/>
@@ -82641,8 +84301,12 @@
       <c r="BD332" s="33">
         <v>93.76</v>
       </c>
-      <c r="BE332" s="33"/>
-      <c r="BF332" s="33"/>
+      <c r="BE332" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF332" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG332" s="33"/>
       <c r="BH332" s="33"/>
       <c r="BI332" s="33"/>
@@ -82833,8 +84497,12 @@
       <c r="BD333" s="33">
         <v>91.28</v>
       </c>
-      <c r="BE333" s="33"/>
-      <c r="BF333" s="33"/>
+      <c r="BE333" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF333" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG333" s="33"/>
       <c r="BH333" s="33"/>
       <c r="BI333" s="33"/>
@@ -83025,8 +84693,12 @@
       <c r="BD334" s="33">
         <v>87.43</v>
       </c>
-      <c r="BE334" s="33"/>
-      <c r="BF334" s="33"/>
+      <c r="BE334" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF334" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG334" s="33"/>
       <c r="BH334" s="33"/>
       <c r="BI334" s="33"/>
@@ -83217,8 +84889,12 @@
       <c r="BD335" s="33">
         <v>92.15</v>
       </c>
-      <c r="BE335" s="33"/>
-      <c r="BF335" s="33"/>
+      <c r="BE335" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF335" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG335" s="33"/>
       <c r="BH335" s="33"/>
       <c r="BI335" s="33"/>
@@ -83409,8 +85085,12 @@
       <c r="BD336" s="33">
         <v>92.49</v>
       </c>
-      <c r="BE336" s="33"/>
-      <c r="BF336" s="33"/>
+      <c r="BE336" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF336" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG336" s="33"/>
       <c r="BH336" s="33"/>
       <c r="BI336" s="33"/>
@@ -83601,8 +85281,12 @@
       <c r="BD337" s="33">
         <v>93.73</v>
       </c>
-      <c r="BE337" s="33"/>
-      <c r="BF337" s="33"/>
+      <c r="BE337" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF337" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG337" s="33"/>
       <c r="BH337" s="33"/>
       <c r="BI337" s="33"/>
@@ -83793,8 +85477,12 @@
       <c r="BD338" s="33">
         <v>91.63</v>
       </c>
-      <c r="BE338" s="33"/>
-      <c r="BF338" s="33"/>
+      <c r="BE338" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF338" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG338" s="33"/>
       <c r="BH338" s="33"/>
       <c r="BI338" s="33"/>
@@ -83985,8 +85673,12 @@
       <c r="BD339" s="33">
         <v>92.86</v>
       </c>
-      <c r="BE339" s="33"/>
-      <c r="BF339" s="33"/>
+      <c r="BE339" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF339" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG339" s="33"/>
       <c r="BH339" s="33"/>
       <c r="BI339" s="33"/>
@@ -84177,8 +85869,12 @@
       <c r="BD340" s="33">
         <v>91.87</v>
       </c>
-      <c r="BE340" s="33"/>
-      <c r="BF340" s="33"/>
+      <c r="BE340" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF340" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG340" s="33"/>
       <c r="BH340" s="33"/>
       <c r="BI340" s="33"/>
@@ -84369,8 +86065,12 @@
       <c r="BD341" s="33">
         <v>91.32</v>
       </c>
-      <c r="BE341" s="33"/>
-      <c r="BF341" s="33"/>
+      <c r="BE341" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF341" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG341" s="33"/>
       <c r="BH341" s="33"/>
       <c r="BI341" s="33"/>
@@ -84561,8 +86261,12 @@
       <c r="BD342" s="33">
         <v>87.8</v>
       </c>
-      <c r="BE342" s="33"/>
-      <c r="BF342" s="33"/>
+      <c r="BE342" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF342" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BG342" s="33"/>
       <c r="BH342" s="33"/>
       <c r="BI342" s="33"/>
@@ -84753,6 +86457,12 @@
       <c r="BD343" s="36">
         <v>101.29</v>
       </c>
+      <c r="BE343" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF343" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -84923,6 +86633,12 @@
       <c r="BD344" s="36">
         <v>194.73</v>
       </c>
+      <c r="BE344" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF344" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -85093,6 +86809,12 @@
       <c r="BD345" s="36">
         <v>127.96</v>
       </c>
+      <c r="BE345" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF345" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -85262,6 +86984,12 @@
       </c>
       <c r="BD346" s="36">
         <v>96.25</v>
+      </c>
+      <c r="BE346" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF346" s="33" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="348" spans="1:78" x14ac:dyDescent="0.25">

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 30 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A0C5D-0964-4D46-B20B-BC824F6C5E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC1B88D-23E0-4243-8C8C-5213466AB57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1421,10 +1421,10 @@
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 2 February 2021</t>
+    <t>Released at 11.30am (Canberra time) 16 February 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 16 January 2021</t>
+    <t>Week ending Saturday 30 January 2021</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2973,12 @@
       <c r="BE6" s="9">
         <v>44212</v>
       </c>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
+      <c r="BF6" s="9">
+        <v>44219</v>
+      </c>
+      <c r="BG6" s="9">
+        <v>44226</v>
+      </c>
       <c r="BH6" s="9"/>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="9"/>
@@ -3167,8 +3171,12 @@
       <c r="BE7" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
+      <c r="BF7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG7" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH7" s="33"/>
       <c r="BI7" s="33"/>
       <c r="BJ7" s="33"/>
@@ -3361,8 +3369,12 @@
       <c r="BE8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
+      <c r="BF8" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG8" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH8" s="33"/>
       <c r="BI8" s="33"/>
       <c r="BJ8" s="33"/>
@@ -3555,8 +3567,12 @@
       <c r="BE9" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF9" s="33"/>
-      <c r="BG9" s="33"/>
+      <c r="BF9" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG9" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH9" s="33"/>
       <c r="BI9" s="33"/>
       <c r="BJ9" s="33"/>
@@ -3749,8 +3765,12 @@
       <c r="BE10" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF10" s="33"/>
-      <c r="BG10" s="33"/>
+      <c r="BF10" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG10" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH10" s="33"/>
       <c r="BI10" s="33"/>
       <c r="BJ10" s="33"/>
@@ -3943,8 +3963,12 @@
       <c r="BE11" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
+      <c r="BF11" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG11" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH11" s="33"/>
       <c r="BI11" s="33"/>
       <c r="BJ11" s="33"/>
@@ -4137,8 +4161,12 @@
       <c r="BE12" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
+      <c r="BF12" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG12" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH12" s="33"/>
       <c r="BI12" s="33"/>
       <c r="BJ12" s="33"/>
@@ -4331,8 +4359,12 @@
       <c r="BE13" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="33"/>
+      <c r="BF13" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG13" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH13" s="33"/>
       <c r="BI13" s="33"/>
       <c r="BJ13" s="33"/>
@@ -4525,8 +4557,12 @@
       <c r="BE14" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
+      <c r="BF14" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG14" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH14" s="33"/>
       <c r="BI14" s="33"/>
       <c r="BJ14" s="33"/>
@@ -4719,8 +4755,12 @@
       <c r="BE15" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
+      <c r="BF15" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG15" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH15" s="33"/>
       <c r="BI15" s="33"/>
       <c r="BJ15" s="33"/>
@@ -4913,8 +4953,12 @@
       <c r="BE16" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
+      <c r="BF16" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG16" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH16" s="33"/>
       <c r="BI16" s="33"/>
       <c r="BJ16" s="33"/>
@@ -5107,8 +5151,12 @@
       <c r="BE17" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="33"/>
+      <c r="BF17" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG17" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH17" s="33"/>
       <c r="BI17" s="33"/>
       <c r="BJ17" s="33"/>
@@ -5301,8 +5349,12 @@
       <c r="BE18" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
+      <c r="BF18" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG18" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH18" s="33"/>
       <c r="BI18" s="33"/>
       <c r="BJ18" s="33"/>
@@ -5495,8 +5547,12 @@
       <c r="BE19" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="33"/>
+      <c r="BF19" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG19" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH19" s="33"/>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="33"/>
@@ -5689,8 +5745,12 @@
       <c r="BE20" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
+      <c r="BF20" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG20" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH20" s="33"/>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="33"/>
@@ -5883,8 +5943,12 @@
       <c r="BE21" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="33"/>
+      <c r="BF21" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG21" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH21" s="33"/>
       <c r="BI21" s="33"/>
       <c r="BJ21" s="33"/>
@@ -6077,8 +6141,12 @@
       <c r="BE22" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF22" s="33"/>
-      <c r="BG22" s="33"/>
+      <c r="BF22" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG22" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH22" s="33"/>
       <c r="BI22" s="33"/>
       <c r="BJ22" s="33"/>
@@ -6271,8 +6339,12 @@
       <c r="BE23" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF23" s="33"/>
-      <c r="BG23" s="33"/>
+      <c r="BF23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG23" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH23" s="33"/>
       <c r="BI23" s="33"/>
       <c r="BJ23" s="33"/>
@@ -6465,8 +6537,12 @@
       <c r="BE24" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
+      <c r="BF24" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG24" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH24" s="33"/>
       <c r="BI24" s="33"/>
       <c r="BJ24" s="33"/>
@@ -6659,8 +6735,12 @@
       <c r="BE25" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="33"/>
+      <c r="BF25" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG25" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH25" s="33"/>
       <c r="BI25" s="33"/>
       <c r="BJ25" s="33"/>
@@ -6853,8 +6933,12 @@
       <c r="BE26" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF26" s="33"/>
-      <c r="BG26" s="33"/>
+      <c r="BF26" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG26" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH26" s="33"/>
       <c r="BI26" s="33"/>
       <c r="BJ26" s="33"/>
@@ -7047,8 +7131,12 @@
       <c r="BE27" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
+      <c r="BF27" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG27" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH27" s="33"/>
       <c r="BI27" s="33"/>
       <c r="BJ27" s="33"/>
@@ -7241,8 +7329,12 @@
       <c r="BE28" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
+      <c r="BF28" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG28" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH28" s="33"/>
       <c r="BI28" s="33"/>
       <c r="BJ28" s="33"/>
@@ -7435,8 +7527,12 @@
       <c r="BE29" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
+      <c r="BF29" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG29" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH29" s="33"/>
       <c r="BI29" s="33"/>
       <c r="BJ29" s="33"/>
@@ -7629,8 +7725,12 @@
       <c r="BE30" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF30" s="33"/>
-      <c r="BG30" s="33"/>
+      <c r="BF30" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG30" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH30" s="33"/>
       <c r="BI30" s="33"/>
       <c r="BJ30" s="33"/>
@@ -7823,8 +7923,12 @@
       <c r="BE31" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF31" s="33"/>
-      <c r="BG31" s="33"/>
+      <c r="BF31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG31" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH31" s="33"/>
       <c r="BI31" s="33"/>
       <c r="BJ31" s="33"/>
@@ -8017,8 +8121,12 @@
       <c r="BE32" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF32" s="33"/>
-      <c r="BG32" s="33"/>
+      <c r="BF32" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG32" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH32" s="33"/>
       <c r="BI32" s="33"/>
       <c r="BJ32" s="33"/>
@@ -8211,8 +8319,12 @@
       <c r="BE33" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF33" s="33"/>
-      <c r="BG33" s="33"/>
+      <c r="BF33" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG33" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH33" s="33"/>
       <c r="BI33" s="33"/>
       <c r="BJ33" s="33"/>
@@ -8405,8 +8517,12 @@
       <c r="BE34" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
+      <c r="BF34" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG34" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH34" s="33"/>
       <c r="BI34" s="33"/>
       <c r="BJ34" s="33"/>
@@ -8599,8 +8715,12 @@
       <c r="BE35" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="33"/>
+      <c r="BF35" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG35" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH35" s="33"/>
       <c r="BI35" s="33"/>
       <c r="BJ35" s="33"/>
@@ -8793,8 +8913,12 @@
       <c r="BE36" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="33"/>
+      <c r="BF36" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG36" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH36" s="33"/>
       <c r="BI36" s="33"/>
       <c r="BJ36" s="33"/>
@@ -8987,8 +9111,12 @@
       <c r="BE37" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="33"/>
+      <c r="BF37" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG37" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH37" s="33"/>
       <c r="BI37" s="33"/>
       <c r="BJ37" s="33"/>
@@ -9181,8 +9309,12 @@
       <c r="BE38" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF38" s="33"/>
-      <c r="BG38" s="33"/>
+      <c r="BF38" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG38" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH38" s="33"/>
       <c r="BI38" s="33"/>
       <c r="BJ38" s="33"/>
@@ -9375,8 +9507,12 @@
       <c r="BE39" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF39" s="33"/>
-      <c r="BG39" s="33"/>
+      <c r="BF39" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG39" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH39" s="33"/>
       <c r="BI39" s="33"/>
       <c r="BJ39" s="33"/>
@@ -9569,8 +9705,12 @@
       <c r="BE40" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF40" s="33"/>
-      <c r="BG40" s="33"/>
+      <c r="BF40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG40" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH40" s="33"/>
       <c r="BI40" s="33"/>
       <c r="BJ40" s="33"/>
@@ -9763,8 +9903,12 @@
       <c r="BE41" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF41" s="33"/>
-      <c r="BG41" s="33"/>
+      <c r="BF41" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG41" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
       <c r="BJ41" s="33"/>
@@ -9957,8 +10101,12 @@
       <c r="BE42" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF42" s="33"/>
-      <c r="BG42" s="33"/>
+      <c r="BF42" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG42" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH42" s="33"/>
       <c r="BI42" s="33"/>
       <c r="BJ42" s="33"/>
@@ -10151,8 +10299,12 @@
       <c r="BE43" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF43" s="33"/>
-      <c r="BG43" s="33"/>
+      <c r="BF43" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG43" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH43" s="33"/>
       <c r="BI43" s="33"/>
       <c r="BJ43" s="33"/>
@@ -10345,8 +10497,12 @@
       <c r="BE44" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF44" s="33"/>
-      <c r="BG44" s="33"/>
+      <c r="BF44" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG44" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH44" s="33"/>
       <c r="BI44" s="33"/>
       <c r="BJ44" s="33"/>
@@ -10539,8 +10695,12 @@
       <c r="BE45" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF45" s="33"/>
-      <c r="BG45" s="33"/>
+      <c r="BF45" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG45" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH45" s="33"/>
       <c r="BI45" s="33"/>
       <c r="BJ45" s="33"/>
@@ -10733,8 +10893,12 @@
       <c r="BE46" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF46" s="33"/>
-      <c r="BG46" s="33"/>
+      <c r="BF46" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG46" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH46" s="33"/>
       <c r="BI46" s="33"/>
       <c r="BJ46" s="33"/>
@@ -10927,8 +11091,12 @@
       <c r="BE47" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF47" s="33"/>
-      <c r="BG47" s="33"/>
+      <c r="BF47" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG47" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH47" s="33"/>
       <c r="BI47" s="33"/>
       <c r="BJ47" s="33"/>
@@ -11121,8 +11289,12 @@
       <c r="BE48" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF48" s="33"/>
-      <c r="BG48" s="33"/>
+      <c r="BF48" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG48" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH48" s="33"/>
       <c r="BI48" s="33"/>
       <c r="BJ48" s="33"/>
@@ -11315,8 +11487,12 @@
       <c r="BE49" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF49" s="33"/>
-      <c r="BG49" s="33"/>
+      <c r="BF49" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG49" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
       <c r="BJ49" s="33"/>
@@ -11509,8 +11685,12 @@
       <c r="BE50" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF50" s="33"/>
-      <c r="BG50" s="33"/>
+      <c r="BF50" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG50" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH50" s="33"/>
       <c r="BI50" s="33"/>
       <c r="BJ50" s="33"/>
@@ -11703,8 +11883,12 @@
       <c r="BE51" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF51" s="33"/>
-      <c r="BG51" s="33"/>
+      <c r="BF51" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG51" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH51" s="33"/>
       <c r="BI51" s="33"/>
       <c r="BJ51" s="33"/>
@@ -11897,8 +12081,12 @@
       <c r="BE52" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF52" s="33"/>
-      <c r="BG52" s="33"/>
+      <c r="BF52" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG52" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH52" s="33"/>
       <c r="BI52" s="33"/>
       <c r="BJ52" s="33"/>
@@ -12091,8 +12279,12 @@
       <c r="BE53" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF53" s="33"/>
-      <c r="BG53" s="33"/>
+      <c r="BF53" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG53" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH53" s="33"/>
       <c r="BI53" s="33"/>
       <c r="BJ53" s="33"/>
@@ -12285,8 +12477,12 @@
       <c r="BE54" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF54" s="33"/>
-      <c r="BG54" s="33"/>
+      <c r="BF54" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG54" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH54" s="33"/>
       <c r="BI54" s="33"/>
       <c r="BJ54" s="33"/>
@@ -12479,8 +12675,12 @@
       <c r="BE55" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF55" s="33"/>
-      <c r="BG55" s="33"/>
+      <c r="BF55" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG55" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH55" s="33"/>
       <c r="BI55" s="33"/>
       <c r="BJ55" s="33"/>
@@ -12673,8 +12873,12 @@
       <c r="BE56" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF56" s="33"/>
-      <c r="BG56" s="33"/>
+      <c r="BF56" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG56" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH56" s="33"/>
       <c r="BI56" s="33"/>
       <c r="BJ56" s="33"/>
@@ -12867,8 +13071,12 @@
       <c r="BE57" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF57" s="33"/>
-      <c r="BG57" s="33"/>
+      <c r="BF57" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG57" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH57" s="33"/>
       <c r="BI57" s="33"/>
       <c r="BJ57" s="33"/>
@@ -13061,8 +13269,12 @@
       <c r="BE58" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF58" s="33"/>
-      <c r="BG58" s="33"/>
+      <c r="BF58" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG58" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH58" s="33"/>
       <c r="BI58" s="33"/>
       <c r="BJ58" s="33"/>
@@ -13255,8 +13467,12 @@
       <c r="BE59" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF59" s="33"/>
-      <c r="BG59" s="33"/>
+      <c r="BF59" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG59" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH59" s="33"/>
       <c r="BI59" s="33"/>
       <c r="BJ59" s="33"/>
@@ -13449,8 +13665,12 @@
       <c r="BE60" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF60" s="33"/>
-      <c r="BG60" s="33"/>
+      <c r="BF60" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG60" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH60" s="33"/>
       <c r="BI60" s="33"/>
       <c r="BJ60" s="33"/>
@@ -13643,8 +13863,12 @@
       <c r="BE61" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF61" s="33"/>
-      <c r="BG61" s="33"/>
+      <c r="BF61" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG61" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH61" s="33"/>
       <c r="BI61" s="33"/>
       <c r="BJ61" s="33"/>
@@ -13837,8 +14061,12 @@
       <c r="BE62" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF62" s="33"/>
-      <c r="BG62" s="33"/>
+      <c r="BF62" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG62" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH62" s="33"/>
       <c r="BI62" s="33"/>
       <c r="BJ62" s="33"/>
@@ -14031,8 +14259,12 @@
       <c r="BE63" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF63" s="33"/>
-      <c r="BG63" s="33"/>
+      <c r="BF63" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG63" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH63" s="33"/>
       <c r="BI63" s="33"/>
       <c r="BJ63" s="33"/>
@@ -14225,8 +14457,12 @@
       <c r="BE64" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF64" s="33"/>
-      <c r="BG64" s="33"/>
+      <c r="BF64" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG64" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH64" s="33"/>
       <c r="BI64" s="33"/>
       <c r="BJ64" s="33"/>
@@ -14419,8 +14655,12 @@
       <c r="BE65" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF65" s="33"/>
-      <c r="BG65" s="33"/>
+      <c r="BF65" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG65" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH65" s="33"/>
       <c r="BI65" s="33"/>
       <c r="BJ65" s="33"/>
@@ -14613,8 +14853,12 @@
       <c r="BE66" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF66" s="33"/>
-      <c r="BG66" s="33"/>
+      <c r="BF66" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG66" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH66" s="33"/>
       <c r="BI66" s="33"/>
       <c r="BJ66" s="33"/>
@@ -14807,8 +15051,12 @@
       <c r="BE67" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF67" s="33"/>
-      <c r="BG67" s="33"/>
+      <c r="BF67" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG67" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH67" s="33"/>
       <c r="BI67" s="33"/>
       <c r="BJ67" s="33"/>
@@ -15001,8 +15249,12 @@
       <c r="BE68" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF68" s="33"/>
-      <c r="BG68" s="33"/>
+      <c r="BF68" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG68" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH68" s="33"/>
       <c r="BI68" s="33"/>
       <c r="BJ68" s="33"/>
@@ -15195,8 +15447,12 @@
       <c r="BE69" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF69" s="33"/>
-      <c r="BG69" s="33"/>
+      <c r="BF69" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG69" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH69" s="33"/>
       <c r="BI69" s="33"/>
       <c r="BJ69" s="33"/>
@@ -15389,8 +15645,12 @@
       <c r="BE70" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF70" s="33"/>
-      <c r="BG70" s="33"/>
+      <c r="BF70" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG70" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH70" s="33"/>
       <c r="BI70" s="33"/>
       <c r="BJ70" s="33"/>
@@ -15583,8 +15843,12 @@
       <c r="BE71" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF71" s="33"/>
-      <c r="BG71" s="33"/>
+      <c r="BF71" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG71" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH71" s="33"/>
       <c r="BI71" s="33"/>
       <c r="BJ71" s="33"/>
@@ -15777,8 +16041,12 @@
       <c r="BE72" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF72" s="33"/>
-      <c r="BG72" s="33"/>
+      <c r="BF72" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG72" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH72" s="33"/>
       <c r="BI72" s="33"/>
       <c r="BJ72" s="33"/>
@@ -15971,8 +16239,12 @@
       <c r="BE73" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF73" s="33"/>
-      <c r="BG73" s="33"/>
+      <c r="BF73" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG73" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH73" s="33"/>
       <c r="BI73" s="33"/>
       <c r="BJ73" s="33"/>
@@ -16165,8 +16437,12 @@
       <c r="BE74" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF74" s="33"/>
-      <c r="BG74" s="33"/>
+      <c r="BF74" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG74" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH74" s="33"/>
       <c r="BI74" s="33"/>
       <c r="BJ74" s="33"/>
@@ -16359,8 +16635,12 @@
       <c r="BE75" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF75" s="33"/>
-      <c r="BG75" s="33"/>
+      <c r="BF75" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG75" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH75" s="33"/>
       <c r="BI75" s="33"/>
       <c r="BJ75" s="33"/>
@@ -16553,8 +16833,12 @@
       <c r="BE76" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF76" s="33"/>
-      <c r="BG76" s="33"/>
+      <c r="BF76" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG76" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH76" s="33"/>
       <c r="BI76" s="33"/>
       <c r="BJ76" s="33"/>
@@ -16747,8 +17031,12 @@
       <c r="BE77" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF77" s="33"/>
-      <c r="BG77" s="33"/>
+      <c r="BF77" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG77" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH77" s="33"/>
       <c r="BI77" s="33"/>
       <c r="BJ77" s="33"/>
@@ -16941,8 +17229,12 @@
       <c r="BE78" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF78" s="33"/>
-      <c r="BG78" s="33"/>
+      <c r="BF78" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG78" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH78" s="33"/>
       <c r="BI78" s="33"/>
       <c r="BJ78" s="33"/>
@@ -17135,8 +17427,12 @@
       <c r="BE79" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF79" s="33"/>
-      <c r="BG79" s="33"/>
+      <c r="BF79" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG79" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH79" s="33"/>
       <c r="BI79" s="33"/>
       <c r="BJ79" s="33"/>
@@ -17329,8 +17625,12 @@
       <c r="BE80" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF80" s="33"/>
-      <c r="BG80" s="33"/>
+      <c r="BF80" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG80" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH80" s="33"/>
       <c r="BI80" s="33"/>
       <c r="BJ80" s="33"/>
@@ -17523,8 +17823,12 @@
       <c r="BE81" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF81" s="33"/>
-      <c r="BG81" s="33"/>
+      <c r="BF81" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG81" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH81" s="33"/>
       <c r="BI81" s="33"/>
       <c r="BJ81" s="33"/>
@@ -17717,8 +18021,12 @@
       <c r="BE82" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF82" s="33"/>
-      <c r="BG82" s="33"/>
+      <c r="BF82" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG82" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH82" s="33"/>
       <c r="BI82" s="33"/>
       <c r="BJ82" s="33"/>
@@ -17911,8 +18219,12 @@
       <c r="BE83" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF83" s="33"/>
-      <c r="BG83" s="33"/>
+      <c r="BF83" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG83" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH83" s="33"/>
       <c r="BI83" s="33"/>
       <c r="BJ83" s="33"/>
@@ -18105,8 +18417,12 @@
       <c r="BE84" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF84" s="33"/>
-      <c r="BG84" s="33"/>
+      <c r="BF84" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG84" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH84" s="33"/>
       <c r="BI84" s="33"/>
       <c r="BJ84" s="33"/>
@@ -18299,8 +18615,12 @@
       <c r="BE85" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF85" s="33"/>
-      <c r="BG85" s="33"/>
+      <c r="BF85" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG85" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH85" s="33"/>
       <c r="BI85" s="33"/>
       <c r="BJ85" s="33"/>
@@ -18493,8 +18813,12 @@
       <c r="BE86" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF86" s="33"/>
-      <c r="BG86" s="33"/>
+      <c r="BF86" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG86" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH86" s="33"/>
       <c r="BI86" s="33"/>
       <c r="BJ86" s="33"/>
@@ -18687,8 +19011,12 @@
       <c r="BE87" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF87" s="33"/>
-      <c r="BG87" s="33"/>
+      <c r="BF87" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG87" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH87" s="33"/>
       <c r="BI87" s="33"/>
       <c r="BJ87" s="33"/>
@@ -18881,8 +19209,12 @@
       <c r="BE88" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF88" s="33"/>
-      <c r="BG88" s="33"/>
+      <c r="BF88" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG88" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH88" s="33"/>
       <c r="BI88" s="33"/>
       <c r="BJ88" s="33"/>
@@ -19075,8 +19407,12 @@
       <c r="BE89" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF89" s="33"/>
-      <c r="BG89" s="33"/>
+      <c r="BF89" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG89" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH89" s="33"/>
       <c r="BI89" s="33"/>
       <c r="BJ89" s="33"/>
@@ -19269,8 +19605,12 @@
       <c r="BE90" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF90" s="33"/>
-      <c r="BG90" s="33"/>
+      <c r="BF90" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG90" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH90" s="33"/>
       <c r="BI90" s="33"/>
       <c r="BJ90" s="33"/>
@@ -19463,8 +19803,12 @@
       <c r="BE91" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF91" s="33"/>
-      <c r="BG91" s="33"/>
+      <c r="BF91" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG91" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH91" s="33"/>
       <c r="BI91" s="33"/>
       <c r="BJ91" s="33"/>
@@ -19657,8 +20001,12 @@
       <c r="BE92" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF92" s="33"/>
-      <c r="BG92" s="33"/>
+      <c r="BF92" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG92" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH92" s="33"/>
       <c r="BI92" s="33"/>
       <c r="BJ92" s="33"/>
@@ -19851,8 +20199,12 @@
       <c r="BE93" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF93" s="33"/>
-      <c r="BG93" s="33"/>
+      <c r="BF93" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG93" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH93" s="33"/>
       <c r="BI93" s="33"/>
       <c r="BJ93" s="33"/>
@@ -20045,8 +20397,12 @@
       <c r="BE94" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BF94" s="33"/>
-      <c r="BG94" s="33"/>
+      <c r="BF94" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG94" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BH94" s="33"/>
       <c r="BI94" s="33"/>
       <c r="BJ94" s="33"/>
@@ -20411,8 +20767,12 @@
       <c r="BF6" s="32">
         <v>44212</v>
       </c>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
+      <c r="BG6" s="32">
+        <v>44219</v>
+      </c>
+      <c r="BH6" s="32">
+        <v>44226</v>
+      </c>
       <c r="BI6" s="32"/>
       <c r="BJ6" s="32"/>
       <c r="BK6" s="32"/>
@@ -20607,8 +20967,12 @@
       <c r="BF7" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
+      <c r="BG7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH7" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI7" s="33"/>
       <c r="BJ7" s="33"/>
       <c r="BK7" s="33"/>
@@ -20803,8 +21167,12 @@
       <c r="BF8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
+      <c r="BG8" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH8" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI8" s="33"/>
       <c r="BJ8" s="33"/>
       <c r="BK8" s="33"/>
@@ -20999,8 +21367,12 @@
       <c r="BF9" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
+      <c r="BG9" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH9" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI9" s="33"/>
       <c r="BJ9" s="33"/>
       <c r="BK9" s="33"/>
@@ -21195,8 +21567,12 @@
       <c r="BF10" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="33"/>
+      <c r="BG10" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH10" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI10" s="33"/>
       <c r="BJ10" s="33"/>
       <c r="BK10" s="33"/>
@@ -21391,8 +21767,12 @@
       <c r="BF11" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
+      <c r="BG11" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH11" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI11" s="33"/>
       <c r="BJ11" s="33"/>
       <c r="BK11" s="33"/>
@@ -21587,8 +21967,12 @@
       <c r="BF12" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
+      <c r="BG12" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH12" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI12" s="33"/>
       <c r="BJ12" s="33"/>
       <c r="BK12" s="33"/>
@@ -21783,8 +22167,12 @@
       <c r="BF13" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="33"/>
+      <c r="BG13" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH13" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI13" s="33"/>
       <c r="BJ13" s="33"/>
       <c r="BK13" s="33"/>
@@ -21979,8 +22367,12 @@
       <c r="BF14" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
+      <c r="BG14" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH14" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI14" s="33"/>
       <c r="BJ14" s="33"/>
       <c r="BK14" s="33"/>
@@ -22175,8 +22567,12 @@
       <c r="BF15" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
+      <c r="BG15" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH15" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI15" s="33"/>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="33"/>
@@ -22371,8 +22767,12 @@
       <c r="BF16" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
+      <c r="BG16" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH16" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI16" s="33"/>
       <c r="BJ16" s="33"/>
       <c r="BK16" s="33"/>
@@ -22567,8 +22967,12 @@
       <c r="BF17" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG17" s="33"/>
-      <c r="BH17" s="33"/>
+      <c r="BG17" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH17" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI17" s="33"/>
       <c r="BJ17" s="33"/>
       <c r="BK17" s="33"/>
@@ -22763,8 +23167,12 @@
       <c r="BF18" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
+      <c r="BG18" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH18" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI18" s="33"/>
       <c r="BJ18" s="33"/>
       <c r="BK18" s="33"/>
@@ -22959,8 +23367,12 @@
       <c r="BF19" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG19" s="33"/>
-      <c r="BH19" s="33"/>
+      <c r="BG19" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH19" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="33"/>
       <c r="BK19" s="33"/>
@@ -23155,8 +23567,12 @@
       <c r="BF20" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
+      <c r="BG20" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH20" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="33"/>
       <c r="BK20" s="33"/>
@@ -23351,8 +23767,12 @@
       <c r="BF21" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG21" s="33"/>
-      <c r="BH21" s="33"/>
+      <c r="BG21" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH21" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI21" s="33"/>
       <c r="BJ21" s="33"/>
       <c r="BK21" s="33"/>
@@ -23547,8 +23967,12 @@
       <c r="BF22" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG22" s="33"/>
-      <c r="BH22" s="33"/>
+      <c r="BG22" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH22" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI22" s="33"/>
       <c r="BJ22" s="33"/>
       <c r="BK22" s="33"/>
@@ -23743,8 +24167,12 @@
       <c r="BF23" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG23" s="33"/>
-      <c r="BH23" s="33"/>
+      <c r="BG23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH23" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI23" s="33"/>
       <c r="BJ23" s="33"/>
       <c r="BK23" s="33"/>
@@ -23939,8 +24367,12 @@
       <c r="BF24" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
+      <c r="BG24" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH24" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI24" s="33"/>
       <c r="BJ24" s="33"/>
       <c r="BK24" s="33"/>
@@ -24135,8 +24567,12 @@
       <c r="BF25" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG25" s="33"/>
-      <c r="BH25" s="33"/>
+      <c r="BG25" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH25" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI25" s="33"/>
       <c r="BJ25" s="33"/>
       <c r="BK25" s="33"/>
@@ -24331,8 +24767,12 @@
       <c r="BF26" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG26" s="33"/>
-      <c r="BH26" s="33"/>
+      <c r="BG26" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH26" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI26" s="33"/>
       <c r="BJ26" s="33"/>
       <c r="BK26" s="33"/>
@@ -24527,8 +24967,12 @@
       <c r="BF27" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
+      <c r="BG27" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH27" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI27" s="33"/>
       <c r="BJ27" s="33"/>
       <c r="BK27" s="33"/>
@@ -24723,8 +25167,12 @@
       <c r="BF28" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
+      <c r="BG28" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH28" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI28" s="33"/>
       <c r="BJ28" s="33"/>
       <c r="BK28" s="33"/>
@@ -24919,8 +25367,12 @@
       <c r="BF29" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
+      <c r="BG29" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH29" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI29" s="33"/>
       <c r="BJ29" s="33"/>
       <c r="BK29" s="33"/>
@@ -25115,8 +25567,12 @@
       <c r="BF30" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG30" s="33"/>
-      <c r="BH30" s="33"/>
+      <c r="BG30" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH30" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI30" s="33"/>
       <c r="BJ30" s="33"/>
       <c r="BK30" s="33"/>
@@ -25311,8 +25767,12 @@
       <c r="BF31" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG31" s="33"/>
-      <c r="BH31" s="33"/>
+      <c r="BG31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH31" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI31" s="33"/>
       <c r="BJ31" s="33"/>
       <c r="BK31" s="33"/>
@@ -25507,8 +25967,12 @@
       <c r="BF32" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG32" s="33"/>
-      <c r="BH32" s="33"/>
+      <c r="BG32" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH32" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI32" s="33"/>
       <c r="BJ32" s="33"/>
       <c r="BK32" s="33"/>
@@ -25703,8 +26167,12 @@
       <c r="BF33" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG33" s="33"/>
-      <c r="BH33" s="33"/>
+      <c r="BG33" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH33" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI33" s="33"/>
       <c r="BJ33" s="33"/>
       <c r="BK33" s="33"/>
@@ -25899,8 +26367,12 @@
       <c r="BF34" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
+      <c r="BG34" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH34" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI34" s="33"/>
       <c r="BJ34" s="33"/>
       <c r="BK34" s="33"/>
@@ -26095,8 +26567,12 @@
       <c r="BF35" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG35" s="33"/>
-      <c r="BH35" s="33"/>
+      <c r="BG35" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH35" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI35" s="33"/>
       <c r="BJ35" s="33"/>
       <c r="BK35" s="33"/>
@@ -26291,8 +26767,12 @@
       <c r="BF36" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG36" s="33"/>
-      <c r="BH36" s="33"/>
+      <c r="BG36" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH36" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI36" s="33"/>
       <c r="BJ36" s="33"/>
       <c r="BK36" s="33"/>
@@ -26487,8 +26967,12 @@
       <c r="BF37" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG37" s="33"/>
-      <c r="BH37" s="33"/>
+      <c r="BG37" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH37" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI37" s="33"/>
       <c r="BJ37" s="33"/>
       <c r="BK37" s="33"/>
@@ -26683,8 +27167,12 @@
       <c r="BF38" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
+      <c r="BG38" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH38" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI38" s="33"/>
       <c r="BJ38" s="33"/>
       <c r="BK38" s="33"/>
@@ -26879,8 +27367,12 @@
       <c r="BF39" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG39" s="33"/>
-      <c r="BH39" s="33"/>
+      <c r="BG39" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH39" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI39" s="33"/>
       <c r="BJ39" s="33"/>
       <c r="BK39" s="33"/>
@@ -27075,8 +27567,12 @@
       <c r="BF40" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG40" s="33"/>
-      <c r="BH40" s="33"/>
+      <c r="BG40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH40" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI40" s="33"/>
       <c r="BJ40" s="33"/>
       <c r="BK40" s="33"/>
@@ -27271,8 +27767,12 @@
       <c r="BF41" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG41" s="33"/>
-      <c r="BH41" s="33"/>
+      <c r="BG41" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH41" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI41" s="33"/>
       <c r="BJ41" s="33"/>
       <c r="BK41" s="33"/>
@@ -27467,8 +27967,12 @@
       <c r="BF42" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG42" s="33"/>
-      <c r="BH42" s="33"/>
+      <c r="BG42" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH42" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI42" s="33"/>
       <c r="BJ42" s="33"/>
       <c r="BK42" s="33"/>
@@ -27663,8 +28167,12 @@
       <c r="BF43" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG43" s="33"/>
-      <c r="BH43" s="33"/>
+      <c r="BG43" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH43" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI43" s="33"/>
       <c r="BJ43" s="33"/>
       <c r="BK43" s="33"/>
@@ -27859,8 +28367,12 @@
       <c r="BF44" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG44" s="33"/>
-      <c r="BH44" s="33"/>
+      <c r="BG44" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH44" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI44" s="33"/>
       <c r="BJ44" s="33"/>
       <c r="BK44" s="33"/>
@@ -28055,8 +28567,12 @@
       <c r="BF45" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG45" s="33"/>
-      <c r="BH45" s="33"/>
+      <c r="BG45" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH45" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI45" s="33"/>
       <c r="BJ45" s="33"/>
       <c r="BK45" s="33"/>
@@ -28251,8 +28767,12 @@
       <c r="BF46" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG46" s="33"/>
-      <c r="BH46" s="33"/>
+      <c r="BG46" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH46" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI46" s="33"/>
       <c r="BJ46" s="33"/>
       <c r="BK46" s="33"/>
@@ -28447,8 +28967,12 @@
       <c r="BF47" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG47" s="33"/>
-      <c r="BH47" s="33"/>
+      <c r="BG47" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH47" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI47" s="33"/>
       <c r="BJ47" s="33"/>
       <c r="BK47" s="33"/>
@@ -28643,8 +29167,12 @@
       <c r="BF48" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG48" s="33"/>
-      <c r="BH48" s="33"/>
+      <c r="BG48" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH48" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI48" s="33"/>
       <c r="BJ48" s="33"/>
       <c r="BK48" s="33"/>
@@ -28839,8 +29367,12 @@
       <c r="BF49" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG49" s="33"/>
-      <c r="BH49" s="33"/>
+      <c r="BG49" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH49" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI49" s="33"/>
       <c r="BJ49" s="33"/>
       <c r="BK49" s="33"/>
@@ -29035,8 +29567,12 @@
       <c r="BF50" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG50" s="33"/>
-      <c r="BH50" s="33"/>
+      <c r="BG50" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH50" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI50" s="33"/>
       <c r="BJ50" s="33"/>
       <c r="BK50" s="33"/>
@@ -29231,8 +29767,12 @@
       <c r="BF51" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG51" s="33"/>
-      <c r="BH51" s="33"/>
+      <c r="BG51" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH51" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI51" s="33"/>
       <c r="BJ51" s="33"/>
       <c r="BK51" s="33"/>
@@ -29427,8 +29967,12 @@
       <c r="BF52" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG52" s="33"/>
-      <c r="BH52" s="33"/>
+      <c r="BG52" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH52" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI52" s="33"/>
       <c r="BJ52" s="33"/>
       <c r="BK52" s="33"/>
@@ -29623,8 +30167,12 @@
       <c r="BF53" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG53" s="33"/>
-      <c r="BH53" s="33"/>
+      <c r="BG53" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH53" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI53" s="33"/>
       <c r="BJ53" s="33"/>
       <c r="BK53" s="33"/>
@@ -29819,8 +30367,12 @@
       <c r="BF54" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG54" s="33"/>
-      <c r="BH54" s="33"/>
+      <c r="BG54" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH54" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI54" s="33"/>
       <c r="BJ54" s="33"/>
       <c r="BK54" s="33"/>
@@ -30015,8 +30567,12 @@
       <c r="BF55" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG55" s="33"/>
-      <c r="BH55" s="33"/>
+      <c r="BG55" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH55" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI55" s="33"/>
       <c r="BJ55" s="33"/>
       <c r="BK55" s="33"/>
@@ -30211,8 +30767,12 @@
       <c r="BF56" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG56" s="33"/>
-      <c r="BH56" s="33"/>
+      <c r="BG56" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH56" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI56" s="33"/>
       <c r="BJ56" s="33"/>
       <c r="BK56" s="33"/>
@@ -30407,8 +30967,12 @@
       <c r="BF57" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG57" s="33"/>
-      <c r="BH57" s="33"/>
+      <c r="BG57" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH57" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI57" s="33"/>
       <c r="BJ57" s="33"/>
       <c r="BK57" s="33"/>
@@ -30603,8 +31167,12 @@
       <c r="BF58" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG58" s="33"/>
-      <c r="BH58" s="33"/>
+      <c r="BG58" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH58" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI58" s="33"/>
       <c r="BJ58" s="33"/>
       <c r="BK58" s="33"/>
@@ -30799,8 +31367,12 @@
       <c r="BF59" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG59" s="33"/>
-      <c r="BH59" s="33"/>
+      <c r="BG59" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH59" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI59" s="33"/>
       <c r="BJ59" s="33"/>
       <c r="BK59" s="33"/>
@@ -30995,8 +31567,12 @@
       <c r="BF60" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG60" s="33"/>
-      <c r="BH60" s="33"/>
+      <c r="BG60" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH60" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI60" s="33"/>
       <c r="BJ60" s="33"/>
       <c r="BK60" s="33"/>
@@ -31191,8 +31767,12 @@
       <c r="BF61" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG61" s="33"/>
-      <c r="BH61" s="33"/>
+      <c r="BG61" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH61" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI61" s="33"/>
       <c r="BJ61" s="33"/>
       <c r="BK61" s="33"/>
@@ -31387,8 +31967,12 @@
       <c r="BF62" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG62" s="33"/>
-      <c r="BH62" s="33"/>
+      <c r="BG62" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH62" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI62" s="33"/>
       <c r="BJ62" s="33"/>
       <c r="BK62" s="33"/>
@@ -31583,8 +32167,12 @@
       <c r="BF63" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG63" s="33"/>
-      <c r="BH63" s="33"/>
+      <c r="BG63" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH63" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI63" s="33"/>
       <c r="BJ63" s="33"/>
       <c r="BK63" s="33"/>
@@ -31779,8 +32367,12 @@
       <c r="BF64" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG64" s="33"/>
-      <c r="BH64" s="33"/>
+      <c r="BG64" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH64" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI64" s="33"/>
       <c r="BJ64" s="33"/>
       <c r="BK64" s="33"/>
@@ -31975,8 +32567,12 @@
       <c r="BF65" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG65" s="33"/>
-      <c r="BH65" s="33"/>
+      <c r="BG65" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH65" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI65" s="33"/>
       <c r="BJ65" s="33"/>
       <c r="BK65" s="33"/>
@@ -32171,8 +32767,12 @@
       <c r="BF66" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG66" s="33"/>
-      <c r="BH66" s="33"/>
+      <c r="BG66" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH66" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI66" s="33"/>
       <c r="BJ66" s="33"/>
       <c r="BK66" s="33"/>
@@ -32367,8 +32967,12 @@
       <c r="BF67" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG67" s="33"/>
-      <c r="BH67" s="33"/>
+      <c r="BG67" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH67" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI67" s="33"/>
       <c r="BJ67" s="33"/>
       <c r="BK67" s="33"/>
@@ -32563,8 +33167,12 @@
       <c r="BF68" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG68" s="33"/>
-      <c r="BH68" s="33"/>
+      <c r="BG68" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH68" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI68" s="33"/>
       <c r="BJ68" s="33"/>
       <c r="BK68" s="33"/>
@@ -32759,8 +33367,12 @@
       <c r="BF69" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG69" s="33"/>
-      <c r="BH69" s="33"/>
+      <c r="BG69" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH69" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI69" s="33"/>
       <c r="BJ69" s="33"/>
       <c r="BK69" s="33"/>
@@ -32955,8 +33567,12 @@
       <c r="BF70" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG70" s="33"/>
-      <c r="BH70" s="33"/>
+      <c r="BG70" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH70" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI70" s="33"/>
       <c r="BJ70" s="33"/>
       <c r="BK70" s="33"/>
@@ -33151,8 +33767,12 @@
       <c r="BF71" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG71" s="33"/>
-      <c r="BH71" s="33"/>
+      <c r="BG71" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH71" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI71" s="33"/>
       <c r="BJ71" s="33"/>
       <c r="BK71" s="33"/>
@@ -33347,8 +33967,12 @@
       <c r="BF72" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG72" s="33"/>
-      <c r="BH72" s="33"/>
+      <c r="BG72" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH72" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI72" s="33"/>
       <c r="BJ72" s="33"/>
       <c r="BK72" s="33"/>
@@ -33543,8 +34167,12 @@
       <c r="BF73" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG73" s="33"/>
-      <c r="BH73" s="33"/>
+      <c r="BG73" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH73" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI73" s="33"/>
       <c r="BJ73" s="33"/>
       <c r="BK73" s="33"/>
@@ -33739,8 +34367,12 @@
       <c r="BF74" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG74" s="33"/>
-      <c r="BH74" s="33"/>
+      <c r="BG74" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH74" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI74" s="33"/>
       <c r="BJ74" s="33"/>
       <c r="BK74" s="33"/>
@@ -33935,8 +34567,12 @@
       <c r="BF75" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG75" s="33"/>
-      <c r="BH75" s="33"/>
+      <c r="BG75" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH75" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI75" s="33"/>
       <c r="BJ75" s="33"/>
       <c r="BK75" s="33"/>
@@ -34131,8 +34767,12 @@
       <c r="BF76" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG76" s="33"/>
-      <c r="BH76" s="33"/>
+      <c r="BG76" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH76" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI76" s="33"/>
       <c r="BJ76" s="33"/>
       <c r="BK76" s="33"/>
@@ -34327,8 +34967,12 @@
       <c r="BF77" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG77" s="33"/>
-      <c r="BH77" s="33"/>
+      <c r="BG77" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH77" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI77" s="33"/>
       <c r="BJ77" s="33"/>
       <c r="BK77" s="33"/>
@@ -34523,8 +35167,12 @@
       <c r="BF78" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG78" s="33"/>
-      <c r="BH78" s="33"/>
+      <c r="BG78" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH78" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI78" s="33"/>
       <c r="BJ78" s="33"/>
       <c r="BK78" s="33"/>
@@ -34719,8 +35367,12 @@
       <c r="BF79" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG79" s="33"/>
-      <c r="BH79" s="33"/>
+      <c r="BG79" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH79" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI79" s="33"/>
       <c r="BJ79" s="33"/>
       <c r="BK79" s="33"/>
@@ -34915,8 +35567,12 @@
       <c r="BF80" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG80" s="33"/>
-      <c r="BH80" s="33"/>
+      <c r="BG80" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH80" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI80" s="33"/>
       <c r="BJ80" s="33"/>
       <c r="BK80" s="33"/>
@@ -35111,8 +35767,12 @@
       <c r="BF81" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG81" s="33"/>
-      <c r="BH81" s="33"/>
+      <c r="BG81" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH81" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI81" s="33"/>
       <c r="BJ81" s="33"/>
       <c r="BK81" s="33"/>
@@ -35307,8 +35967,12 @@
       <c r="BF82" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG82" s="33"/>
-      <c r="BH82" s="33"/>
+      <c r="BG82" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH82" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI82" s="33"/>
       <c r="BJ82" s="33"/>
       <c r="BK82" s="33"/>
@@ -35503,8 +36167,12 @@
       <c r="BF83" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG83" s="33"/>
-      <c r="BH83" s="33"/>
+      <c r="BG83" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH83" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI83" s="33"/>
       <c r="BJ83" s="33"/>
       <c r="BK83" s="33"/>
@@ -35699,8 +36367,12 @@
       <c r="BF84" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
+      <c r="BG84" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH84" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI84" s="33"/>
       <c r="BJ84" s="33"/>
       <c r="BK84" s="33"/>
@@ -35895,8 +36567,12 @@
       <c r="BF85" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG85" s="33"/>
-      <c r="BH85" s="33"/>
+      <c r="BG85" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH85" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI85" s="33"/>
       <c r="BJ85" s="33"/>
       <c r="BK85" s="33"/>
@@ -36091,8 +36767,12 @@
       <c r="BF86" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG86" s="33"/>
-      <c r="BH86" s="33"/>
+      <c r="BG86" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH86" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI86" s="33"/>
       <c r="BJ86" s="33"/>
       <c r="BK86" s="33"/>
@@ -36287,8 +36967,12 @@
       <c r="BF87" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG87" s="33"/>
-      <c r="BH87" s="33"/>
+      <c r="BG87" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH87" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI87" s="33"/>
       <c r="BJ87" s="33"/>
       <c r="BK87" s="33"/>
@@ -36483,8 +37167,12 @@
       <c r="BF88" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG88" s="33"/>
-      <c r="BH88" s="33"/>
+      <c r="BG88" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH88" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI88" s="33"/>
       <c r="BJ88" s="33"/>
       <c r="BK88" s="33"/>
@@ -36679,8 +37367,12 @@
       <c r="BF89" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG89" s="33"/>
-      <c r="BH89" s="33"/>
+      <c r="BG89" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH89" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI89" s="33"/>
       <c r="BJ89" s="33"/>
       <c r="BK89" s="33"/>
@@ -36875,8 +37567,12 @@
       <c r="BF90" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG90" s="33"/>
-      <c r="BH90" s="33"/>
+      <c r="BG90" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH90" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI90" s="33"/>
       <c r="BJ90" s="33"/>
       <c r="BK90" s="33"/>
@@ -37071,8 +37767,12 @@
       <c r="BF91" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG91" s="33"/>
-      <c r="BH91" s="33"/>
+      <c r="BG91" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH91" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI91" s="33"/>
       <c r="BJ91" s="33"/>
       <c r="BK91" s="33"/>
@@ -37267,8 +37967,12 @@
       <c r="BF92" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG92" s="33"/>
-      <c r="BH92" s="33"/>
+      <c r="BG92" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH92" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI92" s="33"/>
       <c r="BJ92" s="33"/>
       <c r="BK92" s="33"/>
@@ -37463,8 +38167,12 @@
       <c r="BF93" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG93" s="33"/>
-      <c r="BH93" s="33"/>
+      <c r="BG93" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH93" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI93" s="33"/>
       <c r="BJ93" s="33"/>
       <c r="BK93" s="33"/>
@@ -37659,8 +38367,12 @@
       <c r="BF94" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG94" s="33"/>
-      <c r="BH94" s="33"/>
+      <c r="BG94" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH94" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI94" s="33"/>
       <c r="BJ94" s="33"/>
       <c r="BK94" s="33"/>
@@ -37855,8 +38567,12 @@
       <c r="BF95" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG95" s="33"/>
-      <c r="BH95" s="33"/>
+      <c r="BG95" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH95" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI95" s="33"/>
       <c r="BJ95" s="33"/>
       <c r="BK95" s="33"/>
@@ -38051,8 +38767,12 @@
       <c r="BF96" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG96" s="33"/>
-      <c r="BH96" s="33"/>
+      <c r="BG96" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH96" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI96" s="33"/>
       <c r="BJ96" s="33"/>
       <c r="BK96" s="33"/>
@@ -38247,8 +38967,12 @@
       <c r="BF97" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG97" s="33"/>
-      <c r="BH97" s="33"/>
+      <c r="BG97" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH97" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI97" s="33"/>
       <c r="BJ97" s="33"/>
       <c r="BK97" s="33"/>
@@ -38443,8 +39167,12 @@
       <c r="BF98" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG98" s="33"/>
-      <c r="BH98" s="33"/>
+      <c r="BG98" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH98" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI98" s="33"/>
       <c r="BJ98" s="33"/>
       <c r="BK98" s="33"/>
@@ -38639,8 +39367,12 @@
       <c r="BF99" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG99" s="33"/>
-      <c r="BH99" s="33"/>
+      <c r="BG99" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH99" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI99" s="33"/>
       <c r="BJ99" s="33"/>
       <c r="BK99" s="33"/>
@@ -38835,8 +39567,12 @@
       <c r="BF100" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG100" s="33"/>
-      <c r="BH100" s="33"/>
+      <c r="BG100" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH100" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI100" s="33"/>
       <c r="BJ100" s="33"/>
       <c r="BK100" s="33"/>
@@ -39031,8 +39767,12 @@
       <c r="BF101" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG101" s="33"/>
-      <c r="BH101" s="33"/>
+      <c r="BG101" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH101" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI101" s="33"/>
       <c r="BJ101" s="33"/>
       <c r="BK101" s="33"/>
@@ -39227,8 +39967,12 @@
       <c r="BF102" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG102" s="33"/>
-      <c r="BH102" s="33"/>
+      <c r="BG102" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH102" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI102" s="33"/>
       <c r="BJ102" s="33"/>
       <c r="BK102" s="33"/>
@@ -39423,8 +40167,12 @@
       <c r="BF103" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG103" s="33"/>
-      <c r="BH103" s="33"/>
+      <c r="BG103" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH103" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI103" s="33"/>
       <c r="BJ103" s="33"/>
       <c r="BK103" s="33"/>
@@ -39619,8 +40367,12 @@
       <c r="BF104" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG104" s="33"/>
-      <c r="BH104" s="33"/>
+      <c r="BG104" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH104" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI104" s="33"/>
       <c r="BJ104" s="33"/>
       <c r="BK104" s="33"/>
@@ -39815,8 +40567,12 @@
       <c r="BF105" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG105" s="33"/>
-      <c r="BH105" s="33"/>
+      <c r="BG105" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH105" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI105" s="33"/>
       <c r="BJ105" s="33"/>
       <c r="BK105" s="33"/>
@@ -40011,8 +40767,12 @@
       <c r="BF106" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG106" s="33"/>
-      <c r="BH106" s="33"/>
+      <c r="BG106" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH106" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI106" s="33"/>
       <c r="BJ106" s="33"/>
       <c r="BK106" s="33"/>
@@ -40207,8 +40967,12 @@
       <c r="BF107" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG107" s="33"/>
-      <c r="BH107" s="33"/>
+      <c r="BG107" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH107" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI107" s="33"/>
       <c r="BJ107" s="33"/>
       <c r="BK107" s="33"/>
@@ -40403,8 +41167,12 @@
       <c r="BF108" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG108" s="33"/>
-      <c r="BH108" s="33"/>
+      <c r="BG108" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH108" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI108" s="33"/>
       <c r="BJ108" s="33"/>
       <c r="BK108" s="33"/>
@@ -40599,8 +41367,12 @@
       <c r="BF109" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG109" s="33"/>
-      <c r="BH109" s="33"/>
+      <c r="BG109" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH109" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI109" s="33"/>
       <c r="BJ109" s="33"/>
       <c r="BK109" s="33"/>
@@ -40795,8 +41567,12 @@
       <c r="BF110" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG110" s="33"/>
-      <c r="BH110" s="33"/>
+      <c r="BG110" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH110" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI110" s="33"/>
       <c r="BJ110" s="33"/>
       <c r="BK110" s="33"/>
@@ -40991,8 +41767,12 @@
       <c r="BF111" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG111" s="33"/>
-      <c r="BH111" s="33"/>
+      <c r="BG111" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH111" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI111" s="33"/>
       <c r="BJ111" s="33"/>
       <c r="BK111" s="33"/>
@@ -41187,8 +41967,12 @@
       <c r="BF112" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG112" s="33"/>
-      <c r="BH112" s="33"/>
+      <c r="BG112" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH112" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI112" s="33"/>
       <c r="BJ112" s="33"/>
       <c r="BK112" s="33"/>
@@ -41383,8 +42167,12 @@
       <c r="BF113" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG113" s="33"/>
-      <c r="BH113" s="33"/>
+      <c r="BG113" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH113" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI113" s="33"/>
       <c r="BJ113" s="33"/>
       <c r="BK113" s="33"/>
@@ -41579,8 +42367,12 @@
       <c r="BF114" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG114" s="33"/>
-      <c r="BH114" s="33"/>
+      <c r="BG114" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH114" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI114" s="33"/>
       <c r="BJ114" s="33"/>
       <c r="BK114" s="33"/>
@@ -41775,8 +42567,12 @@
       <c r="BF115" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG115" s="33"/>
-      <c r="BH115" s="33"/>
+      <c r="BG115" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH115" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI115" s="33"/>
       <c r="BJ115" s="33"/>
       <c r="BK115" s="33"/>
@@ -41971,8 +42767,12 @@
       <c r="BF116" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG116" s="33"/>
-      <c r="BH116" s="33"/>
+      <c r="BG116" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH116" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI116" s="33"/>
       <c r="BJ116" s="33"/>
       <c r="BK116" s="33"/>
@@ -42167,8 +42967,12 @@
       <c r="BF117" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG117" s="33"/>
-      <c r="BH117" s="33"/>
+      <c r="BG117" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH117" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI117" s="33"/>
       <c r="BJ117" s="33"/>
       <c r="BK117" s="33"/>
@@ -42363,8 +43167,12 @@
       <c r="BF118" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG118" s="33"/>
-      <c r="BH118" s="33"/>
+      <c r="BG118" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH118" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI118" s="33"/>
       <c r="BJ118" s="33"/>
       <c r="BK118" s="33"/>
@@ -42559,8 +43367,12 @@
       <c r="BF119" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG119" s="33"/>
-      <c r="BH119" s="33"/>
+      <c r="BG119" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH119" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI119" s="33"/>
       <c r="BJ119" s="33"/>
       <c r="BK119" s="33"/>
@@ -42755,8 +43567,12 @@
       <c r="BF120" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG120" s="33"/>
-      <c r="BH120" s="33"/>
+      <c r="BG120" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH120" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI120" s="33"/>
       <c r="BJ120" s="33"/>
       <c r="BK120" s="33"/>
@@ -42951,8 +43767,12 @@
       <c r="BF121" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG121" s="33"/>
-      <c r="BH121" s="33"/>
+      <c r="BG121" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH121" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI121" s="33"/>
       <c r="BJ121" s="33"/>
       <c r="BK121" s="33"/>
@@ -43147,8 +43967,12 @@
       <c r="BF122" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG122" s="33"/>
-      <c r="BH122" s="33"/>
+      <c r="BG122" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH122" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI122" s="33"/>
       <c r="BJ122" s="33"/>
       <c r="BK122" s="33"/>
@@ -43343,8 +44167,12 @@
       <c r="BF123" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG123" s="33"/>
-      <c r="BH123" s="33"/>
+      <c r="BG123" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH123" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI123" s="33"/>
       <c r="BJ123" s="33"/>
       <c r="BK123" s="33"/>
@@ -43539,8 +44367,12 @@
       <c r="BF124" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG124" s="33"/>
-      <c r="BH124" s="33"/>
+      <c r="BG124" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH124" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI124" s="33"/>
       <c r="BJ124" s="33"/>
       <c r="BK124" s="33"/>
@@ -43735,8 +44567,12 @@
       <c r="BF125" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG125" s="33"/>
-      <c r="BH125" s="33"/>
+      <c r="BG125" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH125" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI125" s="33"/>
       <c r="BJ125" s="33"/>
       <c r="BK125" s="33"/>
@@ -43931,8 +44767,12 @@
       <c r="BF126" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG126" s="33"/>
-      <c r="BH126" s="33"/>
+      <c r="BG126" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH126" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI126" s="33"/>
       <c r="BJ126" s="33"/>
       <c r="BK126" s="33"/>
@@ -44127,8 +44967,12 @@
       <c r="BF127" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG127" s="33"/>
-      <c r="BH127" s="33"/>
+      <c r="BG127" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH127" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI127" s="33"/>
       <c r="BJ127" s="33"/>
       <c r="BK127" s="33"/>
@@ -44323,8 +45167,12 @@
       <c r="BF128" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG128" s="33"/>
-      <c r="BH128" s="33"/>
+      <c r="BG128" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH128" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI128" s="33"/>
       <c r="BJ128" s="33"/>
       <c r="BK128" s="33"/>
@@ -44519,8 +45367,12 @@
       <c r="BF129" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG129" s="33"/>
-      <c r="BH129" s="33"/>
+      <c r="BG129" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH129" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI129" s="33"/>
       <c r="BJ129" s="33"/>
       <c r="BK129" s="33"/>
@@ -44715,8 +45567,12 @@
       <c r="BF130" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG130" s="33"/>
-      <c r="BH130" s="33"/>
+      <c r="BG130" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH130" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI130" s="33"/>
       <c r="BJ130" s="33"/>
       <c r="BK130" s="33"/>
@@ -44911,8 +45767,12 @@
       <c r="BF131" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG131" s="33"/>
-      <c r="BH131" s="33"/>
+      <c r="BG131" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH131" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI131" s="33"/>
       <c r="BJ131" s="33"/>
       <c r="BK131" s="33"/>
@@ -45107,8 +45967,12 @@
       <c r="BF132" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG132" s="33"/>
-      <c r="BH132" s="33"/>
+      <c r="BG132" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH132" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI132" s="33"/>
       <c r="BJ132" s="33"/>
       <c r="BK132" s="33"/>
@@ -45303,8 +46167,12 @@
       <c r="BF133" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG133" s="33"/>
-      <c r="BH133" s="33"/>
+      <c r="BG133" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH133" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI133" s="33"/>
       <c r="BJ133" s="33"/>
       <c r="BK133" s="33"/>
@@ -45499,8 +46367,12 @@
       <c r="BF134" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG134" s="33"/>
-      <c r="BH134" s="33"/>
+      <c r="BG134" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH134" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI134" s="33"/>
       <c r="BJ134" s="33"/>
       <c r="BK134" s="33"/>
@@ -45695,8 +46567,12 @@
       <c r="BF135" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG135" s="33"/>
-      <c r="BH135" s="33"/>
+      <c r="BG135" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH135" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI135" s="33"/>
       <c r="BJ135" s="33"/>
       <c r="BK135" s="33"/>
@@ -45891,8 +46767,12 @@
       <c r="BF136" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG136" s="33"/>
-      <c r="BH136" s="33"/>
+      <c r="BG136" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH136" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI136" s="33"/>
       <c r="BJ136" s="33"/>
       <c r="BK136" s="33"/>
@@ -46087,8 +46967,12 @@
       <c r="BF137" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG137" s="33"/>
-      <c r="BH137" s="33"/>
+      <c r="BG137" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH137" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI137" s="33"/>
       <c r="BJ137" s="33"/>
       <c r="BK137" s="33"/>
@@ -46283,8 +47167,12 @@
       <c r="BF138" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG138" s="33"/>
-      <c r="BH138" s="33"/>
+      <c r="BG138" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH138" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI138" s="33"/>
       <c r="BJ138" s="33"/>
       <c r="BK138" s="33"/>
@@ -46479,8 +47367,12 @@
       <c r="BF139" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG139" s="33"/>
-      <c r="BH139" s="33"/>
+      <c r="BG139" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH139" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI139" s="33"/>
       <c r="BJ139" s="33"/>
       <c r="BK139" s="33"/>
@@ -46675,8 +47567,12 @@
       <c r="BF140" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG140" s="33"/>
-      <c r="BH140" s="33"/>
+      <c r="BG140" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH140" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI140" s="33"/>
       <c r="BJ140" s="33"/>
       <c r="BK140" s="33"/>
@@ -46871,8 +47767,12 @@
       <c r="BF141" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG141" s="33"/>
-      <c r="BH141" s="33"/>
+      <c r="BG141" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH141" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI141" s="33"/>
       <c r="BJ141" s="33"/>
       <c r="BK141" s="33"/>
@@ -47067,8 +47967,12 @@
       <c r="BF142" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG142" s="33"/>
-      <c r="BH142" s="33"/>
+      <c r="BG142" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH142" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI142" s="33"/>
       <c r="BJ142" s="33"/>
       <c r="BK142" s="33"/>
@@ -47263,8 +48167,12 @@
       <c r="BF143" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG143" s="33"/>
-      <c r="BH143" s="33"/>
+      <c r="BG143" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH143" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI143" s="33"/>
       <c r="BJ143" s="33"/>
       <c r="BK143" s="33"/>
@@ -47459,8 +48367,12 @@
       <c r="BF144" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG144" s="33"/>
-      <c r="BH144" s="33"/>
+      <c r="BG144" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH144" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI144" s="33"/>
       <c r="BJ144" s="33"/>
       <c r="BK144" s="33"/>
@@ -47655,8 +48567,12 @@
       <c r="BF145" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG145" s="33"/>
-      <c r="BH145" s="33"/>
+      <c r="BG145" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH145" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI145" s="33"/>
       <c r="BJ145" s="33"/>
       <c r="BK145" s="33"/>
@@ -47851,8 +48767,12 @@
       <c r="BF146" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG146" s="33"/>
-      <c r="BH146" s="33"/>
+      <c r="BG146" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH146" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI146" s="33"/>
       <c r="BJ146" s="33"/>
       <c r="BK146" s="33"/>
@@ -48047,8 +48967,12 @@
       <c r="BF147" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG147" s="33"/>
-      <c r="BH147" s="33"/>
+      <c r="BG147" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH147" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI147" s="33"/>
       <c r="BJ147" s="33"/>
       <c r="BK147" s="33"/>
@@ -48243,8 +49167,12 @@
       <c r="BF148" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG148" s="33"/>
-      <c r="BH148" s="33"/>
+      <c r="BG148" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH148" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI148" s="33"/>
       <c r="BJ148" s="33"/>
       <c r="BK148" s="33"/>
@@ -48439,8 +49367,12 @@
       <c r="BF149" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG149" s="33"/>
-      <c r="BH149" s="33"/>
+      <c r="BG149" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH149" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI149" s="33"/>
       <c r="BJ149" s="33"/>
       <c r="BK149" s="33"/>
@@ -48635,8 +49567,12 @@
       <c r="BF150" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG150" s="33"/>
-      <c r="BH150" s="33"/>
+      <c r="BG150" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH150" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI150" s="33"/>
       <c r="BJ150" s="33"/>
       <c r="BK150" s="33"/>
@@ -48831,8 +49767,12 @@
       <c r="BF151" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG151" s="33"/>
-      <c r="BH151" s="33"/>
+      <c r="BG151" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH151" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI151" s="33"/>
       <c r="BJ151" s="33"/>
       <c r="BK151" s="33"/>
@@ -49027,8 +49967,12 @@
       <c r="BF152" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG152" s="33"/>
-      <c r="BH152" s="33"/>
+      <c r="BG152" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH152" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI152" s="33"/>
       <c r="BJ152" s="33"/>
       <c r="BK152" s="33"/>
@@ -49223,8 +50167,12 @@
       <c r="BF153" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG153" s="33"/>
-      <c r="BH153" s="33"/>
+      <c r="BG153" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH153" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI153" s="33"/>
       <c r="BJ153" s="33"/>
       <c r="BK153" s="33"/>
@@ -49419,8 +50367,12 @@
       <c r="BF154" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG154" s="33"/>
-      <c r="BH154" s="33"/>
+      <c r="BG154" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH154" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI154" s="33"/>
       <c r="BJ154" s="33"/>
       <c r="BK154" s="33"/>
@@ -49615,8 +50567,12 @@
       <c r="BF155" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG155" s="33"/>
-      <c r="BH155" s="33"/>
+      <c r="BG155" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH155" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI155" s="33"/>
       <c r="BJ155" s="33"/>
       <c r="BK155" s="33"/>
@@ -49811,8 +50767,12 @@
       <c r="BF156" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG156" s="33"/>
-      <c r="BH156" s="33"/>
+      <c r="BG156" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH156" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI156" s="33"/>
       <c r="BJ156" s="33"/>
       <c r="BK156" s="33"/>
@@ -50007,8 +50967,12 @@
       <c r="BF157" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG157" s="33"/>
-      <c r="BH157" s="33"/>
+      <c r="BG157" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH157" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI157" s="33"/>
       <c r="BJ157" s="33"/>
       <c r="BK157" s="33"/>
@@ -50203,8 +51167,12 @@
       <c r="BF158" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG158" s="33"/>
-      <c r="BH158" s="33"/>
+      <c r="BG158" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH158" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI158" s="33"/>
       <c r="BJ158" s="33"/>
       <c r="BK158" s="33"/>
@@ -50399,8 +51367,12 @@
       <c r="BF159" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG159" s="33"/>
-      <c r="BH159" s="33"/>
+      <c r="BG159" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH159" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI159" s="33"/>
       <c r="BJ159" s="33"/>
       <c r="BK159" s="33"/>
@@ -50595,8 +51567,12 @@
       <c r="BF160" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG160" s="33"/>
-      <c r="BH160" s="33"/>
+      <c r="BG160" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH160" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI160" s="33"/>
       <c r="BJ160" s="33"/>
       <c r="BK160" s="33"/>
@@ -50791,8 +51767,12 @@
       <c r="BF161" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG161" s="33"/>
-      <c r="BH161" s="33"/>
+      <c r="BG161" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH161" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI161" s="33"/>
       <c r="BJ161" s="33"/>
       <c r="BK161" s="33"/>
@@ -50987,8 +51967,12 @@
       <c r="BF162" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG162" s="33"/>
-      <c r="BH162" s="33"/>
+      <c r="BG162" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH162" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI162" s="33"/>
       <c r="BJ162" s="33"/>
       <c r="BK162" s="33"/>
@@ -51183,8 +52167,12 @@
       <c r="BF163" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG163" s="33"/>
-      <c r="BH163" s="33"/>
+      <c r="BG163" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH163" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI163" s="33"/>
       <c r="BJ163" s="33"/>
       <c r="BK163" s="33"/>
@@ -51379,8 +52367,12 @@
       <c r="BF164" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG164" s="33"/>
-      <c r="BH164" s="33"/>
+      <c r="BG164" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH164" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI164" s="33"/>
       <c r="BJ164" s="33"/>
       <c r="BK164" s="33"/>
@@ -51575,8 +52567,12 @@
       <c r="BF165" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG165" s="33"/>
-      <c r="BH165" s="33"/>
+      <c r="BG165" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH165" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI165" s="33"/>
       <c r="BJ165" s="33"/>
       <c r="BK165" s="33"/>
@@ -51771,8 +52767,12 @@
       <c r="BF166" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG166" s="33"/>
-      <c r="BH166" s="33"/>
+      <c r="BG166" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH166" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI166" s="33"/>
       <c r="BJ166" s="33"/>
       <c r="BK166" s="33"/>
@@ -51967,8 +52967,12 @@
       <c r="BF167" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG167" s="33"/>
-      <c r="BH167" s="33"/>
+      <c r="BG167" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH167" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI167" s="33"/>
       <c r="BJ167" s="33"/>
       <c r="BK167" s="33"/>
@@ -52163,8 +53167,12 @@
       <c r="BF168" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG168" s="33"/>
-      <c r="BH168" s="33"/>
+      <c r="BG168" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH168" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI168" s="33"/>
       <c r="BJ168" s="33"/>
       <c r="BK168" s="33"/>
@@ -52359,8 +53367,12 @@
       <c r="BF169" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG169" s="33"/>
-      <c r="BH169" s="33"/>
+      <c r="BG169" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH169" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI169" s="33"/>
       <c r="BJ169" s="33"/>
       <c r="BK169" s="33"/>
@@ -52555,8 +53567,12 @@
       <c r="BF170" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG170" s="33"/>
-      <c r="BH170" s="33"/>
+      <c r="BG170" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH170" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI170" s="33"/>
       <c r="BJ170" s="33"/>
       <c r="BK170" s="33"/>
@@ -52751,8 +53767,12 @@
       <c r="BF171" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG171" s="33"/>
-      <c r="BH171" s="33"/>
+      <c r="BG171" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH171" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI171" s="33"/>
       <c r="BJ171" s="33"/>
       <c r="BK171" s="33"/>
@@ -52947,8 +53967,12 @@
       <c r="BF172" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG172" s="33"/>
-      <c r="BH172" s="33"/>
+      <c r="BG172" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH172" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI172" s="33"/>
       <c r="BJ172" s="33"/>
       <c r="BK172" s="33"/>
@@ -53143,8 +54167,12 @@
       <c r="BF173" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG173" s="33"/>
-      <c r="BH173" s="33"/>
+      <c r="BG173" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH173" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI173" s="33"/>
       <c r="BJ173" s="33"/>
       <c r="BK173" s="33"/>
@@ -53339,8 +54367,12 @@
       <c r="BF174" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG174" s="33"/>
-      <c r="BH174" s="33"/>
+      <c r="BG174" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH174" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI174" s="33"/>
       <c r="BJ174" s="33"/>
       <c r="BK174" s="33"/>
@@ -53535,8 +54567,12 @@
       <c r="BF175" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG175" s="33"/>
-      <c r="BH175" s="33"/>
+      <c r="BG175" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH175" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI175" s="33"/>
       <c r="BJ175" s="33"/>
       <c r="BK175" s="33"/>
@@ -53731,8 +54767,12 @@
       <c r="BF176" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG176" s="33"/>
-      <c r="BH176" s="33"/>
+      <c r="BG176" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH176" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI176" s="33"/>
       <c r="BJ176" s="33"/>
       <c r="BK176" s="33"/>
@@ -53927,8 +54967,12 @@
       <c r="BF177" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG177" s="33"/>
-      <c r="BH177" s="33"/>
+      <c r="BG177" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH177" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI177" s="33"/>
       <c r="BJ177" s="33"/>
       <c r="BK177" s="33"/>
@@ -54123,8 +55167,12 @@
       <c r="BF178" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG178" s="33"/>
-      <c r="BH178" s="33"/>
+      <c r="BG178" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH178" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI178" s="33"/>
       <c r="BJ178" s="33"/>
       <c r="BK178" s="33"/>
@@ -54319,8 +55367,12 @@
       <c r="BF179" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG179" s="33"/>
-      <c r="BH179" s="33"/>
+      <c r="BG179" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH179" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI179" s="33"/>
       <c r="BJ179" s="33"/>
       <c r="BK179" s="33"/>
@@ -54515,8 +55567,12 @@
       <c r="BF180" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG180" s="33"/>
-      <c r="BH180" s="33"/>
+      <c r="BG180" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH180" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI180" s="33"/>
       <c r="BJ180" s="33"/>
       <c r="BK180" s="33"/>
@@ -54711,8 +55767,12 @@
       <c r="BF181" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG181" s="33"/>
-      <c r="BH181" s="33"/>
+      <c r="BG181" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH181" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI181" s="33"/>
       <c r="BJ181" s="33"/>
       <c r="BK181" s="33"/>
@@ -54907,8 +55967,12 @@
       <c r="BF182" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG182" s="33"/>
-      <c r="BH182" s="33"/>
+      <c r="BG182" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH182" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI182" s="33"/>
       <c r="BJ182" s="33"/>
       <c r="BK182" s="33"/>
@@ -55103,8 +56167,12 @@
       <c r="BF183" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG183" s="33"/>
-      <c r="BH183" s="33"/>
+      <c r="BG183" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH183" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI183" s="33"/>
       <c r="BJ183" s="33"/>
       <c r="BK183" s="33"/>
@@ -55299,8 +56367,12 @@
       <c r="BF184" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG184" s="33"/>
-      <c r="BH184" s="33"/>
+      <c r="BG184" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH184" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI184" s="33"/>
       <c r="BJ184" s="33"/>
       <c r="BK184" s="33"/>
@@ -55495,8 +56567,12 @@
       <c r="BF185" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG185" s="33"/>
-      <c r="BH185" s="33"/>
+      <c r="BG185" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH185" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI185" s="33"/>
       <c r="BJ185" s="33"/>
       <c r="BK185" s="33"/>
@@ -55691,8 +56767,12 @@
       <c r="BF186" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG186" s="33"/>
-      <c r="BH186" s="33"/>
+      <c r="BG186" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH186" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI186" s="33"/>
       <c r="BJ186" s="33"/>
       <c r="BK186" s="33"/>
@@ -55887,8 +56967,12 @@
       <c r="BF187" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG187" s="33"/>
-      <c r="BH187" s="33"/>
+      <c r="BG187" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH187" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI187" s="33"/>
       <c r="BJ187" s="33"/>
       <c r="BK187" s="33"/>
@@ -56083,8 +57167,12 @@
       <c r="BF188" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG188" s="33"/>
-      <c r="BH188" s="33"/>
+      <c r="BG188" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH188" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI188" s="33"/>
       <c r="BJ188" s="33"/>
       <c r="BK188" s="33"/>
@@ -56279,8 +57367,12 @@
       <c r="BF189" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG189" s="33"/>
-      <c r="BH189" s="33"/>
+      <c r="BG189" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH189" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI189" s="33"/>
       <c r="BJ189" s="33"/>
       <c r="BK189" s="33"/>
@@ -56475,8 +57567,12 @@
       <c r="BF190" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG190" s="33"/>
-      <c r="BH190" s="33"/>
+      <c r="BG190" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH190" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI190" s="33"/>
       <c r="BJ190" s="33"/>
       <c r="BK190" s="33"/>
@@ -56671,8 +57767,12 @@
       <c r="BF191" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG191" s="33"/>
-      <c r="BH191" s="33"/>
+      <c r="BG191" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH191" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI191" s="33"/>
       <c r="BJ191" s="33"/>
       <c r="BK191" s="33"/>
@@ -56867,8 +57967,12 @@
       <c r="BF192" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG192" s="33"/>
-      <c r="BH192" s="33"/>
+      <c r="BG192" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH192" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI192" s="33"/>
       <c r="BJ192" s="33"/>
       <c r="BK192" s="33"/>
@@ -57063,8 +58167,12 @@
       <c r="BF193" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG193" s="33"/>
-      <c r="BH193" s="33"/>
+      <c r="BG193" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH193" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI193" s="33"/>
       <c r="BJ193" s="33"/>
       <c r="BK193" s="33"/>
@@ -57259,8 +58367,12 @@
       <c r="BF194" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG194" s="33"/>
-      <c r="BH194" s="33"/>
+      <c r="BG194" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH194" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI194" s="33"/>
       <c r="BJ194" s="33"/>
       <c r="BK194" s="33"/>
@@ -57455,8 +58567,12 @@
       <c r="BF195" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG195" s="33"/>
-      <c r="BH195" s="33"/>
+      <c r="BG195" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH195" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI195" s="33"/>
       <c r="BJ195" s="33"/>
       <c r="BK195" s="33"/>
@@ -57651,8 +58767,12 @@
       <c r="BF196" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG196" s="33"/>
-      <c r="BH196" s="33"/>
+      <c r="BG196" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH196" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI196" s="33"/>
       <c r="BJ196" s="33"/>
       <c r="BK196" s="33"/>
@@ -57847,8 +58967,12 @@
       <c r="BF197" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG197" s="33"/>
-      <c r="BH197" s="33"/>
+      <c r="BG197" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH197" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI197" s="33"/>
       <c r="BJ197" s="33"/>
       <c r="BK197" s="33"/>
@@ -58043,8 +59167,12 @@
       <c r="BF198" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG198" s="33"/>
-      <c r="BH198" s="33"/>
+      <c r="BG198" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH198" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI198" s="33"/>
       <c r="BJ198" s="33"/>
       <c r="BK198" s="33"/>
@@ -58239,8 +59367,12 @@
       <c r="BF199" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG199" s="33"/>
-      <c r="BH199" s="33"/>
+      <c r="BG199" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH199" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI199" s="33"/>
       <c r="BJ199" s="33"/>
       <c r="BK199" s="33"/>
@@ -58435,8 +59567,12 @@
       <c r="BF200" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG200" s="33"/>
-      <c r="BH200" s="33"/>
+      <c r="BG200" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH200" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI200" s="33"/>
       <c r="BJ200" s="33"/>
       <c r="BK200" s="33"/>
@@ -58631,8 +59767,12 @@
       <c r="BF201" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG201" s="33"/>
-      <c r="BH201" s="33"/>
+      <c r="BG201" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH201" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI201" s="33"/>
       <c r="BJ201" s="33"/>
       <c r="BK201" s="33"/>
@@ -58827,8 +59967,12 @@
       <c r="BF202" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG202" s="33"/>
-      <c r="BH202" s="33"/>
+      <c r="BG202" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH202" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI202" s="33"/>
       <c r="BJ202" s="33"/>
       <c r="BK202" s="33"/>
@@ -59023,8 +60167,12 @@
       <c r="BF203" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG203" s="33"/>
-      <c r="BH203" s="33"/>
+      <c r="BG203" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH203" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI203" s="33"/>
       <c r="BJ203" s="33"/>
       <c r="BK203" s="33"/>
@@ -59219,8 +60367,12 @@
       <c r="BF204" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG204" s="33"/>
-      <c r="BH204" s="33"/>
+      <c r="BG204" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH204" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI204" s="33"/>
       <c r="BJ204" s="33"/>
       <c r="BK204" s="33"/>
@@ -59415,8 +60567,12 @@
       <c r="BF205" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG205" s="33"/>
-      <c r="BH205" s="33"/>
+      <c r="BG205" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH205" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI205" s="33"/>
       <c r="BJ205" s="33"/>
       <c r="BK205" s="33"/>
@@ -59611,8 +60767,12 @@
       <c r="BF206" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG206" s="33"/>
-      <c r="BH206" s="33"/>
+      <c r="BG206" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH206" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI206" s="33"/>
       <c r="BJ206" s="33"/>
       <c r="BK206" s="33"/>
@@ -59807,8 +60967,12 @@
       <c r="BF207" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG207" s="33"/>
-      <c r="BH207" s="33"/>
+      <c r="BG207" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH207" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI207" s="33"/>
       <c r="BJ207" s="33"/>
       <c r="BK207" s="33"/>
@@ -60003,8 +61167,12 @@
       <c r="BF208" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG208" s="33"/>
-      <c r="BH208" s="33"/>
+      <c r="BG208" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH208" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI208" s="33"/>
       <c r="BJ208" s="33"/>
       <c r="BK208" s="33"/>
@@ -60199,8 +61367,12 @@
       <c r="BF209" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG209" s="33"/>
-      <c r="BH209" s="33"/>
+      <c r="BG209" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH209" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI209" s="33"/>
       <c r="BJ209" s="33"/>
       <c r="BK209" s="33"/>
@@ -60395,8 +61567,12 @@
       <c r="BF210" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG210" s="33"/>
-      <c r="BH210" s="33"/>
+      <c r="BG210" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH210" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI210" s="33"/>
       <c r="BJ210" s="33"/>
       <c r="BK210" s="33"/>
@@ -60591,8 +61767,12 @@
       <c r="BF211" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG211" s="33"/>
-      <c r="BH211" s="33"/>
+      <c r="BG211" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH211" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI211" s="33"/>
       <c r="BJ211" s="33"/>
       <c r="BK211" s="33"/>
@@ -60787,8 +61967,12 @@
       <c r="BF212" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG212" s="33"/>
-      <c r="BH212" s="33"/>
+      <c r="BG212" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH212" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI212" s="33"/>
       <c r="BJ212" s="33"/>
       <c r="BK212" s="33"/>
@@ -60983,8 +62167,12 @@
       <c r="BF213" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG213" s="33"/>
-      <c r="BH213" s="33"/>
+      <c r="BG213" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH213" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI213" s="33"/>
       <c r="BJ213" s="33"/>
       <c r="BK213" s="33"/>
@@ -61179,8 +62367,12 @@
       <c r="BF214" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG214" s="33"/>
-      <c r="BH214" s="33"/>
+      <c r="BG214" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH214" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI214" s="33"/>
       <c r="BJ214" s="33"/>
       <c r="BK214" s="33"/>
@@ -61375,8 +62567,12 @@
       <c r="BF215" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG215" s="33"/>
-      <c r="BH215" s="33"/>
+      <c r="BG215" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH215" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI215" s="33"/>
       <c r="BJ215" s="33"/>
       <c r="BK215" s="33"/>
@@ -61571,8 +62767,12 @@
       <c r="BF216" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG216" s="33"/>
-      <c r="BH216" s="33"/>
+      <c r="BG216" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH216" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI216" s="33"/>
       <c r="BJ216" s="33"/>
       <c r="BK216" s="33"/>
@@ -61767,8 +62967,12 @@
       <c r="BF217" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG217" s="33"/>
-      <c r="BH217" s="33"/>
+      <c r="BG217" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH217" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI217" s="33"/>
       <c r="BJ217" s="33"/>
       <c r="BK217" s="33"/>
@@ -61963,8 +63167,12 @@
       <c r="BF218" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG218" s="33"/>
-      <c r="BH218" s="33"/>
+      <c r="BG218" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH218" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI218" s="33"/>
       <c r="BJ218" s="33"/>
       <c r="BK218" s="33"/>
@@ -62159,8 +63367,12 @@
       <c r="BF219" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG219" s="33"/>
-      <c r="BH219" s="33"/>
+      <c r="BG219" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH219" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI219" s="33"/>
       <c r="BJ219" s="33"/>
       <c r="BK219" s="33"/>
@@ -62355,8 +63567,12 @@
       <c r="BF220" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG220" s="33"/>
-      <c r="BH220" s="33"/>
+      <c r="BG220" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH220" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI220" s="33"/>
       <c r="BJ220" s="33"/>
       <c r="BK220" s="33"/>
@@ -62551,8 +63767,12 @@
       <c r="BF221" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG221" s="33"/>
-      <c r="BH221" s="33"/>
+      <c r="BG221" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH221" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI221" s="33"/>
       <c r="BJ221" s="33"/>
       <c r="BK221" s="33"/>
@@ -62747,8 +63967,12 @@
       <c r="BF222" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG222" s="33"/>
-      <c r="BH222" s="33"/>
+      <c r="BG222" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH222" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI222" s="33"/>
       <c r="BJ222" s="33"/>
       <c r="BK222" s="33"/>
@@ -62943,8 +64167,12 @@
       <c r="BF223" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG223" s="33"/>
-      <c r="BH223" s="33"/>
+      <c r="BG223" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH223" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI223" s="33"/>
       <c r="BJ223" s="33"/>
       <c r="BK223" s="33"/>
@@ -63139,8 +64367,12 @@
       <c r="BF224" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG224" s="33"/>
-      <c r="BH224" s="33"/>
+      <c r="BG224" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH224" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI224" s="33"/>
       <c r="BJ224" s="33"/>
       <c r="BK224" s="33"/>
@@ -63335,8 +64567,12 @@
       <c r="BF225" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG225" s="33"/>
-      <c r="BH225" s="33"/>
+      <c r="BG225" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH225" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI225" s="33"/>
       <c r="BJ225" s="33"/>
       <c r="BK225" s="33"/>
@@ -63531,8 +64767,12 @@
       <c r="BF226" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG226" s="33"/>
-      <c r="BH226" s="33"/>
+      <c r="BG226" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH226" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI226" s="33"/>
       <c r="BJ226" s="33"/>
       <c r="BK226" s="33"/>
@@ -63727,8 +64967,12 @@
       <c r="BF227" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG227" s="33"/>
-      <c r="BH227" s="33"/>
+      <c r="BG227" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH227" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI227" s="33"/>
       <c r="BJ227" s="33"/>
       <c r="BK227" s="33"/>
@@ -63923,8 +65167,12 @@
       <c r="BF228" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG228" s="33"/>
-      <c r="BH228" s="33"/>
+      <c r="BG228" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH228" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI228" s="33"/>
       <c r="BJ228" s="33"/>
       <c r="BK228" s="33"/>
@@ -64119,8 +65367,12 @@
       <c r="BF229" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG229" s="33"/>
-      <c r="BH229" s="33"/>
+      <c r="BG229" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH229" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI229" s="33"/>
       <c r="BJ229" s="33"/>
       <c r="BK229" s="33"/>
@@ -64315,8 +65567,12 @@
       <c r="BF230" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG230" s="33"/>
-      <c r="BH230" s="33"/>
+      <c r="BG230" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH230" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI230" s="33"/>
       <c r="BJ230" s="33"/>
       <c r="BK230" s="33"/>
@@ -64511,8 +65767,12 @@
       <c r="BF231" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG231" s="33"/>
-      <c r="BH231" s="33"/>
+      <c r="BG231" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH231" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI231" s="33"/>
       <c r="BJ231" s="33"/>
       <c r="BK231" s="33"/>
@@ -64707,8 +65967,12 @@
       <c r="BF232" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG232" s="33"/>
-      <c r="BH232" s="33"/>
+      <c r="BG232" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH232" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI232" s="33"/>
       <c r="BJ232" s="33"/>
       <c r="BK232" s="33"/>
@@ -64903,8 +66167,12 @@
       <c r="BF233" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG233" s="33"/>
-      <c r="BH233" s="33"/>
+      <c r="BG233" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH233" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI233" s="33"/>
       <c r="BJ233" s="33"/>
       <c r="BK233" s="33"/>
@@ -65099,8 +66367,12 @@
       <c r="BF234" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG234" s="33"/>
-      <c r="BH234" s="33"/>
+      <c r="BG234" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH234" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI234" s="33"/>
       <c r="BJ234" s="33"/>
       <c r="BK234" s="33"/>
@@ -65295,8 +66567,12 @@
       <c r="BF235" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG235" s="33"/>
-      <c r="BH235" s="33"/>
+      <c r="BG235" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH235" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI235" s="33"/>
       <c r="BJ235" s="33"/>
       <c r="BK235" s="33"/>
@@ -65491,8 +66767,12 @@
       <c r="BF236" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG236" s="33"/>
-      <c r="BH236" s="33"/>
+      <c r="BG236" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH236" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI236" s="33"/>
       <c r="BJ236" s="33"/>
       <c r="BK236" s="33"/>
@@ -65687,8 +66967,12 @@
       <c r="BF237" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG237" s="33"/>
-      <c r="BH237" s="33"/>
+      <c r="BG237" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH237" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI237" s="33"/>
       <c r="BJ237" s="33"/>
       <c r="BK237" s="33"/>
@@ -65883,8 +67167,12 @@
       <c r="BF238" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG238" s="33"/>
-      <c r="BH238" s="33"/>
+      <c r="BG238" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH238" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI238" s="33"/>
       <c r="BJ238" s="33"/>
       <c r="BK238" s="33"/>
@@ -66079,8 +67367,12 @@
       <c r="BF239" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG239" s="33"/>
-      <c r="BH239" s="33"/>
+      <c r="BG239" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH239" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI239" s="33"/>
       <c r="BJ239" s="33"/>
       <c r="BK239" s="33"/>
@@ -66275,8 +67567,12 @@
       <c r="BF240" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG240" s="33"/>
-      <c r="BH240" s="33"/>
+      <c r="BG240" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH240" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI240" s="33"/>
       <c r="BJ240" s="33"/>
       <c r="BK240" s="33"/>
@@ -66471,8 +67767,12 @@
       <c r="BF241" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG241" s="33"/>
-      <c r="BH241" s="33"/>
+      <c r="BG241" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH241" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI241" s="33"/>
       <c r="BJ241" s="33"/>
       <c r="BK241" s="33"/>
@@ -66667,8 +67967,12 @@
       <c r="BF242" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG242" s="33"/>
-      <c r="BH242" s="33"/>
+      <c r="BG242" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH242" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI242" s="33"/>
       <c r="BJ242" s="33"/>
       <c r="BK242" s="33"/>
@@ -66863,8 +68167,12 @@
       <c r="BF243" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG243" s="33"/>
-      <c r="BH243" s="33"/>
+      <c r="BG243" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH243" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI243" s="33"/>
       <c r="BJ243" s="33"/>
       <c r="BK243" s="33"/>
@@ -67059,8 +68367,12 @@
       <c r="BF244" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG244" s="33"/>
-      <c r="BH244" s="33"/>
+      <c r="BG244" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH244" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI244" s="33"/>
       <c r="BJ244" s="33"/>
       <c r="BK244" s="33"/>
@@ -67255,8 +68567,12 @@
       <c r="BF245" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG245" s="33"/>
-      <c r="BH245" s="33"/>
+      <c r="BG245" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH245" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI245" s="33"/>
       <c r="BJ245" s="33"/>
       <c r="BK245" s="33"/>
@@ -67451,8 +68767,12 @@
       <c r="BF246" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG246" s="33"/>
-      <c r="BH246" s="33"/>
+      <c r="BG246" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH246" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI246" s="33"/>
       <c r="BJ246" s="33"/>
       <c r="BK246" s="33"/>
@@ -67647,8 +68967,12 @@
       <c r="BF247" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG247" s="33"/>
-      <c r="BH247" s="33"/>
+      <c r="BG247" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH247" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI247" s="33"/>
       <c r="BJ247" s="33"/>
       <c r="BK247" s="33"/>
@@ -67843,8 +69167,12 @@
       <c r="BF248" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG248" s="33"/>
-      <c r="BH248" s="33"/>
+      <c r="BG248" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH248" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI248" s="33"/>
       <c r="BJ248" s="33"/>
       <c r="BK248" s="33"/>
@@ -68039,8 +69367,12 @@
       <c r="BF249" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG249" s="33"/>
-      <c r="BH249" s="33"/>
+      <c r="BG249" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH249" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI249" s="33"/>
       <c r="BJ249" s="33"/>
       <c r="BK249" s="33"/>
@@ -68235,8 +69567,12 @@
       <c r="BF250" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG250" s="33"/>
-      <c r="BH250" s="33"/>
+      <c r="BG250" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH250" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI250" s="33"/>
       <c r="BJ250" s="33"/>
       <c r="BK250" s="33"/>
@@ -68431,8 +69767,12 @@
       <c r="BF251" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG251" s="33"/>
-      <c r="BH251" s="33"/>
+      <c r="BG251" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH251" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI251" s="33"/>
       <c r="BJ251" s="33"/>
       <c r="BK251" s="33"/>
@@ -68627,8 +69967,12 @@
       <c r="BF252" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG252" s="33"/>
-      <c r="BH252" s="33"/>
+      <c r="BG252" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH252" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI252" s="33"/>
       <c r="BJ252" s="33"/>
       <c r="BK252" s="33"/>
@@ -68823,8 +70167,12 @@
       <c r="BF253" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG253" s="33"/>
-      <c r="BH253" s="33"/>
+      <c r="BG253" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH253" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI253" s="33"/>
       <c r="BJ253" s="33"/>
       <c r="BK253" s="33"/>
@@ -69019,8 +70367,12 @@
       <c r="BF254" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG254" s="33"/>
-      <c r="BH254" s="33"/>
+      <c r="BG254" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH254" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI254" s="33"/>
       <c r="BJ254" s="33"/>
       <c r="BK254" s="33"/>
@@ -69215,8 +70567,12 @@
       <c r="BF255" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG255" s="33"/>
-      <c r="BH255" s="33"/>
+      <c r="BG255" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH255" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI255" s="33"/>
       <c r="BJ255" s="33"/>
       <c r="BK255" s="33"/>
@@ -69411,8 +70767,12 @@
       <c r="BF256" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG256" s="33"/>
-      <c r="BH256" s="33"/>
+      <c r="BG256" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH256" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI256" s="33"/>
       <c r="BJ256" s="33"/>
       <c r="BK256" s="33"/>
@@ -69607,8 +70967,12 @@
       <c r="BF257" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG257" s="33"/>
-      <c r="BH257" s="33"/>
+      <c r="BG257" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH257" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI257" s="33"/>
       <c r="BJ257" s="33"/>
       <c r="BK257" s="33"/>
@@ -69803,8 +71167,12 @@
       <c r="BF258" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG258" s="33"/>
-      <c r="BH258" s="33"/>
+      <c r="BG258" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH258" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI258" s="33"/>
       <c r="BJ258" s="33"/>
       <c r="BK258" s="33"/>
@@ -69999,8 +71367,12 @@
       <c r="BF259" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG259" s="33"/>
-      <c r="BH259" s="33"/>
+      <c r="BG259" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH259" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI259" s="33"/>
       <c r="BJ259" s="33"/>
       <c r="BK259" s="33"/>
@@ -70195,8 +71567,12 @@
       <c r="BF260" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG260" s="33"/>
-      <c r="BH260" s="33"/>
+      <c r="BG260" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH260" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI260" s="33"/>
       <c r="BJ260" s="33"/>
       <c r="BK260" s="33"/>
@@ -70391,8 +71767,12 @@
       <c r="BF261" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG261" s="33"/>
-      <c r="BH261" s="33"/>
+      <c r="BG261" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH261" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI261" s="33"/>
       <c r="BJ261" s="33"/>
       <c r="BK261" s="33"/>
@@ -70587,8 +71967,12 @@
       <c r="BF262" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG262" s="33"/>
-      <c r="BH262" s="33"/>
+      <c r="BG262" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH262" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI262" s="33"/>
       <c r="BJ262" s="33"/>
       <c r="BK262" s="33"/>
@@ -70783,8 +72167,12 @@
       <c r="BF263" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG263" s="33"/>
-      <c r="BH263" s="33"/>
+      <c r="BG263" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH263" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI263" s="33"/>
       <c r="BJ263" s="33"/>
       <c r="BK263" s="33"/>
@@ -70979,8 +72367,12 @@
       <c r="BF264" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG264" s="33"/>
-      <c r="BH264" s="33"/>
+      <c r="BG264" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH264" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI264" s="33"/>
       <c r="BJ264" s="33"/>
       <c r="BK264" s="33"/>
@@ -71175,8 +72567,12 @@
       <c r="BF265" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG265" s="33"/>
-      <c r="BH265" s="33"/>
+      <c r="BG265" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH265" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI265" s="33"/>
       <c r="BJ265" s="33"/>
       <c r="BK265" s="33"/>
@@ -71371,8 +72767,12 @@
       <c r="BF266" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG266" s="33"/>
-      <c r="BH266" s="33"/>
+      <c r="BG266" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH266" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI266" s="33"/>
       <c r="BJ266" s="33"/>
       <c r="BK266" s="33"/>
@@ -71567,8 +72967,12 @@
       <c r="BF267" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG267" s="33"/>
-      <c r="BH267" s="33"/>
+      <c r="BG267" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH267" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI267" s="33"/>
       <c r="BJ267" s="33"/>
       <c r="BK267" s="33"/>
@@ -71763,8 +73167,12 @@
       <c r="BF268" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG268" s="33"/>
-      <c r="BH268" s="33"/>
+      <c r="BG268" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH268" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI268" s="33"/>
       <c r="BJ268" s="33"/>
       <c r="BK268" s="33"/>
@@ -71959,8 +73367,12 @@
       <c r="BF269" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG269" s="33"/>
-      <c r="BH269" s="33"/>
+      <c r="BG269" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH269" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI269" s="33"/>
       <c r="BJ269" s="33"/>
       <c r="BK269" s="33"/>
@@ -72155,8 +73567,12 @@
       <c r="BF270" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG270" s="33"/>
-      <c r="BH270" s="33"/>
+      <c r="BG270" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH270" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI270" s="33"/>
       <c r="BJ270" s="33"/>
       <c r="BK270" s="33"/>
@@ -72351,8 +73767,12 @@
       <c r="BF271" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG271" s="33"/>
-      <c r="BH271" s="33"/>
+      <c r="BG271" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH271" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI271" s="33"/>
       <c r="BJ271" s="33"/>
       <c r="BK271" s="33"/>
@@ -72547,8 +73967,12 @@
       <c r="BF272" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG272" s="33"/>
-      <c r="BH272" s="33"/>
+      <c r="BG272" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH272" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI272" s="33"/>
       <c r="BJ272" s="33"/>
       <c r="BK272" s="33"/>
@@ -72743,8 +74167,12 @@
       <c r="BF273" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG273" s="33"/>
-      <c r="BH273" s="33"/>
+      <c r="BG273" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH273" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI273" s="33"/>
       <c r="BJ273" s="33"/>
       <c r="BK273" s="33"/>
@@ -72939,8 +74367,12 @@
       <c r="BF274" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG274" s="33"/>
-      <c r="BH274" s="33"/>
+      <c r="BG274" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH274" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI274" s="33"/>
       <c r="BJ274" s="33"/>
       <c r="BK274" s="33"/>
@@ -73135,8 +74567,12 @@
       <c r="BF275" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG275" s="33"/>
-      <c r="BH275" s="33"/>
+      <c r="BG275" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH275" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI275" s="33"/>
       <c r="BJ275" s="33"/>
       <c r="BK275" s="33"/>
@@ -73331,8 +74767,12 @@
       <c r="BF276" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG276" s="33"/>
-      <c r="BH276" s="33"/>
+      <c r="BG276" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH276" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI276" s="33"/>
       <c r="BJ276" s="33"/>
       <c r="BK276" s="33"/>
@@ -73527,8 +74967,12 @@
       <c r="BF277" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG277" s="33"/>
-      <c r="BH277" s="33"/>
+      <c r="BG277" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH277" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI277" s="33"/>
       <c r="BJ277" s="33"/>
       <c r="BK277" s="33"/>
@@ -73723,8 +75167,12 @@
       <c r="BF278" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG278" s="33"/>
-      <c r="BH278" s="33"/>
+      <c r="BG278" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH278" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI278" s="33"/>
       <c r="BJ278" s="33"/>
       <c r="BK278" s="33"/>
@@ -73919,8 +75367,12 @@
       <c r="BF279" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG279" s="33"/>
-      <c r="BH279" s="33"/>
+      <c r="BG279" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH279" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI279" s="33"/>
       <c r="BJ279" s="33"/>
       <c r="BK279" s="33"/>
@@ -74115,8 +75567,12 @@
       <c r="BF280" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG280" s="33"/>
-      <c r="BH280" s="33"/>
+      <c r="BG280" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH280" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI280" s="33"/>
       <c r="BJ280" s="33"/>
       <c r="BK280" s="33"/>
@@ -74311,8 +75767,12 @@
       <c r="BF281" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG281" s="33"/>
-      <c r="BH281" s="33"/>
+      <c r="BG281" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH281" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI281" s="33"/>
       <c r="BJ281" s="33"/>
       <c r="BK281" s="33"/>
@@ -74507,8 +75967,12 @@
       <c r="BF282" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG282" s="33"/>
-      <c r="BH282" s="33"/>
+      <c r="BG282" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH282" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI282" s="33"/>
       <c r="BJ282" s="33"/>
       <c r="BK282" s="33"/>
@@ -74703,8 +76167,12 @@
       <c r="BF283" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG283" s="33"/>
-      <c r="BH283" s="33"/>
+      <c r="BG283" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH283" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI283" s="33"/>
       <c r="BJ283" s="33"/>
       <c r="BK283" s="33"/>
@@ -74899,8 +76367,12 @@
       <c r="BF284" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG284" s="33"/>
-      <c r="BH284" s="33"/>
+      <c r="BG284" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH284" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI284" s="33"/>
       <c r="BJ284" s="33"/>
       <c r="BK284" s="33"/>
@@ -75095,8 +76567,12 @@
       <c r="BF285" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG285" s="33"/>
-      <c r="BH285" s="33"/>
+      <c r="BG285" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH285" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI285" s="33"/>
       <c r="BJ285" s="33"/>
       <c r="BK285" s="33"/>
@@ -75291,8 +76767,12 @@
       <c r="BF286" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG286" s="33"/>
-      <c r="BH286" s="33"/>
+      <c r="BG286" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH286" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI286" s="33"/>
       <c r="BJ286" s="33"/>
       <c r="BK286" s="33"/>
@@ -75487,8 +76967,12 @@
       <c r="BF287" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG287" s="33"/>
-      <c r="BH287" s="33"/>
+      <c r="BG287" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH287" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI287" s="33"/>
       <c r="BJ287" s="33"/>
       <c r="BK287" s="33"/>
@@ -75683,8 +77167,12 @@
       <c r="BF288" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG288" s="33"/>
-      <c r="BH288" s="33"/>
+      <c r="BG288" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH288" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI288" s="33"/>
       <c r="BJ288" s="33"/>
       <c r="BK288" s="33"/>
@@ -75879,8 +77367,12 @@
       <c r="BF289" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG289" s="33"/>
-      <c r="BH289" s="33"/>
+      <c r="BG289" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH289" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI289" s="33"/>
       <c r="BJ289" s="33"/>
       <c r="BK289" s="33"/>
@@ -76075,8 +77567,12 @@
       <c r="BF290" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG290" s="33"/>
-      <c r="BH290" s="33"/>
+      <c r="BG290" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH290" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI290" s="33"/>
       <c r="BJ290" s="33"/>
       <c r="BK290" s="33"/>
@@ -76271,8 +77767,12 @@
       <c r="BF291" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG291" s="33"/>
-      <c r="BH291" s="33"/>
+      <c r="BG291" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH291" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI291" s="33"/>
       <c r="BJ291" s="33"/>
       <c r="BK291" s="33"/>
@@ -76467,8 +77967,12 @@
       <c r="BF292" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG292" s="33"/>
-      <c r="BH292" s="33"/>
+      <c r="BG292" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH292" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI292" s="33"/>
       <c r="BJ292" s="33"/>
       <c r="BK292" s="33"/>
@@ -76663,8 +78167,12 @@
       <c r="BF293" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG293" s="33"/>
-      <c r="BH293" s="33"/>
+      <c r="BG293" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH293" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI293" s="33"/>
       <c r="BJ293" s="33"/>
       <c r="BK293" s="33"/>
@@ -76859,8 +78367,12 @@
       <c r="BF294" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG294" s="33"/>
-      <c r="BH294" s="33"/>
+      <c r="BG294" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH294" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI294" s="33"/>
       <c r="BJ294" s="33"/>
       <c r="BK294" s="33"/>
@@ -77055,8 +78567,12 @@
       <c r="BF295" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG295" s="33"/>
-      <c r="BH295" s="33"/>
+      <c r="BG295" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH295" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI295" s="33"/>
       <c r="BJ295" s="33"/>
       <c r="BK295" s="33"/>
@@ -77251,8 +78767,12 @@
       <c r="BF296" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG296" s="33"/>
-      <c r="BH296" s="33"/>
+      <c r="BG296" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH296" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI296" s="33"/>
       <c r="BJ296" s="33"/>
       <c r="BK296" s="33"/>
@@ -77447,8 +78967,12 @@
       <c r="BF297" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG297" s="33"/>
-      <c r="BH297" s="33"/>
+      <c r="BG297" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH297" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI297" s="33"/>
       <c r="BJ297" s="33"/>
       <c r="BK297" s="33"/>
@@ -77643,8 +79167,12 @@
       <c r="BF298" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG298" s="33"/>
-      <c r="BH298" s="33"/>
+      <c r="BG298" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH298" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI298" s="33"/>
       <c r="BJ298" s="33"/>
       <c r="BK298" s="33"/>
@@ -77839,8 +79367,12 @@
       <c r="BF299" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG299" s="33"/>
-      <c r="BH299" s="33"/>
+      <c r="BG299" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH299" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI299" s="33"/>
       <c r="BJ299" s="33"/>
       <c r="BK299" s="33"/>
@@ -78035,8 +79567,12 @@
       <c r="BF300" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG300" s="33"/>
-      <c r="BH300" s="33"/>
+      <c r="BG300" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH300" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI300" s="33"/>
       <c r="BJ300" s="33"/>
       <c r="BK300" s="33"/>
@@ -78231,8 +79767,12 @@
       <c r="BF301" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG301" s="33"/>
-      <c r="BH301" s="33"/>
+      <c r="BG301" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH301" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI301" s="33"/>
       <c r="BJ301" s="33"/>
       <c r="BK301" s="33"/>
@@ -78427,8 +79967,12 @@
       <c r="BF302" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG302" s="33"/>
-      <c r="BH302" s="33"/>
+      <c r="BG302" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH302" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI302" s="33"/>
       <c r="BJ302" s="33"/>
       <c r="BK302" s="33"/>
@@ -78623,8 +80167,12 @@
       <c r="BF303" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG303" s="33"/>
-      <c r="BH303" s="33"/>
+      <c r="BG303" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH303" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI303" s="33"/>
       <c r="BJ303" s="33"/>
       <c r="BK303" s="33"/>
@@ -78819,8 +80367,12 @@
       <c r="BF304" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG304" s="33"/>
-      <c r="BH304" s="33"/>
+      <c r="BG304" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH304" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI304" s="33"/>
       <c r="BJ304" s="33"/>
       <c r="BK304" s="33"/>
@@ -79015,8 +80567,12 @@
       <c r="BF305" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG305" s="33"/>
-      <c r="BH305" s="33"/>
+      <c r="BG305" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH305" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI305" s="33"/>
       <c r="BJ305" s="33"/>
       <c r="BK305" s="33"/>
@@ -79211,8 +80767,12 @@
       <c r="BF306" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG306" s="33"/>
-      <c r="BH306" s="33"/>
+      <c r="BG306" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH306" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI306" s="33"/>
       <c r="BJ306" s="33"/>
       <c r="BK306" s="33"/>
@@ -79407,8 +80967,12 @@
       <c r="BF307" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG307" s="33"/>
-      <c r="BH307" s="33"/>
+      <c r="BG307" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH307" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI307" s="33"/>
       <c r="BJ307" s="33"/>
       <c r="BK307" s="33"/>
@@ -79603,8 +81167,12 @@
       <c r="BF308" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG308" s="33"/>
-      <c r="BH308" s="33"/>
+      <c r="BG308" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH308" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI308" s="33"/>
       <c r="BJ308" s="33"/>
       <c r="BK308" s="33"/>
@@ -79799,8 +81367,12 @@
       <c r="BF309" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG309" s="33"/>
-      <c r="BH309" s="33"/>
+      <c r="BG309" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH309" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI309" s="33"/>
       <c r="BJ309" s="33"/>
       <c r="BK309" s="33"/>
@@ -79995,8 +81567,12 @@
       <c r="BF310" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG310" s="33"/>
-      <c r="BH310" s="33"/>
+      <c r="BG310" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH310" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI310" s="33"/>
       <c r="BJ310" s="33"/>
       <c r="BK310" s="33"/>
@@ -80191,8 +81767,12 @@
       <c r="BF311" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG311" s="33"/>
-      <c r="BH311" s="33"/>
+      <c r="BG311" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH311" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI311" s="33"/>
       <c r="BJ311" s="33"/>
       <c r="BK311" s="33"/>
@@ -80387,8 +81967,12 @@
       <c r="BF312" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG312" s="33"/>
-      <c r="BH312" s="33"/>
+      <c r="BG312" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH312" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI312" s="33"/>
       <c r="BJ312" s="33"/>
       <c r="BK312" s="33"/>
@@ -80583,8 +82167,12 @@
       <c r="BF313" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG313" s="33"/>
-      <c r="BH313" s="33"/>
+      <c r="BG313" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH313" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI313" s="33"/>
       <c r="BJ313" s="33"/>
       <c r="BK313" s="33"/>
@@ -80779,8 +82367,12 @@
       <c r="BF314" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG314" s="33"/>
-      <c r="BH314" s="33"/>
+      <c r="BG314" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH314" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI314" s="33"/>
       <c r="BJ314" s="33"/>
       <c r="BK314" s="33"/>
@@ -80975,8 +82567,12 @@
       <c r="BF315" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG315" s="33"/>
-      <c r="BH315" s="33"/>
+      <c r="BG315" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH315" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI315" s="33"/>
       <c r="BJ315" s="33"/>
       <c r="BK315" s="33"/>
@@ -81171,8 +82767,12 @@
       <c r="BF316" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG316" s="33"/>
-      <c r="BH316" s="33"/>
+      <c r="BG316" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH316" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI316" s="33"/>
       <c r="BJ316" s="33"/>
       <c r="BK316" s="33"/>
@@ -81367,8 +82967,12 @@
       <c r="BF317" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG317" s="33"/>
-      <c r="BH317" s="33"/>
+      <c r="BG317" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH317" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI317" s="33"/>
       <c r="BJ317" s="33"/>
       <c r="BK317" s="33"/>
@@ -81563,8 +83167,12 @@
       <c r="BF318" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG318" s="33"/>
-      <c r="BH318" s="33"/>
+      <c r="BG318" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH318" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI318" s="33"/>
       <c r="BJ318" s="33"/>
       <c r="BK318" s="33"/>
@@ -81759,8 +83367,12 @@
       <c r="BF319" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG319" s="33"/>
-      <c r="BH319" s="33"/>
+      <c r="BG319" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH319" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI319" s="33"/>
       <c r="BJ319" s="33"/>
       <c r="BK319" s="33"/>
@@ -81955,8 +83567,12 @@
       <c r="BF320" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG320" s="33"/>
-      <c r="BH320" s="33"/>
+      <c r="BG320" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH320" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI320" s="33"/>
       <c r="BJ320" s="33"/>
       <c r="BK320" s="33"/>
@@ -82151,8 +83767,12 @@
       <c r="BF321" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG321" s="33"/>
-      <c r="BH321" s="33"/>
+      <c r="BG321" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH321" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI321" s="33"/>
       <c r="BJ321" s="33"/>
       <c r="BK321" s="33"/>
@@ -82347,8 +83967,12 @@
       <c r="BF322" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG322" s="33"/>
-      <c r="BH322" s="33"/>
+      <c r="BG322" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH322" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI322" s="33"/>
       <c r="BJ322" s="33"/>
       <c r="BK322" s="33"/>
@@ -82543,8 +84167,12 @@
       <c r="BF323" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG323" s="33"/>
-      <c r="BH323" s="33"/>
+      <c r="BG323" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH323" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI323" s="33"/>
       <c r="BJ323" s="33"/>
       <c r="BK323" s="33"/>
@@ -82739,8 +84367,12 @@
       <c r="BF324" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG324" s="33"/>
-      <c r="BH324" s="33"/>
+      <c r="BG324" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH324" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI324" s="33"/>
       <c r="BJ324" s="33"/>
       <c r="BK324" s="33"/>
@@ -82935,8 +84567,12 @@
       <c r="BF325" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG325" s="33"/>
-      <c r="BH325" s="33"/>
+      <c r="BG325" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH325" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI325" s="33"/>
       <c r="BJ325" s="33"/>
       <c r="BK325" s="33"/>
@@ -83131,8 +84767,12 @@
       <c r="BF326" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG326" s="33"/>
-      <c r="BH326" s="33"/>
+      <c r="BG326" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH326" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI326" s="33"/>
       <c r="BJ326" s="33"/>
       <c r="BK326" s="33"/>
@@ -83327,8 +84967,12 @@
       <c r="BF327" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG327" s="33"/>
-      <c r="BH327" s="33"/>
+      <c r="BG327" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH327" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI327" s="33"/>
       <c r="BJ327" s="33"/>
       <c r="BK327" s="33"/>
@@ -83523,8 +85167,12 @@
       <c r="BF328" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG328" s="33"/>
-      <c r="BH328" s="33"/>
+      <c r="BG328" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH328" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI328" s="33"/>
       <c r="BJ328" s="33"/>
       <c r="BK328" s="33"/>
@@ -83719,8 +85367,12 @@
       <c r="BF329" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG329" s="33"/>
-      <c r="BH329" s="33"/>
+      <c r="BG329" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH329" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI329" s="33"/>
       <c r="BJ329" s="33"/>
       <c r="BK329" s="33"/>
@@ -83915,8 +85567,12 @@
       <c r="BF330" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG330" s="33"/>
-      <c r="BH330" s="33"/>
+      <c r="BG330" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH330" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI330" s="33"/>
       <c r="BJ330" s="33"/>
       <c r="BK330" s="33"/>
@@ -84111,8 +85767,12 @@
       <c r="BF331" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG331" s="33"/>
-      <c r="BH331" s="33"/>
+      <c r="BG331" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH331" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI331" s="33"/>
       <c r="BJ331" s="33"/>
       <c r="BK331" s="33"/>
@@ -84307,8 +85967,12 @@
       <c r="BF332" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG332" s="33"/>
-      <c r="BH332" s="33"/>
+      <c r="BG332" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH332" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI332" s="33"/>
       <c r="BJ332" s="33"/>
       <c r="BK332" s="33"/>
@@ -84503,8 +86167,12 @@
       <c r="BF333" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG333" s="33"/>
-      <c r="BH333" s="33"/>
+      <c r="BG333" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH333" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI333" s="33"/>
       <c r="BJ333" s="33"/>
       <c r="BK333" s="33"/>
@@ -84699,8 +86367,12 @@
       <c r="BF334" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG334" s="33"/>
-      <c r="BH334" s="33"/>
+      <c r="BG334" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH334" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI334" s="33"/>
       <c r="BJ334" s="33"/>
       <c r="BK334" s="33"/>
@@ -84895,8 +86567,12 @@
       <c r="BF335" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG335" s="33"/>
-      <c r="BH335" s="33"/>
+      <c r="BG335" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH335" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI335" s="33"/>
       <c r="BJ335" s="33"/>
       <c r="BK335" s="33"/>
@@ -85091,8 +86767,12 @@
       <c r="BF336" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG336" s="33"/>
-      <c r="BH336" s="33"/>
+      <c r="BG336" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH336" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI336" s="33"/>
       <c r="BJ336" s="33"/>
       <c r="BK336" s="33"/>
@@ -85287,8 +86967,12 @@
       <c r="BF337" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG337" s="33"/>
-      <c r="BH337" s="33"/>
+      <c r="BG337" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH337" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI337" s="33"/>
       <c r="BJ337" s="33"/>
       <c r="BK337" s="33"/>
@@ -85483,8 +87167,12 @@
       <c r="BF338" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG338" s="33"/>
-      <c r="BH338" s="33"/>
+      <c r="BG338" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH338" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI338" s="33"/>
       <c r="BJ338" s="33"/>
       <c r="BK338" s="33"/>
@@ -85679,8 +87367,12 @@
       <c r="BF339" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG339" s="33"/>
-      <c r="BH339" s="33"/>
+      <c r="BG339" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH339" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI339" s="33"/>
       <c r="BJ339" s="33"/>
       <c r="BK339" s="33"/>
@@ -85875,8 +87567,12 @@
       <c r="BF340" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG340" s="33"/>
-      <c r="BH340" s="33"/>
+      <c r="BG340" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH340" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI340" s="33"/>
       <c r="BJ340" s="33"/>
       <c r="BK340" s="33"/>
@@ -86071,8 +87767,12 @@
       <c r="BF341" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG341" s="33"/>
-      <c r="BH341" s="33"/>
+      <c r="BG341" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH341" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI341" s="33"/>
       <c r="BJ341" s="33"/>
       <c r="BK341" s="33"/>
@@ -86267,8 +87967,12 @@
       <c r="BF342" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BG342" s="33"/>
-      <c r="BH342" s="33"/>
+      <c r="BG342" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH342" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="BI342" s="33"/>
       <c r="BJ342" s="33"/>
       <c r="BK342" s="33"/>
@@ -86463,6 +88167,12 @@
       <c r="BF343" s="33" t="s">
         <v>453</v>
       </c>
+      <c r="BG343" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH343" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -86639,6 +88349,12 @@
       <c r="BF344" s="33" t="s">
         <v>453</v>
       </c>
+      <c r="BG344" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH344" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -86815,6 +88531,12 @@
       <c r="BF345" s="33" t="s">
         <v>453</v>
       </c>
+      <c r="BG345" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH345" s="33" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -86989,6 +88711,12 @@
         <v>453</v>
       </c>
       <c r="BF346" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG346" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH346" s="33" t="s">
         <v>453</v>
       </c>
     </row>

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 13 February 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 27 February 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092261EA-51E7-4499-BC3F-EAE97AEC16D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B5DB71-25AB-4C62-A997-88B3DB2720C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1415,16 +1415,16 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
-  </si>
-  <si>
     <t>Payroll jobs index by Statistical Area Level 3 (SA3)</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 3 March 2021</t>
+    <t>Week ending Saturday 27 February 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 13 February 2021</t>
+    <t>Released at 11.30am (Canberra time) 16 March 2021</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2985,8 +2985,12 @@
       <c r="BI6" s="9">
         <v>44240</v>
       </c>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
+      <c r="BJ6" s="9">
+        <v>44247</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>44254</v>
+      </c>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
       <c r="BN6" s="9"/>
@@ -3187,8 +3191,12 @@
       <c r="BI7" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
+      <c r="BJ7" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK7" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL7" s="33"/>
       <c r="BM7" s="33"/>
       <c r="BN7" s="33"/>
@@ -3389,8 +3397,12 @@
       <c r="BI8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
+      <c r="BJ8" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK8" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL8" s="33"/>
       <c r="BM8" s="33"/>
       <c r="BN8" s="33"/>
@@ -3591,8 +3603,12 @@
       <c r="BI9" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ9" s="33"/>
-      <c r="BK9" s="33"/>
+      <c r="BJ9" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK9" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL9" s="33"/>
       <c r="BM9" s="33"/>
       <c r="BN9" s="33"/>
@@ -3793,8 +3809,12 @@
       <c r="BI10" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ10" s="33"/>
-      <c r="BK10" s="33"/>
+      <c r="BJ10" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK10" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL10" s="33"/>
       <c r="BM10" s="33"/>
       <c r="BN10" s="33"/>
@@ -3995,8 +4015,12 @@
       <c r="BI11" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
+      <c r="BJ11" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK11" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL11" s="33"/>
       <c r="BM11" s="33"/>
       <c r="BN11" s="33"/>
@@ -4197,8 +4221,12 @@
       <c r="BI12" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
+      <c r="BJ12" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK12" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL12" s="33"/>
       <c r="BM12" s="33"/>
       <c r="BN12" s="33"/>
@@ -4399,8 +4427,12 @@
       <c r="BI13" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
+      <c r="BJ13" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK13" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL13" s="33"/>
       <c r="BM13" s="33"/>
       <c r="BN13" s="33"/>
@@ -4601,8 +4633,12 @@
       <c r="BI14" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="33"/>
+      <c r="BJ14" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK14" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="33"/>
@@ -4803,8 +4839,12 @@
       <c r="BI15" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
+      <c r="BJ15" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK15" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL15" s="33"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="33"/>
@@ -5005,8 +5045,12 @@
       <c r="BI16" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
+      <c r="BJ16" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK16" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL16" s="33"/>
       <c r="BM16" s="33"/>
       <c r="BN16" s="33"/>
@@ -5207,8 +5251,12 @@
       <c r="BI17" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ17" s="33"/>
-      <c r="BK17" s="33"/>
+      <c r="BJ17" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK17" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL17" s="33"/>
       <c r="BM17" s="33"/>
       <c r="BN17" s="33"/>
@@ -5409,8 +5457,12 @@
       <c r="BI18" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
+      <c r="BJ18" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK18" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL18" s="33"/>
       <c r="BM18" s="33"/>
       <c r="BN18" s="33"/>
@@ -5611,8 +5663,12 @@
       <c r="BI19" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="33"/>
+      <c r="BJ19" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK19" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL19" s="33"/>
       <c r="BM19" s="33"/>
       <c r="BN19" s="33"/>
@@ -5813,8 +5869,12 @@
       <c r="BI20" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="33"/>
+      <c r="BJ20" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK20" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="33"/>
       <c r="BN20" s="33"/>
@@ -6015,8 +6075,12 @@
       <c r="BI21" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="33"/>
+      <c r="BJ21" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK21" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL21" s="33"/>
       <c r="BM21" s="33"/>
       <c r="BN21" s="33"/>
@@ -6217,8 +6281,12 @@
       <c r="BI22" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ22" s="33"/>
-      <c r="BK22" s="33"/>
+      <c r="BJ22" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK22" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL22" s="33"/>
       <c r="BM22" s="33"/>
       <c r="BN22" s="33"/>
@@ -6419,8 +6487,12 @@
       <c r="BI23" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ23" s="33"/>
-      <c r="BK23" s="33"/>
+      <c r="BJ23" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK23" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL23" s="33"/>
       <c r="BM23" s="33"/>
       <c r="BN23" s="33"/>
@@ -6621,8 +6693,12 @@
       <c r="BI24" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ24" s="33"/>
-      <c r="BK24" s="33"/>
+      <c r="BJ24" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK24" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL24" s="33"/>
       <c r="BM24" s="33"/>
       <c r="BN24" s="33"/>
@@ -6823,8 +6899,12 @@
       <c r="BI25" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ25" s="33"/>
-      <c r="BK25" s="33"/>
+      <c r="BJ25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK25" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL25" s="33"/>
       <c r="BM25" s="33"/>
       <c r="BN25" s="33"/>
@@ -7025,8 +7105,12 @@
       <c r="BI26" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ26" s="33"/>
-      <c r="BK26" s="33"/>
+      <c r="BJ26" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK26" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL26" s="33"/>
       <c r="BM26" s="33"/>
       <c r="BN26" s="33"/>
@@ -7227,8 +7311,12 @@
       <c r="BI27" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
+      <c r="BJ27" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK27" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL27" s="33"/>
       <c r="BM27" s="33"/>
       <c r="BN27" s="33"/>
@@ -7429,8 +7517,12 @@
       <c r="BI28" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ28" s="33"/>
-      <c r="BK28" s="33"/>
+      <c r="BJ28" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK28" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL28" s="33"/>
       <c r="BM28" s="33"/>
       <c r="BN28" s="33"/>
@@ -7631,8 +7723,12 @@
       <c r="BI29" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ29" s="33"/>
-      <c r="BK29" s="33"/>
+      <c r="BJ29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK29" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL29" s="33"/>
       <c r="BM29" s="33"/>
       <c r="BN29" s="33"/>
@@ -7833,8 +7929,12 @@
       <c r="BI30" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ30" s="33"/>
-      <c r="BK30" s="33"/>
+      <c r="BJ30" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK30" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL30" s="33"/>
       <c r="BM30" s="33"/>
       <c r="BN30" s="33"/>
@@ -8035,8 +8135,12 @@
       <c r="BI31" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ31" s="33"/>
-      <c r="BK31" s="33"/>
+      <c r="BJ31" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK31" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL31" s="33"/>
       <c r="BM31" s="33"/>
       <c r="BN31" s="33"/>
@@ -8237,8 +8341,12 @@
       <c r="BI32" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ32" s="33"/>
-      <c r="BK32" s="33"/>
+      <c r="BJ32" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK32" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL32" s="33"/>
       <c r="BM32" s="33"/>
       <c r="BN32" s="33"/>
@@ -8439,8 +8547,12 @@
       <c r="BI33" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ33" s="33"/>
-      <c r="BK33" s="33"/>
+      <c r="BJ33" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK33" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL33" s="33"/>
       <c r="BM33" s="33"/>
       <c r="BN33" s="33"/>
@@ -8641,8 +8753,12 @@
       <c r="BI34" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
+      <c r="BJ34" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK34" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL34" s="33"/>
       <c r="BM34" s="33"/>
       <c r="BN34" s="33"/>
@@ -8843,8 +8959,12 @@
       <c r="BI35" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ35" s="33"/>
-      <c r="BK35" s="33"/>
+      <c r="BJ35" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK35" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL35" s="33"/>
       <c r="BM35" s="33"/>
       <c r="BN35" s="33"/>
@@ -9045,8 +9165,12 @@
       <c r="BI36" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ36" s="33"/>
-      <c r="BK36" s="33"/>
+      <c r="BJ36" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK36" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL36" s="33"/>
       <c r="BM36" s="33"/>
       <c r="BN36" s="33"/>
@@ -9247,8 +9371,12 @@
       <c r="BI37" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ37" s="33"/>
-      <c r="BK37" s="33"/>
+      <c r="BJ37" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK37" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL37" s="33"/>
       <c r="BM37" s="33"/>
       <c r="BN37" s="33"/>
@@ -9449,8 +9577,12 @@
       <c r="BI38" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ38" s="33"/>
-      <c r="BK38" s="33"/>
+      <c r="BJ38" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK38" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL38" s="33"/>
       <c r="BM38" s="33"/>
       <c r="BN38" s="33"/>
@@ -9651,8 +9783,12 @@
       <c r="BI39" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ39" s="33"/>
-      <c r="BK39" s="33"/>
+      <c r="BJ39" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK39" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL39" s="33"/>
       <c r="BM39" s="33"/>
       <c r="BN39" s="33"/>
@@ -9853,8 +9989,12 @@
       <c r="BI40" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ40" s="33"/>
-      <c r="BK40" s="33"/>
+      <c r="BJ40" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK40" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL40" s="33"/>
       <c r="BM40" s="33"/>
       <c r="BN40" s="33"/>
@@ -10055,8 +10195,12 @@
       <c r="BI41" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ41" s="33"/>
-      <c r="BK41" s="33"/>
+      <c r="BJ41" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK41" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL41" s="33"/>
       <c r="BM41" s="33"/>
       <c r="BN41" s="33"/>
@@ -10257,8 +10401,12 @@
       <c r="BI42" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ42" s="33"/>
-      <c r="BK42" s="33"/>
+      <c r="BJ42" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK42" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL42" s="33"/>
       <c r="BM42" s="33"/>
       <c r="BN42" s="33"/>
@@ -10459,8 +10607,12 @@
       <c r="BI43" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ43" s="33"/>
-      <c r="BK43" s="33"/>
+      <c r="BJ43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK43" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL43" s="33"/>
       <c r="BM43" s="33"/>
       <c r="BN43" s="33"/>
@@ -10661,8 +10813,12 @@
       <c r="BI44" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ44" s="33"/>
-      <c r="BK44" s="33"/>
+      <c r="BJ44" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK44" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL44" s="33"/>
       <c r="BM44" s="33"/>
       <c r="BN44" s="33"/>
@@ -10863,8 +11019,12 @@
       <c r="BI45" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ45" s="33"/>
-      <c r="BK45" s="33"/>
+      <c r="BJ45" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK45" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL45" s="33"/>
       <c r="BM45" s="33"/>
       <c r="BN45" s="33"/>
@@ -11065,8 +11225,12 @@
       <c r="BI46" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ46" s="33"/>
-      <c r="BK46" s="33"/>
+      <c r="BJ46" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK46" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL46" s="33"/>
       <c r="BM46" s="33"/>
       <c r="BN46" s="33"/>
@@ -11267,8 +11431,12 @@
       <c r="BI47" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ47" s="33"/>
-      <c r="BK47" s="33"/>
+      <c r="BJ47" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK47" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL47" s="33"/>
       <c r="BM47" s="33"/>
       <c r="BN47" s="33"/>
@@ -11469,8 +11637,12 @@
       <c r="BI48" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ48" s="33"/>
-      <c r="BK48" s="33"/>
+      <c r="BJ48" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK48" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL48" s="33"/>
       <c r="BM48" s="33"/>
       <c r="BN48" s="33"/>
@@ -11671,8 +11843,12 @@
       <c r="BI49" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ49" s="33"/>
-      <c r="BK49" s="33"/>
+      <c r="BJ49" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK49" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL49" s="33"/>
       <c r="BM49" s="33"/>
       <c r="BN49" s="33"/>
@@ -11873,8 +12049,12 @@
       <c r="BI50" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ50" s="33"/>
-      <c r="BK50" s="33"/>
+      <c r="BJ50" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK50" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL50" s="33"/>
       <c r="BM50" s="33"/>
       <c r="BN50" s="33"/>
@@ -12075,8 +12255,12 @@
       <c r="BI51" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ51" s="33"/>
-      <c r="BK51" s="33"/>
+      <c r="BJ51" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK51" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL51" s="33"/>
       <c r="BM51" s="33"/>
       <c r="BN51" s="33"/>
@@ -12277,8 +12461,12 @@
       <c r="BI52" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ52" s="33"/>
-      <c r="BK52" s="33"/>
+      <c r="BJ52" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK52" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL52" s="33"/>
       <c r="BM52" s="33"/>
       <c r="BN52" s="33"/>
@@ -12479,8 +12667,12 @@
       <c r="BI53" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ53" s="33"/>
-      <c r="BK53" s="33"/>
+      <c r="BJ53" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK53" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL53" s="33"/>
       <c r="BM53" s="33"/>
       <c r="BN53" s="33"/>
@@ -12681,8 +12873,12 @@
       <c r="BI54" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ54" s="33"/>
-      <c r="BK54" s="33"/>
+      <c r="BJ54" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK54" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL54" s="33"/>
       <c r="BM54" s="33"/>
       <c r="BN54" s="33"/>
@@ -12883,8 +13079,12 @@
       <c r="BI55" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ55" s="33"/>
-      <c r="BK55" s="33"/>
+      <c r="BJ55" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK55" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL55" s="33"/>
       <c r="BM55" s="33"/>
       <c r="BN55" s="33"/>
@@ -13085,8 +13285,12 @@
       <c r="BI56" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ56" s="33"/>
-      <c r="BK56" s="33"/>
+      <c r="BJ56" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK56" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL56" s="33"/>
       <c r="BM56" s="33"/>
       <c r="BN56" s="33"/>
@@ -13287,8 +13491,12 @@
       <c r="BI57" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ57" s="33"/>
-      <c r="BK57" s="33"/>
+      <c r="BJ57" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK57" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL57" s="33"/>
       <c r="BM57" s="33"/>
       <c r="BN57" s="33"/>
@@ -13489,8 +13697,12 @@
       <c r="BI58" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ58" s="33"/>
-      <c r="BK58" s="33"/>
+      <c r="BJ58" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK58" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL58" s="33"/>
       <c r="BM58" s="33"/>
       <c r="BN58" s="33"/>
@@ -13691,8 +13903,12 @@
       <c r="BI59" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ59" s="33"/>
-      <c r="BK59" s="33"/>
+      <c r="BJ59" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK59" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL59" s="33"/>
       <c r="BM59" s="33"/>
       <c r="BN59" s="33"/>
@@ -13893,8 +14109,12 @@
       <c r="BI60" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ60" s="33"/>
-      <c r="BK60" s="33"/>
+      <c r="BJ60" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK60" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL60" s="33"/>
       <c r="BM60" s="33"/>
       <c r="BN60" s="33"/>
@@ -14095,8 +14315,12 @@
       <c r="BI61" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ61" s="33"/>
-      <c r="BK61" s="33"/>
+      <c r="BJ61" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK61" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL61" s="33"/>
       <c r="BM61" s="33"/>
       <c r="BN61" s="33"/>
@@ -14297,8 +14521,12 @@
       <c r="BI62" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ62" s="33"/>
-      <c r="BK62" s="33"/>
+      <c r="BJ62" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK62" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL62" s="33"/>
       <c r="BM62" s="33"/>
       <c r="BN62" s="33"/>
@@ -14499,8 +14727,12 @@
       <c r="BI63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ63" s="33"/>
-      <c r="BK63" s="33"/>
+      <c r="BJ63" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK63" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL63" s="33"/>
       <c r="BM63" s="33"/>
       <c r="BN63" s="33"/>
@@ -14701,8 +14933,12 @@
       <c r="BI64" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ64" s="33"/>
-      <c r="BK64" s="33"/>
+      <c r="BJ64" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK64" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL64" s="33"/>
       <c r="BM64" s="33"/>
       <c r="BN64" s="33"/>
@@ -14903,8 +15139,12 @@
       <c r="BI65" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ65" s="33"/>
-      <c r="BK65" s="33"/>
+      <c r="BJ65" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK65" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL65" s="33"/>
       <c r="BM65" s="33"/>
       <c r="BN65" s="33"/>
@@ -15105,8 +15345,12 @@
       <c r="BI66" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ66" s="33"/>
-      <c r="BK66" s="33"/>
+      <c r="BJ66" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK66" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL66" s="33"/>
       <c r="BM66" s="33"/>
       <c r="BN66" s="33"/>
@@ -15307,8 +15551,12 @@
       <c r="BI67" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ67" s="33"/>
-      <c r="BK67" s="33"/>
+      <c r="BJ67" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK67" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL67" s="33"/>
       <c r="BM67" s="33"/>
       <c r="BN67" s="33"/>
@@ -15509,8 +15757,12 @@
       <c r="BI68" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ68" s="33"/>
-      <c r="BK68" s="33"/>
+      <c r="BJ68" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK68" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL68" s="33"/>
       <c r="BM68" s="33"/>
       <c r="BN68" s="33"/>
@@ -15711,8 +15963,12 @@
       <c r="BI69" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ69" s="33"/>
-      <c r="BK69" s="33"/>
+      <c r="BJ69" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK69" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL69" s="33"/>
       <c r="BM69" s="33"/>
       <c r="BN69" s="33"/>
@@ -15913,8 +16169,12 @@
       <c r="BI70" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ70" s="33"/>
-      <c r="BK70" s="33"/>
+      <c r="BJ70" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK70" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL70" s="33"/>
       <c r="BM70" s="33"/>
       <c r="BN70" s="33"/>
@@ -16115,8 +16375,12 @@
       <c r="BI71" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ71" s="33"/>
-      <c r="BK71" s="33"/>
+      <c r="BJ71" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK71" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL71" s="33"/>
       <c r="BM71" s="33"/>
       <c r="BN71" s="33"/>
@@ -16317,8 +16581,12 @@
       <c r="BI72" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ72" s="33"/>
-      <c r="BK72" s="33"/>
+      <c r="BJ72" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK72" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL72" s="33"/>
       <c r="BM72" s="33"/>
       <c r="BN72" s="33"/>
@@ -16519,8 +16787,12 @@
       <c r="BI73" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ73" s="33"/>
-      <c r="BK73" s="33"/>
+      <c r="BJ73" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK73" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL73" s="33"/>
       <c r="BM73" s="33"/>
       <c r="BN73" s="33"/>
@@ -16721,8 +16993,12 @@
       <c r="BI74" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ74" s="33"/>
-      <c r="BK74" s="33"/>
+      <c r="BJ74" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK74" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL74" s="33"/>
       <c r="BM74" s="33"/>
       <c r="BN74" s="33"/>
@@ -16923,8 +17199,12 @@
       <c r="BI75" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ75" s="33"/>
-      <c r="BK75" s="33"/>
+      <c r="BJ75" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK75" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL75" s="33"/>
       <c r="BM75" s="33"/>
       <c r="BN75" s="33"/>
@@ -17125,8 +17405,12 @@
       <c r="BI76" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ76" s="33"/>
-      <c r="BK76" s="33"/>
+      <c r="BJ76" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK76" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL76" s="33"/>
       <c r="BM76" s="33"/>
       <c r="BN76" s="33"/>
@@ -17327,8 +17611,12 @@
       <c r="BI77" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ77" s="33"/>
-      <c r="BK77" s="33"/>
+      <c r="BJ77" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK77" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL77" s="33"/>
       <c r="BM77" s="33"/>
       <c r="BN77" s="33"/>
@@ -17529,8 +17817,12 @@
       <c r="BI78" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ78" s="33"/>
-      <c r="BK78" s="33"/>
+      <c r="BJ78" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK78" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL78" s="33"/>
       <c r="BM78" s="33"/>
       <c r="BN78" s="33"/>
@@ -17731,8 +18023,12 @@
       <c r="BI79" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ79" s="33"/>
-      <c r="BK79" s="33"/>
+      <c r="BJ79" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK79" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL79" s="33"/>
       <c r="BM79" s="33"/>
       <c r="BN79" s="33"/>
@@ -17933,8 +18229,12 @@
       <c r="BI80" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ80" s="33"/>
-      <c r="BK80" s="33"/>
+      <c r="BJ80" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK80" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL80" s="33"/>
       <c r="BM80" s="33"/>
       <c r="BN80" s="33"/>
@@ -18135,8 +18435,12 @@
       <c r="BI81" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ81" s="33"/>
-      <c r="BK81" s="33"/>
+      <c r="BJ81" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK81" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL81" s="33"/>
       <c r="BM81" s="33"/>
       <c r="BN81" s="33"/>
@@ -18337,8 +18641,12 @@
       <c r="BI82" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ82" s="33"/>
-      <c r="BK82" s="33"/>
+      <c r="BJ82" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK82" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL82" s="33"/>
       <c r="BM82" s="33"/>
       <c r="BN82" s="33"/>
@@ -18539,8 +18847,12 @@
       <c r="BI83" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ83" s="33"/>
-      <c r="BK83" s="33"/>
+      <c r="BJ83" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK83" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL83" s="33"/>
       <c r="BM83" s="33"/>
       <c r="BN83" s="33"/>
@@ -18741,8 +19053,12 @@
       <c r="BI84" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ84" s="33"/>
-      <c r="BK84" s="33"/>
+      <c r="BJ84" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK84" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL84" s="33"/>
       <c r="BM84" s="33"/>
       <c r="BN84" s="33"/>
@@ -18943,8 +19259,12 @@
       <c r="BI85" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ85" s="33"/>
-      <c r="BK85" s="33"/>
+      <c r="BJ85" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK85" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL85" s="33"/>
       <c r="BM85" s="33"/>
       <c r="BN85" s="33"/>
@@ -19145,8 +19465,12 @@
       <c r="BI86" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ86" s="33"/>
-      <c r="BK86" s="33"/>
+      <c r="BJ86" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK86" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL86" s="33"/>
       <c r="BM86" s="33"/>
       <c r="BN86" s="33"/>
@@ -19347,8 +19671,12 @@
       <c r="BI87" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ87" s="33"/>
-      <c r="BK87" s="33"/>
+      <c r="BJ87" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK87" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL87" s="33"/>
       <c r="BM87" s="33"/>
       <c r="BN87" s="33"/>
@@ -19549,8 +19877,12 @@
       <c r="BI88" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ88" s="33"/>
-      <c r="BK88" s="33"/>
+      <c r="BJ88" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK88" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL88" s="33"/>
       <c r="BM88" s="33"/>
       <c r="BN88" s="33"/>
@@ -19751,8 +20083,12 @@
       <c r="BI89" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ89" s="33"/>
-      <c r="BK89" s="33"/>
+      <c r="BJ89" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK89" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL89" s="33"/>
       <c r="BM89" s="33"/>
       <c r="BN89" s="33"/>
@@ -19953,8 +20289,12 @@
       <c r="BI90" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ90" s="33"/>
-      <c r="BK90" s="33"/>
+      <c r="BJ90" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK90" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL90" s="33"/>
       <c r="BM90" s="33"/>
       <c r="BN90" s="33"/>
@@ -20155,8 +20495,12 @@
       <c r="BI91" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ91" s="33"/>
-      <c r="BK91" s="33"/>
+      <c r="BJ91" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK91" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL91" s="33"/>
       <c r="BM91" s="33"/>
       <c r="BN91" s="33"/>
@@ -20357,8 +20701,12 @@
       <c r="BI92" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ92" s="33"/>
-      <c r="BK92" s="33"/>
+      <c r="BJ92" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK92" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL92" s="33"/>
       <c r="BM92" s="33"/>
       <c r="BN92" s="33"/>
@@ -20559,8 +20907,12 @@
       <c r="BI93" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ93" s="33"/>
-      <c r="BK93" s="33"/>
+      <c r="BJ93" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK93" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL93" s="33"/>
       <c r="BM93" s="33"/>
       <c r="BN93" s="33"/>
@@ -20761,8 +21113,12 @@
       <c r="BI94" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BJ94" s="33"/>
-      <c r="BK94" s="33"/>
+      <c r="BJ94" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK94" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BL94" s="33"/>
       <c r="BM94" s="33"/>
       <c r="BN94" s="33"/>
@@ -20911,7 +21267,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -21135,8 +21491,12 @@
       <c r="BJ6" s="9">
         <v>44240</v>
       </c>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
+      <c r="BK6" s="9">
+        <v>44247</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>44254</v>
+      </c>
       <c r="BM6" s="32"/>
       <c r="BN6" s="32"/>
       <c r="BO6" s="32"/>
@@ -21339,8 +21699,12 @@
       <c r="BJ7" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
+      <c r="BK7" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL7" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM7" s="33"/>
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
@@ -21543,8 +21907,12 @@
       <c r="BJ8" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
+      <c r="BK8" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL8" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM8" s="33"/>
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
@@ -21747,8 +22115,12 @@
       <c r="BJ9" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
+      <c r="BK9" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL9" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM9" s="33"/>
       <c r="BN9" s="33"/>
       <c r="BO9" s="33"/>
@@ -21951,8 +22323,12 @@
       <c r="BJ10" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK10" s="33"/>
-      <c r="BL10" s="33"/>
+      <c r="BK10" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL10" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM10" s="33"/>
       <c r="BN10" s="33"/>
       <c r="BO10" s="33"/>
@@ -22155,8 +22531,12 @@
       <c r="BJ11" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
+      <c r="BK11" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL11" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM11" s="33"/>
       <c r="BN11" s="33"/>
       <c r="BO11" s="33"/>
@@ -22359,8 +22739,12 @@
       <c r="BJ12" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
+      <c r="BK12" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL12" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM12" s="33"/>
       <c r="BN12" s="33"/>
       <c r="BO12" s="33"/>
@@ -22563,8 +22947,12 @@
       <c r="BJ13" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="33"/>
+      <c r="BK13" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL13" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM13" s="33"/>
       <c r="BN13" s="33"/>
       <c r="BO13" s="33"/>
@@ -22767,8 +23155,12 @@
       <c r="BJ14" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="33"/>
+      <c r="BK14" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL14" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM14" s="33"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
@@ -22971,8 +23363,12 @@
       <c r="BJ15" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="33"/>
+      <c r="BK15" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL15" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM15" s="33"/>
       <c r="BN15" s="33"/>
       <c r="BO15" s="33"/>
@@ -23175,8 +23571,12 @@
       <c r="BJ16" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="33"/>
+      <c r="BK16" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL16" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM16" s="33"/>
       <c r="BN16" s="33"/>
       <c r="BO16" s="33"/>
@@ -23379,8 +23779,12 @@
       <c r="BJ17" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK17" s="33"/>
-      <c r="BL17" s="33"/>
+      <c r="BK17" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL17" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM17" s="33"/>
       <c r="BN17" s="33"/>
       <c r="BO17" s="33"/>
@@ -23583,8 +23987,12 @@
       <c r="BJ18" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="33"/>
+      <c r="BK18" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL18" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM18" s="33"/>
       <c r="BN18" s="33"/>
       <c r="BO18" s="33"/>
@@ -23787,8 +24195,12 @@
       <c r="BJ19" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK19" s="33"/>
-      <c r="BL19" s="33"/>
+      <c r="BK19" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL19" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM19" s="33"/>
       <c r="BN19" s="33"/>
       <c r="BO19" s="33"/>
@@ -23991,8 +24403,12 @@
       <c r="BJ20" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK20" s="33"/>
-      <c r="BL20" s="33"/>
+      <c r="BK20" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL20" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM20" s="33"/>
       <c r="BN20" s="33"/>
       <c r="BO20" s="33"/>
@@ -24195,8 +24611,12 @@
       <c r="BJ21" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK21" s="33"/>
-      <c r="BL21" s="33"/>
+      <c r="BK21" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL21" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM21" s="33"/>
       <c r="BN21" s="33"/>
       <c r="BO21" s="33"/>
@@ -24399,8 +24819,12 @@
       <c r="BJ22" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK22" s="33"/>
-      <c r="BL22" s="33"/>
+      <c r="BK22" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL22" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM22" s="33"/>
       <c r="BN22" s="33"/>
       <c r="BO22" s="33"/>
@@ -24603,8 +25027,12 @@
       <c r="BJ23" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK23" s="33"/>
-      <c r="BL23" s="33"/>
+      <c r="BK23" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL23" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM23" s="33"/>
       <c r="BN23" s="33"/>
       <c r="BO23" s="33"/>
@@ -24807,8 +25235,12 @@
       <c r="BJ24" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK24" s="33"/>
-      <c r="BL24" s="33"/>
+      <c r="BK24" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL24" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM24" s="33"/>
       <c r="BN24" s="33"/>
       <c r="BO24" s="33"/>
@@ -25011,8 +25443,12 @@
       <c r="BJ25" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK25" s="33"/>
-      <c r="BL25" s="33"/>
+      <c r="BK25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL25" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM25" s="33"/>
       <c r="BN25" s="33"/>
       <c r="BO25" s="33"/>
@@ -25215,8 +25651,12 @@
       <c r="BJ26" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK26" s="33"/>
-      <c r="BL26" s="33"/>
+      <c r="BK26" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL26" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM26" s="33"/>
       <c r="BN26" s="33"/>
       <c r="BO26" s="33"/>
@@ -25419,8 +25859,12 @@
       <c r="BJ27" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
+      <c r="BK27" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL27" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM27" s="33"/>
       <c r="BN27" s="33"/>
       <c r="BO27" s="33"/>
@@ -25623,8 +26067,12 @@
       <c r="BJ28" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
+      <c r="BK28" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL28" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM28" s="33"/>
       <c r="BN28" s="33"/>
       <c r="BO28" s="33"/>
@@ -25827,8 +26275,12 @@
       <c r="BJ29" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK29" s="33"/>
-      <c r="BL29" s="33"/>
+      <c r="BK29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL29" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM29" s="33"/>
       <c r="BN29" s="33"/>
       <c r="BO29" s="33"/>
@@ -26031,8 +26483,12 @@
       <c r="BJ30" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK30" s="33"/>
-      <c r="BL30" s="33"/>
+      <c r="BK30" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL30" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM30" s="33"/>
       <c r="BN30" s="33"/>
       <c r="BO30" s="33"/>
@@ -26235,8 +26691,12 @@
       <c r="BJ31" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK31" s="33"/>
-      <c r="BL31" s="33"/>
+      <c r="BK31" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL31" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM31" s="33"/>
       <c r="BN31" s="33"/>
       <c r="BO31" s="33"/>
@@ -26439,8 +26899,12 @@
       <c r="BJ32" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK32" s="33"/>
-      <c r="BL32" s="33"/>
+      <c r="BK32" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL32" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM32" s="33"/>
       <c r="BN32" s="33"/>
       <c r="BO32" s="33"/>
@@ -26643,8 +27107,12 @@
       <c r="BJ33" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK33" s="33"/>
-      <c r="BL33" s="33"/>
+      <c r="BK33" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL33" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM33" s="33"/>
       <c r="BN33" s="33"/>
       <c r="BO33" s="33"/>
@@ -26847,8 +27315,12 @@
       <c r="BJ34" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
+      <c r="BK34" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL34" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM34" s="33"/>
       <c r="BN34" s="33"/>
       <c r="BO34" s="33"/>
@@ -27051,8 +27523,12 @@
       <c r="BJ35" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK35" s="33"/>
-      <c r="BL35" s="33"/>
+      <c r="BK35" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL35" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM35" s="33"/>
       <c r="BN35" s="33"/>
       <c r="BO35" s="33"/>
@@ -27255,8 +27731,12 @@
       <c r="BJ36" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK36" s="33"/>
-      <c r="BL36" s="33"/>
+      <c r="BK36" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL36" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM36" s="33"/>
       <c r="BN36" s="33"/>
       <c r="BO36" s="33"/>
@@ -27459,8 +27939,12 @@
       <c r="BJ37" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK37" s="33"/>
-      <c r="BL37" s="33"/>
+      <c r="BK37" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL37" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM37" s="33"/>
       <c r="BN37" s="33"/>
       <c r="BO37" s="33"/>
@@ -27663,8 +28147,12 @@
       <c r="BJ38" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK38" s="33"/>
-      <c r="BL38" s="33"/>
+      <c r="BK38" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL38" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM38" s="33"/>
       <c r="BN38" s="33"/>
       <c r="BO38" s="33"/>
@@ -27867,8 +28355,12 @@
       <c r="BJ39" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK39" s="33"/>
-      <c r="BL39" s="33"/>
+      <c r="BK39" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL39" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM39" s="33"/>
       <c r="BN39" s="33"/>
       <c r="BO39" s="33"/>
@@ -28071,8 +28563,12 @@
       <c r="BJ40" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK40" s="33"/>
-      <c r="BL40" s="33"/>
+      <c r="BK40" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL40" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM40" s="33"/>
       <c r="BN40" s="33"/>
       <c r="BO40" s="33"/>
@@ -28275,8 +28771,12 @@
       <c r="BJ41" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK41" s="33"/>
-      <c r="BL41" s="33"/>
+      <c r="BK41" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL41" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM41" s="33"/>
       <c r="BN41" s="33"/>
       <c r="BO41" s="33"/>
@@ -28479,8 +28979,12 @@
       <c r="BJ42" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK42" s="33"/>
-      <c r="BL42" s="33"/>
+      <c r="BK42" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL42" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM42" s="33"/>
       <c r="BN42" s="33"/>
       <c r="BO42" s="33"/>
@@ -28683,8 +29187,12 @@
       <c r="BJ43" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK43" s="33"/>
-      <c r="BL43" s="33"/>
+      <c r="BK43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL43" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM43" s="33"/>
       <c r="BN43" s="33"/>
       <c r="BO43" s="33"/>
@@ -28887,8 +29395,12 @@
       <c r="BJ44" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK44" s="33"/>
-      <c r="BL44" s="33"/>
+      <c r="BK44" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL44" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM44" s="33"/>
       <c r="BN44" s="33"/>
       <c r="BO44" s="33"/>
@@ -29091,8 +29603,12 @@
       <c r="BJ45" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK45" s="33"/>
-      <c r="BL45" s="33"/>
+      <c r="BK45" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL45" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM45" s="33"/>
       <c r="BN45" s="33"/>
       <c r="BO45" s="33"/>
@@ -29295,8 +29811,12 @@
       <c r="BJ46" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK46" s="33"/>
-      <c r="BL46" s="33"/>
+      <c r="BK46" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL46" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM46" s="33"/>
       <c r="BN46" s="33"/>
       <c r="BO46" s="33"/>
@@ -29499,8 +30019,12 @@
       <c r="BJ47" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
+      <c r="BK47" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL47" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM47" s="33"/>
       <c r="BN47" s="33"/>
       <c r="BO47" s="33"/>
@@ -29703,8 +30227,12 @@
       <c r="BJ48" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK48" s="33"/>
-      <c r="BL48" s="33"/>
+      <c r="BK48" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL48" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM48" s="33"/>
       <c r="BN48" s="33"/>
       <c r="BO48" s="33"/>
@@ -29907,8 +30435,12 @@
       <c r="BJ49" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK49" s="33"/>
-      <c r="BL49" s="33"/>
+      <c r="BK49" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL49" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM49" s="33"/>
       <c r="BN49" s="33"/>
       <c r="BO49" s="33"/>
@@ -30111,8 +30643,12 @@
       <c r="BJ50" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK50" s="33"/>
-      <c r="BL50" s="33"/>
+      <c r="BK50" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL50" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM50" s="33"/>
       <c r="BN50" s="33"/>
       <c r="BO50" s="33"/>
@@ -30315,8 +30851,12 @@
       <c r="BJ51" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK51" s="33"/>
-      <c r="BL51" s="33"/>
+      <c r="BK51" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL51" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM51" s="33"/>
       <c r="BN51" s="33"/>
       <c r="BO51" s="33"/>
@@ -30519,8 +31059,12 @@
       <c r="BJ52" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK52" s="33"/>
-      <c r="BL52" s="33"/>
+      <c r="BK52" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL52" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM52" s="33"/>
       <c r="BN52" s="33"/>
       <c r="BO52" s="33"/>
@@ -30723,8 +31267,12 @@
       <c r="BJ53" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK53" s="33"/>
-      <c r="BL53" s="33"/>
+      <c r="BK53" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL53" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM53" s="33"/>
       <c r="BN53" s="33"/>
       <c r="BO53" s="33"/>
@@ -30927,8 +31475,12 @@
       <c r="BJ54" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK54" s="33"/>
-      <c r="BL54" s="33"/>
+      <c r="BK54" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL54" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM54" s="33"/>
       <c r="BN54" s="33"/>
       <c r="BO54" s="33"/>
@@ -31131,8 +31683,12 @@
       <c r="BJ55" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
+      <c r="BK55" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL55" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM55" s="33"/>
       <c r="BN55" s="33"/>
       <c r="BO55" s="33"/>
@@ -31335,8 +31891,12 @@
       <c r="BJ56" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK56" s="33"/>
-      <c r="BL56" s="33"/>
+      <c r="BK56" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL56" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM56" s="33"/>
       <c r="BN56" s="33"/>
       <c r="BO56" s="33"/>
@@ -31539,8 +32099,12 @@
       <c r="BJ57" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK57" s="33"/>
-      <c r="BL57" s="33"/>
+      <c r="BK57" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL57" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM57" s="33"/>
       <c r="BN57" s="33"/>
       <c r="BO57" s="33"/>
@@ -31743,8 +32307,12 @@
       <c r="BJ58" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK58" s="33"/>
-      <c r="BL58" s="33"/>
+      <c r="BK58" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL58" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM58" s="33"/>
       <c r="BN58" s="33"/>
       <c r="BO58" s="33"/>
@@ -31947,8 +32515,12 @@
       <c r="BJ59" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK59" s="33"/>
-      <c r="BL59" s="33"/>
+      <c r="BK59" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL59" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM59" s="33"/>
       <c r="BN59" s="33"/>
       <c r="BO59" s="33"/>
@@ -32151,8 +32723,12 @@
       <c r="BJ60" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK60" s="33"/>
-      <c r="BL60" s="33"/>
+      <c r="BK60" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL60" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM60" s="33"/>
       <c r="BN60" s="33"/>
       <c r="BO60" s="33"/>
@@ -32355,8 +32931,12 @@
       <c r="BJ61" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK61" s="33"/>
-      <c r="BL61" s="33"/>
+      <c r="BK61" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL61" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM61" s="33"/>
       <c r="BN61" s="33"/>
       <c r="BO61" s="33"/>
@@ -32559,8 +33139,12 @@
       <c r="BJ62" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK62" s="33"/>
-      <c r="BL62" s="33"/>
+      <c r="BK62" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL62" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM62" s="33"/>
       <c r="BN62" s="33"/>
       <c r="BO62" s="33"/>
@@ -32763,8 +33347,12 @@
       <c r="BJ63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK63" s="33"/>
-      <c r="BL63" s="33"/>
+      <c r="BK63" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL63" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM63" s="33"/>
       <c r="BN63" s="33"/>
       <c r="BO63" s="33"/>
@@ -32967,8 +33555,12 @@
       <c r="BJ64" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK64" s="33"/>
-      <c r="BL64" s="33"/>
+      <c r="BK64" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL64" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM64" s="33"/>
       <c r="BN64" s="33"/>
       <c r="BO64" s="33"/>
@@ -33171,8 +33763,12 @@
       <c r="BJ65" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK65" s="33"/>
-      <c r="BL65" s="33"/>
+      <c r="BK65" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL65" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM65" s="33"/>
       <c r="BN65" s="33"/>
       <c r="BO65" s="33"/>
@@ -33375,8 +33971,12 @@
       <c r="BJ66" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK66" s="33"/>
-      <c r="BL66" s="33"/>
+      <c r="BK66" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL66" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM66" s="33"/>
       <c r="BN66" s="33"/>
       <c r="BO66" s="33"/>
@@ -33579,8 +34179,12 @@
       <c r="BJ67" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK67" s="33"/>
-      <c r="BL67" s="33"/>
+      <c r="BK67" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL67" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM67" s="33"/>
       <c r="BN67" s="33"/>
       <c r="BO67" s="33"/>
@@ -33783,8 +34387,12 @@
       <c r="BJ68" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK68" s="33"/>
-      <c r="BL68" s="33"/>
+      <c r="BK68" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL68" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM68" s="33"/>
       <c r="BN68" s="33"/>
       <c r="BO68" s="33"/>
@@ -33987,8 +34595,12 @@
       <c r="BJ69" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK69" s="33"/>
-      <c r="BL69" s="33"/>
+      <c r="BK69" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL69" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM69" s="33"/>
       <c r="BN69" s="33"/>
       <c r="BO69" s="33"/>
@@ -34191,8 +34803,12 @@
       <c r="BJ70" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK70" s="33"/>
-      <c r="BL70" s="33"/>
+      <c r="BK70" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL70" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM70" s="33"/>
       <c r="BN70" s="33"/>
       <c r="BO70" s="33"/>
@@ -34395,8 +35011,12 @@
       <c r="BJ71" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK71" s="33"/>
-      <c r="BL71" s="33"/>
+      <c r="BK71" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL71" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM71" s="33"/>
       <c r="BN71" s="33"/>
       <c r="BO71" s="33"/>
@@ -34599,8 +35219,12 @@
       <c r="BJ72" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK72" s="33"/>
-      <c r="BL72" s="33"/>
+      <c r="BK72" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL72" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM72" s="33"/>
       <c r="BN72" s="33"/>
       <c r="BO72" s="33"/>
@@ -34803,8 +35427,12 @@
       <c r="BJ73" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK73" s="33"/>
-      <c r="BL73" s="33"/>
+      <c r="BK73" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL73" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM73" s="33"/>
       <c r="BN73" s="33"/>
       <c r="BO73" s="33"/>
@@ -35007,8 +35635,12 @@
       <c r="BJ74" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK74" s="33"/>
-      <c r="BL74" s="33"/>
+      <c r="BK74" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL74" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM74" s="33"/>
       <c r="BN74" s="33"/>
       <c r="BO74" s="33"/>
@@ -35211,8 +35843,12 @@
       <c r="BJ75" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK75" s="33"/>
-      <c r="BL75" s="33"/>
+      <c r="BK75" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL75" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM75" s="33"/>
       <c r="BN75" s="33"/>
       <c r="BO75" s="33"/>
@@ -35415,8 +36051,12 @@
       <c r="BJ76" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK76" s="33"/>
-      <c r="BL76" s="33"/>
+      <c r="BK76" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL76" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM76" s="33"/>
       <c r="BN76" s="33"/>
       <c r="BO76" s="33"/>
@@ -35619,8 +36259,12 @@
       <c r="BJ77" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK77" s="33"/>
-      <c r="BL77" s="33"/>
+      <c r="BK77" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL77" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM77" s="33"/>
       <c r="BN77" s="33"/>
       <c r="BO77" s="33"/>
@@ -35823,8 +36467,12 @@
       <c r="BJ78" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK78" s="33"/>
-      <c r="BL78" s="33"/>
+      <c r="BK78" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL78" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM78" s="33"/>
       <c r="BN78" s="33"/>
       <c r="BO78" s="33"/>
@@ -36027,8 +36675,12 @@
       <c r="BJ79" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK79" s="33"/>
-      <c r="BL79" s="33"/>
+      <c r="BK79" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL79" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM79" s="33"/>
       <c r="BN79" s="33"/>
       <c r="BO79" s="33"/>
@@ -36231,8 +36883,12 @@
       <c r="BJ80" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK80" s="33"/>
-      <c r="BL80" s="33"/>
+      <c r="BK80" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL80" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM80" s="33"/>
       <c r="BN80" s="33"/>
       <c r="BO80" s="33"/>
@@ -36435,8 +37091,12 @@
       <c r="BJ81" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK81" s="33"/>
-      <c r="BL81" s="33"/>
+      <c r="BK81" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL81" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM81" s="33"/>
       <c r="BN81" s="33"/>
       <c r="BO81" s="33"/>
@@ -36639,8 +37299,12 @@
       <c r="BJ82" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK82" s="33"/>
-      <c r="BL82" s="33"/>
+      <c r="BK82" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL82" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM82" s="33"/>
       <c r="BN82" s="33"/>
       <c r="BO82" s="33"/>
@@ -36843,8 +37507,12 @@
       <c r="BJ83" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK83" s="33"/>
-      <c r="BL83" s="33"/>
+      <c r="BK83" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL83" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM83" s="33"/>
       <c r="BN83" s="33"/>
       <c r="BO83" s="33"/>
@@ -37047,8 +37715,12 @@
       <c r="BJ84" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
+      <c r="BK84" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL84" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM84" s="33"/>
       <c r="BN84" s="33"/>
       <c r="BO84" s="33"/>
@@ -37251,8 +37923,12 @@
       <c r="BJ85" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK85" s="33"/>
-      <c r="BL85" s="33"/>
+      <c r="BK85" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL85" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM85" s="33"/>
       <c r="BN85" s="33"/>
       <c r="BO85" s="33"/>
@@ -37455,8 +38131,12 @@
       <c r="BJ86" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK86" s="33"/>
-      <c r="BL86" s="33"/>
+      <c r="BK86" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL86" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM86" s="33"/>
       <c r="BN86" s="33"/>
       <c r="BO86" s="33"/>
@@ -37659,8 +38339,12 @@
       <c r="BJ87" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK87" s="33"/>
-      <c r="BL87" s="33"/>
+      <c r="BK87" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL87" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM87" s="33"/>
       <c r="BN87" s="33"/>
       <c r="BO87" s="33"/>
@@ -37863,8 +38547,12 @@
       <c r="BJ88" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK88" s="33"/>
-      <c r="BL88" s="33"/>
+      <c r="BK88" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL88" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM88" s="33"/>
       <c r="BN88" s="33"/>
       <c r="BO88" s="33"/>
@@ -38067,8 +38755,12 @@
       <c r="BJ89" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK89" s="33"/>
-      <c r="BL89" s="33"/>
+      <c r="BK89" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL89" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM89" s="33"/>
       <c r="BN89" s="33"/>
       <c r="BO89" s="33"/>
@@ -38271,8 +38963,12 @@
       <c r="BJ90" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK90" s="33"/>
-      <c r="BL90" s="33"/>
+      <c r="BK90" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL90" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM90" s="33"/>
       <c r="BN90" s="33"/>
       <c r="BO90" s="33"/>
@@ -38475,8 +39171,12 @@
       <c r="BJ91" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK91" s="33"/>
-      <c r="BL91" s="33"/>
+      <c r="BK91" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL91" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM91" s="33"/>
       <c r="BN91" s="33"/>
       <c r="BO91" s="33"/>
@@ -38679,8 +39379,12 @@
       <c r="BJ92" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK92" s="33"/>
-      <c r="BL92" s="33"/>
+      <c r="BK92" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL92" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM92" s="33"/>
       <c r="BN92" s="33"/>
       <c r="BO92" s="33"/>
@@ -38883,8 +39587,12 @@
       <c r="BJ93" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK93" s="33"/>
-      <c r="BL93" s="33"/>
+      <c r="BK93" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL93" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM93" s="33"/>
       <c r="BN93" s="33"/>
       <c r="BO93" s="33"/>
@@ -39087,8 +39795,12 @@
       <c r="BJ94" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK94" s="33"/>
-      <c r="BL94" s="33"/>
+      <c r="BK94" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL94" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM94" s="33"/>
       <c r="BN94" s="33"/>
       <c r="BO94" s="33"/>
@@ -39291,8 +40003,12 @@
       <c r="BJ95" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK95" s="33"/>
-      <c r="BL95" s="33"/>
+      <c r="BK95" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL95" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM95" s="33"/>
       <c r="BN95" s="33"/>
       <c r="BO95" s="33"/>
@@ -39495,8 +40211,12 @@
       <c r="BJ96" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK96" s="33"/>
-      <c r="BL96" s="33"/>
+      <c r="BK96" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL96" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM96" s="33"/>
       <c r="BN96" s="33"/>
       <c r="BO96" s="33"/>
@@ -39699,8 +40419,12 @@
       <c r="BJ97" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK97" s="33"/>
-      <c r="BL97" s="33"/>
+      <c r="BK97" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL97" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM97" s="33"/>
       <c r="BN97" s="33"/>
       <c r="BO97" s="33"/>
@@ -39903,8 +40627,12 @@
       <c r="BJ98" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK98" s="33"/>
-      <c r="BL98" s="33"/>
+      <c r="BK98" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL98" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM98" s="33"/>
       <c r="BN98" s="33"/>
       <c r="BO98" s="33"/>
@@ -40107,8 +40835,12 @@
       <c r="BJ99" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK99" s="33"/>
-      <c r="BL99" s="33"/>
+      <c r="BK99" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL99" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM99" s="33"/>
       <c r="BN99" s="33"/>
       <c r="BO99" s="33"/>
@@ -40311,8 +41043,12 @@
       <c r="BJ100" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK100" s="33"/>
-      <c r="BL100" s="33"/>
+      <c r="BK100" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL100" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM100" s="33"/>
       <c r="BN100" s="33"/>
       <c r="BO100" s="33"/>
@@ -40515,8 +41251,12 @@
       <c r="BJ101" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK101" s="33"/>
-      <c r="BL101" s="33"/>
+      <c r="BK101" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL101" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM101" s="33"/>
       <c r="BN101" s="33"/>
       <c r="BO101" s="33"/>
@@ -40719,8 +41459,12 @@
       <c r="BJ102" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK102" s="33"/>
-      <c r="BL102" s="33"/>
+      <c r="BK102" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL102" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM102" s="33"/>
       <c r="BN102" s="33"/>
       <c r="BO102" s="33"/>
@@ -40923,8 +41667,12 @@
       <c r="BJ103" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK103" s="33"/>
-      <c r="BL103" s="33"/>
+      <c r="BK103" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL103" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM103" s="33"/>
       <c r="BN103" s="33"/>
       <c r="BO103" s="33"/>
@@ -41127,8 +41875,12 @@
       <c r="BJ104" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK104" s="33"/>
-      <c r="BL104" s="33"/>
+      <c r="BK104" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL104" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM104" s="33"/>
       <c r="BN104" s="33"/>
       <c r="BO104" s="33"/>
@@ -41331,8 +42083,12 @@
       <c r="BJ105" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK105" s="33"/>
-      <c r="BL105" s="33"/>
+      <c r="BK105" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL105" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM105" s="33"/>
       <c r="BN105" s="33"/>
       <c r="BO105" s="33"/>
@@ -41535,8 +42291,12 @@
       <c r="BJ106" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK106" s="33"/>
-      <c r="BL106" s="33"/>
+      <c r="BK106" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL106" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM106" s="33"/>
       <c r="BN106" s="33"/>
       <c r="BO106" s="33"/>
@@ -41739,8 +42499,12 @@
       <c r="BJ107" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK107" s="33"/>
-      <c r="BL107" s="33"/>
+      <c r="BK107" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL107" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM107" s="33"/>
       <c r="BN107" s="33"/>
       <c r="BO107" s="33"/>
@@ -41943,8 +42707,12 @@
       <c r="BJ108" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK108" s="33"/>
-      <c r="BL108" s="33"/>
+      <c r="BK108" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL108" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM108" s="33"/>
       <c r="BN108" s="33"/>
       <c r="BO108" s="33"/>
@@ -42147,8 +42915,12 @@
       <c r="BJ109" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK109" s="33"/>
-      <c r="BL109" s="33"/>
+      <c r="BK109" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL109" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM109" s="33"/>
       <c r="BN109" s="33"/>
       <c r="BO109" s="33"/>
@@ -42351,8 +43123,12 @@
       <c r="BJ110" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK110" s="33"/>
-      <c r="BL110" s="33"/>
+      <c r="BK110" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL110" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM110" s="33"/>
       <c r="BN110" s="33"/>
       <c r="BO110" s="33"/>
@@ -42555,8 +43331,12 @@
       <c r="BJ111" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK111" s="33"/>
-      <c r="BL111" s="33"/>
+      <c r="BK111" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL111" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM111" s="33"/>
       <c r="BN111" s="33"/>
       <c r="BO111" s="33"/>
@@ -42759,8 +43539,12 @@
       <c r="BJ112" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK112" s="33"/>
-      <c r="BL112" s="33"/>
+      <c r="BK112" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL112" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM112" s="33"/>
       <c r="BN112" s="33"/>
       <c r="BO112" s="33"/>
@@ -42963,8 +43747,12 @@
       <c r="BJ113" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK113" s="33"/>
-      <c r="BL113" s="33"/>
+      <c r="BK113" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL113" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM113" s="33"/>
       <c r="BN113" s="33"/>
       <c r="BO113" s="33"/>
@@ -43167,8 +43955,12 @@
       <c r="BJ114" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK114" s="33"/>
-      <c r="BL114" s="33"/>
+      <c r="BK114" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL114" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM114" s="33"/>
       <c r="BN114" s="33"/>
       <c r="BO114" s="33"/>
@@ -43371,8 +44163,12 @@
       <c r="BJ115" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK115" s="33"/>
-      <c r="BL115" s="33"/>
+      <c r="BK115" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL115" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM115" s="33"/>
       <c r="BN115" s="33"/>
       <c r="BO115" s="33"/>
@@ -43575,8 +44371,12 @@
       <c r="BJ116" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK116" s="33"/>
-      <c r="BL116" s="33"/>
+      <c r="BK116" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL116" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM116" s="33"/>
       <c r="BN116" s="33"/>
       <c r="BO116" s="33"/>
@@ -43779,8 +44579,12 @@
       <c r="BJ117" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK117" s="33"/>
-      <c r="BL117" s="33"/>
+      <c r="BK117" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL117" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM117" s="33"/>
       <c r="BN117" s="33"/>
       <c r="BO117" s="33"/>
@@ -43983,8 +44787,12 @@
       <c r="BJ118" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK118" s="33"/>
-      <c r="BL118" s="33"/>
+      <c r="BK118" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL118" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM118" s="33"/>
       <c r="BN118" s="33"/>
       <c r="BO118" s="33"/>
@@ -44187,8 +44995,12 @@
       <c r="BJ119" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK119" s="33"/>
-      <c r="BL119" s="33"/>
+      <c r="BK119" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL119" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM119" s="33"/>
       <c r="BN119" s="33"/>
       <c r="BO119" s="33"/>
@@ -44391,8 +45203,12 @@
       <c r="BJ120" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK120" s="33"/>
-      <c r="BL120" s="33"/>
+      <c r="BK120" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL120" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM120" s="33"/>
       <c r="BN120" s="33"/>
       <c r="BO120" s="33"/>
@@ -44595,8 +45411,12 @@
       <c r="BJ121" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK121" s="33"/>
-      <c r="BL121" s="33"/>
+      <c r="BK121" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL121" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM121" s="33"/>
       <c r="BN121" s="33"/>
       <c r="BO121" s="33"/>
@@ -44799,8 +45619,12 @@
       <c r="BJ122" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK122" s="33"/>
-      <c r="BL122" s="33"/>
+      <c r="BK122" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL122" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM122" s="33"/>
       <c r="BN122" s="33"/>
       <c r="BO122" s="33"/>
@@ -45003,8 +45827,12 @@
       <c r="BJ123" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK123" s="33"/>
-      <c r="BL123" s="33"/>
+      <c r="BK123" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL123" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM123" s="33"/>
       <c r="BN123" s="33"/>
       <c r="BO123" s="33"/>
@@ -45207,8 +46035,12 @@
       <c r="BJ124" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK124" s="33"/>
-      <c r="BL124" s="33"/>
+      <c r="BK124" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL124" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM124" s="33"/>
       <c r="BN124" s="33"/>
       <c r="BO124" s="33"/>
@@ -45411,8 +46243,12 @@
       <c r="BJ125" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK125" s="33"/>
-      <c r="BL125" s="33"/>
+      <c r="BK125" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL125" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM125" s="33"/>
       <c r="BN125" s="33"/>
       <c r="BO125" s="33"/>
@@ -45615,8 +46451,12 @@
       <c r="BJ126" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK126" s="33"/>
-      <c r="BL126" s="33"/>
+      <c r="BK126" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL126" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM126" s="33"/>
       <c r="BN126" s="33"/>
       <c r="BO126" s="33"/>
@@ -45819,8 +46659,12 @@
       <c r="BJ127" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK127" s="33"/>
-      <c r="BL127" s="33"/>
+      <c r="BK127" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL127" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM127" s="33"/>
       <c r="BN127" s="33"/>
       <c r="BO127" s="33"/>
@@ -46023,8 +46867,12 @@
       <c r="BJ128" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK128" s="33"/>
-      <c r="BL128" s="33"/>
+      <c r="BK128" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL128" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM128" s="33"/>
       <c r="BN128" s="33"/>
       <c r="BO128" s="33"/>
@@ -46227,8 +47075,12 @@
       <c r="BJ129" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK129" s="33"/>
-      <c r="BL129" s="33"/>
+      <c r="BK129" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL129" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM129" s="33"/>
       <c r="BN129" s="33"/>
       <c r="BO129" s="33"/>
@@ -46431,8 +47283,12 @@
       <c r="BJ130" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK130" s="33"/>
-      <c r="BL130" s="33"/>
+      <c r="BK130" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL130" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM130" s="33"/>
       <c r="BN130" s="33"/>
       <c r="BO130" s="33"/>
@@ -46635,8 +47491,12 @@
       <c r="BJ131" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK131" s="33"/>
-      <c r="BL131" s="33"/>
+      <c r="BK131" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL131" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM131" s="33"/>
       <c r="BN131" s="33"/>
       <c r="BO131" s="33"/>
@@ -46839,8 +47699,12 @@
       <c r="BJ132" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK132" s="33"/>
-      <c r="BL132" s="33"/>
+      <c r="BK132" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL132" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM132" s="33"/>
       <c r="BN132" s="33"/>
       <c r="BO132" s="33"/>
@@ -47043,8 +47907,12 @@
       <c r="BJ133" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK133" s="33"/>
-      <c r="BL133" s="33"/>
+      <c r="BK133" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL133" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM133" s="33"/>
       <c r="BN133" s="33"/>
       <c r="BO133" s="33"/>
@@ -47247,8 +48115,12 @@
       <c r="BJ134" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK134" s="33"/>
-      <c r="BL134" s="33"/>
+      <c r="BK134" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL134" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM134" s="33"/>
       <c r="BN134" s="33"/>
       <c r="BO134" s="33"/>
@@ -47451,8 +48323,12 @@
       <c r="BJ135" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK135" s="33"/>
-      <c r="BL135" s="33"/>
+      <c r="BK135" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL135" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM135" s="33"/>
       <c r="BN135" s="33"/>
       <c r="BO135" s="33"/>
@@ -47655,8 +48531,12 @@
       <c r="BJ136" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK136" s="33"/>
-      <c r="BL136" s="33"/>
+      <c r="BK136" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL136" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM136" s="33"/>
       <c r="BN136" s="33"/>
       <c r="BO136" s="33"/>
@@ -47859,8 +48739,12 @@
       <c r="BJ137" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK137" s="33"/>
-      <c r="BL137" s="33"/>
+      <c r="BK137" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL137" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM137" s="33"/>
       <c r="BN137" s="33"/>
       <c r="BO137" s="33"/>
@@ -48063,8 +48947,12 @@
       <c r="BJ138" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK138" s="33"/>
-      <c r="BL138" s="33"/>
+      <c r="BK138" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL138" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM138" s="33"/>
       <c r="BN138" s="33"/>
       <c r="BO138" s="33"/>
@@ -48267,8 +49155,12 @@
       <c r="BJ139" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK139" s="33"/>
-      <c r="BL139" s="33"/>
+      <c r="BK139" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL139" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM139" s="33"/>
       <c r="BN139" s="33"/>
       <c r="BO139" s="33"/>
@@ -48471,8 +49363,12 @@
       <c r="BJ140" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK140" s="33"/>
-      <c r="BL140" s="33"/>
+      <c r="BK140" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL140" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM140" s="33"/>
       <c r="BN140" s="33"/>
       <c r="BO140" s="33"/>
@@ -48675,8 +49571,12 @@
       <c r="BJ141" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK141" s="33"/>
-      <c r="BL141" s="33"/>
+      <c r="BK141" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL141" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM141" s="33"/>
       <c r="BN141" s="33"/>
       <c r="BO141" s="33"/>
@@ -48879,8 +49779,12 @@
       <c r="BJ142" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK142" s="33"/>
-      <c r="BL142" s="33"/>
+      <c r="BK142" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL142" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM142" s="33"/>
       <c r="BN142" s="33"/>
       <c r="BO142" s="33"/>
@@ -49083,8 +49987,12 @@
       <c r="BJ143" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK143" s="33"/>
-      <c r="BL143" s="33"/>
+      <c r="BK143" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL143" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM143" s="33"/>
       <c r="BN143" s="33"/>
       <c r="BO143" s="33"/>
@@ -49287,8 +50195,12 @@
       <c r="BJ144" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK144" s="33"/>
-      <c r="BL144" s="33"/>
+      <c r="BK144" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL144" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM144" s="33"/>
       <c r="BN144" s="33"/>
       <c r="BO144" s="33"/>
@@ -49491,8 +50403,12 @@
       <c r="BJ145" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK145" s="33"/>
-      <c r="BL145" s="33"/>
+      <c r="BK145" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL145" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM145" s="33"/>
       <c r="BN145" s="33"/>
       <c r="BO145" s="33"/>
@@ -49695,8 +50611,12 @@
       <c r="BJ146" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK146" s="33"/>
-      <c r="BL146" s="33"/>
+      <c r="BK146" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL146" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM146" s="33"/>
       <c r="BN146" s="33"/>
       <c r="BO146" s="33"/>
@@ -49899,8 +50819,12 @@
       <c r="BJ147" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK147" s="33"/>
-      <c r="BL147" s="33"/>
+      <c r="BK147" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL147" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM147" s="33"/>
       <c r="BN147" s="33"/>
       <c r="BO147" s="33"/>
@@ -50103,8 +51027,12 @@
       <c r="BJ148" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK148" s="33"/>
-      <c r="BL148" s="33"/>
+      <c r="BK148" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL148" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM148" s="33"/>
       <c r="BN148" s="33"/>
       <c r="BO148" s="33"/>
@@ -50307,8 +51235,12 @@
       <c r="BJ149" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK149" s="33"/>
-      <c r="BL149" s="33"/>
+      <c r="BK149" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL149" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM149" s="33"/>
       <c r="BN149" s="33"/>
       <c r="BO149" s="33"/>
@@ -50511,8 +51443,12 @@
       <c r="BJ150" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK150" s="33"/>
-      <c r="BL150" s="33"/>
+      <c r="BK150" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL150" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM150" s="33"/>
       <c r="BN150" s="33"/>
       <c r="BO150" s="33"/>
@@ -50715,8 +51651,12 @@
       <c r="BJ151" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK151" s="33"/>
-      <c r="BL151" s="33"/>
+      <c r="BK151" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL151" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM151" s="33"/>
       <c r="BN151" s="33"/>
       <c r="BO151" s="33"/>
@@ -50919,8 +51859,12 @@
       <c r="BJ152" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK152" s="33"/>
-      <c r="BL152" s="33"/>
+      <c r="BK152" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL152" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM152" s="33"/>
       <c r="BN152" s="33"/>
       <c r="BO152" s="33"/>
@@ -51123,8 +52067,12 @@
       <c r="BJ153" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK153" s="33"/>
-      <c r="BL153" s="33"/>
+      <c r="BK153" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL153" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM153" s="33"/>
       <c r="BN153" s="33"/>
       <c r="BO153" s="33"/>
@@ -51327,8 +52275,12 @@
       <c r="BJ154" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK154" s="33"/>
-      <c r="BL154" s="33"/>
+      <c r="BK154" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL154" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM154" s="33"/>
       <c r="BN154" s="33"/>
       <c r="BO154" s="33"/>
@@ -51531,8 +52483,12 @@
       <c r="BJ155" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK155" s="33"/>
-      <c r="BL155" s="33"/>
+      <c r="BK155" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL155" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM155" s="33"/>
       <c r="BN155" s="33"/>
       <c r="BO155" s="33"/>
@@ -51735,8 +52691,12 @@
       <c r="BJ156" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK156" s="33"/>
-      <c r="BL156" s="33"/>
+      <c r="BK156" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL156" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM156" s="33"/>
       <c r="BN156" s="33"/>
       <c r="BO156" s="33"/>
@@ -51939,8 +52899,12 @@
       <c r="BJ157" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK157" s="33"/>
-      <c r="BL157" s="33"/>
+      <c r="BK157" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL157" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM157" s="33"/>
       <c r="BN157" s="33"/>
       <c r="BO157" s="33"/>
@@ -52143,8 +53107,12 @@
       <c r="BJ158" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK158" s="33"/>
-      <c r="BL158" s="33"/>
+      <c r="BK158" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL158" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM158" s="33"/>
       <c r="BN158" s="33"/>
       <c r="BO158" s="33"/>
@@ -52347,8 +53315,12 @@
       <c r="BJ159" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK159" s="33"/>
-      <c r="BL159" s="33"/>
+      <c r="BK159" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL159" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM159" s="33"/>
       <c r="BN159" s="33"/>
       <c r="BO159" s="33"/>
@@ -52551,8 +53523,12 @@
       <c r="BJ160" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK160" s="33"/>
-      <c r="BL160" s="33"/>
+      <c r="BK160" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL160" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM160" s="33"/>
       <c r="BN160" s="33"/>
       <c r="BO160" s="33"/>
@@ -52755,8 +53731,12 @@
       <c r="BJ161" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK161" s="33"/>
-      <c r="BL161" s="33"/>
+      <c r="BK161" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL161" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM161" s="33"/>
       <c r="BN161" s="33"/>
       <c r="BO161" s="33"/>
@@ -52959,8 +53939,12 @@
       <c r="BJ162" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK162" s="33"/>
-      <c r="BL162" s="33"/>
+      <c r="BK162" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL162" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM162" s="33"/>
       <c r="BN162" s="33"/>
       <c r="BO162" s="33"/>
@@ -53163,8 +54147,12 @@
       <c r="BJ163" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK163" s="33"/>
-      <c r="BL163" s="33"/>
+      <c r="BK163" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL163" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM163" s="33"/>
       <c r="BN163" s="33"/>
       <c r="BO163" s="33"/>
@@ -53367,8 +54355,12 @@
       <c r="BJ164" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK164" s="33"/>
-      <c r="BL164" s="33"/>
+      <c r="BK164" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL164" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM164" s="33"/>
       <c r="BN164" s="33"/>
       <c r="BO164" s="33"/>
@@ -53571,8 +54563,12 @@
       <c r="BJ165" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK165" s="33"/>
-      <c r="BL165" s="33"/>
+      <c r="BK165" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL165" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM165" s="33"/>
       <c r="BN165" s="33"/>
       <c r="BO165" s="33"/>
@@ -53775,8 +54771,12 @@
       <c r="BJ166" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK166" s="33"/>
-      <c r="BL166" s="33"/>
+      <c r="BK166" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL166" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM166" s="33"/>
       <c r="BN166" s="33"/>
       <c r="BO166" s="33"/>
@@ -53979,8 +54979,12 @@
       <c r="BJ167" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK167" s="33"/>
-      <c r="BL167" s="33"/>
+      <c r="BK167" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL167" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM167" s="33"/>
       <c r="BN167" s="33"/>
       <c r="BO167" s="33"/>
@@ -54183,8 +55187,12 @@
       <c r="BJ168" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK168" s="33"/>
-      <c r="BL168" s="33"/>
+      <c r="BK168" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL168" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM168" s="33"/>
       <c r="BN168" s="33"/>
       <c r="BO168" s="33"/>
@@ -54387,8 +55395,12 @@
       <c r="BJ169" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK169" s="33"/>
-      <c r="BL169" s="33"/>
+      <c r="BK169" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL169" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM169" s="33"/>
       <c r="BN169" s="33"/>
       <c r="BO169" s="33"/>
@@ -54591,8 +55603,12 @@
       <c r="BJ170" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK170" s="33"/>
-      <c r="BL170" s="33"/>
+      <c r="BK170" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL170" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM170" s="33"/>
       <c r="BN170" s="33"/>
       <c r="BO170" s="33"/>
@@ -54795,8 +55811,12 @@
       <c r="BJ171" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK171" s="33"/>
-      <c r="BL171" s="33"/>
+      <c r="BK171" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL171" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM171" s="33"/>
       <c r="BN171" s="33"/>
       <c r="BO171" s="33"/>
@@ -54999,8 +56019,12 @@
       <c r="BJ172" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK172" s="33"/>
-      <c r="BL172" s="33"/>
+      <c r="BK172" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL172" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM172" s="33"/>
       <c r="BN172" s="33"/>
       <c r="BO172" s="33"/>
@@ -55203,8 +56227,12 @@
       <c r="BJ173" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK173" s="33"/>
-      <c r="BL173" s="33"/>
+      <c r="BK173" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL173" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM173" s="33"/>
       <c r="BN173" s="33"/>
       <c r="BO173" s="33"/>
@@ -55407,8 +56435,12 @@
       <c r="BJ174" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK174" s="33"/>
-      <c r="BL174" s="33"/>
+      <c r="BK174" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL174" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM174" s="33"/>
       <c r="BN174" s="33"/>
       <c r="BO174" s="33"/>
@@ -55611,8 +56643,12 @@
       <c r="BJ175" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK175" s="33"/>
-      <c r="BL175" s="33"/>
+      <c r="BK175" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL175" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM175" s="33"/>
       <c r="BN175" s="33"/>
       <c r="BO175" s="33"/>
@@ -55815,8 +56851,12 @@
       <c r="BJ176" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK176" s="33"/>
-      <c r="BL176" s="33"/>
+      <c r="BK176" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL176" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM176" s="33"/>
       <c r="BN176" s="33"/>
       <c r="BO176" s="33"/>
@@ -56019,8 +57059,12 @@
       <c r="BJ177" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK177" s="33"/>
-      <c r="BL177" s="33"/>
+      <c r="BK177" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL177" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM177" s="33"/>
       <c r="BN177" s="33"/>
       <c r="BO177" s="33"/>
@@ -56223,8 +57267,12 @@
       <c r="BJ178" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK178" s="33"/>
-      <c r="BL178" s="33"/>
+      <c r="BK178" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL178" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM178" s="33"/>
       <c r="BN178" s="33"/>
       <c r="BO178" s="33"/>
@@ -56427,8 +57475,12 @@
       <c r="BJ179" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK179" s="33"/>
-      <c r="BL179" s="33"/>
+      <c r="BK179" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL179" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM179" s="33"/>
       <c r="BN179" s="33"/>
       <c r="BO179" s="33"/>
@@ -56631,8 +57683,12 @@
       <c r="BJ180" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK180" s="33"/>
-      <c r="BL180" s="33"/>
+      <c r="BK180" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL180" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM180" s="33"/>
       <c r="BN180" s="33"/>
       <c r="BO180" s="33"/>
@@ -56835,8 +57891,12 @@
       <c r="BJ181" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK181" s="33"/>
-      <c r="BL181" s="33"/>
+      <c r="BK181" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL181" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM181" s="33"/>
       <c r="BN181" s="33"/>
       <c r="BO181" s="33"/>
@@ -57039,8 +58099,12 @@
       <c r="BJ182" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK182" s="33"/>
-      <c r="BL182" s="33"/>
+      <c r="BK182" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL182" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM182" s="33"/>
       <c r="BN182" s="33"/>
       <c r="BO182" s="33"/>
@@ -57243,8 +58307,12 @@
       <c r="BJ183" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK183" s="33"/>
-      <c r="BL183" s="33"/>
+      <c r="BK183" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL183" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM183" s="33"/>
       <c r="BN183" s="33"/>
       <c r="BO183" s="33"/>
@@ -57447,8 +58515,12 @@
       <c r="BJ184" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK184" s="33"/>
-      <c r="BL184" s="33"/>
+      <c r="BK184" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL184" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM184" s="33"/>
       <c r="BN184" s="33"/>
       <c r="BO184" s="33"/>
@@ -57651,8 +58723,12 @@
       <c r="BJ185" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK185" s="33"/>
-      <c r="BL185" s="33"/>
+      <c r="BK185" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL185" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM185" s="33"/>
       <c r="BN185" s="33"/>
       <c r="BO185" s="33"/>
@@ -57855,8 +58931,12 @@
       <c r="BJ186" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK186" s="33"/>
-      <c r="BL186" s="33"/>
+      <c r="BK186" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL186" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM186" s="33"/>
       <c r="BN186" s="33"/>
       <c r="BO186" s="33"/>
@@ -58059,8 +59139,12 @@
       <c r="BJ187" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK187" s="33"/>
-      <c r="BL187" s="33"/>
+      <c r="BK187" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL187" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM187" s="33"/>
       <c r="BN187" s="33"/>
       <c r="BO187" s="33"/>
@@ -58263,8 +59347,12 @@
       <c r="BJ188" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK188" s="33"/>
-      <c r="BL188" s="33"/>
+      <c r="BK188" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL188" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM188" s="33"/>
       <c r="BN188" s="33"/>
       <c r="BO188" s="33"/>
@@ -58467,8 +59555,12 @@
       <c r="BJ189" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK189" s="33"/>
-      <c r="BL189" s="33"/>
+      <c r="BK189" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL189" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM189" s="33"/>
       <c r="BN189" s="33"/>
       <c r="BO189" s="33"/>
@@ -58671,8 +59763,12 @@
       <c r="BJ190" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK190" s="33"/>
-      <c r="BL190" s="33"/>
+      <c r="BK190" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL190" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM190" s="33"/>
       <c r="BN190" s="33"/>
       <c r="BO190" s="33"/>
@@ -58875,8 +59971,12 @@
       <c r="BJ191" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK191" s="33"/>
-      <c r="BL191" s="33"/>
+      <c r="BK191" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL191" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM191" s="33"/>
       <c r="BN191" s="33"/>
       <c r="BO191" s="33"/>
@@ -59079,8 +60179,12 @@
       <c r="BJ192" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK192" s="33"/>
-      <c r="BL192" s="33"/>
+      <c r="BK192" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL192" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM192" s="33"/>
       <c r="BN192" s="33"/>
       <c r="BO192" s="33"/>
@@ -59283,8 +60387,12 @@
       <c r="BJ193" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK193" s="33"/>
-      <c r="BL193" s="33"/>
+      <c r="BK193" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL193" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM193" s="33"/>
       <c r="BN193" s="33"/>
       <c r="BO193" s="33"/>
@@ -59487,8 +60595,12 @@
       <c r="BJ194" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK194" s="33"/>
-      <c r="BL194" s="33"/>
+      <c r="BK194" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL194" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM194" s="33"/>
       <c r="BN194" s="33"/>
       <c r="BO194" s="33"/>
@@ -59691,8 +60803,12 @@
       <c r="BJ195" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK195" s="33"/>
-      <c r="BL195" s="33"/>
+      <c r="BK195" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL195" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM195" s="33"/>
       <c r="BN195" s="33"/>
       <c r="BO195" s="33"/>
@@ -59895,8 +61011,12 @@
       <c r="BJ196" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK196" s="33"/>
-      <c r="BL196" s="33"/>
+      <c r="BK196" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL196" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM196" s="33"/>
       <c r="BN196" s="33"/>
       <c r="BO196" s="33"/>
@@ -60099,8 +61219,12 @@
       <c r="BJ197" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK197" s="33"/>
-      <c r="BL197" s="33"/>
+      <c r="BK197" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL197" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM197" s="33"/>
       <c r="BN197" s="33"/>
       <c r="BO197" s="33"/>
@@ -60303,8 +61427,12 @@
       <c r="BJ198" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK198" s="33"/>
-      <c r="BL198" s="33"/>
+      <c r="BK198" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL198" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM198" s="33"/>
       <c r="BN198" s="33"/>
       <c r="BO198" s="33"/>
@@ -60507,8 +61635,12 @@
       <c r="BJ199" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK199" s="33"/>
-      <c r="BL199" s="33"/>
+      <c r="BK199" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL199" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM199" s="33"/>
       <c r="BN199" s="33"/>
       <c r="BO199" s="33"/>
@@ -60711,8 +61843,12 @@
       <c r="BJ200" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK200" s="33"/>
-      <c r="BL200" s="33"/>
+      <c r="BK200" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL200" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM200" s="33"/>
       <c r="BN200" s="33"/>
       <c r="BO200" s="33"/>
@@ -60915,8 +62051,12 @@
       <c r="BJ201" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK201" s="33"/>
-      <c r="BL201" s="33"/>
+      <c r="BK201" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL201" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM201" s="33"/>
       <c r="BN201" s="33"/>
       <c r="BO201" s="33"/>
@@ -61119,8 +62259,12 @@
       <c r="BJ202" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK202" s="33"/>
-      <c r="BL202" s="33"/>
+      <c r="BK202" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL202" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM202" s="33"/>
       <c r="BN202" s="33"/>
       <c r="BO202" s="33"/>
@@ -61323,8 +62467,12 @@
       <c r="BJ203" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK203" s="33"/>
-      <c r="BL203" s="33"/>
+      <c r="BK203" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL203" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM203" s="33"/>
       <c r="BN203" s="33"/>
       <c r="BO203" s="33"/>
@@ -61527,8 +62675,12 @@
       <c r="BJ204" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK204" s="33"/>
-      <c r="BL204" s="33"/>
+      <c r="BK204" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL204" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM204" s="33"/>
       <c r="BN204" s="33"/>
       <c r="BO204" s="33"/>
@@ -61731,8 +62883,12 @@
       <c r="BJ205" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK205" s="33"/>
-      <c r="BL205" s="33"/>
+      <c r="BK205" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL205" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM205" s="33"/>
       <c r="BN205" s="33"/>
       <c r="BO205" s="33"/>
@@ -61935,8 +63091,12 @@
       <c r="BJ206" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK206" s="33"/>
-      <c r="BL206" s="33"/>
+      <c r="BK206" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL206" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM206" s="33"/>
       <c r="BN206" s="33"/>
       <c r="BO206" s="33"/>
@@ -62139,8 +63299,12 @@
       <c r="BJ207" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK207" s="33"/>
-      <c r="BL207" s="33"/>
+      <c r="BK207" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL207" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM207" s="33"/>
       <c r="BN207" s="33"/>
       <c r="BO207" s="33"/>
@@ -62343,8 +63507,12 @@
       <c r="BJ208" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK208" s="33"/>
-      <c r="BL208" s="33"/>
+      <c r="BK208" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL208" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM208" s="33"/>
       <c r="BN208" s="33"/>
       <c r="BO208" s="33"/>
@@ -62547,8 +63715,12 @@
       <c r="BJ209" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK209" s="33"/>
-      <c r="BL209" s="33"/>
+      <c r="BK209" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL209" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM209" s="33"/>
       <c r="BN209" s="33"/>
       <c r="BO209" s="33"/>
@@ -62751,8 +63923,12 @@
       <c r="BJ210" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK210" s="33"/>
-      <c r="BL210" s="33"/>
+      <c r="BK210" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL210" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM210" s="33"/>
       <c r="BN210" s="33"/>
       <c r="BO210" s="33"/>
@@ -62955,8 +64131,12 @@
       <c r="BJ211" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK211" s="33"/>
-      <c r="BL211" s="33"/>
+      <c r="BK211" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL211" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM211" s="33"/>
       <c r="BN211" s="33"/>
       <c r="BO211" s="33"/>
@@ -63159,8 +64339,12 @@
       <c r="BJ212" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK212" s="33"/>
-      <c r="BL212" s="33"/>
+      <c r="BK212" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL212" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM212" s="33"/>
       <c r="BN212" s="33"/>
       <c r="BO212" s="33"/>
@@ -63363,8 +64547,12 @@
       <c r="BJ213" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK213" s="33"/>
-      <c r="BL213" s="33"/>
+      <c r="BK213" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL213" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM213" s="33"/>
       <c r="BN213" s="33"/>
       <c r="BO213" s="33"/>
@@ -63567,8 +64755,12 @@
       <c r="BJ214" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK214" s="33"/>
-      <c r="BL214" s="33"/>
+      <c r="BK214" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL214" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM214" s="33"/>
       <c r="BN214" s="33"/>
       <c r="BO214" s="33"/>
@@ -63771,8 +64963,12 @@
       <c r="BJ215" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK215" s="33"/>
-      <c r="BL215" s="33"/>
+      <c r="BK215" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL215" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM215" s="33"/>
       <c r="BN215" s="33"/>
       <c r="BO215" s="33"/>
@@ -63975,8 +65171,12 @@
       <c r="BJ216" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK216" s="33"/>
-      <c r="BL216" s="33"/>
+      <c r="BK216" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL216" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM216" s="33"/>
       <c r="BN216" s="33"/>
       <c r="BO216" s="33"/>
@@ -64179,8 +65379,12 @@
       <c r="BJ217" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK217" s="33"/>
-      <c r="BL217" s="33"/>
+      <c r="BK217" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL217" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM217" s="33"/>
       <c r="BN217" s="33"/>
       <c r="BO217" s="33"/>
@@ -64383,8 +65587,12 @@
       <c r="BJ218" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK218" s="33"/>
-      <c r="BL218" s="33"/>
+      <c r="BK218" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL218" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM218" s="33"/>
       <c r="BN218" s="33"/>
       <c r="BO218" s="33"/>
@@ -64587,8 +65795,12 @@
       <c r="BJ219" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK219" s="33"/>
-      <c r="BL219" s="33"/>
+      <c r="BK219" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL219" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM219" s="33"/>
       <c r="BN219" s="33"/>
       <c r="BO219" s="33"/>
@@ -64791,8 +66003,12 @@
       <c r="BJ220" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK220" s="33"/>
-      <c r="BL220" s="33"/>
+      <c r="BK220" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL220" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM220" s="33"/>
       <c r="BN220" s="33"/>
       <c r="BO220" s="33"/>
@@ -64995,8 +66211,12 @@
       <c r="BJ221" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK221" s="33"/>
-      <c r="BL221" s="33"/>
+      <c r="BK221" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL221" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM221" s="33"/>
       <c r="BN221" s="33"/>
       <c r="BO221" s="33"/>
@@ -65199,8 +66419,12 @@
       <c r="BJ222" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK222" s="33"/>
-      <c r="BL222" s="33"/>
+      <c r="BK222" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL222" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM222" s="33"/>
       <c r="BN222" s="33"/>
       <c r="BO222" s="33"/>
@@ -65403,8 +66627,12 @@
       <c r="BJ223" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK223" s="33"/>
-      <c r="BL223" s="33"/>
+      <c r="BK223" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL223" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM223" s="33"/>
       <c r="BN223" s="33"/>
       <c r="BO223" s="33"/>
@@ -65607,8 +66835,12 @@
       <c r="BJ224" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK224" s="33"/>
-      <c r="BL224" s="33"/>
+      <c r="BK224" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL224" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM224" s="33"/>
       <c r="BN224" s="33"/>
       <c r="BO224" s="33"/>
@@ -65811,8 +67043,12 @@
       <c r="BJ225" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK225" s="33"/>
-      <c r="BL225" s="33"/>
+      <c r="BK225" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL225" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM225" s="33"/>
       <c r="BN225" s="33"/>
       <c r="BO225" s="33"/>
@@ -66015,8 +67251,12 @@
       <c r="BJ226" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK226" s="33"/>
-      <c r="BL226" s="33"/>
+      <c r="BK226" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL226" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM226" s="33"/>
       <c r="BN226" s="33"/>
       <c r="BO226" s="33"/>
@@ -66219,8 +67459,12 @@
       <c r="BJ227" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK227" s="33"/>
-      <c r="BL227" s="33"/>
+      <c r="BK227" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL227" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM227" s="33"/>
       <c r="BN227" s="33"/>
       <c r="BO227" s="33"/>
@@ -66423,8 +67667,12 @@
       <c r="BJ228" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK228" s="33"/>
-      <c r="BL228" s="33"/>
+      <c r="BK228" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL228" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM228" s="33"/>
       <c r="BN228" s="33"/>
       <c r="BO228" s="33"/>
@@ -66627,8 +67875,12 @@
       <c r="BJ229" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK229" s="33"/>
-      <c r="BL229" s="33"/>
+      <c r="BK229" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL229" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM229" s="33"/>
       <c r="BN229" s="33"/>
       <c r="BO229" s="33"/>
@@ -66831,8 +68083,12 @@
       <c r="BJ230" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK230" s="33"/>
-      <c r="BL230" s="33"/>
+      <c r="BK230" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL230" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM230" s="33"/>
       <c r="BN230" s="33"/>
       <c r="BO230" s="33"/>
@@ -67035,8 +68291,12 @@
       <c r="BJ231" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK231" s="33"/>
-      <c r="BL231" s="33"/>
+      <c r="BK231" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL231" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM231" s="33"/>
       <c r="BN231" s="33"/>
       <c r="BO231" s="33"/>
@@ -67239,8 +68499,12 @@
       <c r="BJ232" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK232" s="33"/>
-      <c r="BL232" s="33"/>
+      <c r="BK232" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL232" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM232" s="33"/>
       <c r="BN232" s="33"/>
       <c r="BO232" s="33"/>
@@ -67443,8 +68707,12 @@
       <c r="BJ233" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK233" s="33"/>
-      <c r="BL233" s="33"/>
+      <c r="BK233" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL233" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM233" s="33"/>
       <c r="BN233" s="33"/>
       <c r="BO233" s="33"/>
@@ -67647,8 +68915,12 @@
       <c r="BJ234" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK234" s="33"/>
-      <c r="BL234" s="33"/>
+      <c r="BK234" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL234" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM234" s="33"/>
       <c r="BN234" s="33"/>
       <c r="BO234" s="33"/>
@@ -67851,8 +69123,12 @@
       <c r="BJ235" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK235" s="33"/>
-      <c r="BL235" s="33"/>
+      <c r="BK235" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL235" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM235" s="33"/>
       <c r="BN235" s="33"/>
       <c r="BO235" s="33"/>
@@ -68055,8 +69331,12 @@
       <c r="BJ236" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK236" s="33"/>
-      <c r="BL236" s="33"/>
+      <c r="BK236" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL236" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM236" s="33"/>
       <c r="BN236" s="33"/>
       <c r="BO236" s="33"/>
@@ -68259,8 +69539,12 @@
       <c r="BJ237" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK237" s="33"/>
-      <c r="BL237" s="33"/>
+      <c r="BK237" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL237" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM237" s="33"/>
       <c r="BN237" s="33"/>
       <c r="BO237" s="33"/>
@@ -68463,8 +69747,12 @@
       <c r="BJ238" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK238" s="33"/>
-      <c r="BL238" s="33"/>
+      <c r="BK238" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL238" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM238" s="33"/>
       <c r="BN238" s="33"/>
       <c r="BO238" s="33"/>
@@ -68667,8 +69955,12 @@
       <c r="BJ239" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK239" s="33"/>
-      <c r="BL239" s="33"/>
+      <c r="BK239" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL239" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM239" s="33"/>
       <c r="BN239" s="33"/>
       <c r="BO239" s="33"/>
@@ -68871,8 +70163,12 @@
       <c r="BJ240" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK240" s="33"/>
-      <c r="BL240" s="33"/>
+      <c r="BK240" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL240" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM240" s="33"/>
       <c r="BN240" s="33"/>
       <c r="BO240" s="33"/>
@@ -69075,8 +70371,12 @@
       <c r="BJ241" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK241" s="33"/>
-      <c r="BL241" s="33"/>
+      <c r="BK241" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL241" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM241" s="33"/>
       <c r="BN241" s="33"/>
       <c r="BO241" s="33"/>
@@ -69279,8 +70579,12 @@
       <c r="BJ242" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK242" s="33"/>
-      <c r="BL242" s="33"/>
+      <c r="BK242" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL242" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM242" s="33"/>
       <c r="BN242" s="33"/>
       <c r="BO242" s="33"/>
@@ -69483,8 +70787,12 @@
       <c r="BJ243" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK243" s="33"/>
-      <c r="BL243" s="33"/>
+      <c r="BK243" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL243" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM243" s="33"/>
       <c r="BN243" s="33"/>
       <c r="BO243" s="33"/>
@@ -69687,8 +70995,12 @@
       <c r="BJ244" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK244" s="33"/>
-      <c r="BL244" s="33"/>
+      <c r="BK244" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL244" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM244" s="33"/>
       <c r="BN244" s="33"/>
       <c r="BO244" s="33"/>
@@ -69891,8 +71203,12 @@
       <c r="BJ245" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK245" s="33"/>
-      <c r="BL245" s="33"/>
+      <c r="BK245" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL245" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM245" s="33"/>
       <c r="BN245" s="33"/>
       <c r="BO245" s="33"/>
@@ -70095,8 +71411,12 @@
       <c r="BJ246" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK246" s="33"/>
-      <c r="BL246" s="33"/>
+      <c r="BK246" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL246" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM246" s="33"/>
       <c r="BN246" s="33"/>
       <c r="BO246" s="33"/>
@@ -70299,8 +71619,12 @@
       <c r="BJ247" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK247" s="33"/>
-      <c r="BL247" s="33"/>
+      <c r="BK247" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL247" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM247" s="33"/>
       <c r="BN247" s="33"/>
       <c r="BO247" s="33"/>
@@ -70503,8 +71827,12 @@
       <c r="BJ248" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK248" s="33"/>
-      <c r="BL248" s="33"/>
+      <c r="BK248" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL248" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM248" s="33"/>
       <c r="BN248" s="33"/>
       <c r="BO248" s="33"/>
@@ -70707,8 +72035,12 @@
       <c r="BJ249" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK249" s="33"/>
-      <c r="BL249" s="33"/>
+      <c r="BK249" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL249" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM249" s="33"/>
       <c r="BN249" s="33"/>
       <c r="BO249" s="33"/>
@@ -70911,8 +72243,12 @@
       <c r="BJ250" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK250" s="33"/>
-      <c r="BL250" s="33"/>
+      <c r="BK250" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL250" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM250" s="33"/>
       <c r="BN250" s="33"/>
       <c r="BO250" s="33"/>
@@ -71115,8 +72451,12 @@
       <c r="BJ251" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK251" s="33"/>
-      <c r="BL251" s="33"/>
+      <c r="BK251" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL251" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM251" s="33"/>
       <c r="BN251" s="33"/>
       <c r="BO251" s="33"/>
@@ -71319,8 +72659,12 @@
       <c r="BJ252" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK252" s="33"/>
-      <c r="BL252" s="33"/>
+      <c r="BK252" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL252" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM252" s="33"/>
       <c r="BN252" s="33"/>
       <c r="BO252" s="33"/>
@@ -71523,8 +72867,12 @@
       <c r="BJ253" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK253" s="33"/>
-      <c r="BL253" s="33"/>
+      <c r="BK253" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL253" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM253" s="33"/>
       <c r="BN253" s="33"/>
       <c r="BO253" s="33"/>
@@ -71727,8 +73075,12 @@
       <c r="BJ254" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK254" s="33"/>
-      <c r="BL254" s="33"/>
+      <c r="BK254" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL254" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM254" s="33"/>
       <c r="BN254" s="33"/>
       <c r="BO254" s="33"/>
@@ -71931,8 +73283,12 @@
       <c r="BJ255" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK255" s="33"/>
-      <c r="BL255" s="33"/>
+      <c r="BK255" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL255" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM255" s="33"/>
       <c r="BN255" s="33"/>
       <c r="BO255" s="33"/>
@@ -72135,8 +73491,12 @@
       <c r="BJ256" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK256" s="33"/>
-      <c r="BL256" s="33"/>
+      <c r="BK256" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL256" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM256" s="33"/>
       <c r="BN256" s="33"/>
       <c r="BO256" s="33"/>
@@ -72339,8 +73699,12 @@
       <c r="BJ257" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK257" s="33"/>
-      <c r="BL257" s="33"/>
+      <c r="BK257" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL257" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM257" s="33"/>
       <c r="BN257" s="33"/>
       <c r="BO257" s="33"/>
@@ -72543,8 +73907,12 @@
       <c r="BJ258" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK258" s="33"/>
-      <c r="BL258" s="33"/>
+      <c r="BK258" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL258" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM258" s="33"/>
       <c r="BN258" s="33"/>
       <c r="BO258" s="33"/>
@@ -72747,8 +74115,12 @@
       <c r="BJ259" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK259" s="33"/>
-      <c r="BL259" s="33"/>
+      <c r="BK259" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL259" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM259" s="33"/>
       <c r="BN259" s="33"/>
       <c r="BO259" s="33"/>
@@ -72951,8 +74323,12 @@
       <c r="BJ260" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK260" s="33"/>
-      <c r="BL260" s="33"/>
+      <c r="BK260" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL260" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM260" s="33"/>
       <c r="BN260" s="33"/>
       <c r="BO260" s="33"/>
@@ -73155,8 +74531,12 @@
       <c r="BJ261" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK261" s="33"/>
-      <c r="BL261" s="33"/>
+      <c r="BK261" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL261" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM261" s="33"/>
       <c r="BN261" s="33"/>
       <c r="BO261" s="33"/>
@@ -73359,8 +74739,12 @@
       <c r="BJ262" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK262" s="33"/>
-      <c r="BL262" s="33"/>
+      <c r="BK262" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL262" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM262" s="33"/>
       <c r="BN262" s="33"/>
       <c r="BO262" s="33"/>
@@ -73563,8 +74947,12 @@
       <c r="BJ263" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK263" s="33"/>
-      <c r="BL263" s="33"/>
+      <c r="BK263" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL263" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM263" s="33"/>
       <c r="BN263" s="33"/>
       <c r="BO263" s="33"/>
@@ -73767,8 +75155,12 @@
       <c r="BJ264" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK264" s="33"/>
-      <c r="BL264" s="33"/>
+      <c r="BK264" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL264" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM264" s="33"/>
       <c r="BN264" s="33"/>
       <c r="BO264" s="33"/>
@@ -73971,8 +75363,12 @@
       <c r="BJ265" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK265" s="33"/>
-      <c r="BL265" s="33"/>
+      <c r="BK265" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL265" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM265" s="33"/>
       <c r="BN265" s="33"/>
       <c r="BO265" s="33"/>
@@ -74175,8 +75571,12 @@
       <c r="BJ266" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK266" s="33"/>
-      <c r="BL266" s="33"/>
+      <c r="BK266" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL266" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM266" s="33"/>
       <c r="BN266" s="33"/>
       <c r="BO266" s="33"/>
@@ -74379,8 +75779,12 @@
       <c r="BJ267" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK267" s="33"/>
-      <c r="BL267" s="33"/>
+      <c r="BK267" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL267" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM267" s="33"/>
       <c r="BN267" s="33"/>
       <c r="BO267" s="33"/>
@@ -74583,8 +75987,12 @@
       <c r="BJ268" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK268" s="33"/>
-      <c r="BL268" s="33"/>
+      <c r="BK268" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL268" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM268" s="33"/>
       <c r="BN268" s="33"/>
       <c r="BO268" s="33"/>
@@ -74787,8 +76195,12 @@
       <c r="BJ269" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK269" s="33"/>
-      <c r="BL269" s="33"/>
+      <c r="BK269" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL269" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM269" s="33"/>
       <c r="BN269" s="33"/>
       <c r="BO269" s="33"/>
@@ -74991,8 +76403,12 @@
       <c r="BJ270" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK270" s="33"/>
-      <c r="BL270" s="33"/>
+      <c r="BK270" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL270" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM270" s="33"/>
       <c r="BN270" s="33"/>
       <c r="BO270" s="33"/>
@@ -75195,8 +76611,12 @@
       <c r="BJ271" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK271" s="33"/>
-      <c r="BL271" s="33"/>
+      <c r="BK271" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL271" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM271" s="33"/>
       <c r="BN271" s="33"/>
       <c r="BO271" s="33"/>
@@ -75399,8 +76819,12 @@
       <c r="BJ272" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK272" s="33"/>
-      <c r="BL272" s="33"/>
+      <c r="BK272" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL272" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM272" s="33"/>
       <c r="BN272" s="33"/>
       <c r="BO272" s="33"/>
@@ -75603,8 +77027,12 @@
       <c r="BJ273" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK273" s="33"/>
-      <c r="BL273" s="33"/>
+      <c r="BK273" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL273" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM273" s="33"/>
       <c r="BN273" s="33"/>
       <c r="BO273" s="33"/>
@@ -75807,8 +77235,12 @@
       <c r="BJ274" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK274" s="33"/>
-      <c r="BL274" s="33"/>
+      <c r="BK274" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL274" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM274" s="33"/>
       <c r="BN274" s="33"/>
       <c r="BO274" s="33"/>
@@ -76011,8 +77443,12 @@
       <c r="BJ275" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK275" s="33"/>
-      <c r="BL275" s="33"/>
+      <c r="BK275" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL275" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM275" s="33"/>
       <c r="BN275" s="33"/>
       <c r="BO275" s="33"/>
@@ -76215,8 +77651,12 @@
       <c r="BJ276" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK276" s="33"/>
-      <c r="BL276" s="33"/>
+      <c r="BK276" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL276" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM276" s="33"/>
       <c r="BN276" s="33"/>
       <c r="BO276" s="33"/>
@@ -76419,8 +77859,12 @@
       <c r="BJ277" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK277" s="33"/>
-      <c r="BL277" s="33"/>
+      <c r="BK277" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL277" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM277" s="33"/>
       <c r="BN277" s="33"/>
       <c r="BO277" s="33"/>
@@ -76623,8 +78067,12 @@
       <c r="BJ278" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK278" s="33"/>
-      <c r="BL278" s="33"/>
+      <c r="BK278" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL278" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM278" s="33"/>
       <c r="BN278" s="33"/>
       <c r="BO278" s="33"/>
@@ -76827,8 +78275,12 @@
       <c r="BJ279" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK279" s="33"/>
-      <c r="BL279" s="33"/>
+      <c r="BK279" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL279" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM279" s="33"/>
       <c r="BN279" s="33"/>
       <c r="BO279" s="33"/>
@@ -77031,8 +78483,12 @@
       <c r="BJ280" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK280" s="33"/>
-      <c r="BL280" s="33"/>
+      <c r="BK280" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL280" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM280" s="33"/>
       <c r="BN280" s="33"/>
       <c r="BO280" s="33"/>
@@ -77235,8 +78691,12 @@
       <c r="BJ281" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK281" s="33"/>
-      <c r="BL281" s="33"/>
+      <c r="BK281" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL281" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM281" s="33"/>
       <c r="BN281" s="33"/>
       <c r="BO281" s="33"/>
@@ -77439,8 +78899,12 @@
       <c r="BJ282" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK282" s="33"/>
-      <c r="BL282" s="33"/>
+      <c r="BK282" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL282" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM282" s="33"/>
       <c r="BN282" s="33"/>
       <c r="BO282" s="33"/>
@@ -77643,8 +79107,12 @@
       <c r="BJ283" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK283" s="33"/>
-      <c r="BL283" s="33"/>
+      <c r="BK283" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL283" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM283" s="33"/>
       <c r="BN283" s="33"/>
       <c r="BO283" s="33"/>
@@ -77847,8 +79315,12 @@
       <c r="BJ284" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK284" s="33"/>
-      <c r="BL284" s="33"/>
+      <c r="BK284" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL284" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM284" s="33"/>
       <c r="BN284" s="33"/>
       <c r="BO284" s="33"/>
@@ -78051,8 +79523,12 @@
       <c r="BJ285" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK285" s="33"/>
-      <c r="BL285" s="33"/>
+      <c r="BK285" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL285" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM285" s="33"/>
       <c r="BN285" s="33"/>
       <c r="BO285" s="33"/>
@@ -78255,8 +79731,12 @@
       <c r="BJ286" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK286" s="33"/>
-      <c r="BL286" s="33"/>
+      <c r="BK286" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL286" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM286" s="33"/>
       <c r="BN286" s="33"/>
       <c r="BO286" s="33"/>
@@ -78459,8 +79939,12 @@
       <c r="BJ287" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK287" s="33"/>
-      <c r="BL287" s="33"/>
+      <c r="BK287" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL287" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM287" s="33"/>
       <c r="BN287" s="33"/>
       <c r="BO287" s="33"/>
@@ -78663,8 +80147,12 @@
       <c r="BJ288" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK288" s="33"/>
-      <c r="BL288" s="33"/>
+      <c r="BK288" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL288" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM288" s="33"/>
       <c r="BN288" s="33"/>
       <c r="BO288" s="33"/>
@@ -78867,8 +80355,12 @@
       <c r="BJ289" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK289" s="33"/>
-      <c r="BL289" s="33"/>
+      <c r="BK289" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL289" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM289" s="33"/>
       <c r="BN289" s="33"/>
       <c r="BO289" s="33"/>
@@ -79071,8 +80563,12 @@
       <c r="BJ290" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK290" s="33"/>
-      <c r="BL290" s="33"/>
+      <c r="BK290" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL290" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM290" s="33"/>
       <c r="BN290" s="33"/>
       <c r="BO290" s="33"/>
@@ -79275,8 +80771,12 @@
       <c r="BJ291" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK291" s="33"/>
-      <c r="BL291" s="33"/>
+      <c r="BK291" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL291" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM291" s="33"/>
       <c r="BN291" s="33"/>
       <c r="BO291" s="33"/>
@@ -79479,8 +80979,12 @@
       <c r="BJ292" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK292" s="33"/>
-      <c r="BL292" s="33"/>
+      <c r="BK292" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL292" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM292" s="33"/>
       <c r="BN292" s="33"/>
       <c r="BO292" s="33"/>
@@ -79683,8 +81187,12 @@
       <c r="BJ293" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK293" s="33"/>
-      <c r="BL293" s="33"/>
+      <c r="BK293" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL293" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM293" s="33"/>
       <c r="BN293" s="33"/>
       <c r="BO293" s="33"/>
@@ -79887,8 +81395,12 @@
       <c r="BJ294" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK294" s="33"/>
-      <c r="BL294" s="33"/>
+      <c r="BK294" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL294" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM294" s="33"/>
       <c r="BN294" s="33"/>
       <c r="BO294" s="33"/>
@@ -80091,8 +81603,12 @@
       <c r="BJ295" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK295" s="33"/>
-      <c r="BL295" s="33"/>
+      <c r="BK295" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL295" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM295" s="33"/>
       <c r="BN295" s="33"/>
       <c r="BO295" s="33"/>
@@ -80295,8 +81811,12 @@
       <c r="BJ296" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK296" s="33"/>
-      <c r="BL296" s="33"/>
+      <c r="BK296" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL296" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM296" s="33"/>
       <c r="BN296" s="33"/>
       <c r="BO296" s="33"/>
@@ -80499,8 +82019,12 @@
       <c r="BJ297" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK297" s="33"/>
-      <c r="BL297" s="33"/>
+      <c r="BK297" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL297" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM297" s="33"/>
       <c r="BN297" s="33"/>
       <c r="BO297" s="33"/>
@@ -80703,8 +82227,12 @@
       <c r="BJ298" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK298" s="33"/>
-      <c r="BL298" s="33"/>
+      <c r="BK298" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL298" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM298" s="33"/>
       <c r="BN298" s="33"/>
       <c r="BO298" s="33"/>
@@ -80907,8 +82435,12 @@
       <c r="BJ299" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK299" s="33"/>
-      <c r="BL299" s="33"/>
+      <c r="BK299" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL299" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM299" s="33"/>
       <c r="BN299" s="33"/>
       <c r="BO299" s="33"/>
@@ -81111,8 +82643,12 @@
       <c r="BJ300" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK300" s="33"/>
-      <c r="BL300" s="33"/>
+      <c r="BK300" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL300" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM300" s="33"/>
       <c r="BN300" s="33"/>
       <c r="BO300" s="33"/>
@@ -81315,8 +82851,12 @@
       <c r="BJ301" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK301" s="33"/>
-      <c r="BL301" s="33"/>
+      <c r="BK301" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL301" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM301" s="33"/>
       <c r="BN301" s="33"/>
       <c r="BO301" s="33"/>
@@ -81519,8 +83059,12 @@
       <c r="BJ302" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK302" s="33"/>
-      <c r="BL302" s="33"/>
+      <c r="BK302" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL302" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM302" s="33"/>
       <c r="BN302" s="33"/>
       <c r="BO302" s="33"/>
@@ -81723,8 +83267,12 @@
       <c r="BJ303" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK303" s="33"/>
-      <c r="BL303" s="33"/>
+      <c r="BK303" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL303" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM303" s="33"/>
       <c r="BN303" s="33"/>
       <c r="BO303" s="33"/>
@@ -81927,8 +83475,12 @@
       <c r="BJ304" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK304" s="33"/>
-      <c r="BL304" s="33"/>
+      <c r="BK304" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL304" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM304" s="33"/>
       <c r="BN304" s="33"/>
       <c r="BO304" s="33"/>
@@ -82131,8 +83683,12 @@
       <c r="BJ305" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK305" s="33"/>
-      <c r="BL305" s="33"/>
+      <c r="BK305" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL305" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM305" s="33"/>
       <c r="BN305" s="33"/>
       <c r="BO305" s="33"/>
@@ -82335,8 +83891,12 @@
       <c r="BJ306" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK306" s="33"/>
-      <c r="BL306" s="33"/>
+      <c r="BK306" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL306" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM306" s="33"/>
       <c r="BN306" s="33"/>
       <c r="BO306" s="33"/>
@@ -82539,8 +84099,12 @@
       <c r="BJ307" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK307" s="33"/>
-      <c r="BL307" s="33"/>
+      <c r="BK307" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL307" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM307" s="33"/>
       <c r="BN307" s="33"/>
       <c r="BO307" s="33"/>
@@ -82743,8 +84307,12 @@
       <c r="BJ308" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK308" s="33"/>
-      <c r="BL308" s="33"/>
+      <c r="BK308" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL308" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM308" s="33"/>
       <c r="BN308" s="33"/>
       <c r="BO308" s="33"/>
@@ -82947,8 +84515,12 @@
       <c r="BJ309" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK309" s="33"/>
-      <c r="BL309" s="33"/>
+      <c r="BK309" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL309" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM309" s="33"/>
       <c r="BN309" s="33"/>
       <c r="BO309" s="33"/>
@@ -83151,8 +84723,12 @@
       <c r="BJ310" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK310" s="33"/>
-      <c r="BL310" s="33"/>
+      <c r="BK310" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL310" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM310" s="33"/>
       <c r="BN310" s="33"/>
       <c r="BO310" s="33"/>
@@ -83355,8 +84931,12 @@
       <c r="BJ311" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK311" s="33"/>
-      <c r="BL311" s="33"/>
+      <c r="BK311" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL311" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM311" s="33"/>
       <c r="BN311" s="33"/>
       <c r="BO311" s="33"/>
@@ -83559,8 +85139,12 @@
       <c r="BJ312" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK312" s="33"/>
-      <c r="BL312" s="33"/>
+      <c r="BK312" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL312" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM312" s="33"/>
       <c r="BN312" s="33"/>
       <c r="BO312" s="33"/>
@@ -83763,8 +85347,12 @@
       <c r="BJ313" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK313" s="33"/>
-      <c r="BL313" s="33"/>
+      <c r="BK313" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL313" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM313" s="33"/>
       <c r="BN313" s="33"/>
       <c r="BO313" s="33"/>
@@ -83967,8 +85555,12 @@
       <c r="BJ314" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK314" s="33"/>
-      <c r="BL314" s="33"/>
+      <c r="BK314" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL314" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM314" s="33"/>
       <c r="BN314" s="33"/>
       <c r="BO314" s="33"/>
@@ -84171,8 +85763,12 @@
       <c r="BJ315" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK315" s="33"/>
-      <c r="BL315" s="33"/>
+      <c r="BK315" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL315" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM315" s="33"/>
       <c r="BN315" s="33"/>
       <c r="BO315" s="33"/>
@@ -84375,8 +85971,12 @@
       <c r="BJ316" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK316" s="33"/>
-      <c r="BL316" s="33"/>
+      <c r="BK316" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL316" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM316" s="33"/>
       <c r="BN316" s="33"/>
       <c r="BO316" s="33"/>
@@ -84579,8 +86179,12 @@
       <c r="BJ317" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK317" s="33"/>
-      <c r="BL317" s="33"/>
+      <c r="BK317" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL317" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM317" s="33"/>
       <c r="BN317" s="33"/>
       <c r="BO317" s="33"/>
@@ -84783,8 +86387,12 @@
       <c r="BJ318" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK318" s="33"/>
-      <c r="BL318" s="33"/>
+      <c r="BK318" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL318" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM318" s="33"/>
       <c r="BN318" s="33"/>
       <c r="BO318" s="33"/>
@@ -84987,8 +86595,12 @@
       <c r="BJ319" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK319" s="33"/>
-      <c r="BL319" s="33"/>
+      <c r="BK319" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL319" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM319" s="33"/>
       <c r="BN319" s="33"/>
       <c r="BO319" s="33"/>
@@ -85191,8 +86803,12 @@
       <c r="BJ320" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK320" s="33"/>
-      <c r="BL320" s="33"/>
+      <c r="BK320" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL320" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM320" s="33"/>
       <c r="BN320" s="33"/>
       <c r="BO320" s="33"/>
@@ -85395,8 +87011,12 @@
       <c r="BJ321" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK321" s="33"/>
-      <c r="BL321" s="33"/>
+      <c r="BK321" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL321" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM321" s="33"/>
       <c r="BN321" s="33"/>
       <c r="BO321" s="33"/>
@@ -85599,8 +87219,12 @@
       <c r="BJ322" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK322" s="33"/>
-      <c r="BL322" s="33"/>
+      <c r="BK322" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL322" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM322" s="33"/>
       <c r="BN322" s="33"/>
       <c r="BO322" s="33"/>
@@ -85803,8 +87427,12 @@
       <c r="BJ323" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK323" s="33"/>
-      <c r="BL323" s="33"/>
+      <c r="BK323" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL323" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM323" s="33"/>
       <c r="BN323" s="33"/>
       <c r="BO323" s="33"/>
@@ -86007,8 +87635,12 @@
       <c r="BJ324" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK324" s="33"/>
-      <c r="BL324" s="33"/>
+      <c r="BK324" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL324" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM324" s="33"/>
       <c r="BN324" s="33"/>
       <c r="BO324" s="33"/>
@@ -86211,8 +87843,12 @@
       <c r="BJ325" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK325" s="33"/>
-      <c r="BL325" s="33"/>
+      <c r="BK325" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL325" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM325" s="33"/>
       <c r="BN325" s="33"/>
       <c r="BO325" s="33"/>
@@ -86415,8 +88051,12 @@
       <c r="BJ326" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK326" s="33"/>
-      <c r="BL326" s="33"/>
+      <c r="BK326" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL326" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM326" s="33"/>
       <c r="BN326" s="33"/>
       <c r="BO326" s="33"/>
@@ -86619,8 +88259,12 @@
       <c r="BJ327" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK327" s="33"/>
-      <c r="BL327" s="33"/>
+      <c r="BK327" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL327" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM327" s="33"/>
       <c r="BN327" s="33"/>
       <c r="BO327" s="33"/>
@@ -86823,8 +88467,12 @@
       <c r="BJ328" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK328" s="33"/>
-      <c r="BL328" s="33"/>
+      <c r="BK328" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL328" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM328" s="33"/>
       <c r="BN328" s="33"/>
       <c r="BO328" s="33"/>
@@ -87027,8 +88675,12 @@
       <c r="BJ329" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK329" s="33"/>
-      <c r="BL329" s="33"/>
+      <c r="BK329" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL329" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM329" s="33"/>
       <c r="BN329" s="33"/>
       <c r="BO329" s="33"/>
@@ -87231,8 +88883,12 @@
       <c r="BJ330" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK330" s="33"/>
-      <c r="BL330" s="33"/>
+      <c r="BK330" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL330" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM330" s="33"/>
       <c r="BN330" s="33"/>
       <c r="BO330" s="33"/>
@@ -87435,8 +89091,12 @@
       <c r="BJ331" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK331" s="33"/>
-      <c r="BL331" s="33"/>
+      <c r="BK331" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL331" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM331" s="33"/>
       <c r="BN331" s="33"/>
       <c r="BO331" s="33"/>
@@ -87639,8 +89299,12 @@
       <c r="BJ332" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK332" s="33"/>
-      <c r="BL332" s="33"/>
+      <c r="BK332" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL332" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM332" s="33"/>
       <c r="BN332" s="33"/>
       <c r="BO332" s="33"/>
@@ -87843,8 +89507,12 @@
       <c r="BJ333" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK333" s="33"/>
-      <c r="BL333" s="33"/>
+      <c r="BK333" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL333" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM333" s="33"/>
       <c r="BN333" s="33"/>
       <c r="BO333" s="33"/>
@@ -88047,8 +89715,12 @@
       <c r="BJ334" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK334" s="33"/>
-      <c r="BL334" s="33"/>
+      <c r="BK334" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL334" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM334" s="33"/>
       <c r="BN334" s="33"/>
       <c r="BO334" s="33"/>
@@ -88251,8 +89923,12 @@
       <c r="BJ335" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK335" s="33"/>
-      <c r="BL335" s="33"/>
+      <c r="BK335" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL335" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM335" s="33"/>
       <c r="BN335" s="33"/>
       <c r="BO335" s="33"/>
@@ -88455,8 +90131,12 @@
       <c r="BJ336" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK336" s="33"/>
-      <c r="BL336" s="33"/>
+      <c r="BK336" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL336" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM336" s="33"/>
       <c r="BN336" s="33"/>
       <c r="BO336" s="33"/>
@@ -88659,8 +90339,12 @@
       <c r="BJ337" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK337" s="33"/>
-      <c r="BL337" s="33"/>
+      <c r="BK337" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL337" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM337" s="33"/>
       <c r="BN337" s="33"/>
       <c r="BO337" s="33"/>
@@ -88863,8 +90547,12 @@
       <c r="BJ338" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK338" s="33"/>
-      <c r="BL338" s="33"/>
+      <c r="BK338" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL338" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM338" s="33"/>
       <c r="BN338" s="33"/>
       <c r="BO338" s="33"/>
@@ -89067,8 +90755,12 @@
       <c r="BJ339" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK339" s="33"/>
-      <c r="BL339" s="33"/>
+      <c r="BK339" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL339" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM339" s="33"/>
       <c r="BN339" s="33"/>
       <c r="BO339" s="33"/>
@@ -89271,8 +90963,12 @@
       <c r="BJ340" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK340" s="33"/>
-      <c r="BL340" s="33"/>
+      <c r="BK340" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL340" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM340" s="33"/>
       <c r="BN340" s="33"/>
       <c r="BO340" s="33"/>
@@ -89475,8 +91171,12 @@
       <c r="BJ341" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK341" s="33"/>
-      <c r="BL341" s="33"/>
+      <c r="BK341" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL341" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM341" s="33"/>
       <c r="BN341" s="33"/>
       <c r="BO341" s="33"/>
@@ -89679,8 +91379,12 @@
       <c r="BJ342" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BK342" s="33"/>
-      <c r="BL342" s="33"/>
+      <c r="BK342" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL342" s="33" t="s">
+        <v>455</v>
+      </c>
       <c r="BM342" s="33"/>
       <c r="BN342" s="33"/>
       <c r="BO342" s="33"/>
@@ -89865,22 +91569,28 @@
       <c r="BD343" s="36">
         <v>100.18</v>
       </c>
-      <c r="BE343">
+      <c r="BE343" s="36">
         <v>97.71</v>
       </c>
-      <c r="BF343">
+      <c r="BF343" s="36">
         <v>100.35</v>
       </c>
-      <c r="BG343">
+      <c r="BG343" s="36">
         <v>100.53</v>
       </c>
-      <c r="BH343">
+      <c r="BH343" s="36">
         <v>93.7</v>
       </c>
       <c r="BI343" s="33" t="s">
         <v>455</v>
       </c>
       <c r="BJ343" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK343" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL343" s="33" t="s">
         <v>455</v>
       </c>
     </row>
@@ -90053,22 +91763,28 @@
       <c r="BD344" s="36">
         <v>106.25</v>
       </c>
-      <c r="BE344">
+      <c r="BE344" s="36">
         <v>106.25</v>
       </c>
-      <c r="BF344">
+      <c r="BF344" s="36">
         <v>106.25</v>
       </c>
-      <c r="BG344">
+      <c r="BG344" s="36">
         <v>106.25</v>
       </c>
-      <c r="BH344">
+      <c r="BH344" s="36">
         <v>107.31</v>
       </c>
       <c r="BI344" s="33" t="s">
         <v>455</v>
       </c>
       <c r="BJ344" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK344" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL344" s="33" t="s">
         <v>455</v>
       </c>
     </row>
@@ -90241,22 +91957,28 @@
       <c r="BD345" s="36">
         <v>126</v>
       </c>
-      <c r="BE345">
+      <c r="BE345" s="36">
         <v>124</v>
       </c>
-      <c r="BF345">
+      <c r="BF345" s="36">
         <v>150</v>
       </c>
-      <c r="BG345">
+      <c r="BG345" s="36">
         <v>160</v>
       </c>
-      <c r="BH345">
+      <c r="BH345" s="36">
         <v>161.6</v>
       </c>
       <c r="BI345" s="33" t="s">
         <v>455</v>
       </c>
       <c r="BJ345" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK345" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL345" s="33" t="s">
         <v>455</v>
       </c>
     </row>
@@ -90429,22 +92151,28 @@
       <c r="BD346" s="36">
         <v>90.91</v>
       </c>
-      <c r="BE346">
+      <c r="BE346" s="36">
         <v>93.51</v>
       </c>
-      <c r="BF346">
+      <c r="BF346" s="36">
         <v>97.05</v>
       </c>
-      <c r="BG346">
+      <c r="BG346" s="36">
         <v>95.16</v>
       </c>
-      <c r="BH346">
+      <c r="BH346" s="36">
         <v>94.8</v>
       </c>
       <c r="BI346" s="33" t="s">
         <v>455</v>
       </c>
       <c r="BJ346" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK346" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL346" s="33" t="s">
         <v>455</v>
       </c>
     </row>

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC24FE6-EAC5-4FB9-A058-CC031A5ED2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E9634E-46E7-4630-BD24-8761F37E5003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1394,13 +1394,7 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 27 March 2021</t>
-  </si>
-  <si>
     <t>Payroll jobs index by Statistical Area Level 3 (SA3)</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 14 April 2021</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
@@ -1420,6 +1414,12 @@
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 28 April 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 10 April 2021</t>
   </si>
 </sst>
 </file>
@@ -2522,12 +2522,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="5" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="6"/>
@@ -2994,8 +2994,12 @@
       <c r="BO6" s="9">
         <v>44282</v>
       </c>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
+      <c r="BP6" s="9">
+        <v>44289</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>44296</v>
+      </c>
       <c r="BR6" s="9"/>
       <c r="BS6" s="9"/>
       <c r="BT6" s="9"/>
@@ -3208,8 +3212,12 @@
       <c r="BO7" s="33">
         <v>97.85</v>
       </c>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
+      <c r="BP7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ7" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR7" s="33"/>
       <c r="BS7" s="33"/>
       <c r="BT7" s="33"/>
@@ -3422,8 +3430,12 @@
       <c r="BO8" s="33">
         <v>100.24</v>
       </c>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
+      <c r="BP8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ8" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR8" s="33"/>
       <c r="BS8" s="33"/>
       <c r="BT8" s="33"/>
@@ -3636,8 +3648,12 @@
       <c r="BO9" s="33">
         <v>99.85</v>
       </c>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
+      <c r="BP9" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ9" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR9" s="33"/>
       <c r="BS9" s="33"/>
       <c r="BT9" s="33"/>
@@ -3850,8 +3866,12 @@
       <c r="BO10" s="33">
         <v>99.73</v>
       </c>
-      <c r="BP10" s="33"/>
-      <c r="BQ10" s="33"/>
+      <c r="BP10" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ10" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR10" s="33"/>
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
@@ -4064,8 +4084,12 @@
       <c r="BO11" s="33">
         <v>99.09</v>
       </c>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
+      <c r="BP11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ11" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR11" s="33"/>
       <c r="BS11" s="33"/>
       <c r="BT11" s="33"/>
@@ -4278,8 +4302,12 @@
       <c r="BO12" s="33">
         <v>101.4</v>
       </c>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33"/>
+      <c r="BP12" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ12" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR12" s="33"/>
       <c r="BS12" s="33"/>
       <c r="BT12" s="33"/>
@@ -4492,8 +4520,12 @@
       <c r="BO13" s="33">
         <v>100.25</v>
       </c>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
+      <c r="BP13" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ13" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR13" s="33"/>
       <c r="BS13" s="33"/>
       <c r="BT13" s="33"/>
@@ -4706,8 +4738,12 @@
       <c r="BO14" s="33">
         <v>99.55</v>
       </c>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
+      <c r="BP14" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ14" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR14" s="33"/>
       <c r="BS14" s="33"/>
       <c r="BT14" s="33"/>
@@ -4920,8 +4956,12 @@
       <c r="BO15" s="33">
         <v>99.86</v>
       </c>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="33"/>
+      <c r="BP15" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ15" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR15" s="33"/>
       <c r="BS15" s="33"/>
       <c r="BT15" s="33"/>
@@ -5134,8 +5174,12 @@
       <c r="BO16" s="33">
         <v>99.72</v>
       </c>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="33"/>
+      <c r="BP16" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ16" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR16" s="33"/>
       <c r="BS16" s="33"/>
       <c r="BT16" s="33"/>
@@ -5348,8 +5392,12 @@
       <c r="BO17" s="33">
         <v>100.91</v>
       </c>
-      <c r="BP17" s="33"/>
-      <c r="BQ17" s="33"/>
+      <c r="BP17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ17" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR17" s="33"/>
       <c r="BS17" s="33"/>
       <c r="BT17" s="33"/>
@@ -5562,8 +5610,12 @@
       <c r="BO18" s="33">
         <v>99.4</v>
       </c>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
+      <c r="BP18" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ18" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR18" s="33"/>
       <c r="BS18" s="33"/>
       <c r="BT18" s="33"/>
@@ -5776,8 +5828,12 @@
       <c r="BO19" s="33">
         <v>98.27</v>
       </c>
-      <c r="BP19" s="33"/>
-      <c r="BQ19" s="33"/>
+      <c r="BP19" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ19" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR19" s="33"/>
       <c r="BS19" s="33"/>
       <c r="BT19" s="33"/>
@@ -5990,8 +6046,12 @@
       <c r="BO20" s="33">
         <v>100.84</v>
       </c>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
+      <c r="BP20" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ20" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="33"/>
       <c r="BT20" s="33"/>
@@ -6204,8 +6264,12 @@
       <c r="BO21" s="33">
         <v>99.43</v>
       </c>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
+      <c r="BP21" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ21" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR21" s="33"/>
       <c r="BS21" s="33"/>
       <c r="BT21" s="33"/>
@@ -6418,8 +6482,12 @@
       <c r="BO22" s="33">
         <v>100.13</v>
       </c>
-      <c r="BP22" s="33"/>
-      <c r="BQ22" s="33"/>
+      <c r="BP22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ22" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR22" s="33"/>
       <c r="BS22" s="33"/>
       <c r="BT22" s="33"/>
@@ -6632,8 +6700,12 @@
       <c r="BO23" s="33">
         <v>97.39</v>
       </c>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="33"/>
+      <c r="BP23" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ23" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR23" s="33"/>
       <c r="BS23" s="33"/>
       <c r="BT23" s="33"/>
@@ -6846,8 +6918,12 @@
       <c r="BO24" s="33">
         <v>98.51</v>
       </c>
-      <c r="BP24" s="33"/>
-      <c r="BQ24" s="33"/>
+      <c r="BP24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ24" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR24" s="33"/>
       <c r="BS24" s="33"/>
       <c r="BT24" s="33"/>
@@ -7060,8 +7136,12 @@
       <c r="BO25" s="33">
         <v>98.53</v>
       </c>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
+      <c r="BP25" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ25" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR25" s="33"/>
       <c r="BS25" s="33"/>
       <c r="BT25" s="33"/>
@@ -7274,8 +7354,12 @@
       <c r="BO26" s="33">
         <v>99.06</v>
       </c>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="33"/>
+      <c r="BP26" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ26" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR26" s="33"/>
       <c r="BS26" s="33"/>
       <c r="BT26" s="33"/>
@@ -7488,8 +7572,12 @@
       <c r="BO27" s="33">
         <v>99.8</v>
       </c>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
+      <c r="BP27" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ27" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR27" s="33"/>
       <c r="BS27" s="33"/>
       <c r="BT27" s="33"/>
@@ -7702,8 +7790,12 @@
       <c r="BO28" s="33">
         <v>99.92</v>
       </c>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
+      <c r="BP28" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ28" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR28" s="33"/>
       <c r="BS28" s="33"/>
       <c r="BT28" s="33"/>
@@ -7916,8 +8008,12 @@
       <c r="BO29" s="33">
         <v>99.27</v>
       </c>
-      <c r="BP29" s="33"/>
-      <c r="BQ29" s="33"/>
+      <c r="BP29" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ29" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR29" s="33"/>
       <c r="BS29" s="33"/>
       <c r="BT29" s="33"/>
@@ -8130,8 +8226,12 @@
       <c r="BO30" s="33">
         <v>99.28</v>
       </c>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
+      <c r="BP30" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ30" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR30" s="33"/>
       <c r="BS30" s="33"/>
       <c r="BT30" s="33"/>
@@ -8344,8 +8444,12 @@
       <c r="BO31" s="33">
         <v>99.51</v>
       </c>
-      <c r="BP31" s="33"/>
-      <c r="BQ31" s="33"/>
+      <c r="BP31" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ31" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR31" s="33"/>
       <c r="BS31" s="33"/>
       <c r="BT31" s="33"/>
@@ -8558,8 +8662,12 @@
       <c r="BO32" s="33">
         <v>99.61</v>
       </c>
-      <c r="BP32" s="33"/>
-      <c r="BQ32" s="33"/>
+      <c r="BP32" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ32" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR32" s="33"/>
       <c r="BS32" s="33"/>
       <c r="BT32" s="33"/>
@@ -8772,8 +8880,12 @@
       <c r="BO33" s="33">
         <v>98.44</v>
       </c>
-      <c r="BP33" s="33"/>
-      <c r="BQ33" s="33"/>
+      <c r="BP33" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ33" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR33" s="33"/>
       <c r="BS33" s="33"/>
       <c r="BT33" s="33"/>
@@ -8986,8 +9098,12 @@
       <c r="BO34" s="33">
         <v>99.18</v>
       </c>
-      <c r="BP34" s="33"/>
-      <c r="BQ34" s="33"/>
+      <c r="BP34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ34" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR34" s="33"/>
       <c r="BS34" s="33"/>
       <c r="BT34" s="33"/>
@@ -9200,8 +9316,12 @@
       <c r="BO35" s="33">
         <v>98.54</v>
       </c>
-      <c r="BP35" s="33"/>
-      <c r="BQ35" s="33"/>
+      <c r="BP35" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ35" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR35" s="33"/>
       <c r="BS35" s="33"/>
       <c r="BT35" s="33"/>
@@ -9414,8 +9534,12 @@
       <c r="BO36" s="33">
         <v>99.65</v>
       </c>
-      <c r="BP36" s="33"/>
-      <c r="BQ36" s="33"/>
+      <c r="BP36" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ36" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR36" s="33"/>
       <c r="BS36" s="33"/>
       <c r="BT36" s="33"/>
@@ -9628,8 +9752,12 @@
       <c r="BO37" s="33">
         <v>99.05</v>
       </c>
-      <c r="BP37" s="33"/>
-      <c r="BQ37" s="33"/>
+      <c r="BP37" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ37" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR37" s="33"/>
       <c r="BS37" s="33"/>
       <c r="BT37" s="33"/>
@@ -9842,8 +9970,12 @@
       <c r="BO38" s="33">
         <v>101.25</v>
       </c>
-      <c r="BP38" s="33"/>
-      <c r="BQ38" s="33"/>
+      <c r="BP38" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ38" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR38" s="33"/>
       <c r="BS38" s="33"/>
       <c r="BT38" s="33"/>
@@ -10056,8 +10188,12 @@
       <c r="BO39" s="33">
         <v>97.14</v>
       </c>
-      <c r="BP39" s="33"/>
-      <c r="BQ39" s="33"/>
+      <c r="BP39" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ39" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR39" s="33"/>
       <c r="BS39" s="33"/>
       <c r="BT39" s="33"/>
@@ -10270,8 +10406,12 @@
       <c r="BO40" s="33">
         <v>99.12</v>
       </c>
-      <c r="BP40" s="33"/>
-      <c r="BQ40" s="33"/>
+      <c r="BP40" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ40" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR40" s="33"/>
       <c r="BS40" s="33"/>
       <c r="BT40" s="33"/>
@@ -10484,8 +10624,12 @@
       <c r="BO41" s="33">
         <v>100.28</v>
       </c>
-      <c r="BP41" s="33"/>
-      <c r="BQ41" s="33"/>
+      <c r="BP41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ41" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR41" s="33"/>
       <c r="BS41" s="33"/>
       <c r="BT41" s="33"/>
@@ -10698,8 +10842,12 @@
       <c r="BO42" s="33">
         <v>100.35</v>
       </c>
-      <c r="BP42" s="33"/>
-      <c r="BQ42" s="33"/>
+      <c r="BP42" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ42" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR42" s="33"/>
       <c r="BS42" s="33"/>
       <c r="BT42" s="33"/>
@@ -10912,8 +11060,12 @@
       <c r="BO43" s="33">
         <v>101.22</v>
       </c>
-      <c r="BP43" s="33"/>
-      <c r="BQ43" s="33"/>
+      <c r="BP43" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ43" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR43" s="33"/>
       <c r="BS43" s="33"/>
       <c r="BT43" s="33"/>
@@ -11126,8 +11278,12 @@
       <c r="BO44" s="33">
         <v>100.11</v>
       </c>
-      <c r="BP44" s="33"/>
-      <c r="BQ44" s="33"/>
+      <c r="BP44" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ44" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR44" s="33"/>
       <c r="BS44" s="33"/>
       <c r="BT44" s="33"/>
@@ -11340,8 +11496,12 @@
       <c r="BO45" s="33">
         <v>99.68</v>
       </c>
-      <c r="BP45" s="33"/>
-      <c r="BQ45" s="33"/>
+      <c r="BP45" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ45" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR45" s="33"/>
       <c r="BS45" s="33"/>
       <c r="BT45" s="33"/>
@@ -11554,8 +11714,12 @@
       <c r="BO46" s="33">
         <v>100.03</v>
       </c>
-      <c r="BP46" s="33"/>
-      <c r="BQ46" s="33"/>
+      <c r="BP46" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ46" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR46" s="33"/>
       <c r="BS46" s="33"/>
       <c r="BT46" s="33"/>
@@ -11768,8 +11932,12 @@
       <c r="BO47" s="33">
         <v>100.22</v>
       </c>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
+      <c r="BP47" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ47" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR47" s="33"/>
       <c r="BS47" s="33"/>
       <c r="BT47" s="33"/>
@@ -11982,8 +12150,12 @@
       <c r="BO48" s="33">
         <v>98.92</v>
       </c>
-      <c r="BP48" s="33"/>
-      <c r="BQ48" s="33"/>
+      <c r="BP48" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ48" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR48" s="33"/>
       <c r="BS48" s="33"/>
       <c r="BT48" s="33"/>
@@ -12196,8 +12368,12 @@
       <c r="BO49" s="33">
         <v>96.72</v>
       </c>
-      <c r="BP49" s="33"/>
-      <c r="BQ49" s="33"/>
+      <c r="BP49" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ49" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR49" s="33"/>
       <c r="BS49" s="33"/>
       <c r="BT49" s="33"/>
@@ -12410,8 +12586,12 @@
       <c r="BO50" s="33">
         <v>101.39</v>
       </c>
-      <c r="BP50" s="33"/>
-      <c r="BQ50" s="33"/>
+      <c r="BP50" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ50" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR50" s="33"/>
       <c r="BS50" s="33"/>
       <c r="BT50" s="33"/>
@@ -12624,8 +12804,12 @@
       <c r="BO51" s="33">
         <v>99.16</v>
       </c>
-      <c r="BP51" s="33"/>
-      <c r="BQ51" s="33"/>
+      <c r="BP51" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ51" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR51" s="33"/>
       <c r="BS51" s="33"/>
       <c r="BT51" s="33"/>
@@ -12838,8 +13022,12 @@
       <c r="BO52" s="33">
         <v>99.33</v>
       </c>
-      <c r="BP52" s="33"/>
-      <c r="BQ52" s="33"/>
+      <c r="BP52" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ52" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR52" s="33"/>
       <c r="BS52" s="33"/>
       <c r="BT52" s="33"/>
@@ -13052,8 +13240,12 @@
       <c r="BO53" s="33">
         <v>100.09</v>
       </c>
-      <c r="BP53" s="33"/>
-      <c r="BQ53" s="33"/>
+      <c r="BP53" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ53" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR53" s="33"/>
       <c r="BS53" s="33"/>
       <c r="BT53" s="33"/>
@@ -13266,8 +13458,12 @@
       <c r="BO54" s="33">
         <v>99.02</v>
       </c>
-      <c r="BP54" s="33"/>
-      <c r="BQ54" s="33"/>
+      <c r="BP54" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ54" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR54" s="33"/>
       <c r="BS54" s="33"/>
       <c r="BT54" s="33"/>
@@ -13480,8 +13676,12 @@
       <c r="BO55" s="33">
         <v>101.15</v>
       </c>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="33"/>
+      <c r="BP55" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ55" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR55" s="33"/>
       <c r="BS55" s="33"/>
       <c r="BT55" s="33"/>
@@ -13694,8 +13894,12 @@
       <c r="BO56" s="33">
         <v>99.78</v>
       </c>
-      <c r="BP56" s="33"/>
-      <c r="BQ56" s="33"/>
+      <c r="BP56" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ56" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR56" s="33"/>
       <c r="BS56" s="33"/>
       <c r="BT56" s="33"/>
@@ -13908,8 +14112,12 @@
       <c r="BO57" s="33">
         <v>99.22</v>
       </c>
-      <c r="BP57" s="33"/>
-      <c r="BQ57" s="33"/>
+      <c r="BP57" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ57" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR57" s="33"/>
       <c r="BS57" s="33"/>
       <c r="BT57" s="33"/>
@@ -14122,8 +14330,12 @@
       <c r="BO58" s="33">
         <v>98.36</v>
       </c>
-      <c r="BP58" s="33"/>
-      <c r="BQ58" s="33"/>
+      <c r="BP58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ58" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR58" s="33"/>
       <c r="BS58" s="33"/>
       <c r="BT58" s="33"/>
@@ -14336,8 +14548,12 @@
       <c r="BO59" s="33">
         <v>99.5</v>
       </c>
-      <c r="BP59" s="33"/>
-      <c r="BQ59" s="33"/>
+      <c r="BP59" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ59" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR59" s="33"/>
       <c r="BS59" s="33"/>
       <c r="BT59" s="33"/>
@@ -14550,8 +14766,12 @@
       <c r="BO60" s="33">
         <v>98.79</v>
       </c>
-      <c r="BP60" s="33"/>
-      <c r="BQ60" s="33"/>
+      <c r="BP60" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ60" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR60" s="33"/>
       <c r="BS60" s="33"/>
       <c r="BT60" s="33"/>
@@ -14764,8 +14984,12 @@
       <c r="BO61" s="33">
         <v>100.6</v>
       </c>
-      <c r="BP61" s="33"/>
-      <c r="BQ61" s="33"/>
+      <c r="BP61" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ61" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR61" s="33"/>
       <c r="BS61" s="33"/>
       <c r="BT61" s="33"/>
@@ -14978,8 +15202,12 @@
       <c r="BO62" s="33">
         <v>99.37</v>
       </c>
-      <c r="BP62" s="33"/>
-      <c r="BQ62" s="33"/>
+      <c r="BP62" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ62" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR62" s="33"/>
       <c r="BS62" s="33"/>
       <c r="BT62" s="33"/>
@@ -15192,8 +15420,12 @@
       <c r="BO63" s="33">
         <v>97.77</v>
       </c>
-      <c r="BP63" s="33"/>
-      <c r="BQ63" s="33"/>
+      <c r="BP63" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ63" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR63" s="33"/>
       <c r="BS63" s="33"/>
       <c r="BT63" s="33"/>
@@ -15406,8 +15638,12 @@
       <c r="BO64" s="33">
         <v>98.45</v>
       </c>
-      <c r="BP64" s="33"/>
-      <c r="BQ64" s="33"/>
+      <c r="BP64" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ64" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR64" s="33"/>
       <c r="BS64" s="33"/>
       <c r="BT64" s="33"/>
@@ -15620,8 +15856,12 @@
       <c r="BO65" s="33">
         <v>99.89</v>
       </c>
-      <c r="BP65" s="33"/>
-      <c r="BQ65" s="33"/>
+      <c r="BP65" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ65" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR65" s="33"/>
       <c r="BS65" s="33"/>
       <c r="BT65" s="33"/>
@@ -15834,8 +16074,12 @@
       <c r="BO66" s="33">
         <v>98.83</v>
       </c>
-      <c r="BP66" s="33"/>
-      <c r="BQ66" s="33"/>
+      <c r="BP66" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ66" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR66" s="33"/>
       <c r="BS66" s="33"/>
       <c r="BT66" s="33"/>
@@ -16048,8 +16292,12 @@
       <c r="BO67" s="33">
         <v>99.22</v>
       </c>
-      <c r="BP67" s="33"/>
-      <c r="BQ67" s="33"/>
+      <c r="BP67" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ67" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR67" s="33"/>
       <c r="BS67" s="33"/>
       <c r="BT67" s="33"/>
@@ -16262,8 +16510,12 @@
       <c r="BO68" s="33">
         <v>99.77</v>
       </c>
-      <c r="BP68" s="33"/>
-      <c r="BQ68" s="33"/>
+      <c r="BP68" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ68" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR68" s="33"/>
       <c r="BS68" s="33"/>
       <c r="BT68" s="33"/>
@@ -16476,8 +16728,12 @@
       <c r="BO69" s="33">
         <v>98.8</v>
       </c>
-      <c r="BP69" s="33"/>
-      <c r="BQ69" s="33"/>
+      <c r="BP69" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ69" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR69" s="33"/>
       <c r="BS69" s="33"/>
       <c r="BT69" s="33"/>
@@ -16690,8 +16946,12 @@
       <c r="BO70" s="33">
         <v>99.63</v>
       </c>
-      <c r="BP70" s="33"/>
-      <c r="BQ70" s="33"/>
+      <c r="BP70" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ70" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR70" s="33"/>
       <c r="BS70" s="33"/>
       <c r="BT70" s="33"/>
@@ -16904,8 +17164,12 @@
       <c r="BO71" s="33">
         <v>102.21</v>
       </c>
-      <c r="BP71" s="33"/>
-      <c r="BQ71" s="33"/>
+      <c r="BP71" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ71" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR71" s="33"/>
       <c r="BS71" s="33"/>
       <c r="BT71" s="33"/>
@@ -17118,8 +17382,12 @@
       <c r="BO72" s="33">
         <v>101.91</v>
       </c>
-      <c r="BP72" s="33"/>
-      <c r="BQ72" s="33"/>
+      <c r="BP72" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ72" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR72" s="33"/>
       <c r="BS72" s="33"/>
       <c r="BT72" s="33"/>
@@ -17332,8 +17600,12 @@
       <c r="BO73" s="33">
         <v>102.03</v>
       </c>
-      <c r="BP73" s="33"/>
-      <c r="BQ73" s="33"/>
+      <c r="BP73" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ73" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR73" s="33"/>
       <c r="BS73" s="33"/>
       <c r="BT73" s="33"/>
@@ -17546,8 +17818,12 @@
       <c r="BO74" s="33">
         <v>102.26</v>
       </c>
-      <c r="BP74" s="33"/>
-      <c r="BQ74" s="33"/>
+      <c r="BP74" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ74" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR74" s="33"/>
       <c r="BS74" s="33"/>
       <c r="BT74" s="33"/>
@@ -17760,8 +18036,12 @@
       <c r="BO75" s="33">
         <v>99.97</v>
       </c>
-      <c r="BP75" s="33"/>
-      <c r="BQ75" s="33"/>
+      <c r="BP75" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ75" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR75" s="33"/>
       <c r="BS75" s="33"/>
       <c r="BT75" s="33"/>
@@ -17974,8 +18254,12 @@
       <c r="BO76" s="33">
         <v>98.95</v>
       </c>
-      <c r="BP76" s="33"/>
-      <c r="BQ76" s="33"/>
+      <c r="BP76" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ76" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR76" s="33"/>
       <c r="BS76" s="33"/>
       <c r="BT76" s="33"/>
@@ -18188,8 +18472,12 @@
       <c r="BO77" s="33">
         <v>98.5</v>
       </c>
-      <c r="BP77" s="33"/>
-      <c r="BQ77" s="33"/>
+      <c r="BP77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ77" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR77" s="33"/>
       <c r="BS77" s="33"/>
       <c r="BT77" s="33"/>
@@ -18402,8 +18690,12 @@
       <c r="BO78" s="33">
         <v>101.73</v>
       </c>
-      <c r="BP78" s="33"/>
-      <c r="BQ78" s="33"/>
+      <c r="BP78" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ78" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR78" s="33"/>
       <c r="BS78" s="33"/>
       <c r="BT78" s="33"/>
@@ -18616,8 +18908,12 @@
       <c r="BO79" s="33">
         <v>101.34</v>
       </c>
-      <c r="BP79" s="33"/>
-      <c r="BQ79" s="33"/>
+      <c r="BP79" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ79" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR79" s="33"/>
       <c r="BS79" s="33"/>
       <c r="BT79" s="33"/>
@@ -18830,8 +19126,12 @@
       <c r="BO80" s="33">
         <v>101.94</v>
       </c>
-      <c r="BP80" s="33"/>
-      <c r="BQ80" s="33"/>
+      <c r="BP80" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ80" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR80" s="33"/>
       <c r="BS80" s="33"/>
       <c r="BT80" s="33"/>
@@ -19044,8 +19344,12 @@
       <c r="BO81" s="33">
         <v>101.84</v>
       </c>
-      <c r="BP81" s="33"/>
-      <c r="BQ81" s="33"/>
+      <c r="BP81" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ81" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR81" s="33"/>
       <c r="BS81" s="33"/>
       <c r="BT81" s="33"/>
@@ -19258,8 +19562,12 @@
       <c r="BO82" s="33">
         <v>102.16</v>
       </c>
-      <c r="BP82" s="33"/>
-      <c r="BQ82" s="33"/>
+      <c r="BP82" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ82" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR82" s="33"/>
       <c r="BS82" s="33"/>
       <c r="BT82" s="33"/>
@@ -19472,8 +19780,12 @@
       <c r="BO83" s="33">
         <v>102.62</v>
       </c>
-      <c r="BP83" s="33"/>
-      <c r="BQ83" s="33"/>
+      <c r="BP83" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ83" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR83" s="33"/>
       <c r="BS83" s="33"/>
       <c r="BT83" s="33"/>
@@ -19686,8 +19998,12 @@
       <c r="BO84" s="33">
         <v>102.6</v>
       </c>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
+      <c r="BP84" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ84" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR84" s="33"/>
       <c r="BS84" s="33"/>
       <c r="BT84" s="33"/>
@@ -19900,8 +20216,12 @@
       <c r="BO85" s="33">
         <v>99.83</v>
       </c>
-      <c r="BP85" s="33"/>
-      <c r="BQ85" s="33"/>
+      <c r="BP85" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ85" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR85" s="33"/>
       <c r="BS85" s="33"/>
       <c r="BT85" s="33"/>
@@ -20114,8 +20434,12 @@
       <c r="BO86" s="33">
         <v>100.05</v>
       </c>
-      <c r="BP86" s="33"/>
-      <c r="BQ86" s="33"/>
+      <c r="BP86" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ86" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR86" s="33"/>
       <c r="BS86" s="33"/>
       <c r="BT86" s="33"/>
@@ -20328,8 +20652,12 @@
       <c r="BO87" s="33">
         <v>100.21</v>
       </c>
-      <c r="BP87" s="33"/>
-      <c r="BQ87" s="33"/>
+      <c r="BP87" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ87" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR87" s="33"/>
       <c r="BS87" s="33"/>
       <c r="BT87" s="33"/>
@@ -20542,8 +20870,12 @@
       <c r="BO88" s="33">
         <v>98.95</v>
       </c>
-      <c r="BP88" s="33"/>
-      <c r="BQ88" s="33"/>
+      <c r="BP88" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ88" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR88" s="33"/>
       <c r="BS88" s="33"/>
       <c r="BT88" s="33"/>
@@ -20756,8 +21088,12 @@
       <c r="BO89" s="33">
         <v>98.23</v>
       </c>
-      <c r="BP89" s="33"/>
-      <c r="BQ89" s="33"/>
+      <c r="BP89" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ89" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR89" s="33"/>
       <c r="BS89" s="33"/>
       <c r="BT89" s="33"/>
@@ -20970,8 +21306,12 @@
       <c r="BO90" s="33">
         <v>98.18</v>
       </c>
-      <c r="BP90" s="33"/>
-      <c r="BQ90" s="33"/>
+      <c r="BP90" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ90" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR90" s="33"/>
       <c r="BS90" s="33"/>
       <c r="BT90" s="33"/>
@@ -21184,8 +21524,12 @@
       <c r="BO91" s="33">
         <v>100.04</v>
       </c>
-      <c r="BP91" s="33"/>
-      <c r="BQ91" s="33"/>
+      <c r="BP91" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ91" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR91" s="33"/>
       <c r="BS91" s="33"/>
       <c r="BT91" s="33"/>
@@ -21398,8 +21742,12 @@
       <c r="BO92" s="33">
         <v>102.56</v>
       </c>
-      <c r="BP92" s="33"/>
-      <c r="BQ92" s="33"/>
+      <c r="BP92" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ92" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR92" s="33"/>
       <c r="BS92" s="33"/>
       <c r="BT92" s="33"/>
@@ -21612,8 +21960,12 @@
       <c r="BO93" s="33">
         <v>100.17</v>
       </c>
-      <c r="BP93" s="33"/>
-      <c r="BQ93" s="33"/>
+      <c r="BP93" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ93" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR93" s="33"/>
       <c r="BS93" s="33"/>
       <c r="BT93" s="33"/>
@@ -21826,8 +22178,12 @@
       <c r="BO94" s="33">
         <v>99.23</v>
       </c>
-      <c r="BP94" s="33"/>
-      <c r="BQ94" s="33"/>
+      <c r="BP94" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ94" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BR94" s="33"/>
       <c r="BS94" s="33"/>
       <c r="BT94" s="33"/>
@@ -21840,7 +22196,7 @@
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -21957,7 +22313,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -21970,7 +22326,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -21996,7 +22352,7 @@
     </row>
     <row r="5" spans="1:78" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -22212,8 +22568,12 @@
       <c r="BP6" s="32">
         <v>44282</v>
       </c>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
+      <c r="BQ6" s="32">
+        <v>44289</v>
+      </c>
+      <c r="BR6" s="32">
+        <v>44296</v>
+      </c>
       <c r="BS6" s="32"/>
       <c r="BT6" s="32"/>
       <c r="BU6" s="32"/>
@@ -22428,8 +22788,12 @@
       <c r="BP7" s="33">
         <v>98.57</v>
       </c>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
+      <c r="BQ7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR7" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS7" s="33"/>
       <c r="BT7" s="33"/>
       <c r="BU7" s="33"/>
@@ -22644,8 +23008,12 @@
       <c r="BP8" s="33">
         <v>96.37</v>
       </c>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
+      <c r="BQ8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR8" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS8" s="33"/>
       <c r="BT8" s="33"/>
       <c r="BU8" s="33"/>
@@ -22860,8 +23228,12 @@
       <c r="BP9" s="33">
         <v>97.29</v>
       </c>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33"/>
+      <c r="BQ9" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR9" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS9" s="33"/>
       <c r="BT9" s="33"/>
       <c r="BU9" s="33"/>
@@ -23076,8 +23448,12 @@
       <c r="BP10" s="33">
         <v>97.07</v>
       </c>
-      <c r="BQ10" s="33"/>
-      <c r="BR10" s="33"/>
+      <c r="BQ10" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR10" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS10" s="33"/>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
@@ -23292,8 +23668,12 @@
       <c r="BP11" s="33">
         <v>99.21</v>
       </c>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
+      <c r="BQ11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR11" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS11" s="33"/>
       <c r="BT11" s="33"/>
       <c r="BU11" s="33"/>
@@ -23508,8 +23888,12 @@
       <c r="BP12" s="33">
         <v>100.89</v>
       </c>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="33"/>
+      <c r="BQ12" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR12" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS12" s="33"/>
       <c r="BT12" s="33"/>
       <c r="BU12" s="33"/>
@@ -23724,8 +24108,12 @@
       <c r="BP13" s="33">
         <v>99.55</v>
       </c>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
+      <c r="BQ13" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR13" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS13" s="33"/>
       <c r="BT13" s="33"/>
       <c r="BU13" s="33"/>
@@ -23940,8 +24328,12 @@
       <c r="BP14" s="33">
         <v>100.81</v>
       </c>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
+      <c r="BQ14" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR14" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS14" s="33"/>
       <c r="BT14" s="33"/>
       <c r="BU14" s="33"/>
@@ -24156,8 +24548,12 @@
       <c r="BP15" s="33">
         <v>98.09</v>
       </c>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="33"/>
+      <c r="BQ15" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR15" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS15" s="33"/>
       <c r="BT15" s="33"/>
       <c r="BU15" s="33"/>
@@ -24372,8 +24768,12 @@
       <c r="BP16" s="33">
         <v>101.69</v>
       </c>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="33"/>
+      <c r="BQ16" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR16" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS16" s="33"/>
       <c r="BT16" s="33"/>
       <c r="BU16" s="33"/>
@@ -24588,8 +24988,12 @@
       <c r="BP17" s="33">
         <v>99.17</v>
       </c>
-      <c r="BQ17" s="33"/>
-      <c r="BR17" s="33"/>
+      <c r="BQ17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR17" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS17" s="33"/>
       <c r="BT17" s="33"/>
       <c r="BU17" s="33"/>
@@ -24804,8 +25208,12 @@
       <c r="BP18" s="33">
         <v>96.9</v>
       </c>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
+      <c r="BQ18" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR18" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS18" s="33"/>
       <c r="BT18" s="33"/>
       <c r="BU18" s="33"/>
@@ -25020,8 +25428,12 @@
       <c r="BP19" s="33">
         <v>101.12</v>
       </c>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="33"/>
+      <c r="BQ19" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR19" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS19" s="33"/>
       <c r="BT19" s="33"/>
       <c r="BU19" s="33"/>
@@ -25236,8 +25648,12 @@
       <c r="BP20" s="33">
         <v>94.77</v>
       </c>
-      <c r="BQ20" s="33"/>
-      <c r="BR20" s="33"/>
+      <c r="BQ20" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR20" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS20" s="33"/>
       <c r="BT20" s="33"/>
       <c r="BU20" s="33"/>
@@ -25452,8 +25868,12 @@
       <c r="BP21" s="33">
         <v>104.41</v>
       </c>
-      <c r="BQ21" s="33"/>
-      <c r="BR21" s="33"/>
+      <c r="BQ21" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR21" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS21" s="33"/>
       <c r="BT21" s="33"/>
       <c r="BU21" s="33"/>
@@ -25668,8 +26088,12 @@
       <c r="BP22" s="33">
         <v>98.8</v>
       </c>
-      <c r="BQ22" s="33"/>
-      <c r="BR22" s="33"/>
+      <c r="BQ22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR22" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS22" s="33"/>
       <c r="BT22" s="33"/>
       <c r="BU22" s="33"/>
@@ -25884,8 +26308,12 @@
       <c r="BP23" s="33">
         <v>102.47</v>
       </c>
-      <c r="BQ23" s="33"/>
-      <c r="BR23" s="33"/>
+      <c r="BQ23" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR23" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS23" s="33"/>
       <c r="BT23" s="33"/>
       <c r="BU23" s="33"/>
@@ -26100,8 +26528,12 @@
       <c r="BP24" s="33">
         <v>101.2</v>
       </c>
-      <c r="BQ24" s="33"/>
-      <c r="BR24" s="33"/>
+      <c r="BQ24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR24" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS24" s="33"/>
       <c r="BT24" s="33"/>
       <c r="BU24" s="33"/>
@@ -26316,8 +26748,12 @@
       <c r="BP25" s="33">
         <v>99.99</v>
       </c>
-      <c r="BQ25" s="33"/>
-      <c r="BR25" s="33"/>
+      <c r="BQ25" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR25" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS25" s="33"/>
       <c r="BT25" s="33"/>
       <c r="BU25" s="33"/>
@@ -26532,8 +26968,12 @@
       <c r="BP26" s="33">
         <v>101.94</v>
       </c>
-      <c r="BQ26" s="33"/>
-      <c r="BR26" s="33"/>
+      <c r="BQ26" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR26" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS26" s="33"/>
       <c r="BT26" s="33"/>
       <c r="BU26" s="33"/>
@@ -26748,8 +27188,12 @@
       <c r="BP27" s="33">
         <v>99.63</v>
       </c>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
+      <c r="BQ27" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR27" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS27" s="33"/>
       <c r="BT27" s="33"/>
       <c r="BU27" s="33"/>
@@ -26770,202 +27214,206 @@
         <v>128</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Y28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AD28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AE28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AF28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AH28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AI28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AK28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AP28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AQ28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AR28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AS28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AU28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AW28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AX28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AY28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AZ28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BA28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BB28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BC28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BD28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BE28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BF28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BG28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BI28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BJ28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BK28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BL28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BM28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BN28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BO28" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BP28" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="33"/>
+        <v>454</v>
+      </c>
+      <c r="BQ28" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR28" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS28" s="33"/>
       <c r="BT28" s="33"/>
       <c r="BU28" s="33"/>
@@ -27180,8 +27628,12 @@
       <c r="BP29" s="33">
         <v>101.19</v>
       </c>
-      <c r="BQ29" s="33"/>
-      <c r="BR29" s="33"/>
+      <c r="BQ29" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR29" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS29" s="33"/>
       <c r="BT29" s="33"/>
       <c r="BU29" s="33"/>
@@ -27396,8 +27848,12 @@
       <c r="BP30" s="33">
         <v>100.08</v>
       </c>
-      <c r="BQ30" s="33"/>
-      <c r="BR30" s="33"/>
+      <c r="BQ30" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR30" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS30" s="33"/>
       <c r="BT30" s="33"/>
       <c r="BU30" s="33"/>
@@ -27612,8 +28068,12 @@
       <c r="BP31" s="33">
         <v>97.9</v>
       </c>
-      <c r="BQ31" s="33"/>
-      <c r="BR31" s="33"/>
+      <c r="BQ31" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR31" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS31" s="33"/>
       <c r="BT31" s="33"/>
       <c r="BU31" s="33"/>
@@ -27828,8 +28288,12 @@
       <c r="BP32" s="33">
         <v>99.53</v>
       </c>
-      <c r="BQ32" s="33"/>
-      <c r="BR32" s="33"/>
+      <c r="BQ32" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR32" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS32" s="33"/>
       <c r="BT32" s="33"/>
       <c r="BU32" s="33"/>
@@ -28044,8 +28508,12 @@
       <c r="BP33" s="33">
         <v>93</v>
       </c>
-      <c r="BQ33" s="33"/>
-      <c r="BR33" s="33"/>
+      <c r="BQ33" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR33" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS33" s="33"/>
       <c r="BT33" s="33"/>
       <c r="BU33" s="33"/>
@@ -28260,8 +28728,12 @@
       <c r="BP34" s="33">
         <v>99.45</v>
       </c>
-      <c r="BQ34" s="33"/>
-      <c r="BR34" s="33"/>
+      <c r="BQ34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR34" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS34" s="33"/>
       <c r="BT34" s="33"/>
       <c r="BU34" s="33"/>
@@ -28476,8 +28948,12 @@
       <c r="BP35" s="33">
         <v>100.64</v>
       </c>
-      <c r="BQ35" s="33"/>
-      <c r="BR35" s="33"/>
+      <c r="BQ35" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR35" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS35" s="33"/>
       <c r="BT35" s="33"/>
       <c r="BU35" s="33"/>
@@ -28692,8 +29168,12 @@
       <c r="BP36" s="33">
         <v>100.76</v>
       </c>
-      <c r="BQ36" s="33"/>
-      <c r="BR36" s="33"/>
+      <c r="BQ36" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR36" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS36" s="33"/>
       <c r="BT36" s="33"/>
       <c r="BU36" s="33"/>
@@ -28908,8 +29388,12 @@
       <c r="BP37" s="33">
         <v>97.56</v>
       </c>
-      <c r="BQ37" s="33"/>
-      <c r="BR37" s="33"/>
+      <c r="BQ37" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR37" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS37" s="33"/>
       <c r="BT37" s="33"/>
       <c r="BU37" s="33"/>
@@ -29124,8 +29608,12 @@
       <c r="BP38" s="33">
         <v>98.68</v>
       </c>
-      <c r="BQ38" s="33"/>
-      <c r="BR38" s="33"/>
+      <c r="BQ38" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR38" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS38" s="33"/>
       <c r="BT38" s="33"/>
       <c r="BU38" s="33"/>
@@ -29340,8 +29828,12 @@
       <c r="BP39" s="33">
         <v>100.84</v>
       </c>
-      <c r="BQ39" s="33"/>
-      <c r="BR39" s="33"/>
+      <c r="BQ39" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR39" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS39" s="33"/>
       <c r="BT39" s="33"/>
       <c r="BU39" s="33"/>
@@ -29556,8 +30048,12 @@
       <c r="BP40" s="33">
         <v>99.56</v>
       </c>
-      <c r="BQ40" s="33"/>
-      <c r="BR40" s="33"/>
+      <c r="BQ40" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR40" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS40" s="33"/>
       <c r="BT40" s="33"/>
       <c r="BU40" s="33"/>
@@ -29772,8 +30268,12 @@
       <c r="BP41" s="33">
         <v>100.08</v>
       </c>
-      <c r="BQ41" s="33"/>
-      <c r="BR41" s="33"/>
+      <c r="BQ41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR41" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS41" s="33"/>
       <c r="BT41" s="33"/>
       <c r="BU41" s="33"/>
@@ -29988,8 +30488,12 @@
       <c r="BP42" s="33">
         <v>99.04</v>
       </c>
-      <c r="BQ42" s="33"/>
-      <c r="BR42" s="33"/>
+      <c r="BQ42" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR42" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS42" s="33"/>
       <c r="BT42" s="33"/>
       <c r="BU42" s="33"/>
@@ -30204,8 +30708,12 @@
       <c r="BP43" s="33">
         <v>100.69</v>
       </c>
-      <c r="BQ43" s="33"/>
-      <c r="BR43" s="33"/>
+      <c r="BQ43" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR43" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS43" s="33"/>
       <c r="BT43" s="33"/>
       <c r="BU43" s="33"/>
@@ -30420,8 +30928,12 @@
       <c r="BP44" s="33">
         <v>101.45</v>
       </c>
-      <c r="BQ44" s="33"/>
-      <c r="BR44" s="33"/>
+      <c r="BQ44" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR44" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS44" s="33"/>
       <c r="BT44" s="33"/>
       <c r="BU44" s="33"/>
@@ -30636,8 +31148,12 @@
       <c r="BP45" s="33">
         <v>100.84</v>
       </c>
-      <c r="BQ45" s="33"/>
-      <c r="BR45" s="33"/>
+      <c r="BQ45" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR45" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS45" s="33"/>
       <c r="BT45" s="33"/>
       <c r="BU45" s="33"/>
@@ -30852,8 +31368,12 @@
       <c r="BP46" s="33">
         <v>98.02</v>
       </c>
-      <c r="BQ46" s="33"/>
-      <c r="BR46" s="33"/>
+      <c r="BQ46" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR46" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS46" s="33"/>
       <c r="BT46" s="33"/>
       <c r="BU46" s="33"/>
@@ -31068,8 +31588,12 @@
       <c r="BP47" s="33">
         <v>98.99</v>
       </c>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33"/>
+      <c r="BQ47" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR47" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS47" s="33"/>
       <c r="BT47" s="33"/>
       <c r="BU47" s="33"/>
@@ -31284,8 +31808,12 @@
       <c r="BP48" s="33">
         <v>101.07</v>
       </c>
-      <c r="BQ48" s="33"/>
-      <c r="BR48" s="33"/>
+      <c r="BQ48" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR48" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS48" s="33"/>
       <c r="BT48" s="33"/>
       <c r="BU48" s="33"/>
@@ -31500,8 +32028,12 @@
       <c r="BP49" s="33">
         <v>99.21</v>
       </c>
-      <c r="BQ49" s="33"/>
-      <c r="BR49" s="33"/>
+      <c r="BQ49" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR49" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS49" s="33"/>
       <c r="BT49" s="33"/>
       <c r="BU49" s="33"/>
@@ -31716,8 +32248,12 @@
       <c r="BP50" s="33">
         <v>97.57</v>
       </c>
-      <c r="BQ50" s="33"/>
-      <c r="BR50" s="33"/>
+      <c r="BQ50" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR50" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS50" s="33"/>
       <c r="BT50" s="33"/>
       <c r="BU50" s="33"/>
@@ -31932,8 +32468,12 @@
       <c r="BP51" s="33">
         <v>97.87</v>
       </c>
-      <c r="BQ51" s="33"/>
-      <c r="BR51" s="33"/>
+      <c r="BQ51" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR51" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS51" s="33"/>
       <c r="BT51" s="33"/>
       <c r="BU51" s="33"/>
@@ -32148,8 +32688,12 @@
       <c r="BP52" s="33">
         <v>102.33</v>
       </c>
-      <c r="BQ52" s="33"/>
-      <c r="BR52" s="33"/>
+      <c r="BQ52" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR52" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS52" s="33"/>
       <c r="BT52" s="33"/>
       <c r="BU52" s="33"/>
@@ -32364,8 +32908,12 @@
       <c r="BP53" s="33">
         <v>98.25</v>
       </c>
-      <c r="BQ53" s="33"/>
-      <c r="BR53" s="33"/>
+      <c r="BQ53" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR53" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS53" s="33"/>
       <c r="BT53" s="33"/>
       <c r="BU53" s="33"/>
@@ -32580,8 +33128,12 @@
       <c r="BP54" s="33">
         <v>99.55</v>
       </c>
-      <c r="BQ54" s="33"/>
-      <c r="BR54" s="33"/>
+      <c r="BQ54" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR54" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS54" s="33"/>
       <c r="BT54" s="33"/>
       <c r="BU54" s="33"/>
@@ -32796,8 +33348,12 @@
       <c r="BP55" s="33">
         <v>99.03</v>
       </c>
-      <c r="BQ55" s="33"/>
-      <c r="BR55" s="33"/>
+      <c r="BQ55" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR55" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS55" s="33"/>
       <c r="BT55" s="33"/>
       <c r="BU55" s="33"/>
@@ -33012,8 +33568,12 @@
       <c r="BP56" s="33">
         <v>98.02</v>
       </c>
-      <c r="BQ56" s="33"/>
-      <c r="BR56" s="33"/>
+      <c r="BQ56" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR56" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS56" s="33"/>
       <c r="BT56" s="33"/>
       <c r="BU56" s="33"/>
@@ -33228,8 +33788,12 @@
       <c r="BP57" s="33">
         <v>99.88</v>
       </c>
-      <c r="BQ57" s="33"/>
-      <c r="BR57" s="33"/>
+      <c r="BQ57" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR57" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS57" s="33"/>
       <c r="BT57" s="33"/>
       <c r="BU57" s="33"/>
@@ -33444,8 +34008,12 @@
       <c r="BP58" s="33">
         <v>99.96</v>
       </c>
-      <c r="BQ58" s="33"/>
-      <c r="BR58" s="33"/>
+      <c r="BQ58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR58" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS58" s="33"/>
       <c r="BT58" s="33"/>
       <c r="BU58" s="33"/>
@@ -33660,8 +34228,12 @@
       <c r="BP59" s="33">
         <v>99.61</v>
       </c>
-      <c r="BQ59" s="33"/>
-      <c r="BR59" s="33"/>
+      <c r="BQ59" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR59" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS59" s="33"/>
       <c r="BT59" s="33"/>
       <c r="BU59" s="33"/>
@@ -33876,8 +34448,12 @@
       <c r="BP60" s="33">
         <v>100.93</v>
       </c>
-      <c r="BQ60" s="33"/>
-      <c r="BR60" s="33"/>
+      <c r="BQ60" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR60" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS60" s="33"/>
       <c r="BT60" s="33"/>
       <c r="BU60" s="33"/>
@@ -34092,8 +34668,12 @@
       <c r="BP61" s="33">
         <v>97.52</v>
       </c>
-      <c r="BQ61" s="33"/>
-      <c r="BR61" s="33"/>
+      <c r="BQ61" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR61" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS61" s="33"/>
       <c r="BT61" s="33"/>
       <c r="BU61" s="33"/>
@@ -34308,8 +34888,12 @@
       <c r="BP62" s="33">
         <v>97.43</v>
       </c>
-      <c r="BQ62" s="33"/>
-      <c r="BR62" s="33"/>
+      <c r="BQ62" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR62" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS62" s="33"/>
       <c r="BT62" s="33"/>
       <c r="BU62" s="33"/>
@@ -34524,8 +35108,12 @@
       <c r="BP63" s="33">
         <v>97.36</v>
       </c>
-      <c r="BQ63" s="33"/>
-      <c r="BR63" s="33"/>
+      <c r="BQ63" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR63" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS63" s="33"/>
       <c r="BT63" s="33"/>
       <c r="BU63" s="33"/>
@@ -34740,8 +35328,12 @@
       <c r="BP64" s="33">
         <v>97.72</v>
       </c>
-      <c r="BQ64" s="33"/>
-      <c r="BR64" s="33"/>
+      <c r="BQ64" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR64" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS64" s="33"/>
       <c r="BT64" s="33"/>
       <c r="BU64" s="33"/>
@@ -34956,8 +35548,12 @@
       <c r="BP65" s="33">
         <v>99.32</v>
       </c>
-      <c r="BQ65" s="33"/>
-      <c r="BR65" s="33"/>
+      <c r="BQ65" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR65" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS65" s="33"/>
       <c r="BT65" s="33"/>
       <c r="BU65" s="33"/>
@@ -35172,8 +35768,12 @@
       <c r="BP66" s="33">
         <v>97.4</v>
       </c>
-      <c r="BQ66" s="33"/>
-      <c r="BR66" s="33"/>
+      <c r="BQ66" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR66" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS66" s="33"/>
       <c r="BT66" s="33"/>
       <c r="BU66" s="33"/>
@@ -35388,8 +35988,12 @@
       <c r="BP67" s="33">
         <v>99.21</v>
       </c>
-      <c r="BQ67" s="33"/>
-      <c r="BR67" s="33"/>
+      <c r="BQ67" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR67" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS67" s="33"/>
       <c r="BT67" s="33"/>
       <c r="BU67" s="33"/>
@@ -35604,8 +36208,12 @@
       <c r="BP68" s="33">
         <v>99.66</v>
       </c>
-      <c r="BQ68" s="33"/>
-      <c r="BR68" s="33"/>
+      <c r="BQ68" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR68" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS68" s="33"/>
       <c r="BT68" s="33"/>
       <c r="BU68" s="33"/>
@@ -35820,8 +36428,12 @@
       <c r="BP69" s="33">
         <v>98.13</v>
       </c>
-      <c r="BQ69" s="33"/>
-      <c r="BR69" s="33"/>
+      <c r="BQ69" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR69" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS69" s="33"/>
       <c r="BT69" s="33"/>
       <c r="BU69" s="33"/>
@@ -36036,8 +36648,12 @@
       <c r="BP70" s="33">
         <v>99.34</v>
       </c>
-      <c r="BQ70" s="33"/>
-      <c r="BR70" s="33"/>
+      <c r="BQ70" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR70" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS70" s="33"/>
       <c r="BT70" s="33"/>
       <c r="BU70" s="33"/>
@@ -36252,8 +36868,12 @@
       <c r="BP71" s="33">
         <v>98.61</v>
       </c>
-      <c r="BQ71" s="33"/>
-      <c r="BR71" s="33"/>
+      <c r="BQ71" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR71" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS71" s="33"/>
       <c r="BT71" s="33"/>
       <c r="BU71" s="33"/>
@@ -36468,8 +37088,12 @@
       <c r="BP72" s="33">
         <v>99.06</v>
       </c>
-      <c r="BQ72" s="33"/>
-      <c r="BR72" s="33"/>
+      <c r="BQ72" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR72" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS72" s="33"/>
       <c r="BT72" s="33"/>
       <c r="BU72" s="33"/>
@@ -36684,8 +37308,12 @@
       <c r="BP73" s="33">
         <v>99.01</v>
       </c>
-      <c r="BQ73" s="33"/>
-      <c r="BR73" s="33"/>
+      <c r="BQ73" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR73" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS73" s="33"/>
       <c r="BT73" s="33"/>
       <c r="BU73" s="33"/>
@@ -36900,8 +37528,12 @@
       <c r="BP74" s="33">
         <v>100.48</v>
       </c>
-      <c r="BQ74" s="33"/>
-      <c r="BR74" s="33"/>
+      <c r="BQ74" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR74" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS74" s="33"/>
       <c r="BT74" s="33"/>
       <c r="BU74" s="33"/>
@@ -37116,8 +37748,12 @@
       <c r="BP75" s="33">
         <v>100.97</v>
       </c>
-      <c r="BQ75" s="33"/>
-      <c r="BR75" s="33"/>
+      <c r="BQ75" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR75" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS75" s="33"/>
       <c r="BT75" s="33"/>
       <c r="BU75" s="33"/>
@@ -37332,8 +37968,12 @@
       <c r="BP76" s="33">
         <v>99.22</v>
       </c>
-      <c r="BQ76" s="33"/>
-      <c r="BR76" s="33"/>
+      <c r="BQ76" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR76" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS76" s="33"/>
       <c r="BT76" s="33"/>
       <c r="BU76" s="33"/>
@@ -37548,8 +38188,12 @@
       <c r="BP77" s="33">
         <v>100.4</v>
       </c>
-      <c r="BQ77" s="33"/>
-      <c r="BR77" s="33"/>
+      <c r="BQ77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR77" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS77" s="33"/>
       <c r="BT77" s="33"/>
       <c r="BU77" s="33"/>
@@ -37764,8 +38408,12 @@
       <c r="BP78" s="33">
         <v>99.29</v>
       </c>
-      <c r="BQ78" s="33"/>
-      <c r="BR78" s="33"/>
+      <c r="BQ78" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR78" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS78" s="33"/>
       <c r="BT78" s="33"/>
       <c r="BU78" s="33"/>
@@ -37980,8 +38628,12 @@
       <c r="BP79" s="33">
         <v>100</v>
       </c>
-      <c r="BQ79" s="33"/>
-      <c r="BR79" s="33"/>
+      <c r="BQ79" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR79" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS79" s="33"/>
       <c r="BT79" s="33"/>
       <c r="BU79" s="33"/>
@@ -38196,8 +38848,12 @@
       <c r="BP80" s="33">
         <v>99.02</v>
       </c>
-      <c r="BQ80" s="33"/>
-      <c r="BR80" s="33"/>
+      <c r="BQ80" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR80" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS80" s="33"/>
       <c r="BT80" s="33"/>
       <c r="BU80" s="33"/>
@@ -38412,8 +39068,12 @@
       <c r="BP81" s="33">
         <v>99.27</v>
       </c>
-      <c r="BQ81" s="33"/>
-      <c r="BR81" s="33"/>
+      <c r="BQ81" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR81" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS81" s="33"/>
       <c r="BT81" s="33"/>
       <c r="BU81" s="33"/>
@@ -38628,8 +39288,12 @@
       <c r="BP82" s="33">
         <v>99.91</v>
       </c>
-      <c r="BQ82" s="33"/>
-      <c r="BR82" s="33"/>
+      <c r="BQ82" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR82" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS82" s="33"/>
       <c r="BT82" s="33"/>
       <c r="BU82" s="33"/>
@@ -38844,8 +39508,12 @@
       <c r="BP83" s="33">
         <v>100.11</v>
       </c>
-      <c r="BQ83" s="33"/>
-      <c r="BR83" s="33"/>
+      <c r="BQ83" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR83" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS83" s="33"/>
       <c r="BT83" s="33"/>
       <c r="BU83" s="33"/>
@@ -38866,202 +39534,206 @@
         <v>184</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="X84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Y84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Z84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AA84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AD84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AE84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AF84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AH84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AI84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AK84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AO84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AP84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AQ84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AR84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AS84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AU84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AW84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AX84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AY84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AZ84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BA84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BB84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BC84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BD84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BE84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BF84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BG84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BH84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BI84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BJ84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BK84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BL84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BM84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BN84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BO84" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BP84" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="33"/>
+        <v>454</v>
+      </c>
+      <c r="BQ84" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR84" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS84" s="33"/>
       <c r="BT84" s="33"/>
       <c r="BU84" s="33"/>
@@ -39276,8 +39948,12 @@
       <c r="BP85" s="33">
         <v>99.21</v>
       </c>
-      <c r="BQ85" s="33"/>
-      <c r="BR85" s="33"/>
+      <c r="BQ85" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR85" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS85" s="33"/>
       <c r="BT85" s="33"/>
       <c r="BU85" s="33"/>
@@ -39492,8 +40168,12 @@
       <c r="BP86" s="33">
         <v>98.82</v>
       </c>
-      <c r="BQ86" s="33"/>
-      <c r="BR86" s="33"/>
+      <c r="BQ86" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR86" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS86" s="33"/>
       <c r="BT86" s="33"/>
       <c r="BU86" s="33"/>
@@ -39708,8 +40388,12 @@
       <c r="BP87" s="33">
         <v>98.67</v>
       </c>
-      <c r="BQ87" s="33"/>
-      <c r="BR87" s="33"/>
+      <c r="BQ87" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR87" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS87" s="33"/>
       <c r="BT87" s="33"/>
       <c r="BU87" s="33"/>
@@ -39924,8 +40608,12 @@
       <c r="BP88" s="33">
         <v>100.11</v>
       </c>
-      <c r="BQ88" s="33"/>
-      <c r="BR88" s="33"/>
+      <c r="BQ88" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR88" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS88" s="33"/>
       <c r="BT88" s="33"/>
       <c r="BU88" s="33"/>
@@ -40140,8 +40828,12 @@
       <c r="BP89" s="33">
         <v>98.53</v>
       </c>
-      <c r="BQ89" s="33"/>
-      <c r="BR89" s="33"/>
+      <c r="BQ89" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR89" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS89" s="33"/>
       <c r="BT89" s="33"/>
       <c r="BU89" s="33"/>
@@ -40356,8 +41048,12 @@
       <c r="BP90" s="33">
         <v>98.95</v>
       </c>
-      <c r="BQ90" s="33"/>
-      <c r="BR90" s="33"/>
+      <c r="BQ90" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR90" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS90" s="33"/>
       <c r="BT90" s="33"/>
       <c r="BU90" s="33"/>
@@ -40572,8 +41268,12 @@
       <c r="BP91" s="33">
         <v>99.85</v>
       </c>
-      <c r="BQ91" s="33"/>
-      <c r="BR91" s="33"/>
+      <c r="BQ91" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR91" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS91" s="33"/>
       <c r="BT91" s="33"/>
       <c r="BU91" s="33"/>
@@ -40788,8 +41488,12 @@
       <c r="BP92" s="33">
         <v>100.43</v>
       </c>
-      <c r="BQ92" s="33"/>
-      <c r="BR92" s="33"/>
+      <c r="BQ92" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR92" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS92" s="33"/>
       <c r="BT92" s="33"/>
       <c r="BU92" s="33"/>
@@ -41004,8 +41708,12 @@
       <c r="BP93" s="33">
         <v>99.28</v>
       </c>
-      <c r="BQ93" s="33"/>
-      <c r="BR93" s="33"/>
+      <c r="BQ93" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR93" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS93" s="33"/>
       <c r="BT93" s="33"/>
       <c r="BU93" s="33"/>
@@ -41220,8 +41928,12 @@
       <c r="BP94" s="33">
         <v>99.61</v>
       </c>
-      <c r="BQ94" s="33"/>
-      <c r="BR94" s="33"/>
+      <c r="BQ94" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR94" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS94" s="33"/>
       <c r="BT94" s="33"/>
       <c r="BU94" s="33"/>
@@ -41436,8 +42148,12 @@
       <c r="BP95" s="33">
         <v>97.04</v>
       </c>
-      <c r="BQ95" s="33"/>
-      <c r="BR95" s="33"/>
+      <c r="BQ95" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR95" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS95" s="33"/>
       <c r="BT95" s="33"/>
       <c r="BU95" s="33"/>
@@ -41652,8 +42368,12 @@
       <c r="BP96" s="33">
         <v>99.35</v>
       </c>
-      <c r="BQ96" s="33"/>
-      <c r="BR96" s="33"/>
+      <c r="BQ96" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR96" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS96" s="33"/>
       <c r="BT96" s="33"/>
       <c r="BU96" s="33"/>
@@ -41868,8 +42588,12 @@
       <c r="BP97" s="33">
         <v>99.33</v>
       </c>
-      <c r="BQ97" s="33"/>
-      <c r="BR97" s="33"/>
+      <c r="BQ97" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR97" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS97" s="33"/>
       <c r="BT97" s="33"/>
       <c r="BU97" s="33"/>
@@ -42084,8 +42808,12 @@
       <c r="BP98" s="33">
         <v>99.01</v>
       </c>
-      <c r="BQ98" s="33"/>
-      <c r="BR98" s="33"/>
+      <c r="BQ98" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR98" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS98" s="33"/>
       <c r="BT98" s="33"/>
       <c r="BU98" s="33"/>
@@ -42300,8 +43028,12 @@
       <c r="BP99" s="33">
         <v>98.46</v>
       </c>
-      <c r="BQ99" s="33"/>
-      <c r="BR99" s="33"/>
+      <c r="BQ99" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR99" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS99" s="33"/>
       <c r="BT99" s="33"/>
       <c r="BU99" s="33"/>
@@ -42516,8 +43248,12 @@
       <c r="BP100" s="33">
         <v>99.22</v>
       </c>
-      <c r="BQ100" s="33"/>
-      <c r="BR100" s="33"/>
+      <c r="BQ100" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR100" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS100" s="33"/>
       <c r="BT100" s="33"/>
       <c r="BU100" s="33"/>
@@ -42732,8 +43468,12 @@
       <c r="BP101" s="33">
         <v>98.18</v>
       </c>
-      <c r="BQ101" s="33"/>
-      <c r="BR101" s="33"/>
+      <c r="BQ101" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR101" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS101" s="33"/>
       <c r="BT101" s="33"/>
       <c r="BU101" s="33"/>
@@ -42948,8 +43688,12 @@
       <c r="BP102" s="33">
         <v>99.77</v>
       </c>
-      <c r="BQ102" s="33"/>
-      <c r="BR102" s="33"/>
+      <c r="BQ102" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR102" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS102" s="33"/>
       <c r="BT102" s="33"/>
       <c r="BU102" s="33"/>
@@ -43164,8 +43908,12 @@
       <c r="BP103" s="33">
         <v>98.99</v>
       </c>
-      <c r="BQ103" s="33"/>
-      <c r="BR103" s="33"/>
+      <c r="BQ103" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR103" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS103" s="33"/>
       <c r="BT103" s="33"/>
       <c r="BU103" s="33"/>
@@ -43380,8 +44128,12 @@
       <c r="BP104" s="33">
         <v>101.6</v>
       </c>
-      <c r="BQ104" s="33"/>
-      <c r="BR104" s="33"/>
+      <c r="BQ104" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR104" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS104" s="33"/>
       <c r="BT104" s="33"/>
       <c r="BU104" s="33"/>
@@ -43596,8 +44348,12 @@
       <c r="BP105" s="33">
         <v>99.03</v>
       </c>
-      <c r="BQ105" s="33"/>
-      <c r="BR105" s="33"/>
+      <c r="BQ105" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR105" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS105" s="33"/>
       <c r="BT105" s="33"/>
       <c r="BU105" s="33"/>
@@ -43812,8 +44568,12 @@
       <c r="BP106" s="33">
         <v>99.31</v>
       </c>
-      <c r="BQ106" s="33"/>
-      <c r="BR106" s="33"/>
+      <c r="BQ106" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR106" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS106" s="33"/>
       <c r="BT106" s="33"/>
       <c r="BU106" s="33"/>
@@ -44028,8 +44788,12 @@
       <c r="BP107" s="33">
         <v>98.35</v>
       </c>
-      <c r="BQ107" s="33"/>
-      <c r="BR107" s="33"/>
+      <c r="BQ107" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR107" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS107" s="33"/>
       <c r="BT107" s="33"/>
       <c r="BU107" s="33"/>
@@ -44244,8 +45008,12 @@
       <c r="BP108" s="33">
         <v>100.14</v>
       </c>
-      <c r="BQ108" s="33"/>
-      <c r="BR108" s="33"/>
+      <c r="BQ108" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR108" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS108" s="33"/>
       <c r="BT108" s="33"/>
       <c r="BU108" s="33"/>
@@ -44460,8 +45228,12 @@
       <c r="BP109" s="33">
         <v>101.49</v>
       </c>
-      <c r="BQ109" s="33"/>
-      <c r="BR109" s="33"/>
+      <c r="BQ109" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR109" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS109" s="33"/>
       <c r="BT109" s="33"/>
       <c r="BU109" s="33"/>
@@ -44676,8 +45448,12 @@
       <c r="BP110" s="33">
         <v>101.84</v>
       </c>
-      <c r="BQ110" s="33"/>
-      <c r="BR110" s="33"/>
+      <c r="BQ110" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR110" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS110" s="33"/>
       <c r="BT110" s="33"/>
       <c r="BU110" s="33"/>
@@ -44892,8 +45668,12 @@
       <c r="BP111" s="33">
         <v>98.17</v>
       </c>
-      <c r="BQ111" s="33"/>
-      <c r="BR111" s="33"/>
+      <c r="BQ111" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR111" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS111" s="33"/>
       <c r="BT111" s="33"/>
       <c r="BU111" s="33"/>
@@ -45108,8 +45888,12 @@
       <c r="BP112" s="33">
         <v>98.4</v>
       </c>
-      <c r="BQ112" s="33"/>
-      <c r="BR112" s="33"/>
+      <c r="BQ112" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR112" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS112" s="33"/>
       <c r="BT112" s="33"/>
       <c r="BU112" s="33"/>
@@ -45324,8 +46108,12 @@
       <c r="BP113" s="33">
         <v>95.9</v>
       </c>
-      <c r="BQ113" s="33"/>
-      <c r="BR113" s="33"/>
+      <c r="BQ113" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR113" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS113" s="33"/>
       <c r="BT113" s="33"/>
       <c r="BU113" s="33"/>
@@ -45540,8 +46328,12 @@
       <c r="BP114" s="33">
         <v>98.43</v>
       </c>
-      <c r="BQ114" s="33"/>
-      <c r="BR114" s="33"/>
+      <c r="BQ114" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR114" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS114" s="33"/>
       <c r="BT114" s="33"/>
       <c r="BU114" s="33"/>
@@ -45756,8 +46548,12 @@
       <c r="BP115" s="33">
         <v>93.68</v>
       </c>
-      <c r="BQ115" s="33"/>
-      <c r="BR115" s="33"/>
+      <c r="BQ115" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR115" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS115" s="33"/>
       <c r="BT115" s="33"/>
       <c r="BU115" s="33"/>
@@ -45972,8 +46768,12 @@
       <c r="BP116" s="33">
         <v>99.47</v>
       </c>
-      <c r="BQ116" s="33"/>
-      <c r="BR116" s="33"/>
+      <c r="BQ116" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR116" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS116" s="33"/>
       <c r="BT116" s="33"/>
       <c r="BU116" s="33"/>
@@ -46188,8 +46988,12 @@
       <c r="BP117" s="33">
         <v>100.73</v>
       </c>
-      <c r="BQ117" s="33"/>
-      <c r="BR117" s="33"/>
+      <c r="BQ117" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR117" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS117" s="33"/>
       <c r="BT117" s="33"/>
       <c r="BU117" s="33"/>
@@ -46404,8 +47208,12 @@
       <c r="BP118" s="33">
         <v>99.74</v>
       </c>
-      <c r="BQ118" s="33"/>
-      <c r="BR118" s="33"/>
+      <c r="BQ118" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR118" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS118" s="33"/>
       <c r="BT118" s="33"/>
       <c r="BU118" s="33"/>
@@ -46620,8 +47428,12 @@
       <c r="BP119" s="33">
         <v>98.35</v>
       </c>
-      <c r="BQ119" s="33"/>
-      <c r="BR119" s="33"/>
+      <c r="BQ119" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR119" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS119" s="33"/>
       <c r="BT119" s="33"/>
       <c r="BU119" s="33"/>
@@ -46836,8 +47648,12 @@
       <c r="BP120" s="33">
         <v>99.33</v>
       </c>
-      <c r="BQ120" s="33"/>
-      <c r="BR120" s="33"/>
+      <c r="BQ120" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR120" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS120" s="33"/>
       <c r="BT120" s="33"/>
       <c r="BU120" s="33"/>
@@ -47052,8 +47868,12 @@
       <c r="BP121" s="33">
         <v>99.04</v>
       </c>
-      <c r="BQ121" s="33"/>
-      <c r="BR121" s="33"/>
+      <c r="BQ121" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR121" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS121" s="33"/>
       <c r="BT121" s="33"/>
       <c r="BU121" s="33"/>
@@ -47268,8 +48088,12 @@
       <c r="BP122" s="33">
         <v>99.01</v>
       </c>
-      <c r="BQ122" s="33"/>
-      <c r="BR122" s="33"/>
+      <c r="BQ122" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR122" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS122" s="33"/>
       <c r="BT122" s="33"/>
       <c r="BU122" s="33"/>
@@ -47484,8 +48308,12 @@
       <c r="BP123" s="33">
         <v>100.78</v>
       </c>
-      <c r="BQ123" s="33"/>
-      <c r="BR123" s="33"/>
+      <c r="BQ123" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR123" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS123" s="33"/>
       <c r="BT123" s="33"/>
       <c r="BU123" s="33"/>
@@ -47700,8 +48528,12 @@
       <c r="BP124" s="33">
         <v>99.42</v>
       </c>
-      <c r="BQ124" s="33"/>
-      <c r="BR124" s="33"/>
+      <c r="BQ124" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR124" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS124" s="33"/>
       <c r="BT124" s="33"/>
       <c r="BU124" s="33"/>
@@ -47916,8 +48748,12 @@
       <c r="BP125" s="33">
         <v>99.95</v>
       </c>
-      <c r="BQ125" s="33"/>
-      <c r="BR125" s="33"/>
+      <c r="BQ125" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR125" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS125" s="33"/>
       <c r="BT125" s="33"/>
       <c r="BU125" s="33"/>
@@ -48132,8 +48968,12 @@
       <c r="BP126" s="33">
         <v>100.83</v>
       </c>
-      <c r="BQ126" s="33"/>
-      <c r="BR126" s="33"/>
+      <c r="BQ126" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR126" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS126" s="33"/>
       <c r="BT126" s="33"/>
       <c r="BU126" s="33"/>
@@ -48348,8 +49188,12 @@
       <c r="BP127" s="33">
         <v>100.47</v>
       </c>
-      <c r="BQ127" s="33"/>
-      <c r="BR127" s="33"/>
+      <c r="BQ127" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR127" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS127" s="33"/>
       <c r="BT127" s="33"/>
       <c r="BU127" s="33"/>
@@ -48564,8 +49408,12 @@
       <c r="BP128" s="33">
         <v>99.39</v>
       </c>
-      <c r="BQ128" s="33"/>
-      <c r="BR128" s="33"/>
+      <c r="BQ128" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR128" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS128" s="33"/>
       <c r="BT128" s="33"/>
       <c r="BU128" s="33"/>
@@ -48780,8 +49628,12 @@
       <c r="BP129" s="33">
         <v>101.62</v>
       </c>
-      <c r="BQ129" s="33"/>
-      <c r="BR129" s="33"/>
+      <c r="BQ129" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR129" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS129" s="33"/>
       <c r="BT129" s="33"/>
       <c r="BU129" s="33"/>
@@ -48996,8 +49848,12 @@
       <c r="BP130" s="33">
         <v>102.21</v>
       </c>
-      <c r="BQ130" s="33"/>
-      <c r="BR130" s="33"/>
+      <c r="BQ130" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR130" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS130" s="33"/>
       <c r="BT130" s="33"/>
       <c r="BU130" s="33"/>
@@ -49212,8 +50068,12 @@
       <c r="BP131" s="33">
         <v>100.1</v>
       </c>
-      <c r="BQ131" s="33"/>
-      <c r="BR131" s="33"/>
+      <c r="BQ131" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR131" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS131" s="33"/>
       <c r="BT131" s="33"/>
       <c r="BU131" s="33"/>
@@ -49428,8 +50288,12 @@
       <c r="BP132" s="33">
         <v>102.68</v>
       </c>
-      <c r="BQ132" s="33"/>
-      <c r="BR132" s="33"/>
+      <c r="BQ132" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR132" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS132" s="33"/>
       <c r="BT132" s="33"/>
       <c r="BU132" s="33"/>
@@ -49644,8 +50508,12 @@
       <c r="BP133" s="33">
         <v>100.66</v>
       </c>
-      <c r="BQ133" s="33"/>
-      <c r="BR133" s="33"/>
+      <c r="BQ133" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR133" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS133" s="33"/>
       <c r="BT133" s="33"/>
       <c r="BU133" s="33"/>
@@ -49860,8 +50728,12 @@
       <c r="BP134" s="33">
         <v>99.63</v>
       </c>
-      <c r="BQ134" s="33"/>
-      <c r="BR134" s="33"/>
+      <c r="BQ134" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR134" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS134" s="33"/>
       <c r="BT134" s="33"/>
       <c r="BU134" s="33"/>
@@ -50076,8 +50948,12 @@
       <c r="BP135" s="33">
         <v>99.76</v>
       </c>
-      <c r="BQ135" s="33"/>
-      <c r="BR135" s="33"/>
+      <c r="BQ135" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR135" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS135" s="33"/>
       <c r="BT135" s="33"/>
       <c r="BU135" s="33"/>
@@ -50292,8 +51168,12 @@
       <c r="BP136" s="33">
         <v>100.78</v>
       </c>
-      <c r="BQ136" s="33"/>
-      <c r="BR136" s="33"/>
+      <c r="BQ136" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR136" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS136" s="33"/>
       <c r="BT136" s="33"/>
       <c r="BU136" s="33"/>
@@ -50508,8 +51388,12 @@
       <c r="BP137" s="33">
         <v>98.61</v>
       </c>
-      <c r="BQ137" s="33"/>
-      <c r="BR137" s="33"/>
+      <c r="BQ137" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR137" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS137" s="33"/>
       <c r="BT137" s="33"/>
       <c r="BU137" s="33"/>
@@ -50724,8 +51608,12 @@
       <c r="BP138" s="33">
         <v>100.51</v>
       </c>
-      <c r="BQ138" s="33"/>
-      <c r="BR138" s="33"/>
+      <c r="BQ138" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR138" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS138" s="33"/>
       <c r="BT138" s="33"/>
       <c r="BU138" s="33"/>
@@ -50940,8 +51828,12 @@
       <c r="BP139" s="33">
         <v>99.33</v>
       </c>
-      <c r="BQ139" s="33"/>
-      <c r="BR139" s="33"/>
+      <c r="BQ139" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR139" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS139" s="33"/>
       <c r="BT139" s="33"/>
       <c r="BU139" s="33"/>
@@ -51156,8 +52048,12 @@
       <c r="BP140" s="33">
         <v>101.81</v>
       </c>
-      <c r="BQ140" s="33"/>
-      <c r="BR140" s="33"/>
+      <c r="BQ140" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR140" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS140" s="33"/>
       <c r="BT140" s="33"/>
       <c r="BU140" s="33"/>
@@ -51372,8 +52268,12 @@
       <c r="BP141" s="33">
         <v>100.12</v>
       </c>
-      <c r="BQ141" s="33"/>
-      <c r="BR141" s="33"/>
+      <c r="BQ141" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR141" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS141" s="33"/>
       <c r="BT141" s="33"/>
       <c r="BU141" s="33"/>
@@ -51588,8 +52488,12 @@
       <c r="BP142" s="33">
         <v>99.86</v>
       </c>
-      <c r="BQ142" s="33"/>
-      <c r="BR142" s="33"/>
+      <c r="BQ142" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR142" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS142" s="33"/>
       <c r="BT142" s="33"/>
       <c r="BU142" s="33"/>
@@ -51804,8 +52708,12 @@
       <c r="BP143" s="33">
         <v>99.29</v>
       </c>
-      <c r="BQ143" s="33"/>
-      <c r="BR143" s="33"/>
+      <c r="BQ143" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR143" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS143" s="33"/>
       <c r="BT143" s="33"/>
       <c r="BU143" s="33"/>
@@ -52020,8 +52928,12 @@
       <c r="BP144" s="33">
         <v>98.97</v>
       </c>
-      <c r="BQ144" s="33"/>
-      <c r="BR144" s="33"/>
+      <c r="BQ144" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR144" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS144" s="33"/>
       <c r="BT144" s="33"/>
       <c r="BU144" s="33"/>
@@ -52236,8 +53148,12 @@
       <c r="BP145" s="33">
         <v>99.76</v>
       </c>
-      <c r="BQ145" s="33"/>
-      <c r="BR145" s="33"/>
+      <c r="BQ145" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR145" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS145" s="33"/>
       <c r="BT145" s="33"/>
       <c r="BU145" s="33"/>
@@ -52452,8 +53368,12 @@
       <c r="BP146" s="33">
         <v>100.62</v>
       </c>
-      <c r="BQ146" s="33"/>
-      <c r="BR146" s="33"/>
+      <c r="BQ146" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR146" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS146" s="33"/>
       <c r="BT146" s="33"/>
       <c r="BU146" s="33"/>
@@ -52668,8 +53588,12 @@
       <c r="BP147" s="33">
         <v>99.36</v>
       </c>
-      <c r="BQ147" s="33"/>
-      <c r="BR147" s="33"/>
+      <c r="BQ147" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR147" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS147" s="33"/>
       <c r="BT147" s="33"/>
       <c r="BU147" s="33"/>
@@ -52884,8 +53808,12 @@
       <c r="BP148" s="33">
         <v>100.96</v>
       </c>
-      <c r="BQ148" s="33"/>
-      <c r="BR148" s="33"/>
+      <c r="BQ148" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR148" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS148" s="33"/>
       <c r="BT148" s="33"/>
       <c r="BU148" s="33"/>
@@ -53100,8 +54028,12 @@
       <c r="BP149" s="33">
         <v>99.4</v>
       </c>
-      <c r="BQ149" s="33"/>
-      <c r="BR149" s="33"/>
+      <c r="BQ149" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR149" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS149" s="33"/>
       <c r="BT149" s="33"/>
       <c r="BU149" s="33"/>
@@ -53316,8 +54248,12 @@
       <c r="BP150" s="33">
         <v>99.02</v>
       </c>
-      <c r="BQ150" s="33"/>
-      <c r="BR150" s="33"/>
+      <c r="BQ150" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR150" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS150" s="33"/>
       <c r="BT150" s="33"/>
       <c r="BU150" s="33"/>
@@ -53532,8 +54468,12 @@
       <c r="BP151" s="33">
         <v>98.78</v>
       </c>
-      <c r="BQ151" s="33"/>
-      <c r="BR151" s="33"/>
+      <c r="BQ151" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR151" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS151" s="33"/>
       <c r="BT151" s="33"/>
       <c r="BU151" s="33"/>
@@ -53748,8 +54688,12 @@
       <c r="BP152" s="33">
         <v>100.44</v>
       </c>
-      <c r="BQ152" s="33"/>
-      <c r="BR152" s="33"/>
+      <c r="BQ152" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR152" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS152" s="33"/>
       <c r="BT152" s="33"/>
       <c r="BU152" s="33"/>
@@ -53964,8 +54908,12 @@
       <c r="BP153" s="33">
         <v>101.68</v>
       </c>
-      <c r="BQ153" s="33"/>
-      <c r="BR153" s="33"/>
+      <c r="BQ153" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR153" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS153" s="33"/>
       <c r="BT153" s="33"/>
       <c r="BU153" s="33"/>
@@ -54180,8 +55128,12 @@
       <c r="BP154" s="33">
         <v>98.67</v>
       </c>
-      <c r="BQ154" s="33"/>
-      <c r="BR154" s="33"/>
+      <c r="BQ154" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR154" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS154" s="33"/>
       <c r="BT154" s="33"/>
       <c r="BU154" s="33"/>
@@ -54396,8 +55348,12 @@
       <c r="BP155" s="33">
         <v>99.2</v>
       </c>
-      <c r="BQ155" s="33"/>
-      <c r="BR155" s="33"/>
+      <c r="BQ155" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR155" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS155" s="33"/>
       <c r="BT155" s="33"/>
       <c r="BU155" s="33"/>
@@ -54612,8 +55568,12 @@
       <c r="BP156" s="33">
         <v>96.72</v>
       </c>
-      <c r="BQ156" s="33"/>
-      <c r="BR156" s="33"/>
+      <c r="BQ156" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR156" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS156" s="33"/>
       <c r="BT156" s="33"/>
       <c r="BU156" s="33"/>
@@ -54828,8 +55788,12 @@
       <c r="BP157" s="33">
         <v>95.42</v>
       </c>
-      <c r="BQ157" s="33"/>
-      <c r="BR157" s="33"/>
+      <c r="BQ157" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR157" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS157" s="33"/>
       <c r="BT157" s="33"/>
       <c r="BU157" s="33"/>
@@ -55044,8 +56008,12 @@
       <c r="BP158" s="33">
         <v>98.77</v>
       </c>
-      <c r="BQ158" s="33"/>
-      <c r="BR158" s="33"/>
+      <c r="BQ158" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR158" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS158" s="33"/>
       <c r="BT158" s="33"/>
       <c r="BU158" s="33"/>
@@ -55260,8 +56228,12 @@
       <c r="BP159" s="33">
         <v>99.37</v>
       </c>
-      <c r="BQ159" s="33"/>
-      <c r="BR159" s="33"/>
+      <c r="BQ159" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR159" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS159" s="33"/>
       <c r="BT159" s="33"/>
       <c r="BU159" s="33"/>
@@ -55476,8 +56448,12 @@
       <c r="BP160" s="33">
         <v>100.2</v>
       </c>
-      <c r="BQ160" s="33"/>
-      <c r="BR160" s="33"/>
+      <c r="BQ160" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR160" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS160" s="33"/>
       <c r="BT160" s="33"/>
       <c r="BU160" s="33"/>
@@ -55692,8 +56668,12 @@
       <c r="BP161" s="33">
         <v>102.65</v>
       </c>
-      <c r="BQ161" s="33"/>
-      <c r="BR161" s="33"/>
+      <c r="BQ161" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR161" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS161" s="33"/>
       <c r="BT161" s="33"/>
       <c r="BU161" s="33"/>
@@ -55908,8 +56888,12 @@
       <c r="BP162" s="33">
         <v>102.31</v>
       </c>
-      <c r="BQ162" s="33"/>
-      <c r="BR162" s="33"/>
+      <c r="BQ162" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR162" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS162" s="33"/>
       <c r="BT162" s="33"/>
       <c r="BU162" s="33"/>
@@ -56124,8 +57108,12 @@
       <c r="BP163" s="33">
         <v>98.8</v>
       </c>
-      <c r="BQ163" s="33"/>
-      <c r="BR163" s="33"/>
+      <c r="BQ163" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR163" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS163" s="33"/>
       <c r="BT163" s="33"/>
       <c r="BU163" s="33"/>
@@ -56340,8 +57328,12 @@
       <c r="BP164" s="33">
         <v>97.56</v>
       </c>
-      <c r="BQ164" s="33"/>
-      <c r="BR164" s="33"/>
+      <c r="BQ164" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR164" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS164" s="33"/>
       <c r="BT164" s="33"/>
       <c r="BU164" s="33"/>
@@ -56556,8 +57548,12 @@
       <c r="BP165" s="33">
         <v>99.29</v>
       </c>
-      <c r="BQ165" s="33"/>
-      <c r="BR165" s="33"/>
+      <c r="BQ165" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR165" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS165" s="33"/>
       <c r="BT165" s="33"/>
       <c r="BU165" s="33"/>
@@ -56772,8 +57768,12 @@
       <c r="BP166" s="33">
         <v>98.85</v>
       </c>
-      <c r="BQ166" s="33"/>
-      <c r="BR166" s="33"/>
+      <c r="BQ166" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR166" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS166" s="33"/>
       <c r="BT166" s="33"/>
       <c r="BU166" s="33"/>
@@ -56988,8 +57988,12 @@
       <c r="BP167" s="33">
         <v>99.92</v>
       </c>
-      <c r="BQ167" s="33"/>
-      <c r="BR167" s="33"/>
+      <c r="BQ167" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR167" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS167" s="33"/>
       <c r="BT167" s="33"/>
       <c r="BU167" s="33"/>
@@ -57204,8 +58208,12 @@
       <c r="BP168" s="33">
         <v>100.04</v>
       </c>
-      <c r="BQ168" s="33"/>
-      <c r="BR168" s="33"/>
+      <c r="BQ168" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR168" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS168" s="33"/>
       <c r="BT168" s="33"/>
       <c r="BU168" s="33"/>
@@ -57420,8 +58428,12 @@
       <c r="BP169" s="33">
         <v>99.97</v>
       </c>
-      <c r="BQ169" s="33"/>
-      <c r="BR169" s="33"/>
+      <c r="BQ169" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR169" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS169" s="33"/>
       <c r="BT169" s="33"/>
       <c r="BU169" s="33"/>
@@ -57636,8 +58648,12 @@
       <c r="BP170" s="33">
         <v>99.95</v>
       </c>
-      <c r="BQ170" s="33"/>
-      <c r="BR170" s="33"/>
+      <c r="BQ170" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR170" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS170" s="33"/>
       <c r="BT170" s="33"/>
       <c r="BU170" s="33"/>
@@ -57852,8 +58868,12 @@
       <c r="BP171" s="33">
         <v>100.31</v>
       </c>
-      <c r="BQ171" s="33"/>
-      <c r="BR171" s="33"/>
+      <c r="BQ171" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR171" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS171" s="33"/>
       <c r="BT171" s="33"/>
       <c r="BU171" s="33"/>
@@ -58068,8 +59088,12 @@
       <c r="BP172" s="33">
         <v>100.28</v>
       </c>
-      <c r="BQ172" s="33"/>
-      <c r="BR172" s="33"/>
+      <c r="BQ172" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR172" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS172" s="33"/>
       <c r="BT172" s="33"/>
       <c r="BU172" s="33"/>
@@ -58284,8 +59308,12 @@
       <c r="BP173" s="33">
         <v>100.39</v>
       </c>
-      <c r="BQ173" s="33"/>
-      <c r="BR173" s="33"/>
+      <c r="BQ173" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR173" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS173" s="33"/>
       <c r="BT173" s="33"/>
       <c r="BU173" s="33"/>
@@ -58500,8 +59528,12 @@
       <c r="BP174" s="33">
         <v>98.26</v>
       </c>
-      <c r="BQ174" s="33"/>
-      <c r="BR174" s="33"/>
+      <c r="BQ174" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR174" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS174" s="33"/>
       <c r="BT174" s="33"/>
       <c r="BU174" s="33"/>
@@ -58716,8 +59748,12 @@
       <c r="BP175" s="33">
         <v>100.93</v>
       </c>
-      <c r="BQ175" s="33"/>
-      <c r="BR175" s="33"/>
+      <c r="BQ175" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR175" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS175" s="33"/>
       <c r="BT175" s="33"/>
       <c r="BU175" s="33"/>
@@ -58932,8 +59968,12 @@
       <c r="BP176" s="33">
         <v>99.11</v>
       </c>
-      <c r="BQ176" s="33"/>
-      <c r="BR176" s="33"/>
+      <c r="BQ176" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR176" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS176" s="33"/>
       <c r="BT176" s="33"/>
       <c r="BU176" s="33"/>
@@ -59148,8 +60188,12 @@
       <c r="BP177" s="33">
         <v>99.59</v>
       </c>
-      <c r="BQ177" s="33"/>
-      <c r="BR177" s="33"/>
+      <c r="BQ177" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR177" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS177" s="33"/>
       <c r="BT177" s="33"/>
       <c r="BU177" s="33"/>
@@ -59364,8 +60408,12 @@
       <c r="BP178" s="33">
         <v>100.47</v>
       </c>
-      <c r="BQ178" s="33"/>
-      <c r="BR178" s="33"/>
+      <c r="BQ178" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR178" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS178" s="33"/>
       <c r="BT178" s="33"/>
       <c r="BU178" s="33"/>
@@ -59580,8 +60628,12 @@
       <c r="BP179" s="33">
         <v>101.51</v>
       </c>
-      <c r="BQ179" s="33"/>
-      <c r="BR179" s="33"/>
+      <c r="BQ179" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR179" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS179" s="33"/>
       <c r="BT179" s="33"/>
       <c r="BU179" s="33"/>
@@ -59796,8 +60848,12 @@
       <c r="BP180" s="33">
         <v>101.67</v>
       </c>
-      <c r="BQ180" s="33"/>
-      <c r="BR180" s="33"/>
+      <c r="BQ180" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR180" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS180" s="33"/>
       <c r="BT180" s="33"/>
       <c r="BU180" s="33"/>
@@ -60012,8 +61068,12 @@
       <c r="BP181" s="33">
         <v>100.73</v>
       </c>
-      <c r="BQ181" s="33"/>
-      <c r="BR181" s="33"/>
+      <c r="BQ181" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR181" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS181" s="33"/>
       <c r="BT181" s="33"/>
       <c r="BU181" s="33"/>
@@ -60228,8 +61288,12 @@
       <c r="BP182" s="33">
         <v>99.98</v>
       </c>
-      <c r="BQ182" s="33"/>
-      <c r="BR182" s="33"/>
+      <c r="BQ182" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR182" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS182" s="33"/>
       <c r="BT182" s="33"/>
       <c r="BU182" s="33"/>
@@ -60444,8 +61508,12 @@
       <c r="BP183" s="33">
         <v>99.93</v>
       </c>
-      <c r="BQ183" s="33"/>
-      <c r="BR183" s="33"/>
+      <c r="BQ183" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR183" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS183" s="33"/>
       <c r="BT183" s="33"/>
       <c r="BU183" s="33"/>
@@ -60660,8 +61728,12 @@
       <c r="BP184" s="33">
         <v>99.64</v>
       </c>
-      <c r="BQ184" s="33"/>
-      <c r="BR184" s="33"/>
+      <c r="BQ184" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR184" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS184" s="33"/>
       <c r="BT184" s="33"/>
       <c r="BU184" s="33"/>
@@ -60876,8 +61948,12 @@
       <c r="BP185" s="33">
         <v>99.45</v>
       </c>
-      <c r="BQ185" s="33"/>
-      <c r="BR185" s="33"/>
+      <c r="BQ185" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR185" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS185" s="33"/>
       <c r="BT185" s="33"/>
       <c r="BU185" s="33"/>
@@ -61092,8 +62168,12 @@
       <c r="BP186" s="33">
         <v>98.56</v>
       </c>
-      <c r="BQ186" s="33"/>
-      <c r="BR186" s="33"/>
+      <c r="BQ186" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR186" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS186" s="33"/>
       <c r="BT186" s="33"/>
       <c r="BU186" s="33"/>
@@ -61308,8 +62388,12 @@
       <c r="BP187" s="33">
         <v>99.07</v>
       </c>
-      <c r="BQ187" s="33"/>
-      <c r="BR187" s="33"/>
+      <c r="BQ187" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR187" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS187" s="33"/>
       <c r="BT187" s="33"/>
       <c r="BU187" s="33"/>
@@ -61524,8 +62608,12 @@
       <c r="BP188" s="33">
         <v>100.17</v>
       </c>
-      <c r="BQ188" s="33"/>
-      <c r="BR188" s="33"/>
+      <c r="BQ188" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR188" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS188" s="33"/>
       <c r="BT188" s="33"/>
       <c r="BU188" s="33"/>
@@ -61740,8 +62828,12 @@
       <c r="BP189" s="33">
         <v>101.31</v>
       </c>
-      <c r="BQ189" s="33"/>
-      <c r="BR189" s="33"/>
+      <c r="BQ189" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR189" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS189" s="33"/>
       <c r="BT189" s="33"/>
       <c r="BU189" s="33"/>
@@ -61956,8 +63048,12 @@
       <c r="BP190" s="33">
         <v>99.31</v>
       </c>
-      <c r="BQ190" s="33"/>
-      <c r="BR190" s="33"/>
+      <c r="BQ190" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR190" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS190" s="33"/>
       <c r="BT190" s="33"/>
       <c r="BU190" s="33"/>
@@ -62172,8 +63268,12 @@
       <c r="BP191" s="33">
         <v>99.07</v>
       </c>
-      <c r="BQ191" s="33"/>
-      <c r="BR191" s="33"/>
+      <c r="BQ191" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR191" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS191" s="33"/>
       <c r="BT191" s="33"/>
       <c r="BU191" s="33"/>
@@ -62388,8 +63488,12 @@
       <c r="BP192" s="33">
         <v>97.43</v>
       </c>
-      <c r="BQ192" s="33"/>
-      <c r="BR192" s="33"/>
+      <c r="BQ192" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR192" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS192" s="33"/>
       <c r="BT192" s="33"/>
       <c r="BU192" s="33"/>
@@ -62604,8 +63708,12 @@
       <c r="BP193" s="33">
         <v>98.53</v>
       </c>
-      <c r="BQ193" s="33"/>
-      <c r="BR193" s="33"/>
+      <c r="BQ193" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR193" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS193" s="33"/>
       <c r="BT193" s="33"/>
       <c r="BU193" s="33"/>
@@ -62820,8 +63928,12 @@
       <c r="BP194" s="33">
         <v>99.3</v>
       </c>
-      <c r="BQ194" s="33"/>
-      <c r="BR194" s="33"/>
+      <c r="BQ194" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR194" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS194" s="33"/>
       <c r="BT194" s="33"/>
       <c r="BU194" s="33"/>
@@ -63036,8 +64148,12 @@
       <c r="BP195" s="33">
         <v>99.12</v>
       </c>
-      <c r="BQ195" s="33"/>
-      <c r="BR195" s="33"/>
+      <c r="BQ195" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR195" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS195" s="33"/>
       <c r="BT195" s="33"/>
       <c r="BU195" s="33"/>
@@ -63252,8 +64368,12 @@
       <c r="BP196" s="33">
         <v>99.25</v>
       </c>
-      <c r="BQ196" s="33"/>
-      <c r="BR196" s="33"/>
+      <c r="BQ196" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR196" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS196" s="33"/>
       <c r="BT196" s="33"/>
       <c r="BU196" s="33"/>
@@ -63468,8 +64588,12 @@
       <c r="BP197" s="33">
         <v>100.4</v>
       </c>
-      <c r="BQ197" s="33"/>
-      <c r="BR197" s="33"/>
+      <c r="BQ197" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR197" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS197" s="33"/>
       <c r="BT197" s="33"/>
       <c r="BU197" s="33"/>
@@ -63684,8 +64808,12 @@
       <c r="BP198" s="33">
         <v>97.21</v>
       </c>
-      <c r="BQ198" s="33"/>
-      <c r="BR198" s="33"/>
+      <c r="BQ198" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR198" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS198" s="33"/>
       <c r="BT198" s="33"/>
       <c r="BU198" s="33"/>
@@ -63900,8 +65028,12 @@
       <c r="BP199" s="33">
         <v>98.79</v>
       </c>
-      <c r="BQ199" s="33"/>
-      <c r="BR199" s="33"/>
+      <c r="BQ199" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR199" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS199" s="33"/>
       <c r="BT199" s="33"/>
       <c r="BU199" s="33"/>
@@ -64116,8 +65248,12 @@
       <c r="BP200" s="33">
         <v>98.98</v>
       </c>
-      <c r="BQ200" s="33"/>
-      <c r="BR200" s="33"/>
+      <c r="BQ200" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR200" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS200" s="33"/>
       <c r="BT200" s="33"/>
       <c r="BU200" s="33"/>
@@ -64332,8 +65468,12 @@
       <c r="BP201" s="33">
         <v>96.72</v>
       </c>
-      <c r="BQ201" s="33"/>
-      <c r="BR201" s="33"/>
+      <c r="BQ201" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR201" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS201" s="33"/>
       <c r="BT201" s="33"/>
       <c r="BU201" s="33"/>
@@ -64548,8 +65688,12 @@
       <c r="BP202" s="33">
         <v>99.9</v>
       </c>
-      <c r="BQ202" s="33"/>
-      <c r="BR202" s="33"/>
+      <c r="BQ202" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR202" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS202" s="33"/>
       <c r="BT202" s="33"/>
       <c r="BU202" s="33"/>
@@ -64764,8 +65908,12 @@
       <c r="BP203" s="33">
         <v>98.95</v>
       </c>
-      <c r="BQ203" s="33"/>
-      <c r="BR203" s="33"/>
+      <c r="BQ203" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR203" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS203" s="33"/>
       <c r="BT203" s="33"/>
       <c r="BU203" s="33"/>
@@ -64980,8 +66128,12 @@
       <c r="BP204" s="33">
         <v>98.78</v>
       </c>
-      <c r="BQ204" s="33"/>
-      <c r="BR204" s="33"/>
+      <c r="BQ204" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR204" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS204" s="33"/>
       <c r="BT204" s="33"/>
       <c r="BU204" s="33"/>
@@ -65196,8 +66348,12 @@
       <c r="BP205" s="33">
         <v>100.22</v>
       </c>
-      <c r="BQ205" s="33"/>
-      <c r="BR205" s="33"/>
+      <c r="BQ205" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR205" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS205" s="33"/>
       <c r="BT205" s="33"/>
       <c r="BU205" s="33"/>
@@ -65412,8 +66568,12 @@
       <c r="BP206" s="33">
         <v>98.69</v>
       </c>
-      <c r="BQ206" s="33"/>
-      <c r="BR206" s="33"/>
+      <c r="BQ206" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR206" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS206" s="33"/>
       <c r="BT206" s="33"/>
       <c r="BU206" s="33"/>
@@ -65628,8 +66788,12 @@
       <c r="BP207" s="33">
         <v>99.04</v>
       </c>
-      <c r="BQ207" s="33"/>
-      <c r="BR207" s="33"/>
+      <c r="BQ207" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR207" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS207" s="33"/>
       <c r="BT207" s="33"/>
       <c r="BU207" s="33"/>
@@ -65844,8 +67008,12 @@
       <c r="BP208" s="33">
         <v>100.16</v>
       </c>
-      <c r="BQ208" s="33"/>
-      <c r="BR208" s="33"/>
+      <c r="BQ208" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR208" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS208" s="33"/>
       <c r="BT208" s="33"/>
       <c r="BU208" s="33"/>
@@ -66060,8 +67228,12 @@
       <c r="BP209" s="33">
         <v>100.17</v>
       </c>
-      <c r="BQ209" s="33"/>
-      <c r="BR209" s="33"/>
+      <c r="BQ209" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR209" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS209" s="33"/>
       <c r="BT209" s="33"/>
       <c r="BU209" s="33"/>
@@ -66276,8 +67448,12 @@
       <c r="BP210" s="33">
         <v>100.14</v>
       </c>
-      <c r="BQ210" s="33"/>
-      <c r="BR210" s="33"/>
+      <c r="BQ210" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR210" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS210" s="33"/>
       <c r="BT210" s="33"/>
       <c r="BU210" s="33"/>
@@ -66492,8 +67668,12 @@
       <c r="BP211" s="33">
         <v>101.61</v>
       </c>
-      <c r="BQ211" s="33"/>
-      <c r="BR211" s="33"/>
+      <c r="BQ211" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR211" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS211" s="33"/>
       <c r="BT211" s="33"/>
       <c r="BU211" s="33"/>
@@ -66708,8 +67888,12 @@
       <c r="BP212" s="33">
         <v>96.48</v>
       </c>
-      <c r="BQ212" s="33"/>
-      <c r="BR212" s="33"/>
+      <c r="BQ212" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR212" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS212" s="33"/>
       <c r="BT212" s="33"/>
       <c r="BU212" s="33"/>
@@ -66924,8 +68108,12 @@
       <c r="BP213" s="33">
         <v>98.89</v>
       </c>
-      <c r="BQ213" s="33"/>
-      <c r="BR213" s="33"/>
+      <c r="BQ213" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR213" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS213" s="33"/>
       <c r="BT213" s="33"/>
       <c r="BU213" s="33"/>
@@ -67140,8 +68328,12 @@
       <c r="BP214" s="33">
         <v>100.1</v>
       </c>
-      <c r="BQ214" s="33"/>
-      <c r="BR214" s="33"/>
+      <c r="BQ214" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR214" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS214" s="33"/>
       <c r="BT214" s="33"/>
       <c r="BU214" s="33"/>
@@ -67356,8 +68548,12 @@
       <c r="BP215" s="33">
         <v>99.18</v>
       </c>
-      <c r="BQ215" s="33"/>
-      <c r="BR215" s="33"/>
+      <c r="BQ215" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR215" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS215" s="33"/>
       <c r="BT215" s="33"/>
       <c r="BU215" s="33"/>
@@ -67572,8 +68768,12 @@
       <c r="BP216" s="33">
         <v>98.69</v>
       </c>
-      <c r="BQ216" s="33"/>
-      <c r="BR216" s="33"/>
+      <c r="BQ216" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR216" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS216" s="33"/>
       <c r="BT216" s="33"/>
       <c r="BU216" s="33"/>
@@ -67788,8 +68988,12 @@
       <c r="BP217" s="33">
         <v>99.81</v>
       </c>
-      <c r="BQ217" s="33"/>
-      <c r="BR217" s="33"/>
+      <c r="BQ217" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR217" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS217" s="33"/>
       <c r="BT217" s="33"/>
       <c r="BU217" s="33"/>
@@ -68004,8 +69208,12 @@
       <c r="BP218" s="33">
         <v>98.48</v>
       </c>
-      <c r="BQ218" s="33"/>
-      <c r="BR218" s="33"/>
+      <c r="BQ218" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR218" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS218" s="33"/>
       <c r="BT218" s="33"/>
       <c r="BU218" s="33"/>
@@ -68220,8 +69428,12 @@
       <c r="BP219" s="33">
         <v>98.01</v>
       </c>
-      <c r="BQ219" s="33"/>
-      <c r="BR219" s="33"/>
+      <c r="BQ219" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR219" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS219" s="33"/>
       <c r="BT219" s="33"/>
       <c r="BU219" s="33"/>
@@ -68436,8 +69648,12 @@
       <c r="BP220" s="33">
         <v>95.35</v>
       </c>
-      <c r="BQ220" s="33"/>
-      <c r="BR220" s="33"/>
+      <c r="BQ220" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR220" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS220" s="33"/>
       <c r="BT220" s="33"/>
       <c r="BU220" s="33"/>
@@ -68652,8 +69868,12 @@
       <c r="BP221" s="33">
         <v>98.34</v>
       </c>
-      <c r="BQ221" s="33"/>
-      <c r="BR221" s="33"/>
+      <c r="BQ221" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR221" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS221" s="33"/>
       <c r="BT221" s="33"/>
       <c r="BU221" s="33"/>
@@ -68868,8 +70088,12 @@
       <c r="BP222" s="33">
         <v>98.78</v>
       </c>
-      <c r="BQ222" s="33"/>
-      <c r="BR222" s="33"/>
+      <c r="BQ222" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR222" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS222" s="33"/>
       <c r="BT222" s="33"/>
       <c r="BU222" s="33"/>
@@ -69084,8 +70308,12 @@
       <c r="BP223" s="33">
         <v>93.07</v>
       </c>
-      <c r="BQ223" s="33"/>
-      <c r="BR223" s="33"/>
+      <c r="BQ223" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR223" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS223" s="33"/>
       <c r="BT223" s="33"/>
       <c r="BU223" s="33"/>
@@ -69300,8 +70528,12 @@
       <c r="BP224" s="33">
         <v>99.23</v>
       </c>
-      <c r="BQ224" s="33"/>
-      <c r="BR224" s="33"/>
+      <c r="BQ224" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR224" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS224" s="33"/>
       <c r="BT224" s="33"/>
       <c r="BU224" s="33"/>
@@ -69516,8 +70748,12 @@
       <c r="BP225" s="33">
         <v>98.11</v>
       </c>
-      <c r="BQ225" s="33"/>
-      <c r="BR225" s="33"/>
+      <c r="BQ225" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR225" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS225" s="33"/>
       <c r="BT225" s="33"/>
       <c r="BU225" s="33"/>
@@ -69732,8 +70968,12 @@
       <c r="BP226" s="33">
         <v>100.5</v>
       </c>
-      <c r="BQ226" s="33"/>
-      <c r="BR226" s="33"/>
+      <c r="BQ226" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR226" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS226" s="33"/>
       <c r="BT226" s="33"/>
       <c r="BU226" s="33"/>
@@ -69948,8 +71188,12 @@
       <c r="BP227" s="33">
         <v>99.45</v>
       </c>
-      <c r="BQ227" s="33"/>
-      <c r="BR227" s="33"/>
+      <c r="BQ227" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR227" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS227" s="33"/>
       <c r="BT227" s="33"/>
       <c r="BU227" s="33"/>
@@ -70164,8 +71408,12 @@
       <c r="BP228" s="33">
         <v>99.58</v>
       </c>
-      <c r="BQ228" s="33"/>
-      <c r="BR228" s="33"/>
+      <c r="BQ228" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR228" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS228" s="33"/>
       <c r="BT228" s="33"/>
       <c r="BU228" s="33"/>
@@ -70380,8 +71628,12 @@
       <c r="BP229" s="33">
         <v>102.19</v>
       </c>
-      <c r="BQ229" s="33"/>
-      <c r="BR229" s="33"/>
+      <c r="BQ229" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR229" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS229" s="33"/>
       <c r="BT229" s="33"/>
       <c r="BU229" s="33"/>
@@ -70596,8 +71848,12 @@
       <c r="BP230" s="33">
         <v>97.13</v>
       </c>
-      <c r="BQ230" s="33"/>
-      <c r="BR230" s="33"/>
+      <c r="BQ230" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR230" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS230" s="33"/>
       <c r="BT230" s="33"/>
       <c r="BU230" s="33"/>
@@ -70812,8 +72068,12 @@
       <c r="BP231" s="33">
         <v>98.23</v>
       </c>
-      <c r="BQ231" s="33"/>
-      <c r="BR231" s="33"/>
+      <c r="BQ231" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR231" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS231" s="33"/>
       <c r="BT231" s="33"/>
       <c r="BU231" s="33"/>
@@ -71028,8 +72288,12 @@
       <c r="BP232" s="33">
         <v>100.35</v>
       </c>
-      <c r="BQ232" s="33"/>
-      <c r="BR232" s="33"/>
+      <c r="BQ232" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR232" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS232" s="33"/>
       <c r="BT232" s="33"/>
       <c r="BU232" s="33"/>
@@ -71244,8 +72508,12 @@
       <c r="BP233" s="33">
         <v>99.8</v>
       </c>
-      <c r="BQ233" s="33"/>
-      <c r="BR233" s="33"/>
+      <c r="BQ233" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR233" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS233" s="33"/>
       <c r="BT233" s="33"/>
       <c r="BU233" s="33"/>
@@ -71460,8 +72728,12 @@
       <c r="BP234" s="33">
         <v>98.14</v>
       </c>
-      <c r="BQ234" s="33"/>
-      <c r="BR234" s="33"/>
+      <c r="BQ234" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR234" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS234" s="33"/>
       <c r="BT234" s="33"/>
       <c r="BU234" s="33"/>
@@ -71676,8 +72948,12 @@
       <c r="BP235" s="33">
         <v>98.48</v>
       </c>
-      <c r="BQ235" s="33"/>
-      <c r="BR235" s="33"/>
+      <c r="BQ235" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR235" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS235" s="33"/>
       <c r="BT235" s="33"/>
       <c r="BU235" s="33"/>
@@ -71892,8 +73168,12 @@
       <c r="BP236" s="33">
         <v>100.84</v>
       </c>
-      <c r="BQ236" s="33"/>
-      <c r="BR236" s="33"/>
+      <c r="BQ236" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR236" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS236" s="33"/>
       <c r="BT236" s="33"/>
       <c r="BU236" s="33"/>
@@ -72108,8 +73388,12 @@
       <c r="BP237" s="33">
         <v>98.04</v>
       </c>
-      <c r="BQ237" s="33"/>
-      <c r="BR237" s="33"/>
+      <c r="BQ237" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR237" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS237" s="33"/>
       <c r="BT237" s="33"/>
       <c r="BU237" s="33"/>
@@ -72324,8 +73608,12 @@
       <c r="BP238" s="33">
         <v>98.24</v>
       </c>
-      <c r="BQ238" s="33"/>
-      <c r="BR238" s="33"/>
+      <c r="BQ238" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR238" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS238" s="33"/>
       <c r="BT238" s="33"/>
       <c r="BU238" s="33"/>
@@ -72540,8 +73828,12 @@
       <c r="BP239" s="33">
         <v>99.77</v>
       </c>
-      <c r="BQ239" s="33"/>
-      <c r="BR239" s="33"/>
+      <c r="BQ239" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR239" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS239" s="33"/>
       <c r="BT239" s="33"/>
       <c r="BU239" s="33"/>
@@ -72756,8 +74048,12 @@
       <c r="BP240" s="33">
         <v>98.95</v>
       </c>
-      <c r="BQ240" s="33"/>
-      <c r="BR240" s="33"/>
+      <c r="BQ240" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR240" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS240" s="33"/>
       <c r="BT240" s="33"/>
       <c r="BU240" s="33"/>
@@ -72972,8 +74268,12 @@
       <c r="BP241" s="33">
         <v>98.76</v>
       </c>
-      <c r="BQ241" s="33"/>
-      <c r="BR241" s="33"/>
+      <c r="BQ241" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR241" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS241" s="33"/>
       <c r="BT241" s="33"/>
       <c r="BU241" s="33"/>
@@ -73188,8 +74488,12 @@
       <c r="BP242" s="33">
         <v>100.59</v>
       </c>
-      <c r="BQ242" s="33"/>
-      <c r="BR242" s="33"/>
+      <c r="BQ242" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR242" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS242" s="33"/>
       <c r="BT242" s="33"/>
       <c r="BU242" s="33"/>
@@ -73404,8 +74708,12 @@
       <c r="BP243" s="33">
         <v>98.57</v>
       </c>
-      <c r="BQ243" s="33"/>
-      <c r="BR243" s="33"/>
+      <c r="BQ243" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR243" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS243" s="33"/>
       <c r="BT243" s="33"/>
       <c r="BU243" s="33"/>
@@ -73620,8 +74928,12 @@
       <c r="BP244" s="33">
         <v>99.78</v>
       </c>
-      <c r="BQ244" s="33"/>
-      <c r="BR244" s="33"/>
+      <c r="BQ244" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR244" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS244" s="33"/>
       <c r="BT244" s="33"/>
       <c r="BU244" s="33"/>
@@ -73836,8 +75148,12 @@
       <c r="BP245" s="33">
         <v>99.48</v>
       </c>
-      <c r="BQ245" s="33"/>
-      <c r="BR245" s="33"/>
+      <c r="BQ245" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR245" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS245" s="33"/>
       <c r="BT245" s="33"/>
       <c r="BU245" s="33"/>
@@ -74052,8 +75368,12 @@
       <c r="BP246" s="33">
         <v>98.66</v>
       </c>
-      <c r="BQ246" s="33"/>
-      <c r="BR246" s="33"/>
+      <c r="BQ246" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR246" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS246" s="33"/>
       <c r="BT246" s="33"/>
       <c r="BU246" s="33"/>
@@ -74268,8 +75588,12 @@
       <c r="BP247" s="33">
         <v>101.08</v>
       </c>
-      <c r="BQ247" s="33"/>
-      <c r="BR247" s="33"/>
+      <c r="BQ247" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR247" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS247" s="33"/>
       <c r="BT247" s="33"/>
       <c r="BU247" s="33"/>
@@ -74484,8 +75808,12 @@
       <c r="BP248" s="33">
         <v>102.68</v>
       </c>
-      <c r="BQ248" s="33"/>
-      <c r="BR248" s="33"/>
+      <c r="BQ248" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR248" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS248" s="33"/>
       <c r="BT248" s="33"/>
       <c r="BU248" s="33"/>
@@ -74700,8 +76028,12 @@
       <c r="BP249" s="33">
         <v>103.13</v>
       </c>
-      <c r="BQ249" s="33"/>
-      <c r="BR249" s="33"/>
+      <c r="BQ249" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR249" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS249" s="33"/>
       <c r="BT249" s="33"/>
       <c r="BU249" s="33"/>
@@ -74916,8 +76248,12 @@
       <c r="BP250" s="33">
         <v>102.37</v>
       </c>
-      <c r="BQ250" s="33"/>
-      <c r="BR250" s="33"/>
+      <c r="BQ250" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR250" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS250" s="33"/>
       <c r="BT250" s="33"/>
       <c r="BU250" s="33"/>
@@ -75132,8 +76468,12 @@
       <c r="BP251" s="33">
         <v>101.67</v>
       </c>
-      <c r="BQ251" s="33"/>
-      <c r="BR251" s="33"/>
+      <c r="BQ251" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR251" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS251" s="33"/>
       <c r="BT251" s="33"/>
       <c r="BU251" s="33"/>
@@ -75348,8 +76688,12 @@
       <c r="BP252" s="33">
         <v>102.74</v>
       </c>
-      <c r="BQ252" s="33"/>
-      <c r="BR252" s="33"/>
+      <c r="BQ252" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR252" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS252" s="33"/>
       <c r="BT252" s="33"/>
       <c r="BU252" s="33"/>
@@ -75564,8 +76908,12 @@
       <c r="BP253" s="33">
         <v>103.15</v>
       </c>
-      <c r="BQ253" s="33"/>
-      <c r="BR253" s="33"/>
+      <c r="BQ253" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR253" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS253" s="33"/>
       <c r="BT253" s="33"/>
       <c r="BU253" s="33"/>
@@ -75780,8 +77128,12 @@
       <c r="BP254" s="33">
         <v>100.95</v>
       </c>
-      <c r="BQ254" s="33"/>
-      <c r="BR254" s="33"/>
+      <c r="BQ254" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR254" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS254" s="33"/>
       <c r="BT254" s="33"/>
       <c r="BU254" s="33"/>
@@ -75996,8 +77348,12 @@
       <c r="BP255" s="33">
         <v>101.81</v>
       </c>
-      <c r="BQ255" s="33"/>
-      <c r="BR255" s="33"/>
+      <c r="BQ255" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR255" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS255" s="33"/>
       <c r="BT255" s="33"/>
       <c r="BU255" s="33"/>
@@ -76212,8 +77568,12 @@
       <c r="BP256" s="33">
         <v>102.84</v>
       </c>
-      <c r="BQ256" s="33"/>
-      <c r="BR256" s="33"/>
+      <c r="BQ256" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR256" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS256" s="33"/>
       <c r="BT256" s="33"/>
       <c r="BU256" s="33"/>
@@ -76428,8 +77788,12 @@
       <c r="BP257" s="33">
         <v>101.75</v>
       </c>
-      <c r="BQ257" s="33"/>
-      <c r="BR257" s="33"/>
+      <c r="BQ257" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR257" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS257" s="33"/>
       <c r="BT257" s="33"/>
       <c r="BU257" s="33"/>
@@ -76644,8 +78008,12 @@
       <c r="BP258" s="33">
         <v>101.98</v>
       </c>
-      <c r="BQ258" s="33"/>
-      <c r="BR258" s="33"/>
+      <c r="BQ258" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR258" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS258" s="33"/>
       <c r="BT258" s="33"/>
       <c r="BU258" s="33"/>
@@ -76860,8 +78228,12 @@
       <c r="BP259" s="33">
         <v>101.71</v>
       </c>
-      <c r="BQ259" s="33"/>
-      <c r="BR259" s="33"/>
+      <c r="BQ259" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR259" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS259" s="33"/>
       <c r="BT259" s="33"/>
       <c r="BU259" s="33"/>
@@ -77076,8 +78448,12 @@
       <c r="BP260" s="33">
         <v>102.62</v>
       </c>
-      <c r="BQ260" s="33"/>
-      <c r="BR260" s="33"/>
+      <c r="BQ260" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR260" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS260" s="33"/>
       <c r="BT260" s="33"/>
       <c r="BU260" s="33"/>
@@ -77292,8 +78668,12 @@
       <c r="BP261" s="33">
         <v>103.36</v>
       </c>
-      <c r="BQ261" s="33"/>
-      <c r="BR261" s="33"/>
+      <c r="BQ261" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR261" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS261" s="33"/>
       <c r="BT261" s="33"/>
       <c r="BU261" s="33"/>
@@ -77508,8 +78888,12 @@
       <c r="BP262" s="33">
         <v>101.36</v>
       </c>
-      <c r="BQ262" s="33"/>
-      <c r="BR262" s="33"/>
+      <c r="BQ262" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR262" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS262" s="33"/>
       <c r="BT262" s="33"/>
       <c r="BU262" s="33"/>
@@ -77724,8 +79108,12 @@
       <c r="BP263" s="33">
         <v>102.14</v>
       </c>
-      <c r="BQ263" s="33"/>
-      <c r="BR263" s="33"/>
+      <c r="BQ263" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR263" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS263" s="33"/>
       <c r="BT263" s="33"/>
       <c r="BU263" s="33"/>
@@ -77940,8 +79328,12 @@
       <c r="BP264" s="33">
         <v>102</v>
       </c>
-      <c r="BQ264" s="33"/>
-      <c r="BR264" s="33"/>
+      <c r="BQ264" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR264" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS264" s="33"/>
       <c r="BT264" s="33"/>
       <c r="BU264" s="33"/>
@@ -78156,8 +79548,12 @@
       <c r="BP265" s="33">
         <v>102.6</v>
       </c>
-      <c r="BQ265" s="33"/>
-      <c r="BR265" s="33"/>
+      <c r="BQ265" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR265" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS265" s="33"/>
       <c r="BT265" s="33"/>
       <c r="BU265" s="33"/>
@@ -78372,8 +79768,12 @@
       <c r="BP266" s="33">
         <v>100.27</v>
       </c>
-      <c r="BQ266" s="33"/>
-      <c r="BR266" s="33"/>
+      <c r="BQ266" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR266" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS266" s="33"/>
       <c r="BT266" s="33"/>
       <c r="BU266" s="33"/>
@@ -78588,8 +79988,12 @@
       <c r="BP267" s="33">
         <v>99.65</v>
       </c>
-      <c r="BQ267" s="33"/>
-      <c r="BR267" s="33"/>
+      <c r="BQ267" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR267" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS267" s="33"/>
       <c r="BT267" s="33"/>
       <c r="BU267" s="33"/>
@@ -78804,8 +80208,12 @@
       <c r="BP268" s="33">
         <v>100.85</v>
       </c>
-      <c r="BQ268" s="33"/>
-      <c r="BR268" s="33"/>
+      <c r="BQ268" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR268" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS268" s="33"/>
       <c r="BT268" s="33"/>
       <c r="BU268" s="33"/>
@@ -79020,8 +80428,12 @@
       <c r="BP269" s="33">
         <v>98.11</v>
       </c>
-      <c r="BQ269" s="33"/>
-      <c r="BR269" s="33"/>
+      <c r="BQ269" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR269" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS269" s="33"/>
       <c r="BT269" s="33"/>
       <c r="BU269" s="33"/>
@@ -79236,8 +80648,12 @@
       <c r="BP270" s="33">
         <v>98.88</v>
       </c>
-      <c r="BQ270" s="33"/>
-      <c r="BR270" s="33"/>
+      <c r="BQ270" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR270" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS270" s="33"/>
       <c r="BT270" s="33"/>
       <c r="BU270" s="33"/>
@@ -79452,8 +80868,12 @@
       <c r="BP271" s="33">
         <v>98.59</v>
       </c>
-      <c r="BQ271" s="33"/>
-      <c r="BR271" s="33"/>
+      <c r="BQ271" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR271" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS271" s="33"/>
       <c r="BT271" s="33"/>
       <c r="BU271" s="33"/>
@@ -79668,8 +81088,12 @@
       <c r="BP272" s="33">
         <v>98.2</v>
       </c>
-      <c r="BQ272" s="33"/>
-      <c r="BR272" s="33"/>
+      <c r="BQ272" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR272" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS272" s="33"/>
       <c r="BT272" s="33"/>
       <c r="BU272" s="33"/>
@@ -79884,8 +81308,12 @@
       <c r="BP273" s="33">
         <v>98.13</v>
       </c>
-      <c r="BQ273" s="33"/>
-      <c r="BR273" s="33"/>
+      <c r="BQ273" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR273" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS273" s="33"/>
       <c r="BT273" s="33"/>
       <c r="BU273" s="33"/>
@@ -80100,8 +81528,12 @@
       <c r="BP274" s="33">
         <v>99.1</v>
       </c>
-      <c r="BQ274" s="33"/>
-      <c r="BR274" s="33"/>
+      <c r="BQ274" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR274" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS274" s="33"/>
       <c r="BT274" s="33"/>
       <c r="BU274" s="33"/>
@@ -80316,8 +81748,12 @@
       <c r="BP275" s="33">
         <v>101.8</v>
       </c>
-      <c r="BQ275" s="33"/>
-      <c r="BR275" s="33"/>
+      <c r="BQ275" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR275" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS275" s="33"/>
       <c r="BT275" s="33"/>
       <c r="BU275" s="33"/>
@@ -80532,8 +81968,12 @@
       <c r="BP276" s="33">
         <v>101.97</v>
       </c>
-      <c r="BQ276" s="33"/>
-      <c r="BR276" s="33"/>
+      <c r="BQ276" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR276" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS276" s="33"/>
       <c r="BT276" s="33"/>
       <c r="BU276" s="33"/>
@@ -80748,8 +82188,12 @@
       <c r="BP277" s="33">
         <v>100.18</v>
       </c>
-      <c r="BQ277" s="33"/>
-      <c r="BR277" s="33"/>
+      <c r="BQ277" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR277" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS277" s="33"/>
       <c r="BT277" s="33"/>
       <c r="BU277" s="33"/>
@@ -80964,8 +82408,12 @@
       <c r="BP278" s="33">
         <v>101.34</v>
       </c>
-      <c r="BQ278" s="33"/>
-      <c r="BR278" s="33"/>
+      <c r="BQ278" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR278" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS278" s="33"/>
       <c r="BT278" s="33"/>
       <c r="BU278" s="33"/>
@@ -81180,8 +82628,12 @@
       <c r="BP279" s="33">
         <v>104.51</v>
       </c>
-      <c r="BQ279" s="33"/>
-      <c r="BR279" s="33"/>
+      <c r="BQ279" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR279" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS279" s="33"/>
       <c r="BT279" s="33"/>
       <c r="BU279" s="33"/>
@@ -81396,8 +82848,12 @@
       <c r="BP280" s="33">
         <v>101.27</v>
       </c>
-      <c r="BQ280" s="33"/>
-      <c r="BR280" s="33"/>
+      <c r="BQ280" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR280" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS280" s="33"/>
       <c r="BT280" s="33"/>
       <c r="BU280" s="33"/>
@@ -81612,8 +83068,12 @@
       <c r="BP281" s="33">
         <v>101.42</v>
       </c>
-      <c r="BQ281" s="33"/>
-      <c r="BR281" s="33"/>
+      <c r="BQ281" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR281" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS281" s="33"/>
       <c r="BT281" s="33"/>
       <c r="BU281" s="33"/>
@@ -81828,8 +83288,12 @@
       <c r="BP282" s="33">
         <v>101.43</v>
       </c>
-      <c r="BQ282" s="33"/>
-      <c r="BR282" s="33"/>
+      <c r="BQ282" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR282" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS282" s="33"/>
       <c r="BT282" s="33"/>
       <c r="BU282" s="33"/>
@@ -82044,8 +83508,12 @@
       <c r="BP283" s="33">
         <v>102.21</v>
       </c>
-      <c r="BQ283" s="33"/>
-      <c r="BR283" s="33"/>
+      <c r="BQ283" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR283" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS283" s="33"/>
       <c r="BT283" s="33"/>
       <c r="BU283" s="33"/>
@@ -82260,8 +83728,12 @@
       <c r="BP284" s="33">
         <v>102.5</v>
       </c>
-      <c r="BQ284" s="33"/>
-      <c r="BR284" s="33"/>
+      <c r="BQ284" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR284" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS284" s="33"/>
       <c r="BT284" s="33"/>
       <c r="BU284" s="33"/>
@@ -82476,8 +83948,12 @@
       <c r="BP285" s="33">
         <v>102.06</v>
       </c>
-      <c r="BQ285" s="33"/>
-      <c r="BR285" s="33"/>
+      <c r="BQ285" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR285" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS285" s="33"/>
       <c r="BT285" s="33"/>
       <c r="BU285" s="33"/>
@@ -82692,8 +84168,12 @@
       <c r="BP286" s="33">
         <v>101.98</v>
       </c>
-      <c r="BQ286" s="33"/>
-      <c r="BR286" s="33"/>
+      <c r="BQ286" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR286" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS286" s="33"/>
       <c r="BT286" s="33"/>
       <c r="BU286" s="33"/>
@@ -82908,8 +84388,12 @@
       <c r="BP287" s="33">
         <v>102.33</v>
       </c>
-      <c r="BQ287" s="33"/>
-      <c r="BR287" s="33"/>
+      <c r="BQ287" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR287" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS287" s="33"/>
       <c r="BT287" s="33"/>
       <c r="BU287" s="33"/>
@@ -83124,8 +84608,12 @@
       <c r="BP288" s="33">
         <v>101.94</v>
       </c>
-      <c r="BQ288" s="33"/>
-      <c r="BR288" s="33"/>
+      <c r="BQ288" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR288" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS288" s="33"/>
       <c r="BT288" s="33"/>
       <c r="BU288" s="33"/>
@@ -83340,8 +84828,12 @@
       <c r="BP289" s="33">
         <v>104.1</v>
       </c>
-      <c r="BQ289" s="33"/>
-      <c r="BR289" s="33"/>
+      <c r="BQ289" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR289" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS289" s="33"/>
       <c r="BT289" s="33"/>
       <c r="BU289" s="33"/>
@@ -83556,8 +85048,12 @@
       <c r="BP290" s="33">
         <v>102.72</v>
       </c>
-      <c r="BQ290" s="33"/>
-      <c r="BR290" s="33"/>
+      <c r="BQ290" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR290" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS290" s="33"/>
       <c r="BT290" s="33"/>
       <c r="BU290" s="33"/>
@@ -83772,8 +85268,12 @@
       <c r="BP291" s="33">
         <v>102.18</v>
       </c>
-      <c r="BQ291" s="33"/>
-      <c r="BR291" s="33"/>
+      <c r="BQ291" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR291" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS291" s="33"/>
       <c r="BT291" s="33"/>
       <c r="BU291" s="33"/>
@@ -83988,8 +85488,12 @@
       <c r="BP292" s="33">
         <v>101.73</v>
       </c>
-      <c r="BQ292" s="33"/>
-      <c r="BR292" s="33"/>
+      <c r="BQ292" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR292" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS292" s="33"/>
       <c r="BT292" s="33"/>
       <c r="BU292" s="33"/>
@@ -84204,8 +85708,12 @@
       <c r="BP293" s="33">
         <v>102.21</v>
       </c>
-      <c r="BQ293" s="33"/>
-      <c r="BR293" s="33"/>
+      <c r="BQ293" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR293" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS293" s="33"/>
       <c r="BT293" s="33"/>
       <c r="BU293" s="33"/>
@@ -84420,8 +85928,12 @@
       <c r="BP294" s="33">
         <v>101.82</v>
       </c>
-      <c r="BQ294" s="33"/>
-      <c r="BR294" s="33"/>
+      <c r="BQ294" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR294" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS294" s="33"/>
       <c r="BT294" s="33"/>
       <c r="BU294" s="33"/>
@@ -84636,8 +86148,12 @@
       <c r="BP295" s="33">
         <v>102.34</v>
       </c>
-      <c r="BQ295" s="33"/>
-      <c r="BR295" s="33"/>
+      <c r="BQ295" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR295" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS295" s="33"/>
       <c r="BT295" s="33"/>
       <c r="BU295" s="33"/>
@@ -84852,8 +86368,12 @@
       <c r="BP296" s="33">
         <v>102.95</v>
       </c>
-      <c r="BQ296" s="33"/>
-      <c r="BR296" s="33"/>
+      <c r="BQ296" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR296" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS296" s="33"/>
       <c r="BT296" s="33"/>
       <c r="BU296" s="33"/>
@@ -85068,8 +86588,12 @@
       <c r="BP297" s="33">
         <v>103.29</v>
       </c>
-      <c r="BQ297" s="33"/>
-      <c r="BR297" s="33"/>
+      <c r="BQ297" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR297" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS297" s="33"/>
       <c r="BT297" s="33"/>
       <c r="BU297" s="33"/>
@@ -85284,8 +86808,12 @@
       <c r="BP298" s="33">
         <v>102.71</v>
       </c>
-      <c r="BQ298" s="33"/>
-      <c r="BR298" s="33"/>
+      <c r="BQ298" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR298" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS298" s="33"/>
       <c r="BT298" s="33"/>
       <c r="BU298" s="33"/>
@@ -85500,8 +87028,12 @@
       <c r="BP299" s="33">
         <v>100.23</v>
       </c>
-      <c r="BQ299" s="33"/>
-      <c r="BR299" s="33"/>
+      <c r="BQ299" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR299" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS299" s="33"/>
       <c r="BT299" s="33"/>
       <c r="BU299" s="33"/>
@@ -85716,8 +87248,12 @@
       <c r="BP300" s="33">
         <v>99.64</v>
       </c>
-      <c r="BQ300" s="33"/>
-      <c r="BR300" s="33"/>
+      <c r="BQ300" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR300" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS300" s="33"/>
       <c r="BT300" s="33"/>
       <c r="BU300" s="33"/>
@@ -85932,8 +87468,12 @@
       <c r="BP301" s="33">
         <v>98.99</v>
       </c>
-      <c r="BQ301" s="33"/>
-      <c r="BR301" s="33"/>
+      <c r="BQ301" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR301" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS301" s="33"/>
       <c r="BT301" s="33"/>
       <c r="BU301" s="33"/>
@@ -86148,8 +87688,12 @@
       <c r="BP302" s="33">
         <v>98.78</v>
       </c>
-      <c r="BQ302" s="33"/>
-      <c r="BR302" s="33"/>
+      <c r="BQ302" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR302" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS302" s="33"/>
       <c r="BT302" s="33"/>
       <c r="BU302" s="33"/>
@@ -86364,8 +87908,12 @@
       <c r="BP303" s="33">
         <v>98.22</v>
       </c>
-      <c r="BQ303" s="33"/>
-      <c r="BR303" s="33"/>
+      <c r="BQ303" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR303" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS303" s="33"/>
       <c r="BT303" s="33"/>
       <c r="BU303" s="33"/>
@@ -86580,8 +88128,12 @@
       <c r="BP304" s="33">
         <v>102.76</v>
       </c>
-      <c r="BQ304" s="33"/>
-      <c r="BR304" s="33"/>
+      <c r="BQ304" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR304" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS304" s="33"/>
       <c r="BT304" s="33"/>
       <c r="BU304" s="33"/>
@@ -86796,8 +88348,12 @@
       <c r="BP305" s="33">
         <v>99.91</v>
       </c>
-      <c r="BQ305" s="33"/>
-      <c r="BR305" s="33"/>
+      <c r="BQ305" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR305" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS305" s="33"/>
       <c r="BT305" s="33"/>
       <c r="BU305" s="33"/>
@@ -87012,8 +88568,12 @@
       <c r="BP306" s="33">
         <v>102.2</v>
       </c>
-      <c r="BQ306" s="33"/>
-      <c r="BR306" s="33"/>
+      <c r="BQ306" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR306" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS306" s="33"/>
       <c r="BT306" s="33"/>
       <c r="BU306" s="33"/>
@@ -87228,8 +88788,12 @@
       <c r="BP307" s="33">
         <v>100.22</v>
       </c>
-      <c r="BQ307" s="33"/>
-      <c r="BR307" s="33"/>
+      <c r="BQ307" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR307" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS307" s="33"/>
       <c r="BT307" s="33"/>
       <c r="BU307" s="33"/>
@@ -87444,8 +89008,12 @@
       <c r="BP308" s="33">
         <v>99.88</v>
       </c>
-      <c r="BQ308" s="33"/>
-      <c r="BR308" s="33"/>
+      <c r="BQ308" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR308" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS308" s="33"/>
       <c r="BT308" s="33"/>
       <c r="BU308" s="33"/>
@@ -87660,8 +89228,12 @@
       <c r="BP309" s="33">
         <v>97.69</v>
       </c>
-      <c r="BQ309" s="33"/>
-      <c r="BR309" s="33"/>
+      <c r="BQ309" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR309" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS309" s="33"/>
       <c r="BT309" s="33"/>
       <c r="BU309" s="33"/>
@@ -87876,8 +89448,12 @@
       <c r="BP310" s="33">
         <v>97.6</v>
       </c>
-      <c r="BQ310" s="33"/>
-      <c r="BR310" s="33"/>
+      <c r="BQ310" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR310" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS310" s="33"/>
       <c r="BT310" s="33"/>
       <c r="BU310" s="33"/>
@@ -88092,8 +89668,12 @@
       <c r="BP311" s="33">
         <v>99.63</v>
       </c>
-      <c r="BQ311" s="33"/>
-      <c r="BR311" s="33"/>
+      <c r="BQ311" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR311" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS311" s="33"/>
       <c r="BT311" s="33"/>
       <c r="BU311" s="33"/>
@@ -88308,8 +89888,12 @@
       <c r="BP312" s="33">
         <v>99.3</v>
       </c>
-      <c r="BQ312" s="33"/>
-      <c r="BR312" s="33"/>
+      <c r="BQ312" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR312" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS312" s="33"/>
       <c r="BT312" s="33"/>
       <c r="BU312" s="33"/>
@@ -88524,8 +90108,12 @@
       <c r="BP313" s="33">
         <v>99.85</v>
       </c>
-      <c r="BQ313" s="33"/>
-      <c r="BR313" s="33"/>
+      <c r="BQ313" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR313" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS313" s="33"/>
       <c r="BT313" s="33"/>
       <c r="BU313" s="33"/>
@@ -88740,8 +90328,12 @@
       <c r="BP314" s="33">
         <v>97.73</v>
       </c>
-      <c r="BQ314" s="33"/>
-      <c r="BR314" s="33"/>
+      <c r="BQ314" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR314" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS314" s="33"/>
       <c r="BT314" s="33"/>
       <c r="BU314" s="33"/>
@@ -88956,8 +90548,12 @@
       <c r="BP315" s="33">
         <v>98.33</v>
       </c>
-      <c r="BQ315" s="33"/>
-      <c r="BR315" s="33"/>
+      <c r="BQ315" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR315" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS315" s="33"/>
       <c r="BT315" s="33"/>
       <c r="BU315" s="33"/>
@@ -89172,8 +90768,12 @@
       <c r="BP316" s="33">
         <v>98.75</v>
       </c>
-      <c r="BQ316" s="33"/>
-      <c r="BR316" s="33"/>
+      <c r="BQ316" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR316" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS316" s="33"/>
       <c r="BT316" s="33"/>
       <c r="BU316" s="33"/>
@@ -89388,8 +90988,12 @@
       <c r="BP317" s="33">
         <v>97.41</v>
       </c>
-      <c r="BQ317" s="33"/>
-      <c r="BR317" s="33"/>
+      <c r="BQ317" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR317" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS317" s="33"/>
       <c r="BT317" s="33"/>
       <c r="BU317" s="33"/>
@@ -89604,8 +91208,12 @@
       <c r="BP318" s="33">
         <v>98.4</v>
       </c>
-      <c r="BQ318" s="33"/>
-      <c r="BR318" s="33"/>
+      <c r="BQ318" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR318" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS318" s="33"/>
       <c r="BT318" s="33"/>
       <c r="BU318" s="33"/>
@@ -89820,8 +91428,12 @@
       <c r="BP319" s="33">
         <v>99.1</v>
       </c>
-      <c r="BQ319" s="33"/>
-      <c r="BR319" s="33"/>
+      <c r="BQ319" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR319" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS319" s="33"/>
       <c r="BT319" s="33"/>
       <c r="BU319" s="33"/>
@@ -90036,8 +91648,12 @@
       <c r="BP320" s="33">
         <v>96.54</v>
       </c>
-      <c r="BQ320" s="33"/>
-      <c r="BR320" s="33"/>
+      <c r="BQ320" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR320" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS320" s="33"/>
       <c r="BT320" s="33"/>
       <c r="BU320" s="33"/>
@@ -90252,8 +91868,12 @@
       <c r="BP321" s="33">
         <v>100.33</v>
       </c>
-      <c r="BQ321" s="33"/>
-      <c r="BR321" s="33"/>
+      <c r="BQ321" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR321" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS321" s="33"/>
       <c r="BT321" s="33"/>
       <c r="BU321" s="33"/>
@@ -90468,8 +92088,12 @@
       <c r="BP322" s="33">
         <v>99.46</v>
       </c>
-      <c r="BQ322" s="33"/>
-      <c r="BR322" s="33"/>
+      <c r="BQ322" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR322" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS322" s="33"/>
       <c r="BT322" s="33"/>
       <c r="BU322" s="33"/>
@@ -90684,8 +92308,12 @@
       <c r="BP323" s="33">
         <v>100.47</v>
       </c>
-      <c r="BQ323" s="33"/>
-      <c r="BR323" s="33"/>
+      <c r="BQ323" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR323" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS323" s="33"/>
       <c r="BT323" s="33"/>
       <c r="BU323" s="33"/>
@@ -90900,8 +92528,12 @@
       <c r="BP324" s="33">
         <v>102.64</v>
       </c>
-      <c r="BQ324" s="33"/>
-      <c r="BR324" s="33"/>
+      <c r="BQ324" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR324" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS324" s="33"/>
       <c r="BT324" s="33"/>
       <c r="BU324" s="33"/>
@@ -91116,8 +92748,12 @@
       <c r="BP325" s="33">
         <v>103.54</v>
       </c>
-      <c r="BQ325" s="33"/>
-      <c r="BR325" s="33"/>
+      <c r="BQ325" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR325" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS325" s="33"/>
       <c r="BT325" s="33"/>
       <c r="BU325" s="33"/>
@@ -91332,8 +92968,12 @@
       <c r="BP326" s="33">
         <v>101.58</v>
       </c>
-      <c r="BQ326" s="33"/>
-      <c r="BR326" s="33"/>
+      <c r="BQ326" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR326" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS326" s="33"/>
       <c r="BT326" s="33"/>
       <c r="BU326" s="33"/>
@@ -91548,8 +93188,12 @@
       <c r="BP327" s="33">
         <v>101.43</v>
       </c>
-      <c r="BQ327" s="33"/>
-      <c r="BR327" s="33"/>
+      <c r="BQ327" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR327" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS327" s="33"/>
       <c r="BT327" s="33"/>
       <c r="BU327" s="33"/>
@@ -91764,8 +93408,12 @@
       <c r="BP328" s="33">
         <v>97.47</v>
       </c>
-      <c r="BQ328" s="33"/>
-      <c r="BR328" s="33"/>
+      <c r="BQ328" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR328" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS328" s="33"/>
       <c r="BT328" s="33"/>
       <c r="BU328" s="33"/>
@@ -91980,8 +93628,12 @@
       <c r="BP329" s="33">
         <v>102.12</v>
       </c>
-      <c r="BQ329" s="33"/>
-      <c r="BR329" s="33"/>
+      <c r="BQ329" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR329" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS329" s="33"/>
       <c r="BT329" s="33"/>
       <c r="BU329" s="33"/>
@@ -92196,8 +93848,12 @@
       <c r="BP330" s="33">
         <v>104.85</v>
       </c>
-      <c r="BQ330" s="33"/>
-      <c r="BR330" s="33"/>
+      <c r="BQ330" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR330" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS330" s="33"/>
       <c r="BT330" s="33"/>
       <c r="BU330" s="33"/>
@@ -92412,8 +94068,12 @@
       <c r="BP331" s="33">
         <v>108.18</v>
       </c>
-      <c r="BQ331" s="33"/>
-      <c r="BR331" s="33"/>
+      <c r="BQ331" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR331" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS331" s="33"/>
       <c r="BT331" s="33"/>
       <c r="BU331" s="33"/>
@@ -92628,8 +94288,12 @@
       <c r="BP332" s="33">
         <v>102.6</v>
       </c>
-      <c r="BQ332" s="33"/>
-      <c r="BR332" s="33"/>
+      <c r="BQ332" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR332" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS332" s="33"/>
       <c r="BT332" s="33"/>
       <c r="BU332" s="33"/>
@@ -92844,8 +94508,12 @@
       <c r="BP333" s="33">
         <v>98.57</v>
       </c>
-      <c r="BQ333" s="33"/>
-      <c r="BR333" s="33"/>
+      <c r="BQ333" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR333" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS333" s="33"/>
       <c r="BT333" s="33"/>
       <c r="BU333" s="33"/>
@@ -93060,8 +94728,12 @@
       <c r="BP334" s="33">
         <v>94.61</v>
       </c>
-      <c r="BQ334" s="33"/>
-      <c r="BR334" s="33"/>
+      <c r="BQ334" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR334" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS334" s="33"/>
       <c r="BT334" s="33"/>
       <c r="BU334" s="33"/>
@@ -93276,8 +94948,12 @@
       <c r="BP335" s="33">
         <v>98.97</v>
       </c>
-      <c r="BQ335" s="33"/>
-      <c r="BR335" s="33"/>
+      <c r="BQ335" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR335" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS335" s="33"/>
       <c r="BT335" s="33"/>
       <c r="BU335" s="33"/>
@@ -93492,8 +95168,12 @@
       <c r="BP336" s="33">
         <v>100.17</v>
       </c>
-      <c r="BQ336" s="33"/>
-      <c r="BR336" s="33"/>
+      <c r="BQ336" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR336" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS336" s="33"/>
       <c r="BT336" s="33"/>
       <c r="BU336" s="33"/>
@@ -93708,8 +95388,12 @@
       <c r="BP337" s="33">
         <v>99.22</v>
       </c>
-      <c r="BQ337" s="33"/>
-      <c r="BR337" s="33"/>
+      <c r="BQ337" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR337" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS337" s="33"/>
       <c r="BT337" s="33"/>
       <c r="BU337" s="33"/>
@@ -93924,8 +95608,12 @@
       <c r="BP338" s="33">
         <v>98.8</v>
       </c>
-      <c r="BQ338" s="33"/>
-      <c r="BR338" s="33"/>
+      <c r="BQ338" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR338" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS338" s="33"/>
       <c r="BT338" s="33"/>
       <c r="BU338" s="33"/>
@@ -94140,8 +95828,12 @@
       <c r="BP339" s="33">
         <v>100.17</v>
       </c>
-      <c r="BQ339" s="33"/>
-      <c r="BR339" s="33"/>
+      <c r="BQ339" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR339" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS339" s="33"/>
       <c r="BT339" s="33"/>
       <c r="BU339" s="33"/>
@@ -94356,8 +96048,12 @@
       <c r="BP340" s="33">
         <v>100.2</v>
       </c>
-      <c r="BQ340" s="33"/>
-      <c r="BR340" s="33"/>
+      <c r="BQ340" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR340" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS340" s="33"/>
       <c r="BT340" s="33"/>
       <c r="BU340" s="33"/>
@@ -94572,8 +96268,12 @@
       <c r="BP341" s="33">
         <v>98.42</v>
       </c>
-      <c r="BQ341" s="33"/>
-      <c r="BR341" s="33"/>
+      <c r="BQ341" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR341" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS341" s="33"/>
       <c r="BT341" s="33"/>
       <c r="BU341" s="33"/>
@@ -94788,8 +96488,12 @@
       <c r="BP342" s="33">
         <v>94.87</v>
       </c>
-      <c r="BQ342" s="33"/>
-      <c r="BR342" s="33"/>
+      <c r="BQ342" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR342" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BS342" s="33"/>
       <c r="BT342" s="33"/>
       <c r="BU342" s="33"/>
@@ -95004,6 +96708,12 @@
       <c r="BP343" s="36">
         <v>107.72</v>
       </c>
+      <c r="BQ343" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR343" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -95210,6 +96920,12 @@
       <c r="BP344" s="36">
         <v>127.87</v>
       </c>
+      <c r="BQ344" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR344" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -95416,6 +97132,12 @@
       <c r="BP345" s="36">
         <v>168.3</v>
       </c>
+      <c r="BQ345" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR345" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -95622,10 +97344,16 @@
       <c r="BP346" s="36">
         <v>99.92</v>
       </c>
+      <c r="BQ346" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR346" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="348" spans="1:78" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/payrolls/6160055001_DO005.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO005.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E9634E-46E7-4630-BD24-8761F37E5003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79EB277-83E2-4F8D-9853-6FE218054AE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="460">
   <si>
     <t>1. NSW</t>
   </si>
@@ -1416,10 +1416,10 @@
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Statistical Area Level 4 (SA4) and Statistical Area Level 3 (SA3)</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 28 April 2021</t>
+    <t>Released at 11.30am (Canberra time) 11 May 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 10 April 2021</t>
+    <t>Week ending Saturday 24 April 2021</t>
   </si>
 </sst>
 </file>
@@ -2859,149 +2859,153 @@
       <c r="V6" s="32">
         <v>43967</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="32">
         <v>43974</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="32">
         <v>43981</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="32">
         <v>43988</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="32">
         <v>43995</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="32">
         <v>44002</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="32">
         <v>44009</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="32">
         <v>44016</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="32">
         <v>44023</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AE6" s="32">
         <v>44030</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="32">
         <v>44037</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AG6" s="32">
         <v>44044</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="32">
         <v>44051</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AI6" s="32">
         <v>44058</v>
       </c>
-      <c r="AJ6" s="9">
+      <c r="AJ6" s="32">
         <v>44065</v>
       </c>
-      <c r="AK6" s="9">
+      <c r="AK6" s="32">
         <v>44072</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AL6" s="32">
         <v>44079</v>
       </c>
-      <c r="AM6" s="9">
+      <c r="AM6" s="32">
         <v>44086</v>
       </c>
-      <c r="AN6" s="9">
+      <c r="AN6" s="32">
         <v>44093</v>
       </c>
-      <c r="AO6" s="9">
+      <c r="AO6" s="32">
         <v>44100</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AP6" s="32">
         <v>44107</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AQ6" s="32">
         <v>44114</v>
       </c>
-      <c r="AR6" s="9">
+      <c r="AR6" s="32">
         <v>44121</v>
       </c>
-      <c r="AS6" s="9">
+      <c r="AS6" s="32">
         <v>44128</v>
       </c>
-      <c r="AT6" s="9">
+      <c r="AT6" s="32">
         <v>44135</v>
       </c>
-      <c r="AU6" s="9">
+      <c r="AU6" s="32">
         <v>44142</v>
       </c>
-      <c r="AV6" s="9">
+      <c r="AV6" s="32">
         <v>44149</v>
       </c>
-      <c r="AW6" s="9">
+      <c r="AW6" s="32">
         <v>44156</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="32">
         <v>44163</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY6" s="32">
         <v>44170</v>
       </c>
-      <c r="AZ6" s="9">
+      <c r="AZ6" s="32">
         <v>44177</v>
       </c>
-      <c r="BA6" s="9">
+      <c r="BA6" s="32">
         <v>44184</v>
       </c>
-      <c r="BB6" s="9">
+      <c r="BB6" s="32">
         <v>44191</v>
       </c>
-      <c r="BC6" s="9">
+      <c r="BC6" s="32">
         <v>44198</v>
       </c>
-      <c r="BD6" s="9">
+      <c r="BD6" s="32">
         <v>44205</v>
       </c>
-      <c r="BE6" s="9">
+      <c r="BE6" s="32">
         <v>44212</v>
       </c>
-      <c r="BF6" s="9">
+      <c r="BF6" s="32">
         <v>44219</v>
       </c>
-      <c r="BG6" s="9">
+      <c r="BG6" s="32">
         <v>44226</v>
       </c>
-      <c r="BH6" s="9">
+      <c r="BH6" s="32">
         <v>44233</v>
       </c>
-      <c r="BI6" s="9">
+      <c r="BI6" s="32">
         <v>44240</v>
       </c>
-      <c r="BJ6" s="9">
+      <c r="BJ6" s="32">
         <v>44247</v>
       </c>
-      <c r="BK6" s="9">
+      <c r="BK6" s="32">
         <v>44254</v>
       </c>
-      <c r="BL6" s="9">
+      <c r="BL6" s="32">
         <v>44261</v>
       </c>
-      <c r="BM6" s="9">
+      <c r="BM6" s="32">
         <v>44268</v>
       </c>
-      <c r="BN6" s="9">
+      <c r="BN6" s="32">
         <v>44275</v>
       </c>
-      <c r="BO6" s="9">
+      <c r="BO6" s="32">
         <v>44282</v>
       </c>
-      <c r="BP6" s="9">
+      <c r="BP6" s="32">
         <v>44289</v>
       </c>
-      <c r="BQ6" s="9">
+      <c r="BQ6" s="32">
         <v>44296</v>
       </c>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
+      <c r="BR6" s="32">
+        <v>44303</v>
+      </c>
+      <c r="BS6" s="32">
+        <v>44310</v>
+      </c>
       <c r="BT6" s="9"/>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
@@ -3218,8 +3222,12 @@
       <c r="BQ7" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
+      <c r="BR7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS7" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT7" s="33"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
@@ -3436,8 +3444,12 @@
       <c r="BQ8" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
+      <c r="BR8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS8" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT8" s="33"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
@@ -3654,8 +3666,12 @@
       <c r="BQ9" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR9" s="33"/>
-      <c r="BS9" s="33"/>
+      <c r="BR9" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS9" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT9" s="33"/>
       <c r="BU9" s="33"/>
       <c r="BV9" s="33"/>
@@ -3872,8 +3888,12 @@
       <c r="BQ10" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR10" s="33"/>
-      <c r="BS10" s="33"/>
+      <c r="BR10" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS10" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
       <c r="BV10" s="33"/>
@@ -4090,8 +4110,12 @@
       <c r="BQ11" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
+      <c r="BR11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS11" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT11" s="33"/>
       <c r="BU11" s="33"/>
       <c r="BV11" s="33"/>
@@ -4308,8 +4332,12 @@
       <c r="BQ12" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
+      <c r="BR12" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS12" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT12" s="33"/>
       <c r="BU12" s="33"/>
       <c r="BV12" s="33"/>
@@ -4526,8 +4554,12 @@
       <c r="BQ13" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR13" s="33"/>
-      <c r="BS13" s="33"/>
+      <c r="BR13" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS13" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT13" s="33"/>
       <c r="BU13" s="33"/>
       <c r="BV13" s="33"/>
@@ -4744,8 +4776,12 @@
       <c r="BQ14" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
+      <c r="BR14" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS14" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT14" s="33"/>
       <c r="BU14" s="33"/>
       <c r="BV14" s="33"/>
@@ -4962,8 +4998,12 @@
       <c r="BQ15" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR15" s="33"/>
-      <c r="BS15" s="33"/>
+      <c r="BR15" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS15" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT15" s="33"/>
       <c r="BU15" s="33"/>
       <c r="BV15" s="33"/>
@@ -5180,8 +5220,12 @@
       <c r="BQ16" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR16" s="33"/>
-      <c r="BS16" s="33"/>
+      <c r="BR16" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS16" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT16" s="33"/>
       <c r="BU16" s="33"/>
       <c r="BV16" s="33"/>
@@ -5398,8 +5442,12 @@
       <c r="BQ17" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR17" s="33"/>
-      <c r="BS17" s="33"/>
+      <c r="BR17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS17" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT17" s="33"/>
       <c r="BU17" s="33"/>
       <c r="BV17" s="33"/>
@@ -5616,8 +5664,12 @@
       <c r="BQ18" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
+      <c r="BR18" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS18" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT18" s="33"/>
       <c r="BU18" s="33"/>
       <c r="BV18" s="33"/>
@@ -5834,8 +5886,12 @@
       <c r="BQ19" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR19" s="33"/>
-      <c r="BS19" s="33"/>
+      <c r="BR19" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS19" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT19" s="33"/>
       <c r="BU19" s="33"/>
       <c r="BV19" s="33"/>
@@ -6052,8 +6108,12 @@
       <c r="BQ20" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="33"/>
+      <c r="BR20" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS20" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT20" s="33"/>
       <c r="BU20" s="33"/>
       <c r="BV20" s="33"/>
@@ -6270,8 +6330,12 @@
       <c r="BQ21" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR21" s="33"/>
-      <c r="BS21" s="33"/>
+      <c r="BR21" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS21" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT21" s="33"/>
       <c r="BU21" s="33"/>
       <c r="BV21" s="33"/>
@@ -6488,8 +6552,12 @@
       <c r="BQ22" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR22" s="33"/>
-      <c r="BS22" s="33"/>
+      <c r="BR22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS22" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT22" s="33"/>
       <c r="BU22" s="33"/>
       <c r="BV22" s="33"/>
@@ -6706,8 +6774,12 @@
       <c r="BQ23" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR23" s="33"/>
-      <c r="BS23" s="33"/>
+      <c r="BR23" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS23" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT23" s="33"/>
       <c r="BU23" s="33"/>
       <c r="BV23" s="33"/>
@@ -6924,8 +6996,12 @@
       <c r="BQ24" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR24" s="33"/>
-      <c r="BS24" s="33"/>
+      <c r="BR24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS24" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT24" s="33"/>
       <c r="BU24" s="33"/>
       <c r="BV24" s="33"/>
@@ -7142,8 +7218,12 @@
       <c r="BQ25" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR25" s="33"/>
-      <c r="BS25" s="33"/>
+      <c r="BR25" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS25" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT25" s="33"/>
       <c r="BU25" s="33"/>
       <c r="BV25" s="33"/>
@@ -7360,8 +7440,12 @@
       <c r="BQ26" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR26" s="33"/>
-      <c r="BS26" s="33"/>
+      <c r="BR26" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS26" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT26" s="33"/>
       <c r="BU26" s="33"/>
       <c r="BV26" s="33"/>
@@ -7578,8 +7662,12 @@
       <c r="BQ27" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
+      <c r="BR27" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS27" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT27" s="33"/>
       <c r="BU27" s="33"/>
       <c r="BV27" s="33"/>
@@ -7796,8 +7884,12 @@
       <c r="BQ28" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR28" s="33"/>
-      <c r="BS28" s="33"/>
+      <c r="BR28" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS28" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT28" s="33"/>
       <c r="BU28" s="33"/>
       <c r="BV28" s="33"/>
@@ -8014,8 +8106,12 @@
       <c r="BQ29" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR29" s="33"/>
-      <c r="BS29" s="33"/>
+      <c r="BR29" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS29" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT29" s="33"/>
       <c r="BU29" s="33"/>
       <c r="BV29" s="33"/>
@@ -8232,8 +8328,12 @@
       <c r="BQ30" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR30" s="33"/>
-      <c r="BS30" s="33"/>
+      <c r="BR30" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS30" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT30" s="33"/>
       <c r="BU30" s="33"/>
       <c r="BV30" s="33"/>
@@ -8450,8 +8550,12 @@
       <c r="BQ31" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR31" s="33"/>
-      <c r="BS31" s="33"/>
+      <c r="BR31" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS31" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT31" s="33"/>
       <c r="BU31" s="33"/>
       <c r="BV31" s="33"/>
@@ -8668,8 +8772,12 @@
       <c r="BQ32" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR32" s="33"/>
-      <c r="BS32" s="33"/>
+      <c r="BR32" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS32" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT32" s="33"/>
       <c r="BU32" s="33"/>
       <c r="BV32" s="33"/>
@@ -8886,8 +8994,12 @@
       <c r="BQ33" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR33" s="33"/>
-      <c r="BS33" s="33"/>
+      <c r="BR33" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS33" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT33" s="33"/>
       <c r="BU33" s="33"/>
       <c r="BV33" s="33"/>
@@ -9104,8 +9216,12 @@
       <c r="BQ34" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR34" s="33"/>
-      <c r="BS34" s="33"/>
+      <c r="BR34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS34" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT34" s="33"/>
       <c r="BU34" s="33"/>
       <c r="BV34" s="33"/>
@@ -9322,8 +9438,12 @@
       <c r="BQ35" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR35" s="33"/>
-      <c r="BS35" s="33"/>
+      <c r="BR35" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS35" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT35" s="33"/>
       <c r="BU35" s="33"/>
       <c r="BV35" s="33"/>
@@ -9540,8 +9660,12 @@
       <c r="BQ36" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR36" s="33"/>
-      <c r="BS36" s="33"/>
+      <c r="BR36" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS36" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT36" s="33"/>
       <c r="BU36" s="33"/>
       <c r="BV36" s="33"/>
@@ -9758,8 +9882,12 @@
       <c r="BQ37" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR37" s="33"/>
-      <c r="BS37" s="33"/>
+      <c r="BR37" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS37" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT37" s="33"/>
       <c r="BU37" s="33"/>
       <c r="BV37" s="33"/>
@@ -9976,8 +10104,12 @@
       <c r="BQ38" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR38" s="33"/>
-      <c r="BS38" s="33"/>
+      <c r="BR38" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS38" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT38" s="33"/>
       <c r="BU38" s="33"/>
       <c r="BV38" s="33"/>
@@ -10194,8 +10326,12 @@
       <c r="BQ39" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR39" s="33"/>
-      <c r="BS39" s="33"/>
+      <c r="BR39" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS39" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT39" s="33"/>
       <c r="BU39" s="33"/>
       <c r="BV39" s="33"/>
@@ -10412,8 +10548,12 @@
       <c r="BQ40" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR40" s="33"/>
-      <c r="BS40" s="33"/>
+      <c r="BR40" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS40" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT40" s="33"/>
       <c r="BU40" s="33"/>
       <c r="BV40" s="33"/>
@@ -10630,8 +10770,12 @@
       <c r="BQ41" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR41" s="33"/>
-      <c r="BS41" s="33"/>
+      <c r="BR41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS41" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT41" s="33"/>
       <c r="BU41" s="33"/>
       <c r="BV41" s="33"/>
@@ -10848,8 +10992,12 @@
       <c r="BQ42" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR42" s="33"/>
-      <c r="BS42" s="33"/>
+      <c r="BR42" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS42" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT42" s="33"/>
       <c r="BU42" s="33"/>
       <c r="BV42" s="33"/>
@@ -11066,8 +11214,12 @@
       <c r="BQ43" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR43" s="33"/>
-      <c r="BS43" s="33"/>
+      <c r="BR43" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS43" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT43" s="33"/>
       <c r="BU43" s="33"/>
       <c r="BV43" s="33"/>
@@ -11284,8 +11436,12 @@
       <c r="BQ44" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR44" s="33"/>
-      <c r="BS44" s="33"/>
+      <c r="BR44" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS44" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT44" s="33"/>
       <c r="BU44" s="33"/>
       <c r="BV44" s="33"/>
@@ -11502,8 +11658,12 @@
       <c r="BQ45" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR45" s="33"/>
-      <c r="BS45" s="33"/>
+      <c r="BR45" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS45" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT45" s="33"/>
       <c r="BU45" s="33"/>
       <c r="BV45" s="33"/>
@@ -11720,8 +11880,12 @@
       <c r="BQ46" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR46" s="33"/>
-      <c r="BS46" s="33"/>
+      <c r="BR46" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS46" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT46" s="33"/>
       <c r="BU46" s="33"/>
       <c r="BV46" s="33"/>
@@ -11938,8 +12102,12 @@
       <c r="BQ47" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR47" s="33"/>
-      <c r="BS47" s="33"/>
+      <c r="BR47" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS47" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT47" s="33"/>
       <c r="BU47" s="33"/>
       <c r="BV47" s="33"/>
@@ -12156,8 +12324,12 @@
       <c r="BQ48" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR48" s="33"/>
-      <c r="BS48" s="33"/>
+      <c r="BR48" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS48" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT48" s="33"/>
       <c r="BU48" s="33"/>
       <c r="BV48" s="33"/>
@@ -12374,8 +12546,12 @@
       <c r="BQ49" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR49" s="33"/>
-      <c r="BS49" s="33"/>
+      <c r="BR49" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS49" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT49" s="33"/>
       <c r="BU49" s="33"/>
       <c r="BV49" s="33"/>
@@ -12592,8 +12768,12 @@
       <c r="BQ50" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR50" s="33"/>
-      <c r="BS50" s="33"/>
+      <c r="BR50" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS50" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT50" s="33"/>
       <c r="BU50" s="33"/>
       <c r="BV50" s="33"/>
@@ -12810,8 +12990,12 @@
       <c r="BQ51" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR51" s="33"/>
-      <c r="BS51" s="33"/>
+      <c r="BR51" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS51" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT51" s="33"/>
       <c r="BU51" s="33"/>
       <c r="BV51" s="33"/>
@@ -13028,8 +13212,12 @@
       <c r="BQ52" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR52" s="33"/>
-      <c r="BS52" s="33"/>
+      <c r="BR52" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS52" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT52" s="33"/>
       <c r="BU52" s="33"/>
       <c r="BV52" s="33"/>
@@ -13246,8 +13434,12 @@
       <c r="BQ53" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR53" s="33"/>
-      <c r="BS53" s="33"/>
+      <c r="BR53" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS53" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT53" s="33"/>
       <c r="BU53" s="33"/>
       <c r="BV53" s="33"/>
@@ -13464,8 +13656,12 @@
       <c r="BQ54" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR54" s="33"/>
-      <c r="BS54" s="33"/>
+      <c r="BR54" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS54" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT54" s="33"/>
       <c r="BU54" s="33"/>
       <c r="BV54" s="33"/>
@@ -13682,8 +13878,12 @@
       <c r="BQ55" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR55" s="33"/>
-      <c r="BS55" s="33"/>
+      <c r="BR55" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS55" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT55" s="33"/>
       <c r="BU55" s="33"/>
       <c r="BV55" s="33"/>
@@ -13900,8 +14100,12 @@
       <c r="BQ56" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR56" s="33"/>
-      <c r="BS56" s="33"/>
+      <c r="BR56" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS56" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT56" s="33"/>
       <c r="BU56" s="33"/>
       <c r="BV56" s="33"/>
@@ -14118,8 +14322,12 @@
       <c r="BQ57" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR57" s="33"/>
-      <c r="BS57" s="33"/>
+      <c r="BR57" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS57" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT57" s="33"/>
       <c r="BU57" s="33"/>
       <c r="BV57" s="33"/>
@@ -14336,8 +14544,12 @@
       <c r="BQ58" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR58" s="33"/>
-      <c r="BS58" s="33"/>
+      <c r="BR58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS58" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT58" s="33"/>
       <c r="BU58" s="33"/>
       <c r="BV58" s="33"/>
@@ -14554,8 +14766,12 @@
       <c r="BQ59" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR59" s="33"/>
-      <c r="BS59" s="33"/>
+      <c r="BR59" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS59" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT59" s="33"/>
       <c r="BU59" s="33"/>
       <c r="BV59" s="33"/>
@@ -14772,8 +14988,12 @@
       <c r="BQ60" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR60" s="33"/>
-      <c r="BS60" s="33"/>
+      <c r="BR60" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS60" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT60" s="33"/>
       <c r="BU60" s="33"/>
       <c r="BV60" s="33"/>
@@ -14990,8 +15210,12 @@
       <c r="BQ61" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR61" s="33"/>
-      <c r="BS61" s="33"/>
+      <c r="BR61" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS61" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT61" s="33"/>
       <c r="BU61" s="33"/>
       <c r="BV61" s="33"/>
@@ -15208,8 +15432,12 @@
       <c r="BQ62" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR62" s="33"/>
-      <c r="BS62" s="33"/>
+      <c r="BR62" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS62" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT62" s="33"/>
       <c r="BU62" s="33"/>
       <c r="BV62" s="33"/>
@@ -15426,8 +15654,12 @@
       <c r="BQ63" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR63" s="33"/>
-      <c r="BS63" s="33"/>
+      <c r="BR63" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS63" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT63" s="33"/>
       <c r="BU63" s="33"/>
       <c r="BV63" s="33"/>
@@ -15644,8 +15876,12 @@
       <c r="BQ64" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR64" s="33"/>
-      <c r="BS64" s="33"/>
+      <c r="BR64" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS64" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT64" s="33"/>
       <c r="BU64" s="33"/>
       <c r="BV64" s="33"/>
@@ -15862,8 +16098,12 @@
       <c r="BQ65" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR65" s="33"/>
-      <c r="BS65" s="33"/>
+      <c r="BR65" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS65" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT65" s="33"/>
       <c r="BU65" s="33"/>
       <c r="BV65" s="33"/>
@@ -16080,8 +16320,12 @@
       <c r="BQ66" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR66" s="33"/>
-      <c r="BS66" s="33"/>
+      <c r="BR66" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS66" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT66" s="33"/>
       <c r="BU66" s="33"/>
       <c r="BV66" s="33"/>
@@ -16298,8 +16542,12 @@
       <c r="BQ67" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR67" s="33"/>
-      <c r="BS67" s="33"/>
+      <c r="BR67" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS67" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT67" s="33"/>
       <c r="BU67" s="33"/>
       <c r="BV67" s="33"/>
@@ -16516,8 +16764,12 @@
       <c r="BQ68" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR68" s="33"/>
-      <c r="BS68" s="33"/>
+      <c r="BR68" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS68" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT68" s="33"/>
       <c r="BU68" s="33"/>
       <c r="BV68" s="33"/>
@@ -16734,8 +16986,12 @@
       <c r="BQ69" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR69" s="33"/>
-      <c r="BS69" s="33"/>
+      <c r="BR69" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS69" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT69" s="33"/>
       <c r="BU69" s="33"/>
       <c r="BV69" s="33"/>
@@ -16952,8 +17208,12 @@
       <c r="BQ70" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR70" s="33"/>
-      <c r="BS70" s="33"/>
+      <c r="BR70" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS70" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT70" s="33"/>
       <c r="BU70" s="33"/>
       <c r="BV70" s="33"/>
@@ -17170,8 +17430,12 @@
       <c r="BQ71" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR71" s="33"/>
-      <c r="BS71" s="33"/>
+      <c r="BR71" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS71" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT71" s="33"/>
       <c r="BU71" s="33"/>
       <c r="BV71" s="33"/>
@@ -17388,8 +17652,12 @@
       <c r="BQ72" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR72" s="33"/>
-      <c r="BS72" s="33"/>
+      <c r="BR72" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS72" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT72" s="33"/>
       <c r="BU72" s="33"/>
       <c r="BV72" s="33"/>
@@ -17606,8 +17874,12 @@
       <c r="BQ73" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR73" s="33"/>
-      <c r="BS73" s="33"/>
+      <c r="BR73" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS73" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT73" s="33"/>
       <c r="BU73" s="33"/>
       <c r="BV73" s="33"/>
@@ -17824,8 +18096,12 @@
       <c r="BQ74" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR74" s="33"/>
-      <c r="BS74" s="33"/>
+      <c r="BR74" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS74" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT74" s="33"/>
       <c r="BU74" s="33"/>
       <c r="BV74" s="33"/>
@@ -18042,8 +18318,12 @@
       <c r="BQ75" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR75" s="33"/>
-      <c r="BS75" s="33"/>
+      <c r="BR75" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS75" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT75" s="33"/>
       <c r="BU75" s="33"/>
       <c r="BV75" s="33"/>
@@ -18260,8 +18540,12 @@
       <c r="BQ76" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR76" s="33"/>
-      <c r="BS76" s="33"/>
+      <c r="BR76" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS76" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT76" s="33"/>
       <c r="BU76" s="33"/>
       <c r="BV76" s="33"/>
@@ -18478,8 +18762,12 @@
       <c r="BQ77" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR77" s="33"/>
-      <c r="BS77" s="33"/>
+      <c r="BR77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS77" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT77" s="33"/>
       <c r="BU77" s="33"/>
       <c r="BV77" s="33"/>
@@ -18696,8 +18984,12 @@
       <c r="BQ78" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR78" s="33"/>
-      <c r="BS78" s="33"/>
+      <c r="BR78" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS78" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT78" s="33"/>
       <c r="BU78" s="33"/>
       <c r="BV78" s="33"/>
@@ -18914,8 +19206,12 @@
       <c r="BQ79" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR79" s="33"/>
-      <c r="BS79" s="33"/>
+      <c r="BR79" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS79" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT79" s="33"/>
       <c r="BU79" s="33"/>
       <c r="BV79" s="33"/>
@@ -19132,8 +19428,12 @@
       <c r="BQ80" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR80" s="33"/>
-      <c r="BS80" s="33"/>
+      <c r="BR80" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS80" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT80" s="33"/>
       <c r="BU80" s="33"/>
       <c r="BV80" s="33"/>
@@ -19350,8 +19650,12 @@
       <c r="BQ81" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR81" s="33"/>
-      <c r="BS81" s="33"/>
+      <c r="BR81" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS81" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT81" s="33"/>
       <c r="BU81" s="33"/>
       <c r="BV81" s="33"/>
@@ -19568,8 +19872,12 @@
       <c r="BQ82" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR82" s="33"/>
-      <c r="BS82" s="33"/>
+      <c r="BR82" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS82" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT82" s="33"/>
       <c r="BU82" s="33"/>
       <c r="BV82" s="33"/>
@@ -19786,8 +20094,12 @@
       <c r="BQ83" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR83" s="33"/>
-      <c r="BS83" s="33"/>
+      <c r="BR83" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS83" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT83" s="33"/>
       <c r="BU83" s="33"/>
       <c r="BV83" s="33"/>
@@ -20004,8 +20316,12 @@
       <c r="BQ84" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR84" s="33"/>
-      <c r="BS84" s="33"/>
+      <c r="BR84" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS84" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT84" s="33"/>
       <c r="BU84" s="33"/>
       <c r="BV84" s="33"/>
@@ -20222,8 +20538,12 @@
       <c r="BQ85" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR85" s="33"/>
-      <c r="BS85" s="33"/>
+      <c r="BR85" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS85" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT85" s="33"/>
       <c r="BU85" s="33"/>
       <c r="BV85" s="33"/>
@@ -20440,8 +20760,12 @@
       <c r="BQ86" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR86" s="33"/>
-      <c r="BS86" s="33"/>
+      <c r="BR86" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS86" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT86" s="33"/>
       <c r="BU86" s="33"/>
       <c r="BV86" s="33"/>
@@ -20658,8 +20982,12 @@
       <c r="BQ87" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR87" s="33"/>
-      <c r="BS87" s="33"/>
+      <c r="BR87" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS87" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT87" s="33"/>
       <c r="BU87" s="33"/>
       <c r="BV87" s="33"/>
@@ -20876,8 +21204,12 @@
       <c r="BQ88" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR88" s="33"/>
-      <c r="BS88" s="33"/>
+      <c r="BR88" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS88" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT88" s="33"/>
       <c r="BU88" s="33"/>
       <c r="BV88" s="33"/>
@@ -21094,8 +21426,12 @@
       <c r="BQ89" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR89" s="33"/>
-      <c r="BS89" s="33"/>
+      <c r="BR89" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS89" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT89" s="33"/>
       <c r="BU89" s="33"/>
       <c r="BV89" s="33"/>
@@ -21312,8 +21648,12 @@
       <c r="BQ90" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR90" s="33"/>
-      <c r="BS90" s="33"/>
+      <c r="BR90" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS90" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT90" s="33"/>
       <c r="BU90" s="33"/>
       <c r="BV90" s="33"/>
@@ -21530,8 +21870,12 @@
       <c r="BQ91" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR91" s="33"/>
-      <c r="BS91" s="33"/>
+      <c r="BR91" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS91" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT91" s="33"/>
       <c r="BU91" s="33"/>
       <c r="BV91" s="33"/>
@@ -21748,8 +22092,12 @@
       <c r="BQ92" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR92" s="33"/>
-      <c r="BS92" s="33"/>
+      <c r="BR92" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS92" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT92" s="33"/>
       <c r="BU92" s="33"/>
       <c r="BV92" s="33"/>
@@ -21966,8 +22314,12 @@
       <c r="BQ93" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR93" s="33"/>
-      <c r="BS93" s="33"/>
+      <c r="BR93" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS93" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT93" s="33"/>
       <c r="BU93" s="33"/>
       <c r="BV93" s="33"/>
@@ -22184,8 +22536,12 @@
       <c r="BQ94" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BR94" s="33"/>
-      <c r="BS94" s="33"/>
+      <c r="BR94" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS94" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BT94" s="33"/>
       <c r="BU94" s="33"/>
       <c r="BV94" s="33"/>
@@ -22574,8 +22930,12 @@
       <c r="BR6" s="32">
         <v>44296</v>
       </c>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
+      <c r="BS6" s="32">
+        <v>44303</v>
+      </c>
+      <c r="BT6" s="32">
+        <v>44310</v>
+      </c>
       <c r="BU6" s="32"/>
       <c r="BV6" s="32"/>
       <c r="BW6" s="32"/>
@@ -22794,8 +23154,12 @@
       <c r="BR7" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="33"/>
+      <c r="BS7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT7" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -23014,8 +23378,12 @@
       <c r="BR8" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
+      <c r="BS8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT8" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -23234,8 +23602,12 @@
       <c r="BR9" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
+      <c r="BS9" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT9" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU9" s="33"/>
       <c r="BV9" s="33"/>
       <c r="BW9" s="33"/>
@@ -23454,8 +23826,12 @@
       <c r="BR10" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS10" s="33"/>
-      <c r="BT10" s="33"/>
+      <c r="BS10" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT10" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU10" s="33"/>
       <c r="BV10" s="33"/>
       <c r="BW10" s="33"/>
@@ -23674,8 +24050,12 @@
       <c r="BR11" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
+      <c r="BS11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT11" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU11" s="33"/>
       <c r="BV11" s="33"/>
       <c r="BW11" s="33"/>
@@ -23894,8 +24274,12 @@
       <c r="BR12" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
+      <c r="BS12" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT12" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU12" s="33"/>
       <c r="BV12" s="33"/>
       <c r="BW12" s="33"/>
@@ -24114,8 +24498,12 @@
       <c r="BR13" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="33"/>
+      <c r="BS13" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT13" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU13" s="33"/>
       <c r="BV13" s="33"/>
       <c r="BW13" s="33"/>
@@ -24334,8 +24722,12 @@
       <c r="BR14" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="33"/>
+      <c r="BS14" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT14" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU14" s="33"/>
       <c r="BV14" s="33"/>
       <c r="BW14" s="33"/>
@@ -24554,8 +24946,12 @@
       <c r="BR15" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="33"/>
+      <c r="BS15" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT15" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU15" s="33"/>
       <c r="BV15" s="33"/>
       <c r="BW15" s="33"/>
@@ -24774,8 +25170,12 @@
       <c r="BR16" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
+      <c r="BS16" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT16" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU16" s="33"/>
       <c r="BV16" s="33"/>
       <c r="BW16" s="33"/>
@@ -24994,8 +25394,12 @@
       <c r="BR17" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS17" s="33"/>
-      <c r="BT17" s="33"/>
+      <c r="BS17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT17" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU17" s="33"/>
       <c r="BV17" s="33"/>
       <c r="BW17" s="33"/>
@@ -25214,8 +25618,12 @@
       <c r="BR18" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
+      <c r="BS18" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT18" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU18" s="33"/>
       <c r="BV18" s="33"/>
       <c r="BW18" s="33"/>
@@ -25434,8 +25842,12 @@
       <c r="BR19" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS19" s="33"/>
-      <c r="BT19" s="33"/>
+      <c r="BS19" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT19" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU19" s="33"/>
       <c r="BV19" s="33"/>
       <c r="BW19" s="33"/>
@@ -25654,8 +26066,12 @@
       <c r="BR20" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS20" s="33"/>
-      <c r="BT20" s="33"/>
+      <c r="BS20" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT20" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU20" s="33"/>
       <c r="BV20" s="33"/>
       <c r="BW20" s="33"/>
@@ -25874,8 +26290,12 @@
       <c r="BR21" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS21" s="33"/>
-      <c r="BT21" s="33"/>
+      <c r="BS21" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT21" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU21" s="33"/>
       <c r="BV21" s="33"/>
       <c r="BW21" s="33"/>
@@ -26094,8 +26514,12 @@
       <c r="BR22" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS22" s="33"/>
-      <c r="BT22" s="33"/>
+      <c r="BS22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT22" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU22" s="33"/>
       <c r="BV22" s="33"/>
       <c r="BW22" s="33"/>
@@ -26314,8 +26738,12 @@
       <c r="BR23" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS23" s="33"/>
-      <c r="BT23" s="33"/>
+      <c r="BS23" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT23" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU23" s="33"/>
       <c r="BV23" s="33"/>
       <c r="BW23" s="33"/>
@@ -26534,8 +26962,12 @@
       <c r="BR24" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS24" s="33"/>
-      <c r="BT24" s="33"/>
+      <c r="BS24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT24" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU24" s="33"/>
       <c r="BV24" s="33"/>
       <c r="BW24" s="33"/>
@@ -26754,8 +27186,12 @@
       <c r="BR25" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS25" s="33"/>
-      <c r="BT25" s="33"/>
+      <c r="BS25" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT25" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU25" s="33"/>
       <c r="BV25" s="33"/>
       <c r="BW25" s="33"/>
@@ -26974,8 +27410,12 @@
       <c r="BR26" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS26" s="33"/>
-      <c r="BT26" s="33"/>
+      <c r="BS26" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT26" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU26" s="33"/>
       <c r="BV26" s="33"/>
       <c r="BW26" s="33"/>
@@ -27194,8 +27634,12 @@
       <c r="BR27" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
+      <c r="BS27" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT27" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU27" s="33"/>
       <c r="BV27" s="33"/>
       <c r="BW27" s="33"/>
@@ -27414,8 +27858,12 @@
       <c r="BR28" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
+      <c r="BS28" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT28" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU28" s="33"/>
       <c r="BV28" s="33"/>
       <c r="BW28" s="33"/>
@@ -27634,8 +28082,12 @@
       <c r="BR29" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS29" s="33"/>
-      <c r="BT29" s="33"/>
+      <c r="BS29" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT29" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU29" s="33"/>
       <c r="BV29" s="33"/>
       <c r="BW29" s="33"/>
@@ -27854,8 +28306,12 @@
       <c r="BR30" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS30" s="33"/>
-      <c r="BT30" s="33"/>
+      <c r="BS30" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT30" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU30" s="33"/>
       <c r="BV30" s="33"/>
       <c r="BW30" s="33"/>
@@ -28074,8 +28530,12 @@
       <c r="BR31" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS31" s="33"/>
-      <c r="BT31" s="33"/>
+      <c r="BS31" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT31" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU31" s="33"/>
       <c r="BV31" s="33"/>
       <c r="BW31" s="33"/>
@@ -28294,8 +28754,12 @@
       <c r="BR32" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS32" s="33"/>
-      <c r="BT32" s="33"/>
+      <c r="BS32" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT32" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU32" s="33"/>
       <c r="BV32" s="33"/>
       <c r="BW32" s="33"/>
@@ -28514,8 +28978,12 @@
       <c r="BR33" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS33" s="33"/>
-      <c r="BT33" s="33"/>
+      <c r="BS33" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT33" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU33" s="33"/>
       <c r="BV33" s="33"/>
       <c r="BW33" s="33"/>
@@ -28734,8 +29202,12 @@
       <c r="BR34" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS34" s="33"/>
-      <c r="BT34" s="33"/>
+      <c r="BS34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT34" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU34" s="33"/>
       <c r="BV34" s="33"/>
       <c r="BW34" s="33"/>
@@ -28954,8 +29426,12 @@
       <c r="BR35" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS35" s="33"/>
-      <c r="BT35" s="33"/>
+      <c r="BS35" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT35" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU35" s="33"/>
       <c r="BV35" s="33"/>
       <c r="BW35" s="33"/>
@@ -29174,8 +29650,12 @@
       <c r="BR36" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS36" s="33"/>
-      <c r="BT36" s="33"/>
+      <c r="BS36" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT36" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU36" s="33"/>
       <c r="BV36" s="33"/>
       <c r="BW36" s="33"/>
@@ -29394,8 +29874,12 @@
       <c r="BR37" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS37" s="33"/>
-      <c r="BT37" s="33"/>
+      <c r="BS37" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT37" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU37" s="33"/>
       <c r="BV37" s="33"/>
       <c r="BW37" s="33"/>
@@ -29614,8 +30098,12 @@
       <c r="BR38" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS38" s="33"/>
-      <c r="BT38" s="33"/>
+      <c r="BS38" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT38" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU38" s="33"/>
       <c r="BV38" s="33"/>
       <c r="BW38" s="33"/>
@@ -29834,8 +30322,12 @@
       <c r="BR39" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS39" s="33"/>
-      <c r="BT39" s="33"/>
+      <c r="BS39" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT39" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU39" s="33"/>
       <c r="BV39" s="33"/>
       <c r="BW39" s="33"/>
@@ -30054,8 +30546,12 @@
       <c r="BR40" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS40" s="33"/>
-      <c r="BT40" s="33"/>
+      <c r="BS40" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT40" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU40" s="33"/>
       <c r="BV40" s="33"/>
       <c r="BW40" s="33"/>
@@ -30274,8 +30770,12 @@
       <c r="BR41" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS41" s="33"/>
-      <c r="BT41" s="33"/>
+      <c r="BS41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT41" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU41" s="33"/>
       <c r="BV41" s="33"/>
       <c r="BW41" s="33"/>
@@ -30494,8 +30994,12 @@
       <c r="BR42" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS42" s="33"/>
-      <c r="BT42" s="33"/>
+      <c r="BS42" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT42" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU42" s="33"/>
       <c r="BV42" s="33"/>
       <c r="BW42" s="33"/>
@@ -30714,8 +31218,12 @@
       <c r="BR43" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS43" s="33"/>
-      <c r="BT43" s="33"/>
+      <c r="BS43" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT43" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU43" s="33"/>
       <c r="BV43" s="33"/>
       <c r="BW43" s="33"/>
@@ -30934,8 +31442,12 @@
       <c r="BR44" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS44" s="33"/>
-      <c r="BT44" s="33"/>
+      <c r="BS44" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT44" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU44" s="33"/>
       <c r="BV44" s="33"/>
       <c r="BW44" s="33"/>
@@ -31154,8 +31666,12 @@
       <c r="BR45" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS45" s="33"/>
-      <c r="BT45" s="33"/>
+      <c r="BS45" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT45" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU45" s="33"/>
       <c r="BV45" s="33"/>
       <c r="BW45" s="33"/>
@@ -31374,8 +31890,12 @@
       <c r="BR46" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS46" s="33"/>
-      <c r="BT46" s="33"/>
+      <c r="BS46" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT46" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU46" s="33"/>
       <c r="BV46" s="33"/>
       <c r="BW46" s="33"/>
@@ -31594,8 +32114,12 @@
       <c r="BR47" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
+      <c r="BS47" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT47" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU47" s="33"/>
       <c r="BV47" s="33"/>
       <c r="BW47" s="33"/>
@@ -31814,8 +32338,12 @@
       <c r="BR48" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS48" s="33"/>
-      <c r="BT48" s="33"/>
+      <c r="BS48" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT48" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU48" s="33"/>
       <c r="BV48" s="33"/>
       <c r="BW48" s="33"/>
@@ -32034,8 +32562,12 @@
       <c r="BR49" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS49" s="33"/>
-      <c r="BT49" s="33"/>
+      <c r="BS49" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT49" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU49" s="33"/>
       <c r="BV49" s="33"/>
       <c r="BW49" s="33"/>
@@ -32254,8 +32786,12 @@
       <c r="BR50" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS50" s="33"/>
-      <c r="BT50" s="33"/>
+      <c r="BS50" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT50" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU50" s="33"/>
       <c r="BV50" s="33"/>
       <c r="BW50" s="33"/>
@@ -32474,8 +33010,12 @@
       <c r="BR51" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS51" s="33"/>
-      <c r="BT51" s="33"/>
+      <c r="BS51" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT51" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU51" s="33"/>
       <c r="BV51" s="33"/>
       <c r="BW51" s="33"/>
@@ -32694,8 +33234,12 @@
       <c r="BR52" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS52" s="33"/>
-      <c r="BT52" s="33"/>
+      <c r="BS52" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT52" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU52" s="33"/>
       <c r="BV52" s="33"/>
       <c r="BW52" s="33"/>
@@ -32914,8 +33458,12 @@
       <c r="BR53" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS53" s="33"/>
-      <c r="BT53" s="33"/>
+      <c r="BS53" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT53" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU53" s="33"/>
       <c r="BV53" s="33"/>
       <c r="BW53" s="33"/>
@@ -33134,8 +33682,12 @@
       <c r="BR54" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS54" s="33"/>
-      <c r="BT54" s="33"/>
+      <c r="BS54" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT54" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU54" s="33"/>
       <c r="BV54" s="33"/>
       <c r="BW54" s="33"/>
@@ -33354,8 +33906,12 @@
       <c r="BR55" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS55" s="33"/>
-      <c r="BT55" s="33"/>
+      <c r="BS55" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT55" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU55" s="33"/>
       <c r="BV55" s="33"/>
       <c r="BW55" s="33"/>
@@ -33574,8 +34130,12 @@
       <c r="BR56" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS56" s="33"/>
-      <c r="BT56" s="33"/>
+      <c r="BS56" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT56" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU56" s="33"/>
       <c r="BV56" s="33"/>
       <c r="BW56" s="33"/>
@@ -33794,8 +34354,12 @@
       <c r="BR57" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS57" s="33"/>
-      <c r="BT57" s="33"/>
+      <c r="BS57" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT57" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU57" s="33"/>
       <c r="BV57" s="33"/>
       <c r="BW57" s="33"/>
@@ -34014,8 +34578,12 @@
       <c r="BR58" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS58" s="33"/>
-      <c r="BT58" s="33"/>
+      <c r="BS58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT58" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU58" s="33"/>
       <c r="BV58" s="33"/>
       <c r="BW58" s="33"/>
@@ -34234,8 +34802,12 @@
       <c r="BR59" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS59" s="33"/>
-      <c r="BT59" s="33"/>
+      <c r="BS59" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT59" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU59" s="33"/>
       <c r="BV59" s="33"/>
       <c r="BW59" s="33"/>
@@ -34454,8 +35026,12 @@
       <c r="BR60" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS60" s="33"/>
-      <c r="BT60" s="33"/>
+      <c r="BS60" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT60" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU60" s="33"/>
       <c r="BV60" s="33"/>
       <c r="BW60" s="33"/>
@@ -34674,8 +35250,12 @@
       <c r="BR61" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS61" s="33"/>
-      <c r="BT61" s="33"/>
+      <c r="BS61" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT61" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU61" s="33"/>
       <c r="BV61" s="33"/>
       <c r="BW61" s="33"/>
@@ -34894,8 +35474,12 @@
       <c r="BR62" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS62" s="33"/>
-      <c r="BT62" s="33"/>
+      <c r="BS62" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT62" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU62" s="33"/>
       <c r="BV62" s="33"/>
       <c r="BW62" s="33"/>
@@ -35114,8 +35698,12 @@
       <c r="BR63" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS63" s="33"/>
-      <c r="BT63" s="33"/>
+      <c r="BS63" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT63" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU63" s="33"/>
       <c r="BV63" s="33"/>
       <c r="BW63" s="33"/>
@@ -35334,8 +35922,12 @@
       <c r="BR64" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS64" s="33"/>
-      <c r="BT64" s="33"/>
+      <c r="BS64" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT64" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU64" s="33"/>
       <c r="BV64" s="33"/>
       <c r="BW64" s="33"/>
@@ -35554,8 +36146,12 @@
       <c r="BR65" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS65" s="33"/>
-      <c r="BT65" s="33"/>
+      <c r="BS65" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT65" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU65" s="33"/>
       <c r="BV65" s="33"/>
       <c r="BW65" s="33"/>
@@ -35774,8 +36370,12 @@
       <c r="BR66" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS66" s="33"/>
-      <c r="BT66" s="33"/>
+      <c r="BS66" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT66" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU66" s="33"/>
       <c r="BV66" s="33"/>
       <c r="BW66" s="33"/>
@@ -35994,8 +36594,12 @@
       <c r="BR67" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS67" s="33"/>
-      <c r="BT67" s="33"/>
+      <c r="BS67" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT67" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU67" s="33"/>
       <c r="BV67" s="33"/>
       <c r="BW67" s="33"/>
@@ -36214,8 +36818,12 @@
       <c r="BR68" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS68" s="33"/>
-      <c r="BT68" s="33"/>
+      <c r="BS68" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT68" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU68" s="33"/>
       <c r="BV68" s="33"/>
       <c r="BW68" s="33"/>
@@ -36434,8 +37042,12 @@
       <c r="BR69" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS69" s="33"/>
-      <c r="BT69" s="33"/>
+      <c r="BS69" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT69" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU69" s="33"/>
       <c r="BV69" s="33"/>
       <c r="BW69" s="33"/>
@@ -36654,8 +37266,12 @@
       <c r="BR70" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS70" s="33"/>
-      <c r="BT70" s="33"/>
+      <c r="BS70" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT70" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU70" s="33"/>
       <c r="BV70" s="33"/>
       <c r="BW70" s="33"/>
@@ -36874,8 +37490,12 @@
       <c r="BR71" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS71" s="33"/>
-      <c r="BT71" s="33"/>
+      <c r="BS71" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT71" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU71" s="33"/>
       <c r="BV71" s="33"/>
       <c r="BW71" s="33"/>
@@ -37094,8 +37714,12 @@
       <c r="BR72" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS72" s="33"/>
-      <c r="BT72" s="33"/>
+      <c r="BS72" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT72" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU72" s="33"/>
       <c r="BV72" s="33"/>
       <c r="BW72" s="33"/>
@@ -37314,8 +37938,12 @@
       <c r="BR73" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS73" s="33"/>
-      <c r="BT73" s="33"/>
+      <c r="BS73" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT73" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU73" s="33"/>
       <c r="BV73" s="33"/>
       <c r="BW73" s="33"/>
@@ -37534,8 +38162,12 @@
       <c r="BR74" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS74" s="33"/>
-      <c r="BT74" s="33"/>
+      <c r="BS74" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT74" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU74" s="33"/>
       <c r="BV74" s="33"/>
       <c r="BW74" s="33"/>
@@ -37754,8 +38386,12 @@
       <c r="BR75" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS75" s="33"/>
-      <c r="BT75" s="33"/>
+      <c r="BS75" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT75" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU75" s="33"/>
       <c r="BV75" s="33"/>
       <c r="BW75" s="33"/>
@@ -37974,8 +38610,12 @@
       <c r="BR76" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS76" s="33"/>
-      <c r="BT76" s="33"/>
+      <c r="BS76" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT76" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU76" s="33"/>
       <c r="BV76" s="33"/>
       <c r="BW76" s="33"/>
@@ -38194,8 +38834,12 @@
       <c r="BR77" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS77" s="33"/>
-      <c r="BT77" s="33"/>
+      <c r="BS77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT77" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU77" s="33"/>
       <c r="BV77" s="33"/>
       <c r="BW77" s="33"/>
@@ -38414,8 +39058,12 @@
       <c r="BR78" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS78" s="33"/>
-      <c r="BT78" s="33"/>
+      <c r="BS78" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT78" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU78" s="33"/>
       <c r="BV78" s="33"/>
       <c r="BW78" s="33"/>
@@ -38634,8 +39282,12 @@
       <c r="BR79" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS79" s="33"/>
-      <c r="BT79" s="33"/>
+      <c r="BS79" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT79" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU79" s="33"/>
       <c r="BV79" s="33"/>
       <c r="BW79" s="33"/>
@@ -38854,8 +39506,12 @@
       <c r="BR80" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS80" s="33"/>
-      <c r="BT80" s="33"/>
+      <c r="BS80" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT80" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU80" s="33"/>
       <c r="BV80" s="33"/>
       <c r="BW80" s="33"/>
@@ -39074,8 +39730,12 @@
       <c r="BR81" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS81" s="33"/>
-      <c r="BT81" s="33"/>
+      <c r="BS81" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT81" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU81" s="33"/>
       <c r="BV81" s="33"/>
       <c r="BW81" s="33"/>
@@ -39294,8 +39954,12 @@
       <c r="BR82" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS82" s="33"/>
-      <c r="BT82" s="33"/>
+      <c r="BS82" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT82" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU82" s="33"/>
       <c r="BV82" s="33"/>
       <c r="BW82" s="33"/>
@@ -39514,8 +40178,12 @@
       <c r="BR83" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS83" s="33"/>
-      <c r="BT83" s="33"/>
+      <c r="BS83" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT83" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU83" s="33"/>
       <c r="BV83" s="33"/>
       <c r="BW83" s="33"/>
@@ -39734,8 +40402,12 @@
       <c r="BR84" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
+      <c r="BS84" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT84" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU84" s="33"/>
       <c r="BV84" s="33"/>
       <c r="BW84" s="33"/>
@@ -39954,8 +40626,12 @@
       <c r="BR85" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS85" s="33"/>
-      <c r="BT85" s="33"/>
+      <c r="BS85" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT85" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU85" s="33"/>
       <c r="BV85" s="33"/>
       <c r="BW85" s="33"/>
@@ -40174,8 +40850,12 @@
       <c r="BR86" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS86" s="33"/>
-      <c r="BT86" s="33"/>
+      <c r="BS86" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT86" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU86" s="33"/>
       <c r="BV86" s="33"/>
       <c r="BW86" s="33"/>
@@ -40394,8 +41074,12 @@
       <c r="BR87" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS87" s="33"/>
-      <c r="BT87" s="33"/>
+      <c r="BS87" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT87" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU87" s="33"/>
       <c r="BV87" s="33"/>
       <c r="BW87" s="33"/>
@@ -40614,8 +41298,12 @@
       <c r="BR88" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS88" s="33"/>
-      <c r="BT88" s="33"/>
+      <c r="BS88" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT88" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU88" s="33"/>
       <c r="BV88" s="33"/>
       <c r="BW88" s="33"/>
@@ -40834,8 +41522,12 @@
       <c r="BR89" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS89" s="33"/>
-      <c r="BT89" s="33"/>
+      <c r="BS89" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT89" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU89" s="33"/>
       <c r="BV89" s="33"/>
       <c r="BW89" s="33"/>
@@ -41054,8 +41746,12 @@
       <c r="BR90" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS90" s="33"/>
-      <c r="BT90" s="33"/>
+      <c r="BS90" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT90" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU90" s="33"/>
       <c r="BV90" s="33"/>
       <c r="BW90" s="33"/>
@@ -41274,8 +41970,12 @@
       <c r="BR91" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS91" s="33"/>
-      <c r="BT91" s="33"/>
+      <c r="BS91" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT91" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU91" s="33"/>
       <c r="BV91" s="33"/>
       <c r="BW91" s="33"/>
@@ -41494,8 +42194,12 @@
       <c r="BR92" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS92" s="33"/>
-      <c r="BT92" s="33"/>
+      <c r="BS92" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT92" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU92" s="33"/>
       <c r="BV92" s="33"/>
       <c r="BW92" s="33"/>
@@ -41714,8 +42418,12 @@
       <c r="BR93" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS93" s="33"/>
-      <c r="BT93" s="33"/>
+      <c r="BS93" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT93" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU93" s="33"/>
       <c r="BV93" s="33"/>
       <c r="BW93" s="33"/>
@@ -41934,8 +42642,12 @@
       <c r="BR94" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS94" s="33"/>
-      <c r="BT94" s="33"/>
+      <c r="BS94" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT94" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU94" s="33"/>
       <c r="BV94" s="33"/>
       <c r="BW94" s="33"/>
@@ -42154,8 +42866,12 @@
       <c r="BR95" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS95" s="33"/>
-      <c r="BT95" s="33"/>
+      <c r="BS95" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT95" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU95" s="33"/>
       <c r="BV95" s="33"/>
       <c r="BW95" s="33"/>
@@ -42374,8 +43090,12 @@
       <c r="BR96" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS96" s="33"/>
-      <c r="BT96" s="33"/>
+      <c r="BS96" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT96" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU96" s="33"/>
       <c r="BV96" s="33"/>
       <c r="BW96" s="33"/>
@@ -42594,8 +43314,12 @@
       <c r="BR97" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS97" s="33"/>
-      <c r="BT97" s="33"/>
+      <c r="BS97" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT97" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU97" s="33"/>
       <c r="BV97" s="33"/>
       <c r="BW97" s="33"/>
@@ -42814,8 +43538,12 @@
       <c r="BR98" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS98" s="33"/>
-      <c r="BT98" s="33"/>
+      <c r="BS98" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT98" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU98" s="33"/>
       <c r="BV98" s="33"/>
       <c r="BW98" s="33"/>
@@ -43034,8 +43762,12 @@
       <c r="BR99" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS99" s="33"/>
-      <c r="BT99" s="33"/>
+      <c r="BS99" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT99" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU99" s="33"/>
       <c r="BV99" s="33"/>
       <c r="BW99" s="33"/>
@@ -43254,8 +43986,12 @@
       <c r="BR100" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS100" s="33"/>
-      <c r="BT100" s="33"/>
+      <c r="BS100" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT100" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU100" s="33"/>
       <c r="BV100" s="33"/>
       <c r="BW100" s="33"/>
@@ -43474,8 +44210,12 @@
       <c r="BR101" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS101" s="33"/>
-      <c r="BT101" s="33"/>
+      <c r="BS101" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT101" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU101" s="33"/>
       <c r="BV101" s="33"/>
       <c r="BW101" s="33"/>
@@ -43694,8 +44434,12 @@
       <c r="BR102" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS102" s="33"/>
-      <c r="BT102" s="33"/>
+      <c r="BS102" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT102" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU102" s="33"/>
       <c r="BV102" s="33"/>
       <c r="BW102" s="33"/>
@@ -43914,8 +44658,12 @@
       <c r="BR103" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS103" s="33"/>
-      <c r="BT103" s="33"/>
+      <c r="BS103" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT103" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU103" s="33"/>
       <c r="BV103" s="33"/>
       <c r="BW103" s="33"/>
@@ -44134,8 +44882,12 @@
       <c r="BR104" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS104" s="33"/>
-      <c r="BT104" s="33"/>
+      <c r="BS104" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT104" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU104" s="33"/>
       <c r="BV104" s="33"/>
       <c r="BW104" s="33"/>
@@ -44354,8 +45106,12 @@
       <c r="BR105" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS105" s="33"/>
-      <c r="BT105" s="33"/>
+      <c r="BS105" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT105" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU105" s="33"/>
       <c r="BV105" s="33"/>
       <c r="BW105" s="33"/>
@@ -44574,8 +45330,12 @@
       <c r="BR106" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS106" s="33"/>
-      <c r="BT106" s="33"/>
+      <c r="BS106" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT106" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU106" s="33"/>
       <c r="BV106" s="33"/>
       <c r="BW106" s="33"/>
@@ -44794,8 +45554,12 @@
       <c r="BR107" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS107" s="33"/>
-      <c r="BT107" s="33"/>
+      <c r="BS107" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT107" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU107" s="33"/>
       <c r="BV107" s="33"/>
       <c r="BW107" s="33"/>
@@ -45014,8 +45778,12 @@
       <c r="BR108" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS108" s="33"/>
-      <c r="BT108" s="33"/>
+      <c r="BS108" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT108" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU108" s="33"/>
       <c r="BV108" s="33"/>
       <c r="BW108" s="33"/>
@@ -45234,8 +46002,12 @@
       <c r="BR109" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS109" s="33"/>
-      <c r="BT109" s="33"/>
+      <c r="BS109" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT109" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU109" s="33"/>
       <c r="BV109" s="33"/>
       <c r="BW109" s="33"/>
@@ -45454,8 +46226,12 @@
       <c r="BR110" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS110" s="33"/>
-      <c r="BT110" s="33"/>
+      <c r="BS110" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT110" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU110" s="33"/>
       <c r="BV110" s="33"/>
       <c r="BW110" s="33"/>
@@ -45674,8 +46450,12 @@
       <c r="BR111" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS111" s="33"/>
-      <c r="BT111" s="33"/>
+      <c r="BS111" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT111" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU111" s="33"/>
       <c r="BV111" s="33"/>
       <c r="BW111" s="33"/>
@@ -45894,8 +46674,12 @@
       <c r="BR112" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS112" s="33"/>
-      <c r="BT112" s="33"/>
+      <c r="BS112" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT112" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU112" s="33"/>
       <c r="BV112" s="33"/>
       <c r="BW112" s="33"/>
@@ -46114,8 +46898,12 @@
       <c r="BR113" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS113" s="33"/>
-      <c r="BT113" s="33"/>
+      <c r="BS113" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT113" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU113" s="33"/>
       <c r="BV113" s="33"/>
       <c r="BW113" s="33"/>
@@ -46334,8 +47122,12 @@
       <c r="BR114" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS114" s="33"/>
-      <c r="BT114" s="33"/>
+      <c r="BS114" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT114" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU114" s="33"/>
       <c r="BV114" s="33"/>
       <c r="BW114" s="33"/>
@@ -46554,8 +47346,12 @@
       <c r="BR115" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS115" s="33"/>
-      <c r="BT115" s="33"/>
+      <c r="BS115" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT115" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU115" s="33"/>
       <c r="BV115" s="33"/>
       <c r="BW115" s="33"/>
@@ -46774,8 +47570,12 @@
       <c r="BR116" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS116" s="33"/>
-      <c r="BT116" s="33"/>
+      <c r="BS116" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT116" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU116" s="33"/>
       <c r="BV116" s="33"/>
       <c r="BW116" s="33"/>
@@ -46994,8 +47794,12 @@
       <c r="BR117" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS117" s="33"/>
-      <c r="BT117" s="33"/>
+      <c r="BS117" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT117" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU117" s="33"/>
       <c r="BV117" s="33"/>
       <c r="BW117" s="33"/>
@@ -47214,8 +48018,12 @@
       <c r="BR118" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS118" s="33"/>
-      <c r="BT118" s="33"/>
+      <c r="BS118" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT118" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU118" s="33"/>
       <c r="BV118" s="33"/>
       <c r="BW118" s="33"/>
@@ -47434,8 +48242,12 @@
       <c r="BR119" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS119" s="33"/>
-      <c r="BT119" s="33"/>
+      <c r="BS119" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT119" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU119" s="33"/>
       <c r="BV119" s="33"/>
       <c r="BW119" s="33"/>
@@ -47654,8 +48466,12 @@
       <c r="BR120" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS120" s="33"/>
-      <c r="BT120" s="33"/>
+      <c r="BS120" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT120" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU120" s="33"/>
       <c r="BV120" s="33"/>
       <c r="BW120" s="33"/>
@@ -47874,8 +48690,12 @@
       <c r="BR121" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS121" s="33"/>
-      <c r="BT121" s="33"/>
+      <c r="BS121" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT121" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU121" s="33"/>
       <c r="BV121" s="33"/>
       <c r="BW121" s="33"/>
@@ -48094,8 +48914,12 @@
       <c r="BR122" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS122" s="33"/>
-      <c r="BT122" s="33"/>
+      <c r="BS122" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT122" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU122" s="33"/>
       <c r="BV122" s="33"/>
       <c r="BW122" s="33"/>
@@ -48314,8 +49138,12 @@
       <c r="BR123" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS123" s="33"/>
-      <c r="BT123" s="33"/>
+      <c r="BS123" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT123" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU123" s="33"/>
       <c r="BV123" s="33"/>
       <c r="BW123" s="33"/>
@@ -48534,8 +49362,12 @@
       <c r="BR124" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS124" s="33"/>
-      <c r="BT124" s="33"/>
+      <c r="BS124" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT124" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU124" s="33"/>
       <c r="BV124" s="33"/>
       <c r="BW124" s="33"/>
@@ -48754,8 +49586,12 @@
       <c r="BR125" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS125" s="33"/>
-      <c r="BT125" s="33"/>
+      <c r="BS125" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT125" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU125" s="33"/>
       <c r="BV125" s="33"/>
       <c r="BW125" s="33"/>
@@ -48974,8 +49810,12 @@
       <c r="BR126" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS126" s="33"/>
-      <c r="BT126" s="33"/>
+      <c r="BS126" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT126" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU126" s="33"/>
       <c r="BV126" s="33"/>
       <c r="BW126" s="33"/>
@@ -49194,8 +50034,12 @@
       <c r="BR127" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS127" s="33"/>
-      <c r="BT127" s="33"/>
+      <c r="BS127" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT127" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU127" s="33"/>
       <c r="BV127" s="33"/>
       <c r="BW127" s="33"/>
@@ -49414,8 +50258,12 @@
       <c r="BR128" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS128" s="33"/>
-      <c r="BT128" s="33"/>
+      <c r="BS128" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT128" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU128" s="33"/>
       <c r="BV128" s="33"/>
       <c r="BW128" s="33"/>
@@ -49634,8 +50482,12 @@
       <c r="BR129" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS129" s="33"/>
-      <c r="BT129" s="33"/>
+      <c r="BS129" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT129" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU129" s="33"/>
       <c r="BV129" s="33"/>
       <c r="BW129" s="33"/>
@@ -49854,8 +50706,12 @@
       <c r="BR130" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS130" s="33"/>
-      <c r="BT130" s="33"/>
+      <c r="BS130" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT130" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU130" s="33"/>
       <c r="BV130" s="33"/>
       <c r="BW130" s="33"/>
@@ -50074,8 +50930,12 @@
       <c r="BR131" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS131" s="33"/>
-      <c r="BT131" s="33"/>
+      <c r="BS131" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT131" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU131" s="33"/>
       <c r="BV131" s="33"/>
       <c r="BW131" s="33"/>
@@ -50294,8 +51154,12 @@
       <c r="BR132" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS132" s="33"/>
-      <c r="BT132" s="33"/>
+      <c r="BS132" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT132" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU132" s="33"/>
       <c r="BV132" s="33"/>
       <c r="BW132" s="33"/>
@@ -50514,8 +51378,12 @@
       <c r="BR133" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS133" s="33"/>
-      <c r="BT133" s="33"/>
+      <c r="BS133" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT133" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU133" s="33"/>
       <c r="BV133" s="33"/>
       <c r="BW133" s="33"/>
@@ -50734,8 +51602,12 @@
       <c r="BR134" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS134" s="33"/>
-      <c r="BT134" s="33"/>
+      <c r="BS134" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT134" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU134" s="33"/>
       <c r="BV134" s="33"/>
       <c r="BW134" s="33"/>
@@ -50954,8 +51826,12 @@
       <c r="BR135" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS135" s="33"/>
-      <c r="BT135" s="33"/>
+      <c r="BS135" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT135" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU135" s="33"/>
       <c r="BV135" s="33"/>
       <c r="BW135" s="33"/>
@@ -51174,8 +52050,12 @@
       <c r="BR136" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS136" s="33"/>
-      <c r="BT136" s="33"/>
+      <c r="BS136" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT136" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU136" s="33"/>
       <c r="BV136" s="33"/>
       <c r="BW136" s="33"/>
@@ -51394,8 +52274,12 @@
       <c r="BR137" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS137" s="33"/>
-      <c r="BT137" s="33"/>
+      <c r="BS137" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT137" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU137" s="33"/>
       <c r="BV137" s="33"/>
       <c r="BW137" s="33"/>
@@ -51614,8 +52498,12 @@
       <c r="BR138" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS138" s="33"/>
-      <c r="BT138" s="33"/>
+      <c r="BS138" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT138" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU138" s="33"/>
       <c r="BV138" s="33"/>
       <c r="BW138" s="33"/>
@@ -51834,8 +52722,12 @@
       <c r="BR139" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS139" s="33"/>
-      <c r="BT139" s="33"/>
+      <c r="BS139" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT139" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU139" s="33"/>
       <c r="BV139" s="33"/>
       <c r="BW139" s="33"/>
@@ -52054,8 +52946,12 @@
       <c r="BR140" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS140" s="33"/>
-      <c r="BT140" s="33"/>
+      <c r="BS140" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT140" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU140" s="33"/>
       <c r="BV140" s="33"/>
       <c r="BW140" s="33"/>
@@ -52274,8 +53170,12 @@
       <c r="BR141" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS141" s="33"/>
-      <c r="BT141" s="33"/>
+      <c r="BS141" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT141" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU141" s="33"/>
       <c r="BV141" s="33"/>
       <c r="BW141" s="33"/>
@@ -52494,8 +53394,12 @@
       <c r="BR142" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS142" s="33"/>
-      <c r="BT142" s="33"/>
+      <c r="BS142" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT142" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU142" s="33"/>
       <c r="BV142" s="33"/>
       <c r="BW142" s="33"/>
@@ -52714,8 +53618,12 @@
       <c r="BR143" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS143" s="33"/>
-      <c r="BT143" s="33"/>
+      <c r="BS143" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT143" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU143" s="33"/>
       <c r="BV143" s="33"/>
       <c r="BW143" s="33"/>
@@ -52934,8 +53842,12 @@
       <c r="BR144" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS144" s="33"/>
-      <c r="BT144" s="33"/>
+      <c r="BS144" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT144" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU144" s="33"/>
       <c r="BV144" s="33"/>
       <c r="BW144" s="33"/>
@@ -53154,8 +54066,12 @@
       <c r="BR145" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS145" s="33"/>
-      <c r="BT145" s="33"/>
+      <c r="BS145" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT145" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU145" s="33"/>
       <c r="BV145" s="33"/>
       <c r="BW145" s="33"/>
@@ -53374,8 +54290,12 @@
       <c r="BR146" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS146" s="33"/>
-      <c r="BT146" s="33"/>
+      <c r="BS146" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT146" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU146" s="33"/>
       <c r="BV146" s="33"/>
       <c r="BW146" s="33"/>
@@ -53594,8 +54514,12 @@
       <c r="BR147" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS147" s="33"/>
-      <c r="BT147" s="33"/>
+      <c r="BS147" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT147" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU147" s="33"/>
       <c r="BV147" s="33"/>
       <c r="BW147" s="33"/>
@@ -53814,8 +54738,12 @@
       <c r="BR148" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS148" s="33"/>
-      <c r="BT148" s="33"/>
+      <c r="BS148" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT148" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU148" s="33"/>
       <c r="BV148" s="33"/>
       <c r="BW148" s="33"/>
@@ -54034,8 +54962,12 @@
       <c r="BR149" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS149" s="33"/>
-      <c r="BT149" s="33"/>
+      <c r="BS149" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT149" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU149" s="33"/>
       <c r="BV149" s="33"/>
       <c r="BW149" s="33"/>
@@ -54254,8 +55186,12 @@
       <c r="BR150" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS150" s="33"/>
-      <c r="BT150" s="33"/>
+      <c r="BS150" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT150" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU150" s="33"/>
       <c r="BV150" s="33"/>
       <c r="BW150" s="33"/>
@@ -54474,8 +55410,12 @@
       <c r="BR151" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS151" s="33"/>
-      <c r="BT151" s="33"/>
+      <c r="BS151" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT151" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU151" s="33"/>
       <c r="BV151" s="33"/>
       <c r="BW151" s="33"/>
@@ -54694,8 +55634,12 @@
       <c r="BR152" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS152" s="33"/>
-      <c r="BT152" s="33"/>
+      <c r="BS152" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT152" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU152" s="33"/>
       <c r="BV152" s="33"/>
       <c r="BW152" s="33"/>
@@ -54914,8 +55858,12 @@
       <c r="BR153" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS153" s="33"/>
-      <c r="BT153" s="33"/>
+      <c r="BS153" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT153" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU153" s="33"/>
       <c r="BV153" s="33"/>
       <c r="BW153" s="33"/>
@@ -55134,8 +56082,12 @@
       <c r="BR154" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS154" s="33"/>
-      <c r="BT154" s="33"/>
+      <c r="BS154" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT154" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU154" s="33"/>
       <c r="BV154" s="33"/>
       <c r="BW154" s="33"/>
@@ -55354,8 +56306,12 @@
       <c r="BR155" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS155" s="33"/>
-      <c r="BT155" s="33"/>
+      <c r="BS155" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT155" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU155" s="33"/>
       <c r="BV155" s="33"/>
       <c r="BW155" s="33"/>
@@ -55574,8 +56530,12 @@
       <c r="BR156" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS156" s="33"/>
-      <c r="BT156" s="33"/>
+      <c r="BS156" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT156" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU156" s="33"/>
       <c r="BV156" s="33"/>
       <c r="BW156" s="33"/>
@@ -55794,8 +56754,12 @@
       <c r="BR157" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS157" s="33"/>
-      <c r="BT157" s="33"/>
+      <c r="BS157" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT157" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU157" s="33"/>
       <c r="BV157" s="33"/>
       <c r="BW157" s="33"/>
@@ -56014,8 +56978,12 @@
       <c r="BR158" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS158" s="33"/>
-      <c r="BT158" s="33"/>
+      <c r="BS158" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT158" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU158" s="33"/>
       <c r="BV158" s="33"/>
       <c r="BW158" s="33"/>
@@ -56234,8 +57202,12 @@
       <c r="BR159" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS159" s="33"/>
-      <c r="BT159" s="33"/>
+      <c r="BS159" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT159" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU159" s="33"/>
       <c r="BV159" s="33"/>
       <c r="BW159" s="33"/>
@@ -56454,8 +57426,12 @@
       <c r="BR160" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS160" s="33"/>
-      <c r="BT160" s="33"/>
+      <c r="BS160" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT160" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU160" s="33"/>
       <c r="BV160" s="33"/>
       <c r="BW160" s="33"/>
@@ -56674,8 +57650,12 @@
       <c r="BR161" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS161" s="33"/>
-      <c r="BT161" s="33"/>
+      <c r="BS161" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT161" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU161" s="33"/>
       <c r="BV161" s="33"/>
       <c r="BW161" s="33"/>
@@ -56894,8 +57874,12 @@
       <c r="BR162" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS162" s="33"/>
-      <c r="BT162" s="33"/>
+      <c r="BS162" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT162" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU162" s="33"/>
       <c r="BV162" s="33"/>
       <c r="BW162" s="33"/>
@@ -57114,8 +58098,12 @@
       <c r="BR163" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS163" s="33"/>
-      <c r="BT163" s="33"/>
+      <c r="BS163" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT163" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU163" s="33"/>
       <c r="BV163" s="33"/>
       <c r="BW163" s="33"/>
@@ -57334,8 +58322,12 @@
       <c r="BR164" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS164" s="33"/>
-      <c r="BT164" s="33"/>
+      <c r="BS164" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT164" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU164" s="33"/>
       <c r="BV164" s="33"/>
       <c r="BW164" s="33"/>
@@ -57554,8 +58546,12 @@
       <c r="BR165" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS165" s="33"/>
-      <c r="BT165" s="33"/>
+      <c r="BS165" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT165" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU165" s="33"/>
       <c r="BV165" s="33"/>
       <c r="BW165" s="33"/>
@@ -57774,8 +58770,12 @@
       <c r="BR166" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS166" s="33"/>
-      <c r="BT166" s="33"/>
+      <c r="BS166" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT166" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU166" s="33"/>
       <c r="BV166" s="33"/>
       <c r="BW166" s="33"/>
@@ -57994,8 +58994,12 @@
       <c r="BR167" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS167" s="33"/>
-      <c r="BT167" s="33"/>
+      <c r="BS167" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT167" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU167" s="33"/>
       <c r="BV167" s="33"/>
       <c r="BW167" s="33"/>
@@ -58214,8 +59218,12 @@
       <c r="BR168" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS168" s="33"/>
-      <c r="BT168" s="33"/>
+      <c r="BS168" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT168" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU168" s="33"/>
       <c r="BV168" s="33"/>
       <c r="BW168" s="33"/>
@@ -58434,8 +59442,12 @@
       <c r="BR169" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS169" s="33"/>
-      <c r="BT169" s="33"/>
+      <c r="BS169" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT169" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU169" s="33"/>
       <c r="BV169" s="33"/>
       <c r="BW169" s="33"/>
@@ -58654,8 +59666,12 @@
       <c r="BR170" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS170" s="33"/>
-      <c r="BT170" s="33"/>
+      <c r="BS170" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT170" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU170" s="33"/>
       <c r="BV170" s="33"/>
       <c r="BW170" s="33"/>
@@ -58874,8 +59890,12 @@
       <c r="BR171" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS171" s="33"/>
-      <c r="BT171" s="33"/>
+      <c r="BS171" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT171" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU171" s="33"/>
       <c r="BV171" s="33"/>
       <c r="BW171" s="33"/>
@@ -59094,8 +60114,12 @@
       <c r="BR172" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS172" s="33"/>
-      <c r="BT172" s="33"/>
+      <c r="BS172" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT172" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU172" s="33"/>
       <c r="BV172" s="33"/>
       <c r="BW172" s="33"/>
@@ -59314,8 +60338,12 @@
       <c r="BR173" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS173" s="33"/>
-      <c r="BT173" s="33"/>
+      <c r="BS173" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT173" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU173" s="33"/>
       <c r="BV173" s="33"/>
       <c r="BW173" s="33"/>
@@ -59534,8 +60562,12 @@
       <c r="BR174" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS174" s="33"/>
-      <c r="BT174" s="33"/>
+      <c r="BS174" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT174" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU174" s="33"/>
       <c r="BV174" s="33"/>
       <c r="BW174" s="33"/>
@@ -59754,8 +60786,12 @@
       <c r="BR175" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS175" s="33"/>
-      <c r="BT175" s="33"/>
+      <c r="BS175" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT175" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU175" s="33"/>
       <c r="BV175" s="33"/>
       <c r="BW175" s="33"/>
@@ -59974,8 +61010,12 @@
       <c r="BR176" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS176" s="33"/>
-      <c r="BT176" s="33"/>
+      <c r="BS176" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT176" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU176" s="33"/>
       <c r="BV176" s="33"/>
       <c r="BW176" s="33"/>
@@ -60194,8 +61234,12 @@
       <c r="BR177" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS177" s="33"/>
-      <c r="BT177" s="33"/>
+      <c r="BS177" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT177" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU177" s="33"/>
       <c r="BV177" s="33"/>
       <c r="BW177" s="33"/>
@@ -60414,8 +61458,12 @@
       <c r="BR178" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS178" s="33"/>
-      <c r="BT178" s="33"/>
+      <c r="BS178" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT178" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU178" s="33"/>
       <c r="BV178" s="33"/>
       <c r="BW178" s="33"/>
@@ -60634,8 +61682,12 @@
       <c r="BR179" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS179" s="33"/>
-      <c r="BT179" s="33"/>
+      <c r="BS179" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT179" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU179" s="33"/>
       <c r="BV179" s="33"/>
       <c r="BW179" s="33"/>
@@ -60854,8 +61906,12 @@
       <c r="BR180" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS180" s="33"/>
-      <c r="BT180" s="33"/>
+      <c r="BS180" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT180" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU180" s="33"/>
       <c r="BV180" s="33"/>
       <c r="BW180" s="33"/>
@@ -61074,8 +62130,12 @@
       <c r="BR181" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS181" s="33"/>
-      <c r="BT181" s="33"/>
+      <c r="BS181" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT181" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU181" s="33"/>
       <c r="BV181" s="33"/>
       <c r="BW181" s="33"/>
@@ -61294,8 +62354,12 @@
       <c r="BR182" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS182" s="33"/>
-      <c r="BT182" s="33"/>
+      <c r="BS182" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT182" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU182" s="33"/>
       <c r="BV182" s="33"/>
       <c r="BW182" s="33"/>
@@ -61514,8 +62578,12 @@
       <c r="BR183" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS183" s="33"/>
-      <c r="BT183" s="33"/>
+      <c r="BS183" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT183" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU183" s="33"/>
       <c r="BV183" s="33"/>
       <c r="BW183" s="33"/>
@@ -61734,8 +62802,12 @@
       <c r="BR184" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS184" s="33"/>
-      <c r="BT184" s="33"/>
+      <c r="BS184" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT184" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU184" s="33"/>
       <c r="BV184" s="33"/>
       <c r="BW184" s="33"/>
@@ -61954,8 +63026,12 @@
       <c r="BR185" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS185" s="33"/>
-      <c r="BT185" s="33"/>
+      <c r="BS185" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT185" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU185" s="33"/>
       <c r="BV185" s="33"/>
       <c r="BW185" s="33"/>
@@ -62174,8 +63250,12 @@
       <c r="BR186" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS186" s="33"/>
-      <c r="BT186" s="33"/>
+      <c r="BS186" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT186" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU186" s="33"/>
       <c r="BV186" s="33"/>
       <c r="BW186" s="33"/>
@@ -62394,8 +63474,12 @@
       <c r="BR187" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS187" s="33"/>
-      <c r="BT187" s="33"/>
+      <c r="BS187" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT187" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU187" s="33"/>
       <c r="BV187" s="33"/>
       <c r="BW187" s="33"/>
@@ -62614,8 +63698,12 @@
       <c r="BR188" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS188" s="33"/>
-      <c r="BT188" s="33"/>
+      <c r="BS188" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT188" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU188" s="33"/>
       <c r="BV188" s="33"/>
       <c r="BW188" s="33"/>
@@ -62834,8 +63922,12 @@
       <c r="BR189" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS189" s="33"/>
-      <c r="BT189" s="33"/>
+      <c r="BS189" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT189" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU189" s="33"/>
       <c r="BV189" s="33"/>
       <c r="BW189" s="33"/>
@@ -63054,8 +64146,12 @@
       <c r="BR190" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS190" s="33"/>
-      <c r="BT190" s="33"/>
+      <c r="BS190" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT190" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU190" s="33"/>
       <c r="BV190" s="33"/>
       <c r="BW190" s="33"/>
@@ -63274,8 +64370,12 @@
       <c r="BR191" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS191" s="33"/>
-      <c r="BT191" s="33"/>
+      <c r="BS191" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT191" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU191" s="33"/>
       <c r="BV191" s="33"/>
       <c r="BW191" s="33"/>
@@ -63494,8 +64594,12 @@
       <c r="BR192" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS192" s="33"/>
-      <c r="BT192" s="33"/>
+      <c r="BS192" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT192" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU192" s="33"/>
       <c r="BV192" s="33"/>
       <c r="BW192" s="33"/>
@@ -63714,8 +64818,12 @@
       <c r="BR193" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS193" s="33"/>
-      <c r="BT193" s="33"/>
+      <c r="BS193" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT193" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU193" s="33"/>
       <c r="BV193" s="33"/>
       <c r="BW193" s="33"/>
@@ -63934,8 +65042,12 @@
       <c r="BR194" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS194" s="33"/>
-      <c r="BT194" s="33"/>
+      <c r="BS194" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT194" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU194" s="33"/>
       <c r="BV194" s="33"/>
       <c r="BW194" s="33"/>
@@ -64154,8 +65266,12 @@
       <c r="BR195" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS195" s="33"/>
-      <c r="BT195" s="33"/>
+      <c r="BS195" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT195" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU195" s="33"/>
       <c r="BV195" s="33"/>
       <c r="BW195" s="33"/>
@@ -64374,8 +65490,12 @@
       <c r="BR196" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS196" s="33"/>
-      <c r="BT196" s="33"/>
+      <c r="BS196" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT196" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU196" s="33"/>
       <c r="BV196" s="33"/>
       <c r="BW196" s="33"/>
@@ -64594,8 +65714,12 @@
       <c r="BR197" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS197" s="33"/>
-      <c r="BT197" s="33"/>
+      <c r="BS197" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT197" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU197" s="33"/>
       <c r="BV197" s="33"/>
       <c r="BW197" s="33"/>
@@ -64814,8 +65938,12 @@
       <c r="BR198" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS198" s="33"/>
-      <c r="BT198" s="33"/>
+      <c r="BS198" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT198" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU198" s="33"/>
       <c r="BV198" s="33"/>
       <c r="BW198" s="33"/>
@@ -65034,8 +66162,12 @@
       <c r="BR199" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS199" s="33"/>
-      <c r="BT199" s="33"/>
+      <c r="BS199" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT199" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU199" s="33"/>
       <c r="BV199" s="33"/>
       <c r="BW199" s="33"/>
@@ -65254,8 +66386,12 @@
       <c r="BR200" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS200" s="33"/>
-      <c r="BT200" s="33"/>
+      <c r="BS200" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT200" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU200" s="33"/>
       <c r="BV200" s="33"/>
       <c r="BW200" s="33"/>
@@ -65474,8 +66610,12 @@
       <c r="BR201" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS201" s="33"/>
-      <c r="BT201" s="33"/>
+      <c r="BS201" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT201" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU201" s="33"/>
       <c r="BV201" s="33"/>
       <c r="BW201" s="33"/>
@@ -65694,8 +66834,12 @@
       <c r="BR202" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS202" s="33"/>
-      <c r="BT202" s="33"/>
+      <c r="BS202" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT202" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU202" s="33"/>
       <c r="BV202" s="33"/>
       <c r="BW202" s="33"/>
@@ -65914,8 +67058,12 @@
       <c r="BR203" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS203" s="33"/>
-      <c r="BT203" s="33"/>
+      <c r="BS203" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT203" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU203" s="33"/>
       <c r="BV203" s="33"/>
       <c r="BW203" s="33"/>
@@ -66134,8 +67282,12 @@
       <c r="BR204" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS204" s="33"/>
-      <c r="BT204" s="33"/>
+      <c r="BS204" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT204" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU204" s="33"/>
       <c r="BV204" s="33"/>
       <c r="BW204" s="33"/>
@@ -66354,8 +67506,12 @@
       <c r="BR205" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS205" s="33"/>
-      <c r="BT205" s="33"/>
+      <c r="BS205" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT205" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU205" s="33"/>
       <c r="BV205" s="33"/>
       <c r="BW205" s="33"/>
@@ -66574,8 +67730,12 @@
       <c r="BR206" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS206" s="33"/>
-      <c r="BT206" s="33"/>
+      <c r="BS206" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT206" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU206" s="33"/>
       <c r="BV206" s="33"/>
       <c r="BW206" s="33"/>
@@ -66794,8 +67954,12 @@
       <c r="BR207" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS207" s="33"/>
-      <c r="BT207" s="33"/>
+      <c r="BS207" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT207" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU207" s="33"/>
       <c r="BV207" s="33"/>
       <c r="BW207" s="33"/>
@@ -67014,8 +68178,12 @@
       <c r="BR208" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS208" s="33"/>
-      <c r="BT208" s="33"/>
+      <c r="BS208" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT208" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU208" s="33"/>
       <c r="BV208" s="33"/>
       <c r="BW208" s="33"/>
@@ -67234,8 +68402,12 @@
       <c r="BR209" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS209" s="33"/>
-      <c r="BT209" s="33"/>
+      <c r="BS209" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT209" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU209" s="33"/>
       <c r="BV209" s="33"/>
       <c r="BW209" s="33"/>
@@ -67454,8 +68626,12 @@
       <c r="BR210" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS210" s="33"/>
-      <c r="BT210" s="33"/>
+      <c r="BS210" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT210" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU210" s="33"/>
       <c r="BV210" s="33"/>
       <c r="BW210" s="33"/>
@@ -67674,8 +68850,12 @@
       <c r="BR211" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS211" s="33"/>
-      <c r="BT211" s="33"/>
+      <c r="BS211" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT211" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU211" s="33"/>
       <c r="BV211" s="33"/>
       <c r="BW211" s="33"/>
@@ -67894,8 +69074,12 @@
       <c r="BR212" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS212" s="33"/>
-      <c r="BT212" s="33"/>
+      <c r="BS212" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT212" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU212" s="33"/>
       <c r="BV212" s="33"/>
       <c r="BW212" s="33"/>
@@ -68114,8 +69298,12 @@
       <c r="BR213" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS213" s="33"/>
-      <c r="BT213" s="33"/>
+      <c r="BS213" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT213" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU213" s="33"/>
       <c r="BV213" s="33"/>
       <c r="BW213" s="33"/>
@@ -68334,8 +69522,12 @@
       <c r="BR214" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS214" s="33"/>
-      <c r="BT214" s="33"/>
+      <c r="BS214" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT214" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU214" s="33"/>
       <c r="BV214" s="33"/>
       <c r="BW214" s="33"/>
@@ -68554,8 +69746,12 @@
       <c r="BR215" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS215" s="33"/>
-      <c r="BT215" s="33"/>
+      <c r="BS215" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT215" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU215" s="33"/>
       <c r="BV215" s="33"/>
       <c r="BW215" s="33"/>
@@ -68774,8 +69970,12 @@
       <c r="BR216" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS216" s="33"/>
-      <c r="BT216" s="33"/>
+      <c r="BS216" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT216" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU216" s="33"/>
       <c r="BV216" s="33"/>
       <c r="BW216" s="33"/>
@@ -68994,8 +70194,12 @@
       <c r="BR217" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS217" s="33"/>
-      <c r="BT217" s="33"/>
+      <c r="BS217" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT217" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU217" s="33"/>
       <c r="BV217" s="33"/>
       <c r="BW217" s="33"/>
@@ -69214,8 +70418,12 @@
       <c r="BR218" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS218" s="33"/>
-      <c r="BT218" s="33"/>
+      <c r="BS218" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT218" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU218" s="33"/>
       <c r="BV218" s="33"/>
       <c r="BW218" s="33"/>
@@ -69434,8 +70642,12 @@
       <c r="BR219" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS219" s="33"/>
-      <c r="BT219" s="33"/>
+      <c r="BS219" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT219" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU219" s="33"/>
       <c r="BV219" s="33"/>
       <c r="BW219" s="33"/>
@@ -69654,8 +70866,12 @@
       <c r="BR220" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS220" s="33"/>
-      <c r="BT220" s="33"/>
+      <c r="BS220" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT220" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU220" s="33"/>
       <c r="BV220" s="33"/>
       <c r="BW220" s="33"/>
@@ -69874,8 +71090,12 @@
       <c r="BR221" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS221" s="33"/>
-      <c r="BT221" s="33"/>
+      <c r="BS221" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT221" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU221" s="33"/>
       <c r="BV221" s="33"/>
       <c r="BW221" s="33"/>
@@ -70094,8 +71314,12 @@
       <c r="BR222" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS222" s="33"/>
-      <c r="BT222" s="33"/>
+      <c r="BS222" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT222" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU222" s="33"/>
       <c r="BV222" s="33"/>
       <c r="BW222" s="33"/>
@@ -70314,8 +71538,12 @@
       <c r="BR223" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS223" s="33"/>
-      <c r="BT223" s="33"/>
+      <c r="BS223" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT223" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU223" s="33"/>
       <c r="BV223" s="33"/>
       <c r="BW223" s="33"/>
@@ -70534,8 +71762,12 @@
       <c r="BR224" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS224" s="33"/>
-      <c r="BT224" s="33"/>
+      <c r="BS224" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT224" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU224" s="33"/>
       <c r="BV224" s="33"/>
       <c r="BW224" s="33"/>
@@ -70754,8 +71986,12 @@
       <c r="BR225" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS225" s="33"/>
-      <c r="BT225" s="33"/>
+      <c r="BS225" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT225" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU225" s="33"/>
       <c r="BV225" s="33"/>
       <c r="BW225" s="33"/>
@@ -70974,8 +72210,12 @@
       <c r="BR226" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS226" s="33"/>
-      <c r="BT226" s="33"/>
+      <c r="BS226" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT226" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU226" s="33"/>
       <c r="BV226" s="33"/>
       <c r="BW226" s="33"/>
@@ -71194,8 +72434,12 @@
       <c r="BR227" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS227" s="33"/>
-      <c r="BT227" s="33"/>
+      <c r="BS227" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT227" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU227" s="33"/>
       <c r="BV227" s="33"/>
       <c r="BW227" s="33"/>
@@ -71414,8 +72658,12 @@
       <c r="BR228" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS228" s="33"/>
-      <c r="BT228" s="33"/>
+      <c r="BS228" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT228" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU228" s="33"/>
       <c r="BV228" s="33"/>
       <c r="BW228" s="33"/>
@@ -71634,8 +72882,12 @@
       <c r="BR229" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS229" s="33"/>
-      <c r="BT229" s="33"/>
+      <c r="BS229" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT229" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU229" s="33"/>
       <c r="BV229" s="33"/>
       <c r="BW229" s="33"/>
@@ -71854,8 +73106,12 @@
       <c r="BR230" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS230" s="33"/>
-      <c r="BT230" s="33"/>
+      <c r="BS230" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT230" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU230" s="33"/>
       <c r="BV230" s="33"/>
       <c r="BW230" s="33"/>
@@ -72074,8 +73330,12 @@
       <c r="BR231" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS231" s="33"/>
-      <c r="BT231" s="33"/>
+      <c r="BS231" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT231" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU231" s="33"/>
       <c r="BV231" s="33"/>
       <c r="BW231" s="33"/>
@@ -72294,8 +73554,12 @@
       <c r="BR232" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS232" s="33"/>
-      <c r="BT232" s="33"/>
+      <c r="BS232" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT232" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU232" s="33"/>
       <c r="BV232" s="33"/>
       <c r="BW232" s="33"/>
@@ -72514,8 +73778,12 @@
       <c r="BR233" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS233" s="33"/>
-      <c r="BT233" s="33"/>
+      <c r="BS233" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT233" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU233" s="33"/>
       <c r="BV233" s="33"/>
       <c r="BW233" s="33"/>
@@ -72734,8 +74002,12 @@
       <c r="BR234" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS234" s="33"/>
-      <c r="BT234" s="33"/>
+      <c r="BS234" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT234" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU234" s="33"/>
       <c r="BV234" s="33"/>
       <c r="BW234" s="33"/>
@@ -72954,8 +74226,12 @@
       <c r="BR235" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS235" s="33"/>
-      <c r="BT235" s="33"/>
+      <c r="BS235" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT235" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU235" s="33"/>
       <c r="BV235" s="33"/>
       <c r="BW235" s="33"/>
@@ -73174,8 +74450,12 @@
       <c r="BR236" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS236" s="33"/>
-      <c r="BT236" s="33"/>
+      <c r="BS236" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT236" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU236" s="33"/>
       <c r="BV236" s="33"/>
       <c r="BW236" s="33"/>
@@ -73394,8 +74674,12 @@
       <c r="BR237" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS237" s="33"/>
-      <c r="BT237" s="33"/>
+      <c r="BS237" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT237" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU237" s="33"/>
       <c r="BV237" s="33"/>
       <c r="BW237" s="33"/>
@@ -73614,8 +74898,12 @@
       <c r="BR238" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS238" s="33"/>
-      <c r="BT238" s="33"/>
+      <c r="BS238" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT238" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU238" s="33"/>
       <c r="BV238" s="33"/>
       <c r="BW238" s="33"/>
@@ -73834,8 +75122,12 @@
       <c r="BR239" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS239" s="33"/>
-      <c r="BT239" s="33"/>
+      <c r="BS239" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT239" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU239" s="33"/>
       <c r="BV239" s="33"/>
       <c r="BW239" s="33"/>
@@ -74054,8 +75346,12 @@
       <c r="BR240" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS240" s="33"/>
-      <c r="BT240" s="33"/>
+      <c r="BS240" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT240" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU240" s="33"/>
       <c r="BV240" s="33"/>
       <c r="BW240" s="33"/>
@@ -74274,8 +75570,12 @@
       <c r="BR241" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS241" s="33"/>
-      <c r="BT241" s="33"/>
+      <c r="BS241" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT241" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU241" s="33"/>
       <c r="BV241" s="33"/>
       <c r="BW241" s="33"/>
@@ -74494,8 +75794,12 @@
       <c r="BR242" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS242" s="33"/>
-      <c r="BT242" s="33"/>
+      <c r="BS242" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT242" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU242" s="33"/>
       <c r="BV242" s="33"/>
       <c r="BW242" s="33"/>
@@ -74714,8 +76018,12 @@
       <c r="BR243" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS243" s="33"/>
-      <c r="BT243" s="33"/>
+      <c r="BS243" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT243" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU243" s="33"/>
       <c r="BV243" s="33"/>
       <c r="BW243" s="33"/>
@@ -74934,8 +76242,12 @@
       <c r="BR244" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS244" s="33"/>
-      <c r="BT244" s="33"/>
+      <c r="BS244" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT244" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU244" s="33"/>
       <c r="BV244" s="33"/>
       <c r="BW244" s="33"/>
@@ -75154,8 +76466,12 @@
       <c r="BR245" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS245" s="33"/>
-      <c r="BT245" s="33"/>
+      <c r="BS245" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT245" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU245" s="33"/>
       <c r="BV245" s="33"/>
       <c r="BW245" s="33"/>
@@ -75374,8 +76690,12 @@
       <c r="BR246" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS246" s="33"/>
-      <c r="BT246" s="33"/>
+      <c r="BS246" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT246" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU246" s="33"/>
       <c r="BV246" s="33"/>
       <c r="BW246" s="33"/>
@@ -75594,8 +76914,12 @@
       <c r="BR247" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS247" s="33"/>
-      <c r="BT247" s="33"/>
+      <c r="BS247" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT247" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU247" s="33"/>
       <c r="BV247" s="33"/>
       <c r="BW247" s="33"/>
@@ -75814,8 +77138,12 @@
       <c r="BR248" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS248" s="33"/>
-      <c r="BT248" s="33"/>
+      <c r="BS248" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT248" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU248" s="33"/>
       <c r="BV248" s="33"/>
       <c r="BW248" s="33"/>
@@ -76034,8 +77362,12 @@
       <c r="BR249" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS249" s="33"/>
-      <c r="BT249" s="33"/>
+      <c r="BS249" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT249" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU249" s="33"/>
       <c r="BV249" s="33"/>
       <c r="BW249" s="33"/>
@@ -76254,8 +77586,12 @@
       <c r="BR250" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS250" s="33"/>
-      <c r="BT250" s="33"/>
+      <c r="BS250" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT250" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU250" s="33"/>
       <c r="BV250" s="33"/>
       <c r="BW250" s="33"/>
@@ -76474,8 +77810,12 @@
       <c r="BR251" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS251" s="33"/>
-      <c r="BT251" s="33"/>
+      <c r="BS251" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT251" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU251" s="33"/>
       <c r="BV251" s="33"/>
       <c r="BW251" s="33"/>
@@ -76694,8 +78034,12 @@
       <c r="BR252" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS252" s="33"/>
-      <c r="BT252" s="33"/>
+      <c r="BS252" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT252" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU252" s="33"/>
       <c r="BV252" s="33"/>
       <c r="BW252" s="33"/>
@@ -76914,8 +78258,12 @@
       <c r="BR253" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS253" s="33"/>
-      <c r="BT253" s="33"/>
+      <c r="BS253" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT253" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU253" s="33"/>
       <c r="BV253" s="33"/>
       <c r="BW253" s="33"/>
@@ -77134,8 +78482,12 @@
       <c r="BR254" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS254" s="33"/>
-      <c r="BT254" s="33"/>
+      <c r="BS254" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT254" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU254" s="33"/>
       <c r="BV254" s="33"/>
       <c r="BW254" s="33"/>
@@ -77354,8 +78706,12 @@
       <c r="BR255" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS255" s="33"/>
-      <c r="BT255" s="33"/>
+      <c r="BS255" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT255" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU255" s="33"/>
       <c r="BV255" s="33"/>
       <c r="BW255" s="33"/>
@@ -77574,8 +78930,12 @@
       <c r="BR256" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS256" s="33"/>
-      <c r="BT256" s="33"/>
+      <c r="BS256" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT256" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU256" s="33"/>
       <c r="BV256" s="33"/>
       <c r="BW256" s="33"/>
@@ -77794,8 +79154,12 @@
       <c r="BR257" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS257" s="33"/>
-      <c r="BT257" s="33"/>
+      <c r="BS257" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT257" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU257" s="33"/>
       <c r="BV257" s="33"/>
       <c r="BW257" s="33"/>
@@ -78014,8 +79378,12 @@
       <c r="BR258" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS258" s="33"/>
-      <c r="BT258" s="33"/>
+      <c r="BS258" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT258" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU258" s="33"/>
       <c r="BV258" s="33"/>
       <c r="BW258" s="33"/>
@@ -78234,8 +79602,12 @@
       <c r="BR259" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS259" s="33"/>
-      <c r="BT259" s="33"/>
+      <c r="BS259" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT259" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU259" s="33"/>
       <c r="BV259" s="33"/>
       <c r="BW259" s="33"/>
@@ -78454,8 +79826,12 @@
       <c r="BR260" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS260" s="33"/>
-      <c r="BT260" s="33"/>
+      <c r="BS260" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT260" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU260" s="33"/>
       <c r="BV260" s="33"/>
       <c r="BW260" s="33"/>
@@ -78674,8 +80050,12 @@
       <c r="BR261" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS261" s="33"/>
-      <c r="BT261" s="33"/>
+      <c r="BS261" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT261" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU261" s="33"/>
       <c r="BV261" s="33"/>
       <c r="BW261" s="33"/>
@@ -78894,8 +80274,12 @@
       <c r="BR262" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS262" s="33"/>
-      <c r="BT262" s="33"/>
+      <c r="BS262" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT262" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU262" s="33"/>
       <c r="BV262" s="33"/>
       <c r="BW262" s="33"/>
@@ -79114,8 +80498,12 @@
       <c r="BR263" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS263" s="33"/>
-      <c r="BT263" s="33"/>
+      <c r="BS263" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT263" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU263" s="33"/>
       <c r="BV263" s="33"/>
       <c r="BW263" s="33"/>
@@ -79334,8 +80722,12 @@
       <c r="BR264" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS264" s="33"/>
-      <c r="BT264" s="33"/>
+      <c r="BS264" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT264" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU264" s="33"/>
       <c r="BV264" s="33"/>
       <c r="BW264" s="33"/>
@@ -79554,8 +80946,12 @@
       <c r="BR265" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS265" s="33"/>
-      <c r="BT265" s="33"/>
+      <c r="BS265" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT265" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU265" s="33"/>
       <c r="BV265" s="33"/>
       <c r="BW265" s="33"/>
@@ -79774,8 +81170,12 @@
       <c r="BR266" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS266" s="33"/>
-      <c r="BT266" s="33"/>
+      <c r="BS266" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT266" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU266" s="33"/>
       <c r="BV266" s="33"/>
       <c r="BW266" s="33"/>
@@ -79994,8 +81394,12 @@
       <c r="BR267" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS267" s="33"/>
-      <c r="BT267" s="33"/>
+      <c r="BS267" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT267" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU267" s="33"/>
       <c r="BV267" s="33"/>
       <c r="BW267" s="33"/>
@@ -80214,8 +81618,12 @@
       <c r="BR268" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS268" s="33"/>
-      <c r="BT268" s="33"/>
+      <c r="BS268" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT268" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU268" s="33"/>
       <c r="BV268" s="33"/>
       <c r="BW268" s="33"/>
@@ -80434,8 +81842,12 @@
       <c r="BR269" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS269" s="33"/>
-      <c r="BT269" s="33"/>
+      <c r="BS269" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT269" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU269" s="33"/>
       <c r="BV269" s="33"/>
       <c r="BW269" s="33"/>
@@ -80654,8 +82066,12 @@
       <c r="BR270" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS270" s="33"/>
-      <c r="BT270" s="33"/>
+      <c r="BS270" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT270" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU270" s="33"/>
       <c r="BV270" s="33"/>
       <c r="BW270" s="33"/>
@@ -80874,8 +82290,12 @@
       <c r="BR271" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS271" s="33"/>
-      <c r="BT271" s="33"/>
+      <c r="BS271" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT271" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU271" s="33"/>
       <c r="BV271" s="33"/>
       <c r="BW271" s="33"/>
@@ -81094,8 +82514,12 @@
       <c r="BR272" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS272" s="33"/>
-      <c r="BT272" s="33"/>
+      <c r="BS272" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT272" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU272" s="33"/>
       <c r="BV272" s="33"/>
       <c r="BW272" s="33"/>
@@ -81314,8 +82738,12 @@
       <c r="BR273" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS273" s="33"/>
-      <c r="BT273" s="33"/>
+      <c r="BS273" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT273" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU273" s="33"/>
       <c r="BV273" s="33"/>
       <c r="BW273" s="33"/>
@@ -81534,8 +82962,12 @@
       <c r="BR274" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS274" s="33"/>
-      <c r="BT274" s="33"/>
+      <c r="BS274" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT274" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU274" s="33"/>
       <c r="BV274" s="33"/>
       <c r="BW274" s="33"/>
@@ -81754,8 +83186,12 @@
       <c r="BR275" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS275" s="33"/>
-      <c r="BT275" s="33"/>
+      <c r="BS275" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT275" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU275" s="33"/>
       <c r="BV275" s="33"/>
       <c r="BW275" s="33"/>
@@ -81974,8 +83410,12 @@
       <c r="BR276" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS276" s="33"/>
-      <c r="BT276" s="33"/>
+      <c r="BS276" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT276" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU276" s="33"/>
       <c r="BV276" s="33"/>
       <c r="BW276" s="33"/>
@@ -82194,8 +83634,12 @@
       <c r="BR277" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS277" s="33"/>
-      <c r="BT277" s="33"/>
+      <c r="BS277" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT277" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU277" s="33"/>
       <c r="BV277" s="33"/>
       <c r="BW277" s="33"/>
@@ -82414,8 +83858,12 @@
       <c r="BR278" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS278" s="33"/>
-      <c r="BT278" s="33"/>
+      <c r="BS278" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT278" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU278" s="33"/>
       <c r="BV278" s="33"/>
       <c r="BW278" s="33"/>
@@ -82634,8 +84082,12 @@
       <c r="BR279" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS279" s="33"/>
-      <c r="BT279" s="33"/>
+      <c r="BS279" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT279" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU279" s="33"/>
       <c r="BV279" s="33"/>
       <c r="BW279" s="33"/>
@@ -82854,8 +84306,12 @@
       <c r="BR280" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS280" s="33"/>
-      <c r="BT280" s="33"/>
+      <c r="BS280" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT280" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU280" s="33"/>
       <c r="BV280" s="33"/>
       <c r="BW280" s="33"/>
@@ -83074,8 +84530,12 @@
       <c r="BR281" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS281" s="33"/>
-      <c r="BT281" s="33"/>
+      <c r="BS281" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT281" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU281" s="33"/>
       <c r="BV281" s="33"/>
       <c r="BW281" s="33"/>
@@ -83294,8 +84754,12 @@
       <c r="BR282" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS282" s="33"/>
-      <c r="BT282" s="33"/>
+      <c r="BS282" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT282" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU282" s="33"/>
       <c r="BV282" s="33"/>
       <c r="BW282" s="33"/>
@@ -83514,8 +84978,12 @@
       <c r="BR283" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS283" s="33"/>
-      <c r="BT283" s="33"/>
+      <c r="BS283" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT283" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU283" s="33"/>
       <c r="BV283" s="33"/>
       <c r="BW283" s="33"/>
@@ -83734,8 +85202,12 @@
       <c r="BR284" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS284" s="33"/>
-      <c r="BT284" s="33"/>
+      <c r="BS284" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT284" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU284" s="33"/>
       <c r="BV284" s="33"/>
       <c r="BW284" s="33"/>
@@ -83954,8 +85426,12 @@
       <c r="BR285" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS285" s="33"/>
-      <c r="BT285" s="33"/>
+      <c r="BS285" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT285" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU285" s="33"/>
       <c r="BV285" s="33"/>
       <c r="BW285" s="33"/>
@@ -84174,8 +85650,12 @@
       <c r="BR286" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS286" s="33"/>
-      <c r="BT286" s="33"/>
+      <c r="BS286" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT286" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU286" s="33"/>
       <c r="BV286" s="33"/>
       <c r="BW286" s="33"/>
@@ -84394,8 +85874,12 @@
       <c r="BR287" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS287" s="33"/>
-      <c r="BT287" s="33"/>
+      <c r="BS287" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT287" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU287" s="33"/>
       <c r="BV287" s="33"/>
       <c r="BW287" s="33"/>
@@ -84614,8 +86098,12 @@
       <c r="BR288" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS288" s="33"/>
-      <c r="BT288" s="33"/>
+      <c r="BS288" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT288" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU288" s="33"/>
       <c r="BV288" s="33"/>
       <c r="BW288" s="33"/>
@@ -84834,8 +86322,12 @@
       <c r="BR289" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS289" s="33"/>
-      <c r="BT289" s="33"/>
+      <c r="BS289" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT289" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU289" s="33"/>
       <c r="BV289" s="33"/>
       <c r="BW289" s="33"/>
@@ -85054,8 +86546,12 @@
       <c r="BR290" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS290" s="33"/>
-      <c r="BT290" s="33"/>
+      <c r="BS290" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT290" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU290" s="33"/>
       <c r="BV290" s="33"/>
       <c r="BW290" s="33"/>
@@ -85274,8 +86770,12 @@
       <c r="BR291" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS291" s="33"/>
-      <c r="BT291" s="33"/>
+      <c r="BS291" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT291" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU291" s="33"/>
       <c r="BV291" s="33"/>
       <c r="BW291" s="33"/>
@@ -85494,8 +86994,12 @@
       <c r="BR292" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS292" s="33"/>
-      <c r="BT292" s="33"/>
+      <c r="BS292" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT292" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU292" s="33"/>
       <c r="BV292" s="33"/>
       <c r="BW292" s="33"/>
@@ -85714,8 +87218,12 @@
       <c r="BR293" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS293" s="33"/>
-      <c r="BT293" s="33"/>
+      <c r="BS293" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT293" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU293" s="33"/>
       <c r="BV293" s="33"/>
       <c r="BW293" s="33"/>
@@ -85934,8 +87442,12 @@
       <c r="BR294" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS294" s="33"/>
-      <c r="BT294" s="33"/>
+      <c r="BS294" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT294" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU294" s="33"/>
       <c r="BV294" s="33"/>
       <c r="BW294" s="33"/>
@@ -86154,8 +87666,12 @@
       <c r="BR295" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS295" s="33"/>
-      <c r="BT295" s="33"/>
+      <c r="BS295" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT295" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU295" s="33"/>
       <c r="BV295" s="33"/>
       <c r="BW295" s="33"/>
@@ -86374,8 +87890,12 @@
       <c r="BR296" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS296" s="33"/>
-      <c r="BT296" s="33"/>
+      <c r="BS296" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT296" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU296" s="33"/>
       <c r="BV296" s="33"/>
       <c r="BW296" s="33"/>
@@ -86594,8 +88114,12 @@
       <c r="BR297" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS297" s="33"/>
-      <c r="BT297" s="33"/>
+      <c r="BS297" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT297" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU297" s="33"/>
       <c r="BV297" s="33"/>
       <c r="BW297" s="33"/>
@@ -86814,8 +88338,12 @@
       <c r="BR298" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS298" s="33"/>
-      <c r="BT298" s="33"/>
+      <c r="BS298" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT298" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU298" s="33"/>
       <c r="BV298" s="33"/>
       <c r="BW298" s="33"/>
@@ -87034,8 +88562,12 @@
       <c r="BR299" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS299" s="33"/>
-      <c r="BT299" s="33"/>
+      <c r="BS299" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT299" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU299" s="33"/>
       <c r="BV299" s="33"/>
       <c r="BW299" s="33"/>
@@ -87254,8 +88786,12 @@
       <c r="BR300" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS300" s="33"/>
-      <c r="BT300" s="33"/>
+      <c r="BS300" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT300" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU300" s="33"/>
       <c r="BV300" s="33"/>
       <c r="BW300" s="33"/>
@@ -87474,8 +89010,12 @@
       <c r="BR301" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS301" s="33"/>
-      <c r="BT301" s="33"/>
+      <c r="BS301" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT301" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU301" s="33"/>
       <c r="BV301" s="33"/>
       <c r="BW301" s="33"/>
@@ -87694,8 +89234,12 @@
       <c r="BR302" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS302" s="33"/>
-      <c r="BT302" s="33"/>
+      <c r="BS302" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT302" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU302" s="33"/>
       <c r="BV302" s="33"/>
       <c r="BW302" s="33"/>
@@ -87914,8 +89458,12 @@
       <c r="BR303" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS303" s="33"/>
-      <c r="BT303" s="33"/>
+      <c r="BS303" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT303" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU303" s="33"/>
       <c r="BV303" s="33"/>
       <c r="BW303" s="33"/>
@@ -88134,8 +89682,12 @@
       <c r="BR304" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS304" s="33"/>
-      <c r="BT304" s="33"/>
+      <c r="BS304" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT304" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU304" s="33"/>
       <c r="BV304" s="33"/>
       <c r="BW304" s="33"/>
@@ -88354,8 +89906,12 @@
       <c r="BR305" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS305" s="33"/>
-      <c r="BT305" s="33"/>
+      <c r="BS305" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT305" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU305" s="33"/>
       <c r="BV305" s="33"/>
       <c r="BW305" s="33"/>
@@ -88574,8 +90130,12 @@
       <c r="BR306" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS306" s="33"/>
-      <c r="BT306" s="33"/>
+      <c r="BS306" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT306" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU306" s="33"/>
       <c r="BV306" s="33"/>
       <c r="BW306" s="33"/>
@@ -88794,8 +90354,12 @@
       <c r="BR307" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS307" s="33"/>
-      <c r="BT307" s="33"/>
+      <c r="BS307" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT307" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU307" s="33"/>
       <c r="BV307" s="33"/>
       <c r="BW307" s="33"/>
@@ -89014,8 +90578,12 @@
       <c r="BR308" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS308" s="33"/>
-      <c r="BT308" s="33"/>
+      <c r="BS308" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT308" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU308" s="33"/>
       <c r="BV308" s="33"/>
       <c r="BW308" s="33"/>
@@ -89234,8 +90802,12 @@
       <c r="BR309" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS309" s="33"/>
-      <c r="BT309" s="33"/>
+      <c r="BS309" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT309" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU309" s="33"/>
       <c r="BV309" s="33"/>
       <c r="BW309" s="33"/>
@@ -89454,8 +91026,12 @@
       <c r="BR310" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS310" s="33"/>
-      <c r="BT310" s="33"/>
+      <c r="BS310" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT310" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU310" s="33"/>
       <c r="BV310" s="33"/>
       <c r="BW310" s="33"/>
@@ -89674,8 +91250,12 @@
       <c r="BR311" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS311" s="33"/>
-      <c r="BT311" s="33"/>
+      <c r="BS311" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT311" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU311" s="33"/>
       <c r="BV311" s="33"/>
       <c r="BW311" s="33"/>
@@ -89894,8 +91474,12 @@
       <c r="BR312" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS312" s="33"/>
-      <c r="BT312" s="33"/>
+      <c r="BS312" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT312" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU312" s="33"/>
       <c r="BV312" s="33"/>
       <c r="BW312" s="33"/>
@@ -90114,8 +91698,12 @@
       <c r="BR313" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS313" s="33"/>
-      <c r="BT313" s="33"/>
+      <c r="BS313" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT313" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU313" s="33"/>
       <c r="BV313" s="33"/>
       <c r="BW313" s="33"/>
@@ -90334,8 +91922,12 @@
       <c r="BR314" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS314" s="33"/>
-      <c r="BT314" s="33"/>
+      <c r="BS314" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT314" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU314" s="33"/>
       <c r="BV314" s="33"/>
       <c r="BW314" s="33"/>
@@ -90554,8 +92146,12 @@
       <c r="BR315" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS315" s="33"/>
-      <c r="BT315" s="33"/>
+      <c r="BS315" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT315" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU315" s="33"/>
       <c r="BV315" s="33"/>
       <c r="BW315" s="33"/>
@@ -90774,8 +92370,12 @@
       <c r="BR316" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS316" s="33"/>
-      <c r="BT316" s="33"/>
+      <c r="BS316" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT316" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU316" s="33"/>
       <c r="BV316" s="33"/>
       <c r="BW316" s="33"/>
@@ -90994,8 +92594,12 @@
       <c r="BR317" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS317" s="33"/>
-      <c r="BT317" s="33"/>
+      <c r="BS317" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT317" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU317" s="33"/>
       <c r="BV317" s="33"/>
       <c r="BW317" s="33"/>
@@ -91214,8 +92818,12 @@
       <c r="BR318" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS318" s="33"/>
-      <c r="BT318" s="33"/>
+      <c r="BS318" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT318" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU318" s="33"/>
       <c r="BV318" s="33"/>
       <c r="BW318" s="33"/>
@@ -91434,8 +93042,12 @@
       <c r="BR319" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS319" s="33"/>
-      <c r="BT319" s="33"/>
+      <c r="BS319" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT319" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU319" s="33"/>
       <c r="BV319" s="33"/>
       <c r="BW319" s="33"/>
@@ -91654,8 +93266,12 @@
       <c r="BR320" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS320" s="33"/>
-      <c r="BT320" s="33"/>
+      <c r="BS320" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT320" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU320" s="33"/>
       <c r="BV320" s="33"/>
       <c r="BW320" s="33"/>
@@ -91874,8 +93490,12 @@
       <c r="BR321" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS321" s="33"/>
-      <c r="BT321" s="33"/>
+      <c r="BS321" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT321" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU321" s="33"/>
       <c r="BV321" s="33"/>
       <c r="BW321" s="33"/>
@@ -92094,8 +93714,12 @@
       <c r="BR322" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS322" s="33"/>
-      <c r="BT322" s="33"/>
+      <c r="BS322" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT322" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU322" s="33"/>
       <c r="BV322" s="33"/>
       <c r="BW322" s="33"/>
@@ -92314,8 +93938,12 @@
       <c r="BR323" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS323" s="33"/>
-      <c r="BT323" s="33"/>
+      <c r="BS323" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT323" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU323" s="33"/>
       <c r="BV323" s="33"/>
       <c r="BW323" s="33"/>
@@ -92534,8 +94162,12 @@
       <c r="BR324" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS324" s="33"/>
-      <c r="BT324" s="33"/>
+      <c r="BS324" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT324" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU324" s="33"/>
       <c r="BV324" s="33"/>
       <c r="BW324" s="33"/>
@@ -92754,8 +94386,12 @@
       <c r="BR325" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS325" s="33"/>
-      <c r="BT325" s="33"/>
+      <c r="BS325" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT325" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU325" s="33"/>
       <c r="BV325" s="33"/>
       <c r="BW325" s="33"/>
@@ -92974,8 +94610,12 @@
       <c r="BR326" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS326" s="33"/>
-      <c r="BT326" s="33"/>
+      <c r="BS326" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT326" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU326" s="33"/>
       <c r="BV326" s="33"/>
       <c r="BW326" s="33"/>
@@ -93194,8 +94834,12 @@
       <c r="BR327" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS327" s="33"/>
-      <c r="BT327" s="33"/>
+      <c r="BS327" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT327" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU327" s="33"/>
       <c r="BV327" s="33"/>
       <c r="BW327" s="33"/>
@@ -93414,8 +95058,12 @@
       <c r="BR328" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS328" s="33"/>
-      <c r="BT328" s="33"/>
+      <c r="BS328" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT328" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU328" s="33"/>
       <c r="BV328" s="33"/>
       <c r="BW328" s="33"/>
@@ -93634,8 +95282,12 @@
       <c r="BR329" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS329" s="33"/>
-      <c r="BT329" s="33"/>
+      <c r="BS329" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT329" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU329" s="33"/>
       <c r="BV329" s="33"/>
       <c r="BW329" s="33"/>
@@ -93854,8 +95506,12 @@
       <c r="BR330" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS330" s="33"/>
-      <c r="BT330" s="33"/>
+      <c r="BS330" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT330" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU330" s="33"/>
       <c r="BV330" s="33"/>
       <c r="BW330" s="33"/>
@@ -94074,8 +95730,12 @@
       <c r="BR331" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS331" s="33"/>
-      <c r="BT331" s="33"/>
+      <c r="BS331" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT331" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU331" s="33"/>
       <c r="BV331" s="33"/>
       <c r="BW331" s="33"/>
@@ -94294,8 +95954,12 @@
       <c r="BR332" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS332" s="33"/>
-      <c r="BT332" s="33"/>
+      <c r="BS332" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT332" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU332" s="33"/>
       <c r="BV332" s="33"/>
       <c r="BW332" s="33"/>
@@ -94514,8 +96178,12 @@
       <c r="BR333" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS333" s="33"/>
-      <c r="BT333" s="33"/>
+      <c r="BS333" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT333" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU333" s="33"/>
       <c r="BV333" s="33"/>
       <c r="BW333" s="33"/>
@@ -94734,8 +96402,12 @@
       <c r="BR334" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS334" s="33"/>
-      <c r="BT334" s="33"/>
+      <c r="BS334" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT334" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU334" s="33"/>
       <c r="BV334" s="33"/>
       <c r="BW334" s="33"/>
@@ -94954,8 +96626,12 @@
       <c r="BR335" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS335" s="33"/>
-      <c r="BT335" s="33"/>
+      <c r="BS335" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT335" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU335" s="33"/>
       <c r="BV335" s="33"/>
       <c r="BW335" s="33"/>
@@ -95174,8 +96850,12 @@
       <c r="BR336" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS336" s="33"/>
-      <c r="BT336" s="33"/>
+      <c r="BS336" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT336" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU336" s="33"/>
       <c r="BV336" s="33"/>
       <c r="BW336" s="33"/>
@@ -95394,8 +97074,12 @@
       <c r="BR337" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS337" s="33"/>
-      <c r="BT337" s="33"/>
+      <c r="BS337" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT337" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU337" s="33"/>
       <c r="BV337" s="33"/>
       <c r="BW337" s="33"/>
@@ -95614,8 +97298,12 @@
       <c r="BR338" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS338" s="33"/>
-      <c r="BT338" s="33"/>
+      <c r="BS338" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT338" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU338" s="33"/>
       <c r="BV338" s="33"/>
       <c r="BW338" s="33"/>
@@ -95834,8 +97522,12 @@
       <c r="BR339" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS339" s="33"/>
-      <c r="BT339" s="33"/>
+      <c r="BS339" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT339" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU339" s="33"/>
       <c r="BV339" s="33"/>
       <c r="BW339" s="33"/>
@@ -96054,8 +97746,12 @@
       <c r="BR340" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS340" s="33"/>
-      <c r="BT340" s="33"/>
+      <c r="BS340" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT340" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU340" s="33"/>
       <c r="BV340" s="33"/>
       <c r="BW340" s="33"/>
@@ -96274,8 +97970,12 @@
       <c r="BR341" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS341" s="33"/>
-      <c r="BT341" s="33"/>
+      <c r="BS341" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT341" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU341" s="33"/>
       <c r="BV341" s="33"/>
       <c r="BW341" s="33"/>
@@ -96494,8 +98194,12 @@
       <c r="BR342" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BS342" s="33"/>
-      <c r="BT342" s="33"/>
+      <c r="BS342" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT342" s="33" t="s">
+        <v>454</v>
+      </c>
       <c r="BU342" s="33"/>
       <c r="BV342" s="33"/>
       <c r="BW342" s="33"/>
@@ -96714,6 +98418,12 @@
       <c r="BR343" s="33" t="s">
         <v>454</v>
       </c>
+      <c r="BS343" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT343" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="344" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -96926,6 +98636,12 @@
       <c r="BR344" s="33" t="s">
         <v>454</v>
       </c>
+      <c r="BS344" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT344" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="345" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -97138,6 +98854,12 @@
       <c r="BR345" s="33" t="s">
         <v>454</v>
       </c>
+      <c r="BS345" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT345" s="33" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="346" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -97348,6 +99070,12 @@
         <v>454</v>
       </c>
       <c r="BR346" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS346" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT346" s="33" t="s">
         <v>454</v>
       </c>
     </row>
